--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23630,15 +23630,15 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
     <col min="2" max="81" width="9.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="87" width="9.08984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="11"/>
+    <col min="82" max="88" width="10.6328125" style="32" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23651,6 +23651,7 @@
       <c r="CG1" s="21"/>
       <c r="CH1" s="21"/>
       <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23662,6 +23663,7 @@
       <c r="CG2" s="21"/>
       <c r="CH2" s="21"/>
       <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -23673,6 +23675,7 @@
       <c r="CG3" s="21"/>
       <c r="CH3" s="21"/>
       <c r="CI3" s="21"/>
+      <c r="CJ3" s="21"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -23682,6 +23685,7 @@
       <c r="CG4" s="21"/>
       <c r="CH4" s="21"/>
       <c r="CI4" s="21"/>
+      <c r="CJ4" s="21"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23693,6 +23697,7 @@
       <c r="CG5" s="21"/>
       <c r="CH5" s="21"/>
       <c r="CI5" s="21"/>
+      <c r="CJ5" s="21"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -23704,6 +23709,7 @@
       <c r="CG6" s="21"/>
       <c r="CH6" s="21"/>
       <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23715,6 +23721,7 @@
       <c r="CG7" s="21"/>
       <c r="CH7" s="21"/>
       <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -23804,6 +23811,7 @@
       <c r="CG8" s="22"/>
       <c r="CH8" s="22"/>
       <c r="CI8" s="22"/>
+      <c r="CJ8" s="22"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -23937,6 +23945,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24199,6 +24208,9 @@
       </c>
       <c r="CI10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24289,6 +24301,7 @@
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
       <c r="CI11" s="22"/>
+      <c r="CJ11" s="22"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -24550,9 +24563,11 @@
         <v>31961.652055161998</v>
       </c>
       <c r="CI12" s="24">
-        <v>16292.250181037929</v>
-      </c>
-      <c r="CJ12" s="10"/>
+        <v>17908.230960060915</v>
+      </c>
+      <c r="CJ12" s="24">
+        <v>24658.251943634252</v>
+      </c>
       <c r="CK12" s="10"/>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
@@ -24881,9 +24896,11 @@
         <v>52025.742658633266</v>
       </c>
       <c r="CI13" s="24">
-        <v>66513.192618748872</v>
-      </c>
-      <c r="CJ13" s="10"/>
+        <v>65695.527833900342</v>
+      </c>
+      <c r="CJ13" s="24">
+        <v>67068.843338579332</v>
+      </c>
       <c r="CK13" s="10"/>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
@@ -25212,9 +25229,11 @@
         <v>6047.4143139134103</v>
       </c>
       <c r="CI14" s="24">
-        <v>3823.9245133110244</v>
-      </c>
-      <c r="CJ14" s="10"/>
+        <v>3800.9202808808195</v>
+      </c>
+      <c r="CJ14" s="24">
+        <v>6731.0138850083504</v>
+      </c>
       <c r="CK14" s="10"/>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
@@ -25370,7 +25389,7 @@
       <c r="CG15" s="25"/>
       <c r="CH15" s="25"/>
       <c r="CI15" s="25"/>
-      <c r="CJ15" s="10"/>
+      <c r="CJ15" s="25"/>
       <c r="CK15" s="10"/>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
@@ -25699,9 +25718,11 @@
         <v>90034.809027708674</v>
       </c>
       <c r="CI16" s="26">
-        <v>86629.367313097828</v>
-      </c>
-      <c r="CJ16" s="10"/>
+        <v>87404.679074842075</v>
+      </c>
+      <c r="CJ16" s="26">
+        <v>98458.109167221934</v>
+      </c>
       <c r="CK16" s="10"/>
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
@@ -25858,6 +25879,7 @@
       <c r="CG17" s="27"/>
       <c r="CH17" s="27"/>
       <c r="CI17" s="27"/>
+      <c r="CJ17" s="27"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -25949,6 +25971,7 @@
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
+      <c r="CJ18" s="22"/>
     </row>
     <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
@@ -26037,7 +26060,7 @@
       <c r="CG19" s="25"/>
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
-      <c r="CJ19" s="10"/>
+      <c r="CJ19" s="25"/>
       <c r="CK19" s="10"/>
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
@@ -26193,7 +26216,7 @@
       <c r="CG20" s="25"/>
       <c r="CH20" s="25"/>
       <c r="CI20" s="25"/>
-      <c r="CJ20" s="10"/>
+      <c r="CJ20" s="25"/>
       <c r="CK20" s="10"/>
       <c r="CL20" s="10"/>
       <c r="CM20" s="10"/>
@@ -26352,6 +26375,7 @@
       <c r="CG21" s="22"/>
       <c r="CH21" s="22"/>
       <c r="CI21" s="22"/>
+      <c r="CJ21" s="22"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -26443,6 +26467,7 @@
       <c r="CG22" s="22"/>
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
+      <c r="CJ22" s="22"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -26534,6 +26559,7 @@
       <c r="CG23" s="22"/>
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
+      <c r="CJ23" s="22"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -26623,6 +26649,7 @@
       <c r="CG24" s="22"/>
       <c r="CH24" s="22"/>
       <c r="CI24" s="22"/>
+      <c r="CJ24" s="22"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -26714,6 +26741,7 @@
       <c r="CG25" s="22"/>
       <c r="CH25" s="22"/>
       <c r="CI25" s="22"/>
+      <c r="CJ25" s="22"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -26805,6 +26833,7 @@
       <c r="CG26" s="22"/>
       <c r="CH26" s="22"/>
       <c r="CI26" s="22"/>
+      <c r="CJ26" s="22"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -26896,6 +26925,7 @@
       <c r="CG27" s="22"/>
       <c r="CH27" s="22"/>
       <c r="CI27" s="22"/>
+      <c r="CJ27" s="22"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -26985,6 +27015,7 @@
       <c r="CG28" s="22"/>
       <c r="CH28" s="22"/>
       <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -27120,6 +27151,7 @@
       <c r="CI29" s="34">
         <v>0</v>
       </c>
+      <c r="CJ29" s="34"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -27382,6 +27414,9 @@
       </c>
       <c r="CI30" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ30" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27472,6 +27507,7 @@
       <c r="CG31" s="22"/>
       <c r="CH31" s="22"/>
       <c r="CI31" s="22"/>
+      <c r="CJ31" s="22"/>
     </row>
     <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -27733,9 +27769,11 @@
         <v>31342.613592339207</v>
       </c>
       <c r="CI32" s="24">
-        <v>16411.262340071986</v>
-      </c>
-      <c r="CJ32" s="10"/>
+        <v>18116.480683961348</v>
+      </c>
+      <c r="CJ32" s="24">
+        <v>23727.024893167432</v>
+      </c>
       <c r="CK32" s="10"/>
       <c r="CL32" s="10"/>
       <c r="CM32" s="10"/>
@@ -28064,9 +28102,11 @@
         <v>53974.14915553898</v>
       </c>
       <c r="CI33" s="24">
-        <v>62465.765164386452</v>
-      </c>
-      <c r="CJ33" s="10"/>
+        <v>61769.262229764616</v>
+      </c>
+      <c r="CJ33" s="24">
+        <v>57949.49201590856</v>
+      </c>
       <c r="CK33" s="10"/>
       <c r="CL33" s="10"/>
       <c r="CM33" s="10"/>
@@ -28397,7 +28437,9 @@
       <c r="CI34" s="24">
         <v>3523.5567830579785</v>
       </c>
-      <c r="CJ34" s="10"/>
+      <c r="CJ34" s="24">
+        <v>5923.7323787201822</v>
+      </c>
       <c r="CK34" s="10"/>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
@@ -28553,7 +28595,7 @@
       <c r="CG35" s="25"/>
       <c r="CH35" s="25"/>
       <c r="CI35" s="25"/>
-      <c r="CJ35" s="10"/>
+      <c r="CJ35" s="25"/>
       <c r="CK35" s="10"/>
       <c r="CL35" s="10"/>
       <c r="CM35" s="10"/>
@@ -28882,9 +28924,11 @@
         <v>91325.673304749507</v>
       </c>
       <c r="CI36" s="26">
-        <v>82400.584287516424</v>
-      </c>
-      <c r="CJ36" s="10"/>
+        <v>83409.299696783943</v>
+      </c>
+      <c r="CJ36" s="26">
+        <v>87600.249287796178</v>
+      </c>
       <c r="CK36" s="10"/>
       <c r="CL36" s="10"/>
       <c r="CM36" s="10"/>
@@ -29041,6 +29085,7 @@
       <c r="CG37" s="27"/>
       <c r="CH37" s="27"/>
       <c r="CI37" s="27"/>
+      <c r="CJ37" s="27"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
@@ -29132,6 +29177,7 @@
       <c r="CG38" s="22"/>
       <c r="CH38" s="22"/>
       <c r="CI38" s="22"/>
+      <c r="CJ38" s="22"/>
     </row>
     <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
@@ -29220,7 +29266,7 @@
       <c r="CG39" s="25"/>
       <c r="CH39" s="25"/>
       <c r="CI39" s="25"/>
-      <c r="CJ39" s="10"/>
+      <c r="CJ39" s="25"/>
       <c r="CK39" s="10"/>
       <c r="CL39" s="10"/>
       <c r="CM39" s="10"/>
@@ -29376,7 +29422,7 @@
       <c r="CG40" s="25"/>
       <c r="CH40" s="25"/>
       <c r="CI40" s="25"/>
-      <c r="CJ40" s="10"/>
+      <c r="CJ40" s="25"/>
       <c r="CK40" s="10"/>
       <c r="CL40" s="10"/>
       <c r="CM40" s="10"/>
@@ -29535,6 +29581,7 @@
       <c r="CG41" s="22"/>
       <c r="CH41" s="22"/>
       <c r="CI41" s="22"/>
+      <c r="CJ41" s="22"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -29626,6 +29673,7 @@
       <c r="CG42" s="22"/>
       <c r="CH42" s="22"/>
       <c r="CI42" s="22"/>
+      <c r="CJ42" s="22"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -29717,6 +29765,7 @@
       <c r="CG43" s="22"/>
       <c r="CH43" s="22"/>
       <c r="CI43" s="22"/>
+      <c r="CJ43" s="22"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -29806,6 +29855,7 @@
       <c r="CG44" s="22"/>
       <c r="CH44" s="22"/>
       <c r="CI44" s="22"/>
+      <c r="CJ44" s="22"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -29897,6 +29947,7 @@
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
+      <c r="CJ45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -29988,6 +30039,7 @@
       <c r="CG46" s="22"/>
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
+      <c r="CJ46" s="22"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -30079,6 +30131,7 @@
       <c r="CG47" s="22"/>
       <c r="CH47" s="22"/>
       <c r="CI47" s="22"/>
+      <c r="CJ47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -30168,6 +30221,7 @@
       <c r="CG48" s="22"/>
       <c r="CH48" s="22"/>
       <c r="CI48" s="22"/>
+      <c r="CJ48" s="22"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -30301,6 +30355,7 @@
       <c r="CG49" s="28"/>
       <c r="CH49" s="28"/>
       <c r="CI49" s="28"/>
+      <c r="CJ49" s="28"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -30552,10 +30607,13 @@
       <c r="CE50" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="29"/>
+      <c r="CF50" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="CG50" s="29"/>
       <c r="CH50" s="29"/>
       <c r="CI50" s="29"/>
+      <c r="CJ50" s="29"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -30645,6 +30703,7 @@
       <c r="CG51" s="22"/>
       <c r="CH51" s="22"/>
       <c r="CI51" s="22"/>
+      <c r="CJ51" s="22"/>
     </row>
     <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -30894,13 +30953,15 @@
         <v>58.234270254513234</v>
       </c>
       <c r="CE52" s="31">
-        <v>-34.334404736197001</v>
-      </c>
-      <c r="CF52" s="25"/>
+        <v>-27.821225856037657</v>
+      </c>
+      <c r="CF52" s="31">
+        <v>14.985257426056492</v>
+      </c>
       <c r="CG52" s="25"/>
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
-      <c r="CJ52" s="10"/>
+      <c r="CJ52" s="25"/>
       <c r="CK52" s="10"/>
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
@@ -31213,13 +31274,15 @@
         <v>1.3641969075135876</v>
       </c>
       <c r="CE53" s="31">
-        <v>53.391550966674515</v>
-      </c>
-      <c r="CF53" s="25"/>
+        <v>51.505866870322848</v>
+      </c>
+      <c r="CF53" s="31">
+        <v>24.460768279450448</v>
+      </c>
       <c r="CG53" s="25"/>
       <c r="CH53" s="25"/>
       <c r="CI53" s="25"/>
-      <c r="CJ53" s="10"/>
+      <c r="CJ53" s="25"/>
       <c r="CK53" s="10"/>
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
@@ -31532,13 +31595,15 @@
         <v>41.53038664011882</v>
       </c>
       <c r="CE54" s="31">
-        <v>-42.542881575395043</v>
-      </c>
-      <c r="CF54" s="25"/>
+        <v>-42.888536125428232</v>
+      </c>
+      <c r="CF54" s="31">
+        <v>23.744622174033807</v>
+      </c>
       <c r="CG54" s="25"/>
       <c r="CH54" s="25"/>
       <c r="CI54" s="25"/>
-      <c r="CJ54" s="10"/>
+      <c r="CJ54" s="25"/>
       <c r="CK54" s="10"/>
       <c r="CL54" s="10"/>
       <c r="CM54" s="10"/>
@@ -31690,7 +31755,7 @@
       <c r="CG55" s="25"/>
       <c r="CH55" s="25"/>
       <c r="CI55" s="25"/>
-      <c r="CJ55" s="10"/>
+      <c r="CJ55" s="25"/>
       <c r="CK55" s="10"/>
       <c r="CL55" s="10"/>
       <c r="CM55" s="10"/>
@@ -32003,13 +32068,15 @@
         <v>18.783539250177327</v>
       </c>
       <c r="CE56" s="31">
-        <v>15.771463989324147</v>
-      </c>
-      <c r="CF56" s="25"/>
+        <v>16.807590426457921</v>
+      </c>
+      <c r="CF56" s="31">
+        <v>21.89681295386967</v>
+      </c>
       <c r="CG56" s="25"/>
       <c r="CH56" s="25"/>
       <c r="CI56" s="25"/>
-      <c r="CJ56" s="10"/>
+      <c r="CJ56" s="25"/>
       <c r="CK56" s="10"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
@@ -32162,6 +32229,7 @@
       <c r="CG57" s="27"/>
       <c r="CH57" s="27"/>
       <c r="CI57" s="27"/>
+      <c r="CJ57" s="27"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
@@ -32253,6 +32321,7 @@
       <c r="CG58" s="22"/>
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
+      <c r="CJ58" s="22"/>
     </row>
     <row r="59" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
@@ -32341,7 +32410,7 @@
       <c r="CG59" s="25"/>
       <c r="CH59" s="25"/>
       <c r="CI59" s="25"/>
-      <c r="CJ59" s="10"/>
+      <c r="CJ59" s="25"/>
       <c r="CK59" s="10"/>
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
@@ -32493,7 +32562,7 @@
       <c r="CG60" s="25"/>
       <c r="CH60" s="25"/>
       <c r="CI60" s="25"/>
-      <c r="CJ60" s="10"/>
+      <c r="CJ60" s="25"/>
       <c r="CK60" s="10"/>
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
@@ -32648,6 +32717,7 @@
       <c r="CG61" s="22"/>
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
+      <c r="CJ61" s="22"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -32739,6 +32809,7 @@
       <c r="CG62" s="22"/>
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
+      <c r="CJ62" s="22"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -32830,6 +32901,7 @@
       <c r="CG63" s="22"/>
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
+      <c r="CJ63" s="22"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -32919,6 +32991,7 @@
       <c r="CG64" s="22"/>
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
+      <c r="CJ64" s="22"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -33010,6 +33083,7 @@
       <c r="CG65" s="22"/>
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
+      <c r="CJ65" s="22"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -33101,6 +33175,7 @@
       <c r="CG66" s="22"/>
       <c r="CH66" s="22"/>
       <c r="CI66" s="22"/>
+      <c r="CJ66" s="22"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -33192,6 +33267,7 @@
       <c r="CG67" s="22"/>
       <c r="CH67" s="22"/>
       <c r="CI67" s="22"/>
+      <c r="CJ67" s="22"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
@@ -33281,6 +33357,7 @@
       <c r="CG68" s="22"/>
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
+      <c r="CJ68" s="22"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -33410,10 +33487,11 @@
       <c r="CE69" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CF69" s="28"/>
+      <c r="CF69" s="34"/>
       <c r="CG69" s="28"/>
       <c r="CH69" s="28"/>
       <c r="CI69" s="28"/>
+      <c r="CJ69" s="28"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -33665,10 +33743,13 @@
       <c r="CE70" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="29"/>
+      <c r="CF70" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="CG70" s="29"/>
       <c r="CH70" s="29"/>
       <c r="CI70" s="29"/>
+      <c r="CJ70" s="29"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -33758,6 +33839,7 @@
       <c r="CG71" s="22"/>
       <c r="CH71" s="22"/>
       <c r="CI71" s="22"/>
+      <c r="CJ71" s="22"/>
     </row>
     <row r="72" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -34007,13 +34089,15 @@
         <v>47.991928552940294</v>
       </c>
       <c r="CE72" s="31">
-        <v>-34.830449291265026</v>
-      </c>
-      <c r="CF72" s="25"/>
+        <v>-28.058982780720214</v>
+      </c>
+      <c r="CF72" s="31">
+        <v>11.833448987179111</v>
+      </c>
       <c r="CG72" s="25"/>
       <c r="CH72" s="25"/>
       <c r="CI72" s="25"/>
-      <c r="CJ72" s="10"/>
+      <c r="CJ72" s="25"/>
       <c r="CK72" s="10"/>
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
@@ -34326,13 +34410,15 @@
         <v>-2.0405406657607017</v>
       </c>
       <c r="CE73" s="31">
-        <v>48.334542457956559</v>
-      </c>
-      <c r="CF73" s="25"/>
+        <v>46.680589386928517</v>
+      </c>
+      <c r="CF73" s="31">
+        <v>20.301999248687125</v>
+      </c>
       <c r="CG73" s="25"/>
       <c r="CH73" s="25"/>
       <c r="CI73" s="25"/>
-      <c r="CJ73" s="10"/>
+      <c r="CJ73" s="25"/>
       <c r="CK73" s="10"/>
       <c r="CL73" s="10"/>
       <c r="CM73" s="10"/>
@@ -34647,11 +34733,13 @@
       <c r="CE74" s="31">
         <v>-43.215992874910455</v>
       </c>
-      <c r="CF74" s="25"/>
+      <c r="CF74" s="31">
+        <v>18.180153122649244</v>
+      </c>
       <c r="CG74" s="25"/>
       <c r="CH74" s="25"/>
       <c r="CI74" s="25"/>
-      <c r="CJ74" s="10"/>
+      <c r="CJ74" s="25"/>
       <c r="CK74" s="10"/>
       <c r="CL74" s="10"/>
       <c r="CM74" s="10"/>
@@ -34803,7 +34891,7 @@
       <c r="CG75" s="25"/>
       <c r="CH75" s="25"/>
       <c r="CI75" s="25"/>
-      <c r="CJ75" s="10"/>
+      <c r="CJ75" s="25"/>
       <c r="CK75" s="10"/>
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
@@ -35116,13 +35204,15 @@
         <v>13.194967594539193</v>
       </c>
       <c r="CE76" s="31">
-        <v>12.111150045783276</v>
-      </c>
-      <c r="CF76" s="25"/>
+        <v>13.483570467066826</v>
+      </c>
+      <c r="CF76" s="31">
+        <v>17.74406030225532</v>
+      </c>
       <c r="CG76" s="25"/>
       <c r="CH76" s="25"/>
       <c r="CI76" s="25"/>
-      <c r="CJ76" s="10"/>
+      <c r="CJ76" s="25"/>
       <c r="CK76" s="10"/>
       <c r="CL76" s="10"/>
       <c r="CM76" s="10"/>
@@ -35275,6 +35365,7 @@
       <c r="CG77" s="27"/>
       <c r="CH77" s="27"/>
       <c r="CI77" s="27"/>
+      <c r="CJ77" s="27"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
@@ -35366,6 +35457,7 @@
       <c r="CG78" s="22"/>
       <c r="CH78" s="22"/>
       <c r="CI78" s="22"/>
+      <c r="CJ78" s="22"/>
     </row>
     <row r="79" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
@@ -35454,7 +35546,7 @@
       <c r="CG79" s="25"/>
       <c r="CH79" s="25"/>
       <c r="CI79" s="25"/>
-      <c r="CJ79" s="10"/>
+      <c r="CJ79" s="25"/>
       <c r="CK79" s="10"/>
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
@@ -35606,7 +35698,7 @@
       <c r="CG80" s="30"/>
       <c r="CH80" s="30"/>
       <c r="CI80" s="30"/>
-      <c r="CJ80" s="10"/>
+      <c r="CJ80" s="30"/>
       <c r="CK80" s="10"/>
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
@@ -35761,6 +35853,7 @@
       <c r="CG81" s="22"/>
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
+      <c r="CJ81" s="22"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -35852,6 +35945,7 @@
       <c r="CG82" s="22"/>
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
+      <c r="CJ82" s="22"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -35941,6 +36035,7 @@
       <c r="CG83" s="22"/>
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
+      <c r="CJ83" s="22"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -36032,6 +36127,7 @@
       <c r="CG84" s="22"/>
       <c r="CH84" s="22"/>
       <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -36123,6 +36219,7 @@
       <c r="CG85" s="22"/>
       <c r="CH85" s="22"/>
       <c r="CI85" s="22"/>
+      <c r="CJ85" s="22"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -36214,6 +36311,7 @@
       <c r="CG86" s="22"/>
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
+      <c r="CJ86" s="22"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -36303,6 +36401,7 @@
       <c r="CG87" s="22"/>
       <c r="CH87" s="22"/>
       <c r="CI87" s="22"/>
+      <c r="CJ87" s="22"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
@@ -36438,6 +36537,7 @@
       <c r="CI88" s="34">
         <v>0</v>
       </c>
+      <c r="CJ88" s="34"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -36700,6 +36800,9 @@
       </c>
       <c r="CI89" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ89" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36790,6 +36893,7 @@
       <c r="CG90" s="22"/>
       <c r="CH90" s="22"/>
       <c r="CI90" s="22"/>
+      <c r="CJ90" s="22"/>
     </row>
     <row r="91" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -37051,9 +37155,11 @@
         <v>101.97506969544523</v>
       </c>
       <c r="CI91" s="31">
-        <v>99.274814108946018</v>
-      </c>
-      <c r="CJ91" s="10"/>
+        <v>98.850495703148354</v>
+      </c>
+      <c r="CJ91" s="31">
+        <v>103.92475270144375</v>
+      </c>
       <c r="CK91" s="10"/>
       <c r="CL91" s="10"/>
       <c r="CM91" s="10"/>
@@ -37382,9 +37488,11 @@
         <v>96.390111697192424</v>
       </c>
       <c r="CI92" s="31">
-        <v>106.47943308420398</v>
-      </c>
-      <c r="CJ92" s="10"/>
+        <v>106.35634207436557</v>
+      </c>
+      <c r="CJ92" s="31">
+        <v>115.7367234904618</v>
+      </c>
       <c r="CK92" s="10"/>
       <c r="CL92" s="10"/>
       <c r="CM92" s="10"/>
@@ -37713,9 +37821,11 @@
         <v>100.64077766972331</v>
       </c>
       <c r="CI93" s="31">
-        <v>108.52456051502502</v>
-      </c>
-      <c r="CJ93" s="10"/>
+        <v>107.87169087657291</v>
+      </c>
+      <c r="CJ93" s="31">
+        <v>113.62791994432709</v>
+      </c>
       <c r="CK93" s="10"/>
       <c r="CL93" s="10"/>
       <c r="CM93" s="10"/>
@@ -37871,7 +37981,7 @@
       <c r="CG94" s="25"/>
       <c r="CH94" s="25"/>
       <c r="CI94" s="25"/>
-      <c r="CJ94" s="10"/>
+      <c r="CJ94" s="25"/>
       <c r="CK94" s="10"/>
       <c r="CL94" s="10"/>
       <c r="CM94" s="10"/>
@@ -38200,9 +38310,11 @@
         <v>98.58652640563264</v>
       </c>
       <c r="CI95" s="31">
-        <v>105.13198184472347</v>
-      </c>
-      <c r="CJ95" s="10"/>
+        <v>104.79008862630721</v>
+      </c>
+      <c r="CJ95" s="31">
+        <v>112.39478194149201</v>
+      </c>
       <c r="CK95" s="10"/>
       <c r="CL95" s="10"/>
       <c r="CM95" s="10"/>
@@ -38359,6 +38471,7 @@
       <c r="CG96" s="27"/>
       <c r="CH96" s="27"/>
       <c r="CI96" s="27"/>
+      <c r="CJ96" s="27"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
@@ -38450,6 +38563,7 @@
       <c r="CG97" s="22"/>
       <c r="CH97" s="22"/>
       <c r="CI97" s="22"/>
+      <c r="CJ97" s="22"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
@@ -38538,6 +38652,7 @@
       <c r="CG98" s="22"/>
       <c r="CH98" s="22"/>
       <c r="CI98" s="22"/>
+      <c r="CJ98" s="22"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
@@ -38626,6 +38741,7 @@
       <c r="CG99" s="22"/>
       <c r="CH99" s="22"/>
       <c r="CI99" s="22"/>
+      <c r="CJ99" s="22"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -38717,6 +38833,7 @@
       <c r="CG100" s="22"/>
       <c r="CH100" s="22"/>
       <c r="CI100" s="22"/>
+      <c r="CJ100" s="22"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -38808,6 +38925,7 @@
       <c r="CG101" s="22"/>
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
+      <c r="CJ101" s="22"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -38899,6 +39017,7 @@
       <c r="CG102" s="22"/>
       <c r="CH102" s="22"/>
       <c r="CI102" s="22"/>
+      <c r="CJ102" s="22"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -38988,6 +39107,7 @@
       <c r="CG103" s="22"/>
       <c r="CH103" s="22"/>
       <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -39079,6 +39199,7 @@
       <c r="CG104" s="22"/>
       <c r="CH104" s="22"/>
       <c r="CI104" s="22"/>
+      <c r="CJ104" s="22"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -39170,6 +39291,7 @@
       <c r="CG105" s="22"/>
       <c r="CH105" s="22"/>
       <c r="CI105" s="22"/>
+      <c r="CJ105" s="22"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -39261,6 +39383,7 @@
       <c r="CG106" s="22"/>
       <c r="CH106" s="22"/>
       <c r="CI106" s="22"/>
+      <c r="CJ106" s="22"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
@@ -39350,6 +39473,7 @@
       <c r="CG107" s="22"/>
       <c r="CH107" s="22"/>
       <c r="CI107" s="22"/>
+      <c r="CJ107" s="22"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
@@ -39485,6 +39609,7 @@
       <c r="CI108" s="34">
         <v>0</v>
       </c>
+      <c r="CJ108" s="34"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
@@ -39747,6 +39872,9 @@
       </c>
       <c r="CI109" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ109" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39837,6 +39965,7 @@
       <c r="CG110" s="22"/>
       <c r="CH110" s="22"/>
       <c r="CI110" s="22"/>
+      <c r="CJ110" s="22"/>
     </row>
     <row r="111" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -40098,9 +40227,11 @@
         <v>35.499216803276198</v>
       </c>
       <c r="CI111" s="31">
-        <v>18.806844245040029</v>
-      </c>
-      <c r="CJ111" s="10"/>
+        <v>20.488869874719885</v>
+      </c>
+      <c r="CJ111" s="31">
+        <v>25.044409396238258</v>
+      </c>
       <c r="CK111" s="10"/>
       <c r="CL111" s="10"/>
       <c r="CM111" s="10"/>
@@ -40429,9 +40560,11 @@
         <v>57.78403177666771</v>
       </c>
       <c r="CI112" s="31">
-        <v>76.779035426122149</v>
-      </c>
-      <c r="CJ112" s="10"/>
+        <v>75.162483895910398</v>
+      </c>
+      <c r="CJ112" s="31">
+        <v>68.119166522555446</v>
+      </c>
       <c r="CK112" s="10"/>
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
@@ -40760,9 +40893,11 @@
         <v>6.7167514200560881</v>
       </c>
       <c r="CI113" s="31">
-        <v>4.4141203288378055</v>
-      </c>
-      <c r="CJ113" s="10"/>
+        <v>4.3486462293697139</v>
+      </c>
+      <c r="CJ113" s="31">
+        <v>6.8364240812063022</v>
+      </c>
       <c r="CK113" s="10"/>
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
@@ -40918,7 +41053,7 @@
       <c r="CG114" s="25"/>
       <c r="CH114" s="25"/>
       <c r="CI114" s="25"/>
-      <c r="CJ114" s="10"/>
+      <c r="CJ114" s="25"/>
       <c r="CK114" s="10"/>
       <c r="CL114" s="10"/>
       <c r="CM114" s="10"/>
@@ -41249,7 +41384,9 @@
       <c r="CI115" s="31">
         <v>100</v>
       </c>
-      <c r="CJ115" s="10"/>
+      <c r="CJ115" s="31">
+        <v>100</v>
+      </c>
       <c r="CK115" s="10"/>
       <c r="CL115" s="10"/>
       <c r="CM115" s="10"/>
@@ -41406,6 +41543,7 @@
       <c r="CG116" s="27"/>
       <c r="CH116" s="27"/>
       <c r="CI116" s="27"/>
+      <c r="CJ116" s="27"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
@@ -41497,6 +41635,7 @@
       <c r="CG117" s="22"/>
       <c r="CH117" s="22"/>
       <c r="CI117" s="22"/>
+      <c r="CJ117" s="22"/>
     </row>
     <row r="118" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
@@ -41585,7 +41724,7 @@
       <c r="CG118" s="25"/>
       <c r="CH118" s="25"/>
       <c r="CI118" s="25"/>
-      <c r="CJ118" s="10"/>
+      <c r="CJ118" s="25"/>
       <c r="CK118" s="10"/>
       <c r="CL118" s="10"/>
       <c r="CM118" s="10"/>
@@ -41741,7 +41880,7 @@
       <c r="CG119" s="25"/>
       <c r="CH119" s="25"/>
       <c r="CI119" s="25"/>
-      <c r="CJ119" s="10"/>
+      <c r="CJ119" s="25"/>
       <c r="CK119" s="10"/>
       <c r="CL119" s="10"/>
       <c r="CM119" s="10"/>
@@ -41900,6 +42039,7 @@
       <c r="CG120" s="22"/>
       <c r="CH120" s="22"/>
       <c r="CI120" s="22"/>
+      <c r="CJ120" s="22"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -41991,6 +42131,7 @@
       <c r="CG121" s="22"/>
       <c r="CH121" s="22"/>
       <c r="CI121" s="22"/>
+      <c r="CJ121" s="22"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -42082,6 +42223,7 @@
       <c r="CG122" s="22"/>
       <c r="CH122" s="22"/>
       <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -42171,6 +42313,7 @@
       <c r="CG123" s="22"/>
       <c r="CH123" s="22"/>
       <c r="CI123" s="22"/>
+      <c r="CJ123" s="22"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -42262,6 +42405,7 @@
       <c r="CG124" s="22"/>
       <c r="CH124" s="22"/>
       <c r="CI124" s="22"/>
+      <c r="CJ124" s="22"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -42353,6 +42497,7 @@
       <c r="CG125" s="22"/>
       <c r="CH125" s="22"/>
       <c r="CI125" s="22"/>
+      <c r="CJ125" s="22"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -42444,6 +42589,7 @@
       <c r="CG126" s="22"/>
       <c r="CH126" s="22"/>
       <c r="CI126" s="22"/>
+      <c r="CJ126" s="22"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -42533,6 +42679,7 @@
       <c r="CG127" s="22"/>
       <c r="CH127" s="22"/>
       <c r="CI127" s="22"/>
+      <c r="CJ127" s="22"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
@@ -42668,6 +42815,7 @@
       <c r="CI128" s="34">
         <v>0</v>
       </c>
+      <c r="CJ128" s="34"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -42930,6 +43078,9 @@
       </c>
       <c r="CI129" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ129" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -43020,6 +43171,7 @@
       <c r="CG130" s="22"/>
       <c r="CH130" s="22"/>
       <c r="CI130" s="22"/>
+      <c r="CJ130" s="22"/>
     </row>
     <row r="131" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
@@ -43281,9 +43433,11 @@
         <v>34.31960855930442</v>
       </c>
       <c r="CI131" s="31">
-        <v>19.916439284955736</v>
-      </c>
-      <c r="CJ131" s="10"/>
+        <v>21.719976968779029</v>
+      </c>
+      <c r="CJ131" s="31">
+        <v>27.085567776429727</v>
+      </c>
       <c r="CK131" s="10"/>
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
@@ -43612,9 +43766,11 @@
         <v>59.100740462574819</v>
       </c>
       <c r="CI132" s="31">
-        <v>75.807429892035287</v>
-      </c>
-      <c r="CJ132" s="10"/>
+        <v>74.055605854878408</v>
+      </c>
+      <c r="CJ132" s="31">
+        <v>66.152199893318866</v>
+      </c>
       <c r="CK132" s="10"/>
       <c r="CL132" s="10"/>
       <c r="CM132" s="10"/>
@@ -43943,9 +44099,11 @@
         <v>6.5796509781207737</v>
       </c>
       <c r="CI133" s="31">
-        <v>4.2761308230089732</v>
-      </c>
-      <c r="CJ133" s="10"/>
+        <v>4.2244171763425538</v>
+      </c>
+      <c r="CJ133" s="31">
+        <v>6.7622323302514085</v>
+      </c>
       <c r="CK133" s="10"/>
       <c r="CL133" s="10"/>
       <c r="CM133" s="10"/>
@@ -44101,7 +44259,7 @@
       <c r="CG134" s="25"/>
       <c r="CH134" s="25"/>
       <c r="CI134" s="25"/>
-      <c r="CJ134" s="10"/>
+      <c r="CJ134" s="25"/>
       <c r="CK134" s="10"/>
       <c r="CL134" s="10"/>
       <c r="CM134" s="10"/>
@@ -44432,7 +44590,9 @@
       <c r="CI135" s="31">
         <v>100</v>
       </c>
-      <c r="CJ135" s="10"/>
+      <c r="CJ135" s="31">
+        <v>100</v>
+      </c>
       <c r="CK135" s="10"/>
       <c r="CL135" s="10"/>
       <c r="CM135" s="10"/>
@@ -44589,6 +44749,7 @@
       <c r="CG136" s="27"/>
       <c r="CH136" s="27"/>
       <c r="CI136" s="27"/>
+      <c r="CJ136" s="27"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
@@ -44680,6 +44841,7 @@
       <c r="CG137" s="22"/>
       <c r="CH137" s="22"/>
       <c r="CI137" s="22"/>
+      <c r="CJ137" s="22"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -44769,7 +44931,7 @@
       <c r="CG138" s="32"/>
       <c r="CH138" s="32"/>
       <c r="CI138" s="32"/>
-      <c r="CJ138" s="19"/>
+      <c r="CJ138" s="32"/>
       <c r="CK138" s="19"/>
       <c r="CL138" s="19"/>
       <c r="CM138" s="19"/>
@@ -44926,7 +45088,7 @@
       <c r="CG139" s="32"/>
       <c r="CH139" s="32"/>
       <c r="CI139" s="32"/>
-      <c r="CJ139" s="19"/>
+      <c r="CJ139" s="32"/>
       <c r="CK139" s="19"/>
       <c r="CL139" s="19"/>
       <c r="CM139" s="19"/>
@@ -44997,12 +45159,6 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="BN88:BQ88"/>
     <mergeCell ref="AL108:AO108"/>
     <mergeCell ref="AP108:AS108"/>
@@ -45019,6 +45175,9 @@
     <mergeCell ref="AT88:AW88"/>
     <mergeCell ref="AX88:BA88"/>
     <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="AH128:AK128"/>
     <mergeCell ref="BF128:BI128"/>
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
@@ -45029,6 +45188,8 @@
     <mergeCell ref="AT128:AW128"/>
     <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
     <mergeCell ref="J128:M128"/>
@@ -45037,21 +45198,8 @@
     <mergeCell ref="V128:Y128"/>
     <mergeCell ref="Z128:AC128"/>
     <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
     <mergeCell ref="B108:E108"/>
     <mergeCell ref="F108:I108"/>
     <mergeCell ref="J108:M108"/>
@@ -45061,6 +45209,10 @@
     <mergeCell ref="AD108:AG108"/>
     <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="R88:U88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
     <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -45070,9 +45222,21 @@
     <mergeCell ref="Z49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="B69:E69"/>
     <mergeCell ref="F69:I69"/>
     <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="J49:M49"/>
@@ -45097,7 +45261,6 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="BJ69:BM69"/>
     <mergeCell ref="BN69:BQ69"/>
     <mergeCell ref="AL69:AO69"/>
@@ -45108,16 +45271,15 @@
     <mergeCell ref="AT29:AW29"/>
     <mergeCell ref="AX29:BA29"/>
     <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BJ29:BM29"/>
     <mergeCell ref="BN29:BQ29"/>
     <mergeCell ref="AL49:AO49"/>
     <mergeCell ref="AP49:AS49"/>
     <mergeCell ref="AT49:AW49"/>
     <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="BR49:BU49"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BR128:BU128"/>
@@ -45140,15 +45302,15 @@
     <mergeCell ref="BV29:BY29"/>
     <mergeCell ref="BR69:BU69"/>
     <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH29:CI29"/>
     <mergeCell ref="CD49:CE49"/>
-    <mergeCell ref="CD69:CE69"/>
-    <mergeCell ref="CH88:CI88"/>
-    <mergeCell ref="CH108:CI108"/>
-    <mergeCell ref="CH128:CI128"/>
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH29:CJ29"/>
+    <mergeCell ref="CD69:CF69"/>
+    <mergeCell ref="CH88:CJ88"/>
+    <mergeCell ref="CH108:CJ108"/>
+    <mergeCell ref="CH128:CJ128"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CI$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CK$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,16 +614,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -771,10 +768,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23629,16 +23626,16 @@
   <dimension ref="A1:EY139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
     <col min="2" max="81" width="9.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="88" width="10.6328125" style="32" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="11"/>
+    <col min="82" max="89" width="9.36328125" style="32" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23652,6 +23649,7 @@
       <c r="CH1" s="21"/>
       <c r="CI1" s="21"/>
       <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23664,10 +23662,11 @@
       <c r="CH2" s="21"/>
       <c r="CI2" s="21"/>
       <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD3" s="21"/>
       <c r="CE3" s="21"/>
@@ -23676,6 +23675,7 @@
       <c r="CH3" s="21"/>
       <c r="CI3" s="21"/>
       <c r="CJ3" s="21"/>
+      <c r="CK3" s="21"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -23686,6 +23686,7 @@
       <c r="CH4" s="21"/>
       <c r="CI4" s="21"/>
       <c r="CJ4" s="21"/>
+      <c r="CK4" s="21"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23698,10 +23699,11 @@
       <c r="CH5" s="21"/>
       <c r="CI5" s="21"/>
       <c r="CJ5" s="21"/>
+      <c r="CK5" s="21"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CD6" s="21"/>
       <c r="CE6" s="21"/>
@@ -23710,6 +23712,7 @@
       <c r="CH6" s="21"/>
       <c r="CI6" s="21"/>
       <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23722,6 +23725,7 @@
       <c r="CH7" s="21"/>
       <c r="CI7" s="21"/>
       <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -23812,140 +23816,142 @@
       <c r="CH8" s="22"/>
       <c r="CI8" s="22"/>
       <c r="CJ8" s="22"/>
+      <c r="CK8" s="22"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
-      <c r="CH9" s="34">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35">
         <v>2021</v>
       </c>
-      <c r="CI9" s="34"/>
-      <c r="CJ9" s="34"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24211,6 +24217,9 @@
       </c>
       <c r="CJ10" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24302,6 +24311,7 @@
       <c r="CH11" s="22"/>
       <c r="CI11" s="22"/>
       <c r="CJ11" s="22"/>
+      <c r="CK11" s="22"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -24566,9 +24576,11 @@
         <v>17908.230960060915</v>
       </c>
       <c r="CJ12" s="24">
-        <v>24658.251943634252</v>
-      </c>
-      <c r="CK12" s="10"/>
+        <v>24626.217496638546</v>
+      </c>
+      <c r="CK12" s="24">
+        <v>43947.121362027232</v>
+      </c>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
@@ -24899,9 +24911,11 @@
         <v>65695.527833900342</v>
       </c>
       <c r="CJ13" s="24">
-        <v>67068.843338579332</v>
-      </c>
-      <c r="CK13" s="10"/>
+        <v>66775.938034778665</v>
+      </c>
+      <c r="CK13" s="24">
+        <v>65087.195627657689</v>
+      </c>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
@@ -25232,9 +25246,11 @@
         <v>3800.9202808808195</v>
       </c>
       <c r="CJ14" s="24">
-        <v>6731.0138850083504</v>
-      </c>
-      <c r="CK14" s="10"/>
+        <v>6741.3654984108252</v>
+      </c>
+      <c r="CK14" s="24">
+        <v>9282.6680710483688</v>
+      </c>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
@@ -25390,7 +25406,7 @@
       <c r="CH15" s="25"/>
       <c r="CI15" s="25"/>
       <c r="CJ15" s="25"/>
-      <c r="CK15" s="10"/>
+      <c r="CK15" s="25"/>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
@@ -25721,9 +25737,11 @@
         <v>87404.679074842075</v>
       </c>
       <c r="CJ16" s="26">
-        <v>98458.109167221934</v>
-      </c>
-      <c r="CK16" s="10"/>
+        <v>98143.521029828044</v>
+      </c>
+      <c r="CK16" s="26">
+        <v>118316.98506073328</v>
+      </c>
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
@@ -25880,6 +25898,7 @@
       <c r="CH17" s="27"/>
       <c r="CI17" s="27"/>
       <c r="CJ17" s="27"/>
+      <c r="CK17" s="27"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -25972,6 +25991,7 @@
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
+      <c r="CK18" s="22"/>
     </row>
     <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
@@ -26061,7 +26081,7 @@
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
-      <c r="CK19" s="10"/>
+      <c r="CK19" s="25"/>
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
@@ -26217,7 +26237,7 @@
       <c r="CH20" s="25"/>
       <c r="CI20" s="25"/>
       <c r="CJ20" s="25"/>
-      <c r="CK20" s="10"/>
+      <c r="CK20" s="25"/>
       <c r="CL20" s="10"/>
       <c r="CM20" s="10"/>
       <c r="CN20" s="10"/>
@@ -26376,6 +26396,7 @@
       <c r="CH21" s="22"/>
       <c r="CI21" s="22"/>
       <c r="CJ21" s="22"/>
+      <c r="CK21" s="22"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -26468,10 +26489,11 @@
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
+      <c r="CK22" s="22"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26560,6 +26582,7 @@
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
+      <c r="CK23" s="22"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -26650,6 +26673,7 @@
       <c r="CH24" s="22"/>
       <c r="CI24" s="22"/>
       <c r="CJ24" s="22"/>
+      <c r="CK24" s="22"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -26742,10 +26766,11 @@
       <c r="CH25" s="22"/>
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
+      <c r="CK25" s="22"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26834,6 +26859,7 @@
       <c r="CH26" s="22"/>
       <c r="CI26" s="22"/>
       <c r="CJ26" s="22"/>
+      <c r="CK26" s="22"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -26926,6 +26952,7 @@
       <c r="CH27" s="22"/>
       <c r="CI27" s="22"/>
       <c r="CJ27" s="22"/>
+      <c r="CK27" s="22"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -27016,142 +27043,142 @@
       <c r="CH28" s="22"/>
       <c r="CI28" s="22"/>
       <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="35">
+      <c r="B29" s="34">
         <v>2000</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="35">
+      <c r="F29" s="34">
         <v>2001</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>2002</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="35">
+      <c r="N29" s="34">
         <v>2003</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="35">
+      <c r="R29" s="34">
         <v>2004</v>
       </c>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="35">
+      <c r="V29" s="34">
         <v>2005</v>
       </c>
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
       <c r="Y29" s="36"/>
-      <c r="Z29" s="35">
+      <c r="Z29" s="34">
         <v>2006</v>
       </c>
       <c r="AA29" s="36"/>
       <c r="AB29" s="36"/>
       <c r="AC29" s="36"/>
-      <c r="AD29" s="35">
+      <c r="AD29" s="34">
         <v>2007</v>
       </c>
       <c r="AE29" s="36"/>
       <c r="AF29" s="36"/>
       <c r="AG29" s="36"/>
-      <c r="AH29" s="35">
+      <c r="AH29" s="34">
         <v>2008</v>
       </c>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="36"/>
-      <c r="AL29" s="35">
+      <c r="AL29" s="34">
         <v>2009</v>
       </c>
       <c r="AM29" s="36"/>
       <c r="AN29" s="36"/>
       <c r="AO29" s="36"/>
-      <c r="AP29" s="35">
+      <c r="AP29" s="34">
         <v>2010</v>
       </c>
       <c r="AQ29" s="36"/>
       <c r="AR29" s="36"/>
       <c r="AS29" s="36"/>
-      <c r="AT29" s="35">
+      <c r="AT29" s="34">
         <v>2011</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36"/>
       <c r="AW29" s="36"/>
-      <c r="AX29" s="35">
+      <c r="AX29" s="34">
         <v>2012</v>
       </c>
       <c r="AY29" s="36"/>
       <c r="AZ29" s="36"/>
       <c r="BA29" s="36"/>
-      <c r="BB29" s="35">
+      <c r="BB29" s="34">
         <v>2013</v>
       </c>
       <c r="BC29" s="36"/>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
-      <c r="BF29" s="35">
+      <c r="BF29" s="34">
         <v>2014</v>
       </c>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36"/>
       <c r="BI29" s="36"/>
-      <c r="BJ29" s="35">
+      <c r="BJ29" s="34">
         <v>2015</v>
       </c>
       <c r="BK29" s="36"/>
       <c r="BL29" s="36"/>
       <c r="BM29" s="36"/>
-      <c r="BN29" s="35">
+      <c r="BN29" s="34">
         <v>2016</v>
       </c>
       <c r="BO29" s="36"/>
       <c r="BP29" s="36"/>
       <c r="BQ29" s="36"/>
-      <c r="BR29" s="35">
+      <c r="BR29" s="34">
         <v>2017</v>
       </c>
       <c r="BS29" s="36"/>
       <c r="BT29" s="36"/>
       <c r="BU29" s="36"/>
-      <c r="BV29" s="35">
+      <c r="BV29" s="34">
         <v>2018</v>
       </c>
       <c r="BW29" s="36"/>
       <c r="BX29" s="36"/>
       <c r="BY29" s="36"/>
-      <c r="BZ29" s="35">
+      <c r="BZ29" s="34">
         <v>2019</v>
       </c>
       <c r="CA29" s="36"/>
       <c r="CB29" s="36"/>
       <c r="CC29" s="36"/>
-      <c r="CD29" s="34">
+      <c r="CD29" s="35">
         <v>2020</v>
       </c>
-      <c r="CE29" s="34"/>
-      <c r="CF29" s="34"/>
-      <c r="CG29" s="34"/>
-      <c r="CH29" s="34">
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35">
         <v>2021</v>
       </c>
-      <c r="CI29" s="34">
-        <v>0</v>
-      </c>
-      <c r="CJ29" s="34"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -27417,6 +27444,9 @@
       </c>
       <c r="CJ30" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CK30" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27508,6 +27538,7 @@
       <c r="CH31" s="22"/>
       <c r="CI31" s="22"/>
       <c r="CJ31" s="22"/>
+      <c r="CK31" s="22"/>
     </row>
     <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -27774,7 +27805,9 @@
       <c r="CJ32" s="24">
         <v>23727.024893167432</v>
       </c>
-      <c r="CK32" s="10"/>
+      <c r="CK32" s="24">
+        <v>34866.76856694711</v>
+      </c>
       <c r="CL32" s="10"/>
       <c r="CM32" s="10"/>
       <c r="CN32" s="10"/>
@@ -28105,9 +28138,11 @@
         <v>61769.262229764616</v>
       </c>
       <c r="CJ33" s="24">
-        <v>57949.49201590856</v>
-      </c>
-      <c r="CK33" s="10"/>
+        <v>57734.996059854762</v>
+      </c>
+      <c r="CK33" s="24">
+        <v>53424.992670828724</v>
+      </c>
       <c r="CL33" s="10"/>
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
@@ -28440,7 +28475,9 @@
       <c r="CJ34" s="24">
         <v>5923.7323787201822</v>
       </c>
-      <c r="CK34" s="10"/>
+      <c r="CK34" s="24">
+        <v>7185.2817425912272</v>
+      </c>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
@@ -28596,7 +28633,7 @@
       <c r="CH35" s="25"/>
       <c r="CI35" s="25"/>
       <c r="CJ35" s="25"/>
-      <c r="CK35" s="10"/>
+      <c r="CK35" s="25"/>
       <c r="CL35" s="10"/>
       <c r="CM35" s="10"/>
       <c r="CN35" s="10"/>
@@ -28927,9 +28964,11 @@
         <v>83409.299696783943</v>
       </c>
       <c r="CJ36" s="26">
-        <v>87600.249287796178</v>
-      </c>
-      <c r="CK36" s="10"/>
+        <v>87385.753331742366</v>
+      </c>
+      <c r="CK36" s="26">
+        <v>95477.042980367056</v>
+      </c>
       <c r="CL36" s="10"/>
       <c r="CM36" s="10"/>
       <c r="CN36" s="10"/>
@@ -29086,6 +29125,7 @@
       <c r="CH37" s="27"/>
       <c r="CI37" s="27"/>
       <c r="CJ37" s="27"/>
+      <c r="CK37" s="27"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
@@ -29178,6 +29218,7 @@
       <c r="CH38" s="22"/>
       <c r="CI38" s="22"/>
       <c r="CJ38" s="22"/>
+      <c r="CK38" s="22"/>
     </row>
     <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
@@ -29267,7 +29308,7 @@
       <c r="CH39" s="25"/>
       <c r="CI39" s="25"/>
       <c r="CJ39" s="25"/>
-      <c r="CK39" s="10"/>
+      <c r="CK39" s="25"/>
       <c r="CL39" s="10"/>
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
@@ -29423,7 +29464,7 @@
       <c r="CH40" s="25"/>
       <c r="CI40" s="25"/>
       <c r="CJ40" s="25"/>
-      <c r="CK40" s="10"/>
+      <c r="CK40" s="25"/>
       <c r="CL40" s="10"/>
       <c r="CM40" s="10"/>
       <c r="CN40" s="10"/>
@@ -29582,6 +29623,7 @@
       <c r="CH41" s="22"/>
       <c r="CI41" s="22"/>
       <c r="CJ41" s="22"/>
+      <c r="CK41" s="22"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -29674,10 +29716,11 @@
       <c r="CH42" s="22"/>
       <c r="CI42" s="22"/>
       <c r="CJ42" s="22"/>
+      <c r="CK42" s="22"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29766,6 +29809,7 @@
       <c r="CH43" s="22"/>
       <c r="CI43" s="22"/>
       <c r="CJ43" s="22"/>
+      <c r="CK43" s="22"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -29856,6 +29900,7 @@
       <c r="CH44" s="22"/>
       <c r="CI44" s="22"/>
       <c r="CJ44" s="22"/>
+      <c r="CK44" s="22"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -29948,10 +29993,11 @@
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
       <c r="CJ45" s="22"/>
+      <c r="CK45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30040,6 +30086,7 @@
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
       <c r="CJ46" s="22"/>
+      <c r="CK46" s="22"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -30132,6 +30179,7 @@
       <c r="CH47" s="22"/>
       <c r="CI47" s="22"/>
       <c r="CJ47" s="22"/>
+      <c r="CK47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -30222,140 +30270,140 @@
       <c r="CH48" s="22"/>
       <c r="CI48" s="22"/>
       <c r="CJ48" s="22"/>
+      <c r="CK48" s="22"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35" t="s">
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35" t="s">
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35" t="s">
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35" t="s">
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35" t="s">
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35" t="s">
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35" t="s">
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35" t="s">
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35" t="s">
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
+      <c r="AP49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35" t="s">
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="34"/>
+      <c r="AS49" s="34"/>
+      <c r="AT49" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35" t="s">
+      <c r="AU49" s="34"/>
+      <c r="AV49" s="34"/>
+      <c r="AW49" s="34"/>
+      <c r="AX49" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="35" t="s">
+      <c r="AY49" s="34"/>
+      <c r="AZ49" s="34"/>
+      <c r="BA49" s="34"/>
+      <c r="BB49" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="35"/>
-      <c r="BE49" s="35"/>
-      <c r="BF49" s="35" t="s">
+      <c r="BC49" s="34"/>
+      <c r="BD49" s="34"/>
+      <c r="BE49" s="34"/>
+      <c r="BF49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="35"/>
-      <c r="BH49" s="35"/>
-      <c r="BI49" s="35"/>
-      <c r="BJ49" s="35" t="s">
+      <c r="BG49" s="34"/>
+      <c r="BH49" s="34"/>
+      <c r="BI49" s="34"/>
+      <c r="BJ49" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="35"/>
-      <c r="BL49" s="35"/>
-      <c r="BM49" s="35"/>
-      <c r="BN49" s="35" t="s">
+      <c r="BK49" s="34"/>
+      <c r="BL49" s="34"/>
+      <c r="BM49" s="34"/>
+      <c r="BN49" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="35"/>
-      <c r="BP49" s="35"/>
-      <c r="BQ49" s="35"/>
-      <c r="BR49" s="35" t="s">
+      <c r="BO49" s="34"/>
+      <c r="BP49" s="34"/>
+      <c r="BQ49" s="34"/>
+      <c r="BR49" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="35"/>
-      <c r="BT49" s="35"/>
-      <c r="BU49" s="35"/>
-      <c r="BV49" s="35" t="s">
+      <c r="BS49" s="34"/>
+      <c r="BT49" s="34"/>
+      <c r="BU49" s="34"/>
+      <c r="BV49" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="35"/>
-      <c r="BX49" s="35"/>
-      <c r="BY49" s="35"/>
-      <c r="BZ49" s="35" t="s">
+      <c r="BW49" s="34"/>
+      <c r="BX49" s="34"/>
+      <c r="BY49" s="34"/>
+      <c r="BZ49" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="35"/>
-      <c r="CB49" s="35"/>
-      <c r="CC49" s="35"/>
-      <c r="CD49" s="34" t="s">
+      <c r="CA49" s="34"/>
+      <c r="CB49" s="34"/>
+      <c r="CC49" s="34"/>
+      <c r="CD49" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF49" s="28"/>
-      <c r="CG49" s="28"/>
+      <c r="CE49" s="35"/>
+      <c r="CF49" s="35"/>
+      <c r="CG49" s="35"/>
       <c r="CH49" s="28"/>
       <c r="CI49" s="28"/>
       <c r="CJ49" s="28"/>
+      <c r="CK49" s="28"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -30610,10 +30658,13 @@
       <c r="CF50" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CG50" s="29"/>
+      <c r="CG50" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="CH50" s="29"/>
       <c r="CI50" s="29"/>
       <c r="CJ50" s="29"/>
+      <c r="CK50" s="29"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -30704,6 +30755,7 @@
       <c r="CH51" s="22"/>
       <c r="CI51" s="22"/>
       <c r="CJ51" s="22"/>
+      <c r="CK51" s="22"/>
     </row>
     <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -30956,13 +31008,15 @@
         <v>-27.821225856037657</v>
       </c>
       <c r="CF52" s="31">
-        <v>14.985257426056492</v>
-      </c>
-      <c r="CG52" s="25"/>
+        <v>14.835875825822924</v>
+      </c>
+      <c r="CG52" s="31">
+        <v>25.552082296542537</v>
+      </c>
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
       <c r="CJ52" s="25"/>
-      <c r="CK52" s="10"/>
+      <c r="CK52" s="25"/>
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
       <c r="CN52" s="10"/>
@@ -31277,13 +31331,15 @@
         <v>51.505866870322848</v>
       </c>
       <c r="CF53" s="31">
-        <v>24.460768279450448</v>
-      </c>
-      <c r="CG53" s="25"/>
+        <v>23.917219034682319</v>
+      </c>
+      <c r="CG53" s="31">
+        <v>18.859150454568521</v>
+      </c>
       <c r="CH53" s="25"/>
       <c r="CI53" s="25"/>
       <c r="CJ53" s="25"/>
-      <c r="CK53" s="10"/>
+      <c r="CK53" s="25"/>
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
       <c r="CN53" s="10"/>
@@ -31598,13 +31654,15 @@
         <v>-42.888536125428232</v>
       </c>
       <c r="CF54" s="31">
-        <v>23.744622174033807</v>
-      </c>
-      <c r="CG54" s="25"/>
+        <v>23.934928792214151</v>
+      </c>
+      <c r="CG54" s="31">
+        <v>8.598048507851459</v>
+      </c>
       <c r="CH54" s="25"/>
       <c r="CI54" s="25"/>
       <c r="CJ54" s="25"/>
-      <c r="CK54" s="10"/>
+      <c r="CK54" s="25"/>
       <c r="CL54" s="10"/>
       <c r="CM54" s="10"/>
       <c r="CN54" s="10"/>
@@ -31756,7 +31814,7 @@
       <c r="CH55" s="25"/>
       <c r="CI55" s="25"/>
       <c r="CJ55" s="25"/>
-      <c r="CK55" s="10"/>
+      <c r="CK55" s="25"/>
       <c r="CL55" s="10"/>
       <c r="CM55" s="10"/>
       <c r="CN55" s="10"/>
@@ -32071,13 +32129,15 @@
         <v>16.807590426457921</v>
       </c>
       <c r="CF56" s="31">
-        <v>21.89681295386967</v>
-      </c>
-      <c r="CG56" s="25"/>
+        <v>21.507334711135201</v>
+      </c>
+      <c r="CG56" s="31">
+        <v>20.349976324429434</v>
+      </c>
       <c r="CH56" s="25"/>
       <c r="CI56" s="25"/>
       <c r="CJ56" s="25"/>
-      <c r="CK56" s="10"/>
+      <c r="CK56" s="25"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
@@ -32230,6 +32290,7 @@
       <c r="CH57" s="27"/>
       <c r="CI57" s="27"/>
       <c r="CJ57" s="27"/>
+      <c r="CK57" s="27"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
@@ -32322,6 +32383,7 @@
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
       <c r="CJ58" s="22"/>
+      <c r="CK58" s="22"/>
     </row>
     <row r="59" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
@@ -32411,7 +32473,7 @@
       <c r="CH59" s="25"/>
       <c r="CI59" s="25"/>
       <c r="CJ59" s="25"/>
-      <c r="CK59" s="10"/>
+      <c r="CK59" s="25"/>
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
       <c r="CN59" s="10"/>
@@ -32563,7 +32625,7 @@
       <c r="CH60" s="25"/>
       <c r="CI60" s="25"/>
       <c r="CJ60" s="25"/>
-      <c r="CK60" s="10"/>
+      <c r="CK60" s="25"/>
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
       <c r="CN60" s="10"/>
@@ -32718,6 +32780,7 @@
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
+      <c r="CK61" s="22"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -32810,10 +32873,11 @@
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
+      <c r="CK62" s="22"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32902,6 +32966,7 @@
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
       <c r="CJ63" s="22"/>
+      <c r="CK63" s="22"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -32992,6 +33057,7 @@
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
       <c r="CJ64" s="22"/>
+      <c r="CK64" s="22"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -33084,10 +33150,11 @@
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
       <c r="CJ65" s="22"/>
+      <c r="CK65" s="22"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33176,6 +33243,7 @@
       <c r="CH66" s="22"/>
       <c r="CI66" s="22"/>
       <c r="CJ66" s="22"/>
+      <c r="CK66" s="22"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -33268,6 +33336,7 @@
       <c r="CH67" s="22"/>
       <c r="CI67" s="22"/>
       <c r="CJ67" s="22"/>
+      <c r="CK67" s="22"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
@@ -33358,140 +33427,140 @@
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
       <c r="CJ68" s="22"/>
+      <c r="CK68" s="22"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="34" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
-      <c r="J69" s="35" t="s">
+      <c r="J69" s="34" t="s">
         <v>32</v>
       </c>
       <c r="K69" s="37"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
-      <c r="N69" s="35" t="s">
+      <c r="N69" s="34" t="s">
         <v>33</v>
       </c>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
-      <c r="R69" s="35" t="s">
+      <c r="R69" s="34" t="s">
         <v>34</v>
       </c>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
-      <c r="V69" s="35" t="s">
+      <c r="V69" s="34" t="s">
         <v>35</v>
       </c>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
-      <c r="Z69" s="35" t="s">
+      <c r="Z69" s="34" t="s">
         <v>36</v>
       </c>
       <c r="AA69" s="37"/>
       <c r="AB69" s="37"/>
       <c r="AC69" s="37"/>
-      <c r="AD69" s="35" t="s">
+      <c r="AD69" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AE69" s="37"/>
       <c r="AF69" s="37"/>
       <c r="AG69" s="37"/>
-      <c r="AH69" s="35" t="s">
+      <c r="AH69" s="34" t="s">
         <v>38</v>
       </c>
       <c r="AI69" s="37"/>
       <c r="AJ69" s="37"/>
       <c r="AK69" s="37"/>
-      <c r="AL69" s="35" t="s">
+      <c r="AL69" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AM69" s="37"/>
       <c r="AN69" s="37"/>
       <c r="AO69" s="37"/>
-      <c r="AP69" s="35" t="s">
+      <c r="AP69" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AQ69" s="37"/>
       <c r="AR69" s="37"/>
       <c r="AS69" s="37"/>
-      <c r="AT69" s="35" t="s">
+      <c r="AT69" s="34" t="s">
         <v>41</v>
       </c>
       <c r="AU69" s="37"/>
       <c r="AV69" s="37"/>
       <c r="AW69" s="37"/>
-      <c r="AX69" s="35" t="s">
+      <c r="AX69" s="34" t="s">
         <v>42</v>
       </c>
       <c r="AY69" s="37"/>
       <c r="AZ69" s="37"/>
       <c r="BA69" s="37"/>
-      <c r="BB69" s="35" t="s">
+      <c r="BB69" s="34" t="s">
         <v>43</v>
       </c>
       <c r="BC69" s="37"/>
       <c r="BD69" s="37"/>
       <c r="BE69" s="37"/>
-      <c r="BF69" s="35" t="s">
+      <c r="BF69" s="34" t="s">
         <v>44</v>
       </c>
       <c r="BG69" s="37"/>
       <c r="BH69" s="37"/>
       <c r="BI69" s="37"/>
-      <c r="BJ69" s="35" t="s">
+      <c r="BJ69" s="34" t="s">
         <v>45</v>
       </c>
       <c r="BK69" s="37"/>
       <c r="BL69" s="37"/>
       <c r="BM69" s="37"/>
-      <c r="BN69" s="35" t="s">
+      <c r="BN69" s="34" t="s">
         <v>46</v>
       </c>
       <c r="BO69" s="37"/>
       <c r="BP69" s="37"/>
       <c r="BQ69" s="37"/>
-      <c r="BR69" s="35" t="s">
+      <c r="BR69" s="34" t="s">
         <v>26</v>
       </c>
       <c r="BS69" s="37"/>
       <c r="BT69" s="37"/>
       <c r="BU69" s="37"/>
-      <c r="BV69" s="35" t="s">
+      <c r="BV69" s="34" t="s">
         <v>27</v>
       </c>
       <c r="BW69" s="37"/>
       <c r="BX69" s="37"/>
       <c r="BY69" s="37"/>
-      <c r="BZ69" s="35" t="s">
+      <c r="BZ69" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="35"/>
-      <c r="CB69" s="35"/>
-      <c r="CC69" s="35"/>
-      <c r="CD69" s="34" t="s">
+      <c r="CA69" s="34"/>
+      <c r="CB69" s="34"/>
+      <c r="CC69" s="34"/>
+      <c r="CD69" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF69" s="34"/>
-      <c r="CG69" s="28"/>
+      <c r="CE69" s="35"/>
+      <c r="CF69" s="35"/>
+      <c r="CG69" s="35"/>
       <c r="CH69" s="28"/>
       <c r="CI69" s="28"/>
       <c r="CJ69" s="28"/>
+      <c r="CK69" s="28"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -33746,10 +33815,13 @@
       <c r="CF70" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="29"/>
+      <c r="CG70" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="CH70" s="29"/>
       <c r="CI70" s="29"/>
       <c r="CJ70" s="29"/>
+      <c r="CK70" s="29"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -33840,6 +33912,7 @@
       <c r="CH71" s="22"/>
       <c r="CI71" s="22"/>
       <c r="CJ71" s="22"/>
+      <c r="CK71" s="22"/>
     </row>
     <row r="72" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -34094,11 +34167,13 @@
       <c r="CF72" s="31">
         <v>11.833448987179111</v>
       </c>
-      <c r="CG72" s="25"/>
+      <c r="CG72" s="31">
+        <v>19.558836257610011</v>
+      </c>
       <c r="CH72" s="25"/>
       <c r="CI72" s="25"/>
       <c r="CJ72" s="25"/>
-      <c r="CK72" s="10"/>
+      <c r="CK72" s="25"/>
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
       <c r="CN72" s="10"/>
@@ -34413,13 +34488,15 @@
         <v>46.680589386928517</v>
       </c>
       <c r="CF73" s="31">
-        <v>20.301999248687125</v>
-      </c>
-      <c r="CG73" s="25"/>
+        <v>19.8567098864103</v>
+      </c>
+      <c r="CG73" s="31">
+        <v>15.310009065346037</v>
+      </c>
       <c r="CH73" s="25"/>
       <c r="CI73" s="25"/>
       <c r="CJ73" s="25"/>
-      <c r="CK73" s="10"/>
+      <c r="CK73" s="25"/>
       <c r="CL73" s="10"/>
       <c r="CM73" s="10"/>
       <c r="CN73" s="10"/>
@@ -34736,11 +34813,13 @@
       <c r="CF74" s="31">
         <v>18.180153122649244</v>
       </c>
-      <c r="CG74" s="25"/>
+      <c r="CG74" s="31">
+        <v>4.7733309367098116</v>
+      </c>
       <c r="CH74" s="25"/>
       <c r="CI74" s="25"/>
       <c r="CJ74" s="25"/>
-      <c r="CK74" s="10"/>
+      <c r="CK74" s="25"/>
       <c r="CL74" s="10"/>
       <c r="CM74" s="10"/>
       <c r="CN74" s="10"/>
@@ -34892,7 +34971,7 @@
       <c r="CH75" s="25"/>
       <c r="CI75" s="25"/>
       <c r="CJ75" s="25"/>
-      <c r="CK75" s="10"/>
+      <c r="CK75" s="25"/>
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
@@ -35207,13 +35286,15 @@
         <v>13.483570467066826</v>
       </c>
       <c r="CF76" s="31">
-        <v>17.74406030225532</v>
-      </c>
-      <c r="CG76" s="25"/>
+        <v>17.455754903703124</v>
+      </c>
+      <c r="CG76" s="31">
+        <v>15.937168972179734</v>
+      </c>
       <c r="CH76" s="25"/>
       <c r="CI76" s="25"/>
       <c r="CJ76" s="25"/>
-      <c r="CK76" s="10"/>
+      <c r="CK76" s="25"/>
       <c r="CL76" s="10"/>
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
@@ -35366,6 +35447,7 @@
       <c r="CH77" s="27"/>
       <c r="CI77" s="27"/>
       <c r="CJ77" s="27"/>
+      <c r="CK77" s="27"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
@@ -35458,6 +35540,7 @@
       <c r="CH78" s="22"/>
       <c r="CI78" s="22"/>
       <c r="CJ78" s="22"/>
+      <c r="CK78" s="22"/>
     </row>
     <row r="79" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
@@ -35547,7 +35630,7 @@
       <c r="CH79" s="25"/>
       <c r="CI79" s="25"/>
       <c r="CJ79" s="25"/>
-      <c r="CK79" s="10"/>
+      <c r="CK79" s="25"/>
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
       <c r="CN79" s="10"/>
@@ -35699,7 +35782,7 @@
       <c r="CH80" s="30"/>
       <c r="CI80" s="30"/>
       <c r="CJ80" s="30"/>
-      <c r="CK80" s="10"/>
+      <c r="CK80" s="30"/>
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
@@ -35854,10 +35937,11 @@
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
+      <c r="CK81" s="22"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -35946,6 +36030,7 @@
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
+      <c r="CK82" s="22"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -36036,6 +36121,7 @@
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
+      <c r="CK83" s="22"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -36128,10 +36214,11 @@
       <c r="CH84" s="22"/>
       <c r="CI84" s="22"/>
       <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36220,6 +36307,7 @@
       <c r="CH85" s="22"/>
       <c r="CI85" s="22"/>
       <c r="CJ85" s="22"/>
+      <c r="CK85" s="22"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -36312,6 +36400,7 @@
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
+      <c r="CK86" s="22"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -36402,142 +36491,142 @@
       <c r="CH87" s="22"/>
       <c r="CI87" s="22"/>
       <c r="CJ87" s="22"/>
+      <c r="CK87" s="22"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="35">
+      <c r="B88" s="34">
         <v>2000</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
-      <c r="F88" s="35">
+      <c r="F88" s="34">
         <v>2001</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
-      <c r="J88" s="35">
+      <c r="J88" s="34">
         <v>2002</v>
       </c>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
-      <c r="N88" s="35">
+      <c r="N88" s="34">
         <v>2003</v>
       </c>
       <c r="O88" s="36"/>
       <c r="P88" s="36"/>
       <c r="Q88" s="36"/>
-      <c r="R88" s="35">
+      <c r="R88" s="34">
         <v>2004</v>
       </c>
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="35">
+      <c r="V88" s="34">
         <v>2005</v>
       </c>
       <c r="W88" s="36"/>
       <c r="X88" s="36"/>
       <c r="Y88" s="36"/>
-      <c r="Z88" s="35">
+      <c r="Z88" s="34">
         <v>2006</v>
       </c>
       <c r="AA88" s="36"/>
       <c r="AB88" s="36"/>
       <c r="AC88" s="36"/>
-      <c r="AD88" s="35">
+      <c r="AD88" s="34">
         <v>2007</v>
       </c>
       <c r="AE88" s="36"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="36"/>
-      <c r="AH88" s="35">
+      <c r="AH88" s="34">
         <v>2008</v>
       </c>
       <c r="AI88" s="36"/>
       <c r="AJ88" s="36"/>
       <c r="AK88" s="36"/>
-      <c r="AL88" s="35">
+      <c r="AL88" s="34">
         <v>2009</v>
       </c>
       <c r="AM88" s="36"/>
       <c r="AN88" s="36"/>
       <c r="AO88" s="36"/>
-      <c r="AP88" s="35">
+      <c r="AP88" s="34">
         <v>2010</v>
       </c>
       <c r="AQ88" s="36"/>
       <c r="AR88" s="36"/>
       <c r="AS88" s="36"/>
-      <c r="AT88" s="35">
+      <c r="AT88" s="34">
         <v>2011</v>
       </c>
       <c r="AU88" s="36"/>
       <c r="AV88" s="36"/>
       <c r="AW88" s="36"/>
-      <c r="AX88" s="35">
+      <c r="AX88" s="34">
         <v>2012</v>
       </c>
       <c r="AY88" s="36"/>
       <c r="AZ88" s="36"/>
       <c r="BA88" s="36"/>
-      <c r="BB88" s="35">
+      <c r="BB88" s="34">
         <v>2013</v>
       </c>
       <c r="BC88" s="36"/>
       <c r="BD88" s="36"/>
       <c r="BE88" s="36"/>
-      <c r="BF88" s="35">
+      <c r="BF88" s="34">
         <v>2014</v>
       </c>
       <c r="BG88" s="36"/>
       <c r="BH88" s="36"/>
       <c r="BI88" s="36"/>
-      <c r="BJ88" s="35">
+      <c r="BJ88" s="34">
         <v>2015</v>
       </c>
       <c r="BK88" s="36"/>
       <c r="BL88" s="36"/>
       <c r="BM88" s="36"/>
-      <c r="BN88" s="35">
+      <c r="BN88" s="34">
         <v>2016</v>
       </c>
       <c r="BO88" s="36"/>
       <c r="BP88" s="36"/>
       <c r="BQ88" s="36"/>
-      <c r="BR88" s="35">
+      <c r="BR88" s="34">
         <v>2017</v>
       </c>
       <c r="BS88" s="36"/>
       <c r="BT88" s="36"/>
       <c r="BU88" s="36"/>
-      <c r="BV88" s="35">
+      <c r="BV88" s="34">
         <v>2018</v>
       </c>
       <c r="BW88" s="36"/>
       <c r="BX88" s="36"/>
       <c r="BY88" s="36"/>
-      <c r="BZ88" s="35">
+      <c r="BZ88" s="34">
         <v>2019</v>
       </c>
       <c r="CA88" s="36"/>
       <c r="CB88" s="36"/>
       <c r="CC88" s="36"/>
-      <c r="CD88" s="34">
+      <c r="CD88" s="35">
         <v>2020</v>
       </c>
-      <c r="CE88" s="34"/>
-      <c r="CF88" s="34"/>
-      <c r="CG88" s="34"/>
-      <c r="CH88" s="34">
+      <c r="CE88" s="35"/>
+      <c r="CF88" s="35"/>
+      <c r="CG88" s="35"/>
+      <c r="CH88" s="35">
         <v>2021</v>
       </c>
-      <c r="CI88" s="34">
-        <v>0</v>
-      </c>
-      <c r="CJ88" s="34"/>
+      <c r="CI88" s="35"/>
+      <c r="CJ88" s="35"/>
+      <c r="CK88" s="35"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -36803,6 +36892,9 @@
       </c>
       <c r="CJ89" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CK89" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36894,6 +36986,7 @@
       <c r="CH90" s="22"/>
       <c r="CI90" s="22"/>
       <c r="CJ90" s="22"/>
+      <c r="CK90" s="22"/>
     </row>
     <row r="91" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -37158,9 +37251,11 @@
         <v>98.850495703148354</v>
       </c>
       <c r="CJ91" s="31">
-        <v>103.92475270144375</v>
-      </c>
-      <c r="CK91" s="10"/>
+        <v>103.78974021193046</v>
+      </c>
+      <c r="CK91" s="31">
+        <v>126.04300073763672</v>
+      </c>
       <c r="CL91" s="10"/>
       <c r="CM91" s="10"/>
       <c r="CN91" s="10"/>
@@ -37491,9 +37586,11 @@
         <v>106.35634207436557</v>
       </c>
       <c r="CJ92" s="31">
-        <v>115.7367234904618</v>
-      </c>
-      <c r="CK92" s="10"/>
+        <v>115.65937921871688</v>
+      </c>
+      <c r="CK92" s="31">
+        <v>121.82911475287257</v>
+      </c>
       <c r="CL92" s="10"/>
       <c r="CM92" s="10"/>
       <c r="CN92" s="10"/>
@@ -37824,9 +37921,11 @@
         <v>107.87169087657291</v>
       </c>
       <c r="CJ93" s="31">
-        <v>113.62791994432709</v>
-      </c>
-      <c r="CK93" s="10"/>
+        <v>113.80266810546379</v>
+      </c>
+      <c r="CK93" s="31">
+        <v>129.19003601521632</v>
+      </c>
       <c r="CL93" s="10"/>
       <c r="CM93" s="10"/>
       <c r="CN93" s="10"/>
@@ -37982,7 +38081,7 @@
       <c r="CH94" s="25"/>
       <c r="CI94" s="25"/>
       <c r="CJ94" s="25"/>
-      <c r="CK94" s="10"/>
+      <c r="CK94" s="25"/>
       <c r="CL94" s="10"/>
       <c r="CM94" s="10"/>
       <c r="CN94" s="10"/>
@@ -38313,9 +38412,11 @@
         <v>104.79008862630721</v>
       </c>
       <c r="CJ95" s="31">
-        <v>112.39478194149201</v>
-      </c>
-      <c r="CK95" s="10"/>
+        <v>112.31066539787781</v>
+      </c>
+      <c r="CK95" s="31">
+        <v>123.92192025161776</v>
+      </c>
       <c r="CL95" s="10"/>
       <c r="CM95" s="10"/>
       <c r="CN95" s="10"/>
@@ -38472,6 +38573,7 @@
       <c r="CH96" s="27"/>
       <c r="CI96" s="27"/>
       <c r="CJ96" s="27"/>
+      <c r="CK96" s="27"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
@@ -38564,6 +38666,7 @@
       <c r="CH97" s="22"/>
       <c r="CI97" s="22"/>
       <c r="CJ97" s="22"/>
+      <c r="CK97" s="22"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
@@ -38653,6 +38756,7 @@
       <c r="CH98" s="22"/>
       <c r="CI98" s="22"/>
       <c r="CJ98" s="22"/>
+      <c r="CK98" s="22"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
@@ -38742,6 +38846,7 @@
       <c r="CH99" s="22"/>
       <c r="CI99" s="22"/>
       <c r="CJ99" s="22"/>
+      <c r="CK99" s="22"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -38834,6 +38939,7 @@
       <c r="CH100" s="22"/>
       <c r="CI100" s="22"/>
       <c r="CJ100" s="22"/>
+      <c r="CK100" s="22"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -38926,10 +39032,11 @@
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
+      <c r="CK101" s="22"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39018,6 +39125,7 @@
       <c r="CH102" s="22"/>
       <c r="CI102" s="22"/>
       <c r="CJ102" s="22"/>
+      <c r="CK102" s="22"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -39108,6 +39216,7 @@
       <c r="CH103" s="22"/>
       <c r="CI103" s="22"/>
       <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -39200,10 +39309,11 @@
       <c r="CH104" s="22"/>
       <c r="CI104" s="22"/>
       <c r="CJ104" s="22"/>
+      <c r="CK104" s="22"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39292,6 +39402,7 @@
       <c r="CH105" s="22"/>
       <c r="CI105" s="22"/>
       <c r="CJ105" s="22"/>
+      <c r="CK105" s="22"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -39384,6 +39495,7 @@
       <c r="CH106" s="22"/>
       <c r="CI106" s="22"/>
       <c r="CJ106" s="22"/>
+      <c r="CK106" s="22"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
@@ -39474,142 +39586,142 @@
       <c r="CH107" s="22"/>
       <c r="CI107" s="22"/>
       <c r="CJ107" s="22"/>
+      <c r="CK107" s="22"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="35">
+      <c r="B108" s="34">
         <v>2000</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
-      <c r="F108" s="35">
+      <c r="F108" s="34">
         <v>2001</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
       <c r="I108" s="36"/>
-      <c r="J108" s="35">
+      <c r="J108" s="34">
         <v>2002</v>
       </c>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
-      <c r="N108" s="35">
+      <c r="N108" s="34">
         <v>2003</v>
       </c>
       <c r="O108" s="36"/>
       <c r="P108" s="36"/>
       <c r="Q108" s="36"/>
-      <c r="R108" s="35">
+      <c r="R108" s="34">
         <v>2004</v>
       </c>
       <c r="S108" s="36"/>
       <c r="T108" s="36"/>
       <c r="U108" s="36"/>
-      <c r="V108" s="35">
+      <c r="V108" s="34">
         <v>2005</v>
       </c>
       <c r="W108" s="36"/>
       <c r="X108" s="36"/>
       <c r="Y108" s="36"/>
-      <c r="Z108" s="35">
+      <c r="Z108" s="34">
         <v>2006</v>
       </c>
       <c r="AA108" s="36"/>
       <c r="AB108" s="36"/>
       <c r="AC108" s="36"/>
-      <c r="AD108" s="35">
+      <c r="AD108" s="34">
         <v>2007</v>
       </c>
       <c r="AE108" s="36"/>
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
-      <c r="AH108" s="35">
+      <c r="AH108" s="34">
         <v>2008</v>
       </c>
       <c r="AI108" s="36"/>
       <c r="AJ108" s="36"/>
       <c r="AK108" s="36"/>
-      <c r="AL108" s="35">
+      <c r="AL108" s="34">
         <v>2009</v>
       </c>
       <c r="AM108" s="36"/>
       <c r="AN108" s="36"/>
       <c r="AO108" s="36"/>
-      <c r="AP108" s="35">
+      <c r="AP108" s="34">
         <v>2010</v>
       </c>
       <c r="AQ108" s="36"/>
       <c r="AR108" s="36"/>
       <c r="AS108" s="36"/>
-      <c r="AT108" s="35">
+      <c r="AT108" s="34">
         <v>2011</v>
       </c>
       <c r="AU108" s="36"/>
       <c r="AV108" s="36"/>
       <c r="AW108" s="36"/>
-      <c r="AX108" s="35">
+      <c r="AX108" s="34">
         <v>2012</v>
       </c>
       <c r="AY108" s="36"/>
       <c r="AZ108" s="36"/>
       <c r="BA108" s="36"/>
-      <c r="BB108" s="35">
+      <c r="BB108" s="34">
         <v>2013</v>
       </c>
       <c r="BC108" s="36"/>
       <c r="BD108" s="36"/>
       <c r="BE108" s="36"/>
-      <c r="BF108" s="35">
+      <c r="BF108" s="34">
         <v>2014</v>
       </c>
       <c r="BG108" s="36"/>
       <c r="BH108" s="36"/>
       <c r="BI108" s="36"/>
-      <c r="BJ108" s="35">
+      <c r="BJ108" s="34">
         <v>2015</v>
       </c>
       <c r="BK108" s="36"/>
       <c r="BL108" s="36"/>
       <c r="BM108" s="36"/>
-      <c r="BN108" s="35">
+      <c r="BN108" s="34">
         <v>2016</v>
       </c>
       <c r="BO108" s="36"/>
       <c r="BP108" s="36"/>
       <c r="BQ108" s="36"/>
-      <c r="BR108" s="35">
+      <c r="BR108" s="34">
         <v>2017</v>
       </c>
       <c r="BS108" s="36"/>
       <c r="BT108" s="36"/>
       <c r="BU108" s="36"/>
-      <c r="BV108" s="35">
+      <c r="BV108" s="34">
         <v>2018</v>
       </c>
       <c r="BW108" s="36"/>
       <c r="BX108" s="36"/>
       <c r="BY108" s="36"/>
-      <c r="BZ108" s="35">
+      <c r="BZ108" s="34">
         <v>2019</v>
       </c>
       <c r="CA108" s="36"/>
       <c r="CB108" s="36"/>
       <c r="CC108" s="36"/>
-      <c r="CD108" s="34">
+      <c r="CD108" s="35">
         <v>2020</v>
       </c>
-      <c r="CE108" s="34"/>
-      <c r="CF108" s="34"/>
-      <c r="CG108" s="34"/>
-      <c r="CH108" s="34">
+      <c r="CE108" s="35"/>
+      <c r="CF108" s="35"/>
+      <c r="CG108" s="35"/>
+      <c r="CH108" s="35">
         <v>2021</v>
       </c>
-      <c r="CI108" s="34">
-        <v>0</v>
-      </c>
-      <c r="CJ108" s="34"/>
+      <c r="CI108" s="35"/>
+      <c r="CJ108" s="35"/>
+      <c r="CK108" s="35"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
@@ -39875,6 +39987,9 @@
       </c>
       <c r="CJ109" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CK109" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39966,6 +40081,7 @@
       <c r="CH110" s="22"/>
       <c r="CI110" s="22"/>
       <c r="CJ110" s="22"/>
+      <c r="CK110" s="22"/>
     </row>
     <row r="111" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -40230,9 +40346,11 @@
         <v>20.488869874719885</v>
       </c>
       <c r="CJ111" s="31">
-        <v>25.044409396238258</v>
-      </c>
-      <c r="CK111" s="10"/>
+        <v>25.092046054832373</v>
+      </c>
+      <c r="CK111" s="31">
+        <v>37.143543963251545</v>
+      </c>
       <c r="CL111" s="10"/>
       <c r="CM111" s="10"/>
       <c r="CN111" s="10"/>
@@ -40563,9 +40681,11 @@
         <v>75.162483895910398</v>
       </c>
       <c r="CJ112" s="31">
-        <v>68.119166522555446</v>
-      </c>
-      <c r="CK112" s="10"/>
+        <v>68.039069043063932</v>
+      </c>
+      <c r="CK112" s="31">
+        <v>55.010863904491636</v>
+      </c>
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
@@ -40896,9 +41016,11 @@
         <v>4.3486462293697139</v>
       </c>
       <c r="CJ113" s="31">
-        <v>6.8364240812063022</v>
-      </c>
-      <c r="CK113" s="10"/>
+        <v>6.8688849021036971</v>
+      </c>
+      <c r="CK113" s="31">
+        <v>7.8455921322568223</v>
+      </c>
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
@@ -41054,7 +41176,7 @@
       <c r="CH114" s="25"/>
       <c r="CI114" s="25"/>
       <c r="CJ114" s="25"/>
-      <c r="CK114" s="10"/>
+      <c r="CK114" s="25"/>
       <c r="CL114" s="10"/>
       <c r="CM114" s="10"/>
       <c r="CN114" s="10"/>
@@ -41387,7 +41509,9 @@
       <c r="CJ115" s="31">
         <v>100</v>
       </c>
-      <c r="CK115" s="10"/>
+      <c r="CK115" s="31">
+        <v>100</v>
+      </c>
       <c r="CL115" s="10"/>
       <c r="CM115" s="10"/>
       <c r="CN115" s="10"/>
@@ -41544,6 +41668,7 @@
       <c r="CH116" s="27"/>
       <c r="CI116" s="27"/>
       <c r="CJ116" s="27"/>
+      <c r="CK116" s="27"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
@@ -41636,6 +41761,7 @@
       <c r="CH117" s="22"/>
       <c r="CI117" s="22"/>
       <c r="CJ117" s="22"/>
+      <c r="CK117" s="22"/>
     </row>
     <row r="118" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
@@ -41725,7 +41851,7 @@
       <c r="CH118" s="25"/>
       <c r="CI118" s="25"/>
       <c r="CJ118" s="25"/>
-      <c r="CK118" s="10"/>
+      <c r="CK118" s="25"/>
       <c r="CL118" s="10"/>
       <c r="CM118" s="10"/>
       <c r="CN118" s="10"/>
@@ -41881,7 +42007,7 @@
       <c r="CH119" s="25"/>
       <c r="CI119" s="25"/>
       <c r="CJ119" s="25"/>
-      <c r="CK119" s="10"/>
+      <c r="CK119" s="25"/>
       <c r="CL119" s="10"/>
       <c r="CM119" s="10"/>
       <c r="CN119" s="10"/>
@@ -42040,6 +42166,7 @@
       <c r="CH120" s="22"/>
       <c r="CI120" s="22"/>
       <c r="CJ120" s="22"/>
+      <c r="CK120" s="22"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -42132,10 +42259,11 @@
       <c r="CH121" s="22"/>
       <c r="CI121" s="22"/>
       <c r="CJ121" s="22"/>
+      <c r="CK121" s="22"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -42224,6 +42352,7 @@
       <c r="CH122" s="22"/>
       <c r="CI122" s="22"/>
       <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -42314,6 +42443,7 @@
       <c r="CH123" s="22"/>
       <c r="CI123" s="22"/>
       <c r="CJ123" s="22"/>
+      <c r="CK123" s="22"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -42406,10 +42536,11 @@
       <c r="CH124" s="22"/>
       <c r="CI124" s="22"/>
       <c r="CJ124" s="22"/>
+      <c r="CK124" s="22"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -42498,6 +42629,7 @@
       <c r="CH125" s="22"/>
       <c r="CI125" s="22"/>
       <c r="CJ125" s="22"/>
+      <c r="CK125" s="22"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -42590,6 +42722,7 @@
       <c r="CH126" s="22"/>
       <c r="CI126" s="22"/>
       <c r="CJ126" s="22"/>
+      <c r="CK126" s="22"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -42680,142 +42813,142 @@
       <c r="CH127" s="22"/>
       <c r="CI127" s="22"/>
       <c r="CJ127" s="22"/>
+      <c r="CK127" s="22"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="35">
+      <c r="B128" s="34">
         <v>2000</v>
       </c>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
-      <c r="F128" s="35">
+      <c r="F128" s="34">
         <v>2001</v>
       </c>
       <c r="G128" s="36"/>
       <c r="H128" s="36"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="35">
+      <c r="J128" s="34">
         <v>2002</v>
       </c>
       <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="36"/>
-      <c r="N128" s="35">
+      <c r="N128" s="34">
         <v>2003</v>
       </c>
       <c r="O128" s="36"/>
       <c r="P128" s="36"/>
       <c r="Q128" s="36"/>
-      <c r="R128" s="35">
+      <c r="R128" s="34">
         <v>2004</v>
       </c>
       <c r="S128" s="36"/>
       <c r="T128" s="36"/>
       <c r="U128" s="36"/>
-      <c r="V128" s="35">
+      <c r="V128" s="34">
         <v>2005</v>
       </c>
       <c r="W128" s="36"/>
       <c r="X128" s="36"/>
       <c r="Y128" s="36"/>
-      <c r="Z128" s="35">
+      <c r="Z128" s="34">
         <v>2006</v>
       </c>
       <c r="AA128" s="36"/>
       <c r="AB128" s="36"/>
       <c r="AC128" s="36"/>
-      <c r="AD128" s="35">
+      <c r="AD128" s="34">
         <v>2007</v>
       </c>
       <c r="AE128" s="36"/>
       <c r="AF128" s="36"/>
       <c r="AG128" s="36"/>
-      <c r="AH128" s="35">
+      <c r="AH128" s="34">
         <v>2008</v>
       </c>
       <c r="AI128" s="36"/>
       <c r="AJ128" s="36"/>
       <c r="AK128" s="36"/>
-      <c r="AL128" s="35">
+      <c r="AL128" s="34">
         <v>2009</v>
       </c>
       <c r="AM128" s="36"/>
       <c r="AN128" s="36"/>
       <c r="AO128" s="36"/>
-      <c r="AP128" s="35">
+      <c r="AP128" s="34">
         <v>2010</v>
       </c>
       <c r="AQ128" s="36"/>
       <c r="AR128" s="36"/>
       <c r="AS128" s="36"/>
-      <c r="AT128" s="35">
+      <c r="AT128" s="34">
         <v>2011</v>
       </c>
       <c r="AU128" s="36"/>
       <c r="AV128" s="36"/>
       <c r="AW128" s="36"/>
-      <c r="AX128" s="35">
+      <c r="AX128" s="34">
         <v>2012</v>
       </c>
       <c r="AY128" s="36"/>
       <c r="AZ128" s="36"/>
       <c r="BA128" s="36"/>
-      <c r="BB128" s="35">
+      <c r="BB128" s="34">
         <v>2013</v>
       </c>
       <c r="BC128" s="36"/>
       <c r="BD128" s="36"/>
       <c r="BE128" s="36"/>
-      <c r="BF128" s="35">
+      <c r="BF128" s="34">
         <v>2014</v>
       </c>
       <c r="BG128" s="36"/>
       <c r="BH128" s="36"/>
       <c r="BI128" s="36"/>
-      <c r="BJ128" s="35">
+      <c r="BJ128" s="34">
         <v>2015</v>
       </c>
       <c r="BK128" s="36"/>
       <c r="BL128" s="36"/>
       <c r="BM128" s="36"/>
-      <c r="BN128" s="35">
+      <c r="BN128" s="34">
         <v>2016</v>
       </c>
       <c r="BO128" s="36"/>
       <c r="BP128" s="36"/>
       <c r="BQ128" s="36"/>
-      <c r="BR128" s="35">
+      <c r="BR128" s="34">
         <v>2017</v>
       </c>
       <c r="BS128" s="36"/>
       <c r="BT128" s="36"/>
       <c r="BU128" s="36"/>
-      <c r="BV128" s="35">
+      <c r="BV128" s="34">
         <v>2018</v>
       </c>
       <c r="BW128" s="36"/>
       <c r="BX128" s="36"/>
       <c r="BY128" s="36"/>
-      <c r="BZ128" s="35">
+      <c r="BZ128" s="34">
         <v>2019</v>
       </c>
       <c r="CA128" s="36"/>
       <c r="CB128" s="36"/>
       <c r="CC128" s="36"/>
-      <c r="CD128" s="34">
+      <c r="CD128" s="35">
         <v>2020</v>
       </c>
-      <c r="CE128" s="34"/>
-      <c r="CF128" s="34"/>
-      <c r="CG128" s="34"/>
-      <c r="CH128" s="34">
+      <c r="CE128" s="35"/>
+      <c r="CF128" s="35"/>
+      <c r="CG128" s="35"/>
+      <c r="CH128" s="35">
         <v>2021</v>
       </c>
-      <c r="CI128" s="34">
-        <v>0</v>
-      </c>
-      <c r="CJ128" s="34"/>
+      <c r="CI128" s="35"/>
+      <c r="CJ128" s="35"/>
+      <c r="CK128" s="35"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -43081,6 +43214,9 @@
       </c>
       <c r="CJ129" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CK129" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -43172,6 +43308,7 @@
       <c r="CH130" s="22"/>
       <c r="CI130" s="22"/>
       <c r="CJ130" s="22"/>
+      <c r="CK130" s="22"/>
     </row>
     <row r="131" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
@@ -43436,9 +43573,11 @@
         <v>21.719976968779029</v>
       </c>
       <c r="CJ131" s="31">
-        <v>27.085567776429727</v>
-      </c>
-      <c r="CK131" s="10"/>
+        <v>27.152051665781919</v>
+      </c>
+      <c r="CK131" s="31">
+        <v>36.518483897869316</v>
+      </c>
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
@@ -43769,9 +43908,11 @@
         <v>74.055605854878408</v>
       </c>
       <c r="CJ132" s="31">
-        <v>66.152199893318866</v>
-      </c>
-      <c r="CK132" s="10"/>
+        <v>66.069117514700039</v>
+      </c>
+      <c r="CK132" s="31">
+        <v>55.955851797603849</v>
+      </c>
       <c r="CL132" s="10"/>
       <c r="CM132" s="10"/>
       <c r="CN132" s="10"/>
@@ -44102,9 +44243,11 @@
         <v>4.2244171763425538</v>
       </c>
       <c r="CJ133" s="31">
-        <v>6.7622323302514085</v>
-      </c>
-      <c r="CK133" s="10"/>
+        <v>6.7788308195180615</v>
+      </c>
+      <c r="CK133" s="31">
+        <v>7.5256643045268339</v>
+      </c>
       <c r="CL133" s="10"/>
       <c r="CM133" s="10"/>
       <c r="CN133" s="10"/>
@@ -44260,7 +44403,7 @@
       <c r="CH134" s="25"/>
       <c r="CI134" s="25"/>
       <c r="CJ134" s="25"/>
-      <c r="CK134" s="10"/>
+      <c r="CK134" s="25"/>
       <c r="CL134" s="10"/>
       <c r="CM134" s="10"/>
       <c r="CN134" s="10"/>
@@ -44593,7 +44736,9 @@
       <c r="CJ135" s="31">
         <v>100</v>
       </c>
-      <c r="CK135" s="10"/>
+      <c r="CK135" s="31">
+        <v>100</v>
+      </c>
       <c r="CL135" s="10"/>
       <c r="CM135" s="10"/>
       <c r="CN135" s="10"/>
@@ -44750,6 +44895,7 @@
       <c r="CH136" s="27"/>
       <c r="CI136" s="27"/>
       <c r="CJ136" s="27"/>
+      <c r="CK136" s="27"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
@@ -44842,6 +44988,7 @@
       <c r="CH137" s="22"/>
       <c r="CI137" s="22"/>
       <c r="CJ137" s="22"/>
+      <c r="CK137" s="22"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -44932,7 +45079,7 @@
       <c r="CH138" s="32"/>
       <c r="CI138" s="32"/>
       <c r="CJ138" s="32"/>
-      <c r="CK138" s="19"/>
+      <c r="CK138" s="32"/>
       <c r="CL138" s="19"/>
       <c r="CM138" s="19"/>
       <c r="CN138" s="19"/>
@@ -45089,7 +45236,7 @@
       <c r="CH139" s="32"/>
       <c r="CI139" s="32"/>
       <c r="CJ139" s="32"/>
-      <c r="CK139" s="19"/>
+      <c r="CK139" s="32"/>
       <c r="CL139" s="19"/>
       <c r="CM139" s="19"/>
       <c r="CN139" s="19"/>
@@ -45177,6 +45324,10 @@
     <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AH128:AK128"/>
     <mergeCell ref="BF128:BI128"/>
     <mergeCell ref="BJ128:BM128"/>
@@ -45189,6 +45340,8 @@
     <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BB128:BE128"/>
     <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
@@ -45205,15 +45358,12 @@
     <mergeCell ref="J108:M108"/>
     <mergeCell ref="N108:Q108"/>
     <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="R88:U88"/>
     <mergeCell ref="B88:E88"/>
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="J88:M88"/>
     <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -45237,6 +45387,7 @@
     <mergeCell ref="N69:Q69"/>
     <mergeCell ref="R69:U69"/>
     <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="J49:M49"/>
@@ -45261,10 +45412,13 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="V49:Y49"/>
     <mergeCell ref="AL29:AO29"/>
     <mergeCell ref="AP29:AS29"/>
@@ -45280,6 +45434,14 @@
     <mergeCell ref="BF49:BI49"/>
     <mergeCell ref="BJ49:BM49"/>
     <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="BR49:BU49"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BR128:BU128"/>
@@ -45296,30 +45458,15 @@
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
     <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="CD49:CE49"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH29:CJ29"/>
-    <mergeCell ref="CD69:CF69"/>
-    <mergeCell ref="CH88:CJ88"/>
-    <mergeCell ref="CH108:CJ108"/>
-    <mergeCell ref="CH128:CJ128"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="86" man="1"/>
-    <brk id="80" max="86" man="1"/>
-    <brk id="99" max="86" man="1"/>
+    <brk id="40" max="88" man="1"/>
+    <brk id="80" max="88" man="1"/>
+    <brk id="99" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93057DB3-DCA6-4F52-B286-0151B6DB2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -322,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CK$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CL$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,25 +615,28 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -717,9 +721,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -735,56 +739,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23366,7 +23380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23418,7 +23432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23619,29 +23633,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY139"/>
+  <dimension ref="A1:EY162"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ84" sqref="CJ84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="81" width="9.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="9.36328125" style="32" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="77" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="78" max="90" width="9.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
       <c r="CE1" s="21"/>
       <c r="CF1" s="21"/>
@@ -23650,11 +23668,16 @@
       <c r="CI1" s="21"/>
       <c r="CJ1" s="21"/>
       <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
       <c r="CD2" s="21"/>
       <c r="CE2" s="21"/>
       <c r="CF2" s="21"/>
@@ -23663,11 +23686,16 @@
       <c r="CI2" s="21"/>
       <c r="CJ2" s="21"/>
       <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ3" s="21"/>
+      <c r="CA3" s="21"/>
+      <c r="CB3" s="21"/>
+      <c r="CC3" s="21"/>
       <c r="CD3" s="21"/>
       <c r="CE3" s="21"/>
       <c r="CF3" s="21"/>
@@ -23676,9 +23704,14 @@
       <c r="CI3" s="21"/>
       <c r="CJ3" s="21"/>
       <c r="CK3" s="21"/>
+      <c r="CL3" s="21"/>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="BZ4" s="21"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="21"/>
+      <c r="CC4" s="21"/>
       <c r="CD4" s="21"/>
       <c r="CE4" s="21"/>
       <c r="CF4" s="21"/>
@@ -23687,11 +23720,16 @@
       <c r="CI4" s="21"/>
       <c r="CJ4" s="21"/>
       <c r="CK4" s="21"/>
+      <c r="CL4" s="21"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="21"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="21"/>
       <c r="CD5" s="21"/>
       <c r="CE5" s="21"/>
       <c r="CF5" s="21"/>
@@ -23700,11 +23738,16 @@
       <c r="CI5" s="21"/>
       <c r="CJ5" s="21"/>
       <c r="CK5" s="21"/>
+      <c r="CL5" s="21"/>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
       <c r="CD6" s="21"/>
       <c r="CE6" s="21"/>
       <c r="CF6" s="21"/>
@@ -23713,11 +23756,16 @@
       <c r="CI6" s="21"/>
       <c r="CJ6" s="21"/>
       <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
       <c r="CD7" s="21"/>
       <c r="CE7" s="21"/>
       <c r="CF7" s="21"/>
@@ -23726,8 +23774,9 @@
       <c r="CI7" s="21"/>
       <c r="CJ7" s="21"/>
       <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23805,10 +23854,10 @@
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
+      <c r="BZ8" s="22"/>
+      <c r="CA8" s="22"/>
+      <c r="CB8" s="22"/>
+      <c r="CC8" s="22"/>
       <c r="CD8" s="22"/>
       <c r="CE8" s="22"/>
       <c r="CF8" s="22"/>
@@ -23817,143 +23866,147 @@
       <c r="CI8" s="22"/>
       <c r="CJ8" s="22"/>
       <c r="CK8" s="22"/>
+      <c r="CL8" s="22"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="34">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="34"/>
-      <c r="BQ9" s="34"/>
-      <c r="BR9" s="34">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
       <c r="BZ9" s="34">
         <v>2019</v>
       </c>
       <c r="CA9" s="34"/>
       <c r="CB9" s="34"/>
       <c r="CC9" s="34"/>
-      <c r="CD9" s="35">
+      <c r="CD9" s="34">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35">
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34">
         <v>2021</v>
       </c>
-      <c r="CI9" s="35"/>
-      <c r="CJ9" s="35"/>
-      <c r="CK9" s="35"/>
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24185,16 +24238,16 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="7" t="s">
+      <c r="BZ10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="7" t="s">
+      <c r="CA10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="7" t="s">
+      <c r="CB10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="7" t="s">
+      <c r="CC10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="23" t="s">
@@ -24221,8 +24274,11 @@
       <c r="CK10" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24300,10 +24356,10 @@
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
+      <c r="BZ11" s="22"/>
+      <c r="CA11" s="22"/>
+      <c r="CB11" s="22"/>
+      <c r="CC11" s="22"/>
       <c r="CD11" s="22"/>
       <c r="CE11" s="22"/>
       <c r="CF11" s="22"/>
@@ -24312,8 +24368,9 @@
       <c r="CI11" s="22"/>
       <c r="CJ11" s="22"/>
       <c r="CK11" s="22"/>
+      <c r="CL11" s="22"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -24545,43 +24602,45 @@
       <c r="BY12" s="9">
         <v>20298.021894886861</v>
       </c>
-      <c r="BZ12" s="9">
+      <c r="BZ12" s="24">
         <v>14240.799842751498</v>
       </c>
-      <c r="CA12" s="9">
+      <c r="CA12" s="24">
         <v>14197.344829698912</v>
       </c>
-      <c r="CB12" s="9">
+      <c r="CB12" s="24">
         <v>15703.773925655849</v>
       </c>
-      <c r="CC12" s="9">
+      <c r="CC12" s="24">
         <v>24601.79064501289</v>
       </c>
       <c r="CD12" s="24">
-        <v>20198.94426394043</v>
+        <v>19849.040434675124</v>
       </c>
       <c r="CE12" s="24">
-        <v>24810.938080414759</v>
+        <v>24381.141249027889</v>
       </c>
       <c r="CF12" s="24">
-        <v>21444.707343888167</v>
+        <v>21073.223313878949</v>
       </c>
       <c r="CG12" s="24">
-        <v>35003.10035338813</v>
+        <v>34396.745947446572</v>
       </c>
       <c r="CH12" s="24">
-        <v>31961.652055161998</v>
+        <v>31407.98428433144</v>
       </c>
       <c r="CI12" s="24">
-        <v>17908.230960060915</v>
+        <v>17598.008875856282</v>
       </c>
       <c r="CJ12" s="24">
-        <v>24626.217496638546</v>
+        <v>24199.596709305308</v>
       </c>
       <c r="CK12" s="24">
-        <v>43947.121362027232</v>
-      </c>
-      <c r="CL12" s="10"/>
+        <v>42734.76871668618</v>
+      </c>
+      <c r="CL12" s="24">
+        <v>36469.915561264919</v>
+      </c>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
@@ -24648,7 +24707,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24880,16 +24939,16 @@
       <c r="BY13" s="9">
         <v>59000.560073851557</v>
       </c>
-      <c r="BZ13" s="9">
+      <c r="BZ13" s="24">
         <v>52079.267042619525</v>
       </c>
-      <c r="CA13" s="9">
+      <c r="CA13" s="24">
         <v>66616.700266164713</v>
       </c>
-      <c r="CB13" s="9">
+      <c r="CB13" s="24">
         <v>60279.541133929597</v>
       </c>
-      <c r="CC13" s="9">
+      <c r="CC13" s="24">
         <v>61689.986838329321</v>
       </c>
       <c r="CD13" s="24">
@@ -24902,7 +24961,7 @@
         <v>53887.537627913698</v>
       </c>
       <c r="CG13" s="24">
-        <v>54759.936764427694</v>
+        <v>53606.96636225743</v>
       </c>
       <c r="CH13" s="24">
         <v>52025.742658633266</v>
@@ -24911,12 +24970,14 @@
         <v>65695.527833900342</v>
       </c>
       <c r="CJ13" s="24">
-        <v>66775.938034778665</v>
+        <v>66816.945679548589</v>
       </c>
       <c r="CK13" s="24">
-        <v>65087.195627657689</v>
-      </c>
-      <c r="CL13" s="10"/>
+        <v>60788.831474174149</v>
+      </c>
+      <c r="CL13" s="24">
+        <v>50910.167298339657</v>
+      </c>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
@@ -24983,7 +25044,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -25215,43 +25276,45 @@
       <c r="BY14" s="9">
         <v>5212.2929028950757</v>
       </c>
-      <c r="BZ14" s="9">
+      <c r="BZ14" s="24">
         <v>4136.8440860780356</v>
       </c>
-      <c r="CA14" s="9">
+      <c r="CA14" s="24">
         <v>4594.9644464858584</v>
       </c>
-      <c r="CB14" s="9">
+      <c r="CB14" s="24">
         <v>4842.5647412785866</v>
       </c>
-      <c r="CC14" s="9">
+      <c r="CC14" s="24">
         <v>6878.6244193599869</v>
       </c>
       <c r="CD14" s="24">
-        <v>4272.8734496364223</v>
+        <v>4028.735053106042</v>
       </c>
       <c r="CE14" s="24">
-        <v>6655.26677661144</v>
+        <v>6265.5875228651039</v>
       </c>
       <c r="CF14" s="24">
-        <v>5439.4395221005134</v>
+        <v>5131.9331148659558</v>
       </c>
       <c r="CG14" s="24">
-        <v>8547.7300914640709</v>
+        <v>7951.9212504024072</v>
       </c>
       <c r="CH14" s="24">
-        <v>6047.4143139134103</v>
+        <v>5699.8660801649357</v>
       </c>
       <c r="CI14" s="24">
-        <v>3800.9202808808195</v>
+        <v>3578.368754650779</v>
       </c>
       <c r="CJ14" s="24">
-        <v>6741.3654984108252</v>
+        <v>6346.1918226433372</v>
       </c>
       <c r="CK14" s="24">
-        <v>9282.6680710483688</v>
-      </c>
-      <c r="CL14" s="10"/>
+        <v>8794.2786772343698</v>
+      </c>
+      <c r="CL14" s="24">
+        <v>5926.3451606485323</v>
+      </c>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
@@ -25318,7 +25381,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -25395,10 +25458,10 @@
       <c r="BW15" s="12"/>
       <c r="BX15" s="12"/>
       <c r="BY15" s="12"/>
-      <c r="BZ15" s="12"/>
-      <c r="CA15" s="12"/>
-      <c r="CB15" s="12"/>
-      <c r="CC15" s="12"/>
+      <c r="BZ15" s="25"/>
+      <c r="CA15" s="25"/>
+      <c r="CB15" s="25"/>
+      <c r="CC15" s="25"/>
       <c r="CD15" s="25"/>
       <c r="CE15" s="25"/>
       <c r="CF15" s="25"/>
@@ -25407,7 +25470,7 @@
       <c r="CI15" s="25"/>
       <c r="CJ15" s="25"/>
       <c r="CK15" s="25"/>
-      <c r="CL15" s="10"/>
+      <c r="CL15" s="25"/>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
@@ -25474,7 +25537,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -25706,43 +25769,45 @@
       <c r="BY16" s="14">
         <v>84510.874871633496</v>
       </c>
-      <c r="BZ16" s="14">
+      <c r="BZ16" s="26">
         <v>70456.910971449062</v>
       </c>
-      <c r="CA16" s="14">
+      <c r="CA16" s="26">
         <v>85409.009542349479</v>
       </c>
-      <c r="CB16" s="14">
+      <c r="CB16" s="26">
         <v>80825.87980086403</v>
       </c>
-      <c r="CC16" s="14">
+      <c r="CC16" s="26">
         <v>93170.4019027022</v>
       </c>
       <c r="CD16" s="26">
-        <v>75797.378657055175</v>
+        <v>75203.336431259493</v>
       </c>
       <c r="CE16" s="26">
-        <v>74827.910374430736</v>
+        <v>74008.434289297511</v>
       </c>
       <c r="CF16" s="26">
-        <v>80771.684493902372</v>
+        <v>80092.694056658598</v>
       </c>
       <c r="CG16" s="26">
-        <v>98310.767209279889</v>
+        <v>95955.633560106406</v>
       </c>
       <c r="CH16" s="26">
-        <v>90034.809027708674</v>
+        <v>89133.593023129652</v>
       </c>
       <c r="CI16" s="26">
-        <v>87404.679074842075</v>
+        <v>86871.905464407406</v>
       </c>
       <c r="CJ16" s="26">
-        <v>98143.521029828044</v>
+        <v>97362.734211497227</v>
       </c>
       <c r="CK16" s="26">
-        <v>118316.98506073328</v>
-      </c>
-      <c r="CL16" s="10"/>
+        <v>112317.8788680947</v>
+      </c>
+      <c r="CL16" s="26">
+        <v>93306.428020253108</v>
+      </c>
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
@@ -25809,7 +25874,7 @@
       <c r="EX16" s="10"/>
       <c r="EY16" s="10"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -25887,10 +25952,10 @@
       <c r="BW17" s="15"/>
       <c r="BX17" s="15"/>
       <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="15"/>
-      <c r="CC17" s="15"/>
+      <c r="BZ17" s="27"/>
+      <c r="CA17" s="27"/>
+      <c r="CB17" s="27"/>
+      <c r="CC17" s="27"/>
       <c r="CD17" s="27"/>
       <c r="CE17" s="27"/>
       <c r="CF17" s="27"/>
@@ -25899,8 +25964,9 @@
       <c r="CI17" s="27"/>
       <c r="CJ17" s="27"/>
       <c r="CK17" s="27"/>
+      <c r="CL17" s="27"/>
     </row>
-    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
@@ -25980,10 +26046,10 @@
       <c r="BW18" s="1"/>
       <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
+      <c r="BZ18" s="22"/>
+      <c r="CA18" s="22"/>
+      <c r="CB18" s="22"/>
+      <c r="CC18" s="22"/>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
@@ -25992,8 +26058,9 @@
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
       <c r="CK18" s="22"/>
+      <c r="CL18" s="22"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -26070,10 +26137,10 @@
       <c r="BW19" s="12"/>
       <c r="BX19" s="12"/>
       <c r="BY19" s="12"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
+      <c r="BZ19" s="25"/>
+      <c r="CA19" s="25"/>
+      <c r="CB19" s="25"/>
+      <c r="CC19" s="25"/>
       <c r="CD19" s="25"/>
       <c r="CE19" s="25"/>
       <c r="CF19" s="25"/>
@@ -26082,7 +26149,7 @@
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
       <c r="CK19" s="25"/>
-      <c r="CL19" s="10"/>
+      <c r="CL19" s="25"/>
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
@@ -26149,7 +26216,7 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -26226,10 +26293,10 @@
       <c r="BW20" s="12"/>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
-      <c r="BZ20" s="12"/>
-      <c r="CA20" s="12"/>
-      <c r="CB20" s="12"/>
-      <c r="CC20" s="12"/>
+      <c r="BZ20" s="25"/>
+      <c r="CA20" s="25"/>
+      <c r="CB20" s="25"/>
+      <c r="CC20" s="25"/>
       <c r="CD20" s="25"/>
       <c r="CE20" s="25"/>
       <c r="CF20" s="25"/>
@@ -26238,7 +26305,7 @@
       <c r="CI20" s="25"/>
       <c r="CJ20" s="25"/>
       <c r="CK20" s="25"/>
-      <c r="CL20" s="10"/>
+      <c r="CL20" s="25"/>
       <c r="CM20" s="10"/>
       <c r="CN20" s="10"/>
       <c r="CO20" s="10"/>
@@ -26305,7 +26372,7 @@
       <c r="EX20" s="10"/>
       <c r="EY20" s="10"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -26385,10 +26452,10 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="22"/>
       <c r="CD21" s="22"/>
       <c r="CE21" s="22"/>
       <c r="CF21" s="22"/>
@@ -26397,8 +26464,9 @@
       <c r="CI21" s="22"/>
       <c r="CJ21" s="22"/>
       <c r="CK21" s="22"/>
+      <c r="CL21" s="22"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -26478,10 +26546,10 @@
       <c r="BW22" s="1"/>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
+      <c r="BZ22" s="22"/>
+      <c r="CA22" s="22"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="22"/>
       <c r="CD22" s="22"/>
       <c r="CE22" s="22"/>
       <c r="CF22" s="22"/>
@@ -26490,10 +26558,11 @@
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
       <c r="CK22" s="22"/>
+      <c r="CL22" s="22"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26571,10 +26640,10 @@
       <c r="BW23" s="1"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
-      <c r="BZ23" s="1"/>
-      <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
+      <c r="BZ23" s="22"/>
+      <c r="CA23" s="22"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="22"/>
       <c r="CD23" s="22"/>
       <c r="CE23" s="22"/>
       <c r="CF23" s="22"/>
@@ -26583,8 +26652,9 @@
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
       <c r="CK23" s="22"/>
+      <c r="CL23" s="22"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26662,10 +26732,10 @@
       <c r="BW24" s="1"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
+      <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
       <c r="CD24" s="22"/>
       <c r="CE24" s="22"/>
       <c r="CF24" s="22"/>
@@ -26674,8 +26744,9 @@
       <c r="CI24" s="22"/>
       <c r="CJ24" s="22"/>
       <c r="CK24" s="22"/>
+      <c r="CL24" s="22"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -26755,10 +26826,10 @@
       <c r="BW25" s="1"/>
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
+      <c r="BZ25" s="22"/>
+      <c r="CA25" s="22"/>
+      <c r="CB25" s="22"/>
+      <c r="CC25" s="22"/>
       <c r="CD25" s="22"/>
       <c r="CE25" s="22"/>
       <c r="CF25" s="22"/>
@@ -26767,10 +26838,11 @@
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
       <c r="CK25" s="22"/>
+      <c r="CL25" s="22"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26848,10 +26920,10 @@
       <c r="BW26" s="1"/>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
+      <c r="BZ26" s="22"/>
+      <c r="CA26" s="22"/>
+      <c r="CB26" s="22"/>
+      <c r="CC26" s="22"/>
       <c r="CD26" s="22"/>
       <c r="CE26" s="22"/>
       <c r="CF26" s="22"/>
@@ -26860,8 +26932,9 @@
       <c r="CI26" s="22"/>
       <c r="CJ26" s="22"/>
       <c r="CK26" s="22"/>
+      <c r="CL26" s="22"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -26941,10 +27014,10 @@
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
+      <c r="BZ27" s="22"/>
+      <c r="CA27" s="22"/>
+      <c r="CB27" s="22"/>
+      <c r="CC27" s="22"/>
       <c r="CD27" s="22"/>
       <c r="CE27" s="22"/>
       <c r="CF27" s="22"/>
@@ -26953,8 +27026,9 @@
       <c r="CI27" s="22"/>
       <c r="CJ27" s="22"/>
       <c r="CK27" s="22"/>
+      <c r="CL27" s="22"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27032,10 +27106,10 @@
       <c r="BW28" s="1"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
-      <c r="BZ28" s="1"/>
-      <c r="CA28" s="1"/>
-      <c r="CB28" s="1"/>
-      <c r="CC28" s="1"/>
+      <c r="BZ28" s="22"/>
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
       <c r="CD28" s="22"/>
       <c r="CE28" s="22"/>
       <c r="CF28" s="22"/>
@@ -27044,118 +27118,119 @@
       <c r="CI28" s="22"/>
       <c r="CJ28" s="22"/>
       <c r="CK28" s="22"/>
+      <c r="CL28" s="22"/>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="34">
+      <c r="B29" s="35">
         <v>2000</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="34">
+      <c r="F29" s="35">
         <v>2001</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="34">
+      <c r="J29" s="35">
         <v>2002</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="34">
+      <c r="N29" s="35">
         <v>2003</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="34">
+      <c r="R29" s="35">
         <v>2004</v>
       </c>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="34">
+      <c r="V29" s="35">
         <v>2005</v>
       </c>
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
       <c r="Y29" s="36"/>
-      <c r="Z29" s="34">
+      <c r="Z29" s="35">
         <v>2006</v>
       </c>
       <c r="AA29" s="36"/>
       <c r="AB29" s="36"/>
       <c r="AC29" s="36"/>
-      <c r="AD29" s="34">
+      <c r="AD29" s="35">
         <v>2007</v>
       </c>
       <c r="AE29" s="36"/>
       <c r="AF29" s="36"/>
       <c r="AG29" s="36"/>
-      <c r="AH29" s="34">
+      <c r="AH29" s="35">
         <v>2008</v>
       </c>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="36"/>
-      <c r="AL29" s="34">
+      <c r="AL29" s="35">
         <v>2009</v>
       </c>
       <c r="AM29" s="36"/>
       <c r="AN29" s="36"/>
       <c r="AO29" s="36"/>
-      <c r="AP29" s="34">
+      <c r="AP29" s="35">
         <v>2010</v>
       </c>
       <c r="AQ29" s="36"/>
       <c r="AR29" s="36"/>
       <c r="AS29" s="36"/>
-      <c r="AT29" s="34">
+      <c r="AT29" s="35">
         <v>2011</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36"/>
       <c r="AW29" s="36"/>
-      <c r="AX29" s="34">
+      <c r="AX29" s="35">
         <v>2012</v>
       </c>
       <c r="AY29" s="36"/>
       <c r="AZ29" s="36"/>
       <c r="BA29" s="36"/>
-      <c r="BB29" s="34">
+      <c r="BB29" s="35">
         <v>2013</v>
       </c>
       <c r="BC29" s="36"/>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
-      <c r="BF29" s="34">
+      <c r="BF29" s="35">
         <v>2014</v>
       </c>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36"/>
       <c r="BI29" s="36"/>
-      <c r="BJ29" s="34">
+      <c r="BJ29" s="35">
         <v>2015</v>
       </c>
       <c r="BK29" s="36"/>
       <c r="BL29" s="36"/>
       <c r="BM29" s="36"/>
-      <c r="BN29" s="34">
+      <c r="BN29" s="35">
         <v>2016</v>
       </c>
       <c r="BO29" s="36"/>
       <c r="BP29" s="36"/>
       <c r="BQ29" s="36"/>
-      <c r="BR29" s="34">
+      <c r="BR29" s="35">
         <v>2017</v>
       </c>
       <c r="BS29" s="36"/>
       <c r="BT29" s="36"/>
       <c r="BU29" s="36"/>
-      <c r="BV29" s="34">
+      <c r="BV29" s="35">
         <v>2018</v>
       </c>
       <c r="BW29" s="36"/>
@@ -27164,23 +27239,26 @@
       <c r="BZ29" s="34">
         <v>2019</v>
       </c>
-      <c r="CA29" s="36"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
-      <c r="CD29" s="35">
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="34">
         <v>2020</v>
       </c>
-      <c r="CE29" s="35"/>
-      <c r="CF29" s="35"/>
-      <c r="CG29" s="35"/>
-      <c r="CH29" s="35">
+      <c r="CE29" s="34"/>
+      <c r="CF29" s="34"/>
+      <c r="CG29" s="34"/>
+      <c r="CH29" s="34">
         <v>2021</v>
       </c>
-      <c r="CI29" s="35"/>
-      <c r="CJ29" s="35"/>
-      <c r="CK29" s="35"/>
+      <c r="CI29" s="34"/>
+      <c r="CJ29" s="34"/>
+      <c r="CK29" s="34"/>
+      <c r="CL29" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
@@ -27412,16 +27490,16 @@
       <c r="BY30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ30" s="7" t="s">
+      <c r="BZ30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CA30" s="7" t="s">
+      <c r="CA30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CB30" s="7" t="s">
+      <c r="CB30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CC30" s="7" t="s">
+      <c r="CC30" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CD30" s="23" t="s">
@@ -27448,8 +27526,11 @@
       <c r="CK30" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="CL30" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27527,10 +27608,10 @@
       <c r="BW31" s="1"/>
       <c r="BX31" s="1"/>
       <c r="BY31" s="1"/>
-      <c r="BZ31" s="1"/>
-      <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
+      <c r="BZ31" s="22"/>
+      <c r="CA31" s="22"/>
+      <c r="CB31" s="22"/>
+      <c r="CC31" s="22"/>
       <c r="CD31" s="22"/>
       <c r="CE31" s="22"/>
       <c r="CF31" s="22"/>
@@ -27539,8 +27620,9 @@
       <c r="CI31" s="22"/>
       <c r="CJ31" s="22"/>
       <c r="CK31" s="22"/>
+      <c r="CL31" s="22"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -27772,43 +27854,45 @@
       <c r="BY32" s="9">
         <v>16914.677999393356</v>
       </c>
-      <c r="BZ32" s="9">
+      <c r="BZ32" s="24">
         <v>15884.225469284773</v>
       </c>
-      <c r="CA32" s="9">
+      <c r="CA32" s="24">
         <v>15058.822498023103</v>
       </c>
-      <c r="CB32" s="9">
+      <c r="CB32" s="24">
         <v>16314.028349563272</v>
       </c>
-      <c r="CC32" s="9">
+      <c r="CC32" s="24">
         <v>21330.192157128164</v>
       </c>
       <c r="CD32" s="24">
-        <v>21178.596629428474</v>
+        <v>20811.722402623873</v>
       </c>
       <c r="CE32" s="24">
-        <v>25182.408289754112</v>
+        <v>24746.176525580289</v>
       </c>
       <c r="CF32" s="24">
-        <v>21216.393760589075</v>
+        <v>20848.864778726216</v>
       </c>
       <c r="CG32" s="24">
-        <v>29162.853753294054</v>
+        <v>28657.669221506498</v>
       </c>
       <c r="CH32" s="24">
-        <v>31342.613592339207</v>
+        <v>30799.669348727395</v>
       </c>
       <c r="CI32" s="24">
-        <v>18116.480683961348</v>
+        <v>17802.651115381093</v>
       </c>
       <c r="CJ32" s="24">
-        <v>23727.024893167432</v>
+        <v>23316.004556722735</v>
       </c>
       <c r="CK32" s="24">
-        <v>34866.76856694711</v>
-      </c>
-      <c r="CL32" s="10"/>
+        <v>34736.048488333727</v>
+      </c>
+      <c r="CL32" s="24">
+        <v>34368.865296414166</v>
+      </c>
       <c r="CM32" s="10"/>
       <c r="CN32" s="10"/>
       <c r="CO32" s="10"/>
@@ -27875,7 +27959,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -28107,16 +28191,16 @@
       <c r="BY33" s="9">
         <v>52394.763321925864</v>
       </c>
-      <c r="BZ33" s="9">
+      <c r="BZ33" s="24">
         <v>57955.595070635492</v>
       </c>
-      <c r="CA33" s="9">
+      <c r="CA33" s="24">
         <v>67324.45050470694</v>
       </c>
-      <c r="CB33" s="9">
+      <c r="CB33" s="24">
         <v>56084.783788454799</v>
       </c>
-      <c r="CC33" s="9">
+      <c r="CC33" s="24">
         <v>54149.134687626742</v>
       </c>
       <c r="CD33" s="24">
@@ -28129,7 +28213,7 @@
         <v>48170.015775145956</v>
       </c>
       <c r="CG33" s="24">
-        <v>46331.617787448835</v>
+        <v>45356.105631118226</v>
       </c>
       <c r="CH33" s="24">
         <v>53974.14915553898</v>
@@ -28138,12 +28222,14 @@
         <v>61769.262229764616</v>
       </c>
       <c r="CJ33" s="24">
-        <v>57734.996059854762</v>
+        <v>56943.948401290429</v>
       </c>
       <c r="CK33" s="24">
-        <v>53424.992670828724</v>
-      </c>
-      <c r="CL33" s="10"/>
+        <v>49875.155719544011</v>
+      </c>
+      <c r="CL33" s="24">
+        <v>51484.008866630284</v>
+      </c>
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
@@ -28210,7 +28296,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -28442,43 +28528,45 @@
       <c r="BY34" s="9">
         <v>4537.550313217339</v>
       </c>
-      <c r="BZ34" s="9">
+      <c r="BZ34" s="24">
         <v>4504.2965335004774</v>
       </c>
-      <c r="CA34" s="9">
+      <c r="CA34" s="24">
         <v>4478.6498079472149</v>
       </c>
-      <c r="CB34" s="9">
+      <c r="CB34" s="24">
         <v>4549.3540385444503</v>
       </c>
-      <c r="CC34" s="9">
+      <c r="CC34" s="24">
         <v>5627.6839220225556</v>
       </c>
       <c r="CD34" s="24">
-        <v>4402.9243678162702</v>
+        <v>4151.3552755243682</v>
       </c>
       <c r="CE34" s="24">
-        <v>6205.1922036708893</v>
+        <v>5841.8657212860289</v>
       </c>
       <c r="CF34" s="24">
-        <v>5012.4595561933638</v>
+        <v>4729.0914953350803</v>
       </c>
       <c r="CG34" s="24">
-        <v>6857.9300460836002</v>
+        <v>6379.9066048755776</v>
       </c>
       <c r="CH34" s="24">
-        <v>6008.910556871333</v>
+        <v>5663.5751552620195</v>
       </c>
       <c r="CI34" s="24">
-        <v>3523.5567830579785</v>
+        <v>3317.2454474132228</v>
       </c>
       <c r="CJ34" s="24">
-        <v>5923.7323787201822</v>
+        <v>5340.1075460950024</v>
       </c>
       <c r="CK34" s="24">
-        <v>7185.2817425912272</v>
-      </c>
-      <c r="CL34" s="10"/>
+        <v>6730.0100764307017</v>
+      </c>
+      <c r="CL34" s="24">
+        <v>5676.5725508068781</v>
+      </c>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
@@ -28545,7 +28633,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -28622,10 +28710,10 @@
       <c r="BW35" s="12"/>
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
-      <c r="BZ35" s="12"/>
-      <c r="CA35" s="12"/>
-      <c r="CB35" s="12"/>
-      <c r="CC35" s="12"/>
+      <c r="BZ35" s="25"/>
+      <c r="CA35" s="25"/>
+      <c r="CB35" s="25"/>
+      <c r="CC35" s="25"/>
       <c r="CD35" s="25"/>
       <c r="CE35" s="25"/>
       <c r="CF35" s="25"/>
@@ -28634,7 +28722,7 @@
       <c r="CI35" s="25"/>
       <c r="CJ35" s="25"/>
       <c r="CK35" s="25"/>
-      <c r="CL35" s="10"/>
+      <c r="CL35" s="25"/>
       <c r="CM35" s="10"/>
       <c r="CN35" s="10"/>
       <c r="CO35" s="10"/>
@@ -28701,7 +28789,7 @@
       <c r="EX35" s="10"/>
       <c r="EY35" s="10"/>
     </row>
-    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
@@ -28933,43 +29021,45 @@
       <c r="BY36" s="14">
         <v>73846.991634536549</v>
       </c>
-      <c r="BZ36" s="14">
+      <c r="BZ36" s="26">
         <v>78344.117073420755</v>
       </c>
-      <c r="CA36" s="14">
+      <c r="CA36" s="26">
         <v>86861.922810677264</v>
       </c>
-      <c r="CB36" s="14">
+      <c r="CB36" s="26">
         <v>76948.166176562518</v>
       </c>
-      <c r="CC36" s="14">
+      <c r="CC36" s="26">
         <v>81107.010766777457</v>
       </c>
       <c r="CD36" s="26">
-        <v>80679.97654443013</v>
+        <v>80061.533225333624</v>
       </c>
       <c r="CE36" s="26">
-        <v>73499.009022622791</v>
+        <v>72699.450776064114</v>
       </c>
       <c r="CF36" s="26">
-        <v>74398.869091928398</v>
+        <v>73747.972049207252</v>
       </c>
       <c r="CG36" s="26">
-        <v>82352.401586826483</v>
+        <v>80393.681457500294</v>
       </c>
       <c r="CH36" s="26">
-        <v>91325.673304749507</v>
+        <v>90437.393659528403</v>
       </c>
       <c r="CI36" s="26">
-        <v>83409.299696783943</v>
+        <v>82889.158792558927</v>
       </c>
       <c r="CJ36" s="26">
-        <v>87385.753331742366</v>
+        <v>85600.060504108173</v>
       </c>
       <c r="CK36" s="26">
-        <v>95477.042980367056</v>
-      </c>
-      <c r="CL36" s="10"/>
+        <v>91341.214284308444</v>
+      </c>
+      <c r="CL36" s="26">
+        <v>91529.446713851314</v>
+      </c>
       <c r="CM36" s="10"/>
       <c r="CN36" s="10"/>
       <c r="CO36" s="10"/>
@@ -29036,7 +29126,7 @@
       <c r="EX36" s="10"/>
       <c r="EY36" s="10"/>
     </row>
-    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -29114,10 +29204,10 @@
       <c r="BW37" s="15"/>
       <c r="BX37" s="15"/>
       <c r="BY37" s="15"/>
-      <c r="BZ37" s="15"/>
-      <c r="CA37" s="15"/>
-      <c r="CB37" s="15"/>
-      <c r="CC37" s="15"/>
+      <c r="BZ37" s="27"/>
+      <c r="CA37" s="27"/>
+      <c r="CB37" s="27"/>
+      <c r="CC37" s="27"/>
       <c r="CD37" s="27"/>
       <c r="CE37" s="27"/>
       <c r="CF37" s="27"/>
@@ -29126,8 +29216,9 @@
       <c r="CI37" s="27"/>
       <c r="CJ37" s="27"/>
       <c r="CK37" s="27"/>
+      <c r="CL37" s="27"/>
     </row>
-    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
@@ -29207,10 +29298,10 @@
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="22"/>
       <c r="CD38" s="22"/>
       <c r="CE38" s="22"/>
       <c r="CF38" s="22"/>
@@ -29219,8 +29310,9 @@
       <c r="CI38" s="22"/>
       <c r="CJ38" s="22"/>
       <c r="CK38" s="22"/>
+      <c r="CL38" s="22"/>
     </row>
-    <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -29297,10 +29389,10 @@
       <c r="BW39" s="12"/>
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
-      <c r="BZ39" s="12"/>
-      <c r="CA39" s="12"/>
-      <c r="CB39" s="12"/>
-      <c r="CC39" s="12"/>
+      <c r="BZ39" s="25"/>
+      <c r="CA39" s="25"/>
+      <c r="CB39" s="25"/>
+      <c r="CC39" s="25"/>
       <c r="CD39" s="25"/>
       <c r="CE39" s="25"/>
       <c r="CF39" s="25"/>
@@ -29309,7 +29401,7 @@
       <c r="CI39" s="25"/>
       <c r="CJ39" s="25"/>
       <c r="CK39" s="25"/>
-      <c r="CL39" s="10"/>
+      <c r="CL39" s="25"/>
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
@@ -29376,7 +29468,7 @@
       <c r="EX39" s="10"/>
       <c r="EY39" s="10"/>
     </row>
-    <row r="40" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -29453,10 +29545,10 @@
       <c r="BW40" s="12"/>
       <c r="BX40" s="12"/>
       <c r="BY40" s="12"/>
-      <c r="BZ40" s="12"/>
-      <c r="CA40" s="12"/>
-      <c r="CB40" s="12"/>
-      <c r="CC40" s="12"/>
+      <c r="BZ40" s="25"/>
+      <c r="CA40" s="25"/>
+      <c r="CB40" s="25"/>
+      <c r="CC40" s="25"/>
       <c r="CD40" s="25"/>
       <c r="CE40" s="25"/>
       <c r="CF40" s="25"/>
@@ -29465,7 +29557,7 @@
       <c r="CI40" s="25"/>
       <c r="CJ40" s="25"/>
       <c r="CK40" s="25"/>
-      <c r="CL40" s="10"/>
+      <c r="CL40" s="25"/>
       <c r="CM40" s="10"/>
       <c r="CN40" s="10"/>
       <c r="CO40" s="10"/>
@@ -29532,7 +29624,7 @@
       <c r="EX40" s="10"/>
       <c r="EY40" s="10"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -29612,10 +29704,10 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
+      <c r="BZ41" s="22"/>
+      <c r="CA41" s="22"/>
+      <c r="CB41" s="22"/>
+      <c r="CC41" s="22"/>
       <c r="CD41" s="22"/>
       <c r="CE41" s="22"/>
       <c r="CF41" s="22"/>
@@ -29624,8 +29716,9 @@
       <c r="CI41" s="22"/>
       <c r="CJ41" s="22"/>
       <c r="CK41" s="22"/>
+      <c r="CL41" s="22"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -29705,10 +29798,10 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
-      <c r="BZ42" s="1"/>
-      <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
-      <c r="CC42" s="1"/>
+      <c r="BZ42" s="22"/>
+      <c r="CA42" s="22"/>
+      <c r="CB42" s="22"/>
+      <c r="CC42" s="22"/>
       <c r="CD42" s="22"/>
       <c r="CE42" s="22"/>
       <c r="CF42" s="22"/>
@@ -29717,10 +29810,11 @@
       <c r="CI42" s="22"/>
       <c r="CJ42" s="22"/>
       <c r="CK42" s="22"/>
+      <c r="CL42" s="22"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29798,10 +29892,10 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
+      <c r="BZ43" s="22"/>
+      <c r="CA43" s="22"/>
+      <c r="CB43" s="22"/>
+      <c r="CC43" s="22"/>
       <c r="CD43" s="22"/>
       <c r="CE43" s="22"/>
       <c r="CF43" s="22"/>
@@ -29810,8 +29904,9 @@
       <c r="CI43" s="22"/>
       <c r="CJ43" s="22"/>
       <c r="CK43" s="22"/>
+      <c r="CL43" s="22"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29889,10 +29984,10 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
+      <c r="BZ44" s="22"/>
+      <c r="CA44" s="22"/>
+      <c r="CB44" s="22"/>
+      <c r="CC44" s="22"/>
       <c r="CD44" s="22"/>
       <c r="CE44" s="22"/>
       <c r="CF44" s="22"/>
@@ -29901,8 +29996,9 @@
       <c r="CI44" s="22"/>
       <c r="CJ44" s="22"/>
       <c r="CK44" s="22"/>
+      <c r="CL44" s="22"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -29982,10 +30078,10 @@
       <c r="BW45" s="1"/>
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
-      <c r="BZ45" s="1"/>
-      <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
-      <c r="CC45" s="1"/>
+      <c r="BZ45" s="22"/>
+      <c r="CA45" s="22"/>
+      <c r="CB45" s="22"/>
+      <c r="CC45" s="22"/>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
@@ -29994,10 +30090,11 @@
       <c r="CI45" s="22"/>
       <c r="CJ45" s="22"/>
       <c r="CK45" s="22"/>
+      <c r="CL45" s="22"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30075,10 +30172,10 @@
       <c r="BW46" s="1"/>
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
+      <c r="BZ46" s="22"/>
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
       <c r="CD46" s="22"/>
       <c r="CE46" s="22"/>
       <c r="CF46" s="22"/>
@@ -30087,8 +30184,9 @@
       <c r="CI46" s="22"/>
       <c r="CJ46" s="22"/>
       <c r="CK46" s="22"/>
+      <c r="CL46" s="22"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -30168,10 +30266,10 @@
       <c r="BW47" s="1"/>
       <c r="BX47" s="1"/>
       <c r="BY47" s="1"/>
-      <c r="BZ47" s="1"/>
-      <c r="CA47" s="1"/>
-      <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
+      <c r="BZ47" s="22"/>
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
       <c r="CD47" s="22"/>
       <c r="CE47" s="22"/>
       <c r="CF47" s="22"/>
@@ -30180,8 +30278,9 @@
       <c r="CI47" s="22"/>
       <c r="CJ47" s="22"/>
       <c r="CK47" s="22"/>
+      <c r="CL47" s="22"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -30259,153 +30358,157 @@
       <c r="BW48" s="1"/>
       <c r="BX48" s="1"/>
       <c r="BY48" s="1"/>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
+      <c r="BZ48" s="22"/>
+      <c r="CA48" s="22"/>
+      <c r="CB48" s="22"/>
+      <c r="CC48" s="22"/>
       <c r="CD48" s="22"/>
       <c r="CE48" s="22"/>
       <c r="CF48" s="22"/>
       <c r="CG48" s="22"/>
       <c r="CH48" s="22"/>
-      <c r="CI48" s="22"/>
-      <c r="CJ48" s="22"/>
-      <c r="CK48" s="22"/>
+      <c r="CI48" s="39"/>
+      <c r="CJ48" s="39"/>
+      <c r="CK48" s="39"/>
+      <c r="CL48" s="39"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34" t="s">
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34" t="s">
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34" t="s">
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34" t="s">
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34" t="s">
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34" t="s">
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34" t="s">
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="34"/>
-      <c r="AL49" s="34" t="s">
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="34"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="34" t="s">
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="34"/>
-      <c r="AR49" s="34"/>
-      <c r="AS49" s="34"/>
-      <c r="AT49" s="34" t="s">
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="34"/>
-      <c r="AV49" s="34"/>
-      <c r="AW49" s="34"/>
-      <c r="AX49" s="34" t="s">
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="34"/>
-      <c r="AZ49" s="34"/>
-      <c r="BA49" s="34"/>
-      <c r="BB49" s="34" t="s">
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="34"/>
-      <c r="BD49" s="34"/>
-      <c r="BE49" s="34"/>
-      <c r="BF49" s="34" t="s">
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="34"/>
-      <c r="BH49" s="34"/>
-      <c r="BI49" s="34"/>
-      <c r="BJ49" s="34" t="s">
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="34"/>
-      <c r="BL49" s="34"/>
-      <c r="BM49" s="34"/>
-      <c r="BN49" s="34" t="s">
+      <c r="BK49" s="35"/>
+      <c r="BL49" s="35"/>
+      <c r="BM49" s="35"/>
+      <c r="BN49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="34"/>
-      <c r="BP49" s="34"/>
-      <c r="BQ49" s="34"/>
-      <c r="BR49" s="34" t="s">
+      <c r="BO49" s="35"/>
+      <c r="BP49" s="35"/>
+      <c r="BQ49" s="35"/>
+      <c r="BR49" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="34"/>
-      <c r="BT49" s="34"/>
-      <c r="BU49" s="34"/>
-      <c r="BV49" s="34" t="s">
+      <c r="BS49" s="35"/>
+      <c r="BT49" s="35"/>
+      <c r="BU49" s="35"/>
+      <c r="BV49" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="34"/>
-      <c r="BX49" s="34"/>
-      <c r="BY49" s="34"/>
+      <c r="BW49" s="35"/>
+      <c r="BX49" s="35"/>
+      <c r="BY49" s="35"/>
       <c r="BZ49" s="34" t="s">
         <v>28</v>
       </c>
       <c r="CA49" s="34"/>
       <c r="CB49" s="34"/>
       <c r="CC49" s="34"/>
-      <c r="CD49" s="35" t="s">
+      <c r="CD49" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="35"/>
-      <c r="CF49" s="35"/>
-      <c r="CG49" s="35"/>
-      <c r="CH49" s="28"/>
-      <c r="CI49" s="28"/>
-      <c r="CJ49" s="28"/>
-      <c r="CK49" s="28"/>
+      <c r="CE49" s="34"/>
+      <c r="CF49" s="34"/>
+      <c r="CG49" s="34"/>
+      <c r="CH49" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI49" s="40"/>
+      <c r="CJ49" s="40"/>
+      <c r="CK49" s="40"/>
+      <c r="CL49" s="41"/>
     </row>
-    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -30637,36 +30740,39 @@
       <c r="BY50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ50" s="6" t="s">
+      <c r="BZ50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CA50" s="6" t="s">
+      <c r="CA50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CB50" s="6" t="s">
+      <c r="CB50" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CC50" s="6" t="s">
+      <c r="CC50" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CD50" s="33" t="s">
+      <c r="CD50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CE50" s="33" t="s">
+      <c r="CE50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="33" t="s">
+      <c r="CF50" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CG50" s="33" t="s">
+      <c r="CG50" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CH50" s="29"/>
-      <c r="CI50" s="29"/>
-      <c r="CJ50" s="29"/>
-      <c r="CK50" s="29"/>
+      <c r="CH50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI50" s="40"/>
+      <c r="CJ50" s="40"/>
+      <c r="CK50" s="40"/>
+      <c r="CL50" s="40"/>
     </row>
-    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -30744,20 +30850,21 @@
       <c r="BW51" s="1"/>
       <c r="BX51" s="1"/>
       <c r="BY51" s="1"/>
-      <c r="BZ51" s="1"/>
-      <c r="CA51" s="1"/>
-      <c r="CB51" s="1"/>
-      <c r="CC51" s="1"/>
+      <c r="BZ51" s="22"/>
+      <c r="CA51" s="22"/>
+      <c r="CB51" s="22"/>
+      <c r="CC51" s="22"/>
       <c r="CD51" s="22"/>
       <c r="CE51" s="22"/>
       <c r="CF51" s="22"/>
       <c r="CG51" s="22"/>
       <c r="CH51" s="22"/>
-      <c r="CI51" s="22"/>
-      <c r="CJ51" s="22"/>
-      <c r="CK51" s="22"/>
+      <c r="CI51" s="39"/>
+      <c r="CJ51" s="39"/>
+      <c r="CK51" s="39"/>
+      <c r="CL51" s="39"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -30989,35 +31096,37 @@
       <c r="BY52" s="17">
         <v>21.202897368093602</v>
       </c>
-      <c r="BZ52" s="17">
-        <v>41.83855181576476</v>
-      </c>
-      <c r="CA52" s="17">
-        <v>74.757592902256306</v>
-      </c>
-      <c r="CB52" s="17">
-        <v>36.557667255086614</v>
-      </c>
-      <c r="CC52" s="17">
-        <v>42.278669298747673</v>
-      </c>
-      <c r="CD52" s="31">
+      <c r="BZ52" s="29">
+        <v>39.381500012993968</v>
+      </c>
+      <c r="CA52" s="29">
+        <v>71.730288596117362</v>
+      </c>
+      <c r="CB52" s="29">
+        <v>34.192095566600244</v>
+      </c>
+      <c r="CC52" s="29">
+        <v>39.813993394904571</v>
+      </c>
+      <c r="CD52" s="29">
         <v>58.234270254513234</v>
       </c>
-      <c r="CE52" s="31">
-        <v>-27.821225856037657</v>
-      </c>
-      <c r="CF52" s="31">
-        <v>14.835875825822924</v>
-      </c>
-      <c r="CG52" s="31">
-        <v>25.552082296542537</v>
-      </c>
-      <c r="CH52" s="25"/>
-      <c r="CI52" s="25"/>
-      <c r="CJ52" s="25"/>
-      <c r="CK52" s="25"/>
-      <c r="CL52" s="10"/>
+      <c r="CE52" s="29">
+        <v>-27.821225856037643</v>
+      </c>
+      <c r="CF52" s="29">
+        <v>14.835762658896655</v>
+      </c>
+      <c r="CG52" s="29">
+        <v>24.240731323768074</v>
+      </c>
+      <c r="CH52" s="29">
+        <v>16.116702145252717</v>
+      </c>
+      <c r="CI52" s="42"/>
+      <c r="CJ52" s="42"/>
+      <c r="CK52" s="42"/>
+      <c r="CL52" s="42"/>
       <c r="CM52" s="10"/>
       <c r="CN52" s="10"/>
       <c r="CO52" s="10"/>
@@ -31080,7 +31189,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -31312,35 +31421,37 @@
       <c r="BY53" s="17">
         <v>4.5583071772732069</v>
       </c>
-      <c r="BZ53" s="17">
+      <c r="BZ53" s="29">
         <v>-1.4472286995214318</v>
       </c>
-      <c r="CA53" s="17">
+      <c r="CA53" s="29">
         <v>-34.908656021456579</v>
       </c>
-      <c r="CB53" s="17">
+      <c r="CB53" s="29">
         <v>-10.603935241998769</v>
       </c>
-      <c r="CC53" s="17">
-        <v>-11.233670858227256</v>
-      </c>
-      <c r="CD53" s="31">
+      <c r="CC53" s="29">
+        <v>-13.102645810664583</v>
+      </c>
+      <c r="CD53" s="29">
         <v>1.3641969075135876</v>
       </c>
-      <c r="CE53" s="31">
+      <c r="CE53" s="29">
         <v>51.505866870322848</v>
       </c>
-      <c r="CF53" s="31">
-        <v>23.917219034682319</v>
-      </c>
-      <c r="CG53" s="31">
-        <v>18.859150454568521</v>
-      </c>
-      <c r="CH53" s="25"/>
-      <c r="CI53" s="25"/>
-      <c r="CJ53" s="25"/>
-      <c r="CK53" s="25"/>
-      <c r="CL53" s="10"/>
+      <c r="CF53" s="29">
+        <v>23.993317603247604</v>
+      </c>
+      <c r="CG53" s="29">
+        <v>13.397260839914253</v>
+      </c>
+      <c r="CH53" s="29">
+        <v>-2.144275705228182</v>
+      </c>
+      <c r="CI53" s="42"/>
+      <c r="CJ53" s="42"/>
+      <c r="CK53" s="42"/>
+      <c r="CL53" s="42"/>
       <c r="CM53" s="10"/>
       <c r="CN53" s="10"/>
       <c r="CO53" s="10"/>
@@ -31403,7 +31514,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -31635,35 +31746,37 @@
       <c r="BY54" s="17">
         <v>31.969260889758857</v>
       </c>
-      <c r="BZ54" s="17">
-        <v>3.2882400382497963</v>
-      </c>
-      <c r="CA54" s="17">
-        <v>44.838264890194353</v>
-      </c>
-      <c r="CB54" s="17">
-        <v>12.32559217503271</v>
-      </c>
-      <c r="CC54" s="17">
-        <v>24.26510840461593</v>
-      </c>
-      <c r="CD54" s="31">
-        <v>41.53038664011882</v>
-      </c>
-      <c r="CE54" s="31">
-        <v>-42.888536125428232</v>
-      </c>
-      <c r="CF54" s="31">
-        <v>23.934928792214151</v>
-      </c>
-      <c r="CG54" s="31">
-        <v>8.598048507851459</v>
-      </c>
-      <c r="CH54" s="25"/>
-      <c r="CI54" s="25"/>
-      <c r="CJ54" s="25"/>
-      <c r="CK54" s="25"/>
-      <c r="CL54" s="10"/>
+      <c r="BZ54" s="29">
+        <v>-2.6133214286663531</v>
+      </c>
+      <c r="CA54" s="29">
+        <v>36.357693206024834</v>
+      </c>
+      <c r="CB54" s="29">
+        <v>5.9755189459989992</v>
+      </c>
+      <c r="CC54" s="29">
+        <v>15.603364359036817</v>
+      </c>
+      <c r="CD54" s="29">
+        <v>41.480291084679266</v>
+      </c>
+      <c r="CE54" s="29">
+        <v>-42.888536125428246</v>
+      </c>
+      <c r="CF54" s="29">
+        <v>23.660844375776662</v>
+      </c>
+      <c r="CG54" s="29">
+        <v>10.593130896377218</v>
+      </c>
+      <c r="CH54" s="29">
+        <v>3.9734105555869945</v>
+      </c>
+      <c r="CI54" s="42"/>
+      <c r="CJ54" s="42"/>
+      <c r="CK54" s="42"/>
+      <c r="CL54" s="42"/>
       <c r="CM54" s="10"/>
       <c r="CN54" s="10"/>
       <c r="CO54" s="10"/>
@@ -31726,7 +31839,7 @@
       <c r="ET54" s="10"/>
       <c r="EU54" s="10"/>
     </row>
-    <row r="55" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -31803,19 +31916,19 @@
       <c r="BW55" s="12"/>
       <c r="BX55" s="12"/>
       <c r="BY55" s="12"/>
-      <c r="BZ55" s="12"/>
-      <c r="CA55" s="12"/>
-      <c r="CB55" s="12"/>
-      <c r="CC55" s="12"/>
+      <c r="BZ55" s="25"/>
+      <c r="CA55" s="25"/>
+      <c r="CB55" s="25"/>
+      <c r="CC55" s="25"/>
       <c r="CD55" s="25"/>
       <c r="CE55" s="25"/>
       <c r="CF55" s="25"/>
       <c r="CG55" s="25"/>
       <c r="CH55" s="25"/>
-      <c r="CI55" s="25"/>
-      <c r="CJ55" s="25"/>
-      <c r="CK55" s="25"/>
-      <c r="CL55" s="10"/>
+      <c r="CI55" s="42"/>
+      <c r="CJ55" s="42"/>
+      <c r="CK55" s="42"/>
+      <c r="CL55" s="42"/>
       <c r="CM55" s="10"/>
       <c r="CN55" s="10"/>
       <c r="CO55" s="10"/>
@@ -31878,7 +31991,7 @@
       <c r="ET55" s="10"/>
       <c r="EU55" s="10"/>
     </row>
-    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>11</v>
       </c>
@@ -32110,35 +32223,37 @@
       <c r="BY56" s="17">
         <v>10.246642274407833</v>
       </c>
-      <c r="BZ56" s="17">
-        <v>7.5797641593600389</v>
-      </c>
-      <c r="CA56" s="17">
-        <v>-12.388738874992072</v>
-      </c>
-      <c r="CB56" s="17">
-        <v>-6.7051923338397046E-2</v>
-      </c>
-      <c r="CC56" s="17">
-        <v>5.5171655392726109</v>
-      </c>
-      <c r="CD56" s="31">
-        <v>18.783539250177327</v>
-      </c>
-      <c r="CE56" s="31">
-        <v>16.807590426457921</v>
-      </c>
-      <c r="CF56" s="31">
-        <v>21.507334711135201</v>
-      </c>
-      <c r="CG56" s="31">
-        <v>20.349976324429434</v>
-      </c>
-      <c r="CH56" s="25"/>
-      <c r="CI56" s="25"/>
-      <c r="CJ56" s="25"/>
-      <c r="CK56" s="25"/>
-      <c r="CL56" s="10"/>
+      <c r="BZ56" s="29">
+        <v>6.7366357598813948</v>
+      </c>
+      <c r="CA56" s="29">
+        <v>-13.348211522578396</v>
+      </c>
+      <c r="CB56" s="29">
+        <v>-0.90711755444149844</v>
+      </c>
+      <c r="CC56" s="29">
+        <v>2.9893953450075514</v>
+      </c>
+      <c r="CD56" s="29">
+        <v>18.52345554455988</v>
+      </c>
+      <c r="CE56" s="29">
+        <v>17.381088113318071</v>
+      </c>
+      <c r="CF56" s="29">
+        <v>21.562566171917737</v>
+      </c>
+      <c r="CG56" s="29">
+        <v>17.051886065385659</v>
+      </c>
+      <c r="CH56" s="29">
+        <v>4.6815514281362169</v>
+      </c>
+      <c r="CI56" s="42"/>
+      <c r="CJ56" s="42"/>
+      <c r="CK56" s="42"/>
+      <c r="CL56" s="42"/>
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
@@ -32201,7 +32316,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -32279,20 +32394,21 @@
       <c r="BW57" s="15"/>
       <c r="BX57" s="15"/>
       <c r="BY57" s="15"/>
-      <c r="BZ57" s="15"/>
-      <c r="CA57" s="15"/>
-      <c r="CB57" s="15"/>
-      <c r="CC57" s="15"/>
+      <c r="BZ57" s="27"/>
+      <c r="CA57" s="27"/>
+      <c r="CB57" s="27"/>
+      <c r="CC57" s="27"/>
       <c r="CD57" s="27"/>
       <c r="CE57" s="27"/>
       <c r="CF57" s="27"/>
       <c r="CG57" s="27"/>
       <c r="CH57" s="27"/>
-      <c r="CI57" s="27"/>
-      <c r="CJ57" s="27"/>
-      <c r="CK57" s="27"/>
+      <c r="CI57" s="43"/>
+      <c r="CJ57" s="43"/>
+      <c r="CK57" s="43"/>
+      <c r="CL57" s="43"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>0</v>
       </c>
@@ -32372,20 +32488,21 @@
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" s="1"/>
-      <c r="BZ58" s="1"/>
-      <c r="CA58" s="1"/>
-      <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
+      <c r="BZ58" s="22"/>
+      <c r="CA58" s="22"/>
+      <c r="CB58" s="22"/>
+      <c r="CC58" s="22"/>
       <c r="CD58" s="22"/>
       <c r="CE58" s="22"/>
       <c r="CF58" s="22"/>
       <c r="CG58" s="22"/>
       <c r="CH58" s="22"/>
-      <c r="CI58" s="22"/>
-      <c r="CJ58" s="22"/>
-      <c r="CK58" s="22"/>
+      <c r="CI58" s="39"/>
+      <c r="CJ58" s="39"/>
+      <c r="CK58" s="39"/>
+      <c r="CL58" s="39"/>
     </row>
-    <row r="59" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -32462,19 +32579,19 @@
       <c r="BW59" s="12"/>
       <c r="BX59" s="12"/>
       <c r="BY59" s="12"/>
-      <c r="BZ59" s="12"/>
-      <c r="CA59" s="12"/>
-      <c r="CB59" s="12"/>
-      <c r="CC59" s="12"/>
+      <c r="BZ59" s="25"/>
+      <c r="CA59" s="25"/>
+      <c r="CB59" s="25"/>
+      <c r="CC59" s="25"/>
       <c r="CD59" s="25"/>
       <c r="CE59" s="25"/>
       <c r="CF59" s="25"/>
       <c r="CG59" s="25"/>
       <c r="CH59" s="25"/>
-      <c r="CI59" s="25"/>
-      <c r="CJ59" s="25"/>
-      <c r="CK59" s="25"/>
-      <c r="CL59" s="10"/>
+      <c r="CI59" s="42"/>
+      <c r="CJ59" s="42"/>
+      <c r="CK59" s="42"/>
+      <c r="CL59" s="42"/>
       <c r="CM59" s="10"/>
       <c r="CN59" s="10"/>
       <c r="CO59" s="10"/>
@@ -32537,7 +32654,7 @@
       <c r="ET59" s="10"/>
       <c r="EU59" s="10"/>
     </row>
-    <row r="60" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -32614,10 +32731,10 @@
       <c r="BW60" s="12"/>
       <c r="BX60" s="12"/>
       <c r="BY60" s="12"/>
-      <c r="BZ60" s="12"/>
-      <c r="CA60" s="12"/>
-      <c r="CB60" s="12"/>
-      <c r="CC60" s="12"/>
+      <c r="BZ60" s="25"/>
+      <c r="CA60" s="25"/>
+      <c r="CB60" s="25"/>
+      <c r="CC60" s="25"/>
       <c r="CD60" s="25"/>
       <c r="CE60" s="25"/>
       <c r="CF60" s="25"/>
@@ -32626,7 +32743,7 @@
       <c r="CI60" s="25"/>
       <c r="CJ60" s="25"/>
       <c r="CK60" s="25"/>
-      <c r="CL60" s="10"/>
+      <c r="CL60" s="25"/>
       <c r="CM60" s="10"/>
       <c r="CN60" s="10"/>
       <c r="CO60" s="10"/>
@@ -32689,7 +32806,7 @@
       <c r="ET60" s="10"/>
       <c r="EU60" s="10"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -32769,10 +32886,10 @@
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
-      <c r="BZ61" s="1"/>
-      <c r="CA61" s="1"/>
-      <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
+      <c r="BZ61" s="22"/>
+      <c r="CA61" s="22"/>
+      <c r="CB61" s="22"/>
+      <c r="CC61" s="22"/>
       <c r="CD61" s="22"/>
       <c r="CE61" s="22"/>
       <c r="CF61" s="22"/>
@@ -32781,8 +32898,9 @@
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
       <c r="CK61" s="22"/>
+      <c r="CL61" s="22"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -32862,10 +32980,10 @@
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
-      <c r="BZ62" s="1"/>
-      <c r="CA62" s="1"/>
-      <c r="CB62" s="1"/>
-      <c r="CC62" s="1"/>
+      <c r="BZ62" s="22"/>
+      <c r="CA62" s="22"/>
+      <c r="CB62" s="22"/>
+      <c r="CC62" s="22"/>
       <c r="CD62" s="22"/>
       <c r="CE62" s="22"/>
       <c r="CF62" s="22"/>
@@ -32874,10 +32992,11 @@
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
       <c r="CK62" s="22"/>
+      <c r="CL62" s="22"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32955,10 +33074,10 @@
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
-      <c r="BZ63" s="1"/>
-      <c r="CA63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
+      <c r="BZ63" s="22"/>
+      <c r="CA63" s="22"/>
+      <c r="CB63" s="22"/>
+      <c r="CC63" s="22"/>
       <c r="CD63" s="22"/>
       <c r="CE63" s="22"/>
       <c r="CF63" s="22"/>
@@ -32967,8 +33086,9 @@
       <c r="CI63" s="22"/>
       <c r="CJ63" s="22"/>
       <c r="CK63" s="22"/>
+      <c r="CL63" s="22"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -33046,10 +33166,10 @@
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
-      <c r="BZ64" s="1"/>
-      <c r="CA64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
+      <c r="BZ64" s="22"/>
+      <c r="CA64" s="22"/>
+      <c r="CB64" s="22"/>
+      <c r="CC64" s="22"/>
       <c r="CD64" s="22"/>
       <c r="CE64" s="22"/>
       <c r="CF64" s="22"/>
@@ -33058,8 +33178,9 @@
       <c r="CI64" s="22"/>
       <c r="CJ64" s="22"/>
       <c r="CK64" s="22"/>
+      <c r="CL64" s="22"/>
     </row>
-    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -33139,10 +33260,10 @@
       <c r="BW65" s="1"/>
       <c r="BX65" s="1"/>
       <c r="BY65" s="1"/>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
+      <c r="BZ65" s="22"/>
+      <c r="CA65" s="22"/>
+      <c r="CB65" s="22"/>
+      <c r="CC65" s="22"/>
       <c r="CD65" s="22"/>
       <c r="CE65" s="22"/>
       <c r="CF65" s="22"/>
@@ -33151,10 +33272,11 @@
       <c r="CI65" s="22"/>
       <c r="CJ65" s="22"/>
       <c r="CK65" s="22"/>
+      <c r="CL65" s="22"/>
     </row>
-    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33232,10 +33354,10 @@
       <c r="BW66" s="1"/>
       <c r="BX66" s="1"/>
       <c r="BY66" s="1"/>
-      <c r="BZ66" s="1"/>
-      <c r="CA66" s="1"/>
-      <c r="CB66" s="1"/>
-      <c r="CC66" s="1"/>
+      <c r="BZ66" s="22"/>
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
       <c r="CD66" s="22"/>
       <c r="CE66" s="22"/>
       <c r="CF66" s="22"/>
@@ -33244,8 +33366,9 @@
       <c r="CI66" s="22"/>
       <c r="CJ66" s="22"/>
       <c r="CK66" s="22"/>
+      <c r="CL66" s="22"/>
     </row>
-    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -33325,10 +33448,10 @@
       <c r="BW67" s="1"/>
       <c r="BX67" s="1"/>
       <c r="BY67" s="1"/>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
+      <c r="BZ67" s="22"/>
+      <c r="CA67" s="22"/>
+      <c r="CB67" s="22"/>
+      <c r="CC67" s="22"/>
       <c r="CD67" s="22"/>
       <c r="CE67" s="22"/>
       <c r="CF67" s="22"/>
@@ -33337,8 +33460,9 @@
       <c r="CI67" s="22"/>
       <c r="CJ67" s="22"/>
       <c r="CK67" s="22"/>
+      <c r="CL67" s="22"/>
     </row>
-    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -33416,153 +33540,157 @@
       <c r="BW68" s="1"/>
       <c r="BX68" s="1"/>
       <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
+      <c r="BZ68" s="22"/>
+      <c r="CA68" s="22"/>
+      <c r="CB68" s="22"/>
+      <c r="CC68" s="22"/>
       <c r="CD68" s="22"/>
       <c r="CE68" s="22"/>
       <c r="CF68" s="22"/>
       <c r="CG68" s="22"/>
       <c r="CH68" s="22"/>
-      <c r="CI68" s="22"/>
-      <c r="CJ68" s="22"/>
-      <c r="CK68" s="22"/>
+      <c r="CI68" s="39"/>
+      <c r="CJ68" s="39"/>
+      <c r="CK68" s="39"/>
+      <c r="CL68" s="39"/>
     </row>
-    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="34" t="s">
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="34" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="34" t="s">
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="34" t="s">
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="34" t="s">
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="34" t="s">
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="37"/>
-      <c r="AB69" s="37"/>
-      <c r="AC69" s="37"/>
-      <c r="AD69" s="34" t="s">
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AF69" s="37"/>
-      <c r="AG69" s="37"/>
-      <c r="AH69" s="34" t="s">
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="37"/>
-      <c r="AJ69" s="37"/>
-      <c r="AK69" s="37"/>
-      <c r="AL69" s="34" t="s">
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="37"/>
-      <c r="AN69" s="37"/>
-      <c r="AO69" s="37"/>
-      <c r="AP69" s="34" t="s">
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="37"/>
-      <c r="AR69" s="37"/>
-      <c r="AS69" s="37"/>
-      <c r="AT69" s="34" t="s">
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="38"/>
+      <c r="AT69" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="37"/>
-      <c r="AV69" s="37"/>
-      <c r="AW69" s="37"/>
-      <c r="AX69" s="34" t="s">
+      <c r="AU69" s="38"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="37"/>
-      <c r="AZ69" s="37"/>
-      <c r="BA69" s="37"/>
-      <c r="BB69" s="34" t="s">
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="37"/>
-      <c r="BD69" s="37"/>
-      <c r="BE69" s="37"/>
-      <c r="BF69" s="34" t="s">
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="37"/>
-      <c r="BH69" s="37"/>
-      <c r="BI69" s="37"/>
-      <c r="BJ69" s="34" t="s">
+      <c r="BG69" s="38"/>
+      <c r="BH69" s="38"/>
+      <c r="BI69" s="38"/>
+      <c r="BJ69" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="37"/>
-      <c r="BL69" s="37"/>
-      <c r="BM69" s="37"/>
-      <c r="BN69" s="34" t="s">
+      <c r="BK69" s="38"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="37"/>
-      <c r="BP69" s="37"/>
-      <c r="BQ69" s="37"/>
-      <c r="BR69" s="34" t="s">
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="37"/>
-      <c r="BT69" s="37"/>
-      <c r="BU69" s="37"/>
-      <c r="BV69" s="34" t="s">
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="37"/>
-      <c r="BX69" s="37"/>
-      <c r="BY69" s="37"/>
+      <c r="BW69" s="38"/>
+      <c r="BX69" s="38"/>
+      <c r="BY69" s="38"/>
       <c r="BZ69" s="34" t="s">
         <v>28</v>
       </c>
       <c r="CA69" s="34"/>
       <c r="CB69" s="34"/>
       <c r="CC69" s="34"/>
-      <c r="CD69" s="35" t="s">
+      <c r="CD69" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="35"/>
-      <c r="CF69" s="35"/>
-      <c r="CG69" s="35"/>
-      <c r="CH69" s="28"/>
-      <c r="CI69" s="28"/>
-      <c r="CJ69" s="28"/>
-      <c r="CK69" s="28"/>
+      <c r="CE69" s="34"/>
+      <c r="CF69" s="34"/>
+      <c r="CG69" s="34"/>
+      <c r="CH69" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI69" s="40"/>
+      <c r="CJ69" s="40"/>
+      <c r="CK69" s="40"/>
+      <c r="CL69" s="41"/>
     </row>
-    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>4</v>
       </c>
@@ -33794,36 +33922,39 @@
       <c r="BY70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ70" s="6" t="s">
+      <c r="BZ70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CA70" s="6" t="s">
+      <c r="CA70" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CB70" s="6" t="s">
+      <c r="CB70" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CC70" s="6" t="s">
+      <c r="CC70" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CD70" s="33" t="s">
+      <c r="CD70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CE70" s="33" t="s">
+      <c r="CE70" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="33" t="s">
+      <c r="CF70" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="33" t="s">
+      <c r="CG70" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CH70" s="29"/>
-      <c r="CI70" s="29"/>
-      <c r="CJ70" s="29"/>
-      <c r="CK70" s="29"/>
+      <c r="CH70" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI70" s="40"/>
+      <c r="CJ70" s="40"/>
+      <c r="CK70" s="40"/>
+      <c r="CL70" s="40"/>
     </row>
-    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -33901,20 +34032,21 @@
       <c r="BW71" s="1"/>
       <c r="BX71" s="1"/>
       <c r="BY71" s="1"/>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
+      <c r="BZ71" s="22"/>
+      <c r="CA71" s="22"/>
+      <c r="CB71" s="22"/>
+      <c r="CC71" s="22"/>
       <c r="CD71" s="22"/>
       <c r="CE71" s="22"/>
       <c r="CF71" s="22"/>
       <c r="CG71" s="22"/>
       <c r="CH71" s="22"/>
-      <c r="CI71" s="22"/>
-      <c r="CJ71" s="22"/>
-      <c r="CK71" s="22"/>
+      <c r="CI71" s="39"/>
+      <c r="CJ71" s="39"/>
+      <c r="CK71" s="39"/>
+      <c r="CL71" s="39"/>
     </row>
-    <row r="72" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -34146,35 +34278,37 @@
       <c r="BY72" s="17">
         <v>26.104630297385327</v>
       </c>
-      <c r="BZ72" s="17">
-        <v>33.330999804689213</v>
-      </c>
-      <c r="CA72" s="17">
-        <v>67.226941502630893</v>
-      </c>
-      <c r="CB72" s="17">
-        <v>30.04999933788298</v>
-      </c>
-      <c r="CC72" s="17">
-        <v>36.72100813001046</v>
-      </c>
-      <c r="CD72" s="31">
-        <v>47.991928552940294</v>
-      </c>
-      <c r="CE72" s="31">
-        <v>-28.058982780720214</v>
-      </c>
-      <c r="CF72" s="31">
+      <c r="BZ72" s="29">
+        <v>31.021323279925554</v>
+      </c>
+      <c r="CA72" s="29">
+        <v>64.330089745256828</v>
+      </c>
+      <c r="CB72" s="29">
+        <v>27.797159181008425</v>
+      </c>
+      <c r="CC72" s="29">
+        <v>34.352606907620498</v>
+      </c>
+      <c r="CD72" s="29">
+        <v>47.991928552940323</v>
+      </c>
+      <c r="CE72" s="29">
+        <v>-28.058982780720186</v>
+      </c>
+      <c r="CF72" s="29">
         <v>11.833448987179111</v>
       </c>
-      <c r="CG72" s="31">
-        <v>19.558836257610011</v>
-      </c>
-      <c r="CH72" s="25"/>
-      <c r="CI72" s="25"/>
-      <c r="CJ72" s="25"/>
-      <c r="CK72" s="25"/>
-      <c r="CL72" s="10"/>
+      <c r="CG72" s="29">
+        <v>21.21030576438379</v>
+      </c>
+      <c r="CH72" s="29">
+        <v>11.588422938164584</v>
+      </c>
+      <c r="CI72" s="42"/>
+      <c r="CJ72" s="42"/>
+      <c r="CK72" s="42"/>
+      <c r="CL72" s="42"/>
       <c r="CM72" s="10"/>
       <c r="CN72" s="10"/>
       <c r="CO72" s="10"/>
@@ -34237,7 +34371,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -34469,35 +34603,37 @@
       <c r="BY73" s="17">
         <v>3.3483715823308557</v>
       </c>
-      <c r="BZ73" s="17">
+      <c r="BZ73" s="29">
         <v>-4.9298769514278433</v>
       </c>
-      <c r="CA73" s="17">
+      <c r="CA73" s="29">
         <v>-37.450052375468537</v>
       </c>
-      <c r="CB73" s="17">
+      <c r="CB73" s="29">
         <v>-14.112148569855265</v>
       </c>
-      <c r="CC73" s="17">
-        <v>-14.437011681304369</v>
-      </c>
-      <c r="CD73" s="31">
+      <c r="CC73" s="29">
+        <v>-16.238540296596383</v>
+      </c>
+      <c r="CD73" s="29">
         <v>-2.0405406657607017</v>
       </c>
-      <c r="CE73" s="31">
+      <c r="CE73" s="29">
         <v>46.680589386928517</v>
       </c>
-      <c r="CF73" s="31">
-        <v>19.8567098864103</v>
-      </c>
-      <c r="CG73" s="31">
-        <v>15.310009065346037</v>
-      </c>
-      <c r="CH73" s="25"/>
-      <c r="CI73" s="25"/>
-      <c r="CJ73" s="25"/>
-      <c r="CK73" s="25"/>
-      <c r="CL73" s="10"/>
+      <c r="CF73" s="29">
+        <v>18.214510593271413</v>
+      </c>
+      <c r="CG73" s="29">
+        <v>9.9634878822694191</v>
+      </c>
+      <c r="CH73" s="29">
+        <v>-4.6135795151356263</v>
+      </c>
+      <c r="CI73" s="42"/>
+      <c r="CJ73" s="42"/>
+      <c r="CK73" s="42"/>
+      <c r="CL73" s="42"/>
       <c r="CM73" s="10"/>
       <c r="CN73" s="10"/>
       <c r="CO73" s="10"/>
@@ -34560,7 +34696,7 @@
       <c r="ET73" s="10"/>
       <c r="EU73" s="10"/>
     </row>
-    <row r="74" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -34792,35 +34928,37 @@
       <c r="BY74" s="17">
         <v>24.024716720601162</v>
       </c>
-      <c r="BZ74" s="17">
-        <v>-2.2505659858372269</v>
-      </c>
-      <c r="CA74" s="17">
-        <v>38.550511197816405</v>
-      </c>
-      <c r="CB74" s="17">
-        <v>10.179588436627427</v>
-      </c>
-      <c r="CC74" s="17">
-        <v>21.860611596304807</v>
-      </c>
-      <c r="CD74" s="31">
-        <v>36.475443475573201</v>
-      </c>
-      <c r="CE74" s="31">
-        <v>-43.215992874910455</v>
-      </c>
-      <c r="CF74" s="31">
-        <v>18.180153122649244</v>
-      </c>
-      <c r="CG74" s="31">
-        <v>4.7733309367098116</v>
-      </c>
-      <c r="CH74" s="25"/>
-      <c r="CI74" s="25"/>
-      <c r="CJ74" s="25"/>
-      <c r="CK74" s="25"/>
-      <c r="CL74" s="10"/>
+      <c r="BZ74" s="29">
+        <v>-7.8356576959604354</v>
+      </c>
+      <c r="CA74" s="29">
+        <v>30.438100137229583</v>
+      </c>
+      <c r="CB74" s="29">
+        <v>3.9508346738416549</v>
+      </c>
+      <c r="CC74" s="29">
+        <v>13.366469995043317</v>
+      </c>
+      <c r="CD74" s="29">
+        <v>36.427137148521695</v>
+      </c>
+      <c r="CE74" s="29">
+        <v>-43.215992874910448</v>
+      </c>
+      <c r="CF74" s="29">
+        <v>12.920368560486665</v>
+      </c>
+      <c r="CG74" s="29">
+        <v>5.4875955595897352</v>
+      </c>
+      <c r="CH74" s="29">
+        <v>0.22949100503740283</v>
+      </c>
+      <c r="CI74" s="42"/>
+      <c r="CJ74" s="42"/>
+      <c r="CK74" s="42"/>
+      <c r="CL74" s="42"/>
       <c r="CM74" s="10"/>
       <c r="CN74" s="10"/>
       <c r="CO74" s="10"/>
@@ -34883,7 +35021,7 @@
       <c r="ET74" s="10"/>
       <c r="EU74" s="10"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -34960,19 +35098,19 @@
       <c r="BW75" s="12"/>
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
-      <c r="BZ75" s="12"/>
-      <c r="CA75" s="12"/>
-      <c r="CB75" s="12"/>
-      <c r="CC75" s="12"/>
+      <c r="BZ75" s="25"/>
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="25"/>
+      <c r="CC75" s="25"/>
       <c r="CD75" s="25"/>
       <c r="CE75" s="25"/>
       <c r="CF75" s="25"/>
       <c r="CG75" s="25"/>
       <c r="CH75" s="25"/>
-      <c r="CI75" s="25"/>
-      <c r="CJ75" s="25"/>
-      <c r="CK75" s="25"/>
-      <c r="CL75" s="10"/>
+      <c r="CI75" s="42"/>
+      <c r="CJ75" s="42"/>
+      <c r="CK75" s="42"/>
+      <c r="CL75" s="42"/>
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
@@ -35035,7 +35173,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>11</v>
       </c>
@@ -35267,35 +35405,37 @@
       <c r="BY76" s="17">
         <v>9.8311643731815508</v>
       </c>
-      <c r="BZ76" s="17">
-        <v>2.9815378081551529</v>
-      </c>
-      <c r="CA76" s="17">
-        <v>-15.384087014951348</v>
-      </c>
-      <c r="CB76" s="17">
-        <v>-3.3130056391267146</v>
-      </c>
-      <c r="CC76" s="17">
-        <v>1.5354909622179633</v>
-      </c>
-      <c r="CD76" s="31">
-        <v>13.194967594539193</v>
-      </c>
-      <c r="CE76" s="31">
-        <v>13.483570467066826</v>
-      </c>
-      <c r="CF76" s="31">
-        <v>17.455754903703124</v>
-      </c>
-      <c r="CG76" s="31">
-        <v>15.937168972179734</v>
-      </c>
-      <c r="CH76" s="25"/>
-      <c r="CI76" s="25"/>
-      <c r="CJ76" s="25"/>
-      <c r="CK76" s="25"/>
-      <c r="CL76" s="10"/>
+      <c r="BZ76" s="29">
+        <v>2.1921443703339918</v>
+      </c>
+      <c r="CA76" s="29">
+        <v>-16.30458039189557</v>
+      </c>
+      <c r="CB76" s="29">
+        <v>-4.1588958988473053</v>
+      </c>
+      <c r="CC76" s="29">
+        <v>-0.87949155385388167</v>
+      </c>
+      <c r="CD76" s="29">
+        <v>12.959857270022383</v>
+      </c>
+      <c r="CE76" s="29">
+        <v>14.016210449625177</v>
+      </c>
+      <c r="CF76" s="29">
+        <v>16.071070329897054</v>
+      </c>
+      <c r="CG76" s="29">
+        <v>13.617404537688088</v>
+      </c>
+      <c r="CH76" s="29">
+        <v>1.2075238019730818</v>
+      </c>
+      <c r="CI76" s="42"/>
+      <c r="CJ76" s="42"/>
+      <c r="CK76" s="42"/>
+      <c r="CL76" s="42"/>
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
@@ -35358,7 +35498,7 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -35436,20 +35576,21 @@
       <c r="BW77" s="15"/>
       <c r="BX77" s="15"/>
       <c r="BY77" s="15"/>
-      <c r="BZ77" s="15"/>
-      <c r="CA77" s="15"/>
-      <c r="CB77" s="15"/>
-      <c r="CC77" s="15"/>
+      <c r="BZ77" s="27"/>
+      <c r="CA77" s="27"/>
+      <c r="CB77" s="27"/>
+      <c r="CC77" s="27"/>
       <c r="CD77" s="27"/>
       <c r="CE77" s="27"/>
       <c r="CF77" s="27"/>
       <c r="CG77" s="27"/>
       <c r="CH77" s="27"/>
-      <c r="CI77" s="27"/>
-      <c r="CJ77" s="27"/>
-      <c r="CK77" s="27"/>
+      <c r="CI77" s="43"/>
+      <c r="CJ77" s="43"/>
+      <c r="CK77" s="43"/>
+      <c r="CL77" s="43"/>
     </row>
-    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>0</v>
       </c>
@@ -35529,20 +35670,21 @@
       <c r="BW78" s="1"/>
       <c r="BX78" s="1"/>
       <c r="BY78" s="1"/>
-      <c r="BZ78" s="1"/>
-      <c r="CA78" s="1"/>
-      <c r="CB78" s="1"/>
-      <c r="CC78" s="1"/>
+      <c r="BZ78" s="22"/>
+      <c r="CA78" s="22"/>
+      <c r="CB78" s="22"/>
+      <c r="CC78" s="22"/>
       <c r="CD78" s="22"/>
       <c r="CE78" s="22"/>
       <c r="CF78" s="22"/>
       <c r="CG78" s="22"/>
       <c r="CH78" s="22"/>
-      <c r="CI78" s="22"/>
-      <c r="CJ78" s="22"/>
-      <c r="CK78" s="22"/>
+      <c r="CI78" s="39"/>
+      <c r="CJ78" s="39"/>
+      <c r="CK78" s="39"/>
+      <c r="CL78" s="39"/>
     </row>
-    <row r="79" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -35619,19 +35761,19 @@
       <c r="BW79" s="12"/>
       <c r="BX79" s="12"/>
       <c r="BY79" s="12"/>
-      <c r="BZ79" s="12"/>
-      <c r="CA79" s="12"/>
-      <c r="CB79" s="12"/>
-      <c r="CC79" s="12"/>
+      <c r="BZ79" s="25"/>
+      <c r="CA79" s="25"/>
+      <c r="CB79" s="25"/>
+      <c r="CC79" s="25"/>
       <c r="CD79" s="25"/>
       <c r="CE79" s="25"/>
       <c r="CF79" s="25"/>
       <c r="CG79" s="25"/>
       <c r="CH79" s="25"/>
-      <c r="CI79" s="25"/>
-      <c r="CJ79" s="25"/>
-      <c r="CK79" s="25"/>
-      <c r="CL79" s="10"/>
+      <c r="CI79" s="42"/>
+      <c r="CJ79" s="42"/>
+      <c r="CK79" s="42"/>
+      <c r="CL79" s="42"/>
       <c r="CM79" s="10"/>
       <c r="CN79" s="10"/>
       <c r="CO79" s="10"/>
@@ -35694,7 +35836,7 @@
       <c r="ET79" s="10"/>
       <c r="EU79" s="10"/>
     </row>
-    <row r="80" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -35771,19 +35913,19 @@
       <c r="BW80" s="12"/>
       <c r="BX80" s="12"/>
       <c r="BY80" s="12"/>
-      <c r="BZ80" s="12"/>
-      <c r="CA80" s="10"/>
-      <c r="CB80" s="10"/>
-      <c r="CC80" s="10"/>
-      <c r="CD80" s="30"/>
-      <c r="CE80" s="30"/>
-      <c r="CF80" s="30"/>
-      <c r="CG80" s="30"/>
-      <c r="CH80" s="30"/>
-      <c r="CI80" s="30"/>
-      <c r="CJ80" s="30"/>
-      <c r="CK80" s="30"/>
-      <c r="CL80" s="10"/>
+      <c r="BZ80" s="25"/>
+      <c r="CA80" s="28"/>
+      <c r="CB80" s="28"/>
+      <c r="CC80" s="28"/>
+      <c r="CD80" s="28"/>
+      <c r="CE80" s="28"/>
+      <c r="CF80" s="28"/>
+      <c r="CG80" s="28"/>
+      <c r="CH80" s="28"/>
+      <c r="CI80" s="28"/>
+      <c r="CJ80" s="28"/>
+      <c r="CK80" s="28"/>
+      <c r="CL80" s="28"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
@@ -35846,7 +35988,7 @@
       <c r="ET80" s="10"/>
       <c r="EU80" s="10"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -35926,10 +36068,10 @@
       <c r="BW81" s="1"/>
       <c r="BX81" s="1"/>
       <c r="BY81" s="1"/>
-      <c r="BZ81" s="1"/>
-      <c r="CA81" s="1"/>
-      <c r="CB81" s="1"/>
-      <c r="CC81" s="1"/>
+      <c r="BZ81" s="22"/>
+      <c r="CA81" s="22"/>
+      <c r="CB81" s="22"/>
+      <c r="CC81" s="22"/>
       <c r="CD81" s="22"/>
       <c r="CE81" s="22"/>
       <c r="CF81" s="22"/>
@@ -35938,10 +36080,11 @@
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
       <c r="CK81" s="22"/>
+      <c r="CL81" s="22"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36019,10 +36162,10 @@
       <c r="BW82" s="1"/>
       <c r="BX82" s="1"/>
       <c r="BY82" s="1"/>
-      <c r="BZ82" s="1"/>
-      <c r="CA82" s="1"/>
-      <c r="CB82" s="1"/>
-      <c r="CC82" s="1"/>
+      <c r="BZ82" s="22"/>
+      <c r="CA82" s="22"/>
+      <c r="CB82" s="22"/>
+      <c r="CC82" s="22"/>
       <c r="CD82" s="22"/>
       <c r="CE82" s="22"/>
       <c r="CF82" s="22"/>
@@ -36031,8 +36174,9 @@
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
       <c r="CK82" s="22"/>
+      <c r="CL82" s="22"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -36110,10 +36254,10 @@
       <c r="BW83" s="1"/>
       <c r="BX83" s="1"/>
       <c r="BY83" s="1"/>
-      <c r="BZ83" s="1"/>
-      <c r="CA83" s="1"/>
-      <c r="CB83" s="1"/>
-      <c r="CC83" s="1"/>
+      <c r="BZ83" s="22"/>
+      <c r="CA83" s="22"/>
+      <c r="CB83" s="22"/>
+      <c r="CC83" s="22"/>
       <c r="CD83" s="22"/>
       <c r="CE83" s="22"/>
       <c r="CF83" s="22"/>
@@ -36122,8 +36266,9 @@
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
       <c r="CK83" s="22"/>
+      <c r="CL83" s="22"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -36203,10 +36348,10 @@
       <c r="BW84" s="1"/>
       <c r="BX84" s="1"/>
       <c r="BY84" s="1"/>
-      <c r="BZ84" s="1"/>
-      <c r="CA84" s="1"/>
-      <c r="CB84" s="1"/>
-      <c r="CC84" s="1"/>
+      <c r="BZ84" s="22"/>
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
       <c r="CD84" s="22"/>
       <c r="CE84" s="22"/>
       <c r="CF84" s="22"/>
@@ -36215,10 +36360,11 @@
       <c r="CI84" s="22"/>
       <c r="CJ84" s="22"/>
       <c r="CK84" s="22"/>
+      <c r="CL84" s="22"/>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36296,10 +36442,10 @@
       <c r="BW85" s="1"/>
       <c r="BX85" s="1"/>
       <c r="BY85" s="1"/>
-      <c r="BZ85" s="1"/>
-      <c r="CA85" s="1"/>
-      <c r="CB85" s="1"/>
-      <c r="CC85" s="1"/>
+      <c r="BZ85" s="22"/>
+      <c r="CA85" s="22"/>
+      <c r="CB85" s="22"/>
+      <c r="CC85" s="22"/>
       <c r="CD85" s="22"/>
       <c r="CE85" s="22"/>
       <c r="CF85" s="22"/>
@@ -36308,8 +36454,9 @@
       <c r="CI85" s="22"/>
       <c r="CJ85" s="22"/>
       <c r="CK85" s="22"/>
+      <c r="CL85" s="22"/>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -36389,10 +36536,10 @@
       <c r="BW86" s="1"/>
       <c r="BX86" s="1"/>
       <c r="BY86" s="1"/>
-      <c r="BZ86" s="1"/>
-      <c r="CA86" s="1"/>
-      <c r="CB86" s="1"/>
-      <c r="CC86" s="1"/>
+      <c r="BZ86" s="22"/>
+      <c r="CA86" s="22"/>
+      <c r="CB86" s="22"/>
+      <c r="CC86" s="22"/>
       <c r="CD86" s="22"/>
       <c r="CE86" s="22"/>
       <c r="CF86" s="22"/>
@@ -36401,8 +36548,9 @@
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
       <c r="CK86" s="22"/>
+      <c r="CL86" s="22"/>
     </row>
-    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -36480,10 +36628,10 @@
       <c r="BW87" s="1"/>
       <c r="BX87" s="1"/>
       <c r="BY87" s="1"/>
-      <c r="BZ87" s="1"/>
-      <c r="CA87" s="1"/>
-      <c r="CB87" s="1"/>
-      <c r="CC87" s="1"/>
+      <c r="BZ87" s="22"/>
+      <c r="CA87" s="22"/>
+      <c r="CB87" s="22"/>
+      <c r="CC87" s="22"/>
       <c r="CD87" s="22"/>
       <c r="CE87" s="22"/>
       <c r="CF87" s="22"/>
@@ -36492,118 +36640,119 @@
       <c r="CI87" s="22"/>
       <c r="CJ87" s="22"/>
       <c r="CK87" s="22"/>
+      <c r="CL87" s="22"/>
     </row>
-    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="34">
+      <c r="B88" s="35">
         <v>2000</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
-      <c r="F88" s="34">
+      <c r="F88" s="35">
         <v>2001</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
-      <c r="J88" s="34">
+      <c r="J88" s="35">
         <v>2002</v>
       </c>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
-      <c r="N88" s="34">
+      <c r="N88" s="35">
         <v>2003</v>
       </c>
       <c r="O88" s="36"/>
       <c r="P88" s="36"/>
       <c r="Q88" s="36"/>
-      <c r="R88" s="34">
+      <c r="R88" s="35">
         <v>2004</v>
       </c>
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="34">
+      <c r="V88" s="35">
         <v>2005</v>
       </c>
       <c r="W88" s="36"/>
       <c r="X88" s="36"/>
       <c r="Y88" s="36"/>
-      <c r="Z88" s="34">
+      <c r="Z88" s="35">
         <v>2006</v>
       </c>
       <c r="AA88" s="36"/>
       <c r="AB88" s="36"/>
       <c r="AC88" s="36"/>
-      <c r="AD88" s="34">
+      <c r="AD88" s="35">
         <v>2007</v>
       </c>
       <c r="AE88" s="36"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="36"/>
-      <c r="AH88" s="34">
+      <c r="AH88" s="35">
         <v>2008</v>
       </c>
       <c r="AI88" s="36"/>
       <c r="AJ88" s="36"/>
       <c r="AK88" s="36"/>
-      <c r="AL88" s="34">
+      <c r="AL88" s="35">
         <v>2009</v>
       </c>
       <c r="AM88" s="36"/>
       <c r="AN88" s="36"/>
       <c r="AO88" s="36"/>
-      <c r="AP88" s="34">
+      <c r="AP88" s="35">
         <v>2010</v>
       </c>
       <c r="AQ88" s="36"/>
       <c r="AR88" s="36"/>
       <c r="AS88" s="36"/>
-      <c r="AT88" s="34">
+      <c r="AT88" s="35">
         <v>2011</v>
       </c>
       <c r="AU88" s="36"/>
       <c r="AV88" s="36"/>
       <c r="AW88" s="36"/>
-      <c r="AX88" s="34">
+      <c r="AX88" s="35">
         <v>2012</v>
       </c>
       <c r="AY88" s="36"/>
       <c r="AZ88" s="36"/>
       <c r="BA88" s="36"/>
-      <c r="BB88" s="34">
+      <c r="BB88" s="35">
         <v>2013</v>
       </c>
       <c r="BC88" s="36"/>
       <c r="BD88" s="36"/>
       <c r="BE88" s="36"/>
-      <c r="BF88" s="34">
+      <c r="BF88" s="35">
         <v>2014</v>
       </c>
       <c r="BG88" s="36"/>
       <c r="BH88" s="36"/>
       <c r="BI88" s="36"/>
-      <c r="BJ88" s="34">
+      <c r="BJ88" s="35">
         <v>2015</v>
       </c>
       <c r="BK88" s="36"/>
       <c r="BL88" s="36"/>
       <c r="BM88" s="36"/>
-      <c r="BN88" s="34">
+      <c r="BN88" s="35">
         <v>2016</v>
       </c>
       <c r="BO88" s="36"/>
       <c r="BP88" s="36"/>
       <c r="BQ88" s="36"/>
-      <c r="BR88" s="34">
+      <c r="BR88" s="35">
         <v>2017</v>
       </c>
       <c r="BS88" s="36"/>
       <c r="BT88" s="36"/>
       <c r="BU88" s="36"/>
-      <c r="BV88" s="34">
+      <c r="BV88" s="35">
         <v>2018</v>
       </c>
       <c r="BW88" s="36"/>
@@ -36612,23 +36761,26 @@
       <c r="BZ88" s="34">
         <v>2019</v>
       </c>
-      <c r="CA88" s="36"/>
-      <c r="CB88" s="36"/>
-      <c r="CC88" s="36"/>
-      <c r="CD88" s="35">
+      <c r="CA88" s="37"/>
+      <c r="CB88" s="37"/>
+      <c r="CC88" s="37"/>
+      <c r="CD88" s="34">
         <v>2020</v>
       </c>
-      <c r="CE88" s="35"/>
-      <c r="CF88" s="35"/>
-      <c r="CG88" s="35"/>
-      <c r="CH88" s="35">
+      <c r="CE88" s="34"/>
+      <c r="CF88" s="34"/>
+      <c r="CG88" s="34"/>
+      <c r="CH88" s="34">
         <v>2021</v>
       </c>
-      <c r="CI88" s="35"/>
-      <c r="CJ88" s="35"/>
-      <c r="CK88" s="35"/>
+      <c r="CI88" s="34"/>
+      <c r="CJ88" s="34"/>
+      <c r="CK88" s="34"/>
+      <c r="CL88" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>4</v>
       </c>
@@ -36860,16 +37012,16 @@
       <c r="BY89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ89" s="7" t="s">
+      <c r="BZ89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CA89" s="7" t="s">
+      <c r="CA89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CB89" s="7" t="s">
+      <c r="CB89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CC89" s="7" t="s">
+      <c r="CC89" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CD89" s="23" t="s">
@@ -36896,8 +37048,11 @@
       <c r="CK89" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="CL89" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -36975,10 +37130,10 @@
       <c r="BW90" s="1"/>
       <c r="BX90" s="1"/>
       <c r="BY90" s="1"/>
-      <c r="BZ90" s="1"/>
-      <c r="CA90" s="1"/>
-      <c r="CB90" s="1"/>
-      <c r="CC90" s="1"/>
+      <c r="BZ90" s="22"/>
+      <c r="CA90" s="22"/>
+      <c r="CB90" s="22"/>
+      <c r="CC90" s="22"/>
       <c r="CD90" s="22"/>
       <c r="CE90" s="22"/>
       <c r="CF90" s="22"/>
@@ -36987,8 +37142,9 @@
       <c r="CI90" s="22"/>
       <c r="CJ90" s="22"/>
       <c r="CK90" s="22"/>
+      <c r="CL90" s="22"/>
     </row>
-    <row r="91" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -37220,43 +37376,45 @@
       <c r="BY91" s="17">
         <v>120.0024138539016</v>
       </c>
-      <c r="BZ91" s="17">
+      <c r="BZ91" s="29">
         <v>89.653725139377073</v>
       </c>
-      <c r="CA91" s="17">
+      <c r="CA91" s="29">
         <v>94.279249466966732</v>
       </c>
-      <c r="CB91" s="17">
+      <c r="CB91" s="29">
         <v>96.259327182524117</v>
       </c>
-      <c r="CC91" s="17">
+      <c r="CC91" s="29">
         <v>115.3378763012757</v>
       </c>
-      <c r="CD91" s="31">
+      <c r="CD91" s="29">
         <v>95.374328230385302</v>
       </c>
-      <c r="CE91" s="31">
+      <c r="CE91" s="29">
         <v>98.524882111888829</v>
       </c>
-      <c r="CF91" s="31">
-        <v>101.07611871214041</v>
-      </c>
-      <c r="CG91" s="31">
-        <v>120.02632063892031</v>
-      </c>
-      <c r="CH91" s="31">
+      <c r="CF91" s="29">
+        <v>101.07611871214046</v>
+      </c>
+      <c r="CG91" s="29">
+        <v>120.02632063892034</v>
+      </c>
+      <c r="CH91" s="29">
         <v>101.97506969544523</v>
       </c>
-      <c r="CI91" s="31">
-        <v>98.850495703148354</v>
-      </c>
-      <c r="CJ91" s="31">
-        <v>103.78974021193046</v>
-      </c>
-      <c r="CK91" s="31">
-        <v>126.04300073763672</v>
-      </c>
-      <c r="CL91" s="10"/>
+      <c r="CI91" s="29">
+        <v>98.850495703148368</v>
+      </c>
+      <c r="CJ91" s="29">
+        <v>103.7896379306025</v>
+      </c>
+      <c r="CK91" s="29">
+        <v>123.02714492996768</v>
+      </c>
+      <c r="CL91" s="29">
+        <v>106.11323721842503</v>
+      </c>
       <c r="CM91" s="10"/>
       <c r="CN91" s="10"/>
       <c r="CO91" s="10"/>
@@ -37323,7 +37481,7 @@
       <c r="EX91" s="10"/>
       <c r="EY91" s="10"/>
     </row>
-    <row r="92" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -37555,43 +37713,45 @@
       <c r="BY92" s="17">
         <v>112.6077423259613</v>
       </c>
-      <c r="BZ92" s="17">
+      <c r="BZ92" s="29">
         <v>89.860637232947099</v>
       </c>
-      <c r="CA92" s="17">
+      <c r="CA92" s="29">
         <v>98.948747099699318</v>
       </c>
-      <c r="CB92" s="17">
+      <c r="CB92" s="29">
         <v>107.47931446307599</v>
       </c>
-      <c r="CC92" s="17">
+      <c r="CC92" s="29">
         <v>113.92608061828491</v>
       </c>
-      <c r="CD92" s="31">
+      <c r="CD92" s="29">
         <v>93.152449435763202</v>
       </c>
-      <c r="CE92" s="31">
+      <c r="CE92" s="29">
         <v>102.96902201060274</v>
       </c>
-      <c r="CF92" s="31">
+      <c r="CF92" s="29">
         <v>111.86946228013856</v>
       </c>
-      <c r="CG92" s="31">
-        <v>118.1912900508777</v>
-      </c>
-      <c r="CH92" s="31">
+      <c r="CG92" s="29">
+        <v>118.19129005087774</v>
+      </c>
+      <c r="CH92" s="29">
         <v>96.390111697192424</v>
       </c>
-      <c r="CI92" s="31">
+      <c r="CI92" s="29">
         <v>106.35634207436557</v>
       </c>
-      <c r="CJ92" s="31">
-        <v>115.65937921871688</v>
-      </c>
-      <c r="CK92" s="31">
-        <v>121.82911475287257</v>
-      </c>
-      <c r="CL92" s="10"/>
+      <c r="CJ92" s="29">
+        <v>117.33809747206504</v>
+      </c>
+      <c r="CK92" s="29">
+        <v>121.88198833102292</v>
+      </c>
+      <c r="CL92" s="29">
+        <v>98.885398435508066</v>
+      </c>
       <c r="CM92" s="10"/>
       <c r="CN92" s="10"/>
       <c r="CO92" s="10"/>
@@ -37658,7 +37818,7 @@
       <c r="EX92" s="10"/>
       <c r="EY92" s="10"/>
     </row>
-    <row r="93" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -37890,43 +38050,45 @@
       <c r="BY93" s="17">
         <v>114.87019521772118</v>
       </c>
-      <c r="BZ93" s="17">
+      <c r="BZ93" s="29">
         <v>91.842179024193172</v>
       </c>
-      <c r="CA93" s="17">
+      <c r="CA93" s="29">
         <v>102.59709161301799</v>
       </c>
-      <c r="CB93" s="17">
+      <c r="CB93" s="29">
         <v>106.44510627772439</v>
       </c>
-      <c r="CC93" s="17">
+      <c r="CC93" s="29">
         <v>122.2283361089663</v>
       </c>
-      <c r="CD93" s="31">
+      <c r="CD93" s="29">
         <v>97.046260455199473</v>
       </c>
-      <c r="CE93" s="31">
-        <v>107.25319310293553</v>
-      </c>
-      <c r="CF93" s="31">
-        <v>108.5183722904971</v>
-      </c>
-      <c r="CG93" s="31">
-        <v>124.64008868602379</v>
-      </c>
-      <c r="CH93" s="31">
+      <c r="CE93" s="29">
+        <v>107.25319310293555</v>
+      </c>
+      <c r="CF93" s="29">
+        <v>108.51837229049704</v>
+      </c>
+      <c r="CG93" s="29">
+        <v>124.64008868602376</v>
+      </c>
+      <c r="CH93" s="29">
         <v>100.64077766972331</v>
       </c>
-      <c r="CI93" s="31">
-        <v>107.87169087657291</v>
-      </c>
-      <c r="CJ93" s="31">
-        <v>113.80266810546379</v>
-      </c>
-      <c r="CK93" s="31">
-        <v>129.19003601521632</v>
-      </c>
-      <c r="CL93" s="10"/>
+      <c r="CI93" s="29">
+        <v>107.87169087657288</v>
+      </c>
+      <c r="CJ93" s="29">
+        <v>118.84015008806411</v>
+      </c>
+      <c r="CK93" s="29">
+        <v>130.67259301784676</v>
+      </c>
+      <c r="CL93" s="29">
+        <v>104.40006020545181</v>
+      </c>
       <c r="CM93" s="10"/>
       <c r="CN93" s="10"/>
       <c r="CO93" s="10"/>
@@ -37993,7 +38155,7 @@
       <c r="EX93" s="10"/>
       <c r="EY93" s="10"/>
     </row>
-    <row r="94" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -38070,10 +38232,10 @@
       <c r="BW94" s="12"/>
       <c r="BX94" s="12"/>
       <c r="BY94" s="12"/>
-      <c r="BZ94" s="12"/>
-      <c r="CA94" s="12"/>
-      <c r="CB94" s="12"/>
-      <c r="CC94" s="12"/>
+      <c r="BZ94" s="25"/>
+      <c r="CA94" s="25"/>
+      <c r="CB94" s="25"/>
+      <c r="CC94" s="25"/>
       <c r="CD94" s="25"/>
       <c r="CE94" s="25"/>
       <c r="CF94" s="25"/>
@@ -38082,7 +38244,7 @@
       <c r="CI94" s="25"/>
       <c r="CJ94" s="25"/>
       <c r="CK94" s="25"/>
-      <c r="CL94" s="10"/>
+      <c r="CL94" s="25"/>
       <c r="CM94" s="10"/>
       <c r="CN94" s="10"/>
       <c r="CO94" s="10"/>
@@ -38149,7 +38311,7 @@
       <c r="EX94" s="10"/>
       <c r="EY94" s="10"/>
     </row>
-    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>11</v>
       </c>
@@ -38381,43 +38543,45 @@
       <c r="BY95" s="17">
         <v>114.44051138856372</v>
       </c>
-      <c r="BZ95" s="17">
+      <c r="BZ95" s="29">
         <v>89.932612177401722</v>
       </c>
-      <c r="CA95" s="17">
+      <c r="CA95" s="29">
         <v>98.327330064412081</v>
       </c>
-      <c r="CB95" s="17">
+      <c r="CB95" s="29">
         <v>105.03938406459726</v>
       </c>
-      <c r="CC95" s="17">
+      <c r="CC95" s="29">
         <v>114.87342588745247</v>
       </c>
-      <c r="CD95" s="31">
-        <v>93.948191240876071</v>
-      </c>
-      <c r="CE95" s="31">
-        <v>101.8080534274944</v>
-      </c>
-      <c r="CF95" s="31">
-        <v>108.56574230194229</v>
-      </c>
-      <c r="CG95" s="31">
-        <v>119.37814236738203</v>
-      </c>
-      <c r="CH95" s="31">
-        <v>98.58652640563264</v>
-      </c>
-      <c r="CI95" s="31">
-        <v>104.79008862630721</v>
-      </c>
-      <c r="CJ95" s="31">
-        <v>112.31066539787781</v>
-      </c>
-      <c r="CK95" s="31">
-        <v>123.92192025161776</v>
-      </c>
-      <c r="CL95" s="10"/>
+      <c r="CD95" s="29">
+        <v>93.931921363033723</v>
+      </c>
+      <c r="CE95" s="29">
+        <v>101.80054113099899</v>
+      </c>
+      <c r="CF95" s="29">
+        <v>108.60324946049759</v>
+      </c>
+      <c r="CG95" s="29">
+        <v>119.35718307766867</v>
+      </c>
+      <c r="CH95" s="29">
+        <v>98.558338997132978</v>
+      </c>
+      <c r="CI95" s="29">
+        <v>104.80490661247489</v>
+      </c>
+      <c r="CJ95" s="29">
+        <v>113.74143153418044</v>
+      </c>
+      <c r="CK95" s="29">
+        <v>122.96516939056048</v>
+      </c>
+      <c r="CL95" s="29">
+        <v>101.9414312772557</v>
+      </c>
       <c r="CM95" s="10"/>
       <c r="CN95" s="10"/>
       <c r="CO95" s="10"/>
@@ -38484,7 +38648,7 @@
       <c r="EX95" s="10"/>
       <c r="EY95" s="10"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -38562,10 +38726,10 @@
       <c r="BW96" s="15"/>
       <c r="BX96" s="15"/>
       <c r="BY96" s="15"/>
-      <c r="BZ96" s="15"/>
-      <c r="CA96" s="15"/>
-      <c r="CB96" s="15"/>
-      <c r="CC96" s="15"/>
+      <c r="BZ96" s="27"/>
+      <c r="CA96" s="27"/>
+      <c r="CB96" s="27"/>
+      <c r="CC96" s="27"/>
       <c r="CD96" s="27"/>
       <c r="CE96" s="27"/>
       <c r="CF96" s="27"/>
@@ -38574,8 +38738,9 @@
       <c r="CI96" s="27"/>
       <c r="CJ96" s="27"/>
       <c r="CK96" s="27"/>
+      <c r="CL96" s="27"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>0</v>
       </c>
@@ -38655,10 +38820,10 @@
       <c r="BW97" s="1"/>
       <c r="BX97" s="1"/>
       <c r="BY97" s="1"/>
-      <c r="BZ97" s="1"/>
-      <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
-      <c r="CC97" s="1"/>
+      <c r="BZ97" s="22"/>
+      <c r="CA97" s="22"/>
+      <c r="CB97" s="22"/>
+      <c r="CC97" s="22"/>
       <c r="CD97" s="22"/>
       <c r="CE97" s="22"/>
       <c r="CF97" s="22"/>
@@ -38667,8 +38832,9 @@
       <c r="CI97" s="22"/>
       <c r="CJ97" s="22"/>
       <c r="CK97" s="22"/>
+      <c r="CL97" s="22"/>
     </row>
-    <row r="98" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -38745,10 +38911,10 @@
       <c r="BW98" s="1"/>
       <c r="BX98" s="1"/>
       <c r="BY98" s="1"/>
-      <c r="BZ98" s="1"/>
-      <c r="CA98" s="1"/>
-      <c r="CB98" s="1"/>
-      <c r="CC98" s="1"/>
+      <c r="BZ98" s="22"/>
+      <c r="CA98" s="22"/>
+      <c r="CB98" s="22"/>
+      <c r="CC98" s="22"/>
       <c r="CD98" s="22"/>
       <c r="CE98" s="22"/>
       <c r="CF98" s="22"/>
@@ -38757,8 +38923,9 @@
       <c r="CI98" s="22"/>
       <c r="CJ98" s="22"/>
       <c r="CK98" s="22"/>
+      <c r="CL98" s="22"/>
     </row>
-    <row r="99" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -38835,10 +39002,10 @@
       <c r="BW99" s="1"/>
       <c r="BX99" s="1"/>
       <c r="BY99" s="1"/>
-      <c r="BZ99" s="1"/>
-      <c r="CA99" s="1"/>
-      <c r="CB99" s="1"/>
-      <c r="CC99" s="1"/>
+      <c r="BZ99" s="22"/>
+      <c r="CA99" s="22"/>
+      <c r="CB99" s="22"/>
+      <c r="CC99" s="22"/>
       <c r="CD99" s="22"/>
       <c r="CE99" s="22"/>
       <c r="CF99" s="22"/>
@@ -38847,8 +39014,9 @@
       <c r="CI99" s="22"/>
       <c r="CJ99" s="22"/>
       <c r="CK99" s="22"/>
+      <c r="CL99" s="22"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -38928,10 +39096,10 @@
       <c r="BW100" s="1"/>
       <c r="BX100" s="1"/>
       <c r="BY100" s="1"/>
-      <c r="BZ100" s="1"/>
-      <c r="CA100" s="1"/>
-      <c r="CB100" s="1"/>
-      <c r="CC100" s="1"/>
+      <c r="BZ100" s="22"/>
+      <c r="CA100" s="22"/>
+      <c r="CB100" s="22"/>
+      <c r="CC100" s="22"/>
       <c r="CD100" s="22"/>
       <c r="CE100" s="22"/>
       <c r="CF100" s="22"/>
@@ -38940,8 +39108,9 @@
       <c r="CI100" s="22"/>
       <c r="CJ100" s="22"/>
       <c r="CK100" s="22"/>
+      <c r="CL100" s="22"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -39021,10 +39190,10 @@
       <c r="BW101" s="1"/>
       <c r="BX101" s="1"/>
       <c r="BY101" s="1"/>
-      <c r="BZ101" s="1"/>
-      <c r="CA101" s="1"/>
-      <c r="CB101" s="1"/>
-      <c r="CC101" s="1"/>
+      <c r="BZ101" s="22"/>
+      <c r="CA101" s="22"/>
+      <c r="CB101" s="22"/>
+      <c r="CC101" s="22"/>
       <c r="CD101" s="22"/>
       <c r="CE101" s="22"/>
       <c r="CF101" s="22"/>
@@ -39033,10 +39202,11 @@
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
       <c r="CK101" s="22"/>
+      <c r="CL101" s="22"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39114,10 +39284,10 @@
       <c r="BW102" s="1"/>
       <c r="BX102" s="1"/>
       <c r="BY102" s="1"/>
-      <c r="BZ102" s="1"/>
-      <c r="CA102" s="1"/>
-      <c r="CB102" s="1"/>
-      <c r="CC102" s="1"/>
+      <c r="BZ102" s="22"/>
+      <c r="CA102" s="22"/>
+      <c r="CB102" s="22"/>
+      <c r="CC102" s="22"/>
       <c r="CD102" s="22"/>
       <c r="CE102" s="22"/>
       <c r="CF102" s="22"/>
@@ -39126,8 +39296,9 @@
       <c r="CI102" s="22"/>
       <c r="CJ102" s="22"/>
       <c r="CK102" s="22"/>
+      <c r="CL102" s="22"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -39205,10 +39376,10 @@
       <c r="BW103" s="1"/>
       <c r="BX103" s="1"/>
       <c r="BY103" s="1"/>
-      <c r="BZ103" s="1"/>
-      <c r="CA103" s="1"/>
-      <c r="CB103" s="1"/>
-      <c r="CC103" s="1"/>
+      <c r="BZ103" s="22"/>
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
       <c r="CD103" s="22"/>
       <c r="CE103" s="22"/>
       <c r="CF103" s="22"/>
@@ -39217,8 +39388,9 @@
       <c r="CI103" s="22"/>
       <c r="CJ103" s="22"/>
       <c r="CK103" s="22"/>
+      <c r="CL103" s="22"/>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -39298,10 +39470,10 @@
       <c r="BW104" s="1"/>
       <c r="BX104" s="1"/>
       <c r="BY104" s="1"/>
-      <c r="BZ104" s="1"/>
-      <c r="CA104" s="1"/>
-      <c r="CB104" s="1"/>
-      <c r="CC104" s="1"/>
+      <c r="BZ104" s="22"/>
+      <c r="CA104" s="22"/>
+      <c r="CB104" s="22"/>
+      <c r="CC104" s="22"/>
       <c r="CD104" s="22"/>
       <c r="CE104" s="22"/>
       <c r="CF104" s="22"/>
@@ -39310,10 +39482,11 @@
       <c r="CI104" s="22"/>
       <c r="CJ104" s="22"/>
       <c r="CK104" s="22"/>
+      <c r="CL104" s="22"/>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39391,10 +39564,10 @@
       <c r="BW105" s="1"/>
       <c r="BX105" s="1"/>
       <c r="BY105" s="1"/>
-      <c r="BZ105" s="1"/>
-      <c r="CA105" s="1"/>
-      <c r="CB105" s="1"/>
-      <c r="CC105" s="1"/>
+      <c r="BZ105" s="22"/>
+      <c r="CA105" s="22"/>
+      <c r="CB105" s="22"/>
+      <c r="CC105" s="22"/>
       <c r="CD105" s="22"/>
       <c r="CE105" s="22"/>
       <c r="CF105" s="22"/>
@@ -39403,8 +39576,9 @@
       <c r="CI105" s="22"/>
       <c r="CJ105" s="22"/>
       <c r="CK105" s="22"/>
+      <c r="CL105" s="22"/>
     </row>
-    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
@@ -39484,10 +39658,10 @@
       <c r="BW106" s="1"/>
       <c r="BX106" s="1"/>
       <c r="BY106" s="1"/>
-      <c r="BZ106" s="1"/>
-      <c r="CA106" s="1"/>
-      <c r="CB106" s="1"/>
-      <c r="CC106" s="1"/>
+      <c r="BZ106" s="22"/>
+      <c r="CA106" s="22"/>
+      <c r="CB106" s="22"/>
+      <c r="CC106" s="22"/>
       <c r="CD106" s="22"/>
       <c r="CE106" s="22"/>
       <c r="CF106" s="22"/>
@@ -39496,8 +39670,9 @@
       <c r="CI106" s="22"/>
       <c r="CJ106" s="22"/>
       <c r="CK106" s="22"/>
+      <c r="CL106" s="22"/>
     </row>
-    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -39575,10 +39750,10 @@
       <c r="BW107" s="1"/>
       <c r="BX107" s="1"/>
       <c r="BY107" s="1"/>
-      <c r="BZ107" s="1"/>
-      <c r="CA107" s="1"/>
-      <c r="CB107" s="1"/>
-      <c r="CC107" s="1"/>
+      <c r="BZ107" s="22"/>
+      <c r="CA107" s="22"/>
+      <c r="CB107" s="22"/>
+      <c r="CC107" s="22"/>
       <c r="CD107" s="22"/>
       <c r="CE107" s="22"/>
       <c r="CF107" s="22"/>
@@ -39587,118 +39762,119 @@
       <c r="CI107" s="22"/>
       <c r="CJ107" s="22"/>
       <c r="CK107" s="22"/>
+      <c r="CL107" s="22"/>
     </row>
-    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="34">
+      <c r="B108" s="35">
         <v>2000</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
-      <c r="F108" s="34">
+      <c r="F108" s="35">
         <v>2001</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
       <c r="I108" s="36"/>
-      <c r="J108" s="34">
+      <c r="J108" s="35">
         <v>2002</v>
       </c>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
-      <c r="N108" s="34">
+      <c r="N108" s="35">
         <v>2003</v>
       </c>
       <c r="O108" s="36"/>
       <c r="P108" s="36"/>
       <c r="Q108" s="36"/>
-      <c r="R108" s="34">
+      <c r="R108" s="35">
         <v>2004</v>
       </c>
       <c r="S108" s="36"/>
       <c r="T108" s="36"/>
       <c r="U108" s="36"/>
-      <c r="V108" s="34">
+      <c r="V108" s="35">
         <v>2005</v>
       </c>
       <c r="W108" s="36"/>
       <c r="X108" s="36"/>
       <c r="Y108" s="36"/>
-      <c r="Z108" s="34">
+      <c r="Z108" s="35">
         <v>2006</v>
       </c>
       <c r="AA108" s="36"/>
       <c r="AB108" s="36"/>
       <c r="AC108" s="36"/>
-      <c r="AD108" s="34">
+      <c r="AD108" s="35">
         <v>2007</v>
       </c>
       <c r="AE108" s="36"/>
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
-      <c r="AH108" s="34">
+      <c r="AH108" s="35">
         <v>2008</v>
       </c>
       <c r="AI108" s="36"/>
       <c r="AJ108" s="36"/>
       <c r="AK108" s="36"/>
-      <c r="AL108" s="34">
+      <c r="AL108" s="35">
         <v>2009</v>
       </c>
       <c r="AM108" s="36"/>
       <c r="AN108" s="36"/>
       <c r="AO108" s="36"/>
-      <c r="AP108" s="34">
+      <c r="AP108" s="35">
         <v>2010</v>
       </c>
       <c r="AQ108" s="36"/>
       <c r="AR108" s="36"/>
       <c r="AS108" s="36"/>
-      <c r="AT108" s="34">
+      <c r="AT108" s="35">
         <v>2011</v>
       </c>
       <c r="AU108" s="36"/>
       <c r="AV108" s="36"/>
       <c r="AW108" s="36"/>
-      <c r="AX108" s="34">
+      <c r="AX108" s="35">
         <v>2012</v>
       </c>
       <c r="AY108" s="36"/>
       <c r="AZ108" s="36"/>
       <c r="BA108" s="36"/>
-      <c r="BB108" s="34">
+      <c r="BB108" s="35">
         <v>2013</v>
       </c>
       <c r="BC108" s="36"/>
       <c r="BD108" s="36"/>
       <c r="BE108" s="36"/>
-      <c r="BF108" s="34">
+      <c r="BF108" s="35">
         <v>2014</v>
       </c>
       <c r="BG108" s="36"/>
       <c r="BH108" s="36"/>
       <c r="BI108" s="36"/>
-      <c r="BJ108" s="34">
+      <c r="BJ108" s="35">
         <v>2015</v>
       </c>
       <c r="BK108" s="36"/>
       <c r="BL108" s="36"/>
       <c r="BM108" s="36"/>
-      <c r="BN108" s="34">
+      <c r="BN108" s="35">
         <v>2016</v>
       </c>
       <c r="BO108" s="36"/>
       <c r="BP108" s="36"/>
       <c r="BQ108" s="36"/>
-      <c r="BR108" s="34">
+      <c r="BR108" s="35">
         <v>2017</v>
       </c>
       <c r="BS108" s="36"/>
       <c r="BT108" s="36"/>
       <c r="BU108" s="36"/>
-      <c r="BV108" s="34">
+      <c r="BV108" s="35">
         <v>2018</v>
       </c>
       <c r="BW108" s="36"/>
@@ -39707,23 +39883,26 @@
       <c r="BZ108" s="34">
         <v>2019</v>
       </c>
-      <c r="CA108" s="36"/>
-      <c r="CB108" s="36"/>
-      <c r="CC108" s="36"/>
-      <c r="CD108" s="35">
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="34">
         <v>2020</v>
       </c>
-      <c r="CE108" s="35"/>
-      <c r="CF108" s="35"/>
-      <c r="CG108" s="35"/>
-      <c r="CH108" s="35">
+      <c r="CE108" s="34"/>
+      <c r="CF108" s="34"/>
+      <c r="CG108" s="34"/>
+      <c r="CH108" s="34">
         <v>2021</v>
       </c>
-      <c r="CI108" s="35"/>
-      <c r="CJ108" s="35"/>
-      <c r="CK108" s="35"/>
+      <c r="CI108" s="34"/>
+      <c r="CJ108" s="34"/>
+      <c r="CK108" s="34"/>
+      <c r="CL108" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>4</v>
       </c>
@@ -39955,16 +40134,16 @@
       <c r="BY109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ109" s="7" t="s">
+      <c r="BZ109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="7" t="s">
+      <c r="CA109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="7" t="s">
+      <c r="CB109" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CC109" s="7" t="s">
+      <c r="CC109" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CD109" s="23" t="s">
@@ -39991,8 +40170,11 @@
       <c r="CK109" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="CL109" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -40070,10 +40252,10 @@
       <c r="BW110" s="1"/>
       <c r="BX110" s="1"/>
       <c r="BY110" s="1"/>
-      <c r="BZ110" s="1"/>
-      <c r="CA110" s="1"/>
-      <c r="CB110" s="1"/>
-      <c r="CC110" s="1"/>
+      <c r="BZ110" s="22"/>
+      <c r="CA110" s="22"/>
+      <c r="CB110" s="22"/>
+      <c r="CC110" s="22"/>
       <c r="CD110" s="22"/>
       <c r="CE110" s="22"/>
       <c r="CF110" s="22"/>
@@ -40082,8 +40264,9 @@
       <c r="CI110" s="22"/>
       <c r="CJ110" s="22"/>
       <c r="CK110" s="22"/>
+      <c r="CL110" s="22"/>
     </row>
-    <row r="111" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -40315,43 +40498,45 @@
       <c r="BY111" s="17">
         <v>24.018236618326615</v>
       </c>
-      <c r="BZ111" s="17">
+      <c r="BZ111" s="29">
         <v>20.212069542081164</v>
       </c>
-      <c r="CA111" s="17">
+      <c r="CA111" s="29">
         <v>16.622771889959985</v>
       </c>
-      <c r="CB111" s="17">
+      <c r="CB111" s="29">
         <v>19.429140721197538</v>
       </c>
-      <c r="CC111" s="17">
+      <c r="CC111" s="29">
         <v>26.405156726386696</v>
       </c>
-      <c r="CD111" s="31">
-        <v>26.648605297196941</v>
-      </c>
-      <c r="CE111" s="31">
-        <v>33.157331210057208</v>
-      </c>
-      <c r="CF111" s="31">
-        <v>26.549783477039</v>
-      </c>
-      <c r="CG111" s="31">
-        <v>35.604543985375457</v>
-      </c>
-      <c r="CH111" s="31">
-        <v>35.499216803276198</v>
-      </c>
-      <c r="CI111" s="31">
-        <v>20.488869874719885</v>
-      </c>
-      <c r="CJ111" s="31">
-        <v>25.092046054832373</v>
-      </c>
-      <c r="CK111" s="31">
-        <v>37.143543963251545</v>
-      </c>
-      <c r="CL111" s="10"/>
+      <c r="CD111" s="29">
+        <v>26.393829551456637</v>
+      </c>
+      <c r="CE111" s="29">
+        <v>32.943733350340167</v>
+      </c>
+      <c r="CF111" s="29">
+        <v>26.31104317576267</v>
+      </c>
+      <c r="CG111" s="29">
+        <v>35.846510174830456</v>
+      </c>
+      <c r="CH111" s="29">
+        <v>35.23697768604621</v>
+      </c>
+      <c r="CI111" s="29">
+        <v>20.257422444896669</v>
+      </c>
+      <c r="CJ111" s="29">
+        <v>24.855091535060509</v>
+      </c>
+      <c r="CK111" s="29">
+        <v>38.048055347335733</v>
+      </c>
+      <c r="CL111" s="29">
+        <v>39.086176949511724</v>
+      </c>
       <c r="CM111" s="10"/>
       <c r="CN111" s="10"/>
       <c r="CO111" s="10"/>
@@ -40418,7 +40603,7 @@
       <c r="EX111" s="10"/>
       <c r="EY111" s="10"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -40650,43 +40835,45 @@
       <c r="BY112" s="17">
         <v>69.814163163580488</v>
       </c>
-      <c r="BZ112" s="17">
+      <c r="BZ112" s="29">
         <v>73.916477921837043</v>
       </c>
-      <c r="CA112" s="17">
+      <c r="CA112" s="29">
         <v>77.997275255994253</v>
       </c>
-      <c r="CB112" s="17">
+      <c r="CB112" s="29">
         <v>74.579505082337761</v>
       </c>
-      <c r="CC112" s="17">
+      <c r="CC112" s="29">
         <v>66.212000354739416</v>
       </c>
-      <c r="CD112" s="31">
-        <v>67.714163540800726</v>
-      </c>
-      <c r="CE112" s="31">
-        <v>57.948571997303219</v>
-      </c>
-      <c r="CF112" s="31">
-        <v>66.715876938262682</v>
-      </c>
-      <c r="CG112" s="31">
-        <v>55.700853852413758</v>
-      </c>
-      <c r="CH112" s="31">
-        <v>57.78403177666771</v>
-      </c>
-      <c r="CI112" s="31">
-        <v>75.162483895910398</v>
-      </c>
-      <c r="CJ112" s="31">
-        <v>68.039069043063932</v>
-      </c>
-      <c r="CK112" s="31">
-        <v>55.010863904491636</v>
-      </c>
-      <c r="CL112" s="10"/>
+      <c r="CD112" s="29">
+        <v>68.249047687389606</v>
+      </c>
+      <c r="CE112" s="29">
+        <v>58.590221417067781</v>
+      </c>
+      <c r="CF112" s="29">
+        <v>67.28146463620385</v>
+      </c>
+      <c r="CG112" s="29">
+        <v>55.866408644655699</v>
+      </c>
+      <c r="CH112" s="29">
+        <v>58.368277205130603</v>
+      </c>
+      <c r="CI112" s="29">
+        <v>75.623445212464787</v>
+      </c>
+      <c r="CJ112" s="29">
+        <v>68.626817252692163</v>
+      </c>
+      <c r="CK112" s="29">
+        <v>54.122132724358252</v>
+      </c>
+      <c r="CL112" s="29">
+        <v>54.562336570519108</v>
+      </c>
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
@@ -40753,7 +40940,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -40985,43 +41172,45 @@
       <c r="BY113" s="17">
         <v>6.1676002180928879</v>
       </c>
-      <c r="BZ113" s="17">
+      <c r="BZ113" s="29">
         <v>5.8714525360817911</v>
       </c>
-      <c r="CA113" s="17">
+      <c r="CA113" s="29">
         <v>5.3799528540457739</v>
       </c>
-      <c r="CB113" s="17">
+      <c r="CB113" s="29">
         <v>5.9913541964647061</v>
       </c>
-      <c r="CC113" s="17">
+      <c r="CC113" s="29">
         <v>7.3828429188738829</v>
       </c>
-      <c r="CD113" s="31">
-        <v>5.6372311620023359</v>
-      </c>
-      <c r="CE113" s="31">
-        <v>8.894096792639548</v>
-      </c>
-      <c r="CF113" s="31">
-        <v>6.7343395846983327</v>
-      </c>
-      <c r="CG113" s="31">
-        <v>8.6946021622107956</v>
-      </c>
-      <c r="CH113" s="31">
-        <v>6.7167514200560881</v>
-      </c>
-      <c r="CI113" s="31">
-        <v>4.3486462293697139</v>
-      </c>
-      <c r="CJ113" s="31">
-        <v>6.8688849021036971</v>
-      </c>
-      <c r="CK113" s="31">
-        <v>7.8455921322568223</v>
-      </c>
-      <c r="CL113" s="10"/>
+      <c r="CD113" s="29">
+        <v>5.3571227611537626</v>
+      </c>
+      <c r="CE113" s="29">
+        <v>8.4660452325920659</v>
+      </c>
+      <c r="CF113" s="29">
+        <v>6.4074921880334816</v>
+      </c>
+      <c r="CG113" s="29">
+        <v>8.287081180513848</v>
+      </c>
+      <c r="CH113" s="29">
+        <v>6.3947451088231713</v>
+      </c>
+      <c r="CI113" s="29">
+        <v>4.1191323426385358</v>
+      </c>
+      <c r="CJ113" s="29">
+        <v>6.5180912122473416</v>
+      </c>
+      <c r="CK113" s="29">
+        <v>7.8298119283060057</v>
+      </c>
+      <c r="CL113" s="29">
+        <v>6.3514864799691608</v>
+      </c>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
@@ -41088,7 +41277,7 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -41165,10 +41354,10 @@
       <c r="BW114" s="12"/>
       <c r="BX114" s="12"/>
       <c r="BY114" s="12"/>
-      <c r="BZ114" s="12"/>
-      <c r="CA114" s="12"/>
-      <c r="CB114" s="12"/>
-      <c r="CC114" s="12"/>
+      <c r="BZ114" s="25"/>
+      <c r="CA114" s="25"/>
+      <c r="CB114" s="25"/>
+      <c r="CC114" s="25"/>
       <c r="CD114" s="25"/>
       <c r="CE114" s="25"/>
       <c r="CF114" s="25"/>
@@ -41177,7 +41366,7 @@
       <c r="CI114" s="25"/>
       <c r="CJ114" s="25"/>
       <c r="CK114" s="25"/>
-      <c r="CL114" s="10"/>
+      <c r="CL114" s="25"/>
       <c r="CM114" s="10"/>
       <c r="CN114" s="10"/>
       <c r="CO114" s="10"/>
@@ -41244,7 +41433,7 @@
       <c r="EX114" s="10"/>
       <c r="EY114" s="10"/>
     </row>
-    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>11</v>
       </c>
@@ -41476,43 +41665,45 @@
       <c r="BY115" s="17">
         <v>100</v>
       </c>
-      <c r="BZ115" s="17">
+      <c r="BZ115" s="29">
         <v>100</v>
       </c>
-      <c r="CA115" s="17">
+      <c r="CA115" s="29">
         <v>100</v>
       </c>
-      <c r="CB115" s="17">
+      <c r="CB115" s="29">
         <v>100</v>
       </c>
-      <c r="CC115" s="17">
+      <c r="CC115" s="29">
         <v>100</v>
       </c>
-      <c r="CD115" s="31">
+      <c r="CD115" s="29">
         <v>100</v>
       </c>
-      <c r="CE115" s="31">
+      <c r="CE115" s="29">
         <v>100</v>
       </c>
-      <c r="CF115" s="31">
+      <c r="CF115" s="29">
         <v>100</v>
       </c>
-      <c r="CG115" s="31">
+      <c r="CG115" s="29">
         <v>100</v>
       </c>
-      <c r="CH115" s="31">
+      <c r="CH115" s="29">
         <v>100</v>
       </c>
-      <c r="CI115" s="31">
+      <c r="CI115" s="29">
         <v>100</v>
       </c>
-      <c r="CJ115" s="31">
+      <c r="CJ115" s="29">
         <v>100</v>
       </c>
-      <c r="CK115" s="31">
+      <c r="CK115" s="29">
         <v>100</v>
       </c>
-      <c r="CL115" s="10"/>
+      <c r="CL115" s="29">
+        <v>100</v>
+      </c>
       <c r="CM115" s="10"/>
       <c r="CN115" s="10"/>
       <c r="CO115" s="10"/>
@@ -41579,7 +41770,7 @@
       <c r="EX115" s="10"/>
       <c r="EY115" s="10"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -41657,10 +41848,10 @@
       <c r="BW116" s="15"/>
       <c r="BX116" s="15"/>
       <c r="BY116" s="15"/>
-      <c r="BZ116" s="15"/>
-      <c r="CA116" s="15"/>
-      <c r="CB116" s="15"/>
-      <c r="CC116" s="15"/>
+      <c r="BZ116" s="27"/>
+      <c r="CA116" s="27"/>
+      <c r="CB116" s="27"/>
+      <c r="CC116" s="27"/>
       <c r="CD116" s="27"/>
       <c r="CE116" s="27"/>
       <c r="CF116" s="27"/>
@@ -41669,8 +41860,9 @@
       <c r="CI116" s="27"/>
       <c r="CJ116" s="27"/>
       <c r="CK116" s="27"/>
+      <c r="CL116" s="27"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
         <v>0</v>
       </c>
@@ -41750,10 +41942,10 @@
       <c r="BW117" s="1"/>
       <c r="BX117" s="1"/>
       <c r="BY117" s="1"/>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
+      <c r="BZ117" s="22"/>
+      <c r="CA117" s="22"/>
+      <c r="CB117" s="22"/>
+      <c r="CC117" s="22"/>
       <c r="CD117" s="22"/>
       <c r="CE117" s="22"/>
       <c r="CF117" s="22"/>
@@ -41762,8 +41954,9 @@
       <c r="CI117" s="22"/>
       <c r="CJ117" s="22"/>
       <c r="CK117" s="22"/>
+      <c r="CL117" s="22"/>
     </row>
-    <row r="118" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -41840,10 +42033,10 @@
       <c r="BW118" s="12"/>
       <c r="BX118" s="12"/>
       <c r="BY118" s="12"/>
-      <c r="BZ118" s="12"/>
-      <c r="CA118" s="12"/>
-      <c r="CB118" s="12"/>
-      <c r="CC118" s="12"/>
+      <c r="BZ118" s="25"/>
+      <c r="CA118" s="25"/>
+      <c r="CB118" s="25"/>
+      <c r="CC118" s="25"/>
       <c r="CD118" s="25"/>
       <c r="CE118" s="25"/>
       <c r="CF118" s="25"/>
@@ -41852,7 +42045,7 @@
       <c r="CI118" s="25"/>
       <c r="CJ118" s="25"/>
       <c r="CK118" s="25"/>
-      <c r="CL118" s="10"/>
+      <c r="CL118" s="25"/>
       <c r="CM118" s="10"/>
       <c r="CN118" s="10"/>
       <c r="CO118" s="10"/>
@@ -41919,7 +42112,7 @@
       <c r="EX118" s="10"/>
       <c r="EY118" s="10"/>
     </row>
-    <row r="119" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -41996,10 +42189,10 @@
       <c r="BW119" s="12"/>
       <c r="BX119" s="12"/>
       <c r="BY119" s="12"/>
-      <c r="BZ119" s="12"/>
-      <c r="CA119" s="12"/>
-      <c r="CB119" s="12"/>
-      <c r="CC119" s="12"/>
+      <c r="BZ119" s="25"/>
+      <c r="CA119" s="25"/>
+      <c r="CB119" s="25"/>
+      <c r="CC119" s="25"/>
       <c r="CD119" s="25"/>
       <c r="CE119" s="25"/>
       <c r="CF119" s="25"/>
@@ -42008,7 +42201,7 @@
       <c r="CI119" s="25"/>
       <c r="CJ119" s="25"/>
       <c r="CK119" s="25"/>
-      <c r="CL119" s="10"/>
+      <c r="CL119" s="25"/>
       <c r="CM119" s="10"/>
       <c r="CN119" s="10"/>
       <c r="CO119" s="10"/>
@@ -42075,7 +42268,7 @@
       <c r="EX119" s="10"/>
       <c r="EY119" s="10"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -42155,10 +42348,10 @@
       <c r="BW120" s="1"/>
       <c r="BX120" s="1"/>
       <c r="BY120" s="1"/>
-      <c r="BZ120" s="1"/>
-      <c r="CA120" s="1"/>
-      <c r="CB120" s="1"/>
-      <c r="CC120" s="1"/>
+      <c r="BZ120" s="22"/>
+      <c r="CA120" s="22"/>
+      <c r="CB120" s="22"/>
+      <c r="CC120" s="22"/>
       <c r="CD120" s="22"/>
       <c r="CE120" s="22"/>
       <c r="CF120" s="22"/>
@@ -42167,8 +42360,9 @@
       <c r="CI120" s="22"/>
       <c r="CJ120" s="22"/>
       <c r="CK120" s="22"/>
+      <c r="CL120" s="22"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -42248,10 +42442,10 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
       <c r="BY121" s="1"/>
-      <c r="BZ121" s="1"/>
-      <c r="CA121" s="1"/>
-      <c r="CB121" s="1"/>
-      <c r="CC121" s="1"/>
+      <c r="BZ121" s="22"/>
+      <c r="CA121" s="22"/>
+      <c r="CB121" s="22"/>
+      <c r="CC121" s="22"/>
       <c r="CD121" s="22"/>
       <c r="CE121" s="22"/>
       <c r="CF121" s="22"/>
@@ -42260,10 +42454,11 @@
       <c r="CI121" s="22"/>
       <c r="CJ121" s="22"/>
       <c r="CK121" s="22"/>
+      <c r="CL121" s="22"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -42341,10 +42536,10 @@
       <c r="BW122" s="1"/>
       <c r="BX122" s="1"/>
       <c r="BY122" s="1"/>
-      <c r="BZ122" s="1"/>
-      <c r="CA122" s="1"/>
-      <c r="CB122" s="1"/>
-      <c r="CC122" s="1"/>
+      <c r="BZ122" s="22"/>
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
       <c r="CD122" s="22"/>
       <c r="CE122" s="22"/>
       <c r="CF122" s="22"/>
@@ -42353,8 +42548,9 @@
       <c r="CI122" s="22"/>
       <c r="CJ122" s="22"/>
       <c r="CK122" s="22"/>
+      <c r="CL122" s="22"/>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -42432,10 +42628,10 @@
       <c r="BW123" s="1"/>
       <c r="BX123" s="1"/>
       <c r="BY123" s="1"/>
-      <c r="BZ123" s="1"/>
-      <c r="CA123" s="1"/>
-      <c r="CB123" s="1"/>
-      <c r="CC123" s="1"/>
+      <c r="BZ123" s="22"/>
+      <c r="CA123" s="22"/>
+      <c r="CB123" s="22"/>
+      <c r="CC123" s="22"/>
       <c r="CD123" s="22"/>
       <c r="CE123" s="22"/>
       <c r="CF123" s="22"/>
@@ -42444,8 +42640,9 @@
       <c r="CI123" s="22"/>
       <c r="CJ123" s="22"/>
       <c r="CK123" s="22"/>
+      <c r="CL123" s="22"/>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -42525,10 +42722,10 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
       <c r="BY124" s="1"/>
-      <c r="BZ124" s="1"/>
-      <c r="CA124" s="1"/>
-      <c r="CB124" s="1"/>
-      <c r="CC124" s="1"/>
+      <c r="BZ124" s="22"/>
+      <c r="CA124" s="22"/>
+      <c r="CB124" s="22"/>
+      <c r="CC124" s="22"/>
       <c r="CD124" s="22"/>
       <c r="CE124" s="22"/>
       <c r="CF124" s="22"/>
@@ -42537,10 +42734,11 @@
       <c r="CI124" s="22"/>
       <c r="CJ124" s="22"/>
       <c r="CK124" s="22"/>
+      <c r="CL124" s="22"/>
     </row>
-    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -42618,10 +42816,10 @@
       <c r="BW125" s="1"/>
       <c r="BX125" s="1"/>
       <c r="BY125" s="1"/>
-      <c r="BZ125" s="1"/>
-      <c r="CA125" s="1"/>
-      <c r="CB125" s="1"/>
-      <c r="CC125" s="1"/>
+      <c r="BZ125" s="22"/>
+      <c r="CA125" s="22"/>
+      <c r="CB125" s="22"/>
+      <c r="CC125" s="22"/>
       <c r="CD125" s="22"/>
       <c r="CE125" s="22"/>
       <c r="CF125" s="22"/>
@@ -42630,8 +42828,9 @@
       <c r="CI125" s="22"/>
       <c r="CJ125" s="22"/>
       <c r="CK125" s="22"/>
+      <c r="CL125" s="22"/>
     </row>
-    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
@@ -42711,10 +42910,10 @@
       <c r="BW126" s="1"/>
       <c r="BX126" s="1"/>
       <c r="BY126" s="1"/>
-      <c r="BZ126" s="1"/>
-      <c r="CA126" s="1"/>
-      <c r="CB126" s="1"/>
-      <c r="CC126" s="1"/>
+      <c r="BZ126" s="22"/>
+      <c r="CA126" s="22"/>
+      <c r="CB126" s="22"/>
+      <c r="CC126" s="22"/>
       <c r="CD126" s="22"/>
       <c r="CE126" s="22"/>
       <c r="CF126" s="22"/>
@@ -42723,8 +42922,9 @@
       <c r="CI126" s="22"/>
       <c r="CJ126" s="22"/>
       <c r="CK126" s="22"/>
+      <c r="CL126" s="22"/>
     </row>
-    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -42802,10 +43002,10 @@
       <c r="BW127" s="1"/>
       <c r="BX127" s="1"/>
       <c r="BY127" s="1"/>
-      <c r="BZ127" s="1"/>
-      <c r="CA127" s="1"/>
-      <c r="CB127" s="1"/>
-      <c r="CC127" s="1"/>
+      <c r="BZ127" s="22"/>
+      <c r="CA127" s="22"/>
+      <c r="CB127" s="22"/>
+      <c r="CC127" s="22"/>
       <c r="CD127" s="22"/>
       <c r="CE127" s="22"/>
       <c r="CF127" s="22"/>
@@ -42814,118 +43014,119 @@
       <c r="CI127" s="22"/>
       <c r="CJ127" s="22"/>
       <c r="CK127" s="22"/>
+      <c r="CL127" s="22"/>
     </row>
-    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="34">
+      <c r="B128" s="35">
         <v>2000</v>
       </c>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
-      <c r="F128" s="34">
+      <c r="F128" s="35">
         <v>2001</v>
       </c>
       <c r="G128" s="36"/>
       <c r="H128" s="36"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="34">
+      <c r="J128" s="35">
         <v>2002</v>
       </c>
       <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="36"/>
-      <c r="N128" s="34">
+      <c r="N128" s="35">
         <v>2003</v>
       </c>
       <c r="O128" s="36"/>
       <c r="P128" s="36"/>
       <c r="Q128" s="36"/>
-      <c r="R128" s="34">
+      <c r="R128" s="35">
         <v>2004</v>
       </c>
       <c r="S128" s="36"/>
       <c r="T128" s="36"/>
       <c r="U128" s="36"/>
-      <c r="V128" s="34">
+      <c r="V128" s="35">
         <v>2005</v>
       </c>
       <c r="W128" s="36"/>
       <c r="X128" s="36"/>
       <c r="Y128" s="36"/>
-      <c r="Z128" s="34">
+      <c r="Z128" s="35">
         <v>2006</v>
       </c>
       <c r="AA128" s="36"/>
       <c r="AB128" s="36"/>
       <c r="AC128" s="36"/>
-      <c r="AD128" s="34">
+      <c r="AD128" s="35">
         <v>2007</v>
       </c>
       <c r="AE128" s="36"/>
       <c r="AF128" s="36"/>
       <c r="AG128" s="36"/>
-      <c r="AH128" s="34">
+      <c r="AH128" s="35">
         <v>2008</v>
       </c>
       <c r="AI128" s="36"/>
       <c r="AJ128" s="36"/>
       <c r="AK128" s="36"/>
-      <c r="AL128" s="34">
+      <c r="AL128" s="35">
         <v>2009</v>
       </c>
       <c r="AM128" s="36"/>
       <c r="AN128" s="36"/>
       <c r="AO128" s="36"/>
-      <c r="AP128" s="34">
+      <c r="AP128" s="35">
         <v>2010</v>
       </c>
       <c r="AQ128" s="36"/>
       <c r="AR128" s="36"/>
       <c r="AS128" s="36"/>
-      <c r="AT128" s="34">
+      <c r="AT128" s="35">
         <v>2011</v>
       </c>
       <c r="AU128" s="36"/>
       <c r="AV128" s="36"/>
       <c r="AW128" s="36"/>
-      <c r="AX128" s="34">
+      <c r="AX128" s="35">
         <v>2012</v>
       </c>
       <c r="AY128" s="36"/>
       <c r="AZ128" s="36"/>
       <c r="BA128" s="36"/>
-      <c r="BB128" s="34">
+      <c r="BB128" s="35">
         <v>2013</v>
       </c>
       <c r="BC128" s="36"/>
       <c r="BD128" s="36"/>
       <c r="BE128" s="36"/>
-      <c r="BF128" s="34">
+      <c r="BF128" s="35">
         <v>2014</v>
       </c>
       <c r="BG128" s="36"/>
       <c r="BH128" s="36"/>
       <c r="BI128" s="36"/>
-      <c r="BJ128" s="34">
+      <c r="BJ128" s="35">
         <v>2015</v>
       </c>
       <c r="BK128" s="36"/>
       <c r="BL128" s="36"/>
       <c r="BM128" s="36"/>
-      <c r="BN128" s="34">
+      <c r="BN128" s="35">
         <v>2016</v>
       </c>
       <c r="BO128" s="36"/>
       <c r="BP128" s="36"/>
       <c r="BQ128" s="36"/>
-      <c r="BR128" s="34">
+      <c r="BR128" s="35">
         <v>2017</v>
       </c>
       <c r="BS128" s="36"/>
       <c r="BT128" s="36"/>
       <c r="BU128" s="36"/>
-      <c r="BV128" s="34">
+      <c r="BV128" s="35">
         <v>2018</v>
       </c>
       <c r="BW128" s="36"/>
@@ -42934,23 +43135,26 @@
       <c r="BZ128" s="34">
         <v>2019</v>
       </c>
-      <c r="CA128" s="36"/>
-      <c r="CB128" s="36"/>
-      <c r="CC128" s="36"/>
-      <c r="CD128" s="35">
+      <c r="CA128" s="37"/>
+      <c r="CB128" s="37"/>
+      <c r="CC128" s="37"/>
+      <c r="CD128" s="34">
         <v>2020</v>
       </c>
-      <c r="CE128" s="35"/>
-      <c r="CF128" s="35"/>
-      <c r="CG128" s="35"/>
-      <c r="CH128" s="35">
+      <c r="CE128" s="34"/>
+      <c r="CF128" s="34"/>
+      <c r="CG128" s="34"/>
+      <c r="CH128" s="34">
         <v>2021</v>
       </c>
-      <c r="CI128" s="35"/>
-      <c r="CJ128" s="35"/>
-      <c r="CK128" s="35"/>
+      <c r="CI128" s="34"/>
+      <c r="CJ128" s="34"/>
+      <c r="CK128" s="34"/>
+      <c r="CL128" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>4</v>
       </c>
@@ -43182,16 +43386,16 @@
       <c r="BY129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ129" s="7" t="s">
+      <c r="BZ129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CA129" s="7" t="s">
+      <c r="CA129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CB129" s="7" t="s">
+      <c r="CB129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CC129" s="7" t="s">
+      <c r="CC129" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CD129" s="23" t="s">
@@ -43218,8 +43422,11 @@
       <c r="CK129" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="CL129" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -43297,10 +43504,10 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
       <c r="BY130" s="1"/>
-      <c r="BZ130" s="1"/>
-      <c r="CA130" s="1"/>
-      <c r="CB130" s="1"/>
-      <c r="CC130" s="1"/>
+      <c r="BZ130" s="22"/>
+      <c r="CA130" s="22"/>
+      <c r="CB130" s="22"/>
+      <c r="CC130" s="22"/>
       <c r="CD130" s="22"/>
       <c r="CE130" s="22"/>
       <c r="CF130" s="22"/>
@@ -43309,8 +43516,9 @@
       <c r="CI130" s="22"/>
       <c r="CJ130" s="22"/>
       <c r="CK130" s="22"/>
+      <c r="CL130" s="22"/>
     </row>
-    <row r="131" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>14</v>
       </c>
@@ -43542,43 +43750,45 @@
       <c r="BY131" s="17">
         <v>22.905033265407589</v>
       </c>
-      <c r="BZ131" s="17">
+      <c r="BZ131" s="29">
         <v>20.274943496266292</v>
       </c>
-      <c r="CA131" s="17">
+      <c r="CA131" s="29">
         <v>17.336506044017757</v>
       </c>
-      <c r="CB131" s="17">
+      <c r="CB131" s="29">
         <v>21.201321825044779</v>
       </c>
-      <c r="CC131" s="17">
+      <c r="CC131" s="29">
         <v>26.298826643313184</v>
       </c>
-      <c r="CD131" s="31">
-        <v>26.250127400279432</v>
-      </c>
-      <c r="CE131" s="31">
-        <v>34.262241933089243</v>
-      </c>
-      <c r="CF131" s="31">
-        <v>28.517091750915956</v>
-      </c>
-      <c r="CG131" s="31">
-        <v>35.41226872727789</v>
-      </c>
-      <c r="CH131" s="31">
-        <v>34.31960855930442</v>
-      </c>
-      <c r="CI131" s="31">
-        <v>21.719976968779029</v>
-      </c>
-      <c r="CJ131" s="31">
-        <v>27.152051665781919</v>
-      </c>
-      <c r="CK131" s="31">
-        <v>36.518483897869316</v>
-      </c>
-      <c r="CL131" s="10"/>
+      <c r="CD131" s="29">
+        <v>25.994658813301967</v>
+      </c>
+      <c r="CE131" s="29">
+        <v>34.039014409896794</v>
+      </c>
+      <c r="CF131" s="29">
+        <v>28.270424527490896</v>
+      </c>
+      <c r="CG131" s="29">
+        <v>35.646668621160515</v>
+      </c>
+      <c r="CH131" s="29">
+        <v>34.056343402243073</v>
+      </c>
+      <c r="CI131" s="29">
+        <v>21.477659291891936</v>
+      </c>
+      <c r="CJ131" s="29">
+        <v>27.238303827605048</v>
+      </c>
+      <c r="CK131" s="29">
+        <v>38.028888449210221</v>
+      </c>
+      <c r="CL131" s="29">
+        <v>37.549517155786617</v>
+      </c>
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
@@ -43645,7 +43855,7 @@
       <c r="EX131" s="10"/>
       <c r="EY131" s="10"/>
     </row>
-    <row r="132" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -43877,43 +44087,45 @@
       <c r="BY132" s="17">
         <v>70.95043706211321</v>
       </c>
-      <c r="BZ132" s="17">
+      <c r="BZ132" s="29">
         <v>73.97568220256025</v>
       </c>
-      <c r="CA132" s="17">
+      <c r="CA132" s="29">
         <v>77.507437466525047</v>
       </c>
-      <c r="CB132" s="17">
+      <c r="CB132" s="29">
         <v>72.886446260154742</v>
       </c>
-      <c r="CC132" s="17">
+      <c r="CC132" s="29">
         <v>66.762582143893994</v>
       </c>
-      <c r="CD132" s="31">
-        <v>68.292602337139868</v>
-      </c>
-      <c r="CE132" s="31">
-        <v>57.295205866294097</v>
-      </c>
-      <c r="CF132" s="31">
-        <v>64.745629017057155</v>
-      </c>
-      <c r="CG132" s="31">
-        <v>56.260190224810977</v>
-      </c>
-      <c r="CH132" s="31">
-        <v>59.100740462574819</v>
-      </c>
-      <c r="CI132" s="31">
-        <v>74.055605854878408</v>
-      </c>
-      <c r="CJ132" s="31">
-        <v>66.069117514700039</v>
-      </c>
-      <c r="CK132" s="31">
-        <v>55.955851797603849</v>
-      </c>
-      <c r="CL132" s="10"/>
+      <c r="CD132" s="29">
+        <v>68.82013537276444</v>
+      </c>
+      <c r="CE132" s="29">
+        <v>57.925346174778447</v>
+      </c>
+      <c r="CF132" s="29">
+        <v>65.317071692500534</v>
+      </c>
+      <c r="CG132" s="29">
+        <v>56.417500491124414</v>
+      </c>
+      <c r="CH132" s="29">
+        <v>59.681230264924068</v>
+      </c>
+      <c r="CI132" s="29">
+        <v>74.520314996018186</v>
+      </c>
+      <c r="CJ132" s="29">
+        <v>66.523257186900636</v>
+      </c>
+      <c r="CK132" s="29">
+        <v>54.603123146910136</v>
+      </c>
+      <c r="CL132" s="29">
+        <v>56.248574327762348</v>
+      </c>
       <c r="CM132" s="10"/>
       <c r="CN132" s="10"/>
       <c r="CO132" s="10"/>
@@ -43980,7 +44192,7 @@
       <c r="EX132" s="10"/>
       <c r="EY132" s="10"/>
     </row>
-    <row r="133" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -44212,43 +44424,45 @@
       <c r="BY133" s="17">
         <v>6.1445296724792113</v>
       </c>
-      <c r="BZ133" s="17">
+      <c r="BZ133" s="29">
         <v>5.7493743011734288</v>
       </c>
-      <c r="CA133" s="17">
+      <c r="CA133" s="29">
         <v>5.1560564894571836</v>
       </c>
-      <c r="CB133" s="17">
+      <c r="CB133" s="29">
         <v>5.9122319148004969</v>
       </c>
-      <c r="CC133" s="17">
+      <c r="CC133" s="29">
         <v>6.9385912127928302</v>
       </c>
-      <c r="CD133" s="31">
-        <v>5.4572702625807015</v>
-      </c>
-      <c r="CE133" s="31">
-        <v>8.4425522006166744</v>
-      </c>
-      <c r="CF133" s="31">
-        <v>6.7372792320268884</v>
-      </c>
-      <c r="CG133" s="31">
-        <v>8.32754104791114</v>
-      </c>
-      <c r="CH133" s="31">
-        <v>6.5796509781207737</v>
-      </c>
-      <c r="CI133" s="31">
-        <v>4.2244171763425538</v>
-      </c>
-      <c r="CJ133" s="31">
-        <v>6.7788308195180615</v>
-      </c>
-      <c r="CK133" s="31">
-        <v>7.5256643045268339</v>
-      </c>
-      <c r="CL133" s="10"/>
+      <c r="CD133" s="29">
+        <v>5.1852058139335853</v>
+      </c>
+      <c r="CE133" s="29">
+        <v>8.0356394153247575</v>
+      </c>
+      <c r="CF133" s="29">
+        <v>6.4125037800085716</v>
+      </c>
+      <c r="CG133" s="29">
+        <v>7.9358308877150785</v>
+      </c>
+      <c r="CH133" s="29">
+        <v>6.2624263328328569</v>
+      </c>
+      <c r="CI133" s="29">
+        <v>4.0020257120898863</v>
+      </c>
+      <c r="CJ133" s="29">
+        <v>6.2384389854943105</v>
+      </c>
+      <c r="CK133" s="29">
+        <v>7.3679884038796422</v>
+      </c>
+      <c r="CL133" s="29">
+        <v>6.2019085164510583</v>
+      </c>
       <c r="CM133" s="10"/>
       <c r="CN133" s="10"/>
       <c r="CO133" s="10"/>
@@ -44315,7 +44529,7 @@
       <c r="EX133" s="10"/>
       <c r="EY133" s="10"/>
     </row>
-    <row r="134" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -44392,10 +44606,10 @@
       <c r="BW134" s="12"/>
       <c r="BX134" s="12"/>
       <c r="BY134" s="12"/>
-      <c r="BZ134" s="12"/>
-      <c r="CA134" s="12"/>
-      <c r="CB134" s="12"/>
-      <c r="CC134" s="12"/>
+      <c r="BZ134" s="25"/>
+      <c r="CA134" s="25"/>
+      <c r="CB134" s="25"/>
+      <c r="CC134" s="25"/>
       <c r="CD134" s="25"/>
       <c r="CE134" s="25"/>
       <c r="CF134" s="25"/>
@@ -44404,7 +44618,7 @@
       <c r="CI134" s="25"/>
       <c r="CJ134" s="25"/>
       <c r="CK134" s="25"/>
-      <c r="CL134" s="10"/>
+      <c r="CL134" s="25"/>
       <c r="CM134" s="10"/>
       <c r="CN134" s="10"/>
       <c r="CO134" s="10"/>
@@ -44471,7 +44685,7 @@
       <c r="EX134" s="10"/>
       <c r="EY134" s="10"/>
     </row>
-    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>11</v>
       </c>
@@ -44703,43 +44917,45 @@
       <c r="BY135" s="17">
         <v>100</v>
       </c>
-      <c r="BZ135" s="17">
+      <c r="BZ135" s="29">
         <v>100</v>
       </c>
-      <c r="CA135" s="17">
+      <c r="CA135" s="29">
         <v>100</v>
       </c>
-      <c r="CB135" s="17">
+      <c r="CB135" s="29">
         <v>100</v>
       </c>
-      <c r="CC135" s="17">
+      <c r="CC135" s="29">
         <v>100</v>
       </c>
-      <c r="CD135" s="31">
+      <c r="CD135" s="29">
         <v>100</v>
       </c>
-      <c r="CE135" s="31">
+      <c r="CE135" s="29">
         <v>100</v>
       </c>
-      <c r="CF135" s="31">
+      <c r="CF135" s="29">
         <v>100</v>
       </c>
-      <c r="CG135" s="31">
+      <c r="CG135" s="29">
         <v>100</v>
       </c>
-      <c r="CH135" s="31">
+      <c r="CH135" s="29">
         <v>100</v>
       </c>
-      <c r="CI135" s="31">
+      <c r="CI135" s="29">
         <v>100</v>
       </c>
-      <c r="CJ135" s="31">
+      <c r="CJ135" s="29">
         <v>100</v>
       </c>
-      <c r="CK135" s="31">
+      <c r="CK135" s="29">
         <v>100</v>
       </c>
-      <c r="CL135" s="10"/>
+      <c r="CL135" s="29">
+        <v>100</v>
+      </c>
       <c r="CM135" s="10"/>
       <c r="CN135" s="10"/>
       <c r="CO135" s="10"/>
@@ -44806,7 +45022,7 @@
       <c r="EX135" s="10"/>
       <c r="EY135" s="10"/>
     </row>
-    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -44884,10 +45100,10 @@
       <c r="BW136" s="15"/>
       <c r="BX136" s="15"/>
       <c r="BY136" s="15"/>
-      <c r="BZ136" s="15"/>
-      <c r="CA136" s="15"/>
-      <c r="CB136" s="15"/>
-      <c r="CC136" s="15"/>
+      <c r="BZ136" s="27"/>
+      <c r="CA136" s="27"/>
+      <c r="CB136" s="27"/>
+      <c r="CC136" s="27"/>
       <c r="CD136" s="27"/>
       <c r="CE136" s="27"/>
       <c r="CF136" s="27"/>
@@ -44896,8 +45112,9 @@
       <c r="CI136" s="27"/>
       <c r="CJ136" s="27"/>
       <c r="CK136" s="27"/>
+      <c r="CL136" s="27"/>
     </row>
-    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
         <v>0</v>
       </c>
@@ -44977,10 +45194,10 @@
       <c r="BW137" s="1"/>
       <c r="BX137" s="1"/>
       <c r="BY137" s="1"/>
-      <c r="BZ137" s="1"/>
-      <c r="CA137" s="1"/>
-      <c r="CB137" s="1"/>
-      <c r="CC137" s="1"/>
+      <c r="BZ137" s="22"/>
+      <c r="CA137" s="22"/>
+      <c r="CB137" s="22"/>
+      <c r="CC137" s="22"/>
       <c r="CD137" s="22"/>
       <c r="CE137" s="22"/>
       <c r="CF137" s="22"/>
@@ -44989,8 +45206,9 @@
       <c r="CI137" s="22"/>
       <c r="CJ137" s="22"/>
       <c r="CK137" s="22"/>
+      <c r="CL137" s="22"/>
     </row>
-    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -45068,19 +45286,19 @@
       <c r="BW138" s="11"/>
       <c r="BX138" s="11"/>
       <c r="BY138" s="11"/>
-      <c r="BZ138" s="11"/>
-      <c r="CA138" s="11"/>
-      <c r="CB138" s="11"/>
-      <c r="CC138" s="11"/>
-      <c r="CD138" s="32"/>
-      <c r="CE138" s="32"/>
-      <c r="CF138" s="32"/>
-      <c r="CG138" s="32"/>
-      <c r="CH138" s="32"/>
-      <c r="CI138" s="32"/>
-      <c r="CJ138" s="32"/>
-      <c r="CK138" s="32"/>
-      <c r="CL138" s="19"/>
+      <c r="BZ138" s="30"/>
+      <c r="CA138" s="30"/>
+      <c r="CB138" s="30"/>
+      <c r="CC138" s="30"/>
+      <c r="CD138" s="33"/>
+      <c r="CE138" s="33"/>
+      <c r="CF138" s="33"/>
+      <c r="CG138" s="33"/>
+      <c r="CH138" s="33"/>
+      <c r="CI138" s="33"/>
+      <c r="CJ138" s="33"/>
+      <c r="CK138" s="33"/>
+      <c r="CL138" s="33"/>
       <c r="CM138" s="19"/>
       <c r="CN138" s="19"/>
       <c r="CO138" s="19"/>
@@ -45147,7 +45365,7 @@
       <c r="EX138" s="19"/>
       <c r="EY138" s="19"/>
     </row>
-    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -45225,19 +45443,19 @@
       <c r="BW139" s="11"/>
       <c r="BX139" s="11"/>
       <c r="BY139" s="11"/>
-      <c r="BZ139" s="11"/>
-      <c r="CA139" s="11"/>
-      <c r="CB139" s="11"/>
-      <c r="CC139" s="11"/>
-      <c r="CD139" s="32"/>
-      <c r="CE139" s="32"/>
-      <c r="CF139" s="32"/>
-      <c r="CG139" s="32"/>
-      <c r="CH139" s="32"/>
-      <c r="CI139" s="32"/>
-      <c r="CJ139" s="32"/>
-      <c r="CK139" s="32"/>
-      <c r="CL139" s="19"/>
+      <c r="BZ139" s="30"/>
+      <c r="CA139" s="30"/>
+      <c r="CB139" s="30"/>
+      <c r="CC139" s="30"/>
+      <c r="CD139" s="33"/>
+      <c r="CE139" s="33"/>
+      <c r="CF139" s="33"/>
+      <c r="CG139" s="33"/>
+      <c r="CH139" s="33"/>
+      <c r="CI139" s="33"/>
+      <c r="CJ139" s="33"/>
+      <c r="CK139" s="33"/>
+      <c r="CL139" s="33"/>
       <c r="CM139" s="19"/>
       <c r="CN139" s="19"/>
       <c r="CO139" s="19"/>
@@ -45303,6 +45521,259 @@
       <c r="EW139" s="19"/>
       <c r="EX139" s="19"/>
       <c r="EY139" s="19"/>
+    </row>
+    <row r="140" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="CD140" s="21"/>
+      <c r="CE140" s="21"/>
+      <c r="CF140" s="21"/>
+      <c r="CG140" s="21"/>
+      <c r="CH140" s="21"/>
+      <c r="CI140" s="21"/>
+      <c r="CJ140" s="21"/>
+      <c r="CK140" s="21"/>
+      <c r="CL140" s="21"/>
+    </row>
+    <row r="141" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="CD141" s="21"/>
+      <c r="CE141" s="21"/>
+      <c r="CF141" s="21"/>
+      <c r="CG141" s="21"/>
+      <c r="CH141" s="21"/>
+      <c r="CI141" s="21"/>
+      <c r="CJ141" s="21"/>
+      <c r="CK141" s="21"/>
+      <c r="CL141" s="21"/>
+    </row>
+    <row r="142" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="CD142" s="21"/>
+      <c r="CE142" s="21"/>
+      <c r="CF142" s="21"/>
+      <c r="CG142" s="21"/>
+      <c r="CH142" s="21"/>
+      <c r="CI142" s="21"/>
+      <c r="CJ142" s="21"/>
+      <c r="CK142" s="21"/>
+      <c r="CL142" s="21"/>
+    </row>
+    <row r="143" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="CD143" s="21"/>
+      <c r="CE143" s="21"/>
+      <c r="CF143" s="21"/>
+      <c r="CG143" s="21"/>
+      <c r="CH143" s="21"/>
+      <c r="CI143" s="21"/>
+      <c r="CJ143" s="21"/>
+      <c r="CK143" s="21"/>
+      <c r="CL143" s="21"/>
+    </row>
+    <row r="144" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="CD144" s="21"/>
+      <c r="CE144" s="21"/>
+      <c r="CF144" s="21"/>
+      <c r="CG144" s="21"/>
+      <c r="CH144" s="21"/>
+      <c r="CI144" s="21"/>
+      <c r="CJ144" s="21"/>
+      <c r="CK144" s="21"/>
+      <c r="CL144" s="21"/>
+    </row>
+    <row r="145" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD145" s="21"/>
+      <c r="CE145" s="21"/>
+      <c r="CF145" s="21"/>
+      <c r="CG145" s="21"/>
+      <c r="CH145" s="21"/>
+      <c r="CI145" s="21"/>
+      <c r="CJ145" s="21"/>
+      <c r="CK145" s="21"/>
+      <c r="CL145" s="21"/>
+    </row>
+    <row r="146" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD146" s="11"/>
+      <c r="CE146" s="11"/>
+      <c r="CF146" s="11"/>
+      <c r="CG146" s="11"/>
+      <c r="CH146" s="11"/>
+      <c r="CI146" s="11"/>
+      <c r="CJ146" s="11"/>
+      <c r="CK146" s="11"/>
+      <c r="CL146" s="11"/>
+    </row>
+    <row r="147" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD147" s="11"/>
+      <c r="CE147" s="11"/>
+      <c r="CF147" s="11"/>
+      <c r="CG147" s="11"/>
+      <c r="CH147" s="11"/>
+      <c r="CI147" s="11"/>
+      <c r="CJ147" s="11"/>
+      <c r="CK147" s="11"/>
+      <c r="CL147" s="11"/>
+    </row>
+    <row r="148" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD148" s="11"/>
+      <c r="CE148" s="11"/>
+      <c r="CF148" s="11"/>
+      <c r="CG148" s="11"/>
+      <c r="CH148" s="11"/>
+      <c r="CI148" s="11"/>
+      <c r="CJ148" s="11"/>
+      <c r="CK148" s="11"/>
+      <c r="CL148" s="11"/>
+    </row>
+    <row r="149" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD149" s="11"/>
+      <c r="CE149" s="11"/>
+      <c r="CF149" s="11"/>
+      <c r="CG149" s="11"/>
+      <c r="CH149" s="11"/>
+      <c r="CI149" s="11"/>
+      <c r="CJ149" s="11"/>
+      <c r="CK149" s="11"/>
+      <c r="CL149" s="11"/>
+    </row>
+    <row r="150" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD150" s="11"/>
+      <c r="CE150" s="11"/>
+      <c r="CF150" s="11"/>
+      <c r="CG150" s="11"/>
+      <c r="CH150" s="11"/>
+      <c r="CI150" s="11"/>
+      <c r="CJ150" s="11"/>
+      <c r="CK150" s="11"/>
+      <c r="CL150" s="11"/>
+    </row>
+    <row r="151" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD151" s="11"/>
+      <c r="CE151" s="11"/>
+      <c r="CF151" s="11"/>
+      <c r="CG151" s="11"/>
+      <c r="CH151" s="11"/>
+      <c r="CI151" s="11"/>
+      <c r="CJ151" s="11"/>
+      <c r="CK151" s="11"/>
+      <c r="CL151" s="11"/>
+    </row>
+    <row r="152" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD152" s="11"/>
+      <c r="CE152" s="11"/>
+      <c r="CF152" s="11"/>
+      <c r="CG152" s="11"/>
+      <c r="CH152" s="11"/>
+      <c r="CI152" s="11"/>
+      <c r="CJ152" s="11"/>
+      <c r="CK152" s="11"/>
+      <c r="CL152" s="11"/>
+    </row>
+    <row r="153" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD153" s="11"/>
+      <c r="CE153" s="11"/>
+      <c r="CF153" s="11"/>
+      <c r="CG153" s="11"/>
+      <c r="CH153" s="11"/>
+      <c r="CI153" s="11"/>
+      <c r="CJ153" s="11"/>
+      <c r="CK153" s="11"/>
+      <c r="CL153" s="11"/>
+    </row>
+    <row r="154" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD154" s="11"/>
+      <c r="CE154" s="11"/>
+      <c r="CF154" s="11"/>
+      <c r="CG154" s="11"/>
+      <c r="CH154" s="11"/>
+      <c r="CI154" s="11"/>
+      <c r="CJ154" s="11"/>
+      <c r="CK154" s="11"/>
+      <c r="CL154" s="11"/>
+    </row>
+    <row r="155" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD155" s="11"/>
+      <c r="CE155" s="11"/>
+      <c r="CF155" s="11"/>
+      <c r="CG155" s="11"/>
+      <c r="CH155" s="11"/>
+      <c r="CI155" s="11"/>
+      <c r="CJ155" s="11"/>
+      <c r="CK155" s="11"/>
+      <c r="CL155" s="11"/>
+    </row>
+    <row r="156" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD156" s="11"/>
+      <c r="CE156" s="11"/>
+      <c r="CF156" s="11"/>
+      <c r="CG156" s="11"/>
+      <c r="CH156" s="11"/>
+      <c r="CI156" s="11"/>
+      <c r="CJ156" s="11"/>
+      <c r="CK156" s="11"/>
+      <c r="CL156" s="11"/>
+    </row>
+    <row r="157" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD157" s="11"/>
+      <c r="CE157" s="11"/>
+      <c r="CF157" s="11"/>
+      <c r="CG157" s="11"/>
+      <c r="CH157" s="11"/>
+      <c r="CI157" s="11"/>
+      <c r="CJ157" s="11"/>
+      <c r="CK157" s="11"/>
+      <c r="CL157" s="11"/>
+    </row>
+    <row r="158" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD158" s="11"/>
+      <c r="CE158" s="11"/>
+      <c r="CF158" s="11"/>
+      <c r="CG158" s="11"/>
+      <c r="CH158" s="11"/>
+      <c r="CI158" s="11"/>
+      <c r="CJ158" s="11"/>
+      <c r="CK158" s="11"/>
+      <c r="CL158" s="11"/>
+    </row>
+    <row r="159" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD159" s="11"/>
+      <c r="CE159" s="11"/>
+      <c r="CF159" s="11"/>
+      <c r="CG159" s="11"/>
+      <c r="CH159" s="11"/>
+      <c r="CI159" s="11"/>
+      <c r="CJ159" s="11"/>
+      <c r="CK159" s="11"/>
+      <c r="CL159" s="11"/>
+    </row>
+    <row r="160" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD160" s="11"/>
+      <c r="CE160" s="11"/>
+      <c r="CF160" s="11"/>
+      <c r="CG160" s="11"/>
+      <c r="CH160" s="11"/>
+      <c r="CI160" s="11"/>
+      <c r="CJ160" s="11"/>
+      <c r="CK160" s="11"/>
+      <c r="CL160" s="11"/>
+    </row>
+    <row r="161" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD161" s="11"/>
+      <c r="CE161" s="11"/>
+      <c r="CF161" s="11"/>
+      <c r="CG161" s="11"/>
+      <c r="CH161" s="11"/>
+      <c r="CI161" s="11"/>
+      <c r="CJ161" s="11"/>
+      <c r="CK161" s="11"/>
+      <c r="CL161" s="11"/>
+    </row>
+    <row r="162" spans="82:90" x14ac:dyDescent="0.25">
+      <c r="CD162" s="11"/>
+      <c r="CE162" s="11"/>
+      <c r="CF162" s="11"/>
+      <c r="CG162" s="11"/>
+      <c r="CH162" s="11"/>
+      <c r="CI162" s="11"/>
+      <c r="CJ162" s="11"/>
+      <c r="CK162" s="11"/>
+      <c r="CL162" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -45412,7 +45883,6 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
@@ -45458,15 +45928,16 @@
     <mergeCell ref="CD88:CG88"/>
     <mergeCell ref="CD29:CG29"/>
     <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="88" man="1"/>
-    <brk id="80" max="88" man="1"/>
-    <brk id="99" max="88" man="1"/>
+    <brk id="40" max="89" man="1"/>
+    <brk id="80" max="89" man="1"/>
+    <brk id="99" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93057DB3-DCA6-4F52-B286-0151B6DB2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A77C7-9FC5-4553-A67D-58BFE63C6984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CL$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CM$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -632,11 +632,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -718,87 +718,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{7BA47248-0781-4CDC-821C-B6A0F483580E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D0ADEA56-1AE6-4044-91CC-13ADC71C67D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23637,146 +23617,54 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY162"/>
+  <dimension ref="A1:EY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ84" sqref="CJ84"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A9" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP15" sqref="CP15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="90" width="9.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="11"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="91" width="9.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
-      <c r="CB3" s="21"/>
-      <c r="CC3" s="21"/>
-      <c r="CD3" s="21"/>
-      <c r="CE3" s="21"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="21"/>
-      <c r="CI3" s="21"/>
-      <c r="CJ3" s="21"/>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="BZ4" s="21"/>
-      <c r="CA4" s="21"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="21"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="21"/>
-      <c r="CF4" s="21"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="21"/>
-      <c r="CI4" s="21"/>
-      <c r="CJ4" s="21"/>
-      <c r="CK4" s="21"/>
-      <c r="CL4" s="21"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="21"/>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="21"/>
-      <c r="CI5" s="21"/>
-      <c r="CJ5" s="21"/>
-      <c r="CK5" s="21"/>
-      <c r="CL5" s="21"/>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23854,159 +23742,161 @@
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
-      <c r="BZ8" s="22"/>
-      <c r="CA8" s="22"/>
-      <c r="CB8" s="22"/>
-      <c r="CC8" s="22"/>
-      <c r="CD8" s="22"/>
-      <c r="CE8" s="22"/>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
-      <c r="CJ8" s="22"/>
-      <c r="CK8" s="22"/>
-      <c r="CL8" s="22"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
-      <c r="CH9" s="34">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="34"/>
-      <c r="CJ9" s="34"/>
-      <c r="CK9" s="34"/>
-      <c r="CL9" s="32">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25">
         <v>2022</v>
       </c>
+      <c r="CM9" s="25"/>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24238,47 +24128,50 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="23" t="s">
+      <c r="BZ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="23" t="s">
+      <c r="CA10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="23" t="s">
+      <c r="CB10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="23" t="s">
+      <c r="CC10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="23" t="s">
+      <c r="CD10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="23" t="s">
+      <c r="CE10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="23" t="s">
+      <c r="CF10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="23" t="s">
+      <c r="CG10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="23" t="s">
+      <c r="CH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="23" t="s">
+      <c r="CI10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="23" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="23" t="s">
+      <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="23" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24356,21 +24249,22 @@
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
-      <c r="BZ11" s="22"/>
-      <c r="CA11" s="22"/>
-      <c r="CB11" s="22"/>
-      <c r="CC11" s="22"/>
-      <c r="CD11" s="22"/>
-      <c r="CE11" s="22"/>
-      <c r="CF11" s="22"/>
-      <c r="CG11" s="22"/>
-      <c r="CH11" s="22"/>
-      <c r="CI11" s="22"/>
-      <c r="CJ11" s="22"/>
-      <c r="CK11" s="22"/>
-      <c r="CL11" s="22"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
     </row>
-    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -24602,46 +24496,48 @@
       <c r="BY12" s="9">
         <v>20298.021894886861</v>
       </c>
-      <c r="BZ12" s="24">
+      <c r="BZ12" s="9">
         <v>14240.799842751498</v>
       </c>
-      <c r="CA12" s="24">
+      <c r="CA12" s="9">
         <v>14197.344829698912</v>
       </c>
-      <c r="CB12" s="24">
+      <c r="CB12" s="9">
         <v>15703.773925655849</v>
       </c>
-      <c r="CC12" s="24">
+      <c r="CC12" s="9">
         <v>24601.79064501289</v>
       </c>
-      <c r="CD12" s="24">
+      <c r="CD12" s="9">
         <v>19849.040434675124</v>
       </c>
-      <c r="CE12" s="24">
+      <c r="CE12" s="9">
         <v>24381.141249027889</v>
       </c>
-      <c r="CF12" s="24">
+      <c r="CF12" s="9">
         <v>21073.223313878949</v>
       </c>
-      <c r="CG12" s="24">
+      <c r="CG12" s="9">
         <v>34396.745947446572</v>
       </c>
-      <c r="CH12" s="24">
+      <c r="CH12" s="9">
         <v>31407.98428433144</v>
       </c>
-      <c r="CI12" s="24">
+      <c r="CI12" s="9">
         <v>17598.008875856282</v>
       </c>
-      <c r="CJ12" s="24">
+      <c r="CJ12" s="9">
         <v>24199.596709305308</v>
       </c>
-      <c r="CK12" s="24">
+      <c r="CK12" s="9">
         <v>42734.76871668618</v>
       </c>
-      <c r="CL12" s="24">
+      <c r="CL12" s="9">
         <v>36469.915561264919</v>
       </c>
-      <c r="CM12" s="10"/>
+      <c r="CM12" s="9">
+        <v>19572.28895085687</v>
+      </c>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
@@ -24707,7 +24603,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24939,46 +24835,48 @@
       <c r="BY13" s="9">
         <v>59000.560073851557</v>
       </c>
-      <c r="BZ13" s="24">
+      <c r="BZ13" s="9">
         <v>52079.267042619525</v>
       </c>
-      <c r="CA13" s="24">
+      <c r="CA13" s="9">
         <v>66616.700266164713</v>
       </c>
-      <c r="CB13" s="24">
+      <c r="CB13" s="9">
         <v>60279.541133929597</v>
       </c>
-      <c r="CC13" s="24">
+      <c r="CC13" s="9">
         <v>61689.986838329321</v>
       </c>
-      <c r="CD13" s="24">
+      <c r="CD13" s="9">
         <v>51325.560943478333</v>
       </c>
-      <c r="CE13" s="24">
+      <c r="CE13" s="9">
         <v>43361.705517404524</v>
       </c>
-      <c r="CF13" s="24">
+      <c r="CF13" s="9">
         <v>53887.537627913698</v>
       </c>
-      <c r="CG13" s="24">
+      <c r="CG13" s="9">
         <v>53606.96636225743</v>
       </c>
-      <c r="CH13" s="24">
+      <c r="CH13" s="9">
         <v>52025.742658633266</v>
       </c>
-      <c r="CI13" s="24">
+      <c r="CI13" s="9">
         <v>65695.527833900342</v>
       </c>
-      <c r="CJ13" s="24">
+      <c r="CJ13" s="9">
         <v>66816.945679548589</v>
       </c>
-      <c r="CK13" s="24">
+      <c r="CK13" s="9">
         <v>60788.831474174149</v>
       </c>
-      <c r="CL13" s="24">
-        <v>50910.167298339657</v>
-      </c>
-      <c r="CM13" s="10"/>
+      <c r="CL13" s="9">
+        <v>51047.600299997459</v>
+      </c>
+      <c r="CM13" s="9">
+        <v>66987.839612453317</v>
+      </c>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
@@ -25044,7 +24942,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -25276,46 +25174,48 @@
       <c r="BY14" s="9">
         <v>5212.2929028950757</v>
       </c>
-      <c r="BZ14" s="24">
+      <c r="BZ14" s="9">
         <v>4136.8440860780356</v>
       </c>
-      <c r="CA14" s="24">
+      <c r="CA14" s="9">
         <v>4594.9644464858584</v>
       </c>
-      <c r="CB14" s="24">
+      <c r="CB14" s="9">
         <v>4842.5647412785866</v>
       </c>
-      <c r="CC14" s="24">
+      <c r="CC14" s="9">
         <v>6878.6244193599869</v>
       </c>
-      <c r="CD14" s="24">
+      <c r="CD14" s="9">
         <v>4028.735053106042</v>
       </c>
-      <c r="CE14" s="24">
+      <c r="CE14" s="9">
         <v>6265.5875228651039</v>
       </c>
-      <c r="CF14" s="24">
+      <c r="CF14" s="9">
         <v>5131.9331148659558</v>
       </c>
-      <c r="CG14" s="24">
+      <c r="CG14" s="9">
         <v>7951.9212504024072</v>
       </c>
-      <c r="CH14" s="24">
+      <c r="CH14" s="9">
         <v>5699.8660801649357</v>
       </c>
-      <c r="CI14" s="24">
+      <c r="CI14" s="9">
         <v>3578.368754650779</v>
       </c>
-      <c r="CJ14" s="24">
+      <c r="CJ14" s="9">
         <v>6346.1918226433372</v>
       </c>
-      <c r="CK14" s="24">
+      <c r="CK14" s="9">
         <v>8794.2786772343698</v>
       </c>
-      <c r="CL14" s="24">
+      <c r="CL14" s="9">
         <v>5926.3451606485323</v>
       </c>
-      <c r="CM14" s="10"/>
+      <c r="CM14" s="9">
+        <v>3965.3885037480841</v>
+      </c>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
@@ -25381,7 +25281,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -25458,20 +25358,20 @@
       <c r="BW15" s="12"/>
       <c r="BX15" s="12"/>
       <c r="BY15" s="12"/>
-      <c r="BZ15" s="25"/>
-      <c r="CA15" s="25"/>
-      <c r="CB15" s="25"/>
-      <c r="CC15" s="25"/>
-      <c r="CD15" s="25"/>
-      <c r="CE15" s="25"/>
-      <c r="CF15" s="25"/>
-      <c r="CG15" s="25"/>
-      <c r="CH15" s="25"/>
-      <c r="CI15" s="25"/>
-      <c r="CJ15" s="25"/>
-      <c r="CK15" s="25"/>
-      <c r="CL15" s="25"/>
-      <c r="CM15" s="10"/>
+      <c r="BZ15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
+      <c r="CE15" s="12"/>
+      <c r="CF15" s="12"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="12"/>
+      <c r="CI15" s="12"/>
+      <c r="CJ15" s="12"/>
+      <c r="CK15" s="12"/>
+      <c r="CL15" s="12"/>
+      <c r="CM15" s="12"/>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
@@ -25537,7 +25437,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -25769,46 +25669,48 @@
       <c r="BY16" s="14">
         <v>84510.874871633496</v>
       </c>
-      <c r="BZ16" s="26">
+      <c r="BZ16" s="14">
         <v>70456.910971449062</v>
       </c>
-      <c r="CA16" s="26">
+      <c r="CA16" s="14">
         <v>85409.009542349479</v>
       </c>
-      <c r="CB16" s="26">
+      <c r="CB16" s="14">
         <v>80825.87980086403</v>
       </c>
-      <c r="CC16" s="26">
+      <c r="CC16" s="14">
         <v>93170.4019027022</v>
       </c>
-      <c r="CD16" s="26">
+      <c r="CD16" s="14">
         <v>75203.336431259493</v>
       </c>
-      <c r="CE16" s="26">
+      <c r="CE16" s="14">
         <v>74008.434289297511</v>
       </c>
-      <c r="CF16" s="26">
+      <c r="CF16" s="14">
         <v>80092.694056658598</v>
       </c>
-      <c r="CG16" s="26">
+      <c r="CG16" s="14">
         <v>95955.633560106406</v>
       </c>
-      <c r="CH16" s="26">
+      <c r="CH16" s="22">
         <v>89133.593023129652</v>
       </c>
-      <c r="CI16" s="26">
+      <c r="CI16" s="22">
         <v>86871.905464407406</v>
       </c>
-      <c r="CJ16" s="26">
+      <c r="CJ16" s="22">
         <v>97362.734211497227</v>
       </c>
-      <c r="CK16" s="26">
+      <c r="CK16" s="22">
         <v>112317.8788680947</v>
       </c>
-      <c r="CL16" s="26">
-        <v>93306.428020253108</v>
-      </c>
-      <c r="CM16" s="10"/>
+      <c r="CL16" s="22">
+        <v>93443.86102191091</v>
+      </c>
+      <c r="CM16" s="22">
+        <v>90525.517067058274</v>
+      </c>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
       <c r="CP16" s="10"/>
@@ -25874,7 +25776,7 @@
       <c r="EX16" s="10"/>
       <c r="EY16" s="10"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -25952,21 +25854,22 @@
       <c r="BW17" s="15"/>
       <c r="BX17" s="15"/>
       <c r="BY17" s="15"/>
-      <c r="BZ17" s="27"/>
-      <c r="CA17" s="27"/>
-      <c r="CB17" s="27"/>
-      <c r="CC17" s="27"/>
-      <c r="CD17" s="27"/>
-      <c r="CE17" s="27"/>
-      <c r="CF17" s="27"/>
-      <c r="CG17" s="27"/>
-      <c r="CH17" s="27"/>
-      <c r="CI17" s="27"/>
-      <c r="CJ17" s="27"/>
-      <c r="CK17" s="27"/>
-      <c r="CL17" s="27"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CH17" s="15"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
     </row>
-    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
@@ -26046,21 +25949,22 @@
       <c r="BW18" s="1"/>
       <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
-      <c r="BZ18" s="22"/>
-      <c r="CA18" s="22"/>
-      <c r="CB18" s="22"/>
-      <c r="CC18" s="22"/>
-      <c r="CD18" s="22"/>
-      <c r="CE18" s="22"/>
-      <c r="CF18" s="22"/>
-      <c r="CG18" s="22"/>
-      <c r="CH18" s="22"/>
-      <c r="CI18" s="22"/>
-      <c r="CJ18" s="22"/>
-      <c r="CK18" s="22"/>
-      <c r="CL18" s="22"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
     </row>
-    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -26137,20 +26041,20 @@
       <c r="BW19" s="12"/>
       <c r="BX19" s="12"/>
       <c r="BY19" s="12"/>
-      <c r="BZ19" s="25"/>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CF19" s="25"/>
-      <c r="CG19" s="25"/>
-      <c r="CH19" s="25"/>
-      <c r="CI19" s="25"/>
-      <c r="CJ19" s="25"/>
-      <c r="CK19" s="25"/>
-      <c r="CL19" s="25"/>
-      <c r="CM19" s="10"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+      <c r="CJ19" s="12"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
       <c r="CP19" s="10"/>
@@ -26216,7 +26120,7 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -26293,20 +26197,20 @@
       <c r="BW20" s="12"/>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
-      <c r="BZ20" s="25"/>
-      <c r="CA20" s="25"/>
-      <c r="CB20" s="25"/>
-      <c r="CC20" s="25"/>
-      <c r="CD20" s="25"/>
-      <c r="CE20" s="25"/>
-      <c r="CF20" s="25"/>
-      <c r="CG20" s="25"/>
-      <c r="CH20" s="25"/>
-      <c r="CI20" s="25"/>
-      <c r="CJ20" s="25"/>
-      <c r="CK20" s="25"/>
-      <c r="CL20" s="25"/>
-      <c r="CM20" s="10"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
       <c r="CN20" s="10"/>
       <c r="CO20" s="10"/>
       <c r="CP20" s="10"/>
@@ -26372,7 +26276,7 @@
       <c r="EX20" s="10"/>
       <c r="EY20" s="10"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -26452,21 +26356,22 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
-      <c r="BZ21" s="22"/>
-      <c r="CA21" s="22"/>
-      <c r="CB21" s="22"/>
-      <c r="CC21" s="22"/>
-      <c r="CD21" s="22"/>
-      <c r="CE21" s="22"/>
-      <c r="CF21" s="22"/>
-      <c r="CG21" s="22"/>
-      <c r="CH21" s="22"/>
-      <c r="CI21" s="22"/>
-      <c r="CJ21" s="22"/>
-      <c r="CK21" s="22"/>
-      <c r="CL21" s="22"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -26546,21 +26451,22 @@
       <c r="BW22" s="1"/>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
-      <c r="BZ22" s="22"/>
-      <c r="CA22" s="22"/>
-      <c r="CB22" s="22"/>
-      <c r="CC22" s="22"/>
-      <c r="CD22" s="22"/>
-      <c r="CE22" s="22"/>
-      <c r="CF22" s="22"/>
-      <c r="CG22" s="22"/>
-      <c r="CH22" s="22"/>
-      <c r="CI22" s="22"/>
-      <c r="CJ22" s="22"/>
-      <c r="CK22" s="22"/>
-      <c r="CL22" s="22"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -26640,21 +26546,22 @@
       <c r="BW23" s="1"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
-      <c r="BZ23" s="22"/>
-      <c r="CA23" s="22"/>
-      <c r="CB23" s="22"/>
-      <c r="CC23" s="22"/>
-      <c r="CD23" s="22"/>
-      <c r="CE23" s="22"/>
-      <c r="CF23" s="22"/>
-      <c r="CG23" s="22"/>
-      <c r="CH23" s="22"/>
-      <c r="CI23" s="22"/>
-      <c r="CJ23" s="22"/>
-      <c r="CK23" s="22"/>
-      <c r="CL23" s="22"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26732,21 +26639,22 @@
       <c r="BW24" s="1"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
-      <c r="BZ24" s="22"/>
-      <c r="CA24" s="22"/>
-      <c r="CB24" s="22"/>
-      <c r="CC24" s="22"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
-      <c r="CF24" s="22"/>
-      <c r="CG24" s="22"/>
-      <c r="CH24" s="22"/>
-      <c r="CI24" s="22"/>
-      <c r="CJ24" s="22"/>
-      <c r="CK24" s="22"/>
-      <c r="CL24" s="22"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -26826,21 +26734,22 @@
       <c r="BW25" s="1"/>
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
-      <c r="BZ25" s="22"/>
-      <c r="CA25" s="22"/>
-      <c r="CB25" s="22"/>
-      <c r="CC25" s="22"/>
-      <c r="CD25" s="22"/>
-      <c r="CE25" s="22"/>
-      <c r="CF25" s="22"/>
-      <c r="CG25" s="22"/>
-      <c r="CH25" s="22"/>
-      <c r="CI25" s="22"/>
-      <c r="CJ25" s="22"/>
-      <c r="CK25" s="22"/>
-      <c r="CL25" s="22"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -26920,21 +26829,22 @@
       <c r="BW26" s="1"/>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
-      <c r="BZ26" s="22"/>
-      <c r="CA26" s="22"/>
-      <c r="CB26" s="22"/>
-      <c r="CC26" s="22"/>
-      <c r="CD26" s="22"/>
-      <c r="CE26" s="22"/>
-      <c r="CF26" s="22"/>
-      <c r="CG26" s="22"/>
-      <c r="CH26" s="22"/>
-      <c r="CI26" s="22"/>
-      <c r="CJ26" s="22"/>
-      <c r="CK26" s="22"/>
-      <c r="CL26" s="22"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -27014,21 +26924,22 @@
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="22"/>
-      <c r="CA27" s="22"/>
-      <c r="CB27" s="22"/>
-      <c r="CC27" s="22"/>
-      <c r="CD27" s="22"/>
-      <c r="CE27" s="22"/>
-      <c r="CF27" s="22"/>
-      <c r="CG27" s="22"/>
-      <c r="CH27" s="22"/>
-      <c r="CI27" s="22"/>
-      <c r="CJ27" s="22"/>
-      <c r="CK27" s="22"/>
-      <c r="CL27" s="22"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27106,159 +27017,161 @@
       <c r="BW28" s="1"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
-      <c r="BZ28" s="22"/>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22"/>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22"/>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="35">
+      <c r="B29" s="25">
         <v>2000</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25">
         <v>2001</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="25">
         <v>2002</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="35">
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="25">
         <v>2003</v>
       </c>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="35">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="25">
         <v>2004</v>
       </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="35">
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="25">
         <v>2005</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="35">
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="25">
         <v>2006</v>
       </c>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="35">
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="25">
         <v>2007</v>
       </c>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="35">
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="25">
         <v>2008</v>
       </c>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="35">
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="25">
         <v>2009</v>
       </c>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="35">
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="35">
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="25">
         <v>2011</v>
       </c>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="35">
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="25">
         <v>2012</v>
       </c>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="35">
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="25">
         <v>2013</v>
       </c>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="36"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="35">
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="25">
         <v>2014</v>
       </c>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="35">
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="25">
         <v>2015</v>
       </c>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="35">
+      <c r="BK29" s="27"/>
+      <c r="BL29" s="27"/>
+      <c r="BM29" s="27"/>
+      <c r="BN29" s="25">
         <v>2016</v>
       </c>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
-      <c r="BR29" s="35">
+      <c r="BO29" s="27"/>
+      <c r="BP29" s="27"/>
+      <c r="BQ29" s="27"/>
+      <c r="BR29" s="25">
         <v>2017</v>
       </c>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="35">
+      <c r="BS29" s="27"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="25">
         <v>2018</v>
       </c>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="36"/>
-      <c r="BY29" s="36"/>
-      <c r="BZ29" s="34">
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
+      <c r="BY29" s="27"/>
+      <c r="BZ29" s="25">
         <v>2019</v>
       </c>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="34">
+      <c r="CA29" s="27"/>
+      <c r="CB29" s="27"/>
+      <c r="CC29" s="27"/>
+      <c r="CD29" s="25">
         <v>2020</v>
       </c>
-      <c r="CE29" s="34"/>
-      <c r="CF29" s="34"/>
-      <c r="CG29" s="34"/>
-      <c r="CH29" s="34">
+      <c r="CE29" s="27"/>
+      <c r="CF29" s="27"/>
+      <c r="CG29" s="27"/>
+      <c r="CH29" s="25">
         <v>2021</v>
       </c>
-      <c r="CI29" s="34"/>
-      <c r="CJ29" s="34"/>
-      <c r="CK29" s="34"/>
-      <c r="CL29" s="32">
+      <c r="CI29" s="25"/>
+      <c r="CJ29" s="25"/>
+      <c r="CK29" s="25"/>
+      <c r="CL29" s="25">
         <v>2022</v>
       </c>
+      <c r="CM29" s="25"/>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
@@ -27490,47 +27403,50 @@
       <c r="BY30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ30" s="23" t="s">
+      <c r="BZ30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA30" s="23" t="s">
+      <c r="CA30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB30" s="23" t="s">
+      <c r="CB30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC30" s="23" t="s">
+      <c r="CC30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD30" s="23" t="s">
+      <c r="CD30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE30" s="23" t="s">
+      <c r="CE30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF30" s="23" t="s">
+      <c r="CF30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG30" s="23" t="s">
+      <c r="CG30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH30" s="23" t="s">
+      <c r="CH30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI30" s="23" t="s">
+      <c r="CI30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ30" s="23" t="s">
+      <c r="CJ30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK30" s="23" t="s">
+      <c r="CK30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="23" t="s">
+      <c r="CL30" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM30" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27608,21 +27524,22 @@
       <c r="BW31" s="1"/>
       <c r="BX31" s="1"/>
       <c r="BY31" s="1"/>
-      <c r="BZ31" s="22"/>
-      <c r="CA31" s="22"/>
-      <c r="CB31" s="22"/>
-      <c r="CC31" s="22"/>
-      <c r="CD31" s="22"/>
-      <c r="CE31" s="22"/>
-      <c r="CF31" s="22"/>
-      <c r="CG31" s="22"/>
-      <c r="CH31" s="22"/>
-      <c r="CI31" s="22"/>
-      <c r="CJ31" s="22"/>
-      <c r="CK31" s="22"/>
-      <c r="CL31" s="22"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
     </row>
-    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -27854,46 +27771,48 @@
       <c r="BY32" s="9">
         <v>16914.677999393356</v>
       </c>
-      <c r="BZ32" s="24">
+      <c r="BZ32" s="9">
         <v>15884.225469284773</v>
       </c>
-      <c r="CA32" s="24">
+      <c r="CA32" s="9">
         <v>15058.822498023103</v>
       </c>
-      <c r="CB32" s="24">
+      <c r="CB32" s="9">
         <v>16314.028349563272</v>
       </c>
-      <c r="CC32" s="24">
+      <c r="CC32" s="9">
         <v>21330.192157128164</v>
       </c>
-      <c r="CD32" s="24">
+      <c r="CD32" s="9">
         <v>20811.722402623873</v>
       </c>
-      <c r="CE32" s="24">
+      <c r="CE32" s="9">
         <v>24746.176525580289</v>
       </c>
-      <c r="CF32" s="24">
+      <c r="CF32" s="9">
         <v>20848.864778726216</v>
       </c>
-      <c r="CG32" s="24">
+      <c r="CG32" s="9">
         <v>28657.669221506498</v>
       </c>
-      <c r="CH32" s="24">
+      <c r="CH32" s="9">
         <v>30799.669348727395</v>
       </c>
-      <c r="CI32" s="24">
+      <c r="CI32" s="9">
         <v>17802.651115381093</v>
       </c>
-      <c r="CJ32" s="24">
+      <c r="CJ32" s="9">
         <v>23316.004556722735</v>
       </c>
-      <c r="CK32" s="24">
+      <c r="CK32" s="9">
         <v>34736.048488333727</v>
       </c>
-      <c r="CL32" s="24">
+      <c r="CL32" s="9">
         <v>34368.865296414166</v>
       </c>
-      <c r="CM32" s="10"/>
+      <c r="CM32" s="9">
+        <v>18798.597573220191</v>
+      </c>
       <c r="CN32" s="10"/>
       <c r="CO32" s="10"/>
       <c r="CP32" s="10"/>
@@ -27959,7 +27878,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -28191,46 +28110,48 @@
       <c r="BY33" s="9">
         <v>52394.763321925864</v>
       </c>
-      <c r="BZ33" s="24">
+      <c r="BZ33" s="9">
         <v>57955.595070635492</v>
       </c>
-      <c r="CA33" s="24">
+      <c r="CA33" s="9">
         <v>67324.45050470694</v>
       </c>
-      <c r="CB33" s="24">
+      <c r="CB33" s="9">
         <v>56084.783788454799</v>
       </c>
-      <c r="CC33" s="24">
+      <c r="CC33" s="9">
         <v>54149.134687626742</v>
       </c>
-      <c r="CD33" s="24">
+      <c r="CD33" s="9">
         <v>55098.455547185382</v>
       </c>
-      <c r="CE33" s="24">
+      <c r="CE33" s="9">
         <v>42111.408529197797</v>
       </c>
-      <c r="CF33" s="24">
+      <c r="CF33" s="9">
         <v>48170.015775145956</v>
       </c>
-      <c r="CG33" s="24">
+      <c r="CG33" s="9">
         <v>45356.105631118226</v>
       </c>
-      <c r="CH33" s="24">
+      <c r="CH33" s="9">
         <v>53974.14915553898</v>
       </c>
-      <c r="CI33" s="24">
+      <c r="CI33" s="9">
         <v>61769.262229764616</v>
       </c>
-      <c r="CJ33" s="24">
+      <c r="CJ33" s="9">
         <v>56943.948401290429</v>
       </c>
-      <c r="CK33" s="24">
+      <c r="CK33" s="9">
         <v>49875.155719544011</v>
       </c>
-      <c r="CL33" s="24">
-        <v>51484.008866630284</v>
-      </c>
-      <c r="CM33" s="10"/>
+      <c r="CL33" s="9">
+        <v>51622.990964930112</v>
+      </c>
+      <c r="CM33" s="9">
+        <v>61918.933569232046</v>
+      </c>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
       <c r="CP33" s="10"/>
@@ -28296,7 +28217,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -28528,46 +28449,48 @@
       <c r="BY34" s="9">
         <v>4537.550313217339</v>
       </c>
-      <c r="BZ34" s="24">
+      <c r="BZ34" s="9">
         <v>4504.2965335004774</v>
       </c>
-      <c r="CA34" s="24">
+      <c r="CA34" s="9">
         <v>4478.6498079472149</v>
       </c>
-      <c r="CB34" s="24">
+      <c r="CB34" s="9">
         <v>4549.3540385444503</v>
       </c>
-      <c r="CC34" s="24">
+      <c r="CC34" s="9">
         <v>5627.6839220225556</v>
       </c>
-      <c r="CD34" s="24">
+      <c r="CD34" s="9">
         <v>4151.3552755243682</v>
       </c>
-      <c r="CE34" s="24">
+      <c r="CE34" s="9">
         <v>5841.8657212860289</v>
       </c>
-      <c r="CF34" s="24">
+      <c r="CF34" s="9">
         <v>4729.0914953350803</v>
       </c>
-      <c r="CG34" s="24">
+      <c r="CG34" s="9">
         <v>6379.9066048755776</v>
       </c>
-      <c r="CH34" s="24">
+      <c r="CH34" s="9">
         <v>5663.5751552620195</v>
       </c>
-      <c r="CI34" s="24">
+      <c r="CI34" s="9">
         <v>3317.2454474132228</v>
       </c>
-      <c r="CJ34" s="24">
+      <c r="CJ34" s="9">
         <v>5340.1075460950024</v>
       </c>
-      <c r="CK34" s="24">
+      <c r="CK34" s="9">
         <v>6730.0100764307017</v>
       </c>
-      <c r="CL34" s="24">
+      <c r="CL34" s="9">
         <v>5676.5725508068781</v>
       </c>
-      <c r="CM34" s="10"/>
+      <c r="CM34" s="9">
+        <v>3639.2385585482234</v>
+      </c>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
@@ -28633,7 +28556,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -28710,20 +28633,20 @@
       <c r="BW35" s="12"/>
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
-      <c r="BZ35" s="25"/>
-      <c r="CA35" s="25"/>
-      <c r="CB35" s="25"/>
-      <c r="CC35" s="25"/>
-      <c r="CD35" s="25"/>
-      <c r="CE35" s="25"/>
-      <c r="CF35" s="25"/>
-      <c r="CG35" s="25"/>
-      <c r="CH35" s="25"/>
-      <c r="CI35" s="25"/>
-      <c r="CJ35" s="25"/>
-      <c r="CK35" s="25"/>
-      <c r="CL35" s="25"/>
-      <c r="CM35" s="10"/>
+      <c r="BZ35" s="12"/>
+      <c r="CA35" s="12"/>
+      <c r="CB35" s="12"/>
+      <c r="CC35" s="12"/>
+      <c r="CD35" s="12"/>
+      <c r="CE35" s="12"/>
+      <c r="CF35" s="12"/>
+      <c r="CG35" s="12"/>
+      <c r="CH35" s="12"/>
+      <c r="CI35" s="12"/>
+      <c r="CJ35" s="12"/>
+      <c r="CK35" s="12"/>
+      <c r="CL35" s="12"/>
+      <c r="CM35" s="12"/>
       <c r="CN35" s="10"/>
       <c r="CO35" s="10"/>
       <c r="CP35" s="10"/>
@@ -28789,7 +28712,7 @@
       <c r="EX35" s="10"/>
       <c r="EY35" s="10"/>
     </row>
-    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
@@ -29021,46 +28944,48 @@
       <c r="BY36" s="14">
         <v>73846.991634536549</v>
       </c>
-      <c r="BZ36" s="26">
+      <c r="BZ36" s="14">
         <v>78344.117073420755</v>
       </c>
-      <c r="CA36" s="26">
+      <c r="CA36" s="14">
         <v>86861.922810677264</v>
       </c>
-      <c r="CB36" s="26">
+      <c r="CB36" s="14">
         <v>76948.166176562518</v>
       </c>
-      <c r="CC36" s="26">
+      <c r="CC36" s="14">
         <v>81107.010766777457</v>
       </c>
-      <c r="CD36" s="26">
+      <c r="CD36" s="14">
         <v>80061.533225333624</v>
       </c>
-      <c r="CE36" s="26">
+      <c r="CE36" s="14">
         <v>72699.450776064114</v>
       </c>
-      <c r="CF36" s="26">
+      <c r="CF36" s="14">
         <v>73747.972049207252</v>
       </c>
-      <c r="CG36" s="26">
+      <c r="CG36" s="14">
         <v>80393.681457500294</v>
       </c>
-      <c r="CH36" s="26">
+      <c r="CH36" s="22">
         <v>90437.393659528403</v>
       </c>
-      <c r="CI36" s="26">
+      <c r="CI36" s="22">
         <v>82889.158792558927</v>
       </c>
-      <c r="CJ36" s="26">
+      <c r="CJ36" s="22">
         <v>85600.060504108173</v>
       </c>
-      <c r="CK36" s="26">
+      <c r="CK36" s="22">
         <v>91341.214284308444</v>
       </c>
-      <c r="CL36" s="26">
-        <v>91529.446713851314</v>
-      </c>
-      <c r="CM36" s="10"/>
+      <c r="CL36" s="22">
+        <v>91668.428812151149</v>
+      </c>
+      <c r="CM36" s="22">
+        <v>84356.769701000463</v>
+      </c>
       <c r="CN36" s="10"/>
       <c r="CO36" s="10"/>
       <c r="CP36" s="10"/>
@@ -29126,7 +29051,7 @@
       <c r="EX36" s="10"/>
       <c r="EY36" s="10"/>
     </row>
-    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -29204,21 +29129,22 @@
       <c r="BW37" s="15"/>
       <c r="BX37" s="15"/>
       <c r="BY37" s="15"/>
-      <c r="BZ37" s="27"/>
-      <c r="CA37" s="27"/>
-      <c r="CB37" s="27"/>
-      <c r="CC37" s="27"/>
-      <c r="CD37" s="27"/>
-      <c r="CE37" s="27"/>
-      <c r="CF37" s="27"/>
-      <c r="CG37" s="27"/>
-      <c r="CH37" s="27"/>
-      <c r="CI37" s="27"/>
-      <c r="CJ37" s="27"/>
-      <c r="CK37" s="27"/>
-      <c r="CL37" s="27"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="15"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="15"/>
+      <c r="CG37" s="15"/>
+      <c r="CH37" s="15"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="15"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
     </row>
-    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
@@ -29298,21 +29224,22 @@
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="22"/>
-      <c r="CF38" s="22"/>
-      <c r="CG38" s="22"/>
-      <c r="CH38" s="22"/>
-      <c r="CI38" s="22"/>
-      <c r="CJ38" s="22"/>
-      <c r="CK38" s="22"/>
-      <c r="CL38" s="22"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
     </row>
-    <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -29389,20 +29316,20 @@
       <c r="BW39" s="12"/>
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
-      <c r="BZ39" s="25"/>
-      <c r="CA39" s="25"/>
-      <c r="CB39" s="25"/>
-      <c r="CC39" s="25"/>
-      <c r="CD39" s="25"/>
-      <c r="CE39" s="25"/>
-      <c r="CF39" s="25"/>
-      <c r="CG39" s="25"/>
-      <c r="CH39" s="25"/>
-      <c r="CI39" s="25"/>
-      <c r="CJ39" s="25"/>
-      <c r="CK39" s="25"/>
-      <c r="CL39" s="25"/>
-      <c r="CM39" s="10"/>
+      <c r="BZ39" s="12"/>
+      <c r="CA39" s="12"/>
+      <c r="CB39" s="12"/>
+      <c r="CC39" s="12"/>
+      <c r="CD39" s="12"/>
+      <c r="CE39" s="12"/>
+      <c r="CF39" s="12"/>
+      <c r="CG39" s="12"/>
+      <c r="CH39" s="12"/>
+      <c r="CI39" s="12"/>
+      <c r="CJ39" s="12"/>
+      <c r="CK39" s="12"/>
+      <c r="CL39" s="12"/>
+      <c r="CM39" s="12"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
       <c r="CP39" s="10"/>
@@ -29468,7 +29395,7 @@
       <c r="EX39" s="10"/>
       <c r="EY39" s="10"/>
     </row>
-    <row r="40" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -29545,20 +29472,20 @@
       <c r="BW40" s="12"/>
       <c r="BX40" s="12"/>
       <c r="BY40" s="12"/>
-      <c r="BZ40" s="25"/>
-      <c r="CA40" s="25"/>
-      <c r="CB40" s="25"/>
-      <c r="CC40" s="25"/>
-      <c r="CD40" s="25"/>
-      <c r="CE40" s="25"/>
-      <c r="CF40" s="25"/>
-      <c r="CG40" s="25"/>
-      <c r="CH40" s="25"/>
-      <c r="CI40" s="25"/>
-      <c r="CJ40" s="25"/>
-      <c r="CK40" s="25"/>
-      <c r="CL40" s="25"/>
-      <c r="CM40" s="10"/>
+      <c r="BZ40" s="12"/>
+      <c r="CA40" s="12"/>
+      <c r="CB40" s="12"/>
+      <c r="CC40" s="12"/>
+      <c r="CD40" s="12"/>
+      <c r="CE40" s="12"/>
+      <c r="CF40" s="12"/>
+      <c r="CG40" s="12"/>
+      <c r="CH40" s="12"/>
+      <c r="CI40" s="12"/>
+      <c r="CJ40" s="12"/>
+      <c r="CK40" s="12"/>
+      <c r="CL40" s="12"/>
+      <c r="CM40" s="12"/>
       <c r="CN40" s="10"/>
       <c r="CO40" s="10"/>
       <c r="CP40" s="10"/>
@@ -29624,7 +29551,7 @@
       <c r="EX40" s="10"/>
       <c r="EY40" s="10"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -29704,21 +29631,22 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
-      <c r="BZ41" s="22"/>
-      <c r="CA41" s="22"/>
-      <c r="CB41" s="22"/>
-      <c r="CC41" s="22"/>
-      <c r="CD41" s="22"/>
-      <c r="CE41" s="22"/>
-      <c r="CF41" s="22"/>
-      <c r="CG41" s="22"/>
-      <c r="CH41" s="22"/>
-      <c r="CI41" s="22"/>
-      <c r="CJ41" s="22"/>
-      <c r="CK41" s="22"/>
-      <c r="CL41" s="22"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -29798,21 +29726,22 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
-      <c r="BZ42" s="22"/>
-      <c r="CA42" s="22"/>
-      <c r="CB42" s="22"/>
-      <c r="CC42" s="22"/>
-      <c r="CD42" s="22"/>
-      <c r="CE42" s="22"/>
-      <c r="CF42" s="22"/>
-      <c r="CG42" s="22"/>
-      <c r="CH42" s="22"/>
-      <c r="CI42" s="22"/>
-      <c r="CJ42" s="22"/>
-      <c r="CK42" s="22"/>
-      <c r="CL42" s="22"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -29892,21 +29821,22 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
-      <c r="BZ43" s="22"/>
-      <c r="CA43" s="22"/>
-      <c r="CB43" s="22"/>
-      <c r="CC43" s="22"/>
-      <c r="CD43" s="22"/>
-      <c r="CE43" s="22"/>
-      <c r="CF43" s="22"/>
-      <c r="CG43" s="22"/>
-      <c r="CH43" s="22"/>
-      <c r="CI43" s="22"/>
-      <c r="CJ43" s="22"/>
-      <c r="CK43" s="22"/>
-      <c r="CL43" s="22"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29984,21 +29914,22 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
-      <c r="BZ44" s="22"/>
-      <c r="CA44" s="22"/>
-      <c r="CB44" s="22"/>
-      <c r="CC44" s="22"/>
-      <c r="CD44" s="22"/>
-      <c r="CE44" s="22"/>
-      <c r="CF44" s="22"/>
-      <c r="CG44" s="22"/>
-      <c r="CH44" s="22"/>
-      <c r="CI44" s="22"/>
-      <c r="CJ44" s="22"/>
-      <c r="CK44" s="22"/>
-      <c r="CL44" s="22"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -30078,21 +30009,22 @@
       <c r="BW45" s="1"/>
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
-      <c r="BZ45" s="22"/>
-      <c r="CA45" s="22"/>
-      <c r="CB45" s="22"/>
-      <c r="CC45" s="22"/>
-      <c r="CD45" s="22"/>
-      <c r="CE45" s="22"/>
-      <c r="CF45" s="22"/>
-      <c r="CG45" s="22"/>
-      <c r="CH45" s="22"/>
-      <c r="CI45" s="22"/>
-      <c r="CJ45" s="22"/>
-      <c r="CK45" s="22"/>
-      <c r="CL45" s="22"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
@@ -30172,21 +30104,22 @@
       <c r="BW46" s="1"/>
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
-      <c r="BZ46" s="22"/>
-      <c r="CA46" s="22"/>
-      <c r="CB46" s="22"/>
-      <c r="CC46" s="22"/>
-      <c r="CD46" s="22"/>
-      <c r="CE46" s="22"/>
-      <c r="CF46" s="22"/>
-      <c r="CG46" s="22"/>
-      <c r="CH46" s="22"/>
-      <c r="CI46" s="22"/>
-      <c r="CJ46" s="22"/>
-      <c r="CK46" s="22"/>
-      <c r="CL46" s="22"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -30266,21 +30199,22 @@
       <c r="BW47" s="1"/>
       <c r="BX47" s="1"/>
       <c r="BY47" s="1"/>
-      <c r="BZ47" s="22"/>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22"/>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22"/>
-      <c r="CI47" s="22"/>
-      <c r="CJ47" s="22"/>
-      <c r="CK47" s="22"/>
-      <c r="CL47" s="22"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -30358,157 +30292,159 @@
       <c r="BW48" s="1"/>
       <c r="BX48" s="1"/>
       <c r="BY48" s="1"/>
-      <c r="BZ48" s="22"/>
-      <c r="CA48" s="22"/>
-      <c r="CB48" s="22"/>
-      <c r="CC48" s="22"/>
-      <c r="CD48" s="22"/>
-      <c r="CE48" s="22"/>
-      <c r="CF48" s="22"/>
-      <c r="CG48" s="22"/>
-      <c r="CH48" s="22"/>
-      <c r="CI48" s="39"/>
-      <c r="CJ48" s="39"/>
-      <c r="CK48" s="39"/>
-      <c r="CL48" s="39"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35" t="s">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35" t="s">
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35" t="s">
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35" t="s">
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35" t="s">
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35" t="s">
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35" t="s">
+      <c r="AI49" s="25"/>
+      <c r="AJ49" s="25"/>
+      <c r="AK49" s="25"/>
+      <c r="AL49" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35" t="s">
+      <c r="AM49" s="25"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="25"/>
+      <c r="AP49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35" t="s">
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AS49" s="25"/>
+      <c r="AT49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35" t="s">
+      <c r="AU49" s="25"/>
+      <c r="AV49" s="25"/>
+      <c r="AW49" s="25"/>
+      <c r="AX49" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="35" t="s">
+      <c r="AY49" s="25"/>
+      <c r="AZ49" s="25"/>
+      <c r="BA49" s="25"/>
+      <c r="BB49" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="35"/>
-      <c r="BE49" s="35"/>
-      <c r="BF49" s="35" t="s">
+      <c r="BC49" s="25"/>
+      <c r="BD49" s="25"/>
+      <c r="BE49" s="25"/>
+      <c r="BF49" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="35"/>
-      <c r="BH49" s="35"/>
-      <c r="BI49" s="35"/>
-      <c r="BJ49" s="35" t="s">
+      <c r="BG49" s="25"/>
+      <c r="BH49" s="25"/>
+      <c r="BI49" s="25"/>
+      <c r="BJ49" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="35"/>
-      <c r="BL49" s="35"/>
-      <c r="BM49" s="35"/>
-      <c r="BN49" s="35" t="s">
+      <c r="BK49" s="25"/>
+      <c r="BL49" s="25"/>
+      <c r="BM49" s="25"/>
+      <c r="BN49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="35"/>
-      <c r="BP49" s="35"/>
-      <c r="BQ49" s="35"/>
-      <c r="BR49" s="35" t="s">
+      <c r="BO49" s="25"/>
+      <c r="BP49" s="25"/>
+      <c r="BQ49" s="25"/>
+      <c r="BR49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="35"/>
-      <c r="BT49" s="35"/>
-      <c r="BU49" s="35"/>
-      <c r="BV49" s="35" t="s">
+      <c r="BS49" s="25"/>
+      <c r="BT49" s="25"/>
+      <c r="BU49" s="25"/>
+      <c r="BV49" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="35"/>
-      <c r="BX49" s="35"/>
-      <c r="BY49" s="35"/>
-      <c r="BZ49" s="34" t="s">
+      <c r="BW49" s="25"/>
+      <c r="BX49" s="25"/>
+      <c r="BY49" s="25"/>
+      <c r="BZ49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="34"/>
-      <c r="CB49" s="34"/>
-      <c r="CC49" s="34"/>
-      <c r="CD49" s="34" t="s">
+      <c r="CA49" s="25"/>
+      <c r="CB49" s="25"/>
+      <c r="CC49" s="25"/>
+      <c r="CD49" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="34"/>
-      <c r="CF49" s="34"/>
-      <c r="CG49" s="34"/>
-      <c r="CH49" s="32" t="s">
+      <c r="CE49" s="25"/>
+      <c r="CF49" s="25"/>
+      <c r="CG49" s="25"/>
+      <c r="CH49" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="40"/>
-      <c r="CJ49" s="40"/>
-      <c r="CK49" s="40"/>
-      <c r="CL49" s="41"/>
+      <c r="CI49" s="25"/>
+      <c r="CJ49" s="23"/>
+      <c r="CK49" s="23"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
     </row>
-    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -30740,39 +30676,42 @@
       <c r="BY50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ50" s="31" t="s">
+      <c r="BZ50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA50" s="31" t="s">
+      <c r="CA50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB50" s="31" t="s">
+      <c r="CB50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC50" s="31" t="s">
+      <c r="CC50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD50" s="31" t="s">
+      <c r="CD50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE50" s="31" t="s">
+      <c r="CE50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF50" s="31" t="s">
+      <c r="CF50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG50" s="31" t="s">
+      <c r="CG50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH50" s="31" t="s">
+      <c r="CH50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI50" s="40"/>
-      <c r="CJ50" s="40"/>
-      <c r="CK50" s="40"/>
-      <c r="CL50" s="40"/>
+      <c r="CI50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ50" s="6"/>
+      <c r="CK50" s="6"/>
+      <c r="CL50" s="6"/>
+      <c r="CM50" s="24"/>
     </row>
-    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -30850,21 +30789,22 @@
       <c r="BW51" s="1"/>
       <c r="BX51" s="1"/>
       <c r="BY51" s="1"/>
-      <c r="BZ51" s="22"/>
-      <c r="CA51" s="22"/>
-      <c r="CB51" s="22"/>
-      <c r="CC51" s="22"/>
-      <c r="CD51" s="22"/>
-      <c r="CE51" s="22"/>
-      <c r="CF51" s="22"/>
-      <c r="CG51" s="22"/>
-      <c r="CH51" s="22"/>
-      <c r="CI51" s="39"/>
-      <c r="CJ51" s="39"/>
-      <c r="CK51" s="39"/>
-      <c r="CL51" s="39"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
     </row>
-    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -31096,38 +31036,40 @@
       <c r="BY52" s="17">
         <v>21.202897368093602</v>
       </c>
-      <c r="BZ52" s="29">
+      <c r="BZ52" s="17">
         <v>39.381500012993968</v>
       </c>
-      <c r="CA52" s="29">
+      <c r="CA52" s="17">
         <v>71.730288596117362</v>
       </c>
-      <c r="CB52" s="29">
+      <c r="CB52" s="17">
         <v>34.192095566600244</v>
       </c>
-      <c r="CC52" s="29">
+      <c r="CC52" s="17">
         <v>39.813993394904571</v>
       </c>
-      <c r="CD52" s="29">
+      <c r="CD52" s="17">
         <v>58.234270254513234</v>
       </c>
-      <c r="CE52" s="29">
+      <c r="CE52" s="17">
         <v>-27.821225856037643</v>
       </c>
-      <c r="CF52" s="29">
+      <c r="CF52" s="17">
         <v>14.835762658896655</v>
       </c>
-      <c r="CG52" s="29">
+      <c r="CG52" s="17">
         <v>24.240731323768074</v>
       </c>
-      <c r="CH52" s="29">
+      <c r="CH52" s="17">
         <v>16.116702145252717</v>
       </c>
-      <c r="CI52" s="42"/>
-      <c r="CJ52" s="42"/>
-      <c r="CK52" s="42"/>
-      <c r="CL52" s="42"/>
-      <c r="CM52" s="10"/>
+      <c r="CI52" s="17">
+        <v>11.218769628586884</v>
+      </c>
+      <c r="CJ52" s="17"/>
+      <c r="CK52" s="17"/>
+      <c r="CL52" s="17"/>
+      <c r="CM52" s="12"/>
       <c r="CN52" s="10"/>
       <c r="CO52" s="10"/>
       <c r="CP52" s="10"/>
@@ -31189,7 +31131,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -31421,38 +31363,40 @@
       <c r="BY53" s="17">
         <v>4.5583071772732069</v>
       </c>
-      <c r="BZ53" s="29">
+      <c r="BZ53" s="17">
         <v>-1.4472286995214318</v>
       </c>
-      <c r="CA53" s="29">
+      <c r="CA53" s="17">
         <v>-34.908656021456579</v>
       </c>
-      <c r="CB53" s="29">
+      <c r="CB53" s="17">
         <v>-10.603935241998769</v>
       </c>
-      <c r="CC53" s="29">
+      <c r="CC53" s="17">
         <v>-13.102645810664583</v>
       </c>
-      <c r="CD53" s="29">
+      <c r="CD53" s="17">
         <v>1.3641969075135876</v>
       </c>
-      <c r="CE53" s="29">
+      <c r="CE53" s="17">
         <v>51.505866870322848</v>
       </c>
-      <c r="CF53" s="29">
+      <c r="CF53" s="17">
         <v>23.993317603247604</v>
       </c>
-      <c r="CG53" s="29">
+      <c r="CG53" s="17">
         <v>13.397260839914253</v>
       </c>
-      <c r="CH53" s="29">
-        <v>-2.144275705228182</v>
-      </c>
-      <c r="CI53" s="42"/>
-      <c r="CJ53" s="42"/>
-      <c r="CK53" s="42"/>
-      <c r="CL53" s="42"/>
-      <c r="CM53" s="10"/>
+      <c r="CH53" s="17">
+        <v>-1.8801122456893751</v>
+      </c>
+      <c r="CI53" s="17">
+        <v>1.9671229095234111</v>
+      </c>
+      <c r="CJ53" s="17"/>
+      <c r="CK53" s="17"/>
+      <c r="CL53" s="17"/>
+      <c r="CM53" s="12"/>
       <c r="CN53" s="10"/>
       <c r="CO53" s="10"/>
       <c r="CP53" s="10"/>
@@ -31514,7 +31458,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -31746,38 +31690,40 @@
       <c r="BY54" s="17">
         <v>31.969260889758857</v>
       </c>
-      <c r="BZ54" s="29">
+      <c r="BZ54" s="17">
         <v>-2.6133214286663531</v>
       </c>
-      <c r="CA54" s="29">
+      <c r="CA54" s="17">
         <v>36.357693206024834</v>
       </c>
-      <c r="CB54" s="29">
+      <c r="CB54" s="17">
         <v>5.9755189459989992</v>
       </c>
-      <c r="CC54" s="29">
+      <c r="CC54" s="17">
         <v>15.603364359036817</v>
       </c>
-      <c r="CD54" s="29">
+      <c r="CD54" s="17">
         <v>41.480291084679266</v>
       </c>
-      <c r="CE54" s="29">
+      <c r="CE54" s="17">
         <v>-42.888536125428246</v>
       </c>
-      <c r="CF54" s="29">
+      <c r="CF54" s="17">
         <v>23.660844375776662</v>
       </c>
-      <c r="CG54" s="29">
+      <c r="CG54" s="17">
         <v>10.593130896377218</v>
       </c>
-      <c r="CH54" s="29">
+      <c r="CH54" s="17">
         <v>3.9734105555869945</v>
       </c>
-      <c r="CI54" s="42"/>
-      <c r="CJ54" s="42"/>
-      <c r="CK54" s="42"/>
-      <c r="CL54" s="42"/>
-      <c r="CM54" s="10"/>
+      <c r="CI54" s="17">
+        <v>10.815535670947796</v>
+      </c>
+      <c r="CJ54" s="17"/>
+      <c r="CK54" s="17"/>
+      <c r="CL54" s="17"/>
+      <c r="CM54" s="12"/>
       <c r="CN54" s="10"/>
       <c r="CO54" s="10"/>
       <c r="CP54" s="10"/>
@@ -31839,7 +31785,7 @@
       <c r="ET54" s="10"/>
       <c r="EU54" s="10"/>
     </row>
-    <row r="55" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -31916,20 +31862,20 @@
       <c r="BW55" s="12"/>
       <c r="BX55" s="12"/>
       <c r="BY55" s="12"/>
-      <c r="BZ55" s="25"/>
-      <c r="CA55" s="25"/>
-      <c r="CB55" s="25"/>
-      <c r="CC55" s="25"/>
-      <c r="CD55" s="25"/>
-      <c r="CE55" s="25"/>
-      <c r="CF55" s="25"/>
-      <c r="CG55" s="25"/>
-      <c r="CH55" s="25"/>
-      <c r="CI55" s="42"/>
-      <c r="CJ55" s="42"/>
-      <c r="CK55" s="42"/>
-      <c r="CL55" s="42"/>
-      <c r="CM55" s="10"/>
+      <c r="BZ55" s="12"/>
+      <c r="CA55" s="12"/>
+      <c r="CB55" s="12"/>
+      <c r="CC55" s="12"/>
+      <c r="CD55" s="12"/>
+      <c r="CE55" s="12"/>
+      <c r="CF55" s="12"/>
+      <c r="CG55" s="12"/>
+      <c r="CH55" s="12"/>
+      <c r="CI55" s="12"/>
+      <c r="CJ55" s="12"/>
+      <c r="CK55" s="12"/>
+      <c r="CL55" s="12"/>
+      <c r="CM55" s="12"/>
       <c r="CN55" s="10"/>
       <c r="CO55" s="10"/>
       <c r="CP55" s="10"/>
@@ -31991,7 +31937,7 @@
       <c r="ET55" s="10"/>
       <c r="EU55" s="10"/>
     </row>
-    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>11</v>
       </c>
@@ -32223,38 +32169,40 @@
       <c r="BY56" s="17">
         <v>10.246642274407833</v>
       </c>
-      <c r="BZ56" s="29">
+      <c r="BZ56" s="17">
         <v>6.7366357598813948</v>
       </c>
-      <c r="CA56" s="29">
+      <c r="CA56" s="17">
         <v>-13.348211522578396</v>
       </c>
-      <c r="CB56" s="29">
+      <c r="CB56" s="17">
         <v>-0.90711755444149844</v>
       </c>
-      <c r="CC56" s="29">
+      <c r="CC56" s="17">
         <v>2.9893953450075514</v>
       </c>
-      <c r="CD56" s="29">
+      <c r="CD56" s="17">
         <v>18.52345554455988</v>
       </c>
-      <c r="CE56" s="29">
+      <c r="CE56" s="17">
         <v>17.381088113318071</v>
       </c>
-      <c r="CF56" s="29">
+      <c r="CF56" s="17">
         <v>21.562566171917737</v>
       </c>
-      <c r="CG56" s="29">
+      <c r="CG56" s="17">
         <v>17.051886065385659</v>
       </c>
-      <c r="CH56" s="29">
-        <v>4.6815514281362169</v>
-      </c>
-      <c r="CI56" s="42"/>
-      <c r="CJ56" s="42"/>
-      <c r="CK56" s="42"/>
-      <c r="CL56" s="42"/>
-      <c r="CM56" s="10"/>
+      <c r="CH56" s="17">
+        <v>4.8357390884744973</v>
+      </c>
+      <c r="CI56" s="17">
+        <v>4.2057459003794975</v>
+      </c>
+      <c r="CJ56" s="17"/>
+      <c r="CK56" s="17"/>
+      <c r="CL56" s="17"/>
+      <c r="CM56" s="12"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
@@ -32316,7 +32264,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -32394,21 +32342,22 @@
       <c r="BW57" s="15"/>
       <c r="BX57" s="15"/>
       <c r="BY57" s="15"/>
-      <c r="BZ57" s="27"/>
-      <c r="CA57" s="27"/>
-      <c r="CB57" s="27"/>
-      <c r="CC57" s="27"/>
-      <c r="CD57" s="27"/>
-      <c r="CE57" s="27"/>
-      <c r="CF57" s="27"/>
-      <c r="CG57" s="27"/>
-      <c r="CH57" s="27"/>
-      <c r="CI57" s="43"/>
-      <c r="CJ57" s="43"/>
-      <c r="CK57" s="43"/>
-      <c r="CL57" s="43"/>
+      <c r="BZ57" s="15"/>
+      <c r="CA57" s="15"/>
+      <c r="CB57" s="15"/>
+      <c r="CC57" s="15"/>
+      <c r="CD57" s="15"/>
+      <c r="CE57" s="15"/>
+      <c r="CF57" s="15"/>
+      <c r="CG57" s="15"/>
+      <c r="CH57" s="15"/>
+      <c r="CI57" s="15"/>
+      <c r="CJ57" s="15"/>
+      <c r="CK57" s="15"/>
+      <c r="CL57" s="15"/>
+      <c r="CM57" s="15"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>0</v>
       </c>
@@ -32488,21 +32437,22 @@
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" s="1"/>
-      <c r="BZ58" s="22"/>
-      <c r="CA58" s="22"/>
-      <c r="CB58" s="22"/>
-      <c r="CC58" s="22"/>
-      <c r="CD58" s="22"/>
-      <c r="CE58" s="22"/>
-      <c r="CF58" s="22"/>
-      <c r="CG58" s="22"/>
-      <c r="CH58" s="22"/>
-      <c r="CI58" s="39"/>
-      <c r="CJ58" s="39"/>
-      <c r="CK58" s="39"/>
-      <c r="CL58" s="39"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
     </row>
-    <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -32579,20 +32529,20 @@
       <c r="BW59" s="12"/>
       <c r="BX59" s="12"/>
       <c r="BY59" s="12"/>
-      <c r="BZ59" s="25"/>
-      <c r="CA59" s="25"/>
-      <c r="CB59" s="25"/>
-      <c r="CC59" s="25"/>
-      <c r="CD59" s="25"/>
-      <c r="CE59" s="25"/>
-      <c r="CF59" s="25"/>
-      <c r="CG59" s="25"/>
-      <c r="CH59" s="25"/>
-      <c r="CI59" s="42"/>
-      <c r="CJ59" s="42"/>
-      <c r="CK59" s="42"/>
-      <c r="CL59" s="42"/>
-      <c r="CM59" s="10"/>
+      <c r="BZ59" s="12"/>
+      <c r="CA59" s="12"/>
+      <c r="CB59" s="12"/>
+      <c r="CC59" s="12"/>
+      <c r="CD59" s="12"/>
+      <c r="CE59" s="12"/>
+      <c r="CF59" s="12"/>
+      <c r="CG59" s="12"/>
+      <c r="CH59" s="12"/>
+      <c r="CI59" s="12"/>
+      <c r="CJ59" s="12"/>
+      <c r="CK59" s="12"/>
+      <c r="CL59" s="12"/>
+      <c r="CM59" s="12"/>
       <c r="CN59" s="10"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="10"/>
@@ -32654,7 +32604,7 @@
       <c r="ET59" s="10"/>
       <c r="EU59" s="10"/>
     </row>
-    <row r="60" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -32731,20 +32681,20 @@
       <c r="BW60" s="12"/>
       <c r="BX60" s="12"/>
       <c r="BY60" s="12"/>
-      <c r="BZ60" s="25"/>
-      <c r="CA60" s="25"/>
-      <c r="CB60" s="25"/>
-      <c r="CC60" s="25"/>
-      <c r="CD60" s="25"/>
-      <c r="CE60" s="25"/>
-      <c r="CF60" s="25"/>
-      <c r="CG60" s="25"/>
-      <c r="CH60" s="25"/>
-      <c r="CI60" s="25"/>
-      <c r="CJ60" s="25"/>
-      <c r="CK60" s="25"/>
-      <c r="CL60" s="25"/>
-      <c r="CM60" s="10"/>
+      <c r="BZ60" s="12"/>
+      <c r="CA60" s="12"/>
+      <c r="CB60" s="12"/>
+      <c r="CC60" s="12"/>
+      <c r="CD60" s="12"/>
+      <c r="CE60" s="12"/>
+      <c r="CF60" s="12"/>
+      <c r="CG60" s="12"/>
+      <c r="CH60" s="12"/>
+      <c r="CI60" s="12"/>
+      <c r="CJ60" s="12"/>
+      <c r="CK60" s="12"/>
+      <c r="CL60" s="12"/>
+      <c r="CM60" s="12"/>
       <c r="CN60" s="10"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="10"/>
@@ -32806,7 +32756,7 @@
       <c r="ET60" s="10"/>
       <c r="EU60" s="10"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -32886,21 +32836,22 @@
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
-      <c r="BZ61" s="22"/>
-      <c r="CA61" s="22"/>
-      <c r="CB61" s="22"/>
-      <c r="CC61" s="22"/>
-      <c r="CD61" s="22"/>
-      <c r="CE61" s="22"/>
-      <c r="CF61" s="22"/>
-      <c r="CG61" s="22"/>
-      <c r="CH61" s="22"/>
-      <c r="CI61" s="22"/>
-      <c r="CJ61" s="22"/>
-      <c r="CK61" s="22"/>
-      <c r="CL61" s="22"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -32980,21 +32931,22 @@
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
-      <c r="BZ62" s="22"/>
-      <c r="CA62" s="22"/>
-      <c r="CB62" s="22"/>
-      <c r="CC62" s="22"/>
-      <c r="CD62" s="22"/>
-      <c r="CE62" s="22"/>
-      <c r="CF62" s="22"/>
-      <c r="CG62" s="22"/>
-      <c r="CH62" s="22"/>
-      <c r="CI62" s="22"/>
-      <c r="CJ62" s="22"/>
-      <c r="CK62" s="22"/>
-      <c r="CL62" s="22"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
@@ -33074,21 +33026,22 @@
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
-      <c r="BZ63" s="22"/>
-      <c r="CA63" s="22"/>
-      <c r="CB63" s="22"/>
-      <c r="CC63" s="22"/>
-      <c r="CD63" s="22"/>
-      <c r="CE63" s="22"/>
-      <c r="CF63" s="22"/>
-      <c r="CG63" s="22"/>
-      <c r="CH63" s="22"/>
-      <c r="CI63" s="22"/>
-      <c r="CJ63" s="22"/>
-      <c r="CK63" s="22"/>
-      <c r="CL63" s="22"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -33166,21 +33119,22 @@
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
-      <c r="BZ64" s="22"/>
-      <c r="CA64" s="22"/>
-      <c r="CB64" s="22"/>
-      <c r="CC64" s="22"/>
-      <c r="CD64" s="22"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="22"/>
-      <c r="CG64" s="22"/>
-      <c r="CH64" s="22"/>
-      <c r="CI64" s="22"/>
-      <c r="CJ64" s="22"/>
-      <c r="CK64" s="22"/>
-      <c r="CL64" s="22"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
     </row>
-    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -33260,21 +33214,22 @@
       <c r="BW65" s="1"/>
       <c r="BX65" s="1"/>
       <c r="BY65" s="1"/>
-      <c r="BZ65" s="22"/>
-      <c r="CA65" s="22"/>
-      <c r="CB65" s="22"/>
-      <c r="CC65" s="22"/>
-      <c r="CD65" s="22"/>
-      <c r="CE65" s="22"/>
-      <c r="CF65" s="22"/>
-      <c r="CG65" s="22"/>
-      <c r="CH65" s="22"/>
-      <c r="CI65" s="22"/>
-      <c r="CJ65" s="22"/>
-      <c r="CK65" s="22"/>
-      <c r="CL65" s="22"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
     </row>
-    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>51</v>
       </c>
@@ -33354,21 +33309,22 @@
       <c r="BW66" s="1"/>
       <c r="BX66" s="1"/>
       <c r="BY66" s="1"/>
-      <c r="BZ66" s="22"/>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="22"/>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22"/>
-      <c r="CI66" s="22"/>
-      <c r="CJ66" s="22"/>
-      <c r="CK66" s="22"/>
-      <c r="CL66" s="22"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
     </row>
-    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -33448,21 +33404,22 @@
       <c r="BW67" s="1"/>
       <c r="BX67" s="1"/>
       <c r="BY67" s="1"/>
-      <c r="BZ67" s="22"/>
-      <c r="CA67" s="22"/>
-      <c r="CB67" s="22"/>
-      <c r="CC67" s="22"/>
-      <c r="CD67" s="22"/>
-      <c r="CE67" s="22"/>
-      <c r="CF67" s="22"/>
-      <c r="CG67" s="22"/>
-      <c r="CH67" s="22"/>
-      <c r="CI67" s="22"/>
-      <c r="CJ67" s="22"/>
-      <c r="CK67" s="22"/>
-      <c r="CL67" s="22"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
     </row>
-    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -33540,157 +33497,159 @@
       <c r="BW68" s="1"/>
       <c r="BX68" s="1"/>
       <c r="BY68" s="1"/>
-      <c r="BZ68" s="22"/>
-      <c r="CA68" s="22"/>
-      <c r="CB68" s="22"/>
-      <c r="CC68" s="22"/>
-      <c r="CD68" s="22"/>
-      <c r="CE68" s="22"/>
-      <c r="CF68" s="22"/>
-      <c r="CG68" s="22"/>
-      <c r="CH68" s="22"/>
-      <c r="CI68" s="39"/>
-      <c r="CJ68" s="39"/>
-      <c r="CK68" s="39"/>
-      <c r="CL68" s="39"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
     </row>
-    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="35" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="35" t="s">
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="35" t="s">
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="35" t="s">
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="35" t="s">
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="35" t="s">
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="35" t="s">
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="35" t="s">
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="35" t="s">
+      <c r="AI69" s="26"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="35" t="s">
+      <c r="AM69" s="26"/>
+      <c r="AN69" s="26"/>
+      <c r="AO69" s="26"/>
+      <c r="AP69" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="35" t="s">
+      <c r="AQ69" s="26"/>
+      <c r="AR69" s="26"/>
+      <c r="AS69" s="26"/>
+      <c r="AT69" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="38"/>
-      <c r="AX69" s="35" t="s">
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="26"/>
+      <c r="AW69" s="26"/>
+      <c r="AX69" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="35" t="s">
+      <c r="AY69" s="26"/>
+      <c r="AZ69" s="26"/>
+      <c r="BA69" s="26"/>
+      <c r="BB69" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="38"/>
-      <c r="BE69" s="38"/>
-      <c r="BF69" s="35" t="s">
+      <c r="BC69" s="26"/>
+      <c r="BD69" s="26"/>
+      <c r="BE69" s="26"/>
+      <c r="BF69" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="38"/>
-      <c r="BH69" s="38"/>
-      <c r="BI69" s="38"/>
-      <c r="BJ69" s="35" t="s">
+      <c r="BG69" s="26"/>
+      <c r="BH69" s="26"/>
+      <c r="BI69" s="26"/>
+      <c r="BJ69" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="38"/>
-      <c r="BL69" s="38"/>
-      <c r="BM69" s="38"/>
-      <c r="BN69" s="35" t="s">
+      <c r="BK69" s="26"/>
+      <c r="BL69" s="26"/>
+      <c r="BM69" s="26"/>
+      <c r="BN69" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="38"/>
-      <c r="BP69" s="38"/>
-      <c r="BQ69" s="38"/>
-      <c r="BR69" s="35" t="s">
+      <c r="BO69" s="26"/>
+      <c r="BP69" s="26"/>
+      <c r="BQ69" s="26"/>
+      <c r="BR69" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="38"/>
-      <c r="BT69" s="38"/>
-      <c r="BU69" s="38"/>
-      <c r="BV69" s="35" t="s">
+      <c r="BS69" s="26"/>
+      <c r="BT69" s="26"/>
+      <c r="BU69" s="26"/>
+      <c r="BV69" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="38"/>
-      <c r="BX69" s="38"/>
-      <c r="BY69" s="38"/>
-      <c r="BZ69" s="34" t="s">
+      <c r="BW69" s="26"/>
+      <c r="BX69" s="26"/>
+      <c r="BY69" s="26"/>
+      <c r="BZ69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="34"/>
-      <c r="CB69" s="34"/>
-      <c r="CC69" s="34"/>
-      <c r="CD69" s="34" t="s">
+      <c r="CA69" s="26"/>
+      <c r="CB69" s="26"/>
+      <c r="CC69" s="26"/>
+      <c r="CD69" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="34"/>
-      <c r="CF69" s="34"/>
-      <c r="CG69" s="34"/>
-      <c r="CH69" s="32" t="s">
+      <c r="CE69" s="26"/>
+      <c r="CF69" s="26"/>
+      <c r="CG69" s="26"/>
+      <c r="CH69" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="40"/>
-      <c r="CJ69" s="40"/>
-      <c r="CK69" s="40"/>
-      <c r="CL69" s="41"/>
+      <c r="CI69" s="25"/>
+      <c r="CJ69" s="23"/>
+      <c r="CK69" s="23"/>
+      <c r="CL69" s="21"/>
+      <c r="CM69" s="21"/>
     </row>
-    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>4</v>
       </c>
@@ -33922,39 +33881,42 @@
       <c r="BY70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ70" s="31" t="s">
+      <c r="BZ70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA70" s="31" t="s">
+      <c r="CA70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB70" s="31" t="s">
+      <c r="CB70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC70" s="31" t="s">
+      <c r="CC70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD70" s="31" t="s">
+      <c r="CD70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE70" s="31" t="s">
+      <c r="CE70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF70" s="31" t="s">
+      <c r="CF70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG70" s="31" t="s">
+      <c r="CG70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH70" s="31" t="s">
+      <c r="CH70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI70" s="40"/>
-      <c r="CJ70" s="40"/>
-      <c r="CK70" s="40"/>
-      <c r="CL70" s="40"/>
+      <c r="CI70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ70" s="6"/>
+      <c r="CK70" s="6"/>
+      <c r="CL70" s="6"/>
+      <c r="CM70" s="24"/>
     </row>
-    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -34032,21 +33994,22 @@
       <c r="BW71" s="1"/>
       <c r="BX71" s="1"/>
       <c r="BY71" s="1"/>
-      <c r="BZ71" s="22"/>
-      <c r="CA71" s="22"/>
-      <c r="CB71" s="22"/>
-      <c r="CC71" s="22"/>
-      <c r="CD71" s="22"/>
-      <c r="CE71" s="22"/>
-      <c r="CF71" s="22"/>
-      <c r="CG71" s="22"/>
-      <c r="CH71" s="22"/>
-      <c r="CI71" s="39"/>
-      <c r="CJ71" s="39"/>
-      <c r="CK71" s="39"/>
-      <c r="CL71" s="39"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
     </row>
-    <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -34278,38 +34241,40 @@
       <c r="BY72" s="17">
         <v>26.104630297385327</v>
       </c>
-      <c r="BZ72" s="29">
+      <c r="BZ72" s="17">
         <v>31.021323279925554</v>
       </c>
-      <c r="CA72" s="29">
+      <c r="CA72" s="17">
         <v>64.330089745256828</v>
       </c>
-      <c r="CB72" s="29">
+      <c r="CB72" s="17">
         <v>27.797159181008425</v>
       </c>
-      <c r="CC72" s="29">
+      <c r="CC72" s="17">
         <v>34.352606907620498</v>
       </c>
-      <c r="CD72" s="29">
+      <c r="CD72" s="17">
         <v>47.991928552940323</v>
       </c>
-      <c r="CE72" s="29">
+      <c r="CE72" s="17">
         <v>-28.058982780720186</v>
       </c>
-      <c r="CF72" s="29">
+      <c r="CF72" s="17">
         <v>11.833448987179111</v>
       </c>
-      <c r="CG72" s="29">
+      <c r="CG72" s="17">
         <v>21.21030576438379</v>
       </c>
-      <c r="CH72" s="29">
+      <c r="CH72" s="17">
         <v>11.588422938164584</v>
       </c>
-      <c r="CI72" s="42"/>
-      <c r="CJ72" s="42"/>
-      <c r="CK72" s="42"/>
-      <c r="CL72" s="42"/>
-      <c r="CM72" s="10"/>
+      <c r="CI72" s="17">
+        <v>5.594371598837995</v>
+      </c>
+      <c r="CJ72" s="17"/>
+      <c r="CK72" s="17"/>
+      <c r="CL72" s="17"/>
+      <c r="CM72" s="12"/>
       <c r="CN72" s="10"/>
       <c r="CO72" s="10"/>
       <c r="CP72" s="10"/>
@@ -34371,7 +34336,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -34603,38 +34568,40 @@
       <c r="BY73" s="17">
         <v>3.3483715823308557</v>
       </c>
-      <c r="BZ73" s="29">
+      <c r="BZ73" s="17">
         <v>-4.9298769514278433</v>
       </c>
-      <c r="CA73" s="29">
+      <c r="CA73" s="17">
         <v>-37.450052375468537</v>
       </c>
-      <c r="CB73" s="29">
+      <c r="CB73" s="17">
         <v>-14.112148569855265</v>
       </c>
-      <c r="CC73" s="29">
+      <c r="CC73" s="17">
         <v>-16.238540296596383</v>
       </c>
-      <c r="CD73" s="29">
+      <c r="CD73" s="17">
         <v>-2.0405406657607017</v>
       </c>
-      <c r="CE73" s="29">
+      <c r="CE73" s="17">
         <v>46.680589386928517</v>
       </c>
-      <c r="CF73" s="29">
+      <c r="CF73" s="17">
         <v>18.214510593271413</v>
       </c>
-      <c r="CG73" s="29">
+      <c r="CG73" s="17">
         <v>9.9634878822694191</v>
       </c>
-      <c r="CH73" s="29">
-        <v>-4.6135795151356263</v>
-      </c>
-      <c r="CI73" s="42"/>
-      <c r="CJ73" s="42"/>
-      <c r="CK73" s="42"/>
-      <c r="CL73" s="42"/>
-      <c r="CM73" s="10"/>
+      <c r="CH73" s="17">
+        <v>-4.3560819899790602</v>
+      </c>
+      <c r="CI73" s="17">
+        <v>0.24230715094294908</v>
+      </c>
+      <c r="CJ73" s="17"/>
+      <c r="CK73" s="17"/>
+      <c r="CL73" s="17"/>
+      <c r="CM73" s="12"/>
       <c r="CN73" s="10"/>
       <c r="CO73" s="10"/>
       <c r="CP73" s="10"/>
@@ -34696,7 +34663,7 @@
       <c r="ET73" s="10"/>
       <c r="EU73" s="10"/>
     </row>
-    <row r="74" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -34928,38 +34895,40 @@
       <c r="BY74" s="17">
         <v>24.024716720601162</v>
       </c>
-      <c r="BZ74" s="29">
+      <c r="BZ74" s="17">
         <v>-7.8356576959604354</v>
       </c>
-      <c r="CA74" s="29">
+      <c r="CA74" s="17">
         <v>30.438100137229583</v>
       </c>
-      <c r="CB74" s="29">
+      <c r="CB74" s="17">
         <v>3.9508346738416549</v>
       </c>
-      <c r="CC74" s="29">
+      <c r="CC74" s="17">
         <v>13.366469995043317</v>
       </c>
-      <c r="CD74" s="29">
+      <c r="CD74" s="17">
         <v>36.427137148521695</v>
       </c>
-      <c r="CE74" s="29">
+      <c r="CE74" s="17">
         <v>-43.215992874910448</v>
       </c>
-      <c r="CF74" s="29">
+      <c r="CF74" s="17">
         <v>12.920368560486665</v>
       </c>
-      <c r="CG74" s="29">
+      <c r="CG74" s="17">
         <v>5.4875955595897352</v>
       </c>
-      <c r="CH74" s="29">
+      <c r="CH74" s="17">
         <v>0.22949100503740283</v>
       </c>
-      <c r="CI74" s="42"/>
-      <c r="CJ74" s="42"/>
-      <c r="CK74" s="42"/>
-      <c r="CL74" s="42"/>
-      <c r="CM74" s="10"/>
+      <c r="CI74" s="17">
+        <v>9.7066411346224015</v>
+      </c>
+      <c r="CJ74" s="17"/>
+      <c r="CK74" s="17"/>
+      <c r="CL74" s="17"/>
+      <c r="CM74" s="12"/>
       <c r="CN74" s="10"/>
       <c r="CO74" s="10"/>
       <c r="CP74" s="10"/>
@@ -35021,7 +34990,7 @@
       <c r="ET74" s="10"/>
       <c r="EU74" s="10"/>
     </row>
-    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -35098,20 +35067,20 @@
       <c r="BW75" s="12"/>
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
-      <c r="BZ75" s="25"/>
-      <c r="CA75" s="25"/>
-      <c r="CB75" s="25"/>
-      <c r="CC75" s="25"/>
-      <c r="CD75" s="25"/>
-      <c r="CE75" s="25"/>
-      <c r="CF75" s="25"/>
-      <c r="CG75" s="25"/>
-      <c r="CH75" s="25"/>
-      <c r="CI75" s="42"/>
-      <c r="CJ75" s="42"/>
-      <c r="CK75" s="42"/>
-      <c r="CL75" s="42"/>
-      <c r="CM75" s="10"/>
+      <c r="BZ75" s="12"/>
+      <c r="CA75" s="12"/>
+      <c r="CB75" s="12"/>
+      <c r="CC75" s="12"/>
+      <c r="CD75" s="12"/>
+      <c r="CE75" s="12"/>
+      <c r="CF75" s="12"/>
+      <c r="CG75" s="12"/>
+      <c r="CH75" s="12"/>
+      <c r="CI75" s="12"/>
+      <c r="CJ75" s="12"/>
+      <c r="CK75" s="12"/>
+      <c r="CL75" s="12"/>
+      <c r="CM75" s="12"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
       <c r="CP75" s="10"/>
@@ -35173,7 +35142,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>11</v>
       </c>
@@ -35405,38 +35374,40 @@
       <c r="BY76" s="17">
         <v>9.8311643731815508</v>
       </c>
-      <c r="BZ76" s="29">
+      <c r="BZ76" s="17">
         <v>2.1921443703339918</v>
       </c>
-      <c r="CA76" s="29">
+      <c r="CA76" s="17">
         <v>-16.30458039189557</v>
       </c>
-      <c r="CB76" s="29">
+      <c r="CB76" s="17">
         <v>-4.1588958988473053</v>
       </c>
-      <c r="CC76" s="29">
+      <c r="CC76" s="17">
         <v>-0.87949155385388167</v>
       </c>
-      <c r="CD76" s="29">
+      <c r="CD76" s="17">
         <v>12.959857270022383</v>
       </c>
-      <c r="CE76" s="29">
+      <c r="CE76" s="17">
         <v>14.016210449625177</v>
       </c>
-      <c r="CF76" s="29">
+      <c r="CF76" s="17">
         <v>16.071070329897054</v>
       </c>
-      <c r="CG76" s="29">
+      <c r="CG76" s="17">
         <v>13.617404537688088</v>
       </c>
-      <c r="CH76" s="29">
-        <v>1.2075238019730818</v>
-      </c>
-      <c r="CI76" s="42"/>
-      <c r="CJ76" s="42"/>
-      <c r="CK76" s="42"/>
-      <c r="CL76" s="42"/>
-      <c r="CM76" s="10"/>
+      <c r="CH76" s="17">
+        <v>1.3612014928882701</v>
+      </c>
+      <c r="CI76" s="17">
+        <v>1.7705703976492515</v>
+      </c>
+      <c r="CJ76" s="17"/>
+      <c r="CK76" s="17"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="12"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
       <c r="CP76" s="10"/>
@@ -35498,7 +35469,7 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -35576,21 +35547,22 @@
       <c r="BW77" s="15"/>
       <c r="BX77" s="15"/>
       <c r="BY77" s="15"/>
-      <c r="BZ77" s="27"/>
-      <c r="CA77" s="27"/>
-      <c r="CB77" s="27"/>
-      <c r="CC77" s="27"/>
-      <c r="CD77" s="27"/>
-      <c r="CE77" s="27"/>
-      <c r="CF77" s="27"/>
-      <c r="CG77" s="27"/>
-      <c r="CH77" s="27"/>
-      <c r="CI77" s="43"/>
-      <c r="CJ77" s="43"/>
-      <c r="CK77" s="43"/>
-      <c r="CL77" s="43"/>
+      <c r="BZ77" s="15"/>
+      <c r="CA77" s="15"/>
+      <c r="CB77" s="15"/>
+      <c r="CC77" s="15"/>
+      <c r="CD77" s="15"/>
+      <c r="CE77" s="15"/>
+      <c r="CF77" s="15"/>
+      <c r="CG77" s="15"/>
+      <c r="CH77" s="15"/>
+      <c r="CI77" s="15"/>
+      <c r="CJ77" s="15"/>
+      <c r="CK77" s="15"/>
+      <c r="CL77" s="15"/>
+      <c r="CM77" s="15"/>
     </row>
-    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>0</v>
       </c>
@@ -35670,21 +35642,22 @@
       <c r="BW78" s="1"/>
       <c r="BX78" s="1"/>
       <c r="BY78" s="1"/>
-      <c r="BZ78" s="22"/>
-      <c r="CA78" s="22"/>
-      <c r="CB78" s="22"/>
-      <c r="CC78" s="22"/>
-      <c r="CD78" s="22"/>
-      <c r="CE78" s="22"/>
-      <c r="CF78" s="22"/>
-      <c r="CG78" s="22"/>
-      <c r="CH78" s="22"/>
-      <c r="CI78" s="39"/>
-      <c r="CJ78" s="39"/>
-      <c r="CK78" s="39"/>
-      <c r="CL78" s="39"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
     </row>
-    <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -35761,20 +35734,20 @@
       <c r="BW79" s="12"/>
       <c r="BX79" s="12"/>
       <c r="BY79" s="12"/>
-      <c r="BZ79" s="25"/>
-      <c r="CA79" s="25"/>
-      <c r="CB79" s="25"/>
-      <c r="CC79" s="25"/>
-      <c r="CD79" s="25"/>
-      <c r="CE79" s="25"/>
-      <c r="CF79" s="25"/>
-      <c r="CG79" s="25"/>
-      <c r="CH79" s="25"/>
-      <c r="CI79" s="42"/>
-      <c r="CJ79" s="42"/>
-      <c r="CK79" s="42"/>
-      <c r="CL79" s="42"/>
-      <c r="CM79" s="10"/>
+      <c r="BZ79" s="12"/>
+      <c r="CA79" s="12"/>
+      <c r="CB79" s="12"/>
+      <c r="CC79" s="12"/>
+      <c r="CD79" s="12"/>
+      <c r="CE79" s="12"/>
+      <c r="CF79" s="12"/>
+      <c r="CG79" s="12"/>
+      <c r="CH79" s="12"/>
+      <c r="CI79" s="12"/>
+      <c r="CJ79" s="12"/>
+      <c r="CK79" s="12"/>
+      <c r="CL79" s="12"/>
+      <c r="CM79" s="12"/>
       <c r="CN79" s="10"/>
       <c r="CO79" s="10"/>
       <c r="CP79" s="10"/>
@@ -35836,7 +35809,7 @@
       <c r="ET79" s="10"/>
       <c r="EU79" s="10"/>
     </row>
-    <row r="80" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -35913,19 +35886,19 @@
       <c r="BW80" s="12"/>
       <c r="BX80" s="12"/>
       <c r="BY80" s="12"/>
-      <c r="BZ80" s="25"/>
-      <c r="CA80" s="28"/>
-      <c r="CB80" s="28"/>
-      <c r="CC80" s="28"/>
-      <c r="CD80" s="28"/>
-      <c r="CE80" s="28"/>
-      <c r="CF80" s="28"/>
-      <c r="CG80" s="28"/>
-      <c r="CH80" s="28"/>
-      <c r="CI80" s="28"/>
-      <c r="CJ80" s="28"/>
-      <c r="CK80" s="28"/>
-      <c r="CL80" s="28"/>
+      <c r="BZ80" s="12"/>
+      <c r="CA80" s="12"/>
+      <c r="CB80" s="12"/>
+      <c r="CC80" s="12"/>
+      <c r="CD80" s="12"/>
+      <c r="CE80" s="12"/>
+      <c r="CF80" s="12"/>
+      <c r="CG80" s="12"/>
+      <c r="CH80" s="10"/>
+      <c r="CI80" s="10"/>
+      <c r="CJ80" s="10"/>
+      <c r="CK80" s="10"/>
+      <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
@@ -35988,7 +35961,7 @@
       <c r="ET80" s="10"/>
       <c r="EU80" s="10"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -36068,21 +36041,22 @@
       <c r="BW81" s="1"/>
       <c r="BX81" s="1"/>
       <c r="BY81" s="1"/>
-      <c r="BZ81" s="22"/>
-      <c r="CA81" s="22"/>
-      <c r="CB81" s="22"/>
-      <c r="CC81" s="22"/>
-      <c r="CD81" s="22"/>
-      <c r="CE81" s="22"/>
-      <c r="CF81" s="22"/>
-      <c r="CG81" s="22"/>
-      <c r="CH81" s="22"/>
-      <c r="CI81" s="22"/>
-      <c r="CJ81" s="22"/>
-      <c r="CK81" s="22"/>
-      <c r="CL81" s="22"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
@@ -36162,21 +36136,22 @@
       <c r="BW82" s="1"/>
       <c r="BX82" s="1"/>
       <c r="BY82" s="1"/>
-      <c r="BZ82" s="22"/>
-      <c r="CA82" s="22"/>
-      <c r="CB82" s="22"/>
-      <c r="CC82" s="22"/>
-      <c r="CD82" s="22"/>
-      <c r="CE82" s="22"/>
-      <c r="CF82" s="22"/>
-      <c r="CG82" s="22"/>
-      <c r="CH82" s="22"/>
-      <c r="CI82" s="22"/>
-      <c r="CJ82" s="22"/>
-      <c r="CK82" s="22"/>
-      <c r="CL82" s="22"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -36254,21 +36229,22 @@
       <c r="BW83" s="1"/>
       <c r="BX83" s="1"/>
       <c r="BY83" s="1"/>
-      <c r="BZ83" s="22"/>
-      <c r="CA83" s="22"/>
-      <c r="CB83" s="22"/>
-      <c r="CC83" s="22"/>
-      <c r="CD83" s="22"/>
-      <c r="CE83" s="22"/>
-      <c r="CF83" s="22"/>
-      <c r="CG83" s="22"/>
-      <c r="CH83" s="22"/>
-      <c r="CI83" s="22"/>
-      <c r="CJ83" s="22"/>
-      <c r="CK83" s="22"/>
-      <c r="CL83" s="22"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -36348,21 +36324,22 @@
       <c r="BW84" s="1"/>
       <c r="BX84" s="1"/>
       <c r="BY84" s="1"/>
-      <c r="BZ84" s="22"/>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="22"/>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22"/>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>50</v>
       </c>
@@ -36442,21 +36419,22 @@
       <c r="BW85" s="1"/>
       <c r="BX85" s="1"/>
       <c r="BY85" s="1"/>
-      <c r="BZ85" s="22"/>
-      <c r="CA85" s="22"/>
-      <c r="CB85" s="22"/>
-      <c r="CC85" s="22"/>
-      <c r="CD85" s="22"/>
-      <c r="CE85" s="22"/>
-      <c r="CF85" s="22"/>
-      <c r="CG85" s="22"/>
-      <c r="CH85" s="22"/>
-      <c r="CI85" s="22"/>
-      <c r="CJ85" s="22"/>
-      <c r="CK85" s="22"/>
-      <c r="CL85" s="22"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -36536,21 +36514,22 @@
       <c r="BW86" s="1"/>
       <c r="BX86" s="1"/>
       <c r="BY86" s="1"/>
-      <c r="BZ86" s="22"/>
-      <c r="CA86" s="22"/>
-      <c r="CB86" s="22"/>
-      <c r="CC86" s="22"/>
-      <c r="CD86" s="22"/>
-      <c r="CE86" s="22"/>
-      <c r="CF86" s="22"/>
-      <c r="CG86" s="22"/>
-      <c r="CH86" s="22"/>
-      <c r="CI86" s="22"/>
-      <c r="CJ86" s="22"/>
-      <c r="CK86" s="22"/>
-      <c r="CL86" s="22"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
     </row>
-    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -36628,159 +36607,161 @@
       <c r="BW87" s="1"/>
       <c r="BX87" s="1"/>
       <c r="BY87" s="1"/>
-      <c r="BZ87" s="22"/>
-      <c r="CA87" s="22"/>
-      <c r="CB87" s="22"/>
-      <c r="CC87" s="22"/>
-      <c r="CD87" s="22"/>
-      <c r="CE87" s="22"/>
-      <c r="CF87" s="22"/>
-      <c r="CG87" s="22"/>
-      <c r="CH87" s="22"/>
-      <c r="CI87" s="22"/>
-      <c r="CJ87" s="22"/>
-      <c r="CK87" s="22"/>
-      <c r="CL87" s="22"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
     </row>
-    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="35">
+      <c r="B88" s="25">
         <v>2000</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35">
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="25">
         <v>2001</v>
       </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="35">
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="25">
         <v>2002</v>
       </c>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="35">
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="25">
         <v>2003</v>
       </c>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="35">
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="25">
         <v>2004</v>
       </c>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="35">
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="25">
         <v>2005</v>
       </c>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="35">
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="25">
         <v>2006</v>
       </c>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="36"/>
-      <c r="AC88" s="36"/>
-      <c r="AD88" s="35">
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="25">
         <v>2007</v>
       </c>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="35">
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="25">
         <v>2008</v>
       </c>
-      <c r="AI88" s="36"/>
-      <c r="AJ88" s="36"/>
-      <c r="AK88" s="36"/>
-      <c r="AL88" s="35">
+      <c r="AI88" s="27"/>
+      <c r="AJ88" s="27"/>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="25">
         <v>2009</v>
       </c>
-      <c r="AM88" s="36"/>
-      <c r="AN88" s="36"/>
-      <c r="AO88" s="36"/>
-      <c r="AP88" s="35">
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="27"/>
+      <c r="AO88" s="27"/>
+      <c r="AP88" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="36"/>
-      <c r="AR88" s="36"/>
-      <c r="AS88" s="36"/>
-      <c r="AT88" s="35">
+      <c r="AQ88" s="27"/>
+      <c r="AR88" s="27"/>
+      <c r="AS88" s="27"/>
+      <c r="AT88" s="25">
         <v>2011</v>
       </c>
-      <c r="AU88" s="36"/>
-      <c r="AV88" s="36"/>
-      <c r="AW88" s="36"/>
-      <c r="AX88" s="35">
+      <c r="AU88" s="27"/>
+      <c r="AV88" s="27"/>
+      <c r="AW88" s="27"/>
+      <c r="AX88" s="25">
         <v>2012</v>
       </c>
-      <c r="AY88" s="36"/>
-      <c r="AZ88" s="36"/>
-      <c r="BA88" s="36"/>
-      <c r="BB88" s="35">
+      <c r="AY88" s="27"/>
+      <c r="AZ88" s="27"/>
+      <c r="BA88" s="27"/>
+      <c r="BB88" s="25">
         <v>2013</v>
       </c>
-      <c r="BC88" s="36"/>
-      <c r="BD88" s="36"/>
-      <c r="BE88" s="36"/>
-      <c r="BF88" s="35">
+      <c r="BC88" s="27"/>
+      <c r="BD88" s="27"/>
+      <c r="BE88" s="27"/>
+      <c r="BF88" s="25">
         <v>2014</v>
       </c>
-      <c r="BG88" s="36"/>
-      <c r="BH88" s="36"/>
-      <c r="BI88" s="36"/>
-      <c r="BJ88" s="35">
+      <c r="BG88" s="27"/>
+      <c r="BH88" s="27"/>
+      <c r="BI88" s="27"/>
+      <c r="BJ88" s="25">
         <v>2015</v>
       </c>
-      <c r="BK88" s="36"/>
-      <c r="BL88" s="36"/>
-      <c r="BM88" s="36"/>
-      <c r="BN88" s="35">
+      <c r="BK88" s="27"/>
+      <c r="BL88" s="27"/>
+      <c r="BM88" s="27"/>
+      <c r="BN88" s="25">
         <v>2016</v>
       </c>
-      <c r="BO88" s="36"/>
-      <c r="BP88" s="36"/>
-      <c r="BQ88" s="36"/>
-      <c r="BR88" s="35">
+      <c r="BO88" s="27"/>
+      <c r="BP88" s="27"/>
+      <c r="BQ88" s="27"/>
+      <c r="BR88" s="25">
         <v>2017</v>
       </c>
-      <c r="BS88" s="36"/>
-      <c r="BT88" s="36"/>
-      <c r="BU88" s="36"/>
-      <c r="BV88" s="35">
+      <c r="BS88" s="27"/>
+      <c r="BT88" s="27"/>
+      <c r="BU88" s="27"/>
+      <c r="BV88" s="25">
         <v>2018</v>
       </c>
-      <c r="BW88" s="36"/>
-      <c r="BX88" s="36"/>
-      <c r="BY88" s="36"/>
-      <c r="BZ88" s="34">
+      <c r="BW88" s="27"/>
+      <c r="BX88" s="27"/>
+      <c r="BY88" s="27"/>
+      <c r="BZ88" s="25">
         <v>2019</v>
       </c>
-      <c r="CA88" s="37"/>
-      <c r="CB88" s="37"/>
-      <c r="CC88" s="37"/>
-      <c r="CD88" s="34">
+      <c r="CA88" s="27"/>
+      <c r="CB88" s="27"/>
+      <c r="CC88" s="27"/>
+      <c r="CD88" s="25">
         <v>2020</v>
       </c>
-      <c r="CE88" s="34"/>
-      <c r="CF88" s="34"/>
-      <c r="CG88" s="34"/>
-      <c r="CH88" s="34">
+      <c r="CE88" s="27"/>
+      <c r="CF88" s="27"/>
+      <c r="CG88" s="27"/>
+      <c r="CH88" s="25">
         <v>2021</v>
       </c>
-      <c r="CI88" s="34"/>
-      <c r="CJ88" s="34"/>
-      <c r="CK88" s="34"/>
-      <c r="CL88" s="32">
+      <c r="CI88" s="25"/>
+      <c r="CJ88" s="25"/>
+      <c r="CK88" s="25"/>
+      <c r="CL88" s="25">
         <v>2022</v>
       </c>
+      <c r="CM88" s="25"/>
     </row>
-    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>4</v>
       </c>
@@ -37012,47 +36993,50 @@
       <c r="BY89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ89" s="23" t="s">
+      <c r="BZ89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA89" s="23" t="s">
+      <c r="CA89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB89" s="23" t="s">
+      <c r="CB89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC89" s="23" t="s">
+      <c r="CC89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD89" s="23" t="s">
+      <c r="CD89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE89" s="23" t="s">
+      <c r="CE89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF89" s="23" t="s">
+      <c r="CF89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG89" s="23" t="s">
+      <c r="CG89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH89" s="23" t="s">
+      <c r="CH89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI89" s="23" t="s">
+      <c r="CI89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ89" s="23" t="s">
+      <c r="CJ89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK89" s="23" t="s">
+      <c r="CK89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="23" t="s">
+      <c r="CL89" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM89" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -37130,21 +37114,22 @@
       <c r="BW90" s="1"/>
       <c r="BX90" s="1"/>
       <c r="BY90" s="1"/>
-      <c r="BZ90" s="22"/>
-      <c r="CA90" s="22"/>
-      <c r="CB90" s="22"/>
-      <c r="CC90" s="22"/>
-      <c r="CD90" s="22"/>
-      <c r="CE90" s="22"/>
-      <c r="CF90" s="22"/>
-      <c r="CG90" s="22"/>
-      <c r="CH90" s="22"/>
-      <c r="CI90" s="22"/>
-      <c r="CJ90" s="22"/>
-      <c r="CK90" s="22"/>
-      <c r="CL90" s="22"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
     </row>
-    <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -37376,46 +37361,48 @@
       <c r="BY91" s="17">
         <v>120.0024138539016</v>
       </c>
-      <c r="BZ91" s="29">
+      <c r="BZ91" s="17">
         <v>89.653725139377073</v>
       </c>
-      <c r="CA91" s="29">
+      <c r="CA91" s="17">
         <v>94.279249466966732</v>
       </c>
-      <c r="CB91" s="29">
+      <c r="CB91" s="17">
         <v>96.259327182524117</v>
       </c>
-      <c r="CC91" s="29">
+      <c r="CC91" s="17">
         <v>115.3378763012757</v>
       </c>
-      <c r="CD91" s="29">
+      <c r="CD91" s="17">
         <v>95.374328230385302</v>
       </c>
-      <c r="CE91" s="29">
+      <c r="CE91" s="17">
         <v>98.524882111888829</v>
       </c>
-      <c r="CF91" s="29">
+      <c r="CF91" s="17">
         <v>101.07611871214046</v>
       </c>
-      <c r="CG91" s="29">
+      <c r="CG91" s="17">
         <v>120.02632063892034</v>
       </c>
-      <c r="CH91" s="29">
+      <c r="CH91" s="17">
         <v>101.97506969544523</v>
       </c>
-      <c r="CI91" s="29">
+      <c r="CI91" s="17">
         <v>98.850495703148368</v>
       </c>
-      <c r="CJ91" s="29">
+      <c r="CJ91" s="17">
         <v>103.7896379306025</v>
       </c>
-      <c r="CK91" s="29">
+      <c r="CK91" s="17">
         <v>123.02714492996768</v>
       </c>
-      <c r="CL91" s="29">
+      <c r="CL91" s="17">
         <v>106.11323721842503</v>
       </c>
-      <c r="CM91" s="10"/>
+      <c r="CM91" s="17">
+        <v>104.11568668685611</v>
+      </c>
       <c r="CN91" s="10"/>
       <c r="CO91" s="10"/>
       <c r="CP91" s="10"/>
@@ -37481,7 +37468,7 @@
       <c r="EX91" s="10"/>
       <c r="EY91" s="10"/>
     </row>
-    <row r="92" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -37713,46 +37700,48 @@
       <c r="BY92" s="17">
         <v>112.6077423259613</v>
       </c>
-      <c r="BZ92" s="29">
+      <c r="BZ92" s="17">
         <v>89.860637232947099</v>
       </c>
-      <c r="CA92" s="29">
+      <c r="CA92" s="17">
         <v>98.948747099699318</v>
       </c>
-      <c r="CB92" s="29">
+      <c r="CB92" s="17">
         <v>107.47931446307599</v>
       </c>
-      <c r="CC92" s="29">
+      <c r="CC92" s="17">
         <v>113.92608061828491</v>
       </c>
-      <c r="CD92" s="29">
+      <c r="CD92" s="17">
         <v>93.152449435763202</v>
       </c>
-      <c r="CE92" s="29">
+      <c r="CE92" s="17">
         <v>102.96902201060274</v>
       </c>
-      <c r="CF92" s="29">
+      <c r="CF92" s="17">
         <v>111.86946228013856</v>
       </c>
-      <c r="CG92" s="29">
+      <c r="CG92" s="17">
         <v>118.19129005087774</v>
       </c>
-      <c r="CH92" s="29">
+      <c r="CH92" s="17">
         <v>96.390111697192424</v>
       </c>
-      <c r="CI92" s="29">
+      <c r="CI92" s="17">
         <v>106.35634207436557</v>
       </c>
-      <c r="CJ92" s="29">
+      <c r="CJ92" s="17">
         <v>117.33809747206504</v>
       </c>
-      <c r="CK92" s="29">
+      <c r="CK92" s="17">
         <v>121.88198833102292</v>
       </c>
-      <c r="CL92" s="29">
-        <v>98.885398435508066</v>
-      </c>
-      <c r="CM92" s="10"/>
+      <c r="CL92" s="17">
+        <v>98.885398435508037</v>
+      </c>
+      <c r="CM92" s="17">
+        <v>108.18635876141775</v>
+      </c>
       <c r="CN92" s="10"/>
       <c r="CO92" s="10"/>
       <c r="CP92" s="10"/>
@@ -37818,7 +37807,7 @@
       <c r="EX92" s="10"/>
       <c r="EY92" s="10"/>
     </row>
-    <row r="93" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -38050,46 +38039,48 @@
       <c r="BY93" s="17">
         <v>114.87019521772118</v>
       </c>
-      <c r="BZ93" s="29">
+      <c r="BZ93" s="17">
         <v>91.842179024193172</v>
       </c>
-      <c r="CA93" s="29">
+      <c r="CA93" s="17">
         <v>102.59709161301799</v>
       </c>
-      <c r="CB93" s="29">
+      <c r="CB93" s="17">
         <v>106.44510627772439</v>
       </c>
-      <c r="CC93" s="29">
+      <c r="CC93" s="17">
         <v>122.2283361089663</v>
       </c>
-      <c r="CD93" s="29">
+      <c r="CD93" s="17">
         <v>97.046260455199473</v>
       </c>
-      <c r="CE93" s="29">
+      <c r="CE93" s="17">
         <v>107.25319310293555</v>
       </c>
-      <c r="CF93" s="29">
+      <c r="CF93" s="17">
         <v>108.51837229049704</v>
       </c>
-      <c r="CG93" s="29">
+      <c r="CG93" s="17">
         <v>124.64008868602376</v>
       </c>
-      <c r="CH93" s="29">
+      <c r="CH93" s="17">
         <v>100.64077766972331</v>
       </c>
-      <c r="CI93" s="29">
+      <c r="CI93" s="17">
         <v>107.87169087657288</v>
       </c>
-      <c r="CJ93" s="29">
+      <c r="CJ93" s="17">
         <v>118.84015008806411</v>
       </c>
-      <c r="CK93" s="29">
+      <c r="CK93" s="17">
         <v>130.67259301784676</v>
       </c>
-      <c r="CL93" s="29">
+      <c r="CL93" s="17">
         <v>104.40006020545181</v>
       </c>
-      <c r="CM93" s="10"/>
+      <c r="CM93" s="17">
+        <v>108.96203807342515</v>
+      </c>
       <c r="CN93" s="10"/>
       <c r="CO93" s="10"/>
       <c r="CP93" s="10"/>
@@ -38155,7 +38146,7 @@
       <c r="EX93" s="10"/>
       <c r="EY93" s="10"/>
     </row>
-    <row r="94" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -38232,20 +38223,20 @@
       <c r="BW94" s="12"/>
       <c r="BX94" s="12"/>
       <c r="BY94" s="12"/>
-      <c r="BZ94" s="25"/>
-      <c r="CA94" s="25"/>
-      <c r="CB94" s="25"/>
-      <c r="CC94" s="25"/>
-      <c r="CD94" s="25"/>
-      <c r="CE94" s="25"/>
-      <c r="CF94" s="25"/>
-      <c r="CG94" s="25"/>
-      <c r="CH94" s="25"/>
-      <c r="CI94" s="25"/>
-      <c r="CJ94" s="25"/>
-      <c r="CK94" s="25"/>
-      <c r="CL94" s="25"/>
-      <c r="CM94" s="10"/>
+      <c r="BZ94" s="12"/>
+      <c r="CA94" s="12"/>
+      <c r="CB94" s="12"/>
+      <c r="CC94" s="12"/>
+      <c r="CD94" s="12"/>
+      <c r="CE94" s="12"/>
+      <c r="CF94" s="12"/>
+      <c r="CG94" s="12"/>
+      <c r="CH94" s="12"/>
+      <c r="CI94" s="12"/>
+      <c r="CJ94" s="12"/>
+      <c r="CK94" s="12"/>
+      <c r="CL94" s="12"/>
+      <c r="CM94" s="12"/>
       <c r="CN94" s="10"/>
       <c r="CO94" s="10"/>
       <c r="CP94" s="10"/>
@@ -38311,7 +38302,7 @@
       <c r="EX94" s="10"/>
       <c r="EY94" s="10"/>
     </row>
-    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
         <v>11</v>
       </c>
@@ -38543,46 +38534,48 @@
       <c r="BY95" s="17">
         <v>114.44051138856372</v>
       </c>
-      <c r="BZ95" s="29">
+      <c r="BZ95" s="17">
         <v>89.932612177401722</v>
       </c>
-      <c r="CA95" s="29">
+      <c r="CA95" s="17">
         <v>98.327330064412081</v>
       </c>
-      <c r="CB95" s="29">
+      <c r="CB95" s="17">
         <v>105.03938406459726</v>
       </c>
-      <c r="CC95" s="29">
+      <c r="CC95" s="17">
         <v>114.87342588745247</v>
       </c>
-      <c r="CD95" s="29">
+      <c r="CD95" s="17">
         <v>93.931921363033723</v>
       </c>
-      <c r="CE95" s="29">
+      <c r="CE95" s="17">
         <v>101.80054113099899</v>
       </c>
-      <c r="CF95" s="29">
+      <c r="CF95" s="17">
         <v>108.60324946049759</v>
       </c>
-      <c r="CG95" s="29">
+      <c r="CG95" s="17">
         <v>119.35718307766867</v>
       </c>
-      <c r="CH95" s="29">
+      <c r="CH95" s="17">
         <v>98.558338997132978</v>
       </c>
-      <c r="CI95" s="29">
+      <c r="CI95" s="17">
         <v>104.80490661247489</v>
       </c>
-      <c r="CJ95" s="29">
+      <c r="CJ95" s="17">
         <v>113.74143153418044</v>
       </c>
-      <c r="CK95" s="29">
+      <c r="CK95" s="17">
         <v>122.96516939056048</v>
       </c>
-      <c r="CL95" s="29">
-        <v>101.9414312772557</v>
-      </c>
-      <c r="CM95" s="10"/>
+      <c r="CL95" s="17">
+        <v>101.93679790606865</v>
+      </c>
+      <c r="CM95" s="17">
+        <v>107.31268798926597</v>
+      </c>
       <c r="CN95" s="10"/>
       <c r="CO95" s="10"/>
       <c r="CP95" s="10"/>
@@ -38648,7 +38641,7 @@
       <c r="EX95" s="10"/>
       <c r="EY95" s="10"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -38726,21 +38719,22 @@
       <c r="BW96" s="15"/>
       <c r="BX96" s="15"/>
       <c r="BY96" s="15"/>
-      <c r="BZ96" s="27"/>
-      <c r="CA96" s="27"/>
-      <c r="CB96" s="27"/>
-      <c r="CC96" s="27"/>
-      <c r="CD96" s="27"/>
-      <c r="CE96" s="27"/>
-      <c r="CF96" s="27"/>
-      <c r="CG96" s="27"/>
-      <c r="CH96" s="27"/>
-      <c r="CI96" s="27"/>
-      <c r="CJ96" s="27"/>
-      <c r="CK96" s="27"/>
-      <c r="CL96" s="27"/>
+      <c r="BZ96" s="15"/>
+      <c r="CA96" s="15"/>
+      <c r="CB96" s="15"/>
+      <c r="CC96" s="15"/>
+      <c r="CD96" s="15"/>
+      <c r="CE96" s="15"/>
+      <c r="CF96" s="15"/>
+      <c r="CG96" s="15"/>
+      <c r="CH96" s="15"/>
+      <c r="CI96" s="15"/>
+      <c r="CJ96" s="15"/>
+      <c r="CK96" s="15"/>
+      <c r="CL96" s="15"/>
+      <c r="CM96" s="15"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>0</v>
       </c>
@@ -38820,21 +38814,22 @@
       <c r="BW97" s="1"/>
       <c r="BX97" s="1"/>
       <c r="BY97" s="1"/>
-      <c r="BZ97" s="22"/>
-      <c r="CA97" s="22"/>
-      <c r="CB97" s="22"/>
-      <c r="CC97" s="22"/>
-      <c r="CD97" s="22"/>
-      <c r="CE97" s="22"/>
-      <c r="CF97" s="22"/>
-      <c r="CG97" s="22"/>
-      <c r="CH97" s="22"/>
-      <c r="CI97" s="22"/>
-      <c r="CJ97" s="22"/>
-      <c r="CK97" s="22"/>
-      <c r="CL97" s="22"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
     </row>
-    <row r="98" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -38911,21 +38906,22 @@
       <c r="BW98" s="1"/>
       <c r="BX98" s="1"/>
       <c r="BY98" s="1"/>
-      <c r="BZ98" s="22"/>
-      <c r="CA98" s="22"/>
-      <c r="CB98" s="22"/>
-      <c r="CC98" s="22"/>
-      <c r="CD98" s="22"/>
-      <c r="CE98" s="22"/>
-      <c r="CF98" s="22"/>
-      <c r="CG98" s="22"/>
-      <c r="CH98" s="22"/>
-      <c r="CI98" s="22"/>
-      <c r="CJ98" s="22"/>
-      <c r="CK98" s="22"/>
-      <c r="CL98" s="22"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
     </row>
-    <row r="99" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -39002,21 +38998,22 @@
       <c r="BW99" s="1"/>
       <c r="BX99" s="1"/>
       <c r="BY99" s="1"/>
-      <c r="BZ99" s="22"/>
-      <c r="CA99" s="22"/>
-      <c r="CB99" s="22"/>
-      <c r="CC99" s="22"/>
-      <c r="CD99" s="22"/>
-      <c r="CE99" s="22"/>
-      <c r="CF99" s="22"/>
-      <c r="CG99" s="22"/>
-      <c r="CH99" s="22"/>
-      <c r="CI99" s="22"/>
-      <c r="CJ99" s="22"/>
-      <c r="CK99" s="22"/>
-      <c r="CL99" s="22"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -39096,21 +39093,22 @@
       <c r="BW100" s="1"/>
       <c r="BX100" s="1"/>
       <c r="BY100" s="1"/>
-      <c r="BZ100" s="22"/>
-      <c r="CA100" s="22"/>
-      <c r="CB100" s="22"/>
-      <c r="CC100" s="22"/>
-      <c r="CD100" s="22"/>
-      <c r="CE100" s="22"/>
-      <c r="CF100" s="22"/>
-      <c r="CG100" s="22"/>
-      <c r="CH100" s="22"/>
-      <c r="CI100" s="22"/>
-      <c r="CJ100" s="22"/>
-      <c r="CK100" s="22"/>
-      <c r="CL100" s="22"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -39190,21 +39188,22 @@
       <c r="BW101" s="1"/>
       <c r="BX101" s="1"/>
       <c r="BY101" s="1"/>
-      <c r="BZ101" s="22"/>
-      <c r="CA101" s="22"/>
-      <c r="CB101" s="22"/>
-      <c r="CC101" s="22"/>
-      <c r="CD101" s="22"/>
-      <c r="CE101" s="22"/>
-      <c r="CF101" s="22"/>
-      <c r="CG101" s="22"/>
-      <c r="CH101" s="22"/>
-      <c r="CI101" s="22"/>
-      <c r="CJ101" s="22"/>
-      <c r="CK101" s="22"/>
-      <c r="CL101" s="22"/>
+      <c r="BZ101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CB101" s="1"/>
+      <c r="CC101" s="1"/>
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="1"/>
+      <c r="CF101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CH101" s="1"/>
+      <c r="CI101" s="1"/>
+      <c r="CJ101" s="1"/>
+      <c r="CK101" s="1"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
@@ -39284,21 +39283,22 @@
       <c r="BW102" s="1"/>
       <c r="BX102" s="1"/>
       <c r="BY102" s="1"/>
-      <c r="BZ102" s="22"/>
-      <c r="CA102" s="22"/>
-      <c r="CB102" s="22"/>
-      <c r="CC102" s="22"/>
-      <c r="CD102" s="22"/>
-      <c r="CE102" s="22"/>
-      <c r="CF102" s="22"/>
-      <c r="CG102" s="22"/>
-      <c r="CH102" s="22"/>
-      <c r="CI102" s="22"/>
-      <c r="CJ102" s="22"/>
-      <c r="CK102" s="22"/>
-      <c r="CL102" s="22"/>
+      <c r="BZ102" s="1"/>
+      <c r="CA102" s="1"/>
+      <c r="CB102" s="1"/>
+      <c r="CC102" s="1"/>
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="1"/>
+      <c r="CF102" s="1"/>
+      <c r="CG102" s="1"/>
+      <c r="CH102" s="1"/>
+      <c r="CI102" s="1"/>
+      <c r="CJ102" s="1"/>
+      <c r="CK102" s="1"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -39376,21 +39376,22 @@
       <c r="BW103" s="1"/>
       <c r="BX103" s="1"/>
       <c r="BY103" s="1"/>
-      <c r="BZ103" s="22"/>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="22"/>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="22"/>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="22"/>
+      <c r="BZ103" s="1"/>
+      <c r="CA103" s="1"/>
+      <c r="CB103" s="1"/>
+      <c r="CC103" s="1"/>
+      <c r="CD103" s="1"/>
+      <c r="CE103" s="1"/>
+      <c r="CF103" s="1"/>
+      <c r="CG103" s="1"/>
+      <c r="CH103" s="1"/>
+      <c r="CI103" s="1"/>
+      <c r="CJ103" s="1"/>
+      <c r="CK103" s="1"/>
+      <c r="CL103" s="1"/>
+      <c r="CM103" s="1"/>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -39470,21 +39471,22 @@
       <c r="BW104" s="1"/>
       <c r="BX104" s="1"/>
       <c r="BY104" s="1"/>
-      <c r="BZ104" s="22"/>
-      <c r="CA104" s="22"/>
-      <c r="CB104" s="22"/>
-      <c r="CC104" s="22"/>
-      <c r="CD104" s="22"/>
-      <c r="CE104" s="22"/>
-      <c r="CF104" s="22"/>
-      <c r="CG104" s="22"/>
-      <c r="CH104" s="22"/>
-      <c r="CI104" s="22"/>
-      <c r="CJ104" s="22"/>
-      <c r="CK104" s="22"/>
-      <c r="CL104" s="22"/>
+      <c r="BZ104" s="1"/>
+      <c r="CA104" s="1"/>
+      <c r="CB104" s="1"/>
+      <c r="CC104" s="1"/>
+      <c r="CD104" s="1"/>
+      <c r="CE104" s="1"/>
+      <c r="CF104" s="1"/>
+      <c r="CG104" s="1"/>
+      <c r="CH104" s="1"/>
+      <c r="CI104" s="1"/>
+      <c r="CJ104" s="1"/>
+      <c r="CK104" s="1"/>
+      <c r="CL104" s="1"/>
+      <c r="CM104" s="1"/>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
@@ -39564,21 +39566,22 @@
       <c r="BW105" s="1"/>
       <c r="BX105" s="1"/>
       <c r="BY105" s="1"/>
-      <c r="BZ105" s="22"/>
-      <c r="CA105" s="22"/>
-      <c r="CB105" s="22"/>
-      <c r="CC105" s="22"/>
-      <c r="CD105" s="22"/>
-      <c r="CE105" s="22"/>
-      <c r="CF105" s="22"/>
-      <c r="CG105" s="22"/>
-      <c r="CH105" s="22"/>
-      <c r="CI105" s="22"/>
-      <c r="CJ105" s="22"/>
-      <c r="CK105" s="22"/>
-      <c r="CL105" s="22"/>
+      <c r="BZ105" s="1"/>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
     </row>
-    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
@@ -39658,21 +39661,22 @@
       <c r="BW106" s="1"/>
       <c r="BX106" s="1"/>
       <c r="BY106" s="1"/>
-      <c r="BZ106" s="22"/>
-      <c r="CA106" s="22"/>
-      <c r="CB106" s="22"/>
-      <c r="CC106" s="22"/>
-      <c r="CD106" s="22"/>
-      <c r="CE106" s="22"/>
-      <c r="CF106" s="22"/>
-      <c r="CG106" s="22"/>
-      <c r="CH106" s="22"/>
-      <c r="CI106" s="22"/>
-      <c r="CJ106" s="22"/>
-      <c r="CK106" s="22"/>
-      <c r="CL106" s="22"/>
+      <c r="BZ106" s="1"/>
+      <c r="CA106" s="1"/>
+      <c r="CB106" s="1"/>
+      <c r="CC106" s="1"/>
+      <c r="CD106" s="1"/>
+      <c r="CE106" s="1"/>
+      <c r="CF106" s="1"/>
+      <c r="CG106" s="1"/>
+      <c r="CH106" s="1"/>
+      <c r="CI106" s="1"/>
+      <c r="CJ106" s="1"/>
+      <c r="CK106" s="1"/>
+      <c r="CL106" s="1"/>
+      <c r="CM106" s="1"/>
     </row>
-    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -39750,159 +39754,161 @@
       <c r="BW107" s="1"/>
       <c r="BX107" s="1"/>
       <c r="BY107" s="1"/>
-      <c r="BZ107" s="22"/>
-      <c r="CA107" s="22"/>
-      <c r="CB107" s="22"/>
-      <c r="CC107" s="22"/>
-      <c r="CD107" s="22"/>
-      <c r="CE107" s="22"/>
-      <c r="CF107" s="22"/>
-      <c r="CG107" s="22"/>
-      <c r="CH107" s="22"/>
-      <c r="CI107" s="22"/>
-      <c r="CJ107" s="22"/>
-      <c r="CK107" s="22"/>
-      <c r="CL107" s="22"/>
+      <c r="BZ107" s="1"/>
+      <c r="CA107" s="1"/>
+      <c r="CB107" s="1"/>
+      <c r="CC107" s="1"/>
+      <c r="CD107" s="1"/>
+      <c r="CE107" s="1"/>
+      <c r="CF107" s="1"/>
+      <c r="CG107" s="1"/>
+      <c r="CH107" s="1"/>
+      <c r="CI107" s="1"/>
+      <c r="CJ107" s="1"/>
+      <c r="CK107" s="1"/>
+      <c r="CL107" s="1"/>
+      <c r="CM107" s="1"/>
     </row>
-    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="35">
+      <c r="B108" s="25">
         <v>2000</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="35">
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="25">
         <v>2001</v>
       </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="35">
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="25">
         <v>2002</v>
       </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="35">
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="25">
         <v>2003</v>
       </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="35">
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="25">
         <v>2004</v>
       </c>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="35">
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="25">
         <v>2005</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="35">
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="25">
         <v>2006</v>
       </c>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="35">
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="25">
         <v>2007</v>
       </c>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="35">
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="25">
         <v>2008</v>
       </c>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="35">
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="25">
         <v>2009</v>
       </c>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="35">
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="36"/>
-      <c r="AT108" s="35">
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="27"/>
+      <c r="AS108" s="27"/>
+      <c r="AT108" s="25">
         <v>2011</v>
       </c>
-      <c r="AU108" s="36"/>
-      <c r="AV108" s="36"/>
-      <c r="AW108" s="36"/>
-      <c r="AX108" s="35">
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="27"/>
+      <c r="AW108" s="27"/>
+      <c r="AX108" s="25">
         <v>2012</v>
       </c>
-      <c r="AY108" s="36"/>
-      <c r="AZ108" s="36"/>
-      <c r="BA108" s="36"/>
-      <c r="BB108" s="35">
+      <c r="AY108" s="27"/>
+      <c r="AZ108" s="27"/>
+      <c r="BA108" s="27"/>
+      <c r="BB108" s="25">
         <v>2013</v>
       </c>
-      <c r="BC108" s="36"/>
-      <c r="BD108" s="36"/>
-      <c r="BE108" s="36"/>
-      <c r="BF108" s="35">
+      <c r="BC108" s="27"/>
+      <c r="BD108" s="27"/>
+      <c r="BE108" s="27"/>
+      <c r="BF108" s="25">
         <v>2014</v>
       </c>
-      <c r="BG108" s="36"/>
-      <c r="BH108" s="36"/>
-      <c r="BI108" s="36"/>
-      <c r="BJ108" s="35">
+      <c r="BG108" s="27"/>
+      <c r="BH108" s="27"/>
+      <c r="BI108" s="27"/>
+      <c r="BJ108" s="25">
         <v>2015</v>
       </c>
-      <c r="BK108" s="36"/>
-      <c r="BL108" s="36"/>
-      <c r="BM108" s="36"/>
-      <c r="BN108" s="35">
+      <c r="BK108" s="27"/>
+      <c r="BL108" s="27"/>
+      <c r="BM108" s="27"/>
+      <c r="BN108" s="25">
         <v>2016</v>
       </c>
-      <c r="BO108" s="36"/>
-      <c r="BP108" s="36"/>
-      <c r="BQ108" s="36"/>
-      <c r="BR108" s="35">
+      <c r="BO108" s="27"/>
+      <c r="BP108" s="27"/>
+      <c r="BQ108" s="27"/>
+      <c r="BR108" s="25">
         <v>2017</v>
       </c>
-      <c r="BS108" s="36"/>
-      <c r="BT108" s="36"/>
-      <c r="BU108" s="36"/>
-      <c r="BV108" s="35">
+      <c r="BS108" s="27"/>
+      <c r="BT108" s="27"/>
+      <c r="BU108" s="27"/>
+      <c r="BV108" s="25">
         <v>2018</v>
       </c>
-      <c r="BW108" s="36"/>
-      <c r="BX108" s="36"/>
-      <c r="BY108" s="36"/>
-      <c r="BZ108" s="34">
+      <c r="BW108" s="27"/>
+      <c r="BX108" s="27"/>
+      <c r="BY108" s="27"/>
+      <c r="BZ108" s="25">
         <v>2019</v>
       </c>
-      <c r="CA108" s="37"/>
-      <c r="CB108" s="37"/>
-      <c r="CC108" s="37"/>
-      <c r="CD108" s="34">
+      <c r="CA108" s="27"/>
+      <c r="CB108" s="27"/>
+      <c r="CC108" s="27"/>
+      <c r="CD108" s="25">
         <v>2020</v>
       </c>
-      <c r="CE108" s="34"/>
-      <c r="CF108" s="34"/>
-      <c r="CG108" s="34"/>
-      <c r="CH108" s="34">
+      <c r="CE108" s="27"/>
+      <c r="CF108" s="27"/>
+      <c r="CG108" s="27"/>
+      <c r="CH108" s="25">
         <v>2021</v>
       </c>
-      <c r="CI108" s="34"/>
-      <c r="CJ108" s="34"/>
-      <c r="CK108" s="34"/>
-      <c r="CL108" s="32">
+      <c r="CI108" s="25"/>
+      <c r="CJ108" s="25"/>
+      <c r="CK108" s="25"/>
+      <c r="CL108" s="25">
         <v>2022</v>
       </c>
+      <c r="CM108" s="25"/>
     </row>
-    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>4</v>
       </c>
@@ -40134,47 +40140,50 @@
       <c r="BY109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ109" s="23" t="s">
+      <c r="BZ109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="23" t="s">
+      <c r="CA109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="23" t="s">
+      <c r="CB109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC109" s="23" t="s">
+      <c r="CC109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD109" s="23" t="s">
+      <c r="CD109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="23" t="s">
+      <c r="CE109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="23" t="s">
+      <c r="CF109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG109" s="23" t="s">
+      <c r="CG109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH109" s="23" t="s">
+      <c r="CH109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="23" t="s">
+      <c r="CI109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="23" t="s">
+      <c r="CJ109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK109" s="23" t="s">
+      <c r="CK109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="23" t="s">
+      <c r="CL109" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM109" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -40252,21 +40261,22 @@
       <c r="BW110" s="1"/>
       <c r="BX110" s="1"/>
       <c r="BY110" s="1"/>
-      <c r="BZ110" s="22"/>
-      <c r="CA110" s="22"/>
-      <c r="CB110" s="22"/>
-      <c r="CC110" s="22"/>
-      <c r="CD110" s="22"/>
-      <c r="CE110" s="22"/>
-      <c r="CF110" s="22"/>
-      <c r="CG110" s="22"/>
-      <c r="CH110" s="22"/>
-      <c r="CI110" s="22"/>
-      <c r="CJ110" s="22"/>
-      <c r="CK110" s="22"/>
-      <c r="CL110" s="22"/>
+      <c r="BZ110" s="1"/>
+      <c r="CA110" s="1"/>
+      <c r="CB110" s="1"/>
+      <c r="CC110" s="1"/>
+      <c r="CD110" s="1"/>
+      <c r="CE110" s="1"/>
+      <c r="CF110" s="1"/>
+      <c r="CG110" s="1"/>
+      <c r="CH110" s="1"/>
+      <c r="CI110" s="1"/>
+      <c r="CJ110" s="1"/>
+      <c r="CK110" s="1"/>
+      <c r="CL110" s="1"/>
+      <c r="CM110" s="1"/>
     </row>
-    <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -40498,46 +40508,48 @@
       <c r="BY111" s="17">
         <v>24.018236618326615</v>
       </c>
-      <c r="BZ111" s="29">
+      <c r="BZ111" s="17">
         <v>20.212069542081164</v>
       </c>
-      <c r="CA111" s="29">
+      <c r="CA111" s="17">
         <v>16.622771889959985</v>
       </c>
-      <c r="CB111" s="29">
+      <c r="CB111" s="17">
         <v>19.429140721197538</v>
       </c>
-      <c r="CC111" s="29">
+      <c r="CC111" s="17">
         <v>26.405156726386696</v>
       </c>
-      <c r="CD111" s="29">
+      <c r="CD111" s="17">
         <v>26.393829551456637</v>
       </c>
-      <c r="CE111" s="29">
+      <c r="CE111" s="17">
         <v>32.943733350340167</v>
       </c>
-      <c r="CF111" s="29">
+      <c r="CF111" s="17">
         <v>26.31104317576267</v>
       </c>
-      <c r="CG111" s="29">
+      <c r="CG111" s="17">
         <v>35.846510174830456</v>
       </c>
-      <c r="CH111" s="29">
+      <c r="CH111" s="17">
         <v>35.23697768604621</v>
       </c>
-      <c r="CI111" s="29">
+      <c r="CI111" s="17">
         <v>20.257422444896669</v>
       </c>
-      <c r="CJ111" s="29">
+      <c r="CJ111" s="17">
         <v>24.855091535060509</v>
       </c>
-      <c r="CK111" s="29">
+      <c r="CK111" s="17">
         <v>38.048055347335733</v>
       </c>
-      <c r="CL111" s="29">
-        <v>39.086176949511724</v>
-      </c>
-      <c r="CM111" s="10"/>
+      <c r="CL111" s="17">
+        <v>39.028690769437894</v>
+      </c>
+      <c r="CM111" s="17">
+        <v>21.620742509936036</v>
+      </c>
       <c r="CN111" s="10"/>
       <c r="CO111" s="10"/>
       <c r="CP111" s="10"/>
@@ -40603,7 +40615,7 @@
       <c r="EX111" s="10"/>
       <c r="EY111" s="10"/>
     </row>
-    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -40835,46 +40847,48 @@
       <c r="BY112" s="17">
         <v>69.814163163580488</v>
       </c>
-      <c r="BZ112" s="29">
+      <c r="BZ112" s="17">
         <v>73.916477921837043</v>
       </c>
-      <c r="CA112" s="29">
+      <c r="CA112" s="17">
         <v>77.997275255994253</v>
       </c>
-      <c r="CB112" s="29">
+      <c r="CB112" s="17">
         <v>74.579505082337761</v>
       </c>
-      <c r="CC112" s="29">
+      <c r="CC112" s="17">
         <v>66.212000354739416</v>
       </c>
-      <c r="CD112" s="29">
+      <c r="CD112" s="17">
         <v>68.249047687389606</v>
       </c>
-      <c r="CE112" s="29">
+      <c r="CE112" s="17">
         <v>58.590221417067781</v>
       </c>
-      <c r="CF112" s="29">
+      <c r="CF112" s="17">
         <v>67.28146463620385</v>
       </c>
-      <c r="CG112" s="29">
+      <c r="CG112" s="17">
         <v>55.866408644655699</v>
       </c>
-      <c r="CH112" s="29">
+      <c r="CH112" s="17">
         <v>58.368277205130603</v>
       </c>
-      <c r="CI112" s="29">
+      <c r="CI112" s="17">
         <v>75.623445212464787</v>
       </c>
-      <c r="CJ112" s="29">
+      <c r="CJ112" s="17">
         <v>68.626817252692163</v>
       </c>
-      <c r="CK112" s="29">
+      <c r="CK112" s="17">
         <v>54.122132724358252</v>
       </c>
-      <c r="CL112" s="29">
-        <v>54.562336570519108</v>
-      </c>
-      <c r="CM112" s="10"/>
+      <c r="CL112" s="17">
+        <v>54.629164229448648</v>
+      </c>
+      <c r="CM112" s="17">
+        <v>73.998847819704764</v>
+      </c>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
       <c r="CP112" s="10"/>
@@ -40940,7 +40954,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -41172,46 +41186,48 @@
       <c r="BY113" s="17">
         <v>6.1676002180928879</v>
       </c>
-      <c r="BZ113" s="29">
+      <c r="BZ113" s="17">
         <v>5.8714525360817911</v>
       </c>
-      <c r="CA113" s="29">
+      <c r="CA113" s="17">
         <v>5.3799528540457739</v>
       </c>
-      <c r="CB113" s="29">
+      <c r="CB113" s="17">
         <v>5.9913541964647061</v>
       </c>
-      <c r="CC113" s="29">
+      <c r="CC113" s="17">
         <v>7.3828429188738829</v>
       </c>
-      <c r="CD113" s="29">
+      <c r="CD113" s="17">
         <v>5.3571227611537626</v>
       </c>
-      <c r="CE113" s="29">
+      <c r="CE113" s="17">
         <v>8.4660452325920659</v>
       </c>
-      <c r="CF113" s="29">
+      <c r="CF113" s="17">
         <v>6.4074921880334816</v>
       </c>
-      <c r="CG113" s="29">
+      <c r="CG113" s="17">
         <v>8.287081180513848</v>
       </c>
-      <c r="CH113" s="29">
+      <c r="CH113" s="17">
         <v>6.3947451088231713</v>
       </c>
-      <c r="CI113" s="29">
+      <c r="CI113" s="17">
         <v>4.1191323426385358</v>
       </c>
-      <c r="CJ113" s="29">
+      <c r="CJ113" s="17">
         <v>6.5180912122473416</v>
       </c>
-      <c r="CK113" s="29">
+      <c r="CK113" s="17">
         <v>7.8298119283060057</v>
       </c>
-      <c r="CL113" s="29">
-        <v>6.3514864799691608</v>
-      </c>
-      <c r="CM113" s="10"/>
+      <c r="CL113" s="17">
+        <v>6.3421450011134608</v>
+      </c>
+      <c r="CM113" s="17">
+        <v>4.380409670359195</v>
+      </c>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
       <c r="CP113" s="10"/>
@@ -41277,7 +41293,7 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -41354,20 +41370,20 @@
       <c r="BW114" s="12"/>
       <c r="BX114" s="12"/>
       <c r="BY114" s="12"/>
-      <c r="BZ114" s="25"/>
-      <c r="CA114" s="25"/>
-      <c r="CB114" s="25"/>
-      <c r="CC114" s="25"/>
-      <c r="CD114" s="25"/>
-      <c r="CE114" s="25"/>
-      <c r="CF114" s="25"/>
-      <c r="CG114" s="25"/>
-      <c r="CH114" s="25"/>
-      <c r="CI114" s="25"/>
-      <c r="CJ114" s="25"/>
-      <c r="CK114" s="25"/>
-      <c r="CL114" s="25"/>
-      <c r="CM114" s="10"/>
+      <c r="BZ114" s="12"/>
+      <c r="CA114" s="12"/>
+      <c r="CB114" s="12"/>
+      <c r="CC114" s="12"/>
+      <c r="CD114" s="12"/>
+      <c r="CE114" s="12"/>
+      <c r="CF114" s="12"/>
+      <c r="CG114" s="12"/>
+      <c r="CH114" s="12"/>
+      <c r="CI114" s="12"/>
+      <c r="CJ114" s="12"/>
+      <c r="CK114" s="12"/>
+      <c r="CL114" s="12"/>
+      <c r="CM114" s="12"/>
       <c r="CN114" s="10"/>
       <c r="CO114" s="10"/>
       <c r="CP114" s="10"/>
@@ -41433,7 +41449,7 @@
       <c r="EX114" s="10"/>
       <c r="EY114" s="10"/>
     </row>
-    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>11</v>
       </c>
@@ -41665,46 +41681,48 @@
       <c r="BY115" s="17">
         <v>100</v>
       </c>
-      <c r="BZ115" s="29">
+      <c r="BZ115" s="17">
         <v>100</v>
       </c>
-      <c r="CA115" s="29">
+      <c r="CA115" s="17">
         <v>100</v>
       </c>
-      <c r="CB115" s="29">
+      <c r="CB115" s="17">
         <v>100</v>
       </c>
-      <c r="CC115" s="29">
+      <c r="CC115" s="17">
         <v>100</v>
       </c>
-      <c r="CD115" s="29">
+      <c r="CD115" s="17">
         <v>100</v>
       </c>
-      <c r="CE115" s="29">
+      <c r="CE115" s="17">
         <v>100</v>
       </c>
-      <c r="CF115" s="29">
+      <c r="CF115" s="17">
         <v>100</v>
       </c>
-      <c r="CG115" s="29">
+      <c r="CG115" s="17">
         <v>100</v>
       </c>
-      <c r="CH115" s="29">
+      <c r="CH115" s="17">
         <v>100</v>
       </c>
-      <c r="CI115" s="29">
+      <c r="CI115" s="17">
         <v>100</v>
       </c>
-      <c r="CJ115" s="29">
+      <c r="CJ115" s="17">
         <v>100</v>
       </c>
-      <c r="CK115" s="29">
+      <c r="CK115" s="17">
         <v>100</v>
       </c>
-      <c r="CL115" s="29">
+      <c r="CL115" s="17">
         <v>100</v>
       </c>
-      <c r="CM115" s="10"/>
+      <c r="CM115" s="17">
+        <v>100</v>
+      </c>
       <c r="CN115" s="10"/>
       <c r="CO115" s="10"/>
       <c r="CP115" s="10"/>
@@ -41770,7 +41788,7 @@
       <c r="EX115" s="10"/>
       <c r="EY115" s="10"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -41848,21 +41866,22 @@
       <c r="BW116" s="15"/>
       <c r="BX116" s="15"/>
       <c r="BY116" s="15"/>
-      <c r="BZ116" s="27"/>
-      <c r="CA116" s="27"/>
-      <c r="CB116" s="27"/>
-      <c r="CC116" s="27"/>
-      <c r="CD116" s="27"/>
-      <c r="CE116" s="27"/>
-      <c r="CF116" s="27"/>
-      <c r="CG116" s="27"/>
-      <c r="CH116" s="27"/>
-      <c r="CI116" s="27"/>
-      <c r="CJ116" s="27"/>
-      <c r="CK116" s="27"/>
-      <c r="CL116" s="27"/>
+      <c r="BZ116" s="15"/>
+      <c r="CA116" s="15"/>
+      <c r="CB116" s="15"/>
+      <c r="CC116" s="15"/>
+      <c r="CD116" s="15"/>
+      <c r="CE116" s="15"/>
+      <c r="CF116" s="15"/>
+      <c r="CG116" s="15"/>
+      <c r="CH116" s="15"/>
+      <c r="CI116" s="15"/>
+      <c r="CJ116" s="15"/>
+      <c r="CK116" s="15"/>
+      <c r="CL116" s="15"/>
+      <c r="CM116" s="15"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>0</v>
       </c>
@@ -41942,21 +41961,22 @@
       <c r="BW117" s="1"/>
       <c r="BX117" s="1"/>
       <c r="BY117" s="1"/>
-      <c r="BZ117" s="22"/>
-      <c r="CA117" s="22"/>
-      <c r="CB117" s="22"/>
-      <c r="CC117" s="22"/>
-      <c r="CD117" s="22"/>
-      <c r="CE117" s="22"/>
-      <c r="CF117" s="22"/>
-      <c r="CG117" s="22"/>
-      <c r="CH117" s="22"/>
-      <c r="CI117" s="22"/>
-      <c r="CJ117" s="22"/>
-      <c r="CK117" s="22"/>
-      <c r="CL117" s="22"/>
+      <c r="BZ117" s="1"/>
+      <c r="CA117" s="1"/>
+      <c r="CB117" s="1"/>
+      <c r="CC117" s="1"/>
+      <c r="CD117" s="1"/>
+      <c r="CE117" s="1"/>
+      <c r="CF117" s="1"/>
+      <c r="CG117" s="1"/>
+      <c r="CH117" s="1"/>
+      <c r="CI117" s="1"/>
+      <c r="CJ117" s="1"/>
+      <c r="CK117" s="1"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
     </row>
-    <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -42033,20 +42053,20 @@
       <c r="BW118" s="12"/>
       <c r="BX118" s="12"/>
       <c r="BY118" s="12"/>
-      <c r="BZ118" s="25"/>
-      <c r="CA118" s="25"/>
-      <c r="CB118" s="25"/>
-      <c r="CC118" s="25"/>
-      <c r="CD118" s="25"/>
-      <c r="CE118" s="25"/>
-      <c r="CF118" s="25"/>
-      <c r="CG118" s="25"/>
-      <c r="CH118" s="25"/>
-      <c r="CI118" s="25"/>
-      <c r="CJ118" s="25"/>
-      <c r="CK118" s="25"/>
-      <c r="CL118" s="25"/>
-      <c r="CM118" s="10"/>
+      <c r="BZ118" s="12"/>
+      <c r="CA118" s="12"/>
+      <c r="CB118" s="12"/>
+      <c r="CC118" s="12"/>
+      <c r="CD118" s="12"/>
+      <c r="CE118" s="12"/>
+      <c r="CF118" s="12"/>
+      <c r="CG118" s="12"/>
+      <c r="CH118" s="12"/>
+      <c r="CI118" s="12"/>
+      <c r="CJ118" s="12"/>
+      <c r="CK118" s="12"/>
+      <c r="CL118" s="12"/>
+      <c r="CM118" s="12"/>
       <c r="CN118" s="10"/>
       <c r="CO118" s="10"/>
       <c r="CP118" s="10"/>
@@ -42112,7 +42132,7 @@
       <c r="EX118" s="10"/>
       <c r="EY118" s="10"/>
     </row>
-    <row r="119" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -42189,20 +42209,20 @@
       <c r="BW119" s="12"/>
       <c r="BX119" s="12"/>
       <c r="BY119" s="12"/>
-      <c r="BZ119" s="25"/>
-      <c r="CA119" s="25"/>
-      <c r="CB119" s="25"/>
-      <c r="CC119" s="25"/>
-      <c r="CD119" s="25"/>
-      <c r="CE119" s="25"/>
-      <c r="CF119" s="25"/>
-      <c r="CG119" s="25"/>
-      <c r="CH119" s="25"/>
-      <c r="CI119" s="25"/>
-      <c r="CJ119" s="25"/>
-      <c r="CK119" s="25"/>
-      <c r="CL119" s="25"/>
-      <c r="CM119" s="10"/>
+      <c r="BZ119" s="12"/>
+      <c r="CA119" s="12"/>
+      <c r="CB119" s="12"/>
+      <c r="CC119" s="12"/>
+      <c r="CD119" s="12"/>
+      <c r="CE119" s="12"/>
+      <c r="CF119" s="12"/>
+      <c r="CG119" s="12"/>
+      <c r="CH119" s="12"/>
+      <c r="CI119" s="12"/>
+      <c r="CJ119" s="12"/>
+      <c r="CK119" s="12"/>
+      <c r="CL119" s="12"/>
+      <c r="CM119" s="12"/>
       <c r="CN119" s="10"/>
       <c r="CO119" s="10"/>
       <c r="CP119" s="10"/>
@@ -42268,7 +42288,7 @@
       <c r="EX119" s="10"/>
       <c r="EY119" s="10"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -42348,21 +42368,22 @@
       <c r="BW120" s="1"/>
       <c r="BX120" s="1"/>
       <c r="BY120" s="1"/>
-      <c r="BZ120" s="22"/>
-      <c r="CA120" s="22"/>
-      <c r="CB120" s="22"/>
-      <c r="CC120" s="22"/>
-      <c r="CD120" s="22"/>
-      <c r="CE120" s="22"/>
-      <c r="CF120" s="22"/>
-      <c r="CG120" s="22"/>
-      <c r="CH120" s="22"/>
-      <c r="CI120" s="22"/>
-      <c r="CJ120" s="22"/>
-      <c r="CK120" s="22"/>
-      <c r="CL120" s="22"/>
+      <c r="BZ120" s="1"/>
+      <c r="CA120" s="1"/>
+      <c r="CB120" s="1"/>
+      <c r="CC120" s="1"/>
+      <c r="CD120" s="1"/>
+      <c r="CE120" s="1"/>
+      <c r="CF120" s="1"/>
+      <c r="CG120" s="1"/>
+      <c r="CH120" s="1"/>
+      <c r="CI120" s="1"/>
+      <c r="CJ120" s="1"/>
+      <c r="CK120" s="1"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -42442,21 +42463,22 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
       <c r="BY121" s="1"/>
-      <c r="BZ121" s="22"/>
-      <c r="CA121" s="22"/>
-      <c r="CB121" s="22"/>
-      <c r="CC121" s="22"/>
-      <c r="CD121" s="22"/>
-      <c r="CE121" s="22"/>
-      <c r="CF121" s="22"/>
-      <c r="CG121" s="22"/>
-      <c r="CH121" s="22"/>
-      <c r="CI121" s="22"/>
-      <c r="CJ121" s="22"/>
-      <c r="CK121" s="22"/>
-      <c r="CL121" s="22"/>
+      <c r="BZ121" s="1"/>
+      <c r="CA121" s="1"/>
+      <c r="CB121" s="1"/>
+      <c r="CC121" s="1"/>
+      <c r="CD121" s="1"/>
+      <c r="CE121" s="1"/>
+      <c r="CF121" s="1"/>
+      <c r="CG121" s="1"/>
+      <c r="CH121" s="1"/>
+      <c r="CI121" s="1"/>
+      <c r="CJ121" s="1"/>
+      <c r="CK121" s="1"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>49</v>
       </c>
@@ -42536,21 +42558,22 @@
       <c r="BW122" s="1"/>
       <c r="BX122" s="1"/>
       <c r="BY122" s="1"/>
-      <c r="BZ122" s="22"/>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="22"/>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="22"/>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22"/>
+      <c r="BZ122" s="1"/>
+      <c r="CA122" s="1"/>
+      <c r="CB122" s="1"/>
+      <c r="CC122" s="1"/>
+      <c r="CD122" s="1"/>
+      <c r="CE122" s="1"/>
+      <c r="CF122" s="1"/>
+      <c r="CG122" s="1"/>
+      <c r="CH122" s="1"/>
+      <c r="CI122" s="1"/>
+      <c r="CJ122" s="1"/>
+      <c r="CK122" s="1"/>
+      <c r="CL122" s="1"/>
+      <c r="CM122" s="1"/>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -42628,21 +42651,22 @@
       <c r="BW123" s="1"/>
       <c r="BX123" s="1"/>
       <c r="BY123" s="1"/>
-      <c r="BZ123" s="22"/>
-      <c r="CA123" s="22"/>
-      <c r="CB123" s="22"/>
-      <c r="CC123" s="22"/>
-      <c r="CD123" s="22"/>
-      <c r="CE123" s="22"/>
-      <c r="CF123" s="22"/>
-      <c r="CG123" s="22"/>
-      <c r="CH123" s="22"/>
-      <c r="CI123" s="22"/>
-      <c r="CJ123" s="22"/>
-      <c r="CK123" s="22"/>
-      <c r="CL123" s="22"/>
+      <c r="BZ123" s="1"/>
+      <c r="CA123" s="1"/>
+      <c r="CB123" s="1"/>
+      <c r="CC123" s="1"/>
+      <c r="CD123" s="1"/>
+      <c r="CE123" s="1"/>
+      <c r="CF123" s="1"/>
+      <c r="CG123" s="1"/>
+      <c r="CH123" s="1"/>
+      <c r="CI123" s="1"/>
+      <c r="CJ123" s="1"/>
+      <c r="CK123" s="1"/>
+      <c r="CL123" s="1"/>
+      <c r="CM123" s="1"/>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -42722,21 +42746,22 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
       <c r="BY124" s="1"/>
-      <c r="BZ124" s="22"/>
-      <c r="CA124" s="22"/>
-      <c r="CB124" s="22"/>
-      <c r="CC124" s="22"/>
-      <c r="CD124" s="22"/>
-      <c r="CE124" s="22"/>
-      <c r="CF124" s="22"/>
-      <c r="CG124" s="22"/>
-      <c r="CH124" s="22"/>
-      <c r="CI124" s="22"/>
-      <c r="CJ124" s="22"/>
-      <c r="CK124" s="22"/>
-      <c r="CL124" s="22"/>
+      <c r="BZ124" s="1"/>
+      <c r="CA124" s="1"/>
+      <c r="CB124" s="1"/>
+      <c r="CC124" s="1"/>
+      <c r="CD124" s="1"/>
+      <c r="CE124" s="1"/>
+      <c r="CF124" s="1"/>
+      <c r="CG124" s="1"/>
+      <c r="CH124" s="1"/>
+      <c r="CI124" s="1"/>
+      <c r="CJ124" s="1"/>
+      <c r="CK124" s="1"/>
+      <c r="CL124" s="1"/>
+      <c r="CM124" s="1"/>
     </row>
-    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>50</v>
       </c>
@@ -42816,21 +42841,22 @@
       <c r="BW125" s="1"/>
       <c r="BX125" s="1"/>
       <c r="BY125" s="1"/>
-      <c r="BZ125" s="22"/>
-      <c r="CA125" s="22"/>
-      <c r="CB125" s="22"/>
-      <c r="CC125" s="22"/>
-      <c r="CD125" s="22"/>
-      <c r="CE125" s="22"/>
-      <c r="CF125" s="22"/>
-      <c r="CG125" s="22"/>
-      <c r="CH125" s="22"/>
-      <c r="CI125" s="22"/>
-      <c r="CJ125" s="22"/>
-      <c r="CK125" s="22"/>
-      <c r="CL125" s="22"/>
+      <c r="BZ125" s="1"/>
+      <c r="CA125" s="1"/>
+      <c r="CB125" s="1"/>
+      <c r="CC125" s="1"/>
+      <c r="CD125" s="1"/>
+      <c r="CE125" s="1"/>
+      <c r="CF125" s="1"/>
+      <c r="CG125" s="1"/>
+      <c r="CH125" s="1"/>
+      <c r="CI125" s="1"/>
+      <c r="CJ125" s="1"/>
+      <c r="CK125" s="1"/>
+      <c r="CL125" s="1"/>
+      <c r="CM125" s="1"/>
     </row>
-    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
@@ -42910,21 +42936,22 @@
       <c r="BW126" s="1"/>
       <c r="BX126" s="1"/>
       <c r="BY126" s="1"/>
-      <c r="BZ126" s="22"/>
-      <c r="CA126" s="22"/>
-      <c r="CB126" s="22"/>
-      <c r="CC126" s="22"/>
-      <c r="CD126" s="22"/>
-      <c r="CE126" s="22"/>
-      <c r="CF126" s="22"/>
-      <c r="CG126" s="22"/>
-      <c r="CH126" s="22"/>
-      <c r="CI126" s="22"/>
-      <c r="CJ126" s="22"/>
-      <c r="CK126" s="22"/>
-      <c r="CL126" s="22"/>
+      <c r="BZ126" s="1"/>
+      <c r="CA126" s="1"/>
+      <c r="CB126" s="1"/>
+      <c r="CC126" s="1"/>
+      <c r="CD126" s="1"/>
+      <c r="CE126" s="1"/>
+      <c r="CF126" s="1"/>
+      <c r="CG126" s="1"/>
+      <c r="CH126" s="1"/>
+      <c r="CI126" s="1"/>
+      <c r="CJ126" s="1"/>
+      <c r="CK126" s="1"/>
+      <c r="CL126" s="1"/>
+      <c r="CM126" s="1"/>
     </row>
-    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -43002,159 +43029,161 @@
       <c r="BW127" s="1"/>
       <c r="BX127" s="1"/>
       <c r="BY127" s="1"/>
-      <c r="BZ127" s="22"/>
-      <c r="CA127" s="22"/>
-      <c r="CB127" s="22"/>
-      <c r="CC127" s="22"/>
-      <c r="CD127" s="22"/>
-      <c r="CE127" s="22"/>
-      <c r="CF127" s="22"/>
-      <c r="CG127" s="22"/>
-      <c r="CH127" s="22"/>
-      <c r="CI127" s="22"/>
-      <c r="CJ127" s="22"/>
-      <c r="CK127" s="22"/>
-      <c r="CL127" s="22"/>
+      <c r="BZ127" s="1"/>
+      <c r="CA127" s="1"/>
+      <c r="CB127" s="1"/>
+      <c r="CC127" s="1"/>
+      <c r="CD127" s="1"/>
+      <c r="CE127" s="1"/>
+      <c r="CF127" s="1"/>
+      <c r="CG127" s="1"/>
+      <c r="CH127" s="1"/>
+      <c r="CI127" s="1"/>
+      <c r="CJ127" s="1"/>
+      <c r="CK127" s="1"/>
+      <c r="CL127" s="1"/>
+      <c r="CM127" s="1"/>
     </row>
-    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="35">
+      <c r="B128" s="25">
         <v>2000</v>
       </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="35">
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="25">
         <v>2001</v>
       </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="35">
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="25">
         <v>2002</v>
       </c>
-      <c r="K128" s="36"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="36"/>
-      <c r="N128" s="35">
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="25">
         <v>2003</v>
       </c>
-      <c r="O128" s="36"/>
-      <c r="P128" s="36"/>
-      <c r="Q128" s="36"/>
-      <c r="R128" s="35">
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="25">
         <v>2004</v>
       </c>
-      <c r="S128" s="36"/>
-      <c r="T128" s="36"/>
-      <c r="U128" s="36"/>
-      <c r="V128" s="35">
+      <c r="S128" s="27"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="25">
         <v>2005</v>
       </c>
-      <c r="W128" s="36"/>
-      <c r="X128" s="36"/>
-      <c r="Y128" s="36"/>
-      <c r="Z128" s="35">
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="25">
         <v>2006</v>
       </c>
-      <c r="AA128" s="36"/>
-      <c r="AB128" s="36"/>
-      <c r="AC128" s="36"/>
-      <c r="AD128" s="35">
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="27"/>
+      <c r="AC128" s="27"/>
+      <c r="AD128" s="25">
         <v>2007</v>
       </c>
-      <c r="AE128" s="36"/>
-      <c r="AF128" s="36"/>
-      <c r="AG128" s="36"/>
-      <c r="AH128" s="35">
+      <c r="AE128" s="27"/>
+      <c r="AF128" s="27"/>
+      <c r="AG128" s="27"/>
+      <c r="AH128" s="25">
         <v>2008</v>
       </c>
-      <c r="AI128" s="36"/>
-      <c r="AJ128" s="36"/>
-      <c r="AK128" s="36"/>
-      <c r="AL128" s="35">
+      <c r="AI128" s="27"/>
+      <c r="AJ128" s="27"/>
+      <c r="AK128" s="27"/>
+      <c r="AL128" s="25">
         <v>2009</v>
       </c>
-      <c r="AM128" s="36"/>
-      <c r="AN128" s="36"/>
-      <c r="AO128" s="36"/>
-      <c r="AP128" s="35">
+      <c r="AM128" s="27"/>
+      <c r="AN128" s="27"/>
+      <c r="AO128" s="27"/>
+      <c r="AP128" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="36"/>
-      <c r="AR128" s="36"/>
-      <c r="AS128" s="36"/>
-      <c r="AT128" s="35">
+      <c r="AQ128" s="27"/>
+      <c r="AR128" s="27"/>
+      <c r="AS128" s="27"/>
+      <c r="AT128" s="25">
         <v>2011</v>
       </c>
-      <c r="AU128" s="36"/>
-      <c r="AV128" s="36"/>
-      <c r="AW128" s="36"/>
-      <c r="AX128" s="35">
+      <c r="AU128" s="27"/>
+      <c r="AV128" s="27"/>
+      <c r="AW128" s="27"/>
+      <c r="AX128" s="25">
         <v>2012</v>
       </c>
-      <c r="AY128" s="36"/>
-      <c r="AZ128" s="36"/>
-      <c r="BA128" s="36"/>
-      <c r="BB128" s="35">
+      <c r="AY128" s="27"/>
+      <c r="AZ128" s="27"/>
+      <c r="BA128" s="27"/>
+      <c r="BB128" s="25">
         <v>2013</v>
       </c>
-      <c r="BC128" s="36"/>
-      <c r="BD128" s="36"/>
-      <c r="BE128" s="36"/>
-      <c r="BF128" s="35">
+      <c r="BC128" s="27"/>
+      <c r="BD128" s="27"/>
+      <c r="BE128" s="27"/>
+      <c r="BF128" s="25">
         <v>2014</v>
       </c>
-      <c r="BG128" s="36"/>
-      <c r="BH128" s="36"/>
-      <c r="BI128" s="36"/>
-      <c r="BJ128" s="35">
+      <c r="BG128" s="27"/>
+      <c r="BH128" s="27"/>
+      <c r="BI128" s="27"/>
+      <c r="BJ128" s="25">
         <v>2015</v>
       </c>
-      <c r="BK128" s="36"/>
-      <c r="BL128" s="36"/>
-      <c r="BM128" s="36"/>
-      <c r="BN128" s="35">
+      <c r="BK128" s="27"/>
+      <c r="BL128" s="27"/>
+      <c r="BM128" s="27"/>
+      <c r="BN128" s="25">
         <v>2016</v>
       </c>
-      <c r="BO128" s="36"/>
-      <c r="BP128" s="36"/>
-      <c r="BQ128" s="36"/>
-      <c r="BR128" s="35">
+      <c r="BO128" s="27"/>
+      <c r="BP128" s="27"/>
+      <c r="BQ128" s="27"/>
+      <c r="BR128" s="25">
         <v>2017</v>
       </c>
-      <c r="BS128" s="36"/>
-      <c r="BT128" s="36"/>
-      <c r="BU128" s="36"/>
-      <c r="BV128" s="35">
+      <c r="BS128" s="27"/>
+      <c r="BT128" s="27"/>
+      <c r="BU128" s="27"/>
+      <c r="BV128" s="25">
         <v>2018</v>
       </c>
-      <c r="BW128" s="36"/>
-      <c r="BX128" s="36"/>
-      <c r="BY128" s="36"/>
-      <c r="BZ128" s="34">
+      <c r="BW128" s="27"/>
+      <c r="BX128" s="27"/>
+      <c r="BY128" s="27"/>
+      <c r="BZ128" s="25">
         <v>2019</v>
       </c>
-      <c r="CA128" s="37"/>
-      <c r="CB128" s="37"/>
-      <c r="CC128" s="37"/>
-      <c r="CD128" s="34">
+      <c r="CA128" s="27"/>
+      <c r="CB128" s="27"/>
+      <c r="CC128" s="27"/>
+      <c r="CD128" s="25">
         <v>2020</v>
       </c>
-      <c r="CE128" s="34"/>
-      <c r="CF128" s="34"/>
-      <c r="CG128" s="34"/>
-      <c r="CH128" s="34">
+      <c r="CE128" s="27"/>
+      <c r="CF128" s="27"/>
+      <c r="CG128" s="27"/>
+      <c r="CH128" s="25">
         <v>2021</v>
       </c>
-      <c r="CI128" s="34"/>
-      <c r="CJ128" s="34"/>
-      <c r="CK128" s="34"/>
-      <c r="CL128" s="32">
+      <c r="CI128" s="25"/>
+      <c r="CJ128" s="25"/>
+      <c r="CK128" s="25"/>
+      <c r="CL128" s="25">
         <v>2022</v>
       </c>
+      <c r="CM128" s="25"/>
     </row>
-    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>4</v>
       </c>
@@ -43386,47 +43415,50 @@
       <c r="BY129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ129" s="23" t="s">
+      <c r="BZ129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA129" s="23" t="s">
+      <c r="CA129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB129" s="23" t="s">
+      <c r="CB129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC129" s="23" t="s">
+      <c r="CC129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD129" s="23" t="s">
+      <c r="CD129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE129" s="23" t="s">
+      <c r="CE129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF129" s="23" t="s">
+      <c r="CF129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG129" s="23" t="s">
+      <c r="CG129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH129" s="23" t="s">
+      <c r="CH129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI129" s="23" t="s">
+      <c r="CI129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ129" s="23" t="s">
+      <c r="CJ129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK129" s="23" t="s">
+      <c r="CK129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="23" t="s">
+      <c r="CL129" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM129" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -43504,21 +43536,22 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
       <c r="BY130" s="1"/>
-      <c r="BZ130" s="22"/>
-      <c r="CA130" s="22"/>
-      <c r="CB130" s="22"/>
-      <c r="CC130" s="22"/>
-      <c r="CD130" s="22"/>
-      <c r="CE130" s="22"/>
-      <c r="CF130" s="22"/>
-      <c r="CG130" s="22"/>
-      <c r="CH130" s="22"/>
-      <c r="CI130" s="22"/>
-      <c r="CJ130" s="22"/>
-      <c r="CK130" s="22"/>
-      <c r="CL130" s="22"/>
+      <c r="BZ130" s="1"/>
+      <c r="CA130" s="1"/>
+      <c r="CB130" s="1"/>
+      <c r="CC130" s="1"/>
+      <c r="CD130" s="1"/>
+      <c r="CE130" s="1"/>
+      <c r="CF130" s="1"/>
+      <c r="CG130" s="1"/>
+      <c r="CH130" s="1"/>
+      <c r="CI130" s="1"/>
+      <c r="CJ130" s="1"/>
+      <c r="CK130" s="1"/>
+      <c r="CL130" s="1"/>
+      <c r="CM130" s="1"/>
     </row>
-    <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>14</v>
       </c>
@@ -43750,46 +43783,48 @@
       <c r="BY131" s="17">
         <v>22.905033265407589</v>
       </c>
-      <c r="BZ131" s="29">
+      <c r="BZ131" s="17">
         <v>20.274943496266292</v>
       </c>
-      <c r="CA131" s="29">
+      <c r="CA131" s="17">
         <v>17.336506044017757</v>
       </c>
-      <c r="CB131" s="29">
+      <c r="CB131" s="17">
         <v>21.201321825044779</v>
       </c>
-      <c r="CC131" s="29">
+      <c r="CC131" s="17">
         <v>26.298826643313184</v>
       </c>
-      <c r="CD131" s="29">
+      <c r="CD131" s="17">
         <v>25.994658813301967</v>
       </c>
-      <c r="CE131" s="29">
+      <c r="CE131" s="17">
         <v>34.039014409896794</v>
       </c>
-      <c r="CF131" s="29">
+      <c r="CF131" s="17">
         <v>28.270424527490896</v>
       </c>
-      <c r="CG131" s="29">
+      <c r="CG131" s="17">
         <v>35.646668621160515</v>
       </c>
-      <c r="CH131" s="29">
+      <c r="CH131" s="17">
         <v>34.056343402243073</v>
       </c>
-      <c r="CI131" s="29">
+      <c r="CI131" s="17">
         <v>21.477659291891936</v>
       </c>
-      <c r="CJ131" s="29">
+      <c r="CJ131" s="17">
         <v>27.238303827605048</v>
       </c>
-      <c r="CK131" s="29">
+      <c r="CK131" s="17">
         <v>38.028888449210221</v>
       </c>
-      <c r="CL131" s="29">
-        <v>37.549517155786617</v>
-      </c>
-      <c r="CM131" s="10"/>
+      <c r="CL131" s="17">
+        <v>37.492586860895763</v>
+      </c>
+      <c r="CM131" s="17">
+        <v>22.284634226572621</v>
+      </c>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
       <c r="CP131" s="10"/>
@@ -43855,7 +43890,7 @@
       <c r="EX131" s="10"/>
       <c r="EY131" s="10"/>
     </row>
-    <row r="132" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -44087,46 +44122,48 @@
       <c r="BY132" s="17">
         <v>70.95043706211321</v>
       </c>
-      <c r="BZ132" s="29">
+      <c r="BZ132" s="17">
         <v>73.97568220256025</v>
       </c>
-      <c r="CA132" s="29">
+      <c r="CA132" s="17">
         <v>77.507437466525047</v>
       </c>
-      <c r="CB132" s="29">
+      <c r="CB132" s="17">
         <v>72.886446260154742</v>
       </c>
-      <c r="CC132" s="29">
+      <c r="CC132" s="17">
         <v>66.762582143893994</v>
       </c>
-      <c r="CD132" s="29">
+      <c r="CD132" s="17">
         <v>68.82013537276444</v>
       </c>
-      <c r="CE132" s="29">
+      <c r="CE132" s="17">
         <v>57.925346174778447</v>
       </c>
-      <c r="CF132" s="29">
+      <c r="CF132" s="17">
         <v>65.317071692500534</v>
       </c>
-      <c r="CG132" s="29">
+      <c r="CG132" s="17">
         <v>56.417500491124414</v>
       </c>
-      <c r="CH132" s="29">
+      <c r="CH132" s="17">
         <v>59.681230264924068</v>
       </c>
-      <c r="CI132" s="29">
+      <c r="CI132" s="17">
         <v>74.520314996018186</v>
       </c>
-      <c r="CJ132" s="29">
+      <c r="CJ132" s="17">
         <v>66.523257186900636</v>
       </c>
-      <c r="CK132" s="29">
+      <c r="CK132" s="17">
         <v>54.603123146910136</v>
       </c>
-      <c r="CL132" s="29">
-        <v>56.248574327762348</v>
-      </c>
-      <c r="CM132" s="10"/>
+      <c r="CL132" s="17">
+        <v>56.314907579268123</v>
+      </c>
+      <c r="CM132" s="17">
+        <v>73.401262031134536</v>
+      </c>
       <c r="CN132" s="10"/>
       <c r="CO132" s="10"/>
       <c r="CP132" s="10"/>
@@ -44192,7 +44229,7 @@
       <c r="EX132" s="10"/>
       <c r="EY132" s="10"/>
     </row>
-    <row r="133" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -44424,46 +44461,48 @@
       <c r="BY133" s="17">
         <v>6.1445296724792113</v>
       </c>
-      <c r="BZ133" s="29">
+      <c r="BZ133" s="17">
         <v>5.7493743011734288</v>
       </c>
-      <c r="CA133" s="29">
+      <c r="CA133" s="17">
         <v>5.1560564894571836</v>
       </c>
-      <c r="CB133" s="29">
+      <c r="CB133" s="17">
         <v>5.9122319148004969</v>
       </c>
-      <c r="CC133" s="29">
+      <c r="CC133" s="17">
         <v>6.9385912127928302</v>
       </c>
-      <c r="CD133" s="29">
+      <c r="CD133" s="17">
         <v>5.1852058139335853</v>
       </c>
-      <c r="CE133" s="29">
+      <c r="CE133" s="17">
         <v>8.0356394153247575</v>
       </c>
-      <c r="CF133" s="29">
+      <c r="CF133" s="17">
         <v>6.4125037800085716</v>
       </c>
-      <c r="CG133" s="29">
+      <c r="CG133" s="17">
         <v>7.9358308877150785</v>
       </c>
-      <c r="CH133" s="29">
+      <c r="CH133" s="17">
         <v>6.2624263328328569</v>
       </c>
-      <c r="CI133" s="29">
+      <c r="CI133" s="17">
         <v>4.0020257120898863</v>
       </c>
-      <c r="CJ133" s="29">
+      <c r="CJ133" s="17">
         <v>6.2384389854943105</v>
       </c>
-      <c r="CK133" s="29">
+      <c r="CK133" s="17">
         <v>7.3679884038796422</v>
       </c>
-      <c r="CL133" s="29">
-        <v>6.2019085164510583</v>
-      </c>
-      <c r="CM133" s="10"/>
+      <c r="CL133" s="17">
+        <v>6.1925055598361229</v>
+      </c>
+      <c r="CM133" s="17">
+        <v>4.3141037422928523</v>
+      </c>
       <c r="CN133" s="10"/>
       <c r="CO133" s="10"/>
       <c r="CP133" s="10"/>
@@ -44529,7 +44568,7 @@
       <c r="EX133" s="10"/>
       <c r="EY133" s="10"/>
     </row>
-    <row r="134" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -44606,20 +44645,20 @@
       <c r="BW134" s="12"/>
       <c r="BX134" s="12"/>
       <c r="BY134" s="12"/>
-      <c r="BZ134" s="25"/>
-      <c r="CA134" s="25"/>
-      <c r="CB134" s="25"/>
-      <c r="CC134" s="25"/>
-      <c r="CD134" s="25"/>
-      <c r="CE134" s="25"/>
-      <c r="CF134" s="25"/>
-      <c r="CG134" s="25"/>
-      <c r="CH134" s="25"/>
-      <c r="CI134" s="25"/>
-      <c r="CJ134" s="25"/>
-      <c r="CK134" s="25"/>
-      <c r="CL134" s="25"/>
-      <c r="CM134" s="10"/>
+      <c r="BZ134" s="12"/>
+      <c r="CA134" s="12"/>
+      <c r="CB134" s="12"/>
+      <c r="CC134" s="12"/>
+      <c r="CD134" s="12"/>
+      <c r="CE134" s="12"/>
+      <c r="CF134" s="12"/>
+      <c r="CG134" s="12"/>
+      <c r="CH134" s="12"/>
+      <c r="CI134" s="12"/>
+      <c r="CJ134" s="12"/>
+      <c r="CK134" s="12"/>
+      <c r="CL134" s="12"/>
+      <c r="CM134" s="12"/>
       <c r="CN134" s="10"/>
       <c r="CO134" s="10"/>
       <c r="CP134" s="10"/>
@@ -44685,7 +44724,7 @@
       <c r="EX134" s="10"/>
       <c r="EY134" s="10"/>
     </row>
-    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
         <v>11</v>
       </c>
@@ -44917,46 +44956,48 @@
       <c r="BY135" s="17">
         <v>100</v>
       </c>
-      <c r="BZ135" s="29">
+      <c r="BZ135" s="17">
         <v>100</v>
       </c>
-      <c r="CA135" s="29">
+      <c r="CA135" s="17">
         <v>100</v>
       </c>
-      <c r="CB135" s="29">
+      <c r="CB135" s="17">
         <v>100</v>
       </c>
-      <c r="CC135" s="29">
+      <c r="CC135" s="17">
         <v>100</v>
       </c>
-      <c r="CD135" s="29">
+      <c r="CD135" s="17">
         <v>100</v>
       </c>
-      <c r="CE135" s="29">
+      <c r="CE135" s="17">
         <v>100</v>
       </c>
-      <c r="CF135" s="29">
+      <c r="CF135" s="17">
         <v>100</v>
       </c>
-      <c r="CG135" s="29">
+      <c r="CG135" s="17">
         <v>100</v>
       </c>
-      <c r="CH135" s="29">
+      <c r="CH135" s="17">
         <v>100</v>
       </c>
-      <c r="CI135" s="29">
+      <c r="CI135" s="17">
         <v>100</v>
       </c>
-      <c r="CJ135" s="29">
+      <c r="CJ135" s="17">
         <v>100</v>
       </c>
-      <c r="CK135" s="29">
+      <c r="CK135" s="17">
         <v>100</v>
       </c>
-      <c r="CL135" s="29">
+      <c r="CL135" s="17">
         <v>100</v>
       </c>
-      <c r="CM135" s="10"/>
+      <c r="CM135" s="17">
+        <v>100</v>
+      </c>
       <c r="CN135" s="10"/>
       <c r="CO135" s="10"/>
       <c r="CP135" s="10"/>
@@ -45022,7 +45063,7 @@
       <c r="EX135" s="10"/>
       <c r="EY135" s="10"/>
     </row>
-    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -45100,21 +45141,22 @@
       <c r="BW136" s="15"/>
       <c r="BX136" s="15"/>
       <c r="BY136" s="15"/>
-      <c r="BZ136" s="27"/>
-      <c r="CA136" s="27"/>
-      <c r="CB136" s="27"/>
-      <c r="CC136" s="27"/>
-      <c r="CD136" s="27"/>
-      <c r="CE136" s="27"/>
-      <c r="CF136" s="27"/>
-      <c r="CG136" s="27"/>
-      <c r="CH136" s="27"/>
-      <c r="CI136" s="27"/>
-      <c r="CJ136" s="27"/>
-      <c r="CK136" s="27"/>
-      <c r="CL136" s="27"/>
+      <c r="BZ136" s="15"/>
+      <c r="CA136" s="15"/>
+      <c r="CB136" s="15"/>
+      <c r="CC136" s="15"/>
+      <c r="CD136" s="15"/>
+      <c r="CE136" s="15"/>
+      <c r="CF136" s="15"/>
+      <c r="CG136" s="15"/>
+      <c r="CH136" s="15"/>
+      <c r="CI136" s="15"/>
+      <c r="CJ136" s="15"/>
+      <c r="CK136" s="15"/>
+      <c r="CL136" s="15"/>
+      <c r="CM136" s="15"/>
     </row>
-    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>0</v>
       </c>
@@ -45194,21 +45236,22 @@
       <c r="BW137" s="1"/>
       <c r="BX137" s="1"/>
       <c r="BY137" s="1"/>
-      <c r="BZ137" s="22"/>
-      <c r="CA137" s="22"/>
-      <c r="CB137" s="22"/>
-      <c r="CC137" s="22"/>
-      <c r="CD137" s="22"/>
-      <c r="CE137" s="22"/>
-      <c r="CF137" s="22"/>
-      <c r="CG137" s="22"/>
-      <c r="CH137" s="22"/>
-      <c r="CI137" s="22"/>
-      <c r="CJ137" s="22"/>
-      <c r="CK137" s="22"/>
-      <c r="CL137" s="22"/>
+      <c r="BZ137" s="1"/>
+      <c r="CA137" s="1"/>
+      <c r="CB137" s="1"/>
+      <c r="CC137" s="1"/>
+      <c r="CD137" s="1"/>
+      <c r="CE137" s="1"/>
+      <c r="CF137" s="1"/>
+      <c r="CG137" s="1"/>
+      <c r="CH137" s="1"/>
+      <c r="CI137" s="1"/>
+      <c r="CJ137" s="1"/>
+      <c r="CK137" s="1"/>
+      <c r="CL137" s="1"/>
+      <c r="CM137" s="1"/>
     </row>
-    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -45286,20 +45329,20 @@
       <c r="BW138" s="11"/>
       <c r="BX138" s="11"/>
       <c r="BY138" s="11"/>
-      <c r="BZ138" s="30"/>
-      <c r="CA138" s="30"/>
-      <c r="CB138" s="30"/>
-      <c r="CC138" s="30"/>
-      <c r="CD138" s="33"/>
-      <c r="CE138" s="33"/>
-      <c r="CF138" s="33"/>
-      <c r="CG138" s="33"/>
-      <c r="CH138" s="33"/>
-      <c r="CI138" s="33"/>
-      <c r="CJ138" s="33"/>
-      <c r="CK138" s="33"/>
-      <c r="CL138" s="33"/>
-      <c r="CM138" s="19"/>
+      <c r="BZ138" s="11"/>
+      <c r="CA138" s="11"/>
+      <c r="CB138" s="11"/>
+      <c r="CC138" s="11"/>
+      <c r="CD138" s="11"/>
+      <c r="CE138" s="11"/>
+      <c r="CF138" s="11"/>
+      <c r="CG138" s="11"/>
+      <c r="CH138" s="11"/>
+      <c r="CI138" s="11"/>
+      <c r="CJ138" s="11"/>
+      <c r="CK138" s="11"/>
+      <c r="CL138" s="11"/>
+      <c r="CM138" s="11"/>
       <c r="CN138" s="19"/>
       <c r="CO138" s="19"/>
       <c r="CP138" s="19"/>
@@ -45365,7 +45408,7 @@
       <c r="EX138" s="19"/>
       <c r="EY138" s="19"/>
     </row>
-    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -45443,20 +45486,20 @@
       <c r="BW139" s="11"/>
       <c r="BX139" s="11"/>
       <c r="BY139" s="11"/>
-      <c r="BZ139" s="30"/>
-      <c r="CA139" s="30"/>
-      <c r="CB139" s="30"/>
-      <c r="CC139" s="30"/>
-      <c r="CD139" s="33"/>
-      <c r="CE139" s="33"/>
-      <c r="CF139" s="33"/>
-      <c r="CG139" s="33"/>
-      <c r="CH139" s="33"/>
-      <c r="CI139" s="33"/>
-      <c r="CJ139" s="33"/>
-      <c r="CK139" s="33"/>
-      <c r="CL139" s="33"/>
-      <c r="CM139" s="19"/>
+      <c r="BZ139" s="11"/>
+      <c r="CA139" s="11"/>
+      <c r="CB139" s="11"/>
+      <c r="CC139" s="11"/>
+      <c r="CD139" s="11"/>
+      <c r="CE139" s="11"/>
+      <c r="CF139" s="11"/>
+      <c r="CG139" s="11"/>
+      <c r="CH139" s="11"/>
+      <c r="CI139" s="11"/>
+      <c r="CJ139" s="11"/>
+      <c r="CK139" s="11"/>
+      <c r="CL139" s="11"/>
+      <c r="CM139" s="11"/>
       <c r="CN139" s="19"/>
       <c r="CO139" s="19"/>
       <c r="CP139" s="19"/>
@@ -45522,261 +45565,8 @@
       <c r="EX139" s="19"/>
       <c r="EY139" s="19"/>
     </row>
-    <row r="140" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="CD140" s="21"/>
-      <c r="CE140" s="21"/>
-      <c r="CF140" s="21"/>
-      <c r="CG140" s="21"/>
-      <c r="CH140" s="21"/>
-      <c r="CI140" s="21"/>
-      <c r="CJ140" s="21"/>
-      <c r="CK140" s="21"/>
-      <c r="CL140" s="21"/>
-    </row>
-    <row r="141" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="CD141" s="21"/>
-      <c r="CE141" s="21"/>
-      <c r="CF141" s="21"/>
-      <c r="CG141" s="21"/>
-      <c r="CH141" s="21"/>
-      <c r="CI141" s="21"/>
-      <c r="CJ141" s="21"/>
-      <c r="CK141" s="21"/>
-      <c r="CL141" s="21"/>
-    </row>
-    <row r="142" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="CD142" s="21"/>
-      <c r="CE142" s="21"/>
-      <c r="CF142" s="21"/>
-      <c r="CG142" s="21"/>
-      <c r="CH142" s="21"/>
-      <c r="CI142" s="21"/>
-      <c r="CJ142" s="21"/>
-      <c r="CK142" s="21"/>
-      <c r="CL142" s="21"/>
-    </row>
-    <row r="143" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="CD143" s="21"/>
-      <c r="CE143" s="21"/>
-      <c r="CF143" s="21"/>
-      <c r="CG143" s="21"/>
-      <c r="CH143" s="21"/>
-      <c r="CI143" s="21"/>
-      <c r="CJ143" s="21"/>
-      <c r="CK143" s="21"/>
-      <c r="CL143" s="21"/>
-    </row>
-    <row r="144" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="CD144" s="21"/>
-      <c r="CE144" s="21"/>
-      <c r="CF144" s="21"/>
-      <c r="CG144" s="21"/>
-      <c r="CH144" s="21"/>
-      <c r="CI144" s="21"/>
-      <c r="CJ144" s="21"/>
-      <c r="CK144" s="21"/>
-      <c r="CL144" s="21"/>
-    </row>
-    <row r="145" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD145" s="21"/>
-      <c r="CE145" s="21"/>
-      <c r="CF145" s="21"/>
-      <c r="CG145" s="21"/>
-      <c r="CH145" s="21"/>
-      <c r="CI145" s="21"/>
-      <c r="CJ145" s="21"/>
-      <c r="CK145" s="21"/>
-      <c r="CL145" s="21"/>
-    </row>
-    <row r="146" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD146" s="11"/>
-      <c r="CE146" s="11"/>
-      <c r="CF146" s="11"/>
-      <c r="CG146" s="11"/>
-      <c r="CH146" s="11"/>
-      <c r="CI146" s="11"/>
-      <c r="CJ146" s="11"/>
-      <c r="CK146" s="11"/>
-      <c r="CL146" s="11"/>
-    </row>
-    <row r="147" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD147" s="11"/>
-      <c r="CE147" s="11"/>
-      <c r="CF147" s="11"/>
-      <c r="CG147" s="11"/>
-      <c r="CH147" s="11"/>
-      <c r="CI147" s="11"/>
-      <c r="CJ147" s="11"/>
-      <c r="CK147" s="11"/>
-      <c r="CL147" s="11"/>
-    </row>
-    <row r="148" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD148" s="11"/>
-      <c r="CE148" s="11"/>
-      <c r="CF148" s="11"/>
-      <c r="CG148" s="11"/>
-      <c r="CH148" s="11"/>
-      <c r="CI148" s="11"/>
-      <c r="CJ148" s="11"/>
-      <c r="CK148" s="11"/>
-      <c r="CL148" s="11"/>
-    </row>
-    <row r="149" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD149" s="11"/>
-      <c r="CE149" s="11"/>
-      <c r="CF149" s="11"/>
-      <c r="CG149" s="11"/>
-      <c r="CH149" s="11"/>
-      <c r="CI149" s="11"/>
-      <c r="CJ149" s="11"/>
-      <c r="CK149" s="11"/>
-      <c r="CL149" s="11"/>
-    </row>
-    <row r="150" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD150" s="11"/>
-      <c r="CE150" s="11"/>
-      <c r="CF150" s="11"/>
-      <c r="CG150" s="11"/>
-      <c r="CH150" s="11"/>
-      <c r="CI150" s="11"/>
-      <c r="CJ150" s="11"/>
-      <c r="CK150" s="11"/>
-      <c r="CL150" s="11"/>
-    </row>
-    <row r="151" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD151" s="11"/>
-      <c r="CE151" s="11"/>
-      <c r="CF151" s="11"/>
-      <c r="CG151" s="11"/>
-      <c r="CH151" s="11"/>
-      <c r="CI151" s="11"/>
-      <c r="CJ151" s="11"/>
-      <c r="CK151" s="11"/>
-      <c r="CL151" s="11"/>
-    </row>
-    <row r="152" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD152" s="11"/>
-      <c r="CE152" s="11"/>
-      <c r="CF152" s="11"/>
-      <c r="CG152" s="11"/>
-      <c r="CH152" s="11"/>
-      <c r="CI152" s="11"/>
-      <c r="CJ152" s="11"/>
-      <c r="CK152" s="11"/>
-      <c r="CL152" s="11"/>
-    </row>
-    <row r="153" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD153" s="11"/>
-      <c r="CE153" s="11"/>
-      <c r="CF153" s="11"/>
-      <c r="CG153" s="11"/>
-      <c r="CH153" s="11"/>
-      <c r="CI153" s="11"/>
-      <c r="CJ153" s="11"/>
-      <c r="CK153" s="11"/>
-      <c r="CL153" s="11"/>
-    </row>
-    <row r="154" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD154" s="11"/>
-      <c r="CE154" s="11"/>
-      <c r="CF154" s="11"/>
-      <c r="CG154" s="11"/>
-      <c r="CH154" s="11"/>
-      <c r="CI154" s="11"/>
-      <c r="CJ154" s="11"/>
-      <c r="CK154" s="11"/>
-      <c r="CL154" s="11"/>
-    </row>
-    <row r="155" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD155" s="11"/>
-      <c r="CE155" s="11"/>
-      <c r="CF155" s="11"/>
-      <c r="CG155" s="11"/>
-      <c r="CH155" s="11"/>
-      <c r="CI155" s="11"/>
-      <c r="CJ155" s="11"/>
-      <c r="CK155" s="11"/>
-      <c r="CL155" s="11"/>
-    </row>
-    <row r="156" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD156" s="11"/>
-      <c r="CE156" s="11"/>
-      <c r="CF156" s="11"/>
-      <c r="CG156" s="11"/>
-      <c r="CH156" s="11"/>
-      <c r="CI156" s="11"/>
-      <c r="CJ156" s="11"/>
-      <c r="CK156" s="11"/>
-      <c r="CL156" s="11"/>
-    </row>
-    <row r="157" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD157" s="11"/>
-      <c r="CE157" s="11"/>
-      <c r="CF157" s="11"/>
-      <c r="CG157" s="11"/>
-      <c r="CH157" s="11"/>
-      <c r="CI157" s="11"/>
-      <c r="CJ157" s="11"/>
-      <c r="CK157" s="11"/>
-      <c r="CL157" s="11"/>
-    </row>
-    <row r="158" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD158" s="11"/>
-      <c r="CE158" s="11"/>
-      <c r="CF158" s="11"/>
-      <c r="CG158" s="11"/>
-      <c r="CH158" s="11"/>
-      <c r="CI158" s="11"/>
-      <c r="CJ158" s="11"/>
-      <c r="CK158" s="11"/>
-      <c r="CL158" s="11"/>
-    </row>
-    <row r="159" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD159" s="11"/>
-      <c r="CE159" s="11"/>
-      <c r="CF159" s="11"/>
-      <c r="CG159" s="11"/>
-      <c r="CH159" s="11"/>
-      <c r="CI159" s="11"/>
-      <c r="CJ159" s="11"/>
-      <c r="CK159" s="11"/>
-      <c r="CL159" s="11"/>
-    </row>
-    <row r="160" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD160" s="11"/>
-      <c r="CE160" s="11"/>
-      <c r="CF160" s="11"/>
-      <c r="CG160" s="11"/>
-      <c r="CH160" s="11"/>
-      <c r="CI160" s="11"/>
-      <c r="CJ160" s="11"/>
-      <c r="CK160" s="11"/>
-      <c r="CL160" s="11"/>
-    </row>
-    <row r="161" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD161" s="11"/>
-      <c r="CE161" s="11"/>
-      <c r="CF161" s="11"/>
-      <c r="CG161" s="11"/>
-      <c r="CH161" s="11"/>
-      <c r="CI161" s="11"/>
-      <c r="CJ161" s="11"/>
-      <c r="CK161" s="11"/>
-      <c r="CL161" s="11"/>
-    </row>
-    <row r="162" spans="82:90" x14ac:dyDescent="0.25">
-      <c r="CD162" s="11"/>
-      <c r="CE162" s="11"/>
-      <c r="CF162" s="11"/>
-      <c r="CG162" s="11"/>
-      <c r="CH162" s="11"/>
-      <c r="CI162" s="11"/>
-      <c r="CJ162" s="11"/>
-      <c r="CK162" s="11"/>
-      <c r="CL162" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="BN88:BQ88"/>
     <mergeCell ref="AL108:AO108"/>
     <mergeCell ref="AP108:AS108"/>
@@ -45883,12 +45673,11 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
     <mergeCell ref="BR69:BU69"/>
     <mergeCell ref="BV69:BY69"/>
     <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
     <mergeCell ref="V49:Y49"/>
     <mergeCell ref="AL29:AO29"/>
     <mergeCell ref="AP29:AS29"/>
@@ -45904,9 +45693,6 @@
     <mergeCell ref="BF49:BI49"/>
     <mergeCell ref="BJ49:BM49"/>
     <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CH88:CK88"/>
@@ -45929,15 +45715,26 @@
     <mergeCell ref="CD29:CG29"/>
     <mergeCell ref="BZ49:CC49"/>
     <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL29:CM29"/>
+    <mergeCell ref="CH49:CI49"/>
+    <mergeCell ref="CH69:CI69"/>
+    <mergeCell ref="CL88:CM88"/>
+    <mergeCell ref="CL108:CM108"/>
+    <mergeCell ref="CL128:CM128"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="89" man="1"/>
-    <brk id="80" max="89" man="1"/>
-    <brk id="99" max="89" man="1"/>
+    <brk id="40" max="90" man="1"/>
+    <brk id="80" max="90" man="1"/>
+    <brk id="99" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A77C7-9FC5-4553-A67D-58BFE63C6984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1156F5-6626-43A7-A23D-503653C04BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CM$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CN$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -632,11 +632,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -721,11 +721,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -741,35 +741,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23619,52 +23613,52 @@
   </sheetPr>
   <dimension ref="A1:EY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A9" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP15" sqref="CP15"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="9.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="92" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23756,147 +23750,149 @@
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="25"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24170,8 +24166,11 @@
       <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24263,8 +24262,9 @@
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -24538,7 +24538,9 @@
       <c r="CM12" s="9">
         <v>19572.28895085687</v>
       </c>
-      <c r="CN12" s="10"/>
+      <c r="CN12" s="9">
+        <v>29622.728083555645</v>
+      </c>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24603,7 +24605,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24875,9 +24877,11 @@
         <v>51047.600299997459</v>
       </c>
       <c r="CM13" s="9">
-        <v>66987.839612453317</v>
-      </c>
-      <c r="CN13" s="10"/>
+        <v>66871.315069586504</v>
+      </c>
+      <c r="CN13" s="9">
+        <v>68934.157089846645</v>
+      </c>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -24942,7 +24946,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -25216,7 +25220,9 @@
       <c r="CM14" s="9">
         <v>3965.3885037480841</v>
       </c>
-      <c r="CN14" s="10"/>
+      <c r="CN14" s="9">
+        <v>6679.9170429745245</v>
+      </c>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
@@ -25281,7 +25287,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -25372,7 +25378,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="12"/>
-      <c r="CN15" s="10"/>
+      <c r="CN15" s="12"/>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
@@ -25437,7 +25443,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -25693,25 +25699,27 @@
       <c r="CG16" s="14">
         <v>95955.633560106406</v>
       </c>
-      <c r="CH16" s="22">
+      <c r="CH16" s="21">
         <v>89133.593023129652</v>
       </c>
-      <c r="CI16" s="22">
+      <c r="CI16" s="21">
         <v>86871.905464407406</v>
       </c>
-      <c r="CJ16" s="22">
+      <c r="CJ16" s="21">
         <v>97362.734211497227</v>
       </c>
-      <c r="CK16" s="22">
+      <c r="CK16" s="21">
         <v>112317.8788680947</v>
       </c>
-      <c r="CL16" s="22">
+      <c r="CL16" s="21">
         <v>93443.86102191091</v>
       </c>
-      <c r="CM16" s="22">
-        <v>90525.517067058274</v>
-      </c>
-      <c r="CN16" s="10"/>
+      <c r="CM16" s="21">
+        <v>90408.992524191446</v>
+      </c>
+      <c r="CN16" s="21">
+        <v>105236.80221637682</v>
+      </c>
       <c r="CO16" s="10"/>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
@@ -25776,7 +25784,7 @@
       <c r="EX16" s="10"/>
       <c r="EY16" s="10"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -25868,8 +25876,9 @@
       <c r="CK17" s="15"/>
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
     </row>
-    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
@@ -25963,8 +25972,9 @@
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -26055,7 +26065,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
-      <c r="CN19" s="10"/>
+      <c r="CN19" s="12"/>
       <c r="CO19" s="10"/>
       <c r="CP19" s="10"/>
       <c r="CQ19" s="10"/>
@@ -26120,7 +26130,7 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -26211,7 +26221,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="12"/>
-      <c r="CN20" s="10"/>
+      <c r="CN20" s="12"/>
       <c r="CO20" s="10"/>
       <c r="CP20" s="10"/>
       <c r="CQ20" s="10"/>
@@ -26276,7 +26286,7 @@
       <c r="EX20" s="10"/>
       <c r="EY20" s="10"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -26370,8 +26380,9 @@
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -26465,10 +26476,11 @@
       <c r="CK22" s="1"/>
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26560,8 +26572,9 @@
       <c r="CK23" s="1"/>
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26653,8 +26666,9 @@
       <c r="CK24" s="1"/>
       <c r="CL24" s="1"/>
       <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -26748,10 +26762,11 @@
       <c r="CK25" s="1"/>
       <c r="CL25" s="1"/>
       <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26843,8 +26858,9 @@
       <c r="CK26" s="1"/>
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -26938,8 +26954,9 @@
       <c r="CK27" s="1"/>
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27031,147 +27048,149 @@
       <c r="CK28" s="1"/>
       <c r="CL28" s="1"/>
       <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>2000</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23">
         <v>2001</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="25">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="23">
         <v>2002</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="25">
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23">
         <v>2003</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="25">
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="23">
         <v>2004</v>
       </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="25">
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="23">
         <v>2005</v>
       </c>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="25">
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="23">
         <v>2006</v>
       </c>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="25">
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="23">
         <v>2007</v>
       </c>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="25">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="23">
         <v>2008</v>
       </c>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="25">
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="23">
         <v>2009</v>
       </c>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="25">
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="27"/>
-      <c r="AS29" s="27"/>
-      <c r="AT29" s="25">
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="23">
         <v>2011</v>
       </c>
-      <c r="AU29" s="27"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="27"/>
-      <c r="AX29" s="25">
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="23">
         <v>2012</v>
       </c>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="27"/>
-      <c r="BA29" s="27"/>
-      <c r="BB29" s="25">
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="23">
         <v>2013</v>
       </c>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="27"/>
-      <c r="BE29" s="27"/>
-      <c r="BF29" s="25">
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="23">
         <v>2014</v>
       </c>
-      <c r="BG29" s="27"/>
-      <c r="BH29" s="27"/>
-      <c r="BI29" s="27"/>
-      <c r="BJ29" s="25">
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="24"/>
+      <c r="BJ29" s="23">
         <v>2015</v>
       </c>
-      <c r="BK29" s="27"/>
-      <c r="BL29" s="27"/>
-      <c r="BM29" s="27"/>
-      <c r="BN29" s="25">
+      <c r="BK29" s="24"/>
+      <c r="BL29" s="24"/>
+      <c r="BM29" s="24"/>
+      <c r="BN29" s="23">
         <v>2016</v>
       </c>
-      <c r="BO29" s="27"/>
-      <c r="BP29" s="27"/>
-      <c r="BQ29" s="27"/>
-      <c r="BR29" s="25">
+      <c r="BO29" s="24"/>
+      <c r="BP29" s="24"/>
+      <c r="BQ29" s="24"/>
+      <c r="BR29" s="23">
         <v>2017</v>
       </c>
-      <c r="BS29" s="27"/>
-      <c r="BT29" s="27"/>
-      <c r="BU29" s="27"/>
-      <c r="BV29" s="25">
+      <c r="BS29" s="24"/>
+      <c r="BT29" s="24"/>
+      <c r="BU29" s="24"/>
+      <c r="BV29" s="23">
         <v>2018</v>
       </c>
-      <c r="BW29" s="27"/>
-      <c r="BX29" s="27"/>
-      <c r="BY29" s="27"/>
-      <c r="BZ29" s="25">
+      <c r="BW29" s="24"/>
+      <c r="BX29" s="24"/>
+      <c r="BY29" s="24"/>
+      <c r="BZ29" s="23">
         <v>2019</v>
       </c>
-      <c r="CA29" s="27"/>
-      <c r="CB29" s="27"/>
-      <c r="CC29" s="27"/>
-      <c r="CD29" s="25">
+      <c r="CA29" s="24"/>
+      <c r="CB29" s="24"/>
+      <c r="CC29" s="24"/>
+      <c r="CD29" s="23">
         <v>2020</v>
       </c>
-      <c r="CE29" s="27"/>
-      <c r="CF29" s="27"/>
-      <c r="CG29" s="27"/>
-      <c r="CH29" s="25">
+      <c r="CE29" s="24"/>
+      <c r="CF29" s="24"/>
+      <c r="CG29" s="24"/>
+      <c r="CH29" s="23">
         <v>2021</v>
       </c>
-      <c r="CI29" s="25"/>
-      <c r="CJ29" s="25"/>
-      <c r="CK29" s="25"/>
-      <c r="CL29" s="25">
+      <c r="CI29" s="23"/>
+      <c r="CJ29" s="23"/>
+      <c r="CK29" s="23"/>
+      <c r="CL29" s="23">
         <v>2022</v>
       </c>
-      <c r="CM29" s="25"/>
+      <c r="CM29" s="23"/>
+      <c r="CN29" s="23"/>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
@@ -27445,8 +27464,11 @@
       <c r="CM30" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN30" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27538,8 +27560,9 @@
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
       <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -27813,7 +27836,9 @@
       <c r="CM32" s="9">
         <v>18798.597573220191</v>
       </c>
-      <c r="CN32" s="10"/>
+      <c r="CN32" s="9">
+        <v>27475.106619328792</v>
+      </c>
       <c r="CO32" s="10"/>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
@@ -27878,7 +27903,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -28150,9 +28175,11 @@
         <v>51622.990964930112</v>
       </c>
       <c r="CM33" s="9">
-        <v>61918.933569232046</v>
-      </c>
-      <c r="CN33" s="10"/>
+        <v>61822.916974633001</v>
+      </c>
+      <c r="CN33" s="9">
+        <v>57768.03671260766</v>
+      </c>
       <c r="CO33" s="10"/>
       <c r="CP33" s="10"/>
       <c r="CQ33" s="10"/>
@@ -28217,7 +28244,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -28491,7 +28518,9 @@
       <c r="CM34" s="9">
         <v>3639.2385585482234</v>
       </c>
-      <c r="CN34" s="10"/>
+      <c r="CN34" s="9">
+        <v>5430.1375622327723</v>
+      </c>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -28556,7 +28585,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -28647,7 +28676,7 @@
       <c r="CK35" s="12"/>
       <c r="CL35" s="12"/>
       <c r="CM35" s="12"/>
-      <c r="CN35" s="10"/>
+      <c r="CN35" s="12"/>
       <c r="CO35" s="10"/>
       <c r="CP35" s="10"/>
       <c r="CQ35" s="10"/>
@@ -28712,7 +28741,7 @@
       <c r="EX35" s="10"/>
       <c r="EY35" s="10"/>
     </row>
-    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
@@ -28968,25 +28997,27 @@
       <c r="CG36" s="14">
         <v>80393.681457500294</v>
       </c>
-      <c r="CH36" s="22">
+      <c r="CH36" s="21">
         <v>90437.393659528403</v>
       </c>
-      <c r="CI36" s="22">
+      <c r="CI36" s="21">
         <v>82889.158792558927</v>
       </c>
-      <c r="CJ36" s="22">
+      <c r="CJ36" s="21">
         <v>85600.060504108173</v>
       </c>
-      <c r="CK36" s="22">
+      <c r="CK36" s="21">
         <v>91341.214284308444</v>
       </c>
-      <c r="CL36" s="22">
+      <c r="CL36" s="21">
         <v>91668.428812151149</v>
       </c>
-      <c r="CM36" s="22">
-        <v>84356.769701000463</v>
-      </c>
-      <c r="CN36" s="10"/>
+      <c r="CM36" s="21">
+        <v>84260.753106401418</v>
+      </c>
+      <c r="CN36" s="21">
+        <v>90673.28089416922</v>
+      </c>
       <c r="CO36" s="10"/>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
@@ -29051,7 +29082,7 @@
       <c r="EX36" s="10"/>
       <c r="EY36" s="10"/>
     </row>
-    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -29143,8 +29174,9 @@
       <c r="CK37" s="15"/>
       <c r="CL37" s="15"/>
       <c r="CM37" s="15"/>
+      <c r="CN37" s="15"/>
     </row>
-    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
@@ -29238,8 +29270,9 @@
       <c r="CK38" s="1"/>
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
     </row>
-    <row r="39" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -29330,7 +29363,7 @@
       <c r="CK39" s="12"/>
       <c r="CL39" s="12"/>
       <c r="CM39" s="12"/>
-      <c r="CN39" s="10"/>
+      <c r="CN39" s="12"/>
       <c r="CO39" s="10"/>
       <c r="CP39" s="10"/>
       <c r="CQ39" s="10"/>
@@ -29395,7 +29428,7 @@
       <c r="EX39" s="10"/>
       <c r="EY39" s="10"/>
     </row>
-    <row r="40" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -29486,7 +29519,7 @@
       <c r="CK40" s="12"/>
       <c r="CL40" s="12"/>
       <c r="CM40" s="12"/>
-      <c r="CN40" s="10"/>
+      <c r="CN40" s="12"/>
       <c r="CO40" s="10"/>
       <c r="CP40" s="10"/>
       <c r="CQ40" s="10"/>
@@ -29551,7 +29584,7 @@
       <c r="EX40" s="10"/>
       <c r="EY40" s="10"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -29645,8 +29678,9 @@
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -29740,10 +29774,11 @@
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29835,8 +29870,9 @@
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29928,8 +29964,9 @@
       <c r="CK44" s="1"/>
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -30023,10 +30060,11 @@
       <c r="CK45" s="1"/>
       <c r="CL45" s="1"/>
       <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30118,8 +30156,9 @@
       <c r="CK46" s="1"/>
       <c r="CL46" s="1"/>
       <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -30213,8 +30252,9 @@
       <c r="CK47" s="1"/>
       <c r="CL47" s="1"/>
       <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -30306,145 +30346,147 @@
       <c r="CK48" s="1"/>
       <c r="CL48" s="1"/>
       <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25" t="s">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25" t="s">
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25" t="s">
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25" t="s">
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25" t="s">
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25" t="s">
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25" t="s">
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25" t="s">
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="25"/>
-      <c r="AW49" s="25"/>
-      <c r="AX49" s="25" t="s">
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+      <c r="AX49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="25"/>
-      <c r="AZ49" s="25"/>
-      <c r="BA49" s="25"/>
-      <c r="BB49" s="25" t="s">
+      <c r="AY49" s="23"/>
+      <c r="AZ49" s="23"/>
+      <c r="BA49" s="23"/>
+      <c r="BB49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="25"/>
-      <c r="BD49" s="25"/>
-      <c r="BE49" s="25"/>
-      <c r="BF49" s="25" t="s">
+      <c r="BC49" s="23"/>
+      <c r="BD49" s="23"/>
+      <c r="BE49" s="23"/>
+      <c r="BF49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="25"/>
-      <c r="BH49" s="25"/>
-      <c r="BI49" s="25"/>
-      <c r="BJ49" s="25" t="s">
+      <c r="BG49" s="23"/>
+      <c r="BH49" s="23"/>
+      <c r="BI49" s="23"/>
+      <c r="BJ49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="25"/>
-      <c r="BL49" s="25"/>
-      <c r="BM49" s="25"/>
-      <c r="BN49" s="25" t="s">
+      <c r="BK49" s="23"/>
+      <c r="BL49" s="23"/>
+      <c r="BM49" s="23"/>
+      <c r="BN49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="25"/>
-      <c r="BP49" s="25"/>
-      <c r="BQ49" s="25"/>
-      <c r="BR49" s="25" t="s">
+      <c r="BO49" s="23"/>
+      <c r="BP49" s="23"/>
+      <c r="BQ49" s="23"/>
+      <c r="BR49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="25"/>
-      <c r="BT49" s="25"/>
-      <c r="BU49" s="25"/>
-      <c r="BV49" s="25" t="s">
+      <c r="BS49" s="23"/>
+      <c r="BT49" s="23"/>
+      <c r="BU49" s="23"/>
+      <c r="BV49" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="25"/>
-      <c r="BX49" s="25"/>
-      <c r="BY49" s="25"/>
-      <c r="BZ49" s="25" t="s">
+      <c r="BW49" s="23"/>
+      <c r="BX49" s="23"/>
+      <c r="BY49" s="23"/>
+      <c r="BZ49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="25"/>
-      <c r="CB49" s="25"/>
-      <c r="CC49" s="25"/>
-      <c r="CD49" s="25" t="s">
+      <c r="CA49" s="23"/>
+      <c r="CB49" s="23"/>
+      <c r="CC49" s="23"/>
+      <c r="CD49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="25"/>
-      <c r="CF49" s="25"/>
-      <c r="CG49" s="25"/>
-      <c r="CH49" s="25" t="s">
+      <c r="CE49" s="23"/>
+      <c r="CF49" s="23"/>
+      <c r="CG49" s="23"/>
+      <c r="CH49" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="25"/>
+      <c r="CI49" s="23"/>
       <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
-      <c r="CL49" s="21"/>
-      <c r="CM49" s="21"/>
+      <c r="CK49" s="22"/>
+      <c r="CL49" s="23"/>
+      <c r="CM49" s="23"/>
+      <c r="CN49" s="22"/>
     </row>
-    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -30706,12 +30748,15 @@
       <c r="CI50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ50" s="6"/>
+      <c r="CJ50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK50" s="6"/>
       <c r="CL50" s="6"/>
-      <c r="CM50" s="24"/>
+      <c r="CM50" s="6"/>
+      <c r="CN50" s="6"/>
     </row>
-    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -30803,8 +30848,9 @@
       <c r="CK51" s="1"/>
       <c r="CL51" s="1"/>
       <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -31066,11 +31112,13 @@
       <c r="CI52" s="17">
         <v>11.218769628586884</v>
       </c>
-      <c r="CJ52" s="17"/>
+      <c r="CJ52" s="17">
+        <v>22.410007238529801</v>
+      </c>
       <c r="CK52" s="17"/>
       <c r="CL52" s="17"/>
-      <c r="CM52" s="12"/>
-      <c r="CN52" s="10"/>
+      <c r="CM52" s="17"/>
+      <c r="CN52" s="17"/>
       <c r="CO52" s="10"/>
       <c r="CP52" s="10"/>
       <c r="CQ52" s="10"/>
@@ -31131,7 +31179,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -31391,13 +31439,15 @@
         <v>-1.8801122456893751</v>
       </c>
       <c r="CI53" s="17">
-        <v>1.9671229095234111</v>
-      </c>
-      <c r="CJ53" s="17"/>
+        <v>1.7897523232615242</v>
+      </c>
+      <c r="CJ53" s="17">
+        <v>3.1686743366751813</v>
+      </c>
       <c r="CK53" s="17"/>
       <c r="CL53" s="17"/>
-      <c r="CM53" s="12"/>
-      <c r="CN53" s="10"/>
+      <c r="CM53" s="17"/>
+      <c r="CN53" s="17"/>
       <c r="CO53" s="10"/>
       <c r="CP53" s="10"/>
       <c r="CQ53" s="10"/>
@@ -31458,7 +31508,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -31720,11 +31770,13 @@
       <c r="CI54" s="17">
         <v>10.815535670947796</v>
       </c>
-      <c r="CJ54" s="17"/>
+      <c r="CJ54" s="17">
+        <v>5.258668972791682</v>
+      </c>
       <c r="CK54" s="17"/>
       <c r="CL54" s="17"/>
-      <c r="CM54" s="12"/>
-      <c r="CN54" s="10"/>
+      <c r="CM54" s="17"/>
+      <c r="CN54" s="17"/>
       <c r="CO54" s="10"/>
       <c r="CP54" s="10"/>
       <c r="CQ54" s="10"/>
@@ -31785,7 +31837,7 @@
       <c r="ET54" s="10"/>
       <c r="EU54" s="10"/>
     </row>
-    <row r="55" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -31876,7 +31928,7 @@
       <c r="CK55" s="12"/>
       <c r="CL55" s="12"/>
       <c r="CM55" s="12"/>
-      <c r="CN55" s="10"/>
+      <c r="CN55" s="12"/>
       <c r="CO55" s="10"/>
       <c r="CP55" s="10"/>
       <c r="CQ55" s="10"/>
@@ -31937,7 +31989,7 @@
       <c r="ET55" s="10"/>
       <c r="EU55" s="10"/>
     </row>
-    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>11</v>
       </c>
@@ -32197,13 +32249,15 @@
         <v>4.8357390884744973</v>
       </c>
       <c r="CI56" s="17">
-        <v>4.2057459003794975</v>
-      </c>
-      <c r="CJ56" s="17"/>
+        <v>4.0716121522547155</v>
+      </c>
+      <c r="CJ56" s="17">
+        <v>8.087352998710017</v>
+      </c>
       <c r="CK56" s="17"/>
       <c r="CL56" s="17"/>
-      <c r="CM56" s="12"/>
-      <c r="CN56" s="10"/>
+      <c r="CM56" s="17"/>
+      <c r="CN56" s="17"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
       <c r="CQ56" s="10"/>
@@ -32264,7 +32318,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -32356,8 +32410,9 @@
       <c r="CK57" s="15"/>
       <c r="CL57" s="15"/>
       <c r="CM57" s="15"/>
+      <c r="CN57" s="15"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>0</v>
       </c>
@@ -32451,8 +32506,9 @@
       <c r="CK58" s="1"/>
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -32543,7 +32599,7 @@
       <c r="CK59" s="12"/>
       <c r="CL59" s="12"/>
       <c r="CM59" s="12"/>
-      <c r="CN59" s="10"/>
+      <c r="CN59" s="12"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="10"/>
       <c r="CQ59" s="10"/>
@@ -32604,7 +32660,7 @@
       <c r="ET59" s="10"/>
       <c r="EU59" s="10"/>
     </row>
-    <row r="60" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -32695,7 +32751,7 @@
       <c r="CK60" s="12"/>
       <c r="CL60" s="12"/>
       <c r="CM60" s="12"/>
-      <c r="CN60" s="10"/>
+      <c r="CN60" s="12"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="10"/>
       <c r="CQ60" s="10"/>
@@ -32756,7 +32812,7 @@
       <c r="ET60" s="10"/>
       <c r="EU60" s="10"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -32850,8 +32906,9 @@
       <c r="CK61" s="1"/>
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -32945,10 +33002,11 @@
       <c r="CK62" s="1"/>
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33040,8 +33098,9 @@
       <c r="CK63" s="1"/>
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -33133,8 +33192,9 @@
       <c r="CK64" s="1"/>
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -33228,10 +33288,11 @@
       <c r="CK65" s="1"/>
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33323,8 +33384,9 @@
       <c r="CK66" s="1"/>
       <c r="CL66" s="1"/>
       <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
     </row>
-    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -33418,8 +33480,9 @@
       <c r="CK67" s="1"/>
       <c r="CL67" s="1"/>
       <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
     </row>
-    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -33511,145 +33574,147 @@
       <c r="CK68" s="1"/>
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="25" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="25" t="s">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="25" t="s">
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="25" t="s">
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="25" t="s">
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="25" t="s">
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="25" t="s">
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="26"/>
-      <c r="AH69" s="25" t="s">
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="26"/>
-      <c r="AJ69" s="26"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="25" t="s">
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="26"/>
-      <c r="AN69" s="26"/>
-      <c r="AO69" s="26"/>
-      <c r="AP69" s="25" t="s">
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="26"/>
-      <c r="AR69" s="26"/>
-      <c r="AS69" s="26"/>
-      <c r="AT69" s="25" t="s">
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="26"/>
-      <c r="AV69" s="26"/>
-      <c r="AW69" s="26"/>
-      <c r="AX69" s="25" t="s">
+      <c r="AU69" s="25"/>
+      <c r="AV69" s="25"/>
+      <c r="AW69" s="25"/>
+      <c r="AX69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="26"/>
-      <c r="AZ69" s="26"/>
-      <c r="BA69" s="26"/>
-      <c r="BB69" s="25" t="s">
+      <c r="AY69" s="25"/>
+      <c r="AZ69" s="25"/>
+      <c r="BA69" s="25"/>
+      <c r="BB69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="26"/>
-      <c r="BD69" s="26"/>
-      <c r="BE69" s="26"/>
-      <c r="BF69" s="25" t="s">
+      <c r="BC69" s="25"/>
+      <c r="BD69" s="25"/>
+      <c r="BE69" s="25"/>
+      <c r="BF69" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="26"/>
-      <c r="BH69" s="26"/>
-      <c r="BI69" s="26"/>
-      <c r="BJ69" s="25" t="s">
+      <c r="BG69" s="25"/>
+      <c r="BH69" s="25"/>
+      <c r="BI69" s="25"/>
+      <c r="BJ69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="26"/>
-      <c r="BL69" s="26"/>
-      <c r="BM69" s="26"/>
-      <c r="BN69" s="25" t="s">
+      <c r="BK69" s="25"/>
+      <c r="BL69" s="25"/>
+      <c r="BM69" s="25"/>
+      <c r="BN69" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="26"/>
-      <c r="BP69" s="26"/>
-      <c r="BQ69" s="26"/>
-      <c r="BR69" s="25" t="s">
+      <c r="BO69" s="25"/>
+      <c r="BP69" s="25"/>
+      <c r="BQ69" s="25"/>
+      <c r="BR69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="26"/>
-      <c r="BT69" s="26"/>
-      <c r="BU69" s="26"/>
-      <c r="BV69" s="25" t="s">
+      <c r="BS69" s="25"/>
+      <c r="BT69" s="25"/>
+      <c r="BU69" s="25"/>
+      <c r="BV69" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="26"/>
-      <c r="BX69" s="26"/>
-      <c r="BY69" s="26"/>
-      <c r="BZ69" s="25" t="s">
+      <c r="BW69" s="25"/>
+      <c r="BX69" s="25"/>
+      <c r="BY69" s="25"/>
+      <c r="BZ69" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="26"/>
-      <c r="CB69" s="26"/>
-      <c r="CC69" s="26"/>
-      <c r="CD69" s="25" t="s">
+      <c r="CA69" s="25"/>
+      <c r="CB69" s="25"/>
+      <c r="CC69" s="25"/>
+      <c r="CD69" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="26"/>
-      <c r="CF69" s="26"/>
-      <c r="CG69" s="26"/>
-      <c r="CH69" s="25" t="s">
+      <c r="CE69" s="25"/>
+      <c r="CF69" s="25"/>
+      <c r="CG69" s="25"/>
+      <c r="CH69" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="25"/>
+      <c r="CI69" s="23"/>
       <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
-      <c r="CL69" s="21"/>
-      <c r="CM69" s="21"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="23"/>
+      <c r="CM69" s="23"/>
+      <c r="CN69" s="22"/>
     </row>
-    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>4</v>
       </c>
@@ -33911,12 +33976,15 @@
       <c r="CI70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ70" s="6"/>
+      <c r="CJ70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK70" s="6"/>
       <c r="CL70" s="6"/>
-      <c r="CM70" s="24"/>
+      <c r="CM70" s="6"/>
+      <c r="CN70" s="6"/>
     </row>
-    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -34008,8 +34076,9 @@
       <c r="CK71" s="1"/>
       <c r="CL71" s="1"/>
       <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
     </row>
-    <row r="72" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -34271,11 +34340,13 @@
       <c r="CI72" s="17">
         <v>5.594371598837995</v>
       </c>
-      <c r="CJ72" s="17"/>
+      <c r="CJ72" s="17">
+        <v>17.837970705863754</v>
+      </c>
       <c r="CK72" s="17"/>
       <c r="CL72" s="17"/>
-      <c r="CM72" s="12"/>
-      <c r="CN72" s="10"/>
+      <c r="CM72" s="17"/>
+      <c r="CN72" s="17"/>
       <c r="CO72" s="10"/>
       <c r="CP72" s="10"/>
       <c r="CQ72" s="10"/>
@@ -34336,7 +34407,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -34596,13 +34667,15 @@
         <v>-4.3560819899790602</v>
       </c>
       <c r="CI73" s="17">
-        <v>0.24230715094294908</v>
-      </c>
-      <c r="CJ73" s="17"/>
+        <v>8.6863179082172337E-2</v>
+      </c>
+      <c r="CJ73" s="17">
+        <v>1.4471920800254168</v>
+      </c>
       <c r="CK73" s="17"/>
       <c r="CL73" s="17"/>
-      <c r="CM73" s="12"/>
-      <c r="CN73" s="10"/>
+      <c r="CM73" s="17"/>
+      <c r="CN73" s="17"/>
       <c r="CO73" s="10"/>
       <c r="CP73" s="10"/>
       <c r="CQ73" s="10"/>
@@ -34663,7 +34736,7 @@
       <c r="ET73" s="10"/>
       <c r="EU73" s="10"/>
     </row>
-    <row r="74" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -34925,11 +34998,13 @@
       <c r="CI74" s="17">
         <v>9.7066411346224015</v>
       </c>
-      <c r="CJ74" s="17"/>
+      <c r="CJ74" s="17">
+        <v>1.685921404403274</v>
+      </c>
       <c r="CK74" s="17"/>
       <c r="CL74" s="17"/>
-      <c r="CM74" s="12"/>
-      <c r="CN74" s="10"/>
+      <c r="CM74" s="17"/>
+      <c r="CN74" s="17"/>
       <c r="CO74" s="10"/>
       <c r="CP74" s="10"/>
       <c r="CQ74" s="10"/>
@@ -34990,7 +35065,7 @@
       <c r="ET74" s="10"/>
       <c r="EU74" s="10"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -35081,7 +35156,7 @@
       <c r="CK75" s="12"/>
       <c r="CL75" s="12"/>
       <c r="CM75" s="12"/>
-      <c r="CN75" s="10"/>
+      <c r="CN75" s="12"/>
       <c r="CO75" s="10"/>
       <c r="CP75" s="10"/>
       <c r="CQ75" s="10"/>
@@ -35142,7 +35217,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>11</v>
       </c>
@@ -35402,13 +35477,15 @@
         <v>1.3612014928882701</v>
       </c>
       <c r="CI76" s="17">
-        <v>1.7705703976492515</v>
-      </c>
-      <c r="CJ76" s="17"/>
+        <v>1.654733060176298</v>
+      </c>
+      <c r="CJ76" s="17">
+        <v>5.9266551450831884</v>
+      </c>
       <c r="CK76" s="17"/>
       <c r="CL76" s="17"/>
-      <c r="CM76" s="12"/>
-      <c r="CN76" s="10"/>
+      <c r="CM76" s="17"/>
+      <c r="CN76" s="17"/>
       <c r="CO76" s="10"/>
       <c r="CP76" s="10"/>
       <c r="CQ76" s="10"/>
@@ -35469,7 +35546,7 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -35561,8 +35638,9 @@
       <c r="CK77" s="15"/>
       <c r="CL77" s="15"/>
       <c r="CM77" s="15"/>
+      <c r="CN77" s="15"/>
     </row>
-    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>0</v>
       </c>
@@ -35656,8 +35734,9 @@
       <c r="CK78" s="1"/>
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -35748,7 +35827,7 @@
       <c r="CK79" s="12"/>
       <c r="CL79" s="12"/>
       <c r="CM79" s="12"/>
-      <c r="CN79" s="10"/>
+      <c r="CN79" s="12"/>
       <c r="CO79" s="10"/>
       <c r="CP79" s="10"/>
       <c r="CQ79" s="10"/>
@@ -35809,7 +35888,7 @@
       <c r="ET79" s="10"/>
       <c r="EU79" s="10"/>
     </row>
-    <row r="80" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -35961,7 +36040,7 @@
       <c r="ET80" s="10"/>
       <c r="EU80" s="10"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -36055,10 +36134,11 @@
       <c r="CK81" s="1"/>
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36150,8 +36230,9 @@
       <c r="CK82" s="1"/>
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -36243,8 +36324,9 @@
       <c r="CK83" s="1"/>
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -36338,10 +36420,11 @@
       <c r="CK84" s="1"/>
       <c r="CL84" s="1"/>
       <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36433,8 +36516,9 @@
       <c r="CK85" s="1"/>
       <c r="CL85" s="1"/>
       <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -36528,8 +36612,9 @@
       <c r="CK86" s="1"/>
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -36621,147 +36706,149 @@
       <c r="CK87" s="1"/>
       <c r="CL87" s="1"/>
       <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
     </row>
-    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="25">
+      <c r="B88" s="23">
         <v>2000</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="25">
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23">
         <v>2001</v>
       </c>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="25">
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="23">
         <v>2002</v>
       </c>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="25">
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="23">
         <v>2003</v>
       </c>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="25">
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="23">
         <v>2004</v>
       </c>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="25">
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="23">
         <v>2005</v>
       </c>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="25">
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="23">
         <v>2006</v>
       </c>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="25">
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="23">
         <v>2007</v>
       </c>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="25">
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="23">
         <v>2008</v>
       </c>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="25">
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="24"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="23">
         <v>2009</v>
       </c>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="27"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="25">
+      <c r="AM88" s="24"/>
+      <c r="AN88" s="24"/>
+      <c r="AO88" s="24"/>
+      <c r="AP88" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="27"/>
-      <c r="AR88" s="27"/>
-      <c r="AS88" s="27"/>
-      <c r="AT88" s="25">
+      <c r="AQ88" s="24"/>
+      <c r="AR88" s="24"/>
+      <c r="AS88" s="24"/>
+      <c r="AT88" s="23">
         <v>2011</v>
       </c>
-      <c r="AU88" s="27"/>
-      <c r="AV88" s="27"/>
-      <c r="AW88" s="27"/>
-      <c r="AX88" s="25">
+      <c r="AU88" s="24"/>
+      <c r="AV88" s="24"/>
+      <c r="AW88" s="24"/>
+      <c r="AX88" s="23">
         <v>2012</v>
       </c>
-      <c r="AY88" s="27"/>
-      <c r="AZ88" s="27"/>
-      <c r="BA88" s="27"/>
-      <c r="BB88" s="25">
+      <c r="AY88" s="24"/>
+      <c r="AZ88" s="24"/>
+      <c r="BA88" s="24"/>
+      <c r="BB88" s="23">
         <v>2013</v>
       </c>
-      <c r="BC88" s="27"/>
-      <c r="BD88" s="27"/>
-      <c r="BE88" s="27"/>
-      <c r="BF88" s="25">
+      <c r="BC88" s="24"/>
+      <c r="BD88" s="24"/>
+      <c r="BE88" s="24"/>
+      <c r="BF88" s="23">
         <v>2014</v>
       </c>
-      <c r="BG88" s="27"/>
-      <c r="BH88" s="27"/>
-      <c r="BI88" s="27"/>
-      <c r="BJ88" s="25">
+      <c r="BG88" s="24"/>
+      <c r="BH88" s="24"/>
+      <c r="BI88" s="24"/>
+      <c r="BJ88" s="23">
         <v>2015</v>
       </c>
-      <c r="BK88" s="27"/>
-      <c r="BL88" s="27"/>
-      <c r="BM88" s="27"/>
-      <c r="BN88" s="25">
+      <c r="BK88" s="24"/>
+      <c r="BL88" s="24"/>
+      <c r="BM88" s="24"/>
+      <c r="BN88" s="23">
         <v>2016</v>
       </c>
-      <c r="BO88" s="27"/>
-      <c r="BP88" s="27"/>
-      <c r="BQ88" s="27"/>
-      <c r="BR88" s="25">
+      <c r="BO88" s="24"/>
+      <c r="BP88" s="24"/>
+      <c r="BQ88" s="24"/>
+      <c r="BR88" s="23">
         <v>2017</v>
       </c>
-      <c r="BS88" s="27"/>
-      <c r="BT88" s="27"/>
-      <c r="BU88" s="27"/>
-      <c r="BV88" s="25">
+      <c r="BS88" s="24"/>
+      <c r="BT88" s="24"/>
+      <c r="BU88" s="24"/>
+      <c r="BV88" s="23">
         <v>2018</v>
       </c>
-      <c r="BW88" s="27"/>
-      <c r="BX88" s="27"/>
-      <c r="BY88" s="27"/>
-      <c r="BZ88" s="25">
+      <c r="BW88" s="24"/>
+      <c r="BX88" s="24"/>
+      <c r="BY88" s="24"/>
+      <c r="BZ88" s="23">
         <v>2019</v>
       </c>
-      <c r="CA88" s="27"/>
-      <c r="CB88" s="27"/>
-      <c r="CC88" s="27"/>
-      <c r="CD88" s="25">
+      <c r="CA88" s="24"/>
+      <c r="CB88" s="24"/>
+      <c r="CC88" s="24"/>
+      <c r="CD88" s="23">
         <v>2020</v>
       </c>
-      <c r="CE88" s="27"/>
-      <c r="CF88" s="27"/>
-      <c r="CG88" s="27"/>
-      <c r="CH88" s="25">
+      <c r="CE88" s="24"/>
+      <c r="CF88" s="24"/>
+      <c r="CG88" s="24"/>
+      <c r="CH88" s="23">
         <v>2021</v>
       </c>
-      <c r="CI88" s="25"/>
-      <c r="CJ88" s="25"/>
-      <c r="CK88" s="25"/>
-      <c r="CL88" s="25">
+      <c r="CI88" s="23"/>
+      <c r="CJ88" s="23"/>
+      <c r="CK88" s="23"/>
+      <c r="CL88" s="23">
         <v>2022</v>
       </c>
-      <c r="CM88" s="25"/>
+      <c r="CM88" s="23"/>
+      <c r="CN88" s="23"/>
     </row>
-    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>4</v>
       </c>
@@ -37035,8 +37122,11 @@
       <c r="CM89" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN89" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -37128,8 +37218,9 @@
       <c r="CK90" s="1"/>
       <c r="CL90" s="1"/>
       <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
     </row>
-    <row r="91" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -37403,7 +37494,9 @@
       <c r="CM91" s="17">
         <v>104.11568668685611</v>
       </c>
-      <c r="CN91" s="10"/>
+      <c r="CN91" s="17">
+        <v>107.81660829922311</v>
+      </c>
       <c r="CO91" s="10"/>
       <c r="CP91" s="10"/>
       <c r="CQ91" s="10"/>
@@ -37468,7 +37561,7 @@
       <c r="EX91" s="10"/>
       <c r="EY91" s="10"/>
     </row>
-    <row r="92" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -37740,9 +37833,11 @@
         <v>98.885398435508037</v>
       </c>
       <c r="CM92" s="17">
-        <v>108.18635876141775</v>
-      </c>
-      <c r="CN92" s="10"/>
+        <v>108.16590083742723</v>
+      </c>
+      <c r="CN92" s="17">
+        <v>119.32923639553432</v>
+      </c>
       <c r="CO92" s="10"/>
       <c r="CP92" s="10"/>
       <c r="CQ92" s="10"/>
@@ -37807,7 +37902,7 @@
       <c r="EX92" s="10"/>
       <c r="EY92" s="10"/>
     </row>
-    <row r="93" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -38081,7 +38176,9 @@
       <c r="CM93" s="17">
         <v>108.96203807342515</v>
       </c>
-      <c r="CN93" s="10"/>
+      <c r="CN93" s="17">
+        <v>123.01561362706741</v>
+      </c>
       <c r="CO93" s="10"/>
       <c r="CP93" s="10"/>
       <c r="CQ93" s="10"/>
@@ -38146,7 +38243,7 @@
       <c r="EX93" s="10"/>
       <c r="EY93" s="10"/>
     </row>
-    <row r="94" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -38237,7 +38334,7 @@
       <c r="CK94" s="12"/>
       <c r="CL94" s="12"/>
       <c r="CM94" s="12"/>
-      <c r="CN94" s="10"/>
+      <c r="CN94" s="12"/>
       <c r="CO94" s="10"/>
       <c r="CP94" s="10"/>
       <c r="CQ94" s="10"/>
@@ -38302,7 +38399,7 @@
       <c r="EX94" s="10"/>
       <c r="EY94" s="10"/>
     </row>
-    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>11</v>
       </c>
@@ -38574,9 +38671,11 @@
         <v>101.93679790606865</v>
       </c>
       <c r="CM95" s="17">
-        <v>107.31268798926597</v>
-      </c>
-      <c r="CN95" s="10"/>
+        <v>107.29668225256216</v>
+      </c>
+      <c r="CN95" s="17">
+        <v>116.06153563496355</v>
+      </c>
       <c r="CO95" s="10"/>
       <c r="CP95" s="10"/>
       <c r="CQ95" s="10"/>
@@ -38641,7 +38740,7 @@
       <c r="EX95" s="10"/>
       <c r="EY95" s="10"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -38733,8 +38832,9 @@
       <c r="CK96" s="15"/>
       <c r="CL96" s="15"/>
       <c r="CM96" s="15"/>
+      <c r="CN96" s="15"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>0</v>
       </c>
@@ -38828,8 +38928,9 @@
       <c r="CK97" s="1"/>
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -38920,8 +39021,9 @@
       <c r="CK98" s="1"/>
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -39012,8 +39114,9 @@
       <c r="CK99" s="1"/>
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -39107,8 +39210,9 @@
       <c r="CK100" s="1"/>
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -39202,10 +39306,11 @@
       <c r="CK101" s="1"/>
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39297,8 +39402,9 @@
       <c r="CK102" s="1"/>
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -39390,8 +39496,9 @@
       <c r="CK103" s="1"/>
       <c r="CL103" s="1"/>
       <c r="CM103" s="1"/>
+      <c r="CN103" s="1"/>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -39485,10 +39592,11 @@
       <c r="CK104" s="1"/>
       <c r="CL104" s="1"/>
       <c r="CM104" s="1"/>
+      <c r="CN104" s="1"/>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39580,8 +39688,9 @@
       <c r="CK105" s="1"/>
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
@@ -39675,8 +39784,9 @@
       <c r="CK106" s="1"/>
       <c r="CL106" s="1"/>
       <c r="CM106" s="1"/>
+      <c r="CN106" s="1"/>
     </row>
-    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -39768,147 +39878,149 @@
       <c r="CK107" s="1"/>
       <c r="CL107" s="1"/>
       <c r="CM107" s="1"/>
+      <c r="CN107" s="1"/>
     </row>
-    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="25">
+      <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="25">
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="25">
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="25">
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="25">
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="25">
+      <c r="S108" s="24"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="25">
+      <c r="W108" s="24"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="25">
+      <c r="AA108" s="24"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="25">
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="25">
+      <c r="AI108" s="24"/>
+      <c r="AJ108" s="24"/>
+      <c r="AK108" s="24"/>
+      <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="25">
+      <c r="AM108" s="24"/>
+      <c r="AN108" s="24"/>
+      <c r="AO108" s="24"/>
+      <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="25">
+      <c r="AQ108" s="24"/>
+      <c r="AR108" s="24"/>
+      <c r="AS108" s="24"/>
+      <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-      <c r="AW108" s="27"/>
-      <c r="AX108" s="25">
+      <c r="AU108" s="24"/>
+      <c r="AV108" s="24"/>
+      <c r="AW108" s="24"/>
+      <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="27"/>
-      <c r="AZ108" s="27"/>
-      <c r="BA108" s="27"/>
-      <c r="BB108" s="25">
+      <c r="AY108" s="24"/>
+      <c r="AZ108" s="24"/>
+      <c r="BA108" s="24"/>
+      <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="27"/>
-      <c r="BD108" s="27"/>
-      <c r="BE108" s="27"/>
-      <c r="BF108" s="25">
+      <c r="BC108" s="24"/>
+      <c r="BD108" s="24"/>
+      <c r="BE108" s="24"/>
+      <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="27"/>
-      <c r="BH108" s="27"/>
-      <c r="BI108" s="27"/>
-      <c r="BJ108" s="25">
+      <c r="BG108" s="24"/>
+      <c r="BH108" s="24"/>
+      <c r="BI108" s="24"/>
+      <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="27"/>
-      <c r="BL108" s="27"/>
-      <c r="BM108" s="27"/>
-      <c r="BN108" s="25">
+      <c r="BK108" s="24"/>
+      <c r="BL108" s="24"/>
+      <c r="BM108" s="24"/>
+      <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="27"/>
-      <c r="BP108" s="27"/>
-      <c r="BQ108" s="27"/>
-      <c r="BR108" s="25">
+      <c r="BO108" s="24"/>
+      <c r="BP108" s="24"/>
+      <c r="BQ108" s="24"/>
+      <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="27"/>
-      <c r="BT108" s="27"/>
-      <c r="BU108" s="27"/>
-      <c r="BV108" s="25">
+      <c r="BS108" s="24"/>
+      <c r="BT108" s="24"/>
+      <c r="BU108" s="24"/>
+      <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="27"/>
-      <c r="BX108" s="27"/>
-      <c r="BY108" s="27"/>
-      <c r="BZ108" s="25">
+      <c r="BW108" s="24"/>
+      <c r="BX108" s="24"/>
+      <c r="BY108" s="24"/>
+      <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="27"/>
-      <c r="CB108" s="27"/>
-      <c r="CC108" s="27"/>
-      <c r="CD108" s="25">
+      <c r="CA108" s="24"/>
+      <c r="CB108" s="24"/>
+      <c r="CC108" s="24"/>
+      <c r="CD108" s="23">
         <v>2020</v>
       </c>
-      <c r="CE108" s="27"/>
-      <c r="CF108" s="27"/>
-      <c r="CG108" s="27"/>
-      <c r="CH108" s="25">
+      <c r="CE108" s="24"/>
+      <c r="CF108" s="24"/>
+      <c r="CG108" s="24"/>
+      <c r="CH108" s="23">
         <v>2021</v>
       </c>
-      <c r="CI108" s="25"/>
-      <c r="CJ108" s="25"/>
-      <c r="CK108" s="25"/>
-      <c r="CL108" s="25">
+      <c r="CI108" s="23"/>
+      <c r="CJ108" s="23"/>
+      <c r="CK108" s="23"/>
+      <c r="CL108" s="23">
         <v>2022</v>
       </c>
-      <c r="CM108" s="25"/>
+      <c r="CM108" s="23"/>
+      <c r="CN108" s="23"/>
     </row>
-    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>4</v>
       </c>
@@ -40182,8 +40294,11 @@
       <c r="CM109" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN109" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -40275,8 +40390,9 @@
       <c r="CK110" s="1"/>
       <c r="CL110" s="1"/>
       <c r="CM110" s="1"/>
+      <c r="CN110" s="1"/>
     </row>
-    <row r="111" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -40548,9 +40664,11 @@
         <v>39.028690769437894</v>
       </c>
       <c r="CM111" s="17">
-        <v>21.620742509936036</v>
-      </c>
-      <c r="CN111" s="10"/>
+        <v>21.648608622222792</v>
+      </c>
+      <c r="CN111" s="17">
+        <v>28.148639506024249</v>
+      </c>
       <c r="CO111" s="10"/>
       <c r="CP111" s="10"/>
       <c r="CQ111" s="10"/>
@@ -40615,7 +40733,7 @@
       <c r="EX111" s="10"/>
       <c r="EY111" s="10"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -40887,9 +41005,11 @@
         <v>54.629164229448648</v>
       </c>
       <c r="CM112" s="17">
-        <v>73.998847819704764</v>
-      </c>
-      <c r="CN112" s="10"/>
+        <v>73.965335972185756</v>
+      </c>
+      <c r="CN112" s="17">
+        <v>65.503850020177822</v>
+      </c>
       <c r="CO112" s="10"/>
       <c r="CP112" s="10"/>
       <c r="CQ112" s="10"/>
@@ -40954,7 +41074,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -41226,9 +41346,11 @@
         <v>6.3421450011134608</v>
       </c>
       <c r="CM113" s="17">
-        <v>4.380409670359195</v>
-      </c>
-      <c r="CN113" s="10"/>
+        <v>4.3860554055914669</v>
+      </c>
+      <c r="CN113" s="17">
+        <v>6.3475104737979233</v>
+      </c>
       <c r="CO113" s="10"/>
       <c r="CP113" s="10"/>
       <c r="CQ113" s="10"/>
@@ -41293,7 +41415,7 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -41384,7 +41506,7 @@
       <c r="CK114" s="12"/>
       <c r="CL114" s="12"/>
       <c r="CM114" s="12"/>
-      <c r="CN114" s="10"/>
+      <c r="CN114" s="12"/>
       <c r="CO114" s="10"/>
       <c r="CP114" s="10"/>
       <c r="CQ114" s="10"/>
@@ -41449,7 +41571,7 @@
       <c r="EX114" s="10"/>
       <c r="EY114" s="10"/>
     </row>
-    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>11</v>
       </c>
@@ -41723,7 +41845,9 @@
       <c r="CM115" s="17">
         <v>100</v>
       </c>
-      <c r="CN115" s="10"/>
+      <c r="CN115" s="17">
+        <v>100</v>
+      </c>
       <c r="CO115" s="10"/>
       <c r="CP115" s="10"/>
       <c r="CQ115" s="10"/>
@@ -41788,7 +41912,7 @@
       <c r="EX115" s="10"/>
       <c r="EY115" s="10"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -41880,8 +42004,9 @@
       <c r="CK116" s="15"/>
       <c r="CL116" s="15"/>
       <c r="CM116" s="15"/>
+      <c r="CN116" s="15"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
         <v>0</v>
       </c>
@@ -41975,8 +42100,9 @@
       <c r="CK117" s="1"/>
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -42067,7 +42193,7 @@
       <c r="CK118" s="12"/>
       <c r="CL118" s="12"/>
       <c r="CM118" s="12"/>
-      <c r="CN118" s="10"/>
+      <c r="CN118" s="12"/>
       <c r="CO118" s="10"/>
       <c r="CP118" s="10"/>
       <c r="CQ118" s="10"/>
@@ -42132,7 +42258,7 @@
       <c r="EX118" s="10"/>
       <c r="EY118" s="10"/>
     </row>
-    <row r="119" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -42223,7 +42349,7 @@
       <c r="CK119" s="12"/>
       <c r="CL119" s="12"/>
       <c r="CM119" s="12"/>
-      <c r="CN119" s="10"/>
+      <c r="CN119" s="12"/>
       <c r="CO119" s="10"/>
       <c r="CP119" s="10"/>
       <c r="CQ119" s="10"/>
@@ -42288,7 +42414,7 @@
       <c r="EX119" s="10"/>
       <c r="EY119" s="10"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -42382,8 +42508,9 @@
       <c r="CK120" s="1"/>
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -42477,10 +42604,11 @@
       <c r="CK121" s="1"/>
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -42572,8 +42700,9 @@
       <c r="CK122" s="1"/>
       <c r="CL122" s="1"/>
       <c r="CM122" s="1"/>
+      <c r="CN122" s="1"/>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -42665,8 +42794,9 @@
       <c r="CK123" s="1"/>
       <c r="CL123" s="1"/>
       <c r="CM123" s="1"/>
+      <c r="CN123" s="1"/>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -42760,10 +42890,11 @@
       <c r="CK124" s="1"/>
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
+      <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -42855,8 +42986,9 @@
       <c r="CK125" s="1"/>
       <c r="CL125" s="1"/>
       <c r="CM125" s="1"/>
+      <c r="CN125" s="1"/>
     </row>
-    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
@@ -42950,8 +43082,9 @@
       <c r="CK126" s="1"/>
       <c r="CL126" s="1"/>
       <c r="CM126" s="1"/>
+      <c r="CN126" s="1"/>
     </row>
-    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -43043,147 +43176,149 @@
       <c r="CK127" s="1"/>
       <c r="CL127" s="1"/>
       <c r="CM127" s="1"/>
+      <c r="CN127" s="1"/>
     </row>
-    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="25">
+      <c r="B128" s="23">
         <v>2000</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="25">
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23">
         <v>2001</v>
       </c>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="25">
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="23">
         <v>2002</v>
       </c>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="25">
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="23">
         <v>2003</v>
       </c>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
-      <c r="R128" s="25">
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="23">
         <v>2004</v>
       </c>
-      <c r="S128" s="27"/>
-      <c r="T128" s="27"/>
-      <c r="U128" s="27"/>
-      <c r="V128" s="25">
+      <c r="S128" s="24"/>
+      <c r="T128" s="24"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="23">
         <v>2005</v>
       </c>
-      <c r="W128" s="27"/>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="25">
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="23">
         <v>2006</v>
       </c>
-      <c r="AA128" s="27"/>
-      <c r="AB128" s="27"/>
-      <c r="AC128" s="27"/>
-      <c r="AD128" s="25">
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="24"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="23">
         <v>2007</v>
       </c>
-      <c r="AE128" s="27"/>
-      <c r="AF128" s="27"/>
-      <c r="AG128" s="27"/>
-      <c r="AH128" s="25">
+      <c r="AE128" s="24"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="23">
         <v>2008</v>
       </c>
-      <c r="AI128" s="27"/>
-      <c r="AJ128" s="27"/>
-      <c r="AK128" s="27"/>
-      <c r="AL128" s="25">
+      <c r="AI128" s="24"/>
+      <c r="AJ128" s="24"/>
+      <c r="AK128" s="24"/>
+      <c r="AL128" s="23">
         <v>2009</v>
       </c>
-      <c r="AM128" s="27"/>
-      <c r="AN128" s="27"/>
-      <c r="AO128" s="27"/>
-      <c r="AP128" s="25">
+      <c r="AM128" s="24"/>
+      <c r="AN128" s="24"/>
+      <c r="AO128" s="24"/>
+      <c r="AP128" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="27"/>
-      <c r="AR128" s="27"/>
-      <c r="AS128" s="27"/>
-      <c r="AT128" s="25">
+      <c r="AQ128" s="24"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="24"/>
+      <c r="AT128" s="23">
         <v>2011</v>
       </c>
-      <c r="AU128" s="27"/>
-      <c r="AV128" s="27"/>
-      <c r="AW128" s="27"/>
-      <c r="AX128" s="25">
+      <c r="AU128" s="24"/>
+      <c r="AV128" s="24"/>
+      <c r="AW128" s="24"/>
+      <c r="AX128" s="23">
         <v>2012</v>
       </c>
-      <c r="AY128" s="27"/>
-      <c r="AZ128" s="27"/>
-      <c r="BA128" s="27"/>
-      <c r="BB128" s="25">
+      <c r="AY128" s="24"/>
+      <c r="AZ128" s="24"/>
+      <c r="BA128" s="24"/>
+      <c r="BB128" s="23">
         <v>2013</v>
       </c>
-      <c r="BC128" s="27"/>
-      <c r="BD128" s="27"/>
-      <c r="BE128" s="27"/>
-      <c r="BF128" s="25">
+      <c r="BC128" s="24"/>
+      <c r="BD128" s="24"/>
+      <c r="BE128" s="24"/>
+      <c r="BF128" s="23">
         <v>2014</v>
       </c>
-      <c r="BG128" s="27"/>
-      <c r="BH128" s="27"/>
-      <c r="BI128" s="27"/>
-      <c r="BJ128" s="25">
+      <c r="BG128" s="24"/>
+      <c r="BH128" s="24"/>
+      <c r="BI128" s="24"/>
+      <c r="BJ128" s="23">
         <v>2015</v>
       </c>
-      <c r="BK128" s="27"/>
-      <c r="BL128" s="27"/>
-      <c r="BM128" s="27"/>
-      <c r="BN128" s="25">
+      <c r="BK128" s="24"/>
+      <c r="BL128" s="24"/>
+      <c r="BM128" s="24"/>
+      <c r="BN128" s="23">
         <v>2016</v>
       </c>
-      <c r="BO128" s="27"/>
-      <c r="BP128" s="27"/>
-      <c r="BQ128" s="27"/>
-      <c r="BR128" s="25">
+      <c r="BO128" s="24"/>
+      <c r="BP128" s="24"/>
+      <c r="BQ128" s="24"/>
+      <c r="BR128" s="23">
         <v>2017</v>
       </c>
-      <c r="BS128" s="27"/>
-      <c r="BT128" s="27"/>
-      <c r="BU128" s="27"/>
-      <c r="BV128" s="25">
+      <c r="BS128" s="24"/>
+      <c r="BT128" s="24"/>
+      <c r="BU128" s="24"/>
+      <c r="BV128" s="23">
         <v>2018</v>
       </c>
-      <c r="BW128" s="27"/>
-      <c r="BX128" s="27"/>
-      <c r="BY128" s="27"/>
-      <c r="BZ128" s="25">
+      <c r="BW128" s="24"/>
+      <c r="BX128" s="24"/>
+      <c r="BY128" s="24"/>
+      <c r="BZ128" s="23">
         <v>2019</v>
       </c>
-      <c r="CA128" s="27"/>
-      <c r="CB128" s="27"/>
-      <c r="CC128" s="27"/>
-      <c r="CD128" s="25">
+      <c r="CA128" s="24"/>
+      <c r="CB128" s="24"/>
+      <c r="CC128" s="24"/>
+      <c r="CD128" s="23">
         <v>2020</v>
       </c>
-      <c r="CE128" s="27"/>
-      <c r="CF128" s="27"/>
-      <c r="CG128" s="27"/>
-      <c r="CH128" s="25">
+      <c r="CE128" s="24"/>
+      <c r="CF128" s="24"/>
+      <c r="CG128" s="24"/>
+      <c r="CH128" s="23">
         <v>2021</v>
       </c>
-      <c r="CI128" s="25"/>
-      <c r="CJ128" s="25"/>
-      <c r="CK128" s="25"/>
-      <c r="CL128" s="25">
+      <c r="CI128" s="23"/>
+      <c r="CJ128" s="23"/>
+      <c r="CK128" s="23"/>
+      <c r="CL128" s="23">
         <v>2022</v>
       </c>
-      <c r="CM128" s="25"/>
+      <c r="CM128" s="23"/>
+      <c r="CN128" s="23"/>
     </row>
-    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>4</v>
       </c>
@@ -43457,8 +43592,11 @@
       <c r="CM129" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN129" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -43550,8 +43688,9 @@
       <c r="CK130" s="1"/>
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
+      <c r="CN130" s="1"/>
     </row>
-    <row r="131" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>14</v>
       </c>
@@ -43823,9 +43962,11 @@
         <v>37.492586860895763</v>
       </c>
       <c r="CM131" s="17">
-        <v>22.284634226572621</v>
-      </c>
-      <c r="CN131" s="10"/>
+        <v>22.310027955105035</v>
+      </c>
+      <c r="CN131" s="17">
+        <v>30.301215913204686</v>
+      </c>
       <c r="CO131" s="10"/>
       <c r="CP131" s="10"/>
       <c r="CQ131" s="10"/>
@@ -43890,7 +44031,7 @@
       <c r="EX131" s="10"/>
       <c r="EY131" s="10"/>
     </row>
-    <row r="132" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -44162,9 +44303,11 @@
         <v>56.314907579268123</v>
       </c>
       <c r="CM132" s="17">
-        <v>73.401262031134536</v>
-      </c>
-      <c r="CN132" s="10"/>
+        <v>73.370952306307146</v>
+      </c>
+      <c r="CN132" s="17">
+        <v>63.710098656331361</v>
+      </c>
       <c r="CO132" s="10"/>
       <c r="CP132" s="10"/>
       <c r="CQ132" s="10"/>
@@ -44229,7 +44372,7 @@
       <c r="EX132" s="10"/>
       <c r="EY132" s="10"/>
     </row>
-    <row r="133" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -44501,9 +44644,11 @@
         <v>6.1925055598361229</v>
       </c>
       <c r="CM133" s="17">
-        <v>4.3141037422928523</v>
-      </c>
-      <c r="CN133" s="10"/>
+        <v>4.3190197385878157</v>
+      </c>
+      <c r="CN133" s="17">
+        <v>5.988685430463959</v>
+      </c>
       <c r="CO133" s="10"/>
       <c r="CP133" s="10"/>
       <c r="CQ133" s="10"/>
@@ -44568,7 +44713,7 @@
       <c r="EX133" s="10"/>
       <c r="EY133" s="10"/>
     </row>
-    <row r="134" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -44659,7 +44804,7 @@
       <c r="CK134" s="12"/>
       <c r="CL134" s="12"/>
       <c r="CM134" s="12"/>
-      <c r="CN134" s="10"/>
+      <c r="CN134" s="12"/>
       <c r="CO134" s="10"/>
       <c r="CP134" s="10"/>
       <c r="CQ134" s="10"/>
@@ -44724,7 +44869,7 @@
       <c r="EX134" s="10"/>
       <c r="EY134" s="10"/>
     </row>
-    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>11</v>
       </c>
@@ -44998,7 +45143,9 @@
       <c r="CM135" s="17">
         <v>100</v>
       </c>
-      <c r="CN135" s="10"/>
+      <c r="CN135" s="17">
+        <v>100</v>
+      </c>
       <c r="CO135" s="10"/>
       <c r="CP135" s="10"/>
       <c r="CQ135" s="10"/>
@@ -45063,7 +45210,7 @@
       <c r="EX135" s="10"/>
       <c r="EY135" s="10"/>
     </row>
-    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -45155,8 +45302,9 @@
       <c r="CK136" s="15"/>
       <c r="CL136" s="15"/>
       <c r="CM136" s="15"/>
+      <c r="CN136" s="15"/>
     </row>
-    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
         <v>0</v>
       </c>
@@ -45250,8 +45398,9 @@
       <c r="CK137" s="1"/>
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
+      <c r="CN137" s="1"/>
     </row>
-    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -45343,7 +45492,7 @@
       <c r="CK138" s="11"/>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
-      <c r="CN138" s="19"/>
+      <c r="CN138" s="11"/>
       <c r="CO138" s="19"/>
       <c r="CP138" s="19"/>
       <c r="CQ138" s="19"/>
@@ -45408,7 +45557,7 @@
       <c r="EX138" s="19"/>
       <c r="EY138" s="19"/>
     </row>
-    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -45500,7 +45649,7 @@
       <c r="CK139" s="11"/>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
-      <c r="CN139" s="19"/>
+      <c r="CN139" s="11"/>
       <c r="CO139" s="19"/>
       <c r="CP139" s="19"/>
       <c r="CQ139" s="19"/>
@@ -45566,65 +45715,86 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL29:CN29"/>
+    <mergeCell ref="CH49:CJ49"/>
+    <mergeCell ref="CL49:CM49"/>
+    <mergeCell ref="CH69:CJ69"/>
+    <mergeCell ref="CL69:CM69"/>
+    <mergeCell ref="CL88:CN88"/>
+    <mergeCell ref="CL108:CN108"/>
+    <mergeCell ref="CL128:CN128"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -45649,92 +45819,73 @@
     <mergeCell ref="R69:U69"/>
     <mergeCell ref="BB49:BE49"/>
     <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL29:CM29"/>
-    <mergeCell ref="CH49:CI49"/>
-    <mergeCell ref="CH69:CI69"/>
-    <mergeCell ref="CL88:CM88"/>
-    <mergeCell ref="CL108:CM108"/>
-    <mergeCell ref="CL128:CM128"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="AP69:AS69"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="90" man="1"/>
-    <brk id="80" max="90" man="1"/>
-    <brk id="99" max="90" man="1"/>
+    <brk id="40" max="91" man="1"/>
+    <brk id="80" max="91" man="1"/>
+    <brk id="99" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1156F5-6626-43A7-A23D-503653C04BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EBB1B-AEEC-43CA-B5F3-1318B586BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CN$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CO$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -760,10 +760,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15160,7 +15160,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15183,7 +15183,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15212,7 +15212,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15275,7 +15275,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15304,7 +15304,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15335,7 +15335,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17729,7 +17729,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17817,7 +17817,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17838,7 +17838,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17895,7 +17895,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17912,7 +17912,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17953,7 +17953,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18000,7 +18000,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18029,7 +18029,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22446,7 +22446,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22489,7 +22489,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22603,7 +22603,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23600,7 +23600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23613,16 +23613,16 @@
   </sheetPr>
   <dimension ref="A1:EY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CN7" sqref="CN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="92" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23637,7 +23637,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23650,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23751,6 +23751,7 @@
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23891,6 +23892,7 @@
       </c>
       <c r="CM9" s="23"/>
       <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24168,6 +24170,9 @@
       </c>
       <c r="CN10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24263,6 +24268,7 @@
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24541,7 +24547,9 @@
       <c r="CN12" s="9">
         <v>29622.728083555645</v>
       </c>
-      <c r="CO12" s="10"/>
+      <c r="CO12" s="9">
+        <v>49564.740234703684</v>
+      </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
@@ -24880,9 +24888,11 @@
         <v>66871.315069586504</v>
       </c>
       <c r="CN13" s="9">
-        <v>68934.157089846645</v>
-      </c>
-      <c r="CO13" s="10"/>
+        <v>68056.053061552433</v>
+      </c>
+      <c r="CO13" s="9">
+        <v>63886.276972043532</v>
+      </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
@@ -25223,7 +25233,9 @@
       <c r="CN14" s="9">
         <v>6679.9170429745245</v>
       </c>
-      <c r="CO14" s="10"/>
+      <c r="CO14" s="9">
+        <v>9946.5296084796173</v>
+      </c>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -25379,7 +25391,7 @@
       <c r="CL15" s="12"/>
       <c r="CM15" s="12"/>
       <c r="CN15" s="12"/>
-      <c r="CO15" s="10"/>
+      <c r="CO15" s="12"/>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
@@ -25718,9 +25730,11 @@
         <v>90408.992524191446</v>
       </c>
       <c r="CN16" s="21">
-        <v>105236.80221637682</v>
-      </c>
-      <c r="CO16" s="10"/>
+        <v>104358.69818808261</v>
+      </c>
+      <c r="CO16" s="21">
+        <v>123397.54681522683</v>
+      </c>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
@@ -25877,6 +25891,7 @@
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
       <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -25973,6 +25988,7 @@
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26066,7 +26082,7 @@
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
       <c r="CN19" s="12"/>
-      <c r="CO19" s="10"/>
+      <c r="CO19" s="12"/>
       <c r="CP19" s="10"/>
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
@@ -26222,7 +26238,7 @@
       <c r="CL20" s="12"/>
       <c r="CM20" s="12"/>
       <c r="CN20" s="12"/>
-      <c r="CO20" s="10"/>
+      <c r="CO20" s="12"/>
       <c r="CP20" s="10"/>
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
@@ -26381,6 +26397,7 @@
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26477,10 +26494,11 @@
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26573,6 +26591,7 @@
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26667,6 +26686,7 @@
       <c r="CL24" s="1"/>
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26763,10 +26783,11 @@
       <c r="CL25" s="1"/>
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26859,6 +26880,7 @@
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -26955,6 +26977,7 @@
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27049,135 +27072,136 @@
       <c r="CL28" s="1"/>
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="23">
         <v>2000</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="23">
         <v>2001</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="23">
         <v>2002</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="23">
         <v>2003</v>
       </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
       <c r="R29" s="23">
         <v>2004</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
       <c r="V29" s="23">
         <v>2005</v>
       </c>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
       <c r="Z29" s="23">
         <v>2006</v>
       </c>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
       <c r="AD29" s="23">
         <v>2007</v>
       </c>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
       <c r="AH29" s="23">
         <v>2008</v>
       </c>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
       <c r="AL29" s="23">
         <v>2009</v>
       </c>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
       <c r="AP29" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
       <c r="AT29" s="23">
         <v>2011</v>
       </c>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
       <c r="AX29" s="23">
         <v>2012</v>
       </c>
-      <c r="AY29" s="24"/>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="24"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
       <c r="BB29" s="23">
         <v>2013</v>
       </c>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="24"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
       <c r="BF29" s="23">
         <v>2014</v>
       </c>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="24"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
       <c r="BJ29" s="23">
         <v>2015</v>
       </c>
-      <c r="BK29" s="24"/>
-      <c r="BL29" s="24"/>
-      <c r="BM29" s="24"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
       <c r="BN29" s="23">
         <v>2016</v>
       </c>
-      <c r="BO29" s="24"/>
-      <c r="BP29" s="24"/>
-      <c r="BQ29" s="24"/>
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
       <c r="BR29" s="23">
         <v>2017</v>
       </c>
-      <c r="BS29" s="24"/>
-      <c r="BT29" s="24"/>
-      <c r="BU29" s="24"/>
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
+      <c r="BU29" s="25"/>
       <c r="BV29" s="23">
         <v>2018</v>
       </c>
-      <c r="BW29" s="24"/>
-      <c r="BX29" s="24"/>
-      <c r="BY29" s="24"/>
+      <c r="BW29" s="25"/>
+      <c r="BX29" s="25"/>
+      <c r="BY29" s="25"/>
       <c r="BZ29" s="23">
         <v>2019</v>
       </c>
-      <c r="CA29" s="24"/>
-      <c r="CB29" s="24"/>
-      <c r="CC29" s="24"/>
+      <c r="CA29" s="25"/>
+      <c r="CB29" s="25"/>
+      <c r="CC29" s="25"/>
       <c r="CD29" s="23">
         <v>2020</v>
       </c>
-      <c r="CE29" s="24"/>
-      <c r="CF29" s="24"/>
-      <c r="CG29" s="24"/>
+      <c r="CE29" s="25"/>
+      <c r="CF29" s="25"/>
+      <c r="CG29" s="25"/>
       <c r="CH29" s="23">
         <v>2021</v>
       </c>
@@ -27189,6 +27213,7 @@
       </c>
       <c r="CM29" s="23"/>
       <c r="CN29" s="23"/>
+      <c r="CO29" s="23"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27466,6 +27491,9 @@
       </c>
       <c r="CN30" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO30" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27561,6 +27589,7 @@
       <c r="CL31" s="1"/>
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -27839,7 +27868,9 @@
       <c r="CN32" s="9">
         <v>27475.106619328792</v>
       </c>
-      <c r="CO32" s="10"/>
+      <c r="CO32" s="9">
+        <v>38799.328502280594</v>
+      </c>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
@@ -28178,9 +28209,11 @@
         <v>61822.916974633001</v>
       </c>
       <c r="CN33" s="9">
-        <v>57768.03671260766</v>
-      </c>
-      <c r="CO33" s="10"/>
+        <v>57020.62408327595</v>
+      </c>
+      <c r="CO33" s="9">
+        <v>50976.325045470199</v>
+      </c>
       <c r="CP33" s="10"/>
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
@@ -28521,7 +28554,9 @@
       <c r="CN34" s="9">
         <v>5430.1375622327723</v>
       </c>
-      <c r="CO34" s="10"/>
+      <c r="CO34" s="9">
+        <v>7364.645094001733</v>
+      </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
@@ -28677,7 +28712,7 @@
       <c r="CL35" s="12"/>
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
-      <c r="CO35" s="10"/>
+      <c r="CO35" s="12"/>
       <c r="CP35" s="10"/>
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
@@ -29016,9 +29051,11 @@
         <v>84260.753106401418</v>
       </c>
       <c r="CN36" s="21">
-        <v>90673.28089416922</v>
-      </c>
-      <c r="CO36" s="10"/>
+        <v>89925.868264837525</v>
+      </c>
+      <c r="CO36" s="21">
+        <v>97140.298641752524</v>
+      </c>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
@@ -29175,6 +29212,7 @@
       <c r="CL37" s="15"/>
       <c r="CM37" s="15"/>
       <c r="CN37" s="15"/>
+      <c r="CO37" s="15"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29271,6 +29309,7 @@
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29364,7 +29403,7 @@
       <c r="CL39" s="12"/>
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
-      <c r="CO39" s="10"/>
+      <c r="CO39" s="12"/>
       <c r="CP39" s="10"/>
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
@@ -29520,7 +29559,7 @@
       <c r="CL40" s="12"/>
       <c r="CM40" s="12"/>
       <c r="CN40" s="12"/>
-      <c r="CO40" s="10"/>
+      <c r="CO40" s="12"/>
       <c r="CP40" s="10"/>
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
@@ -29679,6 +29718,7 @@
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -29775,10 +29815,11 @@
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29871,6 +29912,7 @@
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -29965,6 +30007,7 @@
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30061,10 +30104,11 @@
       <c r="CL45" s="1"/>
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30157,6 +30201,7 @@
       <c r="CL46" s="1"/>
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30253,6 +30298,7 @@
       <c r="CL47" s="1"/>
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30347,6 +30393,7 @@
       <c r="CL48" s="1"/>
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -30481,10 +30528,11 @@
       </c>
       <c r="CI49" s="23"/>
       <c r="CJ49" s="23"/>
-      <c r="CK49" s="22"/>
+      <c r="CK49" s="23"/>
       <c r="CL49" s="23"/>
       <c r="CM49" s="23"/>
       <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -30751,10 +30799,13 @@
       <c r="CJ50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK50" s="6"/>
+      <c r="CK50" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL50" s="6"/>
       <c r="CM50" s="6"/>
       <c r="CN50" s="6"/>
+      <c r="CO50" s="6"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -30849,6 +30900,7 @@
       <c r="CL51" s="1"/>
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31115,11 +31167,13 @@
       <c r="CJ52" s="17">
         <v>22.410007238529801</v>
       </c>
-      <c r="CK52" s="17"/>
+      <c r="CK52" s="17">
+        <v>15.98223583072928</v>
+      </c>
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
-      <c r="CO52" s="10"/>
+      <c r="CO52" s="17"/>
       <c r="CP52" s="10"/>
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
@@ -31442,13 +31496,15 @@
         <v>1.7897523232615242</v>
       </c>
       <c r="CJ53" s="17">
-        <v>3.1686743366751813</v>
-      </c>
-      <c r="CK53" s="17"/>
+        <v>1.8544807300030755</v>
+      </c>
+      <c r="CK53" s="17">
+        <v>5.0954187187909952</v>
+      </c>
       <c r="CL53" s="17"/>
       <c r="CM53" s="17"/>
       <c r="CN53" s="17"/>
-      <c r="CO53" s="10"/>
+      <c r="CO53" s="17"/>
       <c r="CP53" s="10"/>
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
@@ -31773,11 +31829,13 @@
       <c r="CJ54" s="17">
         <v>5.258668972791682</v>
       </c>
-      <c r="CK54" s="17"/>
+      <c r="CK54" s="17">
+        <v>13.102279033163498</v>
+      </c>
       <c r="CL54" s="17"/>
       <c r="CM54" s="17"/>
       <c r="CN54" s="17"/>
-      <c r="CO54" s="10"/>
+      <c r="CO54" s="17"/>
       <c r="CP54" s="10"/>
       <c r="CQ54" s="10"/>
       <c r="CR54" s="10"/>
@@ -31929,7 +31987,7 @@
       <c r="CL55" s="12"/>
       <c r="CM55" s="12"/>
       <c r="CN55" s="12"/>
-      <c r="CO55" s="10"/>
+      <c r="CO55" s="12"/>
       <c r="CP55" s="10"/>
       <c r="CQ55" s="10"/>
       <c r="CR55" s="10"/>
@@ -32252,13 +32310,15 @@
         <v>4.0716121522547155</v>
       </c>
       <c r="CJ56" s="17">
-        <v>8.087352998710017</v>
-      </c>
-      <c r="CK56" s="17"/>
+        <v>7.1854637539125861</v>
+      </c>
+      <c r="CK56" s="17">
+        <v>9.8645630230820274</v>
+      </c>
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
-      <c r="CO56" s="10"/>
+      <c r="CO56" s="17"/>
       <c r="CP56" s="10"/>
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
@@ -32411,6 +32471,7 @@
       <c r="CL57" s="15"/>
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
+      <c r="CO57" s="15"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32507,6 +32568,7 @@
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32600,7 +32662,7 @@
       <c r="CL59" s="12"/>
       <c r="CM59" s="12"/>
       <c r="CN59" s="12"/>
-      <c r="CO59" s="10"/>
+      <c r="CO59" s="12"/>
       <c r="CP59" s="10"/>
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
@@ -32752,7 +32814,7 @@
       <c r="CL60" s="12"/>
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
-      <c r="CO60" s="10"/>
+      <c r="CO60" s="12"/>
       <c r="CP60" s="10"/>
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
@@ -32907,6 +32969,7 @@
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33003,10 +33066,11 @@
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33099,6 +33163,7 @@
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33193,6 +33258,7 @@
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33289,10 +33355,11 @@
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33385,6 +33452,7 @@
       <c r="CL66" s="1"/>
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33481,6 +33549,7 @@
       <c r="CL67" s="1"/>
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33575,144 +33644,146 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
       <c r="N69" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
       <c r="R69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
       <c r="V69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
       <c r="Z69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="25"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
       <c r="AD69" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="25"/>
-      <c r="AG69" s="25"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
       <c r="AH69" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="25"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="25"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
       <c r="AL69" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="25"/>
-      <c r="AN69" s="25"/>
-      <c r="AO69" s="25"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
       <c r="AP69" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="25"/>
-      <c r="AR69" s="25"/>
-      <c r="AS69" s="25"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
       <c r="AT69" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="25"/>
-      <c r="AV69" s="25"/>
-      <c r="AW69" s="25"/>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
       <c r="AX69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="25"/>
-      <c r="AZ69" s="25"/>
-      <c r="BA69" s="25"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
       <c r="BB69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="25"/>
-      <c r="BD69" s="25"/>
-      <c r="BE69" s="25"/>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
       <c r="BF69" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="25"/>
-      <c r="BH69" s="25"/>
-      <c r="BI69" s="25"/>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
       <c r="BJ69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="25"/>
-      <c r="BL69" s="25"/>
-      <c r="BM69" s="25"/>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
       <c r="BN69" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="25"/>
-      <c r="BP69" s="25"/>
-      <c r="BQ69" s="25"/>
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
       <c r="BR69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="25"/>
-      <c r="BT69" s="25"/>
-      <c r="BU69" s="25"/>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="24"/>
+      <c r="BU69" s="24"/>
       <c r="BV69" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="25"/>
-      <c r="BX69" s="25"/>
-      <c r="BY69" s="25"/>
+      <c r="BW69" s="24"/>
+      <c r="BX69" s="24"/>
+      <c r="BY69" s="24"/>
       <c r="BZ69" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="25"/>
-      <c r="CB69" s="25"/>
-      <c r="CC69" s="25"/>
+      <c r="CA69" s="24"/>
+      <c r="CB69" s="24"/>
+      <c r="CC69" s="24"/>
       <c r="CD69" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="25"/>
-      <c r="CF69" s="25"/>
-      <c r="CG69" s="25"/>
+      <c r="CE69" s="24"/>
+      <c r="CF69" s="24"/>
+      <c r="CG69" s="24"/>
       <c r="CH69" s="23" t="s">
         <v>48</v>
       </c>
       <c r="CI69" s="23"/>
       <c r="CJ69" s="23"/>
-      <c r="CK69" s="22"/>
+      <c r="CK69" s="23"/>
       <c r="CL69" s="23"/>
       <c r="CM69" s="23"/>
       <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -33979,10 +34050,13 @@
       <c r="CJ70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK70" s="6"/>
+      <c r="CK70" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL70" s="6"/>
       <c r="CM70" s="6"/>
       <c r="CN70" s="6"/>
+      <c r="CO70" s="6"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34077,6 +34151,7 @@
       <c r="CL71" s="1"/>
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34343,11 +34418,13 @@
       <c r="CJ72" s="17">
         <v>17.837970705863754</v>
       </c>
-      <c r="CK72" s="17"/>
+      <c r="CK72" s="17">
+        <v>11.697588501788104</v>
+      </c>
       <c r="CL72" s="17"/>
       <c r="CM72" s="17"/>
       <c r="CN72" s="17"/>
-      <c r="CO72" s="10"/>
+      <c r="CO72" s="17"/>
       <c r="CP72" s="10"/>
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
@@ -34670,13 +34747,15 @@
         <v>8.6863179082172337E-2</v>
       </c>
       <c r="CJ73" s="17">
-        <v>1.4471920800254168</v>
-      </c>
-      <c r="CK73" s="17"/>
+        <v>0.13465115106731673</v>
+      </c>
+      <c r="CK73" s="17">
+        <v>2.2078514042507322</v>
+      </c>
       <c r="CL73" s="17"/>
       <c r="CM73" s="17"/>
       <c r="CN73" s="17"/>
-      <c r="CO73" s="10"/>
+      <c r="CO73" s="17"/>
       <c r="CP73" s="10"/>
       <c r="CQ73" s="10"/>
       <c r="CR73" s="10"/>
@@ -35001,11 +35080,13 @@
       <c r="CJ74" s="17">
         <v>1.685921404403274</v>
       </c>
-      <c r="CK74" s="17"/>
+      <c r="CK74" s="17">
+        <v>9.4299267068499404</v>
+      </c>
       <c r="CL74" s="17"/>
       <c r="CM74" s="17"/>
       <c r="CN74" s="17"/>
-      <c r="CO74" s="10"/>
+      <c r="CO74" s="17"/>
       <c r="CP74" s="10"/>
       <c r="CQ74" s="10"/>
       <c r="CR74" s="10"/>
@@ -35157,7 +35238,7 @@
       <c r="CL75" s="12"/>
       <c r="CM75" s="12"/>
       <c r="CN75" s="12"/>
-      <c r="CO75" s="10"/>
+      <c r="CO75" s="12"/>
       <c r="CP75" s="10"/>
       <c r="CQ75" s="10"/>
       <c r="CR75" s="10"/>
@@ -35480,13 +35561,15 @@
         <v>1.654733060176298</v>
       </c>
       <c r="CJ76" s="17">
-        <v>5.9266551450831884</v>
-      </c>
-      <c r="CK76" s="17"/>
+        <v>5.0535101672290779</v>
+      </c>
+      <c r="CK76" s="17">
+        <v>6.3488146100114875</v>
+      </c>
       <c r="CL76" s="17"/>
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
-      <c r="CO76" s="10"/>
+      <c r="CO76" s="17"/>
       <c r="CP76" s="10"/>
       <c r="CQ76" s="10"/>
       <c r="CR76" s="10"/>
@@ -35639,6 +35722,7 @@
       <c r="CL77" s="15"/>
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
+      <c r="CO77" s="15"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -35735,6 +35819,7 @@
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -35828,7 +35913,7 @@
       <c r="CL79" s="12"/>
       <c r="CM79" s="12"/>
       <c r="CN79" s="12"/>
-      <c r="CO79" s="10"/>
+      <c r="CO79" s="12"/>
       <c r="CP79" s="10"/>
       <c r="CQ79" s="10"/>
       <c r="CR79" s="10"/>
@@ -36135,10 +36220,11 @@
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36231,6 +36317,7 @@
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36325,6 +36412,7 @@
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36421,10 +36509,11 @@
       <c r="CL84" s="1"/>
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36517,6 +36606,7 @@
       <c r="CL85" s="1"/>
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -36613,6 +36703,7 @@
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -36707,135 +36798,136 @@
       <c r="CL87" s="1"/>
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="23">
         <v>2000</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="23">
         <v>2001</v>
       </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="23">
         <v>2002</v>
       </c>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="23">
         <v>2003</v>
       </c>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
       <c r="R88" s="23">
         <v>2004</v>
       </c>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
       <c r="V88" s="23">
         <v>2005</v>
       </c>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
       <c r="Z88" s="23">
         <v>2006</v>
       </c>
-      <c r="AA88" s="24"/>
-      <c r="AB88" s="24"/>
-      <c r="AC88" s="24"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="25"/>
       <c r="AD88" s="23">
         <v>2007</v>
       </c>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="25"/>
       <c r="AH88" s="23">
         <v>2008</v>
       </c>
-      <c r="AI88" s="24"/>
-      <c r="AJ88" s="24"/>
-      <c r="AK88" s="24"/>
+      <c r="AI88" s="25"/>
+      <c r="AJ88" s="25"/>
+      <c r="AK88" s="25"/>
       <c r="AL88" s="23">
         <v>2009</v>
       </c>
-      <c r="AM88" s="24"/>
-      <c r="AN88" s="24"/>
-      <c r="AO88" s="24"/>
+      <c r="AM88" s="25"/>
+      <c r="AN88" s="25"/>
+      <c r="AO88" s="25"/>
       <c r="AP88" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="24"/>
-      <c r="AR88" s="24"/>
-      <c r="AS88" s="24"/>
+      <c r="AQ88" s="25"/>
+      <c r="AR88" s="25"/>
+      <c r="AS88" s="25"/>
       <c r="AT88" s="23">
         <v>2011</v>
       </c>
-      <c r="AU88" s="24"/>
-      <c r="AV88" s="24"/>
-      <c r="AW88" s="24"/>
+      <c r="AU88" s="25"/>
+      <c r="AV88" s="25"/>
+      <c r="AW88" s="25"/>
       <c r="AX88" s="23">
         <v>2012</v>
       </c>
-      <c r="AY88" s="24"/>
-      <c r="AZ88" s="24"/>
-      <c r="BA88" s="24"/>
+      <c r="AY88" s="25"/>
+      <c r="AZ88" s="25"/>
+      <c r="BA88" s="25"/>
       <c r="BB88" s="23">
         <v>2013</v>
       </c>
-      <c r="BC88" s="24"/>
-      <c r="BD88" s="24"/>
-      <c r="BE88" s="24"/>
+      <c r="BC88" s="25"/>
+      <c r="BD88" s="25"/>
+      <c r="BE88" s="25"/>
       <c r="BF88" s="23">
         <v>2014</v>
       </c>
-      <c r="BG88" s="24"/>
-      <c r="BH88" s="24"/>
-      <c r="BI88" s="24"/>
+      <c r="BG88" s="25"/>
+      <c r="BH88" s="25"/>
+      <c r="BI88" s="25"/>
       <c r="BJ88" s="23">
         <v>2015</v>
       </c>
-      <c r="BK88" s="24"/>
-      <c r="BL88" s="24"/>
-      <c r="BM88" s="24"/>
+      <c r="BK88" s="25"/>
+      <c r="BL88" s="25"/>
+      <c r="BM88" s="25"/>
       <c r="BN88" s="23">
         <v>2016</v>
       </c>
-      <c r="BO88" s="24"/>
-      <c r="BP88" s="24"/>
-      <c r="BQ88" s="24"/>
+      <c r="BO88" s="25"/>
+      <c r="BP88" s="25"/>
+      <c r="BQ88" s="25"/>
       <c r="BR88" s="23">
         <v>2017</v>
       </c>
-      <c r="BS88" s="24"/>
-      <c r="BT88" s="24"/>
-      <c r="BU88" s="24"/>
+      <c r="BS88" s="25"/>
+      <c r="BT88" s="25"/>
+      <c r="BU88" s="25"/>
       <c r="BV88" s="23">
         <v>2018</v>
       </c>
-      <c r="BW88" s="24"/>
-      <c r="BX88" s="24"/>
-      <c r="BY88" s="24"/>
+      <c r="BW88" s="25"/>
+      <c r="BX88" s="25"/>
+      <c r="BY88" s="25"/>
       <c r="BZ88" s="23">
         <v>2019</v>
       </c>
-      <c r="CA88" s="24"/>
-      <c r="CB88" s="24"/>
-      <c r="CC88" s="24"/>
+      <c r="CA88" s="25"/>
+      <c r="CB88" s="25"/>
+      <c r="CC88" s="25"/>
       <c r="CD88" s="23">
         <v>2020</v>
       </c>
-      <c r="CE88" s="24"/>
-      <c r="CF88" s="24"/>
-      <c r="CG88" s="24"/>
+      <c r="CE88" s="25"/>
+      <c r="CF88" s="25"/>
+      <c r="CG88" s="25"/>
       <c r="CH88" s="23">
         <v>2021</v>
       </c>
@@ -36847,6 +36939,7 @@
       </c>
       <c r="CM88" s="23"/>
       <c r="CN88" s="23"/>
+      <c r="CO88" s="23"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37124,6 +37217,9 @@
       </c>
       <c r="CN89" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO89" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37219,6 +37315,7 @@
       <c r="CL90" s="1"/>
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37497,7 +37594,9 @@
       <c r="CN91" s="17">
         <v>107.81660829922311</v>
       </c>
-      <c r="CO91" s="10"/>
+      <c r="CO91" s="17">
+        <v>127.74638672365246</v>
+      </c>
       <c r="CP91" s="10"/>
       <c r="CQ91" s="10"/>
       <c r="CR91" s="10"/>
@@ -37836,9 +37935,11 @@
         <v>108.16590083742723</v>
       </c>
       <c r="CN92" s="17">
-        <v>119.32923639553432</v>
-      </c>
-      <c r="CO92" s="10"/>
+        <v>119.35339915283943</v>
+      </c>
+      <c r="CO92" s="17">
+        <v>125.32538764820302</v>
+      </c>
       <c r="CP92" s="10"/>
       <c r="CQ92" s="10"/>
       <c r="CR92" s="10"/>
@@ -38179,7 +38280,9 @@
       <c r="CN93" s="17">
         <v>123.01561362706741</v>
       </c>
-      <c r="CO93" s="10"/>
+      <c r="CO93" s="17">
+        <v>135.05782670478916</v>
+      </c>
       <c r="CP93" s="10"/>
       <c r="CQ93" s="10"/>
       <c r="CR93" s="10"/>
@@ -38335,7 +38438,7 @@
       <c r="CL94" s="12"/>
       <c r="CM94" s="12"/>
       <c r="CN94" s="12"/>
-      <c r="CO94" s="10"/>
+      <c r="CO94" s="12"/>
       <c r="CP94" s="10"/>
       <c r="CQ94" s="10"/>
       <c r="CR94" s="10"/>
@@ -38674,9 +38777,11 @@
         <v>107.29668225256216</v>
       </c>
       <c r="CN95" s="17">
-        <v>116.06153563496355</v>
-      </c>
-      <c r="CO95" s="10"/>
+        <v>116.04969760285155</v>
+      </c>
+      <c r="CO95" s="17">
+        <v>127.03023208762146</v>
+      </c>
       <c r="CP95" s="10"/>
       <c r="CQ95" s="10"/>
       <c r="CR95" s="10"/>
@@ -38833,6 +38938,7 @@
       <c r="CL96" s="15"/>
       <c r="CM96" s="15"/>
       <c r="CN96" s="15"/>
+      <c r="CO96" s="15"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -38929,6 +39035,7 @@
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39022,6 +39129,7 @@
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39115,6 +39223,7 @@
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39211,6 +39320,7 @@
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39307,10 +39417,11 @@
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39403,6 +39514,7 @@
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -39497,6 +39609,7 @@
       <c r="CL103" s="1"/>
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
+      <c r="CO103" s="1"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -39593,10 +39706,11 @@
       <c r="CL104" s="1"/>
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
+      <c r="CO104" s="1"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39689,6 +39803,7 @@
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -39785,6 +39900,7 @@
       <c r="CL106" s="1"/>
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
+      <c r="CO106" s="1"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -39879,135 +39995,136 @@
       <c r="CL107" s="1"/>
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
+      <c r="CO107" s="1"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
       <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
       <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="24"/>
-      <c r="T108" s="24"/>
-      <c r="U108" s="24"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
       <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="24"/>
-      <c r="X108" s="24"/>
-      <c r="Y108" s="24"/>
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="25"/>
       <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="24"/>
-      <c r="AB108" s="24"/>
-      <c r="AC108" s="24"/>
+      <c r="AA108" s="25"/>
+      <c r="AB108" s="25"/>
+      <c r="AC108" s="25"/>
       <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="24"/>
-      <c r="AF108" s="24"/>
-      <c r="AG108" s="24"/>
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
       <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="24"/>
-      <c r="AJ108" s="24"/>
-      <c r="AK108" s="24"/>
+      <c r="AI108" s="25"/>
+      <c r="AJ108" s="25"/>
+      <c r="AK108" s="25"/>
       <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="24"/>
-      <c r="AN108" s="24"/>
-      <c r="AO108" s="24"/>
+      <c r="AM108" s="25"/>
+      <c r="AN108" s="25"/>
+      <c r="AO108" s="25"/>
       <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="24"/>
-      <c r="AR108" s="24"/>
-      <c r="AS108" s="24"/>
+      <c r="AQ108" s="25"/>
+      <c r="AR108" s="25"/>
+      <c r="AS108" s="25"/>
       <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="24"/>
-      <c r="AV108" s="24"/>
-      <c r="AW108" s="24"/>
+      <c r="AU108" s="25"/>
+      <c r="AV108" s="25"/>
+      <c r="AW108" s="25"/>
       <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="24"/>
-      <c r="AZ108" s="24"/>
-      <c r="BA108" s="24"/>
+      <c r="AY108" s="25"/>
+      <c r="AZ108" s="25"/>
+      <c r="BA108" s="25"/>
       <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="24"/>
-      <c r="BD108" s="24"/>
-      <c r="BE108" s="24"/>
+      <c r="BC108" s="25"/>
+      <c r="BD108" s="25"/>
+      <c r="BE108" s="25"/>
       <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="24"/>
-      <c r="BH108" s="24"/>
-      <c r="BI108" s="24"/>
+      <c r="BG108" s="25"/>
+      <c r="BH108" s="25"/>
+      <c r="BI108" s="25"/>
       <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="24"/>
-      <c r="BL108" s="24"/>
-      <c r="BM108" s="24"/>
+      <c r="BK108" s="25"/>
+      <c r="BL108" s="25"/>
+      <c r="BM108" s="25"/>
       <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="24"/>
-      <c r="BP108" s="24"/>
-      <c r="BQ108" s="24"/>
+      <c r="BO108" s="25"/>
+      <c r="BP108" s="25"/>
+      <c r="BQ108" s="25"/>
       <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="24"/>
-      <c r="BT108" s="24"/>
-      <c r="BU108" s="24"/>
+      <c r="BS108" s="25"/>
+      <c r="BT108" s="25"/>
+      <c r="BU108" s="25"/>
       <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="24"/>
-      <c r="BX108" s="24"/>
-      <c r="BY108" s="24"/>
+      <c r="BW108" s="25"/>
+      <c r="BX108" s="25"/>
+      <c r="BY108" s="25"/>
       <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="24"/>
-      <c r="CB108" s="24"/>
-      <c r="CC108" s="24"/>
+      <c r="CA108" s="25"/>
+      <c r="CB108" s="25"/>
+      <c r="CC108" s="25"/>
       <c r="CD108" s="23">
         <v>2020</v>
       </c>
-      <c r="CE108" s="24"/>
-      <c r="CF108" s="24"/>
-      <c r="CG108" s="24"/>
+      <c r="CE108" s="25"/>
+      <c r="CF108" s="25"/>
+      <c r="CG108" s="25"/>
       <c r="CH108" s="23">
         <v>2021</v>
       </c>
@@ -40019,6 +40136,7 @@
       </c>
       <c r="CM108" s="23"/>
       <c r="CN108" s="23"/>
+      <c r="CO108" s="23"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40296,6 +40414,9 @@
       </c>
       <c r="CN109" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO109" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40391,6 +40512,7 @@
       <c r="CL110" s="1"/>
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
+      <c r="CO110" s="1"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -40667,9 +40789,11 @@
         <v>21.648608622222792</v>
       </c>
       <c r="CN111" s="17">
-        <v>28.148639506024249</v>
-      </c>
-      <c r="CO111" s="10"/>
+        <v>28.385490235004152</v>
+      </c>
+      <c r="CO111" s="17">
+        <v>40.166714423359643</v>
+      </c>
       <c r="CP111" s="10"/>
       <c r="CQ111" s="10"/>
       <c r="CR111" s="10"/>
@@ -41008,9 +41132,11 @@
         <v>73.965335972185756</v>
       </c>
       <c r="CN112" s="17">
-        <v>65.503850020177822</v>
-      </c>
-      <c r="CO112" s="10"/>
+        <v>65.213589516895865</v>
+      </c>
+      <c r="CO112" s="17">
+        <v>51.772728567858515</v>
+      </c>
       <c r="CP112" s="10"/>
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
@@ -41349,9 +41475,11 @@
         <v>4.3860554055914669</v>
       </c>
       <c r="CN113" s="17">
-        <v>6.3475104737979233</v>
-      </c>
-      <c r="CO113" s="10"/>
+        <v>6.4009202480999781</v>
+      </c>
+      <c r="CO113" s="17">
+        <v>8.0605570087818386</v>
+      </c>
       <c r="CP113" s="10"/>
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
@@ -41507,7 +41635,7 @@
       <c r="CL114" s="12"/>
       <c r="CM114" s="12"/>
       <c r="CN114" s="12"/>
-      <c r="CO114" s="10"/>
+      <c r="CO114" s="12"/>
       <c r="CP114" s="10"/>
       <c r="CQ114" s="10"/>
       <c r="CR114" s="10"/>
@@ -41848,7 +41976,9 @@
       <c r="CN115" s="17">
         <v>100</v>
       </c>
-      <c r="CO115" s="10"/>
+      <c r="CO115" s="17">
+        <v>100</v>
+      </c>
       <c r="CP115" s="10"/>
       <c r="CQ115" s="10"/>
       <c r="CR115" s="10"/>
@@ -42005,6 +42135,7 @@
       <c r="CL116" s="15"/>
       <c r="CM116" s="15"/>
       <c r="CN116" s="15"/>
+      <c r="CO116" s="15"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42101,6 +42232,7 @@
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42194,7 +42326,7 @@
       <c r="CL118" s="12"/>
       <c r="CM118" s="12"/>
       <c r="CN118" s="12"/>
-      <c r="CO118" s="10"/>
+      <c r="CO118" s="12"/>
       <c r="CP118" s="10"/>
       <c r="CQ118" s="10"/>
       <c r="CR118" s="10"/>
@@ -42350,7 +42482,7 @@
       <c r="CL119" s="12"/>
       <c r="CM119" s="12"/>
       <c r="CN119" s="12"/>
-      <c r="CO119" s="10"/>
+      <c r="CO119" s="12"/>
       <c r="CP119" s="10"/>
       <c r="CQ119" s="10"/>
       <c r="CR119" s="10"/>
@@ -42509,6 +42641,7 @@
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -42605,10 +42738,11 @@
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -42701,6 +42835,7 @@
       <c r="CL122" s="1"/>
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
+      <c r="CO122" s="1"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -42795,6 +42930,7 @@
       <c r="CL123" s="1"/>
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
+      <c r="CO123" s="1"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -42891,10 +43027,11 @@
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
+      <c r="CO124" s="1"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -42987,6 +43124,7 @@
       <c r="CL125" s="1"/>
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
+      <c r="CO125" s="1"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43083,6 +43221,7 @@
       <c r="CL126" s="1"/>
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
+      <c r="CO126" s="1"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43177,135 +43316,136 @@
       <c r="CL127" s="1"/>
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
+      <c r="CO127" s="1"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="23">
         <v>2000</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
       <c r="F128" s="23">
         <v>2001</v>
       </c>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
       <c r="J128" s="23">
         <v>2002</v>
       </c>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
       <c r="N128" s="23">
         <v>2003</v>
       </c>
-      <c r="O128" s="24"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="24"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
       <c r="R128" s="23">
         <v>2004</v>
       </c>
-      <c r="S128" s="24"/>
-      <c r="T128" s="24"/>
-      <c r="U128" s="24"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
       <c r="V128" s="23">
         <v>2005</v>
       </c>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
       <c r="Z128" s="23">
         <v>2006</v>
       </c>
-      <c r="AA128" s="24"/>
-      <c r="AB128" s="24"/>
-      <c r="AC128" s="24"/>
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="25"/>
+      <c r="AC128" s="25"/>
       <c r="AD128" s="23">
         <v>2007</v>
       </c>
-      <c r="AE128" s="24"/>
-      <c r="AF128" s="24"/>
-      <c r="AG128" s="24"/>
+      <c r="AE128" s="25"/>
+      <c r="AF128" s="25"/>
+      <c r="AG128" s="25"/>
       <c r="AH128" s="23">
         <v>2008</v>
       </c>
-      <c r="AI128" s="24"/>
-      <c r="AJ128" s="24"/>
-      <c r="AK128" s="24"/>
+      <c r="AI128" s="25"/>
+      <c r="AJ128" s="25"/>
+      <c r="AK128" s="25"/>
       <c r="AL128" s="23">
         <v>2009</v>
       </c>
-      <c r="AM128" s="24"/>
-      <c r="AN128" s="24"/>
-      <c r="AO128" s="24"/>
+      <c r="AM128" s="25"/>
+      <c r="AN128" s="25"/>
+      <c r="AO128" s="25"/>
       <c r="AP128" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="24"/>
-      <c r="AR128" s="24"/>
-      <c r="AS128" s="24"/>
+      <c r="AQ128" s="25"/>
+      <c r="AR128" s="25"/>
+      <c r="AS128" s="25"/>
       <c r="AT128" s="23">
         <v>2011</v>
       </c>
-      <c r="AU128" s="24"/>
-      <c r="AV128" s="24"/>
-      <c r="AW128" s="24"/>
+      <c r="AU128" s="25"/>
+      <c r="AV128" s="25"/>
+      <c r="AW128" s="25"/>
       <c r="AX128" s="23">
         <v>2012</v>
       </c>
-      <c r="AY128" s="24"/>
-      <c r="AZ128" s="24"/>
-      <c r="BA128" s="24"/>
+      <c r="AY128" s="25"/>
+      <c r="AZ128" s="25"/>
+      <c r="BA128" s="25"/>
       <c r="BB128" s="23">
         <v>2013</v>
       </c>
-      <c r="BC128" s="24"/>
-      <c r="BD128" s="24"/>
-      <c r="BE128" s="24"/>
+      <c r="BC128" s="25"/>
+      <c r="BD128" s="25"/>
+      <c r="BE128" s="25"/>
       <c r="BF128" s="23">
         <v>2014</v>
       </c>
-      <c r="BG128" s="24"/>
-      <c r="BH128" s="24"/>
-      <c r="BI128" s="24"/>
+      <c r="BG128" s="25"/>
+      <c r="BH128" s="25"/>
+      <c r="BI128" s="25"/>
       <c r="BJ128" s="23">
         <v>2015</v>
       </c>
-      <c r="BK128" s="24"/>
-      <c r="BL128" s="24"/>
-      <c r="BM128" s="24"/>
+      <c r="BK128" s="25"/>
+      <c r="BL128" s="25"/>
+      <c r="BM128" s="25"/>
       <c r="BN128" s="23">
         <v>2016</v>
       </c>
-      <c r="BO128" s="24"/>
-      <c r="BP128" s="24"/>
-      <c r="BQ128" s="24"/>
+      <c r="BO128" s="25"/>
+      <c r="BP128" s="25"/>
+      <c r="BQ128" s="25"/>
       <c r="BR128" s="23">
         <v>2017</v>
       </c>
-      <c r="BS128" s="24"/>
-      <c r="BT128" s="24"/>
-      <c r="BU128" s="24"/>
+      <c r="BS128" s="25"/>
+      <c r="BT128" s="25"/>
+      <c r="BU128" s="25"/>
       <c r="BV128" s="23">
         <v>2018</v>
       </c>
-      <c r="BW128" s="24"/>
-      <c r="BX128" s="24"/>
-      <c r="BY128" s="24"/>
+      <c r="BW128" s="25"/>
+      <c r="BX128" s="25"/>
+      <c r="BY128" s="25"/>
       <c r="BZ128" s="23">
         <v>2019</v>
       </c>
-      <c r="CA128" s="24"/>
-      <c r="CB128" s="24"/>
-      <c r="CC128" s="24"/>
+      <c r="CA128" s="25"/>
+      <c r="CB128" s="25"/>
+      <c r="CC128" s="25"/>
       <c r="CD128" s="23">
         <v>2020</v>
       </c>
-      <c r="CE128" s="24"/>
-      <c r="CF128" s="24"/>
-      <c r="CG128" s="24"/>
+      <c r="CE128" s="25"/>
+      <c r="CF128" s="25"/>
+      <c r="CG128" s="25"/>
       <c r="CH128" s="23">
         <v>2021</v>
       </c>
@@ -43317,6 +43457,7 @@
       </c>
       <c r="CM128" s="23"/>
       <c r="CN128" s="23"/>
+      <c r="CO128" s="23"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -43594,6 +43735,9 @@
       </c>
       <c r="CN129" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO129" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43689,6 +43833,7 @@
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
+      <c r="CO130" s="1"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -43965,9 +44110,11 @@
         <v>22.310027955105035</v>
       </c>
       <c r="CN131" s="17">
-        <v>30.301215913204686</v>
-      </c>
-      <c r="CO131" s="10"/>
+        <v>30.553062371789192</v>
+      </c>
+      <c r="CO131" s="17">
+        <v>39.941537183625655</v>
+      </c>
       <c r="CP131" s="10"/>
       <c r="CQ131" s="10"/>
       <c r="CR131" s="10"/>
@@ -44306,9 +44453,11 @@
         <v>73.370952306307146</v>
       </c>
       <c r="CN132" s="17">
-        <v>63.710098656331361</v>
-      </c>
-      <c r="CO132" s="10"/>
+        <v>63.408477653333861</v>
+      </c>
+      <c r="CO132" s="17">
+        <v>52.477010837147787</v>
+      </c>
       <c r="CP132" s="10"/>
       <c r="CQ132" s="10"/>
       <c r="CR132" s="10"/>
@@ -44647,9 +44796,11 @@
         <v>4.3190197385878157</v>
       </c>
       <c r="CN133" s="17">
-        <v>5.988685430463959</v>
-      </c>
-      <c r="CO133" s="10"/>
+        <v>6.0384599748769334</v>
+      </c>
+      <c r="CO133" s="17">
+        <v>7.5814519792265553</v>
+      </c>
       <c r="CP133" s="10"/>
       <c r="CQ133" s="10"/>
       <c r="CR133" s="10"/>
@@ -44805,7 +44956,7 @@
       <c r="CL134" s="12"/>
       <c r="CM134" s="12"/>
       <c r="CN134" s="12"/>
-      <c r="CO134" s="10"/>
+      <c r="CO134" s="12"/>
       <c r="CP134" s="10"/>
       <c r="CQ134" s="10"/>
       <c r="CR134" s="10"/>
@@ -45146,7 +45297,9 @@
       <c r="CN135" s="17">
         <v>100</v>
       </c>
-      <c r="CO135" s="10"/>
+      <c r="CO135" s="17">
+        <v>100</v>
+      </c>
       <c r="CP135" s="10"/>
       <c r="CQ135" s="10"/>
       <c r="CR135" s="10"/>
@@ -45303,6 +45456,7 @@
       <c r="CL136" s="15"/>
       <c r="CM136" s="15"/>
       <c r="CN136" s="15"/>
+      <c r="CO136" s="15"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -45399,6 +45553,7 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
+      <c r="CO137" s="1"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -45493,7 +45648,7 @@
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
-      <c r="CO138" s="19"/>
+      <c r="CO138" s="11"/>
       <c r="CP138" s="19"/>
       <c r="CQ138" s="19"/>
       <c r="CR138" s="19"/>
@@ -45650,7 +45805,7 @@
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
-      <c r="CO139" s="19"/>
+      <c r="CO139" s="11"/>
       <c r="CP139" s="19"/>
       <c r="CQ139" s="19"/>
       <c r="CR139" s="19"/>
@@ -45716,61 +45871,85 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL29:CN29"/>
-    <mergeCell ref="CH49:CJ49"/>
-    <mergeCell ref="CL49:CM49"/>
-    <mergeCell ref="CH69:CJ69"/>
-    <mergeCell ref="CL69:CM69"/>
-    <mergeCell ref="CL88:CN88"/>
-    <mergeCell ref="CL108:CN108"/>
-    <mergeCell ref="CL128:CN128"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="J49:M49"/>
@@ -45795,97 +45974,73 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="BJ69:BM69"/>
     <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="CL49:CM49"/>
+    <mergeCell ref="CL69:CM69"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL29:CO29"/>
+    <mergeCell ref="CH49:CK49"/>
+    <mergeCell ref="CH69:CK69"/>
+    <mergeCell ref="CL88:CO88"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CH88:CK88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="91" man="1"/>
-    <brk id="80" max="91" man="1"/>
-    <brk id="99" max="91" man="1"/>
+    <brk id="40" max="92" man="1"/>
+    <brk id="80" max="92" man="1"/>
+    <brk id="99" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EBB1B-AEEC-43CA-B5F3-1318B586BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E08B9-3E66-4028-AE32-DB9C9CA07631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -618,13 +618,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -755,15 +755,13 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23600,7 +23598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23614,8 +23612,8 @@
   <dimension ref="A1:EY139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CN7" sqref="CN7"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23637,7 +23635,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23648,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23755,144 +23753,144 @@
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24527,28 +24525,28 @@
         <v>34396.745947446572</v>
       </c>
       <c r="CH12" s="9">
-        <v>31407.98428433144</v>
+        <v>31456.40486583348</v>
       </c>
       <c r="CI12" s="9">
-        <v>17598.008875856282</v>
+        <v>18036.433644349483</v>
       </c>
       <c r="CJ12" s="9">
-        <v>24199.596709305308</v>
+        <v>24614.968911717107</v>
       </c>
       <c r="CK12" s="9">
-        <v>42734.76871668618</v>
+        <v>43550.017248096432</v>
       </c>
       <c r="CL12" s="9">
-        <v>36469.915561264919</v>
+        <v>36526.139943664632</v>
       </c>
       <c r="CM12" s="9">
-        <v>19572.28895085687</v>
+        <v>20059.899584121988</v>
       </c>
       <c r="CN12" s="9">
-        <v>29622.728083555645</v>
+        <v>30131.143716784616</v>
       </c>
       <c r="CO12" s="9">
-        <v>49564.740234703684</v>
+        <v>49295.172883435189</v>
       </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24876,22 +24874,22 @@
         <v>65695.527833900342</v>
       </c>
       <c r="CJ13" s="9">
-        <v>66816.945679548589</v>
+        <v>66133.776647139413</v>
       </c>
       <c r="CK13" s="9">
-        <v>60788.831474174149</v>
+        <v>60560.584121346947</v>
       </c>
       <c r="CL13" s="9">
-        <v>51047.600299997459</v>
+        <v>51356.064522989262</v>
       </c>
       <c r="CM13" s="9">
-        <v>66871.315069586504</v>
+        <v>66706.217402237162</v>
       </c>
       <c r="CN13" s="9">
-        <v>68056.053061552433</v>
+        <v>67155.373374645045</v>
       </c>
       <c r="CO13" s="9">
-        <v>63886.276972043532</v>
+        <v>64239.897264303501</v>
       </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -25213,28 +25211,28 @@
         <v>7951.9212504024072</v>
       </c>
       <c r="CH14" s="9">
-        <v>5699.8660801649357</v>
+        <v>5527.9479501190099</v>
       </c>
       <c r="CI14" s="9">
-        <v>3578.368754650779</v>
+        <v>3468.4707315923006</v>
       </c>
       <c r="CJ14" s="9">
-        <v>6346.1918226433372</v>
+        <v>6158.5389437461981</v>
       </c>
       <c r="CK14" s="9">
-        <v>8794.2786772343698</v>
+        <v>8521.169658045339</v>
       </c>
       <c r="CL14" s="9">
-        <v>5926.3451606485323</v>
+        <v>5749.8051938795297</v>
       </c>
       <c r="CM14" s="9">
-        <v>3965.3885037480841</v>
+        <v>3851.1206859689173</v>
       </c>
       <c r="CN14" s="9">
-        <v>6679.9170429745245</v>
+        <v>6485.5826641337062</v>
       </c>
       <c r="CO14" s="9">
-        <v>9946.5296084796173</v>
+        <v>10156.576953483676</v>
       </c>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
@@ -25711,29 +25709,29 @@
       <c r="CG16" s="14">
         <v>95955.633560106406</v>
       </c>
-      <c r="CH16" s="21">
-        <v>89133.593023129652</v>
-      </c>
-      <c r="CI16" s="21">
-        <v>86871.905464407406</v>
-      </c>
-      <c r="CJ16" s="21">
-        <v>97362.734211497227</v>
-      </c>
-      <c r="CK16" s="21">
-        <v>112317.8788680947</v>
-      </c>
-      <c r="CL16" s="21">
-        <v>93443.86102191091</v>
-      </c>
-      <c r="CM16" s="21">
-        <v>90408.992524191446</v>
-      </c>
-      <c r="CN16" s="21">
-        <v>104358.69818808261</v>
-      </c>
-      <c r="CO16" s="21">
-        <v>123397.54681522683</v>
+      <c r="CH16" s="14">
+        <v>89010.095474585745</v>
+      </c>
+      <c r="CI16" s="14">
+        <v>87200.432209842125</v>
+      </c>
+      <c r="CJ16" s="14">
+        <v>96907.284502602721</v>
+      </c>
+      <c r="CK16" s="14">
+        <v>112631.77102748872</v>
+      </c>
+      <c r="CL16" s="14">
+        <v>93632.009660533426</v>
+      </c>
+      <c r="CM16" s="14">
+        <v>90617.237672328061</v>
+      </c>
+      <c r="CN16" s="14">
+        <v>103772.09975556337</v>
+      </c>
+      <c r="CO16" s="14">
+        <v>123691.64710122236</v>
       </c>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
@@ -26498,7 +26496,7 @@
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26787,7 +26785,7 @@
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -27076,144 +27074,144 @@
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>2000</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21">
         <v>2001</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21">
         <v>2002</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="23">
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="21">
         <v>2003</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="23">
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="21">
         <v>2004</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="23">
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="21">
         <v>2005</v>
       </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="23">
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="21">
         <v>2006</v>
       </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="23">
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="21">
         <v>2007</v>
       </c>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="23">
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="21">
         <v>2008</v>
       </c>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="23">
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="21">
         <v>2009</v>
       </c>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="23">
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="23">
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="21">
         <v>2011</v>
       </c>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="23">
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="21">
         <v>2012</v>
       </c>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="23">
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="21">
         <v>2013</v>
       </c>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="23">
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="21">
         <v>2014</v>
       </c>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="23">
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="21">
         <v>2015</v>
       </c>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="23">
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="21">
         <v>2016</v>
       </c>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="23">
+      <c r="BO29" s="22"/>
+      <c r="BP29" s="22"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="21">
         <v>2017</v>
       </c>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="23">
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="21">
         <v>2018</v>
       </c>
-      <c r="BW29" s="25"/>
-      <c r="BX29" s="25"/>
-      <c r="BY29" s="25"/>
-      <c r="BZ29" s="23">
+      <c r="BW29" s="22"/>
+      <c r="BX29" s="22"/>
+      <c r="BY29" s="22"/>
+      <c r="BZ29" s="21">
         <v>2019</v>
       </c>
-      <c r="CA29" s="25"/>
-      <c r="CB29" s="25"/>
-      <c r="CC29" s="25"/>
-      <c r="CD29" s="23">
+      <c r="CA29" s="22"/>
+      <c r="CB29" s="22"/>
+      <c r="CC29" s="22"/>
+      <c r="CD29" s="21">
         <v>2020</v>
       </c>
-      <c r="CE29" s="25"/>
-      <c r="CF29" s="25"/>
-      <c r="CG29" s="25"/>
-      <c r="CH29" s="23">
+      <c r="CE29" s="22"/>
+      <c r="CF29" s="22"/>
+      <c r="CG29" s="22"/>
+      <c r="CH29" s="21">
         <v>2021</v>
       </c>
-      <c r="CI29" s="23"/>
-      <c r="CJ29" s="23"/>
-      <c r="CK29" s="23"/>
-      <c r="CL29" s="23">
+      <c r="CI29" s="22"/>
+      <c r="CJ29" s="22"/>
+      <c r="CK29" s="22"/>
+      <c r="CL29" s="21">
         <v>2022</v>
       </c>
-      <c r="CM29" s="23"/>
-      <c r="CN29" s="23"/>
-      <c r="CO29" s="23"/>
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27848,28 +27846,28 @@
         <v>28657.669221506498</v>
       </c>
       <c r="CH32" s="9">
-        <v>30799.669348727395</v>
+        <v>30847.152112550582</v>
       </c>
       <c r="CI32" s="9">
-        <v>17802.651115381093</v>
+        <v>18246.174200798694</v>
       </c>
       <c r="CJ32" s="9">
-        <v>23316.004556722735</v>
+        <v>23728.699520812756</v>
       </c>
       <c r="CK32" s="9">
-        <v>34736.048488333727</v>
+        <v>35398.705930213182</v>
       </c>
       <c r="CL32" s="9">
-        <v>34368.865296414166</v>
+        <v>34421.850563731918</v>
       </c>
       <c r="CM32" s="9">
-        <v>18798.597573220191</v>
+        <v>19266.932988162691</v>
       </c>
       <c r="CN32" s="9">
-        <v>27475.106619328792</v>
+        <v>27961.417990217757</v>
       </c>
       <c r="CO32" s="9">
-        <v>38799.328502280594</v>
+        <v>38588.310908607578</v>
       </c>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
@@ -28197,22 +28195,22 @@
         <v>61769.262229764616</v>
       </c>
       <c r="CJ33" s="9">
-        <v>56943.948401290429</v>
+        <v>57179.691835353893</v>
       </c>
       <c r="CK33" s="9">
-        <v>49875.155719544011</v>
+        <v>49687.886578342208</v>
       </c>
       <c r="CL33" s="9">
-        <v>51622.990964930112</v>
+        <v>51934.93208856626</v>
       </c>
       <c r="CM33" s="9">
-        <v>61822.916974633001</v>
+        <v>61670.283227702457</v>
       </c>
       <c r="CN33" s="9">
-        <v>57020.62408327595</v>
+        <v>57160.291355151559</v>
       </c>
       <c r="CO33" s="9">
-        <v>50976.325045470199</v>
+        <v>51258.486783722779</v>
       </c>
       <c r="CP33" s="10"/>
       <c r="CQ33" s="10"/>
@@ -28534,28 +28532,28 @@
         <v>6379.9066048755776</v>
       </c>
       <c r="CH34" s="9">
-        <v>5663.5751552620195</v>
+        <v>5492.7516242574029</v>
       </c>
       <c r="CI34" s="9">
-        <v>3317.2454474132228</v>
+        <v>3215.3669822056791</v>
       </c>
       <c r="CJ34" s="9">
-        <v>5340.1075460950024</v>
+        <v>5411.5952106529712</v>
       </c>
       <c r="CK34" s="9">
-        <v>6730.0100764307017</v>
+        <v>6521.0075512020676</v>
       </c>
       <c r="CL34" s="9">
-        <v>5676.5725508068781</v>
+        <v>5507.4664835591848</v>
       </c>
       <c r="CM34" s="9">
-        <v>3639.2385585482234</v>
+        <v>3534.3141677116109</v>
       </c>
       <c r="CN34" s="9">
-        <v>5430.1375622327723</v>
+        <v>5519.0295232979697</v>
       </c>
       <c r="CO34" s="9">
-        <v>7364.645094001733</v>
+        <v>7520.1691018500005</v>
       </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -29032,29 +29030,29 @@
       <c r="CG36" s="14">
         <v>80393.681457500294</v>
       </c>
-      <c r="CH36" s="21">
-        <v>90437.393659528403</v>
-      </c>
-      <c r="CI36" s="21">
-        <v>82889.158792558927</v>
-      </c>
-      <c r="CJ36" s="21">
-        <v>85600.060504108173</v>
-      </c>
-      <c r="CK36" s="21">
-        <v>91341.214284308444</v>
-      </c>
-      <c r="CL36" s="21">
-        <v>91668.428812151149</v>
-      </c>
-      <c r="CM36" s="21">
-        <v>84260.753106401418</v>
-      </c>
-      <c r="CN36" s="21">
-        <v>89925.868264837525</v>
-      </c>
-      <c r="CO36" s="21">
-        <v>97140.298641752524</v>
+      <c r="CH36" s="14">
+        <v>90314.052892346968</v>
+      </c>
+      <c r="CI36" s="14">
+        <v>83230.80341276899</v>
+      </c>
+      <c r="CJ36" s="14">
+        <v>86319.986566819629</v>
+      </c>
+      <c r="CK36" s="14">
+        <v>91607.60005975746</v>
+      </c>
+      <c r="CL36" s="14">
+        <v>91864.249135857361</v>
+      </c>
+      <c r="CM36" s="14">
+        <v>84471.530383576755</v>
+      </c>
+      <c r="CN36" s="14">
+        <v>90640.738868667278</v>
+      </c>
+      <c r="CO36" s="14">
+        <v>97366.966794180349</v>
       </c>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
@@ -29819,7 +29817,7 @@
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30108,7 +30106,7 @@
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30397,142 +30395,142 @@
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23" t="s">
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23" t="s">
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23" t="s">
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23" t="s">
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="23"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23" t="s">
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23" t="s">
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23" t="s">
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="23"/>
-      <c r="AR49" s="23"/>
-      <c r="AS49" s="23"/>
-      <c r="AT49" s="23" t="s">
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="23"/>
-      <c r="AV49" s="23"/>
-      <c r="AW49" s="23"/>
-      <c r="AX49" s="23" t="s">
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="23"/>
-      <c r="AZ49" s="23"/>
-      <c r="BA49" s="23"/>
-      <c r="BB49" s="23" t="s">
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="23"/>
-      <c r="BD49" s="23"/>
-      <c r="BE49" s="23"/>
-      <c r="BF49" s="23" t="s">
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="21"/>
+      <c r="BE49" s="21"/>
+      <c r="BF49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="23"/>
-      <c r="BH49" s="23"/>
-      <c r="BI49" s="23"/>
-      <c r="BJ49" s="23" t="s">
+      <c r="BG49" s="21"/>
+      <c r="BH49" s="21"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="23"/>
-      <c r="BL49" s="23"/>
-      <c r="BM49" s="23"/>
-      <c r="BN49" s="23" t="s">
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="21"/>
+      <c r="BM49" s="21"/>
+      <c r="BN49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="23"/>
-      <c r="BP49" s="23"/>
-      <c r="BQ49" s="23"/>
-      <c r="BR49" s="23" t="s">
+      <c r="BO49" s="21"/>
+      <c r="BP49" s="21"/>
+      <c r="BQ49" s="21"/>
+      <c r="BR49" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="23"/>
-      <c r="BT49" s="23"/>
-      <c r="BU49" s="23"/>
-      <c r="BV49" s="23" t="s">
+      <c r="BS49" s="21"/>
+      <c r="BT49" s="21"/>
+      <c r="BU49" s="21"/>
+      <c r="BV49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="23"/>
-      <c r="BX49" s="23"/>
-      <c r="BY49" s="23"/>
-      <c r="BZ49" s="23" t="s">
+      <c r="BW49" s="21"/>
+      <c r="BX49" s="21"/>
+      <c r="BY49" s="21"/>
+      <c r="BZ49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="23"/>
-      <c r="CB49" s="23"/>
-      <c r="CC49" s="23"/>
-      <c r="CD49" s="23" t="s">
+      <c r="CA49" s="21"/>
+      <c r="CB49" s="21"/>
+      <c r="CC49" s="21"/>
+      <c r="CD49" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="23"/>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="23"/>
-      <c r="CH49" s="23" t="s">
+      <c r="CE49" s="21"/>
+      <c r="CF49" s="21"/>
+      <c r="CG49" s="21"/>
+      <c r="CH49" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="23"/>
-      <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
-      <c r="CL49" s="23"/>
-      <c r="CM49" s="23"/>
-      <c r="CN49" s="22"/>
-      <c r="CO49" s="22"/>
+      <c r="CI49" s="21"/>
+      <c r="CJ49" s="21"/>
+      <c r="CK49" s="21"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
+      <c r="CN49" s="21"/>
+      <c r="CO49" s="21"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31147,28 +31145,28 @@
         <v>39.813993394904571</v>
       </c>
       <c r="CD52" s="17">
-        <v>58.234270254513234</v>
+        <v>58.47821444749016</v>
       </c>
       <c r="CE52" s="17">
-        <v>-27.821225856037643</v>
+        <v>-26.023013196444936</v>
       </c>
       <c r="CF52" s="17">
-        <v>14.835762658896655</v>
+        <v>16.806852682596229</v>
       </c>
       <c r="CG52" s="17">
-        <v>24.240731323768074</v>
+        <v>26.610864046950184</v>
       </c>
       <c r="CH52" s="17">
-        <v>16.116702145252717</v>
+        <v>16.116702145252674</v>
       </c>
       <c r="CI52" s="17">
         <v>11.218769628586884</v>
       </c>
       <c r="CJ52" s="17">
-        <v>22.410007238529801</v>
+        <v>22.409838602078125</v>
       </c>
       <c r="CK52" s="17">
-        <v>15.98223583072928</v>
+        <v>13.19208578634921</v>
       </c>
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
@@ -31484,22 +31482,22 @@
         <v>51.505866870322848</v>
       </c>
       <c r="CF53" s="17">
-        <v>23.993317603247604</v>
+        <v>22.725549465229562</v>
       </c>
       <c r="CG53" s="17">
-        <v>13.397260839914253</v>
+        <v>12.971481564726801</v>
       </c>
       <c r="CH53" s="17">
-        <v>-1.8801122456893751</v>
+        <v>-1.2872053360931233</v>
       </c>
       <c r="CI53" s="17">
-        <v>1.7897523232615242</v>
+        <v>1.5384450078431087</v>
       </c>
       <c r="CJ53" s="17">
-        <v>1.8544807300030755</v>
+        <v>1.5447427612616451</v>
       </c>
       <c r="CK53" s="17">
-        <v>5.0954187187909952</v>
+        <v>6.0754254542595163</v>
       </c>
       <c r="CL53" s="17"/>
       <c r="CM53" s="17"/>
@@ -31809,28 +31807,28 @@
         <v>15.603364359036817</v>
       </c>
       <c r="CD54" s="17">
-        <v>41.480291084679266</v>
+        <v>37.21299309213984</v>
       </c>
       <c r="CE54" s="17">
-        <v>-42.888536125428246</v>
+        <v>-44.642530027156148</v>
       </c>
       <c r="CF54" s="17">
-        <v>23.660844375776662</v>
+        <v>20.004271410054358</v>
       </c>
       <c r="CG54" s="17">
-        <v>10.593130896377218</v>
+        <v>7.1586273268755605</v>
       </c>
       <c r="CH54" s="17">
-        <v>3.9734105555869945</v>
+        <v>4.0133743255622392</v>
       </c>
       <c r="CI54" s="17">
-        <v>10.815535670947796</v>
+        <v>11.032238239500742</v>
       </c>
       <c r="CJ54" s="17">
-        <v>5.258668972791682</v>
+        <v>5.3104108519052176</v>
       </c>
       <c r="CK54" s="17">
-        <v>13.102279033163498</v>
+        <v>19.192286517781667</v>
       </c>
       <c r="CL54" s="17"/>
       <c r="CM54" s="17"/>
@@ -32292,28 +32290,28 @@
         <v>2.9893953450075514</v>
       </c>
       <c r="CD56" s="17">
-        <v>18.52345554455988</v>
+        <v>18.35923736701028</v>
       </c>
       <c r="CE56" s="17">
-        <v>17.381088113318071</v>
+        <v>17.824992579869132</v>
       </c>
       <c r="CF56" s="17">
-        <v>21.562566171917737</v>
+        <v>20.993912920508407</v>
       </c>
       <c r="CG56" s="17">
-        <v>17.051886065385659</v>
+        <v>17.379008244405398</v>
       </c>
       <c r="CH56" s="17">
-        <v>4.8357390884744973</v>
+        <v>5.1925730011910076</v>
       </c>
       <c r="CI56" s="17">
-        <v>4.0716121522547155</v>
+        <v>3.9183354668055159</v>
       </c>
       <c r="CJ56" s="17">
-        <v>7.1854637539125861</v>
+        <v>7.0839001301045386</v>
       </c>
       <c r="CK56" s="17">
-        <v>9.8645630230820274</v>
+        <v>9.8194993942112347</v>
       </c>
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
@@ -33070,7 +33068,7 @@
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33359,7 +33357,7 @@
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33648,142 +33646,142 @@
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="23" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23" t="s">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="23" t="s">
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="23" t="s">
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="23" t="s">
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="23" t="s">
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="23" t="s">
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="23" t="s">
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="23" t="s">
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="24"/>
-      <c r="AS69" s="24"/>
-      <c r="AT69" s="23" t="s">
+      <c r="AQ69" s="23"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="24"/>
-      <c r="AV69" s="24"/>
-      <c r="AW69" s="24"/>
-      <c r="AX69" s="23" t="s">
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="24"/>
-      <c r="AZ69" s="24"/>
-      <c r="BA69" s="24"/>
-      <c r="BB69" s="23" t="s">
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="24"/>
-      <c r="BD69" s="24"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="23" t="s">
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="24"/>
-      <c r="BH69" s="24"/>
-      <c r="BI69" s="24"/>
-      <c r="BJ69" s="23" t="s">
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="23" t="s">
+      <c r="BK69" s="23"/>
+      <c r="BL69" s="23"/>
+      <c r="BM69" s="23"/>
+      <c r="BN69" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="23" t="s">
+      <c r="BO69" s="23"/>
+      <c r="BP69" s="23"/>
+      <c r="BQ69" s="23"/>
+      <c r="BR69" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="23" t="s">
+      <c r="BS69" s="23"/>
+      <c r="BT69" s="23"/>
+      <c r="BU69" s="23"/>
+      <c r="BV69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="24"/>
-      <c r="BX69" s="24"/>
-      <c r="BY69" s="24"/>
-      <c r="BZ69" s="23" t="s">
+      <c r="BW69" s="23"/>
+      <c r="BX69" s="23"/>
+      <c r="BY69" s="23"/>
+      <c r="BZ69" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="24"/>
-      <c r="CB69" s="24"/>
-      <c r="CC69" s="24"/>
-      <c r="CD69" s="23" t="s">
+      <c r="CA69" s="23"/>
+      <c r="CB69" s="23"/>
+      <c r="CC69" s="23"/>
+      <c r="CD69" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="24"/>
-      <c r="CF69" s="24"/>
-      <c r="CG69" s="24"/>
-      <c r="CH69" s="23" t="s">
+      <c r="CE69" s="23"/>
+      <c r="CF69" s="23"/>
+      <c r="CG69" s="23"/>
+      <c r="CH69" s="21" t="s">
         <v>48</v>
       </c>
       <c r="CI69" s="23"/>
       <c r="CJ69" s="23"/>
       <c r="CK69" s="23"/>
-      <c r="CL69" s="23"/>
+      <c r="CL69" s="21"/>
       <c r="CM69" s="23"/>
-      <c r="CN69" s="22"/>
-      <c r="CO69" s="22"/>
+      <c r="CN69" s="23"/>
+      <c r="CO69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34398,28 +34396,28 @@
         <v>34.352606907620498</v>
       </c>
       <c r="CD72" s="17">
-        <v>47.991928552940323</v>
+        <v>48.220082488998969</v>
       </c>
       <c r="CE72" s="17">
-        <v>-28.058982780720186</v>
+        <v>-26.266693434690808</v>
       </c>
       <c r="CF72" s="17">
-        <v>11.833448987179111</v>
+        <v>13.81290910872552</v>
       </c>
       <c r="CG72" s="17">
-        <v>21.21030576438379</v>
+        <v>23.522627247186563</v>
       </c>
       <c r="CH72" s="17">
-        <v>11.588422938164584</v>
+        <v>11.588422938164598</v>
       </c>
       <c r="CI72" s="17">
-        <v>5.594371598837995</v>
+        <v>5.5943715988380376</v>
       </c>
       <c r="CJ72" s="17">
-        <v>17.837970705863754</v>
+        <v>17.837970705863711</v>
       </c>
       <c r="CK72" s="17">
-        <v>11.697588501788104</v>
+        <v>9.0105129398869792</v>
       </c>
       <c r="CL72" s="17"/>
       <c r="CM72" s="17"/>
@@ -34735,22 +34733,22 @@
         <v>46.680589386928517</v>
       </c>
       <c r="CF73" s="17">
-        <v>18.214510593271413</v>
+        <v>18.703909299644891</v>
       </c>
       <c r="CG73" s="17">
-        <v>9.9634878822694191</v>
+        <v>9.5506015936518196</v>
       </c>
       <c r="CH73" s="17">
-        <v>-4.3560819899790602</v>
+        <v>-3.7781365688530713</v>
       </c>
       <c r="CI73" s="17">
-        <v>8.6863179082172337E-2</v>
+        <v>-0.16023989681789885</v>
       </c>
       <c r="CJ73" s="17">
-        <v>0.13465115106731673</v>
+        <v>-3.3928969498816741E-2</v>
       </c>
       <c r="CK73" s="17">
-        <v>2.2078514042507322</v>
+        <v>3.1609317955277163</v>
       </c>
       <c r="CL73" s="17"/>
       <c r="CM73" s="17"/>
@@ -35060,28 +35058,28 @@
         <v>13.366469995043317</v>
       </c>
       <c r="CD74" s="17">
-        <v>36.427137148521695</v>
+        <v>32.312251293972906</v>
       </c>
       <c r="CE74" s="17">
-        <v>-43.215992874910448</v>
+        <v>-44.959930001645986</v>
       </c>
       <c r="CF74" s="17">
-        <v>12.920368560486665</v>
+        <v>14.43202602426139</v>
       </c>
       <c r="CG74" s="17">
-        <v>5.4875955595897352</v>
+        <v>2.2116459544824636</v>
       </c>
       <c r="CH74" s="17">
-        <v>0.22949100503740283</v>
+        <v>0.26789595285534062</v>
       </c>
       <c r="CI74" s="17">
-        <v>9.7066411346224015</v>
+        <v>9.9194644739164488</v>
       </c>
       <c r="CJ74" s="17">
-        <v>1.685921404403274</v>
+        <v>1.9852614333294696</v>
       </c>
       <c r="CK74" s="17">
-        <v>9.4299267068499404</v>
+        <v>15.322195884648977</v>
       </c>
       <c r="CL74" s="17"/>
       <c r="CM74" s="17"/>
@@ -35543,28 +35541,28 @@
         <v>-0.87949155385388167</v>
       </c>
       <c r="CD76" s="17">
-        <v>12.959857270022383</v>
+        <v>12.805799806703135</v>
       </c>
       <c r="CE76" s="17">
-        <v>14.016210449625177</v>
+        <v>14.48615157925272</v>
       </c>
       <c r="CF76" s="17">
-        <v>16.071070329897054</v>
+        <v>17.047268105520089</v>
       </c>
       <c r="CG76" s="17">
-        <v>13.617404537688088</v>
+        <v>13.948756169581998</v>
       </c>
       <c r="CH76" s="17">
-        <v>1.3612014928882701</v>
+        <v>1.716450755851028</v>
       </c>
       <c r="CI76" s="17">
-        <v>1.654733060176298</v>
+        <v>1.4907064691597469</v>
       </c>
       <c r="CJ76" s="17">
-        <v>5.0535101672290779</v>
+        <v>5.0055062259572765</v>
       </c>
       <c r="CK76" s="17">
-        <v>6.3488146100114875</v>
+        <v>6.2869966363772676</v>
       </c>
       <c r="CL76" s="17"/>
       <c r="CM76" s="17"/>
@@ -36058,14 +36056,14 @@
       <c r="CE80" s="12"/>
       <c r="CF80" s="12"/>
       <c r="CG80" s="12"/>
-      <c r="CH80" s="10"/>
-      <c r="CI80" s="10"/>
-      <c r="CJ80" s="10"/>
-      <c r="CK80" s="10"/>
-      <c r="CL80" s="10"/>
-      <c r="CM80" s="10"/>
-      <c r="CN80" s="10"/>
-      <c r="CO80" s="10"/>
+      <c r="CH80" s="12"/>
+      <c r="CI80" s="12"/>
+      <c r="CJ80" s="12"/>
+      <c r="CK80" s="12"/>
+      <c r="CL80" s="12"/>
+      <c r="CM80" s="12"/>
+      <c r="CN80" s="12"/>
+      <c r="CO80" s="12"/>
       <c r="CP80" s="10"/>
       <c r="CQ80" s="10"/>
       <c r="CR80" s="10"/>
@@ -36224,7 +36222,7 @@
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36513,7 +36511,7 @@
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36802,144 +36800,144 @@
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="23">
+      <c r="B88" s="21">
         <v>2000</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="23">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21">
         <v>2001</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="23">
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="21">
         <v>2002</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="23">
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="21">
         <v>2003</v>
       </c>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="23">
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="21">
         <v>2004</v>
       </c>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="23">
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="21">
         <v>2005</v>
       </c>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="23">
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="21">
         <v>2006</v>
       </c>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
-      <c r="AD88" s="23">
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="21">
         <v>2007</v>
       </c>
-      <c r="AE88" s="25"/>
-      <c r="AF88" s="25"/>
-      <c r="AG88" s="25"/>
-      <c r="AH88" s="23">
+      <c r="AE88" s="22"/>
+      <c r="AF88" s="22"/>
+      <c r="AG88" s="22"/>
+      <c r="AH88" s="21">
         <v>2008</v>
       </c>
-      <c r="AI88" s="25"/>
-      <c r="AJ88" s="25"/>
-      <c r="AK88" s="25"/>
-      <c r="AL88" s="23">
+      <c r="AI88" s="22"/>
+      <c r="AJ88" s="22"/>
+      <c r="AK88" s="22"/>
+      <c r="AL88" s="21">
         <v>2009</v>
       </c>
-      <c r="AM88" s="25"/>
-      <c r="AN88" s="25"/>
-      <c r="AO88" s="25"/>
-      <c r="AP88" s="23">
+      <c r="AM88" s="22"/>
+      <c r="AN88" s="22"/>
+      <c r="AO88" s="22"/>
+      <c r="AP88" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="25"/>
-      <c r="AR88" s="25"/>
-      <c r="AS88" s="25"/>
-      <c r="AT88" s="23">
+      <c r="AQ88" s="22"/>
+      <c r="AR88" s="22"/>
+      <c r="AS88" s="22"/>
+      <c r="AT88" s="21">
         <v>2011</v>
       </c>
-      <c r="AU88" s="25"/>
-      <c r="AV88" s="25"/>
-      <c r="AW88" s="25"/>
-      <c r="AX88" s="23">
+      <c r="AU88" s="22"/>
+      <c r="AV88" s="22"/>
+      <c r="AW88" s="22"/>
+      <c r="AX88" s="21">
         <v>2012</v>
       </c>
-      <c r="AY88" s="25"/>
-      <c r="AZ88" s="25"/>
-      <c r="BA88" s="25"/>
-      <c r="BB88" s="23">
+      <c r="AY88" s="22"/>
+      <c r="AZ88" s="22"/>
+      <c r="BA88" s="22"/>
+      <c r="BB88" s="21">
         <v>2013</v>
       </c>
-      <c r="BC88" s="25"/>
-      <c r="BD88" s="25"/>
-      <c r="BE88" s="25"/>
-      <c r="BF88" s="23">
+      <c r="BC88" s="22"/>
+      <c r="BD88" s="22"/>
+      <c r="BE88" s="22"/>
+      <c r="BF88" s="21">
         <v>2014</v>
       </c>
-      <c r="BG88" s="25"/>
-      <c r="BH88" s="25"/>
-      <c r="BI88" s="25"/>
-      <c r="BJ88" s="23">
+      <c r="BG88" s="22"/>
+      <c r="BH88" s="22"/>
+      <c r="BI88" s="22"/>
+      <c r="BJ88" s="21">
         <v>2015</v>
       </c>
-      <c r="BK88" s="25"/>
-      <c r="BL88" s="25"/>
-      <c r="BM88" s="25"/>
-      <c r="BN88" s="23">
+      <c r="BK88" s="22"/>
+      <c r="BL88" s="22"/>
+      <c r="BM88" s="22"/>
+      <c r="BN88" s="21">
         <v>2016</v>
       </c>
-      <c r="BO88" s="25"/>
-      <c r="BP88" s="25"/>
-      <c r="BQ88" s="25"/>
-      <c r="BR88" s="23">
+      <c r="BO88" s="22"/>
+      <c r="BP88" s="22"/>
+      <c r="BQ88" s="22"/>
+      <c r="BR88" s="21">
         <v>2017</v>
       </c>
-      <c r="BS88" s="25"/>
-      <c r="BT88" s="25"/>
-      <c r="BU88" s="25"/>
-      <c r="BV88" s="23">
+      <c r="BS88" s="22"/>
+      <c r="BT88" s="22"/>
+      <c r="BU88" s="22"/>
+      <c r="BV88" s="21">
         <v>2018</v>
       </c>
-      <c r="BW88" s="25"/>
-      <c r="BX88" s="25"/>
-      <c r="BY88" s="25"/>
-      <c r="BZ88" s="23">
+      <c r="BW88" s="22"/>
+      <c r="BX88" s="22"/>
+      <c r="BY88" s="22"/>
+      <c r="BZ88" s="21">
         <v>2019</v>
       </c>
-      <c r="CA88" s="25"/>
-      <c r="CB88" s="25"/>
-      <c r="CC88" s="25"/>
-      <c r="CD88" s="23">
+      <c r="CA88" s="22"/>
+      <c r="CB88" s="22"/>
+      <c r="CC88" s="22"/>
+      <c r="CD88" s="21">
         <v>2020</v>
       </c>
-      <c r="CE88" s="25"/>
-      <c r="CF88" s="25"/>
-      <c r="CG88" s="25"/>
-      <c r="CH88" s="23">
+      <c r="CE88" s="22"/>
+      <c r="CF88" s="22"/>
+      <c r="CG88" s="22"/>
+      <c r="CH88" s="21">
         <v>2021</v>
       </c>
-      <c r="CI88" s="23"/>
-      <c r="CJ88" s="23"/>
-      <c r="CK88" s="23"/>
-      <c r="CL88" s="23">
+      <c r="CI88" s="22"/>
+      <c r="CJ88" s="22"/>
+      <c r="CK88" s="22"/>
+      <c r="CL88" s="21">
         <v>2022</v>
       </c>
-      <c r="CM88" s="23"/>
-      <c r="CN88" s="23"/>
-      <c r="CO88" s="23"/>
+      <c r="CM88" s="22"/>
+      <c r="CN88" s="22"/>
+      <c r="CO88" s="22"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37574,28 +37572,28 @@
         <v>120.02632063892034</v>
       </c>
       <c r="CH91" s="17">
-        <v>101.97506969544523</v>
+        <v>101.9750696954453</v>
       </c>
       <c r="CI91" s="17">
-        <v>98.850495703148368</v>
+        <v>98.850495703148383</v>
       </c>
       <c r="CJ91" s="17">
-        <v>103.7896379306025</v>
+        <v>103.73501038321544</v>
       </c>
       <c r="CK91" s="17">
         <v>123.02714492996768</v>
       </c>
       <c r="CL91" s="17">
-        <v>106.11323721842503</v>
+        <v>106.11323721842506</v>
       </c>
       <c r="CM91" s="17">
-        <v>104.11568668685611</v>
+        <v>104.11568668685609</v>
       </c>
       <c r="CN91" s="17">
-        <v>107.81660829922311</v>
+        <v>107.75971278468757</v>
       </c>
       <c r="CO91" s="17">
-        <v>127.74638672365246</v>
+        <v>127.74638672365242</v>
       </c>
       <c r="CP91" s="10"/>
       <c r="CQ91" s="10"/>
@@ -37923,10 +37921,10 @@
         <v>106.35634207436557</v>
       </c>
       <c r="CJ92" s="17">
-        <v>117.33809747206504</v>
+        <v>115.65955416053721</v>
       </c>
       <c r="CK92" s="17">
-        <v>121.88198833102292</v>
+        <v>121.88198833102291</v>
       </c>
       <c r="CL92" s="17">
         <v>98.885398435508037</v>
@@ -37935,10 +37933,10 @@
         <v>108.16590083742723</v>
       </c>
       <c r="CN92" s="17">
-        <v>119.35339915283943</v>
+        <v>117.48605856011383</v>
       </c>
       <c r="CO92" s="17">
-        <v>125.32538764820302</v>
+        <v>125.32538764820305</v>
       </c>
       <c r="CP92" s="10"/>
       <c r="CQ92" s="10"/>
@@ -38260,28 +38258,28 @@
         <v>124.64008868602376</v>
       </c>
       <c r="CH93" s="17">
-        <v>100.64077766972331</v>
+        <v>100.64077766972332</v>
       </c>
       <c r="CI93" s="17">
         <v>107.87169087657288</v>
       </c>
       <c r="CJ93" s="17">
-        <v>118.84015008806411</v>
+        <v>113.80265345092393</v>
       </c>
       <c r="CK93" s="17">
-        <v>130.67259301784676</v>
+        <v>130.67259301784685</v>
       </c>
       <c r="CL93" s="17">
-        <v>104.40006020545181</v>
+        <v>104.40018493156103</v>
       </c>
       <c r="CM93" s="17">
-        <v>108.96203807342515</v>
+        <v>108.96373393037754</v>
       </c>
       <c r="CN93" s="17">
-        <v>123.01561362706741</v>
+        <v>117.51309966282189</v>
       </c>
       <c r="CO93" s="17">
-        <v>135.05782670478916</v>
+        <v>135.05782670478922</v>
       </c>
       <c r="CP93" s="10"/>
       <c r="CQ93" s="10"/>
@@ -38759,28 +38757,28 @@
         <v>119.35718307766867</v>
       </c>
       <c r="CH95" s="17">
-        <v>98.558338997132978</v>
+        <v>98.556196543061219</v>
       </c>
       <c r="CI95" s="17">
-        <v>104.80490661247489</v>
+        <v>104.76942265880392</v>
       </c>
       <c r="CJ95" s="17">
-        <v>113.74143153418044</v>
+        <v>112.26517560633256</v>
       </c>
       <c r="CK95" s="17">
-        <v>122.96516939056048</v>
+        <v>122.95024752751603</v>
       </c>
       <c r="CL95" s="17">
-        <v>101.93679790606865</v>
+        <v>101.92431826450978</v>
       </c>
       <c r="CM95" s="17">
-        <v>107.29668225256216</v>
+        <v>107.27547762050038</v>
       </c>
       <c r="CN95" s="17">
-        <v>116.04969760285155</v>
+        <v>114.48726152367601</v>
       </c>
       <c r="CO95" s="17">
-        <v>127.03023208762146</v>
+        <v>127.03656196119222</v>
       </c>
       <c r="CP95" s="10"/>
       <c r="CQ95" s="10"/>
@@ -39421,7 +39419,7 @@
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39710,7 +39708,7 @@
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39999,144 +39997,144 @@
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="23">
+      <c r="B108" s="21">
         <v>2000</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="23">
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21">
         <v>2001</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="23">
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="21">
         <v>2002</v>
       </c>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="23">
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="21">
         <v>2003</v>
       </c>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="23">
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="21">
         <v>2004</v>
       </c>
-      <c r="S108" s="25"/>
-      <c r="T108" s="25"/>
-      <c r="U108" s="25"/>
-      <c r="V108" s="23">
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="21">
         <v>2005</v>
       </c>
-      <c r="W108" s="25"/>
-      <c r="X108" s="25"/>
-      <c r="Y108" s="25"/>
-      <c r="Z108" s="23">
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="21">
         <v>2006</v>
       </c>
-      <c r="AA108" s="25"/>
-      <c r="AB108" s="25"/>
-      <c r="AC108" s="25"/>
-      <c r="AD108" s="23">
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="21">
         <v>2007</v>
       </c>
-      <c r="AE108" s="25"/>
-      <c r="AF108" s="25"/>
-      <c r="AG108" s="25"/>
-      <c r="AH108" s="23">
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="21">
         <v>2008</v>
       </c>
-      <c r="AI108" s="25"/>
-      <c r="AJ108" s="25"/>
-      <c r="AK108" s="25"/>
-      <c r="AL108" s="23">
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="21">
         <v>2009</v>
       </c>
-      <c r="AM108" s="25"/>
-      <c r="AN108" s="25"/>
-      <c r="AO108" s="25"/>
-      <c r="AP108" s="23">
+      <c r="AM108" s="22"/>
+      <c r="AN108" s="22"/>
+      <c r="AO108" s="22"/>
+      <c r="AP108" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="25"/>
-      <c r="AR108" s="25"/>
-      <c r="AS108" s="25"/>
-      <c r="AT108" s="23">
+      <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
+      <c r="AS108" s="22"/>
+      <c r="AT108" s="21">
         <v>2011</v>
       </c>
-      <c r="AU108" s="25"/>
-      <c r="AV108" s="25"/>
-      <c r="AW108" s="25"/>
-      <c r="AX108" s="23">
+      <c r="AU108" s="22"/>
+      <c r="AV108" s="22"/>
+      <c r="AW108" s="22"/>
+      <c r="AX108" s="21">
         <v>2012</v>
       </c>
-      <c r="AY108" s="25"/>
-      <c r="AZ108" s="25"/>
-      <c r="BA108" s="25"/>
-      <c r="BB108" s="23">
+      <c r="AY108" s="22"/>
+      <c r="AZ108" s="22"/>
+      <c r="BA108" s="22"/>
+      <c r="BB108" s="21">
         <v>2013</v>
       </c>
-      <c r="BC108" s="25"/>
-      <c r="BD108" s="25"/>
-      <c r="BE108" s="25"/>
-      <c r="BF108" s="23">
+      <c r="BC108" s="22"/>
+      <c r="BD108" s="22"/>
+      <c r="BE108" s="22"/>
+      <c r="BF108" s="21">
         <v>2014</v>
       </c>
-      <c r="BG108" s="25"/>
-      <c r="BH108" s="25"/>
-      <c r="BI108" s="25"/>
-      <c r="BJ108" s="23">
+      <c r="BG108" s="22"/>
+      <c r="BH108" s="22"/>
+      <c r="BI108" s="22"/>
+      <c r="BJ108" s="21">
         <v>2015</v>
       </c>
-      <c r="BK108" s="25"/>
-      <c r="BL108" s="25"/>
-      <c r="BM108" s="25"/>
-      <c r="BN108" s="23">
+      <c r="BK108" s="22"/>
+      <c r="BL108" s="22"/>
+      <c r="BM108" s="22"/>
+      <c r="BN108" s="21">
         <v>2016</v>
       </c>
-      <c r="BO108" s="25"/>
-      <c r="BP108" s="25"/>
-      <c r="BQ108" s="25"/>
-      <c r="BR108" s="23">
+      <c r="BO108" s="22"/>
+      <c r="BP108" s="22"/>
+      <c r="BQ108" s="22"/>
+      <c r="BR108" s="21">
         <v>2017</v>
       </c>
-      <c r="BS108" s="25"/>
-      <c r="BT108" s="25"/>
-      <c r="BU108" s="25"/>
-      <c r="BV108" s="23">
+      <c r="BS108" s="22"/>
+      <c r="BT108" s="22"/>
+      <c r="BU108" s="22"/>
+      <c r="BV108" s="21">
         <v>2018</v>
       </c>
-      <c r="BW108" s="25"/>
-      <c r="BX108" s="25"/>
-      <c r="BY108" s="25"/>
-      <c r="BZ108" s="23">
+      <c r="BW108" s="22"/>
+      <c r="BX108" s="22"/>
+      <c r="BY108" s="22"/>
+      <c r="BZ108" s="21">
         <v>2019</v>
       </c>
-      <c r="CA108" s="25"/>
-      <c r="CB108" s="25"/>
-      <c r="CC108" s="25"/>
-      <c r="CD108" s="23">
+      <c r="CA108" s="22"/>
+      <c r="CB108" s="22"/>
+      <c r="CC108" s="22"/>
+      <c r="CD108" s="21">
         <v>2020</v>
       </c>
-      <c r="CE108" s="25"/>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
-      <c r="CH108" s="23">
+      <c r="CE108" s="22"/>
+      <c r="CF108" s="22"/>
+      <c r="CG108" s="22"/>
+      <c r="CH108" s="21">
         <v>2021</v>
       </c>
-      <c r="CI108" s="23"/>
-      <c r="CJ108" s="23"/>
-      <c r="CK108" s="23"/>
-      <c r="CL108" s="23">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="21">
         <v>2022</v>
       </c>
-      <c r="CM108" s="23"/>
-      <c r="CN108" s="23"/>
-      <c r="CO108" s="23"/>
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40771,28 +40769,28 @@
         <v>35.846510174830456</v>
       </c>
       <c r="CH111" s="17">
-        <v>35.23697768604621</v>
+        <v>35.340266402494699</v>
       </c>
       <c r="CI111" s="17">
-        <v>20.257422444896669</v>
+        <v>20.683881016720179</v>
       </c>
       <c r="CJ111" s="17">
-        <v>24.855091535060509</v>
+        <v>25.400535200277957</v>
       </c>
       <c r="CK111" s="17">
-        <v>38.048055347335733</v>
+        <v>38.665837224088115</v>
       </c>
       <c r="CL111" s="17">
-        <v>39.028690769437894</v>
+        <v>39.010312900568515</v>
       </c>
       <c r="CM111" s="17">
-        <v>21.648608622222792</v>
+        <v>22.136957712900703</v>
       </c>
       <c r="CN111" s="17">
-        <v>28.385490235004152</v>
+        <v>29.035881308905715</v>
       </c>
       <c r="CO111" s="17">
-        <v>40.166714423359643</v>
+        <v>39.853275494904487</v>
       </c>
       <c r="CP111" s="10"/>
       <c r="CQ111" s="10"/>
@@ -41114,28 +41112,28 @@
         <v>55.866408644655699</v>
       </c>
       <c r="CH112" s="17">
-        <v>58.368277205130603</v>
+        <v>58.449260593690425</v>
       </c>
       <c r="CI112" s="17">
-        <v>75.623445212464787</v>
+        <v>75.33853464832417</v>
       </c>
       <c r="CJ112" s="17">
-        <v>68.626817252692163</v>
+        <v>68.244381200634308</v>
       </c>
       <c r="CK112" s="17">
-        <v>54.122132724358252</v>
+        <v>53.768651215265571</v>
       </c>
       <c r="CL112" s="17">
-        <v>54.629164229448648</v>
+        <v>54.848832903600723</v>
       </c>
       <c r="CM112" s="17">
-        <v>73.965335972185756</v>
+        <v>73.613165790207432</v>
       </c>
       <c r="CN112" s="17">
-        <v>65.213589516895865</v>
+        <v>64.71428595241926</v>
       </c>
       <c r="CO112" s="17">
-        <v>51.772728567858515</v>
+        <v>51.935517692421982</v>
       </c>
       <c r="CP112" s="10"/>
       <c r="CQ112" s="10"/>
@@ -41457,28 +41455,28 @@
         <v>8.287081180513848</v>
       </c>
       <c r="CH113" s="17">
-        <v>6.3947451088231713</v>
+        <v>6.2104730038148936</v>
       </c>
       <c r="CI113" s="17">
-        <v>4.1191323426385358</v>
+        <v>3.9775843349556492</v>
       </c>
       <c r="CJ113" s="17">
-        <v>6.5180912122473416</v>
+        <v>6.3550835990877381</v>
       </c>
       <c r="CK113" s="17">
-        <v>7.8298119283060057</v>
+        <v>7.5655115606463079</v>
       </c>
       <c r="CL113" s="17">
-        <v>6.3421450011134608</v>
+        <v>6.1408541958307605</v>
       </c>
       <c r="CM113" s="17">
-        <v>4.3860554055914669</v>
+        <v>4.2498764968918721</v>
       </c>
       <c r="CN113" s="17">
-        <v>6.4009202480999781</v>
+        <v>6.2498327386750265</v>
       </c>
       <c r="CO113" s="17">
-        <v>8.0605570087818386</v>
+        <v>8.2112068126735345</v>
       </c>
       <c r="CP113" s="10"/>
       <c r="CQ113" s="10"/>
@@ -42742,7 +42740,7 @@
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -43031,7 +43029,7 @@
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -43320,144 +43318,144 @@
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="23">
+      <c r="B128" s="21">
         <v>2000</v>
       </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="23">
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="21">
         <v>2001</v>
       </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="23">
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="21">
         <v>2002</v>
       </c>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="23">
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="21">
         <v>2003</v>
       </c>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="23">
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="21">
         <v>2004</v>
       </c>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="23">
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="21">
         <v>2005</v>
       </c>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="23">
+      <c r="W128" s="22"/>
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="21">
         <v>2006</v>
       </c>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="25"/>
-      <c r="AD128" s="23">
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="21">
         <v>2007</v>
       </c>
-      <c r="AE128" s="25"/>
-      <c r="AF128" s="25"/>
-      <c r="AG128" s="25"/>
-      <c r="AH128" s="23">
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="21">
         <v>2008</v>
       </c>
-      <c r="AI128" s="25"/>
-      <c r="AJ128" s="25"/>
-      <c r="AK128" s="25"/>
-      <c r="AL128" s="23">
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+      <c r="AL128" s="21">
         <v>2009</v>
       </c>
-      <c r="AM128" s="25"/>
-      <c r="AN128" s="25"/>
-      <c r="AO128" s="25"/>
-      <c r="AP128" s="23">
+      <c r="AM128" s="22"/>
+      <c r="AN128" s="22"/>
+      <c r="AO128" s="22"/>
+      <c r="AP128" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="25"/>
-      <c r="AR128" s="25"/>
-      <c r="AS128" s="25"/>
-      <c r="AT128" s="23">
+      <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
+      <c r="AS128" s="22"/>
+      <c r="AT128" s="21">
         <v>2011</v>
       </c>
-      <c r="AU128" s="25"/>
-      <c r="AV128" s="25"/>
-      <c r="AW128" s="25"/>
-      <c r="AX128" s="23">
+      <c r="AU128" s="22"/>
+      <c r="AV128" s="22"/>
+      <c r="AW128" s="22"/>
+      <c r="AX128" s="21">
         <v>2012</v>
       </c>
-      <c r="AY128" s="25"/>
-      <c r="AZ128" s="25"/>
-      <c r="BA128" s="25"/>
-      <c r="BB128" s="23">
+      <c r="AY128" s="22"/>
+      <c r="AZ128" s="22"/>
+      <c r="BA128" s="22"/>
+      <c r="BB128" s="21">
         <v>2013</v>
       </c>
-      <c r="BC128" s="25"/>
-      <c r="BD128" s="25"/>
-      <c r="BE128" s="25"/>
-      <c r="BF128" s="23">
+      <c r="BC128" s="22"/>
+      <c r="BD128" s="22"/>
+      <c r="BE128" s="22"/>
+      <c r="BF128" s="21">
         <v>2014</v>
       </c>
-      <c r="BG128" s="25"/>
-      <c r="BH128" s="25"/>
-      <c r="BI128" s="25"/>
-      <c r="BJ128" s="23">
+      <c r="BG128" s="22"/>
+      <c r="BH128" s="22"/>
+      <c r="BI128" s="22"/>
+      <c r="BJ128" s="21">
         <v>2015</v>
       </c>
-      <c r="BK128" s="25"/>
-      <c r="BL128" s="25"/>
-      <c r="BM128" s="25"/>
-      <c r="BN128" s="23">
+      <c r="BK128" s="22"/>
+      <c r="BL128" s="22"/>
+      <c r="BM128" s="22"/>
+      <c r="BN128" s="21">
         <v>2016</v>
       </c>
-      <c r="BO128" s="25"/>
-      <c r="BP128" s="25"/>
-      <c r="BQ128" s="25"/>
-      <c r="BR128" s="23">
+      <c r="BO128" s="22"/>
+      <c r="BP128" s="22"/>
+      <c r="BQ128" s="22"/>
+      <c r="BR128" s="21">
         <v>2017</v>
       </c>
-      <c r="BS128" s="25"/>
-      <c r="BT128" s="25"/>
-      <c r="BU128" s="25"/>
-      <c r="BV128" s="23">
+      <c r="BS128" s="22"/>
+      <c r="BT128" s="22"/>
+      <c r="BU128" s="22"/>
+      <c r="BV128" s="21">
         <v>2018</v>
       </c>
-      <c r="BW128" s="25"/>
-      <c r="BX128" s="25"/>
-      <c r="BY128" s="25"/>
-      <c r="BZ128" s="23">
+      <c r="BW128" s="22"/>
+      <c r="BX128" s="22"/>
+      <c r="BY128" s="22"/>
+      <c r="BZ128" s="21">
         <v>2019</v>
       </c>
-      <c r="CA128" s="25"/>
-      <c r="CB128" s="25"/>
-      <c r="CC128" s="25"/>
-      <c r="CD128" s="23">
+      <c r="CA128" s="22"/>
+      <c r="CB128" s="22"/>
+      <c r="CC128" s="22"/>
+      <c r="CD128" s="21">
         <v>2020</v>
       </c>
-      <c r="CE128" s="25"/>
-      <c r="CF128" s="25"/>
-      <c r="CG128" s="25"/>
-      <c r="CH128" s="23">
+      <c r="CE128" s="22"/>
+      <c r="CF128" s="22"/>
+      <c r="CG128" s="22"/>
+      <c r="CH128" s="21">
         <v>2021</v>
       </c>
-      <c r="CI128" s="23"/>
-      <c r="CJ128" s="23"/>
-      <c r="CK128" s="23"/>
-      <c r="CL128" s="23">
+      <c r="CI128" s="22"/>
+      <c r="CJ128" s="22"/>
+      <c r="CK128" s="22"/>
+      <c r="CL128" s="21">
         <v>2022</v>
       </c>
-      <c r="CM128" s="23"/>
-      <c r="CN128" s="23"/>
-      <c r="CO128" s="23"/>
+      <c r="CM128" s="22"/>
+      <c r="CN128" s="22"/>
+      <c r="CO128" s="22"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44092,28 +44090,28 @@
         <v>35.646668621160515</v>
       </c>
       <c r="CH131" s="17">
-        <v>34.056343402243073</v>
+        <v>34.155428889145234</v>
       </c>
       <c r="CI131" s="17">
-        <v>21.477659291891936</v>
+        <v>21.922381441291517</v>
       </c>
       <c r="CJ131" s="17">
-        <v>27.238303827605048</v>
+        <v>27.48922985807528</v>
       </c>
       <c r="CK131" s="17">
-        <v>38.028888449210221</v>
+        <v>38.641669367085157</v>
       </c>
       <c r="CL131" s="17">
-        <v>37.492586860895763</v>
+        <v>37.470344434890769</v>
       </c>
       <c r="CM131" s="17">
-        <v>22.310027955105035</v>
+        <v>22.808788831779747</v>
       </c>
       <c r="CN131" s="17">
-        <v>30.553062371789192</v>
+        <v>30.848620983476415</v>
       </c>
       <c r="CO131" s="17">
-        <v>39.941537183625655</v>
+        <v>39.631830156707736</v>
       </c>
       <c r="CP131" s="10"/>
       <c r="CQ131" s="10"/>
@@ -44435,28 +44433,28 @@
         <v>56.417500491124414</v>
       </c>
       <c r="CH132" s="17">
-        <v>59.681230264924068</v>
+        <v>59.762736171164164</v>
       </c>
       <c r="CI132" s="17">
-        <v>74.520314996018186</v>
+        <v>74.214425064997243</v>
       </c>
       <c r="CJ132" s="17">
-        <v>66.523257186900636</v>
+        <v>66.241543945435552</v>
       </c>
       <c r="CK132" s="17">
-        <v>54.603123146910136</v>
+        <v>54.239917371407842</v>
       </c>
       <c r="CL132" s="17">
-        <v>56.314907579268123</v>
+        <v>56.53443268421001</v>
       </c>
       <c r="CM132" s="17">
-        <v>73.370952306307146</v>
+        <v>73.007181174135098</v>
       </c>
       <c r="CN132" s="17">
-        <v>63.408477653333861</v>
+        <v>63.062472866613781</v>
       </c>
       <c r="CO132" s="17">
-        <v>52.477010837147787</v>
+        <v>52.64463757207902</v>
       </c>
       <c r="CP132" s="10"/>
       <c r="CQ132" s="10"/>
@@ -44778,28 +44776,28 @@
         <v>7.9358308877150785</v>
       </c>
       <c r="CH133" s="17">
-        <v>6.2624263328328569</v>
+        <v>6.0818349396905953</v>
       </c>
       <c r="CI133" s="17">
-        <v>4.0020257120898863</v>
+        <v>3.863193493711234</v>
       </c>
       <c r="CJ133" s="17">
-        <v>6.2384389854943105</v>
+        <v>6.26922619648915</v>
       </c>
       <c r="CK133" s="17">
-        <v>7.3679884038796422</v>
+        <v>7.1184132615069977</v>
       </c>
       <c r="CL133" s="17">
-        <v>6.1925055598361229</v>
+        <v>5.9952228808992203</v>
       </c>
       <c r="CM133" s="17">
-        <v>4.3190197385878157</v>
+        <v>4.1840299940851606</v>
       </c>
       <c r="CN133" s="17">
-        <v>6.0384599748769334</v>
+        <v>6.0889061499098052</v>
       </c>
       <c r="CO133" s="17">
-        <v>7.5814519792265553</v>
+        <v>7.7235322712132417</v>
       </c>
       <c r="CP133" s="10"/>
       <c r="CQ133" s="10"/>
@@ -45880,6 +45878,16 @@
     <mergeCell ref="AX88:BA88"/>
     <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="CL88:CO88"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CL69:CO69"/>
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="BN88:BQ88"/>
     <mergeCell ref="AL108:AO108"/>
@@ -45902,6 +45910,8 @@
     <mergeCell ref="BF108:BI108"/>
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
@@ -45974,8 +45984,12 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
     <mergeCell ref="V49:Y49"/>
@@ -45993,15 +46007,7 @@
     <mergeCell ref="BF49:BI49"/>
     <mergeCell ref="BJ49:BM49"/>
     <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
     <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BR88:BU88"/>
@@ -46011,27 +46017,19 @@
     <mergeCell ref="BV108:BY108"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="CL49:CM49"/>
-    <mergeCell ref="CL69:CM69"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL29:CO29"/>
     <mergeCell ref="CH49:CK49"/>
     <mergeCell ref="CH69:CK69"/>
-    <mergeCell ref="CL88:CO88"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CL49:CO49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E08B9-3E66-4028-AE32-DB9C9CA07631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438FCCA-06E6-4F60-8E08-ACCEA35EEA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CO$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CP$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -755,6 +758,10 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23612,15 +23619,15 @@
   <dimension ref="A1:EY139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="94" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23635,7 +23642,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23648,7 +23655,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23750,147 +23757,151 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="21">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
+      <c r="CP9" s="21">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24171,6 +24182,9 @@
       </c>
       <c r="CO10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24267,6 +24281,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24548,7 +24563,9 @@
       <c r="CO12" s="9">
         <v>49295.172883435189</v>
       </c>
-      <c r="CP12" s="10"/>
+      <c r="CP12" s="9">
+        <v>40166.371432009095</v>
+      </c>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
@@ -24891,7 +24908,9 @@
       <c r="CO13" s="9">
         <v>64239.897264303501</v>
       </c>
-      <c r="CP13" s="10"/>
+      <c r="CP13" s="9">
+        <v>58534.914520827588</v>
+      </c>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
@@ -25234,7 +25253,9 @@
       <c r="CO14" s="9">
         <v>10156.576953483676</v>
       </c>
-      <c r="CP14" s="10"/>
+      <c r="CP14" s="9">
+        <v>6087.2522060595948</v>
+      </c>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
@@ -25390,7 +25411,7 @@
       <c r="CM15" s="12"/>
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
-      <c r="CP15" s="10"/>
+      <c r="CP15" s="12"/>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
@@ -25697,43 +25718,45 @@
       <c r="CC16" s="14">
         <v>93170.4019027022</v>
       </c>
-      <c r="CD16" s="14">
+      <c r="CD16" s="22">
         <v>75203.336431259493</v>
       </c>
-      <c r="CE16" s="14">
+      <c r="CE16" s="22">
         <v>74008.434289297511</v>
       </c>
-      <c r="CF16" s="14">
+      <c r="CF16" s="22">
         <v>80092.694056658598</v>
       </c>
-      <c r="CG16" s="14">
+      <c r="CG16" s="22">
         <v>95955.633560106406</v>
       </c>
-      <c r="CH16" s="14">
+      <c r="CH16" s="22">
         <v>89010.095474585745</v>
       </c>
-      <c r="CI16" s="14">
+      <c r="CI16" s="22">
         <v>87200.432209842125</v>
       </c>
-      <c r="CJ16" s="14">
+      <c r="CJ16" s="22">
         <v>96907.284502602721</v>
       </c>
-      <c r="CK16" s="14">
+      <c r="CK16" s="22">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="14">
+      <c r="CL16" s="22">
         <v>93632.009660533426</v>
       </c>
-      <c r="CM16" s="14">
+      <c r="CM16" s="22">
         <v>90617.237672328061</v>
       </c>
-      <c r="CN16" s="14">
+      <c r="CN16" s="22">
         <v>103772.09975556337</v>
       </c>
-      <c r="CO16" s="14">
+      <c r="CO16" s="22">
         <v>123691.64710122236</v>
       </c>
-      <c r="CP16" s="10"/>
+      <c r="CP16" s="22">
+        <v>104788.53815889628</v>
+      </c>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
       <c r="CS16" s="10"/>
@@ -25890,6 +25913,7 @@
       <c r="CM17" s="15"/>
       <c r="CN17" s="15"/>
       <c r="CO17" s="15"/>
+      <c r="CP17" s="15"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -25987,6 +26011,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26081,7 +26106,7 @@
       <c r="CM19" s="12"/>
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
-      <c r="CP19" s="10"/>
+      <c r="CP19" s="12"/>
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
       <c r="CS19" s="10"/>
@@ -26237,7 +26262,7 @@
       <c r="CM20" s="12"/>
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
-      <c r="CP20" s="10"/>
+      <c r="CP20" s="12"/>
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
       <c r="CS20" s="10"/>
@@ -26396,6 +26421,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26493,10 +26519,11 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26590,6 +26617,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26685,6 +26713,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26782,10 +26811,11 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26879,6 +26909,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -26976,6 +27007,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27071,147 +27103,151 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="21">
+      <c r="B29" s="23">
         <v>2000</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23">
         <v>2001</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="23">
         <v>2002</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="21">
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23">
         <v>2003</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="21">
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="23">
         <v>2004</v>
       </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="21">
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="23">
         <v>2005</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="21">
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="23">
         <v>2006</v>
       </c>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="21">
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="23">
         <v>2007</v>
       </c>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="21">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="23">
         <v>2008</v>
       </c>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="21">
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="23">
         <v>2009</v>
       </c>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="21">
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="21">
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="23">
         <v>2011</v>
       </c>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="21">
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="23">
         <v>2012</v>
       </c>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="21">
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="23">
         <v>2013</v>
       </c>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
-      <c r="BE29" s="22"/>
-      <c r="BF29" s="21">
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="23">
         <v>2014</v>
       </c>
-      <c r="BG29" s="22"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="22"/>
-      <c r="BJ29" s="21">
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="24"/>
+      <c r="BJ29" s="23">
         <v>2015</v>
       </c>
-      <c r="BK29" s="22"/>
-      <c r="BL29" s="22"/>
-      <c r="BM29" s="22"/>
-      <c r="BN29" s="21">
+      <c r="BK29" s="24"/>
+      <c r="BL29" s="24"/>
+      <c r="BM29" s="24"/>
+      <c r="BN29" s="23">
         <v>2016</v>
       </c>
-      <c r="BO29" s="22"/>
-      <c r="BP29" s="22"/>
-      <c r="BQ29" s="22"/>
-      <c r="BR29" s="21">
+      <c r="BO29" s="24"/>
+      <c r="BP29" s="24"/>
+      <c r="BQ29" s="24"/>
+      <c r="BR29" s="23">
         <v>2017</v>
       </c>
-      <c r="BS29" s="22"/>
-      <c r="BT29" s="22"/>
-      <c r="BU29" s="22"/>
-      <c r="BV29" s="21">
+      <c r="BS29" s="24"/>
+      <c r="BT29" s="24"/>
+      <c r="BU29" s="24"/>
+      <c r="BV29" s="23">
         <v>2018</v>
       </c>
-      <c r="BW29" s="22"/>
-      <c r="BX29" s="22"/>
-      <c r="BY29" s="22"/>
-      <c r="BZ29" s="21">
+      <c r="BW29" s="24"/>
+      <c r="BX29" s="24"/>
+      <c r="BY29" s="24"/>
+      <c r="BZ29" s="23">
         <v>2019</v>
       </c>
-      <c r="CA29" s="22"/>
-      <c r="CB29" s="22"/>
-      <c r="CC29" s="22"/>
-      <c r="CD29" s="21">
+      <c r="CA29" s="24"/>
+      <c r="CB29" s="24"/>
+      <c r="CC29" s="24"/>
+      <c r="CD29" s="23">
         <v>2020</v>
       </c>
-      <c r="CE29" s="22"/>
-      <c r="CF29" s="22"/>
-      <c r="CG29" s="22"/>
-      <c r="CH29" s="21">
+      <c r="CE29" s="23"/>
+      <c r="CF29" s="23"/>
+      <c r="CG29" s="23"/>
+      <c r="CH29" s="23">
         <v>2021</v>
       </c>
-      <c r="CI29" s="22"/>
-      <c r="CJ29" s="22"/>
-      <c r="CK29" s="22"/>
-      <c r="CL29" s="21">
+      <c r="CI29" s="23"/>
+      <c r="CJ29" s="23"/>
+      <c r="CK29" s="23"/>
+      <c r="CL29" s="23">
         <v>2022</v>
       </c>
-      <c r="CM29" s="22"/>
-      <c r="CN29" s="22"/>
-      <c r="CO29" s="22"/>
+      <c r="CM29" s="23"/>
+      <c r="CN29" s="23"/>
+      <c r="CO29" s="23"/>
+      <c r="CP29" s="21">
+        <v>2023</v>
+      </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27492,6 +27528,9 @@
       </c>
       <c r="CO30" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP30" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27588,6 +27627,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -27869,7 +27909,9 @@
       <c r="CO32" s="9">
         <v>38588.310908607578</v>
       </c>
-      <c r="CP32" s="10"/>
+      <c r="CP32" s="9">
+        <v>36451.783951285885</v>
+      </c>
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
       <c r="CS32" s="10"/>
@@ -28212,7 +28254,9 @@
       <c r="CO33" s="9">
         <v>51258.486783722779</v>
       </c>
-      <c r="CP33" s="10"/>
+      <c r="CP33" s="9">
+        <v>56644.868446809785</v>
+      </c>
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
       <c r="CS33" s="10"/>
@@ -28555,7 +28599,9 @@
       <c r="CO34" s="9">
         <v>7520.1691018500005</v>
       </c>
-      <c r="CP34" s="10"/>
+      <c r="CP34" s="9">
+        <v>5612.1704678753649</v>
+      </c>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
@@ -28711,7 +28757,7 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="10"/>
+      <c r="CP35" s="12"/>
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
       <c r="CS35" s="10"/>
@@ -29018,43 +29064,45 @@
       <c r="CC36" s="14">
         <v>81107.010766777457</v>
       </c>
-      <c r="CD36" s="14">
+      <c r="CD36" s="22">
         <v>80061.533225333624</v>
       </c>
-      <c r="CE36" s="14">
+      <c r="CE36" s="22">
         <v>72699.450776064114</v>
       </c>
-      <c r="CF36" s="14">
+      <c r="CF36" s="22">
         <v>73747.972049207252</v>
       </c>
-      <c r="CG36" s="14">
+      <c r="CG36" s="22">
         <v>80393.681457500294</v>
       </c>
-      <c r="CH36" s="14">
+      <c r="CH36" s="22">
         <v>90314.052892346968</v>
       </c>
-      <c r="CI36" s="14">
+      <c r="CI36" s="22">
         <v>83230.80341276899</v>
       </c>
-      <c r="CJ36" s="14">
+      <c r="CJ36" s="22">
         <v>86319.986566819629</v>
       </c>
-      <c r="CK36" s="14">
+      <c r="CK36" s="22">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="14">
+      <c r="CL36" s="22">
         <v>91864.249135857361</v>
       </c>
-      <c r="CM36" s="14">
+      <c r="CM36" s="22">
         <v>84471.530383576755</v>
       </c>
-      <c r="CN36" s="14">
+      <c r="CN36" s="22">
         <v>90640.738868667278</v>
       </c>
-      <c r="CO36" s="14">
+      <c r="CO36" s="22">
         <v>97366.966794180349</v>
       </c>
-      <c r="CP36" s="10"/>
+      <c r="CP36" s="22">
+        <v>98708.822865971029</v>
+      </c>
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
       <c r="CS36" s="10"/>
@@ -29211,6 +29259,7 @@
       <c r="CM37" s="15"/>
       <c r="CN37" s="15"/>
       <c r="CO37" s="15"/>
+      <c r="CP37" s="15"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29308,6 +29357,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29402,7 +29452,7 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="10"/>
+      <c r="CP39" s="12"/>
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
       <c r="CS39" s="10"/>
@@ -29558,7 +29608,7 @@
       <c r="CM40" s="12"/>
       <c r="CN40" s="12"/>
       <c r="CO40" s="12"/>
-      <c r="CP40" s="10"/>
+      <c r="CP40" s="12"/>
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
       <c r="CS40" s="10"/>
@@ -29717,6 +29767,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -29814,10 +29865,11 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -29911,6 +29963,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30006,6 +30059,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30103,10 +30157,11 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30200,6 +30255,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30297,6 +30353,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30392,145 +30449,149 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21" t="s">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21" t="s">
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21" t="s">
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21" t="s">
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21" t="s">
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21" t="s">
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21" t="s">
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21" t="s">
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21" t="s">
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+      <c r="AX49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21" t="s">
+      <c r="AY49" s="23"/>
+      <c r="AZ49" s="23"/>
+      <c r="BA49" s="23"/>
+      <c r="BB49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="21"/>
-      <c r="BF49" s="21" t="s">
+      <c r="BC49" s="23"/>
+      <c r="BD49" s="23"/>
+      <c r="BE49" s="23"/>
+      <c r="BF49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="21"/>
-      <c r="BH49" s="21"/>
-      <c r="BI49" s="21"/>
-      <c r="BJ49" s="21" t="s">
+      <c r="BG49" s="23"/>
+      <c r="BH49" s="23"/>
+      <c r="BI49" s="23"/>
+      <c r="BJ49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="21"/>
-      <c r="BL49" s="21"/>
-      <c r="BM49" s="21"/>
-      <c r="BN49" s="21" t="s">
+      <c r="BK49" s="23"/>
+      <c r="BL49" s="23"/>
+      <c r="BM49" s="23"/>
+      <c r="BN49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="21"/>
-      <c r="BP49" s="21"/>
-      <c r="BQ49" s="21"/>
-      <c r="BR49" s="21" t="s">
+      <c r="BO49" s="23"/>
+      <c r="BP49" s="23"/>
+      <c r="BQ49" s="23"/>
+      <c r="BR49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="21"/>
-      <c r="BT49" s="21"/>
-      <c r="BU49" s="21"/>
-      <c r="BV49" s="21" t="s">
+      <c r="BS49" s="23"/>
+      <c r="BT49" s="23"/>
+      <c r="BU49" s="23"/>
+      <c r="BV49" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="21"/>
-      <c r="BX49" s="21"/>
-      <c r="BY49" s="21"/>
-      <c r="BZ49" s="21" t="s">
+      <c r="BW49" s="23"/>
+      <c r="BX49" s="23"/>
+      <c r="BY49" s="23"/>
+      <c r="BZ49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="21"/>
-      <c r="CB49" s="21"/>
-      <c r="CC49" s="21"/>
-      <c r="CD49" s="21" t="s">
+      <c r="CA49" s="23"/>
+      <c r="CB49" s="23"/>
+      <c r="CC49" s="23"/>
+      <c r="CD49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="21"/>
-      <c r="CF49" s="21"/>
-      <c r="CG49" s="21"/>
-      <c r="CH49" s="21" t="s">
+      <c r="CE49" s="23"/>
+      <c r="CF49" s="23"/>
+      <c r="CG49" s="23"/>
+      <c r="CH49" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="21"/>
-      <c r="CJ49" s="21"/>
-      <c r="CK49" s="21"/>
-      <c r="CL49" s="21"/>
+      <c r="CI49" s="23"/>
+      <c r="CJ49" s="23"/>
+      <c r="CK49" s="23"/>
+      <c r="CL49" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="CM49" s="21"/>
       <c r="CN49" s="21"/>
       <c r="CO49" s="21"/>
+      <c r="CP49" s="21"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -30800,10 +30861,13 @@
       <c r="CK50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="6"/>
+      <c r="CL50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM50" s="6"/>
       <c r="CN50" s="6"/>
       <c r="CO50" s="6"/>
+      <c r="CP50" s="6"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -30899,6 +30963,7 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31168,11 +31233,13 @@
       <c r="CK52" s="17">
         <v>13.19208578634921</v>
       </c>
-      <c r="CL52" s="17"/>
+      <c r="CL52" s="17">
+        <v>9.9660996041708785</v>
+      </c>
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="10"/>
+      <c r="CP52" s="17"/>
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
       <c r="CS52" s="10"/>
@@ -31499,11 +31566,13 @@
       <c r="CK53" s="17">
         <v>6.0754254542595163</v>
       </c>
-      <c r="CL53" s="17"/>
+      <c r="CL53" s="17">
+        <v>13.978582791570318</v>
+      </c>
       <c r="CM53" s="17"/>
       <c r="CN53" s="17"/>
       <c r="CO53" s="17"/>
-      <c r="CP53" s="10"/>
+      <c r="CP53" s="17"/>
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
       <c r="CS53" s="10"/>
@@ -31830,11 +31899,13 @@
       <c r="CK54" s="17">
         <v>19.192286517781667</v>
       </c>
-      <c r="CL54" s="17"/>
+      <c r="CL54" s="17">
+        <v>5.8688425225130345</v>
+      </c>
       <c r="CM54" s="17"/>
       <c r="CN54" s="17"/>
       <c r="CO54" s="17"/>
-      <c r="CP54" s="10"/>
+      <c r="CP54" s="17"/>
       <c r="CQ54" s="10"/>
       <c r="CR54" s="10"/>
       <c r="CS54" s="10"/>
@@ -31986,7 +32057,7 @@
       <c r="CM55" s="12"/>
       <c r="CN55" s="12"/>
       <c r="CO55" s="12"/>
-      <c r="CP55" s="10"/>
+      <c r="CP55" s="12"/>
       <c r="CQ55" s="10"/>
       <c r="CR55" s="10"/>
       <c r="CS55" s="10"/>
@@ -32313,11 +32384,13 @@
       <c r="CK56" s="17">
         <v>9.8194993942112347</v>
       </c>
-      <c r="CL56" s="17"/>
+      <c r="CL56" s="17">
+        <v>11.915293219499716</v>
+      </c>
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="10"/>
+      <c r="CP56" s="17"/>
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
       <c r="CS56" s="10"/>
@@ -32470,6 +32543,7 @@
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
+      <c r="CP57" s="15"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32567,6 +32641,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32661,7 +32736,7 @@
       <c r="CM59" s="12"/>
       <c r="CN59" s="12"/>
       <c r="CO59" s="12"/>
-      <c r="CP59" s="10"/>
+      <c r="CP59" s="12"/>
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
       <c r="CS59" s="10"/>
@@ -32813,7 +32888,7 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="10"/>
+      <c r="CP60" s="12"/>
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
       <c r="CS60" s="10"/>
@@ -32968,6 +33043,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33065,10 +33141,11 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33162,6 +33239,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33257,6 +33335,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33354,10 +33433,11 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33451,6 +33531,7 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33548,6 +33629,7 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33643,145 +33725,149 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="21" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="21" t="s">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="21" t="s">
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="21" t="s">
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="21" t="s">
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="21" t="s">
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="21" t="s">
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="21" t="s">
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="21" t="s">
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="21" t="s">
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="21" t="s">
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="21" t="s">
+      <c r="AU69" s="25"/>
+      <c r="AV69" s="25"/>
+      <c r="AW69" s="25"/>
+      <c r="AX69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="21" t="s">
+      <c r="AY69" s="25"/>
+      <c r="AZ69" s="25"/>
+      <c r="BA69" s="25"/>
+      <c r="BB69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="21" t="s">
+      <c r="BC69" s="25"/>
+      <c r="BD69" s="25"/>
+      <c r="BE69" s="25"/>
+      <c r="BF69" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="21" t="s">
+      <c r="BG69" s="25"/>
+      <c r="BH69" s="25"/>
+      <c r="BI69" s="25"/>
+      <c r="BJ69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="23"/>
-      <c r="BM69" s="23"/>
-      <c r="BN69" s="21" t="s">
+      <c r="BK69" s="25"/>
+      <c r="BL69" s="25"/>
+      <c r="BM69" s="25"/>
+      <c r="BN69" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="23"/>
-      <c r="BP69" s="23"/>
-      <c r="BQ69" s="23"/>
-      <c r="BR69" s="21" t="s">
+      <c r="BO69" s="25"/>
+      <c r="BP69" s="25"/>
+      <c r="BQ69" s="25"/>
+      <c r="BR69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="23"/>
-      <c r="BT69" s="23"/>
-      <c r="BU69" s="23"/>
-      <c r="BV69" s="21" t="s">
+      <c r="BS69" s="25"/>
+      <c r="BT69" s="25"/>
+      <c r="BU69" s="25"/>
+      <c r="BV69" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="23"/>
-      <c r="BX69" s="23"/>
-      <c r="BY69" s="23"/>
-      <c r="BZ69" s="21" t="s">
+      <c r="BW69" s="25"/>
+      <c r="BX69" s="25"/>
+      <c r="BY69" s="25"/>
+      <c r="BZ69" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="23"/>
-      <c r="CB69" s="23"/>
-      <c r="CC69" s="23"/>
-      <c r="CD69" s="21" t="s">
+      <c r="CA69" s="25"/>
+      <c r="CB69" s="25"/>
+      <c r="CC69" s="25"/>
+      <c r="CD69" s="23" t="s">
         <v>47</v>
       </c>
       <c r="CE69" s="23"/>
       <c r="CF69" s="23"/>
       <c r="CG69" s="23"/>
-      <c r="CH69" s="21" t="s">
+      <c r="CH69" s="23" t="s">
         <v>48</v>
       </c>
       <c r="CI69" s="23"/>
       <c r="CJ69" s="23"/>
       <c r="CK69" s="23"/>
-      <c r="CL69" s="21"/>
-      <c r="CM69" s="23"/>
-      <c r="CN69" s="23"/>
-      <c r="CO69" s="23"/>
+      <c r="CL69" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="CM69" s="21"/>
+      <c r="CN69" s="21"/>
+      <c r="CO69" s="21"/>
+      <c r="CP69" s="21"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34051,10 +34137,13 @@
       <c r="CK70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="6"/>
+      <c r="CL70" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM70" s="6"/>
       <c r="CN70" s="6"/>
       <c r="CO70" s="6"/>
+      <c r="CP70" s="6"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34150,6 +34239,7 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34419,11 +34509,13 @@
       <c r="CK72" s="17">
         <v>9.0105129398869792</v>
       </c>
-      <c r="CL72" s="17"/>
+      <c r="CL72" s="17">
+        <v>5.8972232878518724</v>
+      </c>
       <c r="CM72" s="17"/>
       <c r="CN72" s="17"/>
       <c r="CO72" s="17"/>
-      <c r="CP72" s="10"/>
+      <c r="CP72" s="17"/>
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
       <c r="CS72" s="10"/>
@@ -34750,11 +34842,13 @@
       <c r="CK73" s="17">
         <v>3.1609317955277163</v>
       </c>
-      <c r="CL73" s="17"/>
+      <c r="CL73" s="17">
+        <v>9.0689179109958644</v>
+      </c>
       <c r="CM73" s="17"/>
       <c r="CN73" s="17"/>
       <c r="CO73" s="17"/>
-      <c r="CP73" s="10"/>
+      <c r="CP73" s="17"/>
       <c r="CQ73" s="10"/>
       <c r="CR73" s="10"/>
       <c r="CS73" s="10"/>
@@ -35081,11 +35175,13 @@
       <c r="CK74" s="17">
         <v>15.322195884648977</v>
       </c>
-      <c r="CL74" s="17"/>
+      <c r="CL74" s="17">
+        <v>1.9011279438329893</v>
+      </c>
       <c r="CM74" s="17"/>
       <c r="CN74" s="17"/>
       <c r="CO74" s="17"/>
-      <c r="CP74" s="10"/>
+      <c r="CP74" s="17"/>
       <c r="CQ74" s="10"/>
       <c r="CR74" s="10"/>
       <c r="CS74" s="10"/>
@@ -35237,7 +35333,7 @@
       <c r="CM75" s="12"/>
       <c r="CN75" s="12"/>
       <c r="CO75" s="12"/>
-      <c r="CP75" s="10"/>
+      <c r="CP75" s="12"/>
       <c r="CQ75" s="10"/>
       <c r="CR75" s="10"/>
       <c r="CS75" s="10"/>
@@ -35564,11 +35660,13 @@
       <c r="CK76" s="17">
         <v>6.2869966363772676</v>
       </c>
-      <c r="CL76" s="17"/>
+      <c r="CL76" s="17">
+        <v>7.4507480271147415</v>
+      </c>
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="10"/>
+      <c r="CP76" s="17"/>
       <c r="CQ76" s="10"/>
       <c r="CR76" s="10"/>
       <c r="CS76" s="10"/>
@@ -35721,6 +35819,7 @@
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
+      <c r="CP77" s="15"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -35818,6 +35917,7 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -35912,7 +36012,7 @@
       <c r="CM79" s="12"/>
       <c r="CN79" s="12"/>
       <c r="CO79" s="12"/>
-      <c r="CP79" s="10"/>
+      <c r="CP79" s="12"/>
       <c r="CQ79" s="10"/>
       <c r="CR79" s="10"/>
       <c r="CS79" s="10"/>
@@ -36052,18 +36152,18 @@
       <c r="CA80" s="12"/>
       <c r="CB80" s="12"/>
       <c r="CC80" s="12"/>
-      <c r="CD80" s="12"/>
-      <c r="CE80" s="12"/>
-      <c r="CF80" s="12"/>
-      <c r="CG80" s="12"/>
-      <c r="CH80" s="12"/>
-      <c r="CI80" s="12"/>
-      <c r="CJ80" s="12"/>
-      <c r="CK80" s="12"/>
-      <c r="CL80" s="12"/>
-      <c r="CM80" s="12"/>
-      <c r="CN80" s="12"/>
-      <c r="CO80" s="12"/>
+      <c r="CD80" s="10"/>
+      <c r="CE80" s="10"/>
+      <c r="CF80" s="10"/>
+      <c r="CG80" s="10"/>
+      <c r="CH80" s="10"/>
+      <c r="CI80" s="10"/>
+      <c r="CJ80" s="10"/>
+      <c r="CK80" s="10"/>
+      <c r="CL80" s="10"/>
+      <c r="CM80" s="10"/>
+      <c r="CN80" s="10"/>
+      <c r="CO80" s="10"/>
       <c r="CP80" s="10"/>
       <c r="CQ80" s="10"/>
       <c r="CR80" s="10"/>
@@ -36219,10 +36319,11 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36316,6 +36417,7 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36411,6 +36513,7 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36508,10 +36611,11 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36605,6 +36709,7 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -36702,6 +36807,7 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -36797,147 +36903,151 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="21">
+      <c r="B88" s="23">
         <v>2000</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="21">
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23">
         <v>2001</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="21">
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="23">
         <v>2002</v>
       </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="21">
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="23">
         <v>2003</v>
       </c>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="21">
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="23">
         <v>2004</v>
       </c>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="21">
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="23">
         <v>2005</v>
       </c>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="21">
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="23">
         <v>2006</v>
       </c>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="21">
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="23">
         <v>2007</v>
       </c>
-      <c r="AE88" s="22"/>
-      <c r="AF88" s="22"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="21">
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="23">
         <v>2008</v>
       </c>
-      <c r="AI88" s="22"/>
-      <c r="AJ88" s="22"/>
-      <c r="AK88" s="22"/>
-      <c r="AL88" s="21">
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="24"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="23">
         <v>2009</v>
       </c>
-      <c r="AM88" s="22"/>
-      <c r="AN88" s="22"/>
-      <c r="AO88" s="22"/>
-      <c r="AP88" s="21">
+      <c r="AM88" s="24"/>
+      <c r="AN88" s="24"/>
+      <c r="AO88" s="24"/>
+      <c r="AP88" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="22"/>
-      <c r="AR88" s="22"/>
-      <c r="AS88" s="22"/>
-      <c r="AT88" s="21">
+      <c r="AQ88" s="24"/>
+      <c r="AR88" s="24"/>
+      <c r="AS88" s="24"/>
+      <c r="AT88" s="23">
         <v>2011</v>
       </c>
-      <c r="AU88" s="22"/>
-      <c r="AV88" s="22"/>
-      <c r="AW88" s="22"/>
-      <c r="AX88" s="21">
+      <c r="AU88" s="24"/>
+      <c r="AV88" s="24"/>
+      <c r="AW88" s="24"/>
+      <c r="AX88" s="23">
         <v>2012</v>
       </c>
-      <c r="AY88" s="22"/>
-      <c r="AZ88" s="22"/>
-      <c r="BA88" s="22"/>
-      <c r="BB88" s="21">
+      <c r="AY88" s="24"/>
+      <c r="AZ88" s="24"/>
+      <c r="BA88" s="24"/>
+      <c r="BB88" s="23">
         <v>2013</v>
       </c>
-      <c r="BC88" s="22"/>
-      <c r="BD88" s="22"/>
-      <c r="BE88" s="22"/>
-      <c r="BF88" s="21">
+      <c r="BC88" s="24"/>
+      <c r="BD88" s="24"/>
+      <c r="BE88" s="24"/>
+      <c r="BF88" s="23">
         <v>2014</v>
       </c>
-      <c r="BG88" s="22"/>
-      <c r="BH88" s="22"/>
-      <c r="BI88" s="22"/>
-      <c r="BJ88" s="21">
+      <c r="BG88" s="24"/>
+      <c r="BH88" s="24"/>
+      <c r="BI88" s="24"/>
+      <c r="BJ88" s="23">
         <v>2015</v>
       </c>
-      <c r="BK88" s="22"/>
-      <c r="BL88" s="22"/>
-      <c r="BM88" s="22"/>
-      <c r="BN88" s="21">
+      <c r="BK88" s="24"/>
+      <c r="BL88" s="24"/>
+      <c r="BM88" s="24"/>
+      <c r="BN88" s="23">
         <v>2016</v>
       </c>
-      <c r="BO88" s="22"/>
-      <c r="BP88" s="22"/>
-      <c r="BQ88" s="22"/>
-      <c r="BR88" s="21">
+      <c r="BO88" s="24"/>
+      <c r="BP88" s="24"/>
+      <c r="BQ88" s="24"/>
+      <c r="BR88" s="23">
         <v>2017</v>
       </c>
-      <c r="BS88" s="22"/>
-      <c r="BT88" s="22"/>
-      <c r="BU88" s="22"/>
-      <c r="BV88" s="21">
+      <c r="BS88" s="24"/>
+      <c r="BT88" s="24"/>
+      <c r="BU88" s="24"/>
+      <c r="BV88" s="23">
         <v>2018</v>
       </c>
-      <c r="BW88" s="22"/>
-      <c r="BX88" s="22"/>
-      <c r="BY88" s="22"/>
-      <c r="BZ88" s="21">
+      <c r="BW88" s="24"/>
+      <c r="BX88" s="24"/>
+      <c r="BY88" s="24"/>
+      <c r="BZ88" s="23">
         <v>2019</v>
       </c>
-      <c r="CA88" s="22"/>
-      <c r="CB88" s="22"/>
-      <c r="CC88" s="22"/>
-      <c r="CD88" s="21">
+      <c r="CA88" s="24"/>
+      <c r="CB88" s="24"/>
+      <c r="CC88" s="24"/>
+      <c r="CD88" s="23">
         <v>2020</v>
       </c>
-      <c r="CE88" s="22"/>
-      <c r="CF88" s="22"/>
-      <c r="CG88" s="22"/>
-      <c r="CH88" s="21">
+      <c r="CE88" s="23"/>
+      <c r="CF88" s="23"/>
+      <c r="CG88" s="23"/>
+      <c r="CH88" s="23">
         <v>2021</v>
       </c>
-      <c r="CI88" s="22"/>
-      <c r="CJ88" s="22"/>
-      <c r="CK88" s="22"/>
-      <c r="CL88" s="21">
+      <c r="CI88" s="23"/>
+      <c r="CJ88" s="23"/>
+      <c r="CK88" s="23"/>
+      <c r="CL88" s="23">
         <v>2022</v>
       </c>
-      <c r="CM88" s="22"/>
-      <c r="CN88" s="22"/>
-      <c r="CO88" s="22"/>
+      <c r="CM88" s="23"/>
+      <c r="CN88" s="23"/>
+      <c r="CO88" s="23"/>
+      <c r="CP88" s="21">
+        <v>2023</v>
+      </c>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37218,6 +37328,9 @@
       </c>
       <c r="CO89" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP89" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37314,6 +37427,7 @@
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37595,7 +37709,9 @@
       <c r="CO91" s="17">
         <v>127.74638672365242</v>
       </c>
-      <c r="CP91" s="10"/>
+      <c r="CP91" s="17">
+        <v>110.19041341210456</v>
+      </c>
       <c r="CQ91" s="10"/>
       <c r="CR91" s="10"/>
       <c r="CS91" s="10"/>
@@ -37938,7 +38054,9 @@
       <c r="CO92" s="17">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="10"/>
+      <c r="CP92" s="17">
+        <v>103.33665895224486</v>
+      </c>
       <c r="CQ92" s="10"/>
       <c r="CR92" s="10"/>
       <c r="CS92" s="10"/>
@@ -38281,7 +38399,9 @@
       <c r="CO93" s="17">
         <v>135.05782670478922</v>
       </c>
-      <c r="CP93" s="10"/>
+      <c r="CP93" s="17">
+        <v>108.46520505575599</v>
+      </c>
       <c r="CQ93" s="10"/>
       <c r="CR93" s="10"/>
       <c r="CS93" s="10"/>
@@ -38437,7 +38557,7 @@
       <c r="CM94" s="12"/>
       <c r="CN94" s="12"/>
       <c r="CO94" s="12"/>
-      <c r="CP94" s="10"/>
+      <c r="CP94" s="12"/>
       <c r="CQ94" s="10"/>
       <c r="CR94" s="10"/>
       <c r="CS94" s="10"/>
@@ -38780,7 +38900,9 @@
       <c r="CO95" s="17">
         <v>127.03656196119222</v>
       </c>
-      <c r="CP95" s="10"/>
+      <c r="CP95" s="17">
+        <v>106.15924201748453</v>
+      </c>
       <c r="CQ95" s="10"/>
       <c r="CR95" s="10"/>
       <c r="CS95" s="10"/>
@@ -38937,6 +39059,7 @@
       <c r="CM96" s="15"/>
       <c r="CN96" s="15"/>
       <c r="CO96" s="15"/>
+      <c r="CP96" s="15"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39034,6 +39157,7 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39128,6 +39252,7 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39222,6 +39347,7 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39319,6 +39445,7 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39416,10 +39543,11 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39513,6 +39641,7 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -39608,6 +39737,7 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
+      <c r="CP103" s="1"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -39705,10 +39835,11 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
+      <c r="CP104" s="1"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -39802,6 +39933,7 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -39899,6 +40031,7 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
+      <c r="CP106" s="1"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -39994,147 +40127,151 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
+      <c r="CP107" s="1"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="21">
+      <c r="B108" s="23">
         <v>2000</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="21">
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
         <v>2001</v>
       </c>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="21">
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="23">
         <v>2002</v>
       </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="21">
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="23">
         <v>2003</v>
       </c>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="21">
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="23">
         <v>2004</v>
       </c>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="21">
+      <c r="S108" s="24"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="23">
         <v>2005</v>
       </c>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="21">
+      <c r="W108" s="24"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="23">
         <v>2006</v>
       </c>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="21">
+      <c r="AA108" s="24"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="23">
         <v>2007</v>
       </c>
-      <c r="AE108" s="22"/>
-      <c r="AF108" s="22"/>
-      <c r="AG108" s="22"/>
-      <c r="AH108" s="21">
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="23">
         <v>2008</v>
       </c>
-      <c r="AI108" s="22"/>
-      <c r="AJ108" s="22"/>
-      <c r="AK108" s="22"/>
-      <c r="AL108" s="21">
+      <c r="AI108" s="24"/>
+      <c r="AJ108" s="24"/>
+      <c r="AK108" s="24"/>
+      <c r="AL108" s="23">
         <v>2009</v>
       </c>
-      <c r="AM108" s="22"/>
-      <c r="AN108" s="22"/>
-      <c r="AO108" s="22"/>
-      <c r="AP108" s="21">
+      <c r="AM108" s="24"/>
+      <c r="AN108" s="24"/>
+      <c r="AO108" s="24"/>
+      <c r="AP108" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="22"/>
-      <c r="AR108" s="22"/>
-      <c r="AS108" s="22"/>
-      <c r="AT108" s="21">
+      <c r="AQ108" s="24"/>
+      <c r="AR108" s="24"/>
+      <c r="AS108" s="24"/>
+      <c r="AT108" s="23">
         <v>2011</v>
       </c>
-      <c r="AU108" s="22"/>
-      <c r="AV108" s="22"/>
-      <c r="AW108" s="22"/>
-      <c r="AX108" s="21">
+      <c r="AU108" s="24"/>
+      <c r="AV108" s="24"/>
+      <c r="AW108" s="24"/>
+      <c r="AX108" s="23">
         <v>2012</v>
       </c>
-      <c r="AY108" s="22"/>
-      <c r="AZ108" s="22"/>
-      <c r="BA108" s="22"/>
-      <c r="BB108" s="21">
+      <c r="AY108" s="24"/>
+      <c r="AZ108" s="24"/>
+      <c r="BA108" s="24"/>
+      <c r="BB108" s="23">
         <v>2013</v>
       </c>
-      <c r="BC108" s="22"/>
-      <c r="BD108" s="22"/>
-      <c r="BE108" s="22"/>
-      <c r="BF108" s="21">
+      <c r="BC108" s="24"/>
+      <c r="BD108" s="24"/>
+      <c r="BE108" s="24"/>
+      <c r="BF108" s="23">
         <v>2014</v>
       </c>
-      <c r="BG108" s="22"/>
-      <c r="BH108" s="22"/>
-      <c r="BI108" s="22"/>
-      <c r="BJ108" s="21">
+      <c r="BG108" s="24"/>
+      <c r="BH108" s="24"/>
+      <c r="BI108" s="24"/>
+      <c r="BJ108" s="23">
         <v>2015</v>
       </c>
-      <c r="BK108" s="22"/>
-      <c r="BL108" s="22"/>
-      <c r="BM108" s="22"/>
-      <c r="BN108" s="21">
+      <c r="BK108" s="24"/>
+      <c r="BL108" s="24"/>
+      <c r="BM108" s="24"/>
+      <c r="BN108" s="23">
         <v>2016</v>
       </c>
-      <c r="BO108" s="22"/>
-      <c r="BP108" s="22"/>
-      <c r="BQ108" s="22"/>
-      <c r="BR108" s="21">
+      <c r="BO108" s="24"/>
+      <c r="BP108" s="24"/>
+      <c r="BQ108" s="24"/>
+      <c r="BR108" s="23">
         <v>2017</v>
       </c>
-      <c r="BS108" s="22"/>
-      <c r="BT108" s="22"/>
-      <c r="BU108" s="22"/>
-      <c r="BV108" s="21">
+      <c r="BS108" s="24"/>
+      <c r="BT108" s="24"/>
+      <c r="BU108" s="24"/>
+      <c r="BV108" s="23">
         <v>2018</v>
       </c>
-      <c r="BW108" s="22"/>
-      <c r="BX108" s="22"/>
-      <c r="BY108" s="22"/>
-      <c r="BZ108" s="21">
+      <c r="BW108" s="24"/>
+      <c r="BX108" s="24"/>
+      <c r="BY108" s="24"/>
+      <c r="BZ108" s="23">
         <v>2019</v>
       </c>
-      <c r="CA108" s="22"/>
-      <c r="CB108" s="22"/>
-      <c r="CC108" s="22"/>
-      <c r="CD108" s="21">
+      <c r="CA108" s="24"/>
+      <c r="CB108" s="24"/>
+      <c r="CC108" s="24"/>
+      <c r="CD108" s="23">
         <v>2020</v>
       </c>
-      <c r="CE108" s="22"/>
-      <c r="CF108" s="22"/>
-      <c r="CG108" s="22"/>
-      <c r="CH108" s="21">
+      <c r="CE108" s="23"/>
+      <c r="CF108" s="23"/>
+      <c r="CG108" s="23"/>
+      <c r="CH108" s="23">
         <v>2021</v>
       </c>
-      <c r="CI108" s="22"/>
-      <c r="CJ108" s="22"/>
-      <c r="CK108" s="22"/>
-      <c r="CL108" s="21">
+      <c r="CI108" s="23"/>
+      <c r="CJ108" s="23"/>
+      <c r="CK108" s="23"/>
+      <c r="CL108" s="23">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
+      <c r="CM108" s="23"/>
+      <c r="CN108" s="23"/>
+      <c r="CO108" s="23"/>
+      <c r="CP108" s="21">
+        <v>2023</v>
+      </c>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40415,6 +40552,9 @@
       </c>
       <c r="CO109" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP109" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40511,6 +40651,7 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
+      <c r="CP110" s="1"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -40792,7 +40933,9 @@
       <c r="CO111" s="17">
         <v>39.853275494904487</v>
       </c>
-      <c r="CP111" s="10"/>
+      <c r="CP111" s="17">
+        <v>38.330882496998619</v>
+      </c>
       <c r="CQ111" s="10"/>
       <c r="CR111" s="10"/>
       <c r="CS111" s="10"/>
@@ -41135,7 +41278,9 @@
       <c r="CO112" s="17">
         <v>51.935517692421982</v>
       </c>
-      <c r="CP112" s="10"/>
+      <c r="CP112" s="17">
+        <v>55.860035409662913</v>
+      </c>
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
       <c r="CS112" s="10"/>
@@ -41478,7 +41623,9 @@
       <c r="CO113" s="17">
         <v>8.2112068126735345</v>
       </c>
-      <c r="CP113" s="10"/>
+      <c r="CP113" s="17">
+        <v>5.8090820933384713</v>
+      </c>
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
       <c r="CS113" s="10"/>
@@ -41634,7 +41781,7 @@
       <c r="CM114" s="12"/>
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
-      <c r="CP114" s="10"/>
+      <c r="CP114" s="12"/>
       <c r="CQ114" s="10"/>
       <c r="CR114" s="10"/>
       <c r="CS114" s="10"/>
@@ -41977,7 +42124,9 @@
       <c r="CO115" s="17">
         <v>100</v>
       </c>
-      <c r="CP115" s="10"/>
+      <c r="CP115" s="17">
+        <v>100</v>
+      </c>
       <c r="CQ115" s="10"/>
       <c r="CR115" s="10"/>
       <c r="CS115" s="10"/>
@@ -42134,6 +42283,7 @@
       <c r="CM116" s="15"/>
       <c r="CN116" s="15"/>
       <c r="CO116" s="15"/>
+      <c r="CP116" s="15"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42231,6 +42381,7 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42325,7 +42476,7 @@
       <c r="CM118" s="12"/>
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
-      <c r="CP118" s="10"/>
+      <c r="CP118" s="12"/>
       <c r="CQ118" s="10"/>
       <c r="CR118" s="10"/>
       <c r="CS118" s="10"/>
@@ -42481,7 +42632,7 @@
       <c r="CM119" s="12"/>
       <c r="CN119" s="12"/>
       <c r="CO119" s="12"/>
-      <c r="CP119" s="10"/>
+      <c r="CP119" s="12"/>
       <c r="CQ119" s="10"/>
       <c r="CR119" s="10"/>
       <c r="CS119" s="10"/>
@@ -42640,6 +42791,7 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -42737,10 +42889,11 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -42834,6 +42987,7 @@
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
+      <c r="CP122" s="1"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -42929,6 +43083,7 @@
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
+      <c r="CP123" s="1"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43026,10 +43181,11 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
+      <c r="CP124" s="1"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -43123,6 +43279,7 @@
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
+      <c r="CP125" s="1"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43220,6 +43377,7 @@
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
+      <c r="CP126" s="1"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43315,147 +43473,151 @@
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
+      <c r="CP127" s="1"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="21">
+      <c r="B128" s="23">
         <v>2000</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="21">
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23">
         <v>2001</v>
       </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="21">
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="23">
         <v>2002</v>
       </c>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="21">
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="23">
         <v>2003</v>
       </c>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="21">
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="23">
         <v>2004</v>
       </c>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-      <c r="U128" s="22"/>
-      <c r="V128" s="21">
+      <c r="S128" s="24"/>
+      <c r="T128" s="24"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="23">
         <v>2005</v>
       </c>
-      <c r="W128" s="22"/>
-      <c r="X128" s="22"/>
-      <c r="Y128" s="22"/>
-      <c r="Z128" s="21">
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="23">
         <v>2006</v>
       </c>
-      <c r="AA128" s="22"/>
-      <c r="AB128" s="22"/>
-      <c r="AC128" s="22"/>
-      <c r="AD128" s="21">
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="24"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="23">
         <v>2007</v>
       </c>
-      <c r="AE128" s="22"/>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="22"/>
-      <c r="AH128" s="21">
+      <c r="AE128" s="24"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="23">
         <v>2008</v>
       </c>
-      <c r="AI128" s="22"/>
-      <c r="AJ128" s="22"/>
-      <c r="AK128" s="22"/>
-      <c r="AL128" s="21">
+      <c r="AI128" s="24"/>
+      <c r="AJ128" s="24"/>
+      <c r="AK128" s="24"/>
+      <c r="AL128" s="23">
         <v>2009</v>
       </c>
-      <c r="AM128" s="22"/>
-      <c r="AN128" s="22"/>
-      <c r="AO128" s="22"/>
-      <c r="AP128" s="21">
+      <c r="AM128" s="24"/>
+      <c r="AN128" s="24"/>
+      <c r="AO128" s="24"/>
+      <c r="AP128" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="22"/>
-      <c r="AR128" s="22"/>
-      <c r="AS128" s="22"/>
-      <c r="AT128" s="21">
+      <c r="AQ128" s="24"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="24"/>
+      <c r="AT128" s="23">
         <v>2011</v>
       </c>
-      <c r="AU128" s="22"/>
-      <c r="AV128" s="22"/>
-      <c r="AW128" s="22"/>
-      <c r="AX128" s="21">
+      <c r="AU128" s="24"/>
+      <c r="AV128" s="24"/>
+      <c r="AW128" s="24"/>
+      <c r="AX128" s="23">
         <v>2012</v>
       </c>
-      <c r="AY128" s="22"/>
-      <c r="AZ128" s="22"/>
-      <c r="BA128" s="22"/>
-      <c r="BB128" s="21">
+      <c r="AY128" s="24"/>
+      <c r="AZ128" s="24"/>
+      <c r="BA128" s="24"/>
+      <c r="BB128" s="23">
         <v>2013</v>
       </c>
-      <c r="BC128" s="22"/>
-      <c r="BD128" s="22"/>
-      <c r="BE128" s="22"/>
-      <c r="BF128" s="21">
+      <c r="BC128" s="24"/>
+      <c r="BD128" s="24"/>
+      <c r="BE128" s="24"/>
+      <c r="BF128" s="23">
         <v>2014</v>
       </c>
-      <c r="BG128" s="22"/>
-      <c r="BH128" s="22"/>
-      <c r="BI128" s="22"/>
-      <c r="BJ128" s="21">
+      <c r="BG128" s="24"/>
+      <c r="BH128" s="24"/>
+      <c r="BI128" s="24"/>
+      <c r="BJ128" s="23">
         <v>2015</v>
       </c>
-      <c r="BK128" s="22"/>
-      <c r="BL128" s="22"/>
-      <c r="BM128" s="22"/>
-      <c r="BN128" s="21">
+      <c r="BK128" s="24"/>
+      <c r="BL128" s="24"/>
+      <c r="BM128" s="24"/>
+      <c r="BN128" s="23">
         <v>2016</v>
       </c>
-      <c r="BO128" s="22"/>
-      <c r="BP128" s="22"/>
-      <c r="BQ128" s="22"/>
-      <c r="BR128" s="21">
+      <c r="BO128" s="24"/>
+      <c r="BP128" s="24"/>
+      <c r="BQ128" s="24"/>
+      <c r="BR128" s="23">
         <v>2017</v>
       </c>
-      <c r="BS128" s="22"/>
-      <c r="BT128" s="22"/>
-      <c r="BU128" s="22"/>
-      <c r="BV128" s="21">
+      <c r="BS128" s="24"/>
+      <c r="BT128" s="24"/>
+      <c r="BU128" s="24"/>
+      <c r="BV128" s="23">
         <v>2018</v>
       </c>
-      <c r="BW128" s="22"/>
-      <c r="BX128" s="22"/>
-      <c r="BY128" s="22"/>
-      <c r="BZ128" s="21">
+      <c r="BW128" s="24"/>
+      <c r="BX128" s="24"/>
+      <c r="BY128" s="24"/>
+      <c r="BZ128" s="23">
         <v>2019</v>
       </c>
-      <c r="CA128" s="22"/>
-      <c r="CB128" s="22"/>
-      <c r="CC128" s="22"/>
-      <c r="CD128" s="21">
+      <c r="CA128" s="24"/>
+      <c r="CB128" s="24"/>
+      <c r="CC128" s="24"/>
+      <c r="CD128" s="23">
         <v>2020</v>
       </c>
-      <c r="CE128" s="22"/>
-      <c r="CF128" s="22"/>
-      <c r="CG128" s="22"/>
-      <c r="CH128" s="21">
+      <c r="CE128" s="23"/>
+      <c r="CF128" s="23"/>
+      <c r="CG128" s="23"/>
+      <c r="CH128" s="23">
         <v>2021</v>
       </c>
-      <c r="CI128" s="22"/>
-      <c r="CJ128" s="22"/>
-      <c r="CK128" s="22"/>
-      <c r="CL128" s="21">
+      <c r="CI128" s="23"/>
+      <c r="CJ128" s="23"/>
+      <c r="CK128" s="23"/>
+      <c r="CL128" s="23">
         <v>2022</v>
       </c>
-      <c r="CM128" s="22"/>
-      <c r="CN128" s="22"/>
-      <c r="CO128" s="22"/>
+      <c r="CM128" s="23"/>
+      <c r="CN128" s="23"/>
+      <c r="CO128" s="23"/>
+      <c r="CP128" s="21">
+        <v>2023</v>
+      </c>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -43736,6 +43898,9 @@
       </c>
       <c r="CO129" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP129" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43832,6 +43997,7 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
+      <c r="CP130" s="1"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44113,7 +44279,9 @@
       <c r="CO131" s="17">
         <v>39.631830156707736</v>
       </c>
-      <c r="CP131" s="10"/>
+      <c r="CP131" s="17">
+        <v>36.928597558883773</v>
+      </c>
       <c r="CQ131" s="10"/>
       <c r="CR131" s="10"/>
       <c r="CS131" s="10"/>
@@ -44456,7 +44624,9 @@
       <c r="CO132" s="17">
         <v>52.64463757207902</v>
       </c>
-      <c r="CP132" s="10"/>
+      <c r="CP132" s="17">
+        <v>57.385821046334854</v>
+      </c>
       <c r="CQ132" s="10"/>
       <c r="CR132" s="10"/>
       <c r="CS132" s="10"/>
@@ -44799,7 +44969,9 @@
       <c r="CO133" s="17">
         <v>7.7235322712132417</v>
       </c>
-      <c r="CP133" s="10"/>
+      <c r="CP133" s="17">
+        <v>5.6855813947813871</v>
+      </c>
       <c r="CQ133" s="10"/>
       <c r="CR133" s="10"/>
       <c r="CS133" s="10"/>
@@ -44955,7 +45127,7 @@
       <c r="CM134" s="12"/>
       <c r="CN134" s="12"/>
       <c r="CO134" s="12"/>
-      <c r="CP134" s="10"/>
+      <c r="CP134" s="12"/>
       <c r="CQ134" s="10"/>
       <c r="CR134" s="10"/>
       <c r="CS134" s="10"/>
@@ -45298,7 +45470,9 @@
       <c r="CO135" s="17">
         <v>100</v>
       </c>
-      <c r="CP135" s="10"/>
+      <c r="CP135" s="17">
+        <v>100</v>
+      </c>
       <c r="CQ135" s="10"/>
       <c r="CR135" s="10"/>
       <c r="CS135" s="10"/>
@@ -45455,6 +45629,7 @@
       <c r="CM136" s="15"/>
       <c r="CN136" s="15"/>
       <c r="CO136" s="15"/>
+      <c r="CP136" s="15"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -45552,6 +45727,7 @@
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
+      <c r="CP137" s="1"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -45647,7 +45823,7 @@
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
-      <c r="CP138" s="19"/>
+      <c r="CP138" s="11"/>
       <c r="CQ138" s="19"/>
       <c r="CR138" s="19"/>
       <c r="CS138" s="19"/>
@@ -45804,7 +45980,7 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="19"/>
+      <c r="CP139" s="11"/>
       <c r="CQ139" s="19"/>
       <c r="CR139" s="19"/>
       <c r="CS139" s="19"/>
@@ -45868,7 +46044,7 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AD88:AG88"/>
     <mergeCell ref="AH88:AK88"/>
@@ -45887,7 +46063,6 @@
     <mergeCell ref="BN69:BQ69"/>
     <mergeCell ref="CL88:CO88"/>
     <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CL69:CO69"/>
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="BN88:BQ88"/>
     <mergeCell ref="AL108:AO108"/>
@@ -46029,16 +46204,15 @@
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CL49:CO49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="92" man="1"/>
-    <brk id="80" max="92" man="1"/>
-    <brk id="99" max="92" man="1"/>
+    <brk id="40" max="93" man="1"/>
+    <brk id="80" max="93" man="1"/>
+    <brk id="99" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438FCCA-06E6-4F60-8E08-ACCEA35EEA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E1B260-6FF2-4E6F-B3FC-E6991C9E8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CP$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CQ$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -758,17 +758,14 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23619,15 +23616,15 @@
   <dimension ref="A1:EY139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP4" sqref="CP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="94" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="95" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23758,150 +23755,152 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
-      <c r="CP9" s="21">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="23"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24185,6 +24184,9 @@
       </c>
       <c r="CP10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24282,6 +24284,7 @@
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
       <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24566,7 +24569,9 @@
       <c r="CP12" s="9">
         <v>40166.371432009095</v>
       </c>
-      <c r="CQ12" s="10"/>
+      <c r="CQ12" s="9">
+        <v>23364.557429517939</v>
+      </c>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
@@ -24909,9 +24914,11 @@
         <v>64239.897264303501</v>
       </c>
       <c r="CP13" s="9">
-        <v>58534.914520827588</v>
-      </c>
-      <c r="CQ13" s="10"/>
+        <v>58799.529574003187</v>
+      </c>
+      <c r="CQ13" s="9">
+        <v>74733.9455416243</v>
+      </c>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
@@ -25256,7 +25263,9 @@
       <c r="CP14" s="9">
         <v>6087.2522060595948</v>
       </c>
-      <c r="CQ14" s="10"/>
+      <c r="CQ14" s="9">
+        <v>4097.6278465329142</v>
+      </c>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
@@ -25412,7 +25421,7 @@
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
       <c r="CP15" s="12"/>
-      <c r="CQ15" s="10"/>
+      <c r="CQ15" s="12"/>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
@@ -25718,46 +25727,48 @@
       <c r="CC16" s="14">
         <v>93170.4019027022</v>
       </c>
-      <c r="CD16" s="22">
+      <c r="CD16" s="21">
         <v>75203.336431259493</v>
       </c>
-      <c r="CE16" s="22">
+      <c r="CE16" s="21">
         <v>74008.434289297511</v>
       </c>
-      <c r="CF16" s="22">
+      <c r="CF16" s="21">
         <v>80092.694056658598</v>
       </c>
-      <c r="CG16" s="22">
+      <c r="CG16" s="21">
         <v>95955.633560106406</v>
       </c>
-      <c r="CH16" s="22">
+      <c r="CH16" s="21">
         <v>89010.095474585745</v>
       </c>
-      <c r="CI16" s="22">
+      <c r="CI16" s="21">
         <v>87200.432209842125</v>
       </c>
-      <c r="CJ16" s="22">
+      <c r="CJ16" s="21">
         <v>96907.284502602721</v>
       </c>
-      <c r="CK16" s="22">
+      <c r="CK16" s="21">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="22">
+      <c r="CL16" s="21">
         <v>93632.009660533426</v>
       </c>
-      <c r="CM16" s="22">
+      <c r="CM16" s="21">
         <v>90617.237672328061</v>
       </c>
-      <c r="CN16" s="22">
+      <c r="CN16" s="21">
         <v>103772.09975556337</v>
       </c>
-      <c r="CO16" s="22">
+      <c r="CO16" s="21">
         <v>123691.64710122236</v>
       </c>
-      <c r="CP16" s="22">
-        <v>104788.53815889628</v>
-      </c>
-      <c r="CQ16" s="10"/>
+      <c r="CP16" s="21">
+        <v>105053.15321207188</v>
+      </c>
+      <c r="CQ16" s="21">
+        <v>102196.13081767515</v>
+      </c>
       <c r="CR16" s="10"/>
       <c r="CS16" s="10"/>
       <c r="CT16" s="10"/>
@@ -25914,6 +25925,7 @@
       <c r="CN17" s="15"/>
       <c r="CO17" s="15"/>
       <c r="CP17" s="15"/>
+      <c r="CQ17" s="15"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26012,6 +26024,7 @@
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
       <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26107,7 +26120,7 @@
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
       <c r="CP19" s="12"/>
-      <c r="CQ19" s="10"/>
+      <c r="CQ19" s="12"/>
       <c r="CR19" s="10"/>
       <c r="CS19" s="10"/>
       <c r="CT19" s="10"/>
@@ -26263,7 +26276,7 @@
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
       <c r="CP20" s="12"/>
-      <c r="CQ20" s="10"/>
+      <c r="CQ20" s="12"/>
       <c r="CR20" s="10"/>
       <c r="CS20" s="10"/>
       <c r="CT20" s="10"/>
@@ -26422,6 +26435,7 @@
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
       <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26520,6 +26534,7 @@
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
       <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26618,6 +26633,7 @@
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
       <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26714,6 +26730,7 @@
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
       <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26812,6 +26829,7 @@
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
       <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26910,6 +26928,7 @@
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
       <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27008,6 +27027,7 @@
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
       <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27104,150 +27124,152 @@
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
       <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>2000</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>2001</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>2002</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="23">
+      <c r="N29" s="22">
         <v>2003</v>
       </c>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-      <c r="R29" s="23">
+      <c r="R29" s="22">
         <v>2004</v>
       </c>
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="23">
+      <c r="V29" s="22">
         <v>2005</v>
       </c>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
-      <c r="Z29" s="23">
+      <c r="Z29" s="22">
         <v>2006</v>
       </c>
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
       <c r="AC29" s="24"/>
-      <c r="AD29" s="23">
+      <c r="AD29" s="22">
         <v>2007</v>
       </c>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="23">
+      <c r="AH29" s="22">
         <v>2008</v>
       </c>
       <c r="AI29" s="24"/>
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
-      <c r="AL29" s="23">
+      <c r="AL29" s="22">
         <v>2009</v>
       </c>
       <c r="AM29" s="24"/>
       <c r="AN29" s="24"/>
       <c r="AO29" s="24"/>
-      <c r="AP29" s="23">
+      <c r="AP29" s="22">
         <v>2010</v>
       </c>
       <c r="AQ29" s="24"/>
       <c r="AR29" s="24"/>
       <c r="AS29" s="24"/>
-      <c r="AT29" s="23">
+      <c r="AT29" s="22">
         <v>2011</v>
       </c>
       <c r="AU29" s="24"/>
       <c r="AV29" s="24"/>
       <c r="AW29" s="24"/>
-      <c r="AX29" s="23">
+      <c r="AX29" s="22">
         <v>2012</v>
       </c>
       <c r="AY29" s="24"/>
       <c r="AZ29" s="24"/>
       <c r="BA29" s="24"/>
-      <c r="BB29" s="23">
+      <c r="BB29" s="22">
         <v>2013</v>
       </c>
       <c r="BC29" s="24"/>
       <c r="BD29" s="24"/>
       <c r="BE29" s="24"/>
-      <c r="BF29" s="23">
+      <c r="BF29" s="22">
         <v>2014</v>
       </c>
       <c r="BG29" s="24"/>
       <c r="BH29" s="24"/>
       <c r="BI29" s="24"/>
-      <c r="BJ29" s="23">
+      <c r="BJ29" s="22">
         <v>2015</v>
       </c>
       <c r="BK29" s="24"/>
       <c r="BL29" s="24"/>
       <c r="BM29" s="24"/>
-      <c r="BN29" s="23">
+      <c r="BN29" s="22">
         <v>2016</v>
       </c>
       <c r="BO29" s="24"/>
       <c r="BP29" s="24"/>
       <c r="BQ29" s="24"/>
-      <c r="BR29" s="23">
+      <c r="BR29" s="22">
         <v>2017</v>
       </c>
       <c r="BS29" s="24"/>
       <c r="BT29" s="24"/>
       <c r="BU29" s="24"/>
-      <c r="BV29" s="23">
+      <c r="BV29" s="22">
         <v>2018</v>
       </c>
       <c r="BW29" s="24"/>
       <c r="BX29" s="24"/>
       <c r="BY29" s="24"/>
-      <c r="BZ29" s="23">
+      <c r="BZ29" s="22">
         <v>2019</v>
       </c>
       <c r="CA29" s="24"/>
       <c r="CB29" s="24"/>
       <c r="CC29" s="24"/>
-      <c r="CD29" s="23">
+      <c r="CD29" s="22">
         <v>2020</v>
       </c>
-      <c r="CE29" s="23"/>
-      <c r="CF29" s="23"/>
-      <c r="CG29" s="23"/>
-      <c r="CH29" s="23">
+      <c r="CE29" s="22"/>
+      <c r="CF29" s="22"/>
+      <c r="CG29" s="22"/>
+      <c r="CH29" s="22">
         <v>2021</v>
       </c>
-      <c r="CI29" s="23"/>
-      <c r="CJ29" s="23"/>
-      <c r="CK29" s="23"/>
-      <c r="CL29" s="23">
+      <c r="CI29" s="22"/>
+      <c r="CJ29" s="22"/>
+      <c r="CK29" s="22"/>
+      <c r="CL29" s="22">
         <v>2022</v>
       </c>
-      <c r="CM29" s="23"/>
-      <c r="CN29" s="23"/>
-      <c r="CO29" s="23"/>
-      <c r="CP29" s="21">
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
+      <c r="CP29" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ29" s="23"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27531,6 +27553,9 @@
       </c>
       <c r="CP30" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ30" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27628,6 +27653,7 @@
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
       <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -27912,7 +27938,9 @@
       <c r="CP32" s="9">
         <v>36451.783951285885</v>
       </c>
-      <c r="CQ32" s="10"/>
+      <c r="CQ32" s="9">
+        <v>21541.138977982962</v>
+      </c>
       <c r="CR32" s="10"/>
       <c r="CS32" s="10"/>
       <c r="CT32" s="10"/>
@@ -28255,9 +28283,11 @@
         <v>51258.486783722779</v>
       </c>
       <c r="CP33" s="9">
-        <v>56644.868446809785</v>
-      </c>
-      <c r="CQ33" s="10"/>
+        <v>56900.939289295486</v>
+      </c>
+      <c r="CQ33" s="9">
+        <v>66264.263965821548</v>
+      </c>
       <c r="CR33" s="10"/>
       <c r="CS33" s="10"/>
       <c r="CT33" s="10"/>
@@ -28602,7 +28632,9 @@
       <c r="CP34" s="9">
         <v>5612.1704678753649</v>
       </c>
-      <c r="CQ34" s="10"/>
+      <c r="CQ34" s="9">
+        <v>3613.9915989173951</v>
+      </c>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
@@ -28758,7 +28790,7 @@
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
       <c r="CP35" s="12"/>
-      <c r="CQ35" s="10"/>
+      <c r="CQ35" s="12"/>
       <c r="CR35" s="10"/>
       <c r="CS35" s="10"/>
       <c r="CT35" s="10"/>
@@ -29064,46 +29096,48 @@
       <c r="CC36" s="14">
         <v>81107.010766777457</v>
       </c>
-      <c r="CD36" s="22">
+      <c r="CD36" s="21">
         <v>80061.533225333624</v>
       </c>
-      <c r="CE36" s="22">
+      <c r="CE36" s="21">
         <v>72699.450776064114</v>
       </c>
-      <c r="CF36" s="22">
+      <c r="CF36" s="21">
         <v>73747.972049207252</v>
       </c>
-      <c r="CG36" s="22">
+      <c r="CG36" s="21">
         <v>80393.681457500294</v>
       </c>
-      <c r="CH36" s="22">
+      <c r="CH36" s="21">
         <v>90314.052892346968</v>
       </c>
-      <c r="CI36" s="22">
+      <c r="CI36" s="21">
         <v>83230.80341276899</v>
       </c>
-      <c r="CJ36" s="22">
+      <c r="CJ36" s="21">
         <v>86319.986566819629</v>
       </c>
-      <c r="CK36" s="22">
+      <c r="CK36" s="21">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="22">
+      <c r="CL36" s="21">
         <v>91864.249135857361</v>
       </c>
-      <c r="CM36" s="22">
+      <c r="CM36" s="21">
         <v>84471.530383576755</v>
       </c>
-      <c r="CN36" s="22">
+      <c r="CN36" s="21">
         <v>90640.738868667278</v>
       </c>
-      <c r="CO36" s="22">
+      <c r="CO36" s="21">
         <v>97366.966794180349</v>
       </c>
-      <c r="CP36" s="22">
-        <v>98708.822865971029</v>
-      </c>
-      <c r="CQ36" s="10"/>
+      <c r="CP36" s="21">
+        <v>98964.89370845673</v>
+      </c>
+      <c r="CQ36" s="21">
+        <v>91419.394542721901</v>
+      </c>
       <c r="CR36" s="10"/>
       <c r="CS36" s="10"/>
       <c r="CT36" s="10"/>
@@ -29260,6 +29294,7 @@
       <c r="CN37" s="15"/>
       <c r="CO37" s="15"/>
       <c r="CP37" s="15"/>
+      <c r="CQ37" s="15"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29358,6 +29393,7 @@
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
       <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29453,7 +29489,7 @@
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
       <c r="CP39" s="12"/>
-      <c r="CQ39" s="10"/>
+      <c r="CQ39" s="12"/>
       <c r="CR39" s="10"/>
       <c r="CS39" s="10"/>
       <c r="CT39" s="10"/>
@@ -29609,7 +29645,7 @@
       <c r="CN40" s="12"/>
       <c r="CO40" s="12"/>
       <c r="CP40" s="12"/>
-      <c r="CQ40" s="10"/>
+      <c r="CQ40" s="12"/>
       <c r="CR40" s="10"/>
       <c r="CS40" s="10"/>
       <c r="CT40" s="10"/>
@@ -29768,6 +29804,7 @@
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
       <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -29866,6 +29903,7 @@
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
       <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29964,6 +30002,7 @@
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
       <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30060,6 +30099,7 @@
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
       <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30158,6 +30198,7 @@
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
       <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -30256,6 +30297,7 @@
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
       <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30354,6 +30396,7 @@
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
       <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30450,148 +30493,150 @@
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
       <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23" t="s">
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23" t="s">
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23" t="s">
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23" t="s">
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="23"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23" t="s">
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23" t="s">
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23" t="s">
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="23"/>
-      <c r="AR49" s="23"/>
-      <c r="AS49" s="23"/>
-      <c r="AT49" s="23" t="s">
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="23"/>
-      <c r="AV49" s="23"/>
-      <c r="AW49" s="23"/>
-      <c r="AX49" s="23" t="s">
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="23"/>
-      <c r="AZ49" s="23"/>
-      <c r="BA49" s="23"/>
-      <c r="BB49" s="23" t="s">
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="23"/>
-      <c r="BD49" s="23"/>
-      <c r="BE49" s="23"/>
-      <c r="BF49" s="23" t="s">
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="23"/>
-      <c r="BH49" s="23"/>
-      <c r="BI49" s="23"/>
-      <c r="BJ49" s="23" t="s">
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="23"/>
-      <c r="BL49" s="23"/>
-      <c r="BM49" s="23"/>
-      <c r="BN49" s="23" t="s">
+      <c r="BK49" s="22"/>
+      <c r="BL49" s="22"/>
+      <c r="BM49" s="22"/>
+      <c r="BN49" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="23"/>
-      <c r="BP49" s="23"/>
-      <c r="BQ49" s="23"/>
-      <c r="BR49" s="23" t="s">
+      <c r="BO49" s="22"/>
+      <c r="BP49" s="22"/>
+      <c r="BQ49" s="22"/>
+      <c r="BR49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="23"/>
-      <c r="BT49" s="23"/>
-      <c r="BU49" s="23"/>
-      <c r="BV49" s="23" t="s">
+      <c r="BS49" s="22"/>
+      <c r="BT49" s="22"/>
+      <c r="BU49" s="22"/>
+      <c r="BV49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="23"/>
-      <c r="BX49" s="23"/>
-      <c r="BY49" s="23"/>
-      <c r="BZ49" s="23" t="s">
+      <c r="BW49" s="22"/>
+      <c r="BX49" s="22"/>
+      <c r="BY49" s="22"/>
+      <c r="BZ49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="23"/>
-      <c r="CB49" s="23"/>
-      <c r="CC49" s="23"/>
-      <c r="CD49" s="23" t="s">
+      <c r="CA49" s="22"/>
+      <c r="CB49" s="22"/>
+      <c r="CC49" s="22"/>
+      <c r="CD49" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="23"/>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="23"/>
-      <c r="CH49" s="23" t="s">
+      <c r="CE49" s="22"/>
+      <c r="CF49" s="22"/>
+      <c r="CG49" s="22"/>
+      <c r="CH49" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="23"/>
-      <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
-      <c r="CL49" s="21" t="s">
+      <c r="CI49" s="22"/>
+      <c r="CJ49" s="22"/>
+      <c r="CK49" s="22"/>
+      <c r="CL49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="21"/>
-      <c r="CN49" s="21"/>
-      <c r="CO49" s="21"/>
-      <c r="CP49" s="21"/>
+      <c r="CM49" s="22"/>
+      <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
+      <c r="CP49" s="22"/>
+      <c r="CQ49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -30864,10 +30909,13 @@
       <c r="CL50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="6"/>
+      <c r="CM50" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN50" s="6"/>
       <c r="CO50" s="6"/>
       <c r="CP50" s="6"/>
+      <c r="CQ50" s="6"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -30964,6 +31012,7 @@
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
       <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31236,11 +31285,13 @@
       <c r="CL52" s="17">
         <v>9.9660996041708785</v>
       </c>
-      <c r="CM52" s="17"/>
+      <c r="CM52" s="17">
+        <v>16.473950089020818</v>
+      </c>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
       <c r="CP52" s="17"/>
-      <c r="CQ52" s="10"/>
+      <c r="CQ52" s="17"/>
       <c r="CR52" s="10"/>
       <c r="CS52" s="10"/>
       <c r="CT52" s="10"/>
@@ -31567,13 +31618,15 @@
         <v>6.0754254542595163</v>
       </c>
       <c r="CL53" s="17">
-        <v>13.978582791570318</v>
-      </c>
-      <c r="CM53" s="17"/>
+        <v>14.493838498239867</v>
+      </c>
+      <c r="CM53" s="17">
+        <v>12.034452637270832</v>
+      </c>
       <c r="CN53" s="17"/>
       <c r="CO53" s="17"/>
       <c r="CP53" s="17"/>
-      <c r="CQ53" s="10"/>
+      <c r="CQ53" s="17"/>
       <c r="CR53" s="10"/>
       <c r="CS53" s="10"/>
       <c r="CT53" s="10"/>
@@ -31902,11 +31955,13 @@
       <c r="CL54" s="17">
         <v>5.8688425225130345</v>
       </c>
-      <c r="CM54" s="17"/>
+      <c r="CM54" s="17">
+        <v>6.400920164930568</v>
+      </c>
       <c r="CN54" s="17"/>
       <c r="CO54" s="17"/>
       <c r="CP54" s="17"/>
-      <c r="CQ54" s="10"/>
+      <c r="CQ54" s="17"/>
       <c r="CR54" s="10"/>
       <c r="CS54" s="10"/>
       <c r="CT54" s="10"/>
@@ -32058,7 +32113,7 @@
       <c r="CN55" s="12"/>
       <c r="CO55" s="12"/>
       <c r="CP55" s="12"/>
-      <c r="CQ55" s="10"/>
+      <c r="CQ55" s="12"/>
       <c r="CR55" s="10"/>
       <c r="CS55" s="10"/>
       <c r="CT55" s="10"/>
@@ -32385,13 +32440,15 @@
         <v>9.8194993942112347</v>
       </c>
       <c r="CL56" s="17">
-        <v>11.915293219499716</v>
-      </c>
-      <c r="CM56" s="17"/>
+        <v>12.197904961077157</v>
+      </c>
+      <c r="CM56" s="17">
+        <v>12.777804138343257</v>
+      </c>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
       <c r="CP56" s="17"/>
-      <c r="CQ56" s="10"/>
+      <c r="CQ56" s="17"/>
       <c r="CR56" s="10"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
@@ -32544,6 +32601,7 @@
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
       <c r="CP57" s="15"/>
+      <c r="CQ57" s="15"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32642,6 +32700,7 @@
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
       <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32737,7 +32796,7 @@
       <c r="CN59" s="12"/>
       <c r="CO59" s="12"/>
       <c r="CP59" s="12"/>
-      <c r="CQ59" s="10"/>
+      <c r="CQ59" s="12"/>
       <c r="CR59" s="10"/>
       <c r="CS59" s="10"/>
       <c r="CT59" s="10"/>
@@ -32889,7 +32948,7 @@
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
       <c r="CP60" s="12"/>
-      <c r="CQ60" s="10"/>
+      <c r="CQ60" s="12"/>
       <c r="CR60" s="10"/>
       <c r="CS60" s="10"/>
       <c r="CT60" s="10"/>
@@ -33044,6 +33103,7 @@
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
       <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33142,6 +33202,7 @@
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
       <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -33240,6 +33301,7 @@
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
       <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33336,6 +33398,7 @@
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33434,6 +33497,7 @@
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
       <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -33532,6 +33596,7 @@
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
       <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33630,6 +33695,7 @@
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
       <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33726,148 +33792,150 @@
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
       <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="23" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="23" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="23" t="s">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="23" t="s">
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="23" t="s">
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="23" t="s">
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="25"/>
-      <c r="AD69" s="23" t="s">
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="25"/>
-      <c r="AG69" s="25"/>
-      <c r="AH69" s="23" t="s">
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="25"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="25"/>
-      <c r="AL69" s="23" t="s">
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="25"/>
-      <c r="AN69" s="25"/>
-      <c r="AO69" s="25"/>
-      <c r="AP69" s="23" t="s">
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="25"/>
-      <c r="AR69" s="25"/>
-      <c r="AS69" s="25"/>
-      <c r="AT69" s="23" t="s">
+      <c r="AQ69" s="23"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="25"/>
-      <c r="AV69" s="25"/>
-      <c r="AW69" s="25"/>
-      <c r="AX69" s="23" t="s">
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="25"/>
-      <c r="AZ69" s="25"/>
-      <c r="BA69" s="25"/>
-      <c r="BB69" s="23" t="s">
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="25"/>
-      <c r="BD69" s="25"/>
-      <c r="BE69" s="25"/>
-      <c r="BF69" s="23" t="s">
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="25"/>
-      <c r="BH69" s="25"/>
-      <c r="BI69" s="25"/>
-      <c r="BJ69" s="23" t="s">
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="25"/>
-      <c r="BL69" s="25"/>
-      <c r="BM69" s="25"/>
-      <c r="BN69" s="23" t="s">
+      <c r="BK69" s="23"/>
+      <c r="BL69" s="23"/>
+      <c r="BM69" s="23"/>
+      <c r="BN69" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="25"/>
-      <c r="BP69" s="25"/>
-      <c r="BQ69" s="25"/>
-      <c r="BR69" s="23" t="s">
+      <c r="BO69" s="23"/>
+      <c r="BP69" s="23"/>
+      <c r="BQ69" s="23"/>
+      <c r="BR69" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="25"/>
-      <c r="BT69" s="25"/>
-      <c r="BU69" s="25"/>
-      <c r="BV69" s="23" t="s">
+      <c r="BS69" s="23"/>
+      <c r="BT69" s="23"/>
+      <c r="BU69" s="23"/>
+      <c r="BV69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="25"/>
-      <c r="BX69" s="25"/>
-      <c r="BY69" s="25"/>
-      <c r="BZ69" s="23" t="s">
+      <c r="BW69" s="23"/>
+      <c r="BX69" s="23"/>
+      <c r="BY69" s="23"/>
+      <c r="BZ69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="25"/>
-      <c r="CB69" s="25"/>
-      <c r="CC69" s="25"/>
-      <c r="CD69" s="23" t="s">
+      <c r="CA69" s="23"/>
+      <c r="CB69" s="23"/>
+      <c r="CC69" s="23"/>
+      <c r="CD69" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="23"/>
-      <c r="CF69" s="23"/>
-      <c r="CG69" s="23"/>
-      <c r="CH69" s="23" t="s">
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="23"/>
-      <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
-      <c r="CL69" s="21" t="s">
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="22"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="21"/>
-      <c r="CN69" s="21"/>
-      <c r="CO69" s="21"/>
-      <c r="CP69" s="21"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="22"/>
+      <c r="CQ69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34140,10 +34208,13 @@
       <c r="CL70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="6"/>
+      <c r="CM70" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN70" s="6"/>
       <c r="CO70" s="6"/>
       <c r="CP70" s="6"/>
+      <c r="CQ70" s="6"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34240,6 +34311,7 @@
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
       <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34512,11 +34584,13 @@
       <c r="CL72" s="17">
         <v>5.8972232878518724</v>
       </c>
-      <c r="CM72" s="17"/>
+      <c r="CM72" s="17">
+        <v>11.803674156221476</v>
+      </c>
       <c r="CN72" s="17"/>
       <c r="CO72" s="17"/>
       <c r="CP72" s="17"/>
-      <c r="CQ72" s="10"/>
+      <c r="CQ72" s="17"/>
       <c r="CR72" s="10"/>
       <c r="CS72" s="10"/>
       <c r="CT72" s="10"/>
@@ -34843,13 +34917,15 @@
         <v>3.1609317955277163</v>
       </c>
       <c r="CL73" s="17">
-        <v>9.0689179109958644</v>
-      </c>
-      <c r="CM73" s="17"/>
+        <v>9.5619788089075399</v>
+      </c>
+      <c r="CM73" s="17">
+        <v>7.4492616178799267</v>
+      </c>
       <c r="CN73" s="17"/>
       <c r="CO73" s="17"/>
       <c r="CP73" s="17"/>
-      <c r="CQ73" s="10"/>
+      <c r="CQ73" s="17"/>
       <c r="CR73" s="10"/>
       <c r="CS73" s="10"/>
       <c r="CT73" s="10"/>
@@ -35178,11 +35254,13 @@
       <c r="CL74" s="17">
         <v>1.9011279438329893</v>
       </c>
-      <c r="CM74" s="17"/>
+      <c r="CM74" s="17">
+        <v>2.2543958297112567</v>
+      </c>
       <c r="CN74" s="17"/>
       <c r="CO74" s="17"/>
       <c r="CP74" s="17"/>
-      <c r="CQ74" s="10"/>
+      <c r="CQ74" s="17"/>
       <c r="CR74" s="10"/>
       <c r="CS74" s="10"/>
       <c r="CT74" s="10"/>
@@ -35334,7 +35412,7 @@
       <c r="CN75" s="12"/>
       <c r="CO75" s="12"/>
       <c r="CP75" s="12"/>
-      <c r="CQ75" s="10"/>
+      <c r="CQ75" s="12"/>
       <c r="CR75" s="10"/>
       <c r="CS75" s="10"/>
       <c r="CT75" s="10"/>
@@ -35661,13 +35739,15 @@
         <v>6.2869966363772676</v>
       </c>
       <c r="CL76" s="17">
-        <v>7.4507480271147415</v>
-      </c>
-      <c r="CM76" s="17"/>
+        <v>7.7294972085367704</v>
+      </c>
+      <c r="CM76" s="17">
+        <v>8.2250956358853671</v>
+      </c>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
       <c r="CP76" s="17"/>
-      <c r="CQ76" s="10"/>
+      <c r="CQ76" s="17"/>
       <c r="CR76" s="10"/>
       <c r="CS76" s="10"/>
       <c r="CT76" s="10"/>
@@ -35820,6 +35900,7 @@
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
       <c r="CP77" s="15"/>
+      <c r="CQ77" s="15"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -35918,6 +35999,7 @@
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
       <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36013,7 +36095,7 @@
       <c r="CN79" s="12"/>
       <c r="CO79" s="12"/>
       <c r="CP79" s="12"/>
-      <c r="CQ79" s="10"/>
+      <c r="CQ79" s="12"/>
       <c r="CR79" s="10"/>
       <c r="CS79" s="10"/>
       <c r="CT79" s="10"/>
@@ -36320,6 +36402,7 @@
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
       <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36418,6 +36501,7 @@
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
       <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36514,6 +36598,7 @@
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
       <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36612,6 +36697,7 @@
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
       <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -36710,6 +36796,7 @@
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
       <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -36808,6 +36895,7 @@
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
       <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -36904,150 +36992,152 @@
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
       <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="23">
+      <c r="B88" s="22">
         <v>2000</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
+      <c r="F88" s="22">
         <v>2001</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
-      <c r="J88" s="23">
+      <c r="J88" s="22">
         <v>2002</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
-      <c r="N88" s="23">
+      <c r="N88" s="22">
         <v>2003</v>
       </c>
       <c r="O88" s="24"/>
       <c r="P88" s="24"/>
       <c r="Q88" s="24"/>
-      <c r="R88" s="23">
+      <c r="R88" s="22">
         <v>2004</v>
       </c>
       <c r="S88" s="24"/>
       <c r="T88" s="24"/>
       <c r="U88" s="24"/>
-      <c r="V88" s="23">
+      <c r="V88" s="22">
         <v>2005</v>
       </c>
       <c r="W88" s="24"/>
       <c r="X88" s="24"/>
       <c r="Y88" s="24"/>
-      <c r="Z88" s="23">
+      <c r="Z88" s="22">
         <v>2006</v>
       </c>
       <c r="AA88" s="24"/>
       <c r="AB88" s="24"/>
       <c r="AC88" s="24"/>
-      <c r="AD88" s="23">
+      <c r="AD88" s="22">
         <v>2007</v>
       </c>
       <c r="AE88" s="24"/>
       <c r="AF88" s="24"/>
       <c r="AG88" s="24"/>
-      <c r="AH88" s="23">
+      <c r="AH88" s="22">
         <v>2008</v>
       </c>
       <c r="AI88" s="24"/>
       <c r="AJ88" s="24"/>
       <c r="AK88" s="24"/>
-      <c r="AL88" s="23">
+      <c r="AL88" s="22">
         <v>2009</v>
       </c>
       <c r="AM88" s="24"/>
       <c r="AN88" s="24"/>
       <c r="AO88" s="24"/>
-      <c r="AP88" s="23">
+      <c r="AP88" s="22">
         <v>2010</v>
       </c>
       <c r="AQ88" s="24"/>
       <c r="AR88" s="24"/>
       <c r="AS88" s="24"/>
-      <c r="AT88" s="23">
+      <c r="AT88" s="22">
         <v>2011</v>
       </c>
       <c r="AU88" s="24"/>
       <c r="AV88" s="24"/>
       <c r="AW88" s="24"/>
-      <c r="AX88" s="23">
+      <c r="AX88" s="22">
         <v>2012</v>
       </c>
       <c r="AY88" s="24"/>
       <c r="AZ88" s="24"/>
       <c r="BA88" s="24"/>
-      <c r="BB88" s="23">
+      <c r="BB88" s="22">
         <v>2013</v>
       </c>
       <c r="BC88" s="24"/>
       <c r="BD88" s="24"/>
       <c r="BE88" s="24"/>
-      <c r="BF88" s="23">
+      <c r="BF88" s="22">
         <v>2014</v>
       </c>
       <c r="BG88" s="24"/>
       <c r="BH88" s="24"/>
       <c r="BI88" s="24"/>
-      <c r="BJ88" s="23">
+      <c r="BJ88" s="22">
         <v>2015</v>
       </c>
       <c r="BK88" s="24"/>
       <c r="BL88" s="24"/>
       <c r="BM88" s="24"/>
-      <c r="BN88" s="23">
+      <c r="BN88" s="22">
         <v>2016</v>
       </c>
       <c r="BO88" s="24"/>
       <c r="BP88" s="24"/>
       <c r="BQ88" s="24"/>
-      <c r="BR88" s="23">
+      <c r="BR88" s="22">
         <v>2017</v>
       </c>
       <c r="BS88" s="24"/>
       <c r="BT88" s="24"/>
       <c r="BU88" s="24"/>
-      <c r="BV88" s="23">
+      <c r="BV88" s="22">
         <v>2018</v>
       </c>
       <c r="BW88" s="24"/>
       <c r="BX88" s="24"/>
       <c r="BY88" s="24"/>
-      <c r="BZ88" s="23">
+      <c r="BZ88" s="22">
         <v>2019</v>
       </c>
       <c r="CA88" s="24"/>
       <c r="CB88" s="24"/>
       <c r="CC88" s="24"/>
-      <c r="CD88" s="23">
+      <c r="CD88" s="22">
         <v>2020</v>
       </c>
-      <c r="CE88" s="23"/>
-      <c r="CF88" s="23"/>
-      <c r="CG88" s="23"/>
-      <c r="CH88" s="23">
+      <c r="CE88" s="22"/>
+      <c r="CF88" s="22"/>
+      <c r="CG88" s="22"/>
+      <c r="CH88" s="22">
         <v>2021</v>
       </c>
-      <c r="CI88" s="23"/>
-      <c r="CJ88" s="23"/>
-      <c r="CK88" s="23"/>
-      <c r="CL88" s="23">
+      <c r="CI88" s="22"/>
+      <c r="CJ88" s="22"/>
+      <c r="CK88" s="22"/>
+      <c r="CL88" s="22">
         <v>2022</v>
       </c>
-      <c r="CM88" s="23"/>
-      <c r="CN88" s="23"/>
-      <c r="CO88" s="23"/>
-      <c r="CP88" s="21">
+      <c r="CM88" s="22"/>
+      <c r="CN88" s="22"/>
+      <c r="CO88" s="22"/>
+      <c r="CP88" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ88" s="23"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37331,6 +37421,9 @@
       </c>
       <c r="CP89" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ89" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37428,6 +37521,7 @@
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
       <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37712,7 +37806,9 @@
       <c r="CP91" s="17">
         <v>110.19041341210456</v>
       </c>
-      <c r="CQ91" s="10"/>
+      <c r="CQ91" s="17">
+        <v>108.4648191230681</v>
+      </c>
       <c r="CR91" s="10"/>
       <c r="CS91" s="10"/>
       <c r="CT91" s="10"/>
@@ -38055,9 +38151,11 @@
         <v>125.32538764820305</v>
       </c>
       <c r="CP92" s="17">
-        <v>103.33665895224486</v>
-      </c>
-      <c r="CQ92" s="10"/>
+        <v>103.33665895224489</v>
+      </c>
+      <c r="CQ92" s="17">
+        <v>112.78167306011477</v>
+      </c>
       <c r="CR92" s="10"/>
       <c r="CS92" s="10"/>
       <c r="CT92" s="10"/>
@@ -38402,7 +38500,9 @@
       <c r="CP93" s="17">
         <v>108.46520505575599</v>
       </c>
-      <c r="CQ93" s="10"/>
+      <c r="CQ93" s="17">
+        <v>113.38232905025005</v>
+      </c>
       <c r="CR93" s="10"/>
       <c r="CS93" s="10"/>
       <c r="CT93" s="10"/>
@@ -38558,7 +38658,7 @@
       <c r="CN94" s="12"/>
       <c r="CO94" s="12"/>
       <c r="CP94" s="12"/>
-      <c r="CQ94" s="10"/>
+      <c r="CQ94" s="12"/>
       <c r="CR94" s="10"/>
       <c r="CS94" s="10"/>
       <c r="CT94" s="10"/>
@@ -38901,9 +39001,11 @@
         <v>127.03656196119222</v>
       </c>
       <c r="CP95" s="17">
-        <v>106.15924201748453</v>
-      </c>
-      <c r="CQ95" s="10"/>
+        <v>106.15193860719006</v>
+      </c>
+      <c r="CQ95" s="17">
+        <v>111.78823851203377</v>
+      </c>
       <c r="CR95" s="10"/>
       <c r="CS95" s="10"/>
       <c r="CT95" s="10"/>
@@ -39060,6 +39162,7 @@
       <c r="CN96" s="15"/>
       <c r="CO96" s="15"/>
       <c r="CP96" s="15"/>
+      <c r="CQ96" s="15"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39158,6 +39261,7 @@
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
       <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39253,6 +39357,7 @@
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
       <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39348,6 +39453,7 @@
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
       <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39446,6 +39552,7 @@
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
       <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39544,6 +39651,7 @@
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
       <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -39642,6 +39750,7 @@
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
       <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -39738,6 +39847,7 @@
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
       <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -39836,6 +39946,7 @@
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
       <c r="CP104" s="1"/>
+      <c r="CQ104" s="1"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -39934,6 +40045,7 @@
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
       <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40032,6 +40144,7 @@
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
       <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40128,150 +40241,152 @@
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
       <c r="CP107" s="1"/>
+      <c r="CQ107" s="1"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="23">
+      <c r="B108" s="22">
         <v>2000</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
+      <c r="F108" s="22">
         <v>2001</v>
       </c>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
-      <c r="J108" s="23">
+      <c r="J108" s="22">
         <v>2002</v>
       </c>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
-      <c r="N108" s="23">
+      <c r="N108" s="22">
         <v>2003</v>
       </c>
       <c r="O108" s="24"/>
       <c r="P108" s="24"/>
       <c r="Q108" s="24"/>
-      <c r="R108" s="23">
+      <c r="R108" s="22">
         <v>2004</v>
       </c>
       <c r="S108" s="24"/>
       <c r="T108" s="24"/>
       <c r="U108" s="24"/>
-      <c r="V108" s="23">
+      <c r="V108" s="22">
         <v>2005</v>
       </c>
       <c r="W108" s="24"/>
       <c r="X108" s="24"/>
       <c r="Y108" s="24"/>
-      <c r="Z108" s="23">
+      <c r="Z108" s="22">
         <v>2006</v>
       </c>
       <c r="AA108" s="24"/>
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
-      <c r="AD108" s="23">
+      <c r="AD108" s="22">
         <v>2007</v>
       </c>
       <c r="AE108" s="24"/>
       <c r="AF108" s="24"/>
       <c r="AG108" s="24"/>
-      <c r="AH108" s="23">
+      <c r="AH108" s="22">
         <v>2008</v>
       </c>
       <c r="AI108" s="24"/>
       <c r="AJ108" s="24"/>
       <c r="AK108" s="24"/>
-      <c r="AL108" s="23">
+      <c r="AL108" s="22">
         <v>2009</v>
       </c>
       <c r="AM108" s="24"/>
       <c r="AN108" s="24"/>
       <c r="AO108" s="24"/>
-      <c r="AP108" s="23">
+      <c r="AP108" s="22">
         <v>2010</v>
       </c>
       <c r="AQ108" s="24"/>
       <c r="AR108" s="24"/>
       <c r="AS108" s="24"/>
-      <c r="AT108" s="23">
+      <c r="AT108" s="22">
         <v>2011</v>
       </c>
       <c r="AU108" s="24"/>
       <c r="AV108" s="24"/>
       <c r="AW108" s="24"/>
-      <c r="AX108" s="23">
+      <c r="AX108" s="22">
         <v>2012</v>
       </c>
       <c r="AY108" s="24"/>
       <c r="AZ108" s="24"/>
       <c r="BA108" s="24"/>
-      <c r="BB108" s="23">
+      <c r="BB108" s="22">
         <v>2013</v>
       </c>
       <c r="BC108" s="24"/>
       <c r="BD108" s="24"/>
       <c r="BE108" s="24"/>
-      <c r="BF108" s="23">
+      <c r="BF108" s="22">
         <v>2014</v>
       </c>
       <c r="BG108" s="24"/>
       <c r="BH108" s="24"/>
       <c r="BI108" s="24"/>
-      <c r="BJ108" s="23">
+      <c r="BJ108" s="22">
         <v>2015</v>
       </c>
       <c r="BK108" s="24"/>
       <c r="BL108" s="24"/>
       <c r="BM108" s="24"/>
-      <c r="BN108" s="23">
+      <c r="BN108" s="22">
         <v>2016</v>
       </c>
       <c r="BO108" s="24"/>
       <c r="BP108" s="24"/>
       <c r="BQ108" s="24"/>
-      <c r="BR108" s="23">
+      <c r="BR108" s="22">
         <v>2017</v>
       </c>
       <c r="BS108" s="24"/>
       <c r="BT108" s="24"/>
       <c r="BU108" s="24"/>
-      <c r="BV108" s="23">
+      <c r="BV108" s="22">
         <v>2018</v>
       </c>
       <c r="BW108" s="24"/>
       <c r="BX108" s="24"/>
       <c r="BY108" s="24"/>
-      <c r="BZ108" s="23">
+      <c r="BZ108" s="22">
         <v>2019</v>
       </c>
       <c r="CA108" s="24"/>
       <c r="CB108" s="24"/>
       <c r="CC108" s="24"/>
-      <c r="CD108" s="23">
+      <c r="CD108" s="22">
         <v>2020</v>
       </c>
-      <c r="CE108" s="23"/>
-      <c r="CF108" s="23"/>
-      <c r="CG108" s="23"/>
-      <c r="CH108" s="23">
+      <c r="CE108" s="22"/>
+      <c r="CF108" s="22"/>
+      <c r="CG108" s="22"/>
+      <c r="CH108" s="22">
         <v>2021</v>
       </c>
-      <c r="CI108" s="23"/>
-      <c r="CJ108" s="23"/>
-      <c r="CK108" s="23"/>
-      <c r="CL108" s="23">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="23"/>
-      <c r="CN108" s="23"/>
-      <c r="CO108" s="23"/>
-      <c r="CP108" s="21">
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ108" s="23"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40555,6 +40670,9 @@
       </c>
       <c r="CP109" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ109" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40652,6 +40770,7 @@
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
       <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -40934,9 +41053,11 @@
         <v>39.853275494904487</v>
       </c>
       <c r="CP111" s="17">
-        <v>38.330882496998619</v>
-      </c>
-      <c r="CQ111" s="10"/>
+        <v>38.234332053722206</v>
+      </c>
+      <c r="CQ111" s="17">
+        <v>22.862467730017979</v>
+      </c>
       <c r="CR111" s="10"/>
       <c r="CS111" s="10"/>
       <c r="CT111" s="10"/>
@@ -41279,9 +41400,11 @@
         <v>51.935517692421982</v>
       </c>
       <c r="CP112" s="17">
-        <v>55.860035409662913</v>
-      </c>
-      <c r="CQ112" s="10"/>
+        <v>55.971218165440476</v>
+      </c>
+      <c r="CQ112" s="17">
+        <v>73.127959878397689</v>
+      </c>
       <c r="CR112" s="10"/>
       <c r="CS112" s="10"/>
       <c r="CT112" s="10"/>
@@ -41624,9 +41747,11 @@
         <v>8.2112068126735345</v>
       </c>
       <c r="CP113" s="17">
-        <v>5.8090820933384713</v>
-      </c>
-      <c r="CQ113" s="10"/>
+        <v>5.7944497808373221</v>
+      </c>
+      <c r="CQ113" s="17">
+        <v>4.009572391584336</v>
+      </c>
       <c r="CR113" s="10"/>
       <c r="CS113" s="10"/>
       <c r="CT113" s="10"/>
@@ -41782,7 +41907,7 @@
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
       <c r="CP114" s="12"/>
-      <c r="CQ114" s="10"/>
+      <c r="CQ114" s="12"/>
       <c r="CR114" s="10"/>
       <c r="CS114" s="10"/>
       <c r="CT114" s="10"/>
@@ -42127,7 +42252,9 @@
       <c r="CP115" s="17">
         <v>100</v>
       </c>
-      <c r="CQ115" s="10"/>
+      <c r="CQ115" s="17">
+        <v>100</v>
+      </c>
       <c r="CR115" s="10"/>
       <c r="CS115" s="10"/>
       <c r="CT115" s="10"/>
@@ -42284,6 +42411,7 @@
       <c r="CN116" s="15"/>
       <c r="CO116" s="15"/>
       <c r="CP116" s="15"/>
+      <c r="CQ116" s="15"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42382,6 +42510,7 @@
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
       <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42477,7 +42606,7 @@
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
       <c r="CP118" s="12"/>
-      <c r="CQ118" s="10"/>
+      <c r="CQ118" s="12"/>
       <c r="CR118" s="10"/>
       <c r="CS118" s="10"/>
       <c r="CT118" s="10"/>
@@ -42633,7 +42762,7 @@
       <c r="CN119" s="12"/>
       <c r="CO119" s="12"/>
       <c r="CP119" s="12"/>
-      <c r="CQ119" s="10"/>
+      <c r="CQ119" s="12"/>
       <c r="CR119" s="10"/>
       <c r="CS119" s="10"/>
       <c r="CT119" s="10"/>
@@ -42792,6 +42921,7 @@
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
       <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -42890,6 +43020,7 @@
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
       <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -42988,6 +43119,7 @@
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
       <c r="CP122" s="1"/>
+      <c r="CQ122" s="1"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43084,6 +43216,7 @@
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
       <c r="CP123" s="1"/>
+      <c r="CQ123" s="1"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43182,6 +43315,7 @@
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
       <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -43280,6 +43414,7 @@
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
       <c r="CP125" s="1"/>
+      <c r="CQ125" s="1"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43378,6 +43513,7 @@
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
       <c r="CP126" s="1"/>
+      <c r="CQ126" s="1"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43474,150 +43610,152 @@
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
       <c r="CP127" s="1"/>
+      <c r="CQ127" s="1"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="23">
+      <c r="B128" s="22">
         <v>2000</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
-      <c r="F128" s="23">
+      <c r="F128" s="22">
         <v>2001</v>
       </c>
       <c r="G128" s="24"/>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
-      <c r="J128" s="23">
+      <c r="J128" s="22">
         <v>2002</v>
       </c>
       <c r="K128" s="24"/>
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
-      <c r="N128" s="23">
+      <c r="N128" s="22">
         <v>2003</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24"/>
       <c r="Q128" s="24"/>
-      <c r="R128" s="23">
+      <c r="R128" s="22">
         <v>2004</v>
       </c>
       <c r="S128" s="24"/>
       <c r="T128" s="24"/>
       <c r="U128" s="24"/>
-      <c r="V128" s="23">
+      <c r="V128" s="22">
         <v>2005</v>
       </c>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
       <c r="Y128" s="24"/>
-      <c r="Z128" s="23">
+      <c r="Z128" s="22">
         <v>2006</v>
       </c>
       <c r="AA128" s="24"/>
       <c r="AB128" s="24"/>
       <c r="AC128" s="24"/>
-      <c r="AD128" s="23">
+      <c r="AD128" s="22">
         <v>2007</v>
       </c>
       <c r="AE128" s="24"/>
       <c r="AF128" s="24"/>
       <c r="AG128" s="24"/>
-      <c r="AH128" s="23">
+      <c r="AH128" s="22">
         <v>2008</v>
       </c>
       <c r="AI128" s="24"/>
       <c r="AJ128" s="24"/>
       <c r="AK128" s="24"/>
-      <c r="AL128" s="23">
+      <c r="AL128" s="22">
         <v>2009</v>
       </c>
       <c r="AM128" s="24"/>
       <c r="AN128" s="24"/>
       <c r="AO128" s="24"/>
-      <c r="AP128" s="23">
+      <c r="AP128" s="22">
         <v>2010</v>
       </c>
       <c r="AQ128" s="24"/>
       <c r="AR128" s="24"/>
       <c r="AS128" s="24"/>
-      <c r="AT128" s="23">
+      <c r="AT128" s="22">
         <v>2011</v>
       </c>
       <c r="AU128" s="24"/>
       <c r="AV128" s="24"/>
       <c r="AW128" s="24"/>
-      <c r="AX128" s="23">
+      <c r="AX128" s="22">
         <v>2012</v>
       </c>
       <c r="AY128" s="24"/>
       <c r="AZ128" s="24"/>
       <c r="BA128" s="24"/>
-      <c r="BB128" s="23">
+      <c r="BB128" s="22">
         <v>2013</v>
       </c>
       <c r="BC128" s="24"/>
       <c r="BD128" s="24"/>
       <c r="BE128" s="24"/>
-      <c r="BF128" s="23">
+      <c r="BF128" s="22">
         <v>2014</v>
       </c>
       <c r="BG128" s="24"/>
       <c r="BH128" s="24"/>
       <c r="BI128" s="24"/>
-      <c r="BJ128" s="23">
+      <c r="BJ128" s="22">
         <v>2015</v>
       </c>
       <c r="BK128" s="24"/>
       <c r="BL128" s="24"/>
       <c r="BM128" s="24"/>
-      <c r="BN128" s="23">
+      <c r="BN128" s="22">
         <v>2016</v>
       </c>
       <c r="BO128" s="24"/>
       <c r="BP128" s="24"/>
       <c r="BQ128" s="24"/>
-      <c r="BR128" s="23">
+      <c r="BR128" s="22">
         <v>2017</v>
       </c>
       <c r="BS128" s="24"/>
       <c r="BT128" s="24"/>
       <c r="BU128" s="24"/>
-      <c r="BV128" s="23">
+      <c r="BV128" s="22">
         <v>2018</v>
       </c>
       <c r="BW128" s="24"/>
       <c r="BX128" s="24"/>
       <c r="BY128" s="24"/>
-      <c r="BZ128" s="23">
+      <c r="BZ128" s="22">
         <v>2019</v>
       </c>
       <c r="CA128" s="24"/>
       <c r="CB128" s="24"/>
       <c r="CC128" s="24"/>
-      <c r="CD128" s="23">
+      <c r="CD128" s="22">
         <v>2020</v>
       </c>
-      <c r="CE128" s="23"/>
-      <c r="CF128" s="23"/>
-      <c r="CG128" s="23"/>
-      <c r="CH128" s="23">
+      <c r="CE128" s="22"/>
+      <c r="CF128" s="22"/>
+      <c r="CG128" s="22"/>
+      <c r="CH128" s="22">
         <v>2021</v>
       </c>
-      <c r="CI128" s="23"/>
-      <c r="CJ128" s="23"/>
-      <c r="CK128" s="23"/>
-      <c r="CL128" s="23">
+      <c r="CI128" s="22"/>
+      <c r="CJ128" s="22"/>
+      <c r="CK128" s="22"/>
+      <c r="CL128" s="22">
         <v>2022</v>
       </c>
-      <c r="CM128" s="23"/>
-      <c r="CN128" s="23"/>
-      <c r="CO128" s="23"/>
-      <c r="CP128" s="21">
+      <c r="CM128" s="22"/>
+      <c r="CN128" s="22"/>
+      <c r="CO128" s="22"/>
+      <c r="CP128" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ128" s="23"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -43901,6 +44039,9 @@
       </c>
       <c r="CP129" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ129" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43998,6 +44139,7 @@
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
       <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44280,9 +44422,11 @@
         <v>39.631830156707736</v>
       </c>
       <c r="CP131" s="17">
-        <v>36.928597558883773</v>
-      </c>
-      <c r="CQ131" s="10"/>
+        <v>36.833045118676274</v>
+      </c>
+      <c r="CQ131" s="17">
+        <v>23.562985825635071</v>
+      </c>
       <c r="CR131" s="10"/>
       <c r="CS131" s="10"/>
       <c r="CT131" s="10"/>
@@ -44625,9 +44769,11 @@
         <v>52.64463757207902</v>
       </c>
       <c r="CP132" s="17">
-        <v>57.385821046334854</v>
-      </c>
-      <c r="CQ132" s="10"/>
+        <v>57.496084881292809</v>
+      </c>
+      <c r="CQ132" s="17">
+        <v>72.483814071701261</v>
+      </c>
       <c r="CR132" s="10"/>
       <c r="CS132" s="10"/>
       <c r="CT132" s="10"/>
@@ -44970,9 +45116,11 @@
         <v>7.7235322712132417</v>
       </c>
       <c r="CP133" s="17">
-        <v>5.6855813947813871</v>
-      </c>
-      <c r="CQ133" s="10"/>
+        <v>5.6708700000309245</v>
+      </c>
+      <c r="CQ133" s="17">
+        <v>3.9532001026636778</v>
+      </c>
       <c r="CR133" s="10"/>
       <c r="CS133" s="10"/>
       <c r="CT133" s="10"/>
@@ -45128,7 +45276,7 @@
       <c r="CN134" s="12"/>
       <c r="CO134" s="12"/>
       <c r="CP134" s="12"/>
-      <c r="CQ134" s="10"/>
+      <c r="CQ134" s="12"/>
       <c r="CR134" s="10"/>
       <c r="CS134" s="10"/>
       <c r="CT134" s="10"/>
@@ -45473,7 +45621,9 @@
       <c r="CP135" s="17">
         <v>100</v>
       </c>
-      <c r="CQ135" s="10"/>
+      <c r="CQ135" s="17">
+        <v>100</v>
+      </c>
       <c r="CR135" s="10"/>
       <c r="CS135" s="10"/>
       <c r="CT135" s="10"/>
@@ -45630,6 +45780,7 @@
       <c r="CN136" s="15"/>
       <c r="CO136" s="15"/>
       <c r="CP136" s="15"/>
+      <c r="CQ136" s="15"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -45728,6 +45879,7 @@
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
       <c r="CP137" s="1"/>
+      <c r="CQ137" s="1"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -45824,7 +45976,7 @@
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
       <c r="CP138" s="11"/>
-      <c r="CQ138" s="19"/>
+      <c r="CQ138" s="11"/>
       <c r="CR138" s="19"/>
       <c r="CS138" s="19"/>
       <c r="CT138" s="19"/>
@@ -45981,7 +46133,7 @@
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
       <c r="CP139" s="11"/>
-      <c r="CQ139" s="19"/>
+      <c r="CQ139" s="11"/>
       <c r="CR139" s="19"/>
       <c r="CS139" s="19"/>
       <c r="CT139" s="19"/>
@@ -46044,49 +46196,112 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP29:CQ29"/>
+    <mergeCell ref="CP88:CQ88"/>
+    <mergeCell ref="CP108:CQ108"/>
+    <mergeCell ref="CP128:CQ128"/>
+    <mergeCell ref="CL49:CO49"/>
+    <mergeCell ref="CP49:CQ49"/>
+    <mergeCell ref="CL69:CO69"/>
+    <mergeCell ref="CP69:CQ69"/>
+    <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
     <mergeCell ref="CL88:CO88"/>
-    <mergeCell ref="CH88:CK88"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL29:CO29"/>
+    <mergeCell ref="CH49:CK49"/>
+    <mergeCell ref="CH69:CK69"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
@@ -46111,108 +46326,54 @@
     <mergeCell ref="N88:Q88"/>
     <mergeCell ref="V88:Y88"/>
     <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL29:CO29"/>
-    <mergeCell ref="CH49:CK49"/>
-    <mergeCell ref="CH69:CK69"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="CH88:CK88"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BJ88:BM88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="93" man="1"/>
-    <brk id="80" max="93" man="1"/>
-    <brk id="99" max="93" man="1"/>
+    <brk id="40" max="94" man="1"/>
+    <brk id="80" max="94" man="1"/>
+    <brk id="99" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E1B260-6FF2-4E6F-B3FC-E6991C9E8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A6A1F-96F4-4FAD-89CF-612326D9359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CQ$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CR$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,6 +759,25 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23617,48 +23636,98 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP4" sqref="CP4"/>
+      <selection pane="topRight" activeCell="CR5" sqref="CR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="89" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="9.33203125" style="34" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CL4" s="23"/>
+      <c r="CM4" s="23"/>
+      <c r="CN4" s="23"/>
+      <c r="CO4" s="23"/>
+      <c r="CP4" s="23"/>
+      <c r="CQ4" s="23"/>
+      <c r="CR4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CL5" s="23"/>
+      <c r="CM5" s="23"/>
+      <c r="CN5" s="23"/>
+      <c r="CO5" s="23"/>
+      <c r="CP5" s="23"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="23"/>
+      <c r="CM7" s="23"/>
+      <c r="CN7" s="23"/>
+      <c r="CO7" s="23"/>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23750,157 +23819,159 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
+      <c r="CL8" s="24"/>
+      <c r="CM8" s="24"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="24"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="24"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="36">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CM9" s="36"/>
+      <c r="CN9" s="36"/>
+      <c r="CO9" s="36"/>
+      <c r="CP9" s="36">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="23"/>
+      <c r="CQ9" s="36"/>
+      <c r="CR9" s="36"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24170,23 +24241,26 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24279,12 +24353,13 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
+      <c r="CL11" s="24"/>
+      <c r="CM11" s="24"/>
+      <c r="CN11" s="24"/>
+      <c r="CO11" s="24"/>
+      <c r="CP11" s="24"/>
+      <c r="CQ11" s="24"/>
+      <c r="CR11" s="24"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24554,25 +24629,27 @@
       <c r="CK12" s="9">
         <v>43550.017248096432</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="26">
         <v>36526.139943664632</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="26">
         <v>20059.899584121988</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="26">
         <v>30131.143716784616</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="26">
         <v>49295.172883435189</v>
       </c>
-      <c r="CP12" s="9">
+      <c r="CP12" s="26">
         <v>40166.371432009095</v>
       </c>
-      <c r="CQ12" s="9">
+      <c r="CQ12" s="26">
         <v>23364.557429517939</v>
       </c>
-      <c r="CR12" s="10"/>
+      <c r="CR12" s="26">
+        <v>33235.361642180709</v>
+      </c>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
@@ -24901,25 +24978,27 @@
       <c r="CK13" s="9">
         <v>60560.584121346947</v>
       </c>
-      <c r="CL13" s="9">
+      <c r="CL13" s="26">
         <v>51356.064522989262</v>
       </c>
-      <c r="CM13" s="9">
+      <c r="CM13" s="26">
         <v>66706.217402237162</v>
       </c>
-      <c r="CN13" s="9">
+      <c r="CN13" s="26">
         <v>67155.373374645045</v>
       </c>
-      <c r="CO13" s="9">
+      <c r="CO13" s="26">
         <v>64239.897264303501</v>
       </c>
-      <c r="CP13" s="9">
+      <c r="CP13" s="26">
         <v>58799.529574003187</v>
       </c>
-      <c r="CQ13" s="9">
-        <v>74733.9455416243</v>
-      </c>
-      <c r="CR13" s="10"/>
+      <c r="CQ13" s="26">
+        <v>74852.095185952407</v>
+      </c>
+      <c r="CR13" s="26">
+        <v>75561.90720606767</v>
+      </c>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
@@ -25248,25 +25327,27 @@
       <c r="CK14" s="9">
         <v>8521.169658045339</v>
       </c>
-      <c r="CL14" s="9">
+      <c r="CL14" s="26">
         <v>5749.8051938795297</v>
       </c>
-      <c r="CM14" s="9">
+      <c r="CM14" s="26">
         <v>3851.1206859689173</v>
       </c>
-      <c r="CN14" s="9">
+      <c r="CN14" s="26">
         <v>6485.5826641337062</v>
       </c>
-      <c r="CO14" s="9">
+      <c r="CO14" s="26">
         <v>10156.576953483676</v>
       </c>
-      <c r="CP14" s="9">
+      <c r="CP14" s="26">
         <v>6087.2522060595948</v>
       </c>
-      <c r="CQ14" s="9">
+      <c r="CQ14" s="26">
         <v>4097.6278465329142</v>
       </c>
-      <c r="CR14" s="10"/>
+      <c r="CR14" s="26">
+        <v>7230.705460984057</v>
+      </c>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
@@ -25416,13 +25497,13 @@
       <c r="CI15" s="12"/>
       <c r="CJ15" s="12"/>
       <c r="CK15" s="12"/>
-      <c r="CL15" s="12"/>
-      <c r="CM15" s="12"/>
-      <c r="CN15" s="12"/>
-      <c r="CO15" s="12"/>
-      <c r="CP15" s="12"/>
-      <c r="CQ15" s="12"/>
-      <c r="CR15" s="10"/>
+      <c r="CL15" s="27"/>
+      <c r="CM15" s="27"/>
+      <c r="CN15" s="27"/>
+      <c r="CO15" s="27"/>
+      <c r="CP15" s="27"/>
+      <c r="CQ15" s="27"/>
+      <c r="CR15" s="27"/>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
@@ -25751,25 +25832,27 @@
       <c r="CK16" s="21">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="21">
+      <c r="CL16" s="28">
         <v>93632.009660533426</v>
       </c>
-      <c r="CM16" s="21">
+      <c r="CM16" s="28">
         <v>90617.237672328061</v>
       </c>
-      <c r="CN16" s="21">
+      <c r="CN16" s="28">
         <v>103772.09975556337</v>
       </c>
-      <c r="CO16" s="21">
+      <c r="CO16" s="28">
         <v>123691.64710122236</v>
       </c>
-      <c r="CP16" s="21">
+      <c r="CP16" s="28">
         <v>105053.15321207188</v>
       </c>
-      <c r="CQ16" s="21">
-        <v>102196.13081767515</v>
-      </c>
-      <c r="CR16" s="10"/>
+      <c r="CQ16" s="28">
+        <v>102314.28046200325</v>
+      </c>
+      <c r="CR16" s="28">
+        <v>116027.97430923244</v>
+      </c>
       <c r="CS16" s="10"/>
       <c r="CT16" s="10"/>
       <c r="CU16" s="10"/>
@@ -25920,12 +26003,13 @@
       <c r="CI17" s="15"/>
       <c r="CJ17" s="15"/>
       <c r="CK17" s="15"/>
-      <c r="CL17" s="15"/>
-      <c r="CM17" s="15"/>
-      <c r="CN17" s="15"/>
-      <c r="CO17" s="15"/>
-      <c r="CP17" s="15"/>
-      <c r="CQ17" s="15"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="29"/>
+      <c r="CN17" s="29"/>
+      <c r="CO17" s="29"/>
+      <c r="CP17" s="29"/>
+      <c r="CQ17" s="29"/>
+      <c r="CR17" s="29"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26019,12 +26103,13 @@
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26115,13 +26200,13 @@
       <c r="CI19" s="12"/>
       <c r="CJ19" s="12"/>
       <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="10"/>
+      <c r="CL19" s="27"/>
+      <c r="CM19" s="27"/>
+      <c r="CN19" s="27"/>
+      <c r="CO19" s="27"/>
+      <c r="CP19" s="27"/>
+      <c r="CQ19" s="27"/>
+      <c r="CR19" s="27"/>
       <c r="CS19" s="10"/>
       <c r="CT19" s="10"/>
       <c r="CU19" s="10"/>
@@ -26271,13 +26356,13 @@
       <c r="CI20" s="12"/>
       <c r="CJ20" s="12"/>
       <c r="CK20" s="12"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="12"/>
-      <c r="CO20" s="12"/>
-      <c r="CP20" s="12"/>
-      <c r="CQ20" s="12"/>
-      <c r="CR20" s="10"/>
+      <c r="CL20" s="27"/>
+      <c r="CM20" s="27"/>
+      <c r="CN20" s="27"/>
+      <c r="CO20" s="27"/>
+      <c r="CP20" s="27"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
       <c r="CS20" s="10"/>
       <c r="CT20" s="10"/>
       <c r="CU20" s="10"/>
@@ -26430,12 +26515,13 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
+      <c r="CL21" s="24"/>
+      <c r="CM21" s="24"/>
+      <c r="CN21" s="24"/>
+      <c r="CO21" s="24"/>
+      <c r="CP21" s="24"/>
+      <c r="CQ21" s="24"/>
+      <c r="CR21" s="24"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26529,12 +26615,13 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
+      <c r="CL22" s="24"/>
+      <c r="CM22" s="24"/>
+      <c r="CN22" s="24"/>
+      <c r="CO22" s="24"/>
+      <c r="CP22" s="24"/>
+      <c r="CQ22" s="24"/>
+      <c r="CR22" s="24"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26628,12 +26715,13 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
+      <c r="CL23" s="24"/>
+      <c r="CM23" s="24"/>
+      <c r="CN23" s="24"/>
+      <c r="CO23" s="24"/>
+      <c r="CP23" s="24"/>
+      <c r="CQ23" s="24"/>
+      <c r="CR23" s="24"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26725,12 +26813,13 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
+      <c r="CL24" s="24"/>
+      <c r="CM24" s="24"/>
+      <c r="CN24" s="24"/>
+      <c r="CO24" s="24"/>
+      <c r="CP24" s="24"/>
+      <c r="CQ24" s="24"/>
+      <c r="CR24" s="24"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26824,12 +26913,13 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
+      <c r="CL25" s="24"/>
+      <c r="CM25" s="24"/>
+      <c r="CN25" s="24"/>
+      <c r="CO25" s="24"/>
+      <c r="CP25" s="24"/>
+      <c r="CQ25" s="24"/>
+      <c r="CR25" s="24"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26923,12 +27013,13 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
+      <c r="CL26" s="24"/>
+      <c r="CM26" s="24"/>
+      <c r="CN26" s="24"/>
+      <c r="CO26" s="24"/>
+      <c r="CP26" s="24"/>
+      <c r="CQ26" s="24"/>
+      <c r="CR26" s="24"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27022,12 +27113,13 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
+      <c r="CL27" s="24"/>
+      <c r="CM27" s="24"/>
+      <c r="CN27" s="24"/>
+      <c r="CO27" s="24"/>
+      <c r="CP27" s="24"/>
+      <c r="CQ27" s="24"/>
+      <c r="CR27" s="24"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27119,157 +27211,159 @@
       <c r="CI28" s="1"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
-      <c r="CL28" s="1"/>
-      <c r="CM28" s="1"/>
-      <c r="CN28" s="1"/>
-      <c r="CO28" s="1"/>
-      <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
+      <c r="CL28" s="24"/>
+      <c r="CM28" s="24"/>
+      <c r="CN28" s="24"/>
+      <c r="CO28" s="24"/>
+      <c r="CP28" s="24"/>
+      <c r="CQ28" s="24"/>
+      <c r="CR28" s="24"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="22">
+      <c r="B29" s="35">
         <v>2000</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="22">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35">
         <v>2001</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="22">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="35">
         <v>2002</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="22">
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="35">
         <v>2003</v>
       </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="22">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="35">
         <v>2004</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="22">
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="35">
         <v>2005</v>
       </c>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="22">
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="35">
         <v>2006</v>
       </c>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="22">
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="35">
         <v>2007</v>
       </c>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="22">
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="35">
         <v>2008</v>
       </c>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="22">
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="35">
         <v>2009</v>
       </c>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="22">
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="22">
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="35">
         <v>2011</v>
       </c>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="22">
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="35">
         <v>2012</v>
       </c>
-      <c r="AY29" s="24"/>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="24"/>
-      <c r="BB29" s="22">
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="35">
         <v>2013</v>
       </c>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="24"/>
-      <c r="BF29" s="22">
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="35">
         <v>2014</v>
       </c>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="24"/>
-      <c r="BJ29" s="22">
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="35">
         <v>2015</v>
       </c>
-      <c r="BK29" s="24"/>
-      <c r="BL29" s="24"/>
-      <c r="BM29" s="24"/>
-      <c r="BN29" s="22">
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="35">
         <v>2016</v>
       </c>
-      <c r="BO29" s="24"/>
-      <c r="BP29" s="24"/>
-      <c r="BQ29" s="24"/>
-      <c r="BR29" s="22">
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="35">
         <v>2017</v>
       </c>
-      <c r="BS29" s="24"/>
-      <c r="BT29" s="24"/>
-      <c r="BU29" s="24"/>
-      <c r="BV29" s="22">
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="35">
         <v>2018</v>
       </c>
-      <c r="BW29" s="24"/>
-      <c r="BX29" s="24"/>
-      <c r="BY29" s="24"/>
-      <c r="BZ29" s="22">
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="35">
         <v>2019</v>
       </c>
-      <c r="CA29" s="24"/>
-      <c r="CB29" s="24"/>
-      <c r="CC29" s="24"/>
-      <c r="CD29" s="22">
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="35">
         <v>2020</v>
       </c>
-      <c r="CE29" s="22"/>
-      <c r="CF29" s="22"/>
-      <c r="CG29" s="22"/>
-      <c r="CH29" s="22">
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35">
         <v>2021</v>
       </c>
-      <c r="CI29" s="22"/>
-      <c r="CJ29" s="22"/>
-      <c r="CK29" s="22"/>
-      <c r="CL29" s="22">
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
+      <c r="CL29" s="36">
         <v>2022</v>
       </c>
-      <c r="CM29" s="22"/>
-      <c r="CN29" s="22"/>
-      <c r="CO29" s="22"/>
-      <c r="CP29" s="22">
+      <c r="CM29" s="36"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="36"/>
+      <c r="CP29" s="36">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="23"/>
+      <c r="CQ29" s="36"/>
+      <c r="CR29" s="36"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27539,23 +27633,26 @@
       <c r="CK30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="7" t="s">
+      <c r="CL30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="7" t="s">
+      <c r="CM30" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="7" t="s">
+      <c r="CN30" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="7" t="s">
+      <c r="CO30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="7" t="s">
+      <c r="CP30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="7" t="s">
+      <c r="CQ30" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CR30" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27648,12 +27745,13 @@
       <c r="CI31" s="1"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
+      <c r="CL31" s="24"/>
+      <c r="CM31" s="24"/>
+      <c r="CN31" s="24"/>
+      <c r="CO31" s="24"/>
+      <c r="CP31" s="24"/>
+      <c r="CQ31" s="24"/>
+      <c r="CR31" s="24"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -27923,25 +28021,27 @@
       <c r="CK32" s="9">
         <v>35398.705930213182</v>
       </c>
-      <c r="CL32" s="9">
+      <c r="CL32" s="26">
         <v>34421.850563731918</v>
       </c>
-      <c r="CM32" s="9">
+      <c r="CM32" s="26">
         <v>19266.932988162691</v>
       </c>
-      <c r="CN32" s="9">
+      <c r="CN32" s="26">
         <v>27961.417990217757</v>
       </c>
-      <c r="CO32" s="9">
+      <c r="CO32" s="26">
         <v>38588.310908607578</v>
       </c>
-      <c r="CP32" s="9">
+      <c r="CP32" s="26">
         <v>36451.783951285885</v>
       </c>
-      <c r="CQ32" s="9">
+      <c r="CQ32" s="26">
         <v>21541.138977982962</v>
       </c>
-      <c r="CR32" s="10"/>
+      <c r="CR32" s="26">
+        <v>29623.612882198195</v>
+      </c>
       <c r="CS32" s="10"/>
       <c r="CT32" s="10"/>
       <c r="CU32" s="10"/>
@@ -28270,25 +28370,27 @@
       <c r="CK33" s="9">
         <v>49687.886578342208</v>
       </c>
-      <c r="CL33" s="9">
+      <c r="CL33" s="26">
         <v>51934.93208856626</v>
       </c>
-      <c r="CM33" s="9">
+      <c r="CM33" s="26">
         <v>61670.283227702457</v>
       </c>
-      <c r="CN33" s="9">
+      <c r="CN33" s="26">
         <v>57160.291355151559</v>
       </c>
-      <c r="CO33" s="9">
+      <c r="CO33" s="26">
         <v>51258.486783722779</v>
       </c>
-      <c r="CP33" s="9">
+      <c r="CP33" s="26">
         <v>56900.939289295486</v>
       </c>
-      <c r="CQ33" s="9">
-        <v>66264.263965821548</v>
-      </c>
-      <c r="CR33" s="10"/>
+      <c r="CQ33" s="26">
+        <v>66369.023578906141</v>
+      </c>
+      <c r="CR33" s="26">
+        <v>61539.624346937591</v>
+      </c>
       <c r="CS33" s="10"/>
       <c r="CT33" s="10"/>
       <c r="CU33" s="10"/>
@@ -28617,25 +28719,27 @@
       <c r="CK34" s="9">
         <v>6521.0075512020676</v>
       </c>
-      <c r="CL34" s="9">
+      <c r="CL34" s="26">
         <v>5507.4664835591848</v>
       </c>
-      <c r="CM34" s="9">
+      <c r="CM34" s="26">
         <v>3534.3141677116109</v>
       </c>
-      <c r="CN34" s="9">
+      <c r="CN34" s="26">
         <v>5519.0295232979697</v>
       </c>
-      <c r="CO34" s="9">
+      <c r="CO34" s="26">
         <v>7520.1691018500005</v>
       </c>
-      <c r="CP34" s="9">
+      <c r="CP34" s="26">
         <v>5612.1704678753649</v>
       </c>
-      <c r="CQ34" s="9">
+      <c r="CQ34" s="26">
         <v>3613.9915989173951</v>
       </c>
-      <c r="CR34" s="10"/>
+      <c r="CR34" s="26">
+        <v>5910.6169765736522</v>
+      </c>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
@@ -28785,13 +28889,13 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="12"/>
-      <c r="CM35" s="12"/>
-      <c r="CN35" s="12"/>
-      <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="10"/>
+      <c r="CL35" s="27"/>
+      <c r="CM35" s="27"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
       <c r="CS35" s="10"/>
       <c r="CT35" s="10"/>
       <c r="CU35" s="10"/>
@@ -29120,25 +29224,27 @@
       <c r="CK36" s="21">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="21">
+      <c r="CL36" s="28">
         <v>91864.249135857361</v>
       </c>
-      <c r="CM36" s="21">
+      <c r="CM36" s="28">
         <v>84471.530383576755</v>
       </c>
-      <c r="CN36" s="21">
+      <c r="CN36" s="28">
         <v>90640.738868667278</v>
       </c>
-      <c r="CO36" s="21">
+      <c r="CO36" s="28">
         <v>97366.966794180349</v>
       </c>
-      <c r="CP36" s="21">
+      <c r="CP36" s="28">
         <v>98964.89370845673</v>
       </c>
-      <c r="CQ36" s="21">
-        <v>91419.394542721901</v>
-      </c>
-      <c r="CR36" s="10"/>
+      <c r="CQ36" s="28">
+        <v>91524.154155806493</v>
+      </c>
+      <c r="CR36" s="28">
+        <v>97073.854205709446</v>
+      </c>
       <c r="CS36" s="10"/>
       <c r="CT36" s="10"/>
       <c r="CU36" s="10"/>
@@ -29289,12 +29395,13 @@
       <c r="CI37" s="15"/>
       <c r="CJ37" s="15"/>
       <c r="CK37" s="15"/>
-      <c r="CL37" s="15"/>
-      <c r="CM37" s="15"/>
-      <c r="CN37" s="15"/>
-      <c r="CO37" s="15"/>
-      <c r="CP37" s="15"/>
-      <c r="CQ37" s="15"/>
+      <c r="CL37" s="29"/>
+      <c r="CM37" s="29"/>
+      <c r="CN37" s="29"/>
+      <c r="CO37" s="29"/>
+      <c r="CP37" s="29"/>
+      <c r="CQ37" s="29"/>
+      <c r="CR37" s="29"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29388,12 +29495,13 @@
       <c r="CI38" s="1"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
+      <c r="CL38" s="24"/>
+      <c r="CM38" s="24"/>
+      <c r="CN38" s="24"/>
+      <c r="CO38" s="24"/>
+      <c r="CP38" s="24"/>
+      <c r="CQ38" s="24"/>
+      <c r="CR38" s="24"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29484,13 +29592,13 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="12"/>
-      <c r="CM39" s="12"/>
-      <c r="CN39" s="12"/>
-      <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
-      <c r="CR39" s="10"/>
+      <c r="CL39" s="27"/>
+      <c r="CM39" s="27"/>
+      <c r="CN39" s="27"/>
+      <c r="CO39" s="27"/>
+      <c r="CP39" s="27"/>
+      <c r="CQ39" s="27"/>
+      <c r="CR39" s="27"/>
       <c r="CS39" s="10"/>
       <c r="CT39" s="10"/>
       <c r="CU39" s="10"/>
@@ -29640,13 +29748,13 @@
       <c r="CI40" s="12"/>
       <c r="CJ40" s="12"/>
       <c r="CK40" s="12"/>
-      <c r="CL40" s="12"/>
-      <c r="CM40" s="12"/>
-      <c r="CN40" s="12"/>
-      <c r="CO40" s="12"/>
-      <c r="CP40" s="12"/>
-      <c r="CQ40" s="12"/>
-      <c r="CR40" s="10"/>
+      <c r="CL40" s="27"/>
+      <c r="CM40" s="27"/>
+      <c r="CN40" s="27"/>
+      <c r="CO40" s="27"/>
+      <c r="CP40" s="27"/>
+      <c r="CQ40" s="27"/>
+      <c r="CR40" s="27"/>
       <c r="CS40" s="10"/>
       <c r="CT40" s="10"/>
       <c r="CU40" s="10"/>
@@ -29799,12 +29907,13 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
+      <c r="CL41" s="24"/>
+      <c r="CM41" s="24"/>
+      <c r="CN41" s="24"/>
+      <c r="CO41" s="24"/>
+      <c r="CP41" s="24"/>
+      <c r="CQ41" s="24"/>
+      <c r="CR41" s="24"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -29898,12 +30007,13 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
-      <c r="CN42" s="1"/>
-      <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
+      <c r="CL42" s="24"/>
+      <c r="CM42" s="24"/>
+      <c r="CN42" s="24"/>
+      <c r="CO42" s="24"/>
+      <c r="CP42" s="24"/>
+      <c r="CQ42" s="24"/>
+      <c r="CR42" s="24"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29997,12 +30107,13 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
+      <c r="CL43" s="24"/>
+      <c r="CM43" s="24"/>
+      <c r="CN43" s="24"/>
+      <c r="CO43" s="24"/>
+      <c r="CP43" s="24"/>
+      <c r="CQ43" s="24"/>
+      <c r="CR43" s="24"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30094,12 +30205,13 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
+      <c r="CL44" s="24"/>
+      <c r="CM44" s="24"/>
+      <c r="CN44" s="24"/>
+      <c r="CO44" s="24"/>
+      <c r="CP44" s="24"/>
+      <c r="CQ44" s="24"/>
+      <c r="CR44" s="24"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30193,12 +30305,13 @@
       <c r="CI45" s="1"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
-      <c r="CN45" s="1"/>
-      <c r="CO45" s="1"/>
-      <c r="CP45" s="1"/>
-      <c r="CQ45" s="1"/>
+      <c r="CL45" s="24"/>
+      <c r="CM45" s="24"/>
+      <c r="CN45" s="24"/>
+      <c r="CO45" s="24"/>
+      <c r="CP45" s="24"/>
+      <c r="CQ45" s="24"/>
+      <c r="CR45" s="24"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -30292,12 +30405,13 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
+      <c r="CL46" s="24"/>
+      <c r="CM46" s="24"/>
+      <c r="CN46" s="24"/>
+      <c r="CO46" s="24"/>
+      <c r="CP46" s="24"/>
+      <c r="CQ46" s="24"/>
+      <c r="CR46" s="24"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30391,12 +30505,13 @@
       <c r="CI47" s="1"/>
       <c r="CJ47" s="1"/>
       <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
-      <c r="CN47" s="1"/>
-      <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
+      <c r="CL47" s="24"/>
+      <c r="CM47" s="24"/>
+      <c r="CN47" s="24"/>
+      <c r="CO47" s="24"/>
+      <c r="CP47" s="24"/>
+      <c r="CQ47" s="24"/>
+      <c r="CR47" s="24"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30488,155 +30603,157 @@
       <c r="CI48" s="1"/>
       <c r="CJ48" s="1"/>
       <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
-      <c r="CN48" s="1"/>
-      <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
+      <c r="CL48" s="24"/>
+      <c r="CM48" s="24"/>
+      <c r="CN48" s="24"/>
+      <c r="CO48" s="24"/>
+      <c r="CP48" s="24"/>
+      <c r="CQ48" s="24"/>
+      <c r="CR48" s="24"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22" t="s">
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22" t="s">
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22" t="s">
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22" t="s">
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22" t="s">
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22" t="s">
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22" t="s">
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22" t="s">
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22" t="s">
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="22"/>
-      <c r="AR49" s="22"/>
-      <c r="AS49" s="22"/>
-      <c r="AT49" s="22" t="s">
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="22"/>
-      <c r="AV49" s="22"/>
-      <c r="AW49" s="22"/>
-      <c r="AX49" s="22" t="s">
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="22"/>
-      <c r="AZ49" s="22"/>
-      <c r="BA49" s="22"/>
-      <c r="BB49" s="22" t="s">
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="22"/>
-      <c r="BD49" s="22"/>
-      <c r="BE49" s="22"/>
-      <c r="BF49" s="22" t="s">
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="22"/>
-      <c r="BH49" s="22"/>
-      <c r="BI49" s="22"/>
-      <c r="BJ49" s="22" t="s">
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="22"/>
-      <c r="BL49" s="22"/>
-      <c r="BM49" s="22"/>
-      <c r="BN49" s="22" t="s">
+      <c r="BK49" s="35"/>
+      <c r="BL49" s="35"/>
+      <c r="BM49" s="35"/>
+      <c r="BN49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="22"/>
-      <c r="BP49" s="22"/>
-      <c r="BQ49" s="22"/>
-      <c r="BR49" s="22" t="s">
+      <c r="BO49" s="35"/>
+      <c r="BP49" s="35"/>
+      <c r="BQ49" s="35"/>
+      <c r="BR49" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="22"/>
-      <c r="BT49" s="22"/>
-      <c r="BU49" s="22"/>
-      <c r="BV49" s="22" t="s">
+      <c r="BS49" s="35"/>
+      <c r="BT49" s="35"/>
+      <c r="BU49" s="35"/>
+      <c r="BV49" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="22"/>
-      <c r="BX49" s="22"/>
-      <c r="BY49" s="22"/>
-      <c r="BZ49" s="22" t="s">
+      <c r="BW49" s="35"/>
+      <c r="BX49" s="35"/>
+      <c r="BY49" s="35"/>
+      <c r="BZ49" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="22"/>
-      <c r="CB49" s="22"/>
-      <c r="CC49" s="22"/>
-      <c r="CD49" s="22" t="s">
+      <c r="CA49" s="35"/>
+      <c r="CB49" s="35"/>
+      <c r="CC49" s="35"/>
+      <c r="CD49" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="22"/>
-      <c r="CF49" s="22"/>
-      <c r="CG49" s="22"/>
-      <c r="CH49" s="22" t="s">
+      <c r="CE49" s="35"/>
+      <c r="CF49" s="35"/>
+      <c r="CG49" s="35"/>
+      <c r="CH49" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="22"/>
-      <c r="CJ49" s="22"/>
-      <c r="CK49" s="22"/>
-      <c r="CL49" s="22" t="s">
+      <c r="CI49" s="35"/>
+      <c r="CJ49" s="35"/>
+      <c r="CK49" s="35"/>
+      <c r="CL49" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="22"/>
-      <c r="CN49" s="22"/>
-      <c r="CO49" s="22"/>
+      <c r="CM49" s="36"/>
+      <c r="CN49" s="36"/>
+      <c r="CO49" s="30"/>
       <c r="CP49" s="22"/>
-      <c r="CQ49" s="23"/>
+      <c r="CQ49" s="22"/>
+      <c r="CR49" s="22"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -30906,16 +31023,19 @@
       <c r="CK50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="6" t="s">
+      <c r="CL50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="6" t="s">
+      <c r="CM50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="6"/>
-      <c r="CO50" s="6"/>
-      <c r="CP50" s="6"/>
-      <c r="CQ50" s="6"/>
+      <c r="CN50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO50" s="31"/>
+      <c r="CP50" s="31"/>
+      <c r="CQ50" s="31"/>
+      <c r="CR50" s="31"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31007,12 +31127,13 @@
       <c r="CI51" s="1"/>
       <c r="CJ51" s="1"/>
       <c r="CK51" s="1"/>
-      <c r="CL51" s="1"/>
-      <c r="CM51" s="1"/>
-      <c r="CN51" s="1"/>
-      <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
+      <c r="CL51" s="24"/>
+      <c r="CM51" s="24"/>
+      <c r="CN51" s="24"/>
+      <c r="CO51" s="24"/>
+      <c r="CP51" s="24"/>
+      <c r="CQ51" s="24"/>
+      <c r="CR51" s="24"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31282,17 +31403,19 @@
       <c r="CK52" s="17">
         <v>13.19208578634921</v>
       </c>
-      <c r="CL52" s="17">
+      <c r="CL52" s="32">
         <v>9.9660996041708785</v>
       </c>
-      <c r="CM52" s="17">
+      <c r="CM52" s="32">
         <v>16.473950089020818</v>
       </c>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="10"/>
+      <c r="CN52" s="32">
+        <v>10.302356772693244</v>
+      </c>
+      <c r="CO52" s="32"/>
+      <c r="CP52" s="32"/>
+      <c r="CQ52" s="32"/>
+      <c r="CR52" s="32"/>
       <c r="CS52" s="10"/>
       <c r="CT52" s="10"/>
       <c r="CU52" s="10"/>
@@ -31617,17 +31740,19 @@
       <c r="CK53" s="17">
         <v>6.0754254542595163</v>
       </c>
-      <c r="CL53" s="17">
+      <c r="CL53" s="32">
         <v>14.493838498239867</v>
       </c>
-      <c r="CM53" s="17">
-        <v>12.034452637270832</v>
-      </c>
-      <c r="CN53" s="17"/>
-      <c r="CO53" s="17"/>
-      <c r="CP53" s="17"/>
-      <c r="CQ53" s="17"/>
-      <c r="CR53" s="10"/>
+      <c r="CM53" s="32">
+        <v>12.211572025731513</v>
+      </c>
+      <c r="CN53" s="32">
+        <v>12.518036024495643</v>
+      </c>
+      <c r="CO53" s="32"/>
+      <c r="CP53" s="32"/>
+      <c r="CQ53" s="32"/>
+      <c r="CR53" s="32"/>
       <c r="CS53" s="10"/>
       <c r="CT53" s="10"/>
       <c r="CU53" s="10"/>
@@ -31952,17 +32077,19 @@
       <c r="CK54" s="17">
         <v>19.192286517781667</v>
       </c>
-      <c r="CL54" s="17">
+      <c r="CL54" s="32">
         <v>5.8688425225130345</v>
       </c>
-      <c r="CM54" s="17">
+      <c r="CM54" s="32">
         <v>6.400920164930568</v>
       </c>
-      <c r="CN54" s="17"/>
-      <c r="CO54" s="17"/>
-      <c r="CP54" s="17"/>
-      <c r="CQ54" s="17"/>
-      <c r="CR54" s="10"/>
+      <c r="CN54" s="32">
+        <v>11.488910641305949</v>
+      </c>
+      <c r="CO54" s="32"/>
+      <c r="CP54" s="32"/>
+      <c r="CQ54" s="32"/>
+      <c r="CR54" s="32"/>
       <c r="CS54" s="10"/>
       <c r="CT54" s="10"/>
       <c r="CU54" s="10"/>
@@ -32108,13 +32235,13 @@
       <c r="CI55" s="12"/>
       <c r="CJ55" s="12"/>
       <c r="CK55" s="12"/>
-      <c r="CL55" s="12"/>
-      <c r="CM55" s="12"/>
-      <c r="CN55" s="12"/>
-      <c r="CO55" s="12"/>
-      <c r="CP55" s="12"/>
-      <c r="CQ55" s="12"/>
-      <c r="CR55" s="10"/>
+      <c r="CL55" s="27"/>
+      <c r="CM55" s="27"/>
+      <c r="CN55" s="27"/>
+      <c r="CO55" s="27"/>
+      <c r="CP55" s="27"/>
+      <c r="CQ55" s="27"/>
+      <c r="CR55" s="27"/>
       <c r="CS55" s="10"/>
       <c r="CT55" s="10"/>
       <c r="CU55" s="10"/>
@@ -32439,17 +32566,19 @@
       <c r="CK56" s="17">
         <v>9.8194993942112347</v>
       </c>
-      <c r="CL56" s="17">
+      <c r="CL56" s="32">
         <v>12.197904961077157</v>
       </c>
-      <c r="CM56" s="17">
-        <v>12.777804138343257</v>
-      </c>
-      <c r="CN56" s="17"/>
-      <c r="CO56" s="17"/>
-      <c r="CP56" s="17"/>
-      <c r="CQ56" s="17"/>
-      <c r="CR56" s="10"/>
+      <c r="CM56" s="32">
+        <v>12.908187327417437</v>
+      </c>
+      <c r="CN56" s="32">
+        <v>11.810375411635647</v>
+      </c>
+      <c r="CO56" s="32"/>
+      <c r="CP56" s="32"/>
+      <c r="CQ56" s="32"/>
+      <c r="CR56" s="32"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
@@ -32596,12 +32725,13 @@
       <c r="CI57" s="15"/>
       <c r="CJ57" s="15"/>
       <c r="CK57" s="15"/>
-      <c r="CL57" s="15"/>
-      <c r="CM57" s="15"/>
-      <c r="CN57" s="15"/>
-      <c r="CO57" s="15"/>
-      <c r="CP57" s="15"/>
-      <c r="CQ57" s="15"/>
+      <c r="CL57" s="29"/>
+      <c r="CM57" s="29"/>
+      <c r="CN57" s="29"/>
+      <c r="CO57" s="29"/>
+      <c r="CP57" s="29"/>
+      <c r="CQ57" s="29"/>
+      <c r="CR57" s="29"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32695,12 +32825,13 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
+      <c r="CL58" s="24"/>
+      <c r="CM58" s="24"/>
+      <c r="CN58" s="24"/>
+      <c r="CO58" s="24"/>
+      <c r="CP58" s="24"/>
+      <c r="CQ58" s="24"/>
+      <c r="CR58" s="24"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32791,13 +32922,13 @@
       <c r="CI59" s="12"/>
       <c r="CJ59" s="12"/>
       <c r="CK59" s="12"/>
-      <c r="CL59" s="12"/>
-      <c r="CM59" s="12"/>
-      <c r="CN59" s="12"/>
-      <c r="CO59" s="12"/>
-      <c r="CP59" s="12"/>
-      <c r="CQ59" s="12"/>
-      <c r="CR59" s="10"/>
+      <c r="CL59" s="27"/>
+      <c r="CM59" s="27"/>
+      <c r="CN59" s="27"/>
+      <c r="CO59" s="27"/>
+      <c r="CP59" s="27"/>
+      <c r="CQ59" s="27"/>
+      <c r="CR59" s="27"/>
       <c r="CS59" s="10"/>
       <c r="CT59" s="10"/>
       <c r="CU59" s="10"/>
@@ -32943,13 +33074,13 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="12"/>
-      <c r="CM60" s="12"/>
-      <c r="CN60" s="12"/>
-      <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
-      <c r="CR60" s="10"/>
+      <c r="CL60" s="27"/>
+      <c r="CM60" s="27"/>
+      <c r="CN60" s="27"/>
+      <c r="CO60" s="27"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
       <c r="CS60" s="10"/>
       <c r="CT60" s="10"/>
       <c r="CU60" s="10"/>
@@ -33098,12 +33229,13 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
+      <c r="CL61" s="24"/>
+      <c r="CM61" s="24"/>
+      <c r="CN61" s="24"/>
+      <c r="CO61" s="24"/>
+      <c r="CP61" s="24"/>
+      <c r="CQ61" s="24"/>
+      <c r="CR61" s="24"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33197,12 +33329,13 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
-      <c r="CN62" s="1"/>
-      <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
+      <c r="CL62" s="24"/>
+      <c r="CM62" s="24"/>
+      <c r="CN62" s="24"/>
+      <c r="CO62" s="24"/>
+      <c r="CP62" s="24"/>
+      <c r="CQ62" s="24"/>
+      <c r="CR62" s="24"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -33296,12 +33429,13 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
+      <c r="CL63" s="24"/>
+      <c r="CM63" s="24"/>
+      <c r="CN63" s="24"/>
+      <c r="CO63" s="24"/>
+      <c r="CP63" s="24"/>
+      <c r="CQ63" s="24"/>
+      <c r="CR63" s="24"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33393,12 +33527,13 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
+      <c r="CL64" s="24"/>
+      <c r="CM64" s="24"/>
+      <c r="CN64" s="24"/>
+      <c r="CO64" s="24"/>
+      <c r="CP64" s="24"/>
+      <c r="CQ64" s="24"/>
+      <c r="CR64" s="24"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33492,12 +33627,13 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
+      <c r="CL65" s="24"/>
+      <c r="CM65" s="24"/>
+      <c r="CN65" s="24"/>
+      <c r="CO65" s="24"/>
+      <c r="CP65" s="24"/>
+      <c r="CQ65" s="24"/>
+      <c r="CR65" s="24"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -33591,12 +33727,13 @@
       <c r="CI66" s="1"/>
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
+      <c r="CL66" s="24"/>
+      <c r="CM66" s="24"/>
+      <c r="CN66" s="24"/>
+      <c r="CO66" s="24"/>
+      <c r="CP66" s="24"/>
+      <c r="CQ66" s="24"/>
+      <c r="CR66" s="24"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33690,12 +33827,13 @@
       <c r="CI67" s="1"/>
       <c r="CJ67" s="1"/>
       <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
+      <c r="CL67" s="24"/>
+      <c r="CM67" s="24"/>
+      <c r="CN67" s="24"/>
+      <c r="CO67" s="24"/>
+      <c r="CP67" s="24"/>
+      <c r="CQ67" s="24"/>
+      <c r="CR67" s="24"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33787,155 +33925,157 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
+      <c r="CL68" s="24"/>
+      <c r="CM68" s="24"/>
+      <c r="CN68" s="24"/>
+      <c r="CO68" s="24"/>
+      <c r="CP68" s="24"/>
+      <c r="CQ68" s="24"/>
+      <c r="CR68" s="24"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="22" t="s">
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="22" t="s">
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="22" t="s">
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="22" t="s">
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="22" t="s">
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="22" t="s">
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="22" t="s">
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="22" t="s">
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="36"/>
+      <c r="AH69" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="22" t="s">
+      <c r="AI69" s="36"/>
+      <c r="AJ69" s="36"/>
+      <c r="AK69" s="36"/>
+      <c r="AL69" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="22" t="s">
+      <c r="AM69" s="36"/>
+      <c r="AN69" s="36"/>
+      <c r="AO69" s="36"/>
+      <c r="AP69" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="22" t="s">
+      <c r="AQ69" s="36"/>
+      <c r="AR69" s="36"/>
+      <c r="AS69" s="36"/>
+      <c r="AT69" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="22" t="s">
+      <c r="AU69" s="36"/>
+      <c r="AV69" s="36"/>
+      <c r="AW69" s="36"/>
+      <c r="AX69" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="22" t="s">
+      <c r="AY69" s="36"/>
+      <c r="AZ69" s="36"/>
+      <c r="BA69" s="36"/>
+      <c r="BB69" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="22" t="s">
+      <c r="BC69" s="36"/>
+      <c r="BD69" s="36"/>
+      <c r="BE69" s="36"/>
+      <c r="BF69" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="22" t="s">
+      <c r="BG69" s="36"/>
+      <c r="BH69" s="36"/>
+      <c r="BI69" s="36"/>
+      <c r="BJ69" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="23"/>
-      <c r="BM69" s="23"/>
-      <c r="BN69" s="22" t="s">
+      <c r="BK69" s="36"/>
+      <c r="BL69" s="36"/>
+      <c r="BM69" s="36"/>
+      <c r="BN69" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="23"/>
-      <c r="BP69" s="23"/>
-      <c r="BQ69" s="23"/>
-      <c r="BR69" s="22" t="s">
+      <c r="BO69" s="36"/>
+      <c r="BP69" s="36"/>
+      <c r="BQ69" s="36"/>
+      <c r="BR69" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="23"/>
-      <c r="BT69" s="23"/>
-      <c r="BU69" s="23"/>
-      <c r="BV69" s="22" t="s">
+      <c r="BS69" s="36"/>
+      <c r="BT69" s="36"/>
+      <c r="BU69" s="36"/>
+      <c r="BV69" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="23"/>
-      <c r="BX69" s="23"/>
-      <c r="BY69" s="23"/>
-      <c r="BZ69" s="22" t="s">
+      <c r="BW69" s="36"/>
+      <c r="BX69" s="36"/>
+      <c r="BY69" s="36"/>
+      <c r="BZ69" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="23"/>
-      <c r="CB69" s="23"/>
-      <c r="CC69" s="23"/>
-      <c r="CD69" s="22" t="s">
+      <c r="CA69" s="36"/>
+      <c r="CB69" s="36"/>
+      <c r="CC69" s="36"/>
+      <c r="CD69" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="22"/>
-      <c r="CF69" s="22"/>
-      <c r="CG69" s="22"/>
-      <c r="CH69" s="22" t="s">
+      <c r="CE69" s="35"/>
+      <c r="CF69" s="35"/>
+      <c r="CG69" s="35"/>
+      <c r="CH69" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="22"/>
-      <c r="CJ69" s="22"/>
-      <c r="CK69" s="22"/>
-      <c r="CL69" s="22" t="s">
+      <c r="CI69" s="35"/>
+      <c r="CJ69" s="35"/>
+      <c r="CK69" s="35"/>
+      <c r="CL69" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="22"/>
-      <c r="CN69" s="22"/>
-      <c r="CO69" s="22"/>
+      <c r="CM69" s="36"/>
+      <c r="CN69" s="36"/>
+      <c r="CO69" s="30"/>
       <c r="CP69" s="22"/>
-      <c r="CQ69" s="23"/>
+      <c r="CQ69" s="22"/>
+      <c r="CR69" s="22"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34205,16 +34345,19 @@
       <c r="CK70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="6" t="s">
+      <c r="CL70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="6" t="s">
+      <c r="CM70" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="6"/>
-      <c r="CO70" s="6"/>
-      <c r="CP70" s="6"/>
-      <c r="CQ70" s="6"/>
+      <c r="CN70" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO70" s="31"/>
+      <c r="CP70" s="31"/>
+      <c r="CQ70" s="31"/>
+      <c r="CR70" s="31"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34306,12 +34449,13 @@
       <c r="CI71" s="1"/>
       <c r="CJ71" s="1"/>
       <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
+      <c r="CL71" s="24"/>
+      <c r="CM71" s="24"/>
+      <c r="CN71" s="24"/>
+      <c r="CO71" s="24"/>
+      <c r="CP71" s="24"/>
+      <c r="CQ71" s="24"/>
+      <c r="CR71" s="24"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34581,17 +34725,19 @@
       <c r="CK72" s="17">
         <v>9.0105129398869792</v>
       </c>
-      <c r="CL72" s="17">
+      <c r="CL72" s="32">
         <v>5.8972232878518724</v>
       </c>
-      <c r="CM72" s="17">
+      <c r="CM72" s="32">
         <v>11.803674156221476</v>
       </c>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
-      <c r="CP72" s="17"/>
-      <c r="CQ72" s="17"/>
-      <c r="CR72" s="10"/>
+      <c r="CN72" s="32">
+        <v>5.9446015669232253</v>
+      </c>
+      <c r="CO72" s="32"/>
+      <c r="CP72" s="32"/>
+      <c r="CQ72" s="32"/>
+      <c r="CR72" s="32"/>
       <c r="CS72" s="10"/>
       <c r="CT72" s="10"/>
       <c r="CU72" s="10"/>
@@ -34916,17 +35062,19 @@
       <c r="CK73" s="17">
         <v>3.1609317955277163</v>
       </c>
-      <c r="CL73" s="17">
+      <c r="CL73" s="32">
         <v>9.5619788089075399</v>
       </c>
-      <c r="CM73" s="17">
-        <v>7.4492616178799267</v>
-      </c>
-      <c r="CN73" s="17"/>
-      <c r="CO73" s="17"/>
-      <c r="CP73" s="17"/>
-      <c r="CQ73" s="17"/>
-      <c r="CR73" s="10"/>
+      <c r="CM73" s="32">
+        <v>7.6191321091468467</v>
+      </c>
+      <c r="CN73" s="32">
+        <v>7.6614952232767877</v>
+      </c>
+      <c r="CO73" s="32"/>
+      <c r="CP73" s="32"/>
+      <c r="CQ73" s="32"/>
+      <c r="CR73" s="32"/>
       <c r="CS73" s="10"/>
       <c r="CT73" s="10"/>
       <c r="CU73" s="10"/>
@@ -35251,17 +35399,19 @@
       <c r="CK74" s="17">
         <v>15.322195884648977</v>
       </c>
-      <c r="CL74" s="17">
+      <c r="CL74" s="32">
         <v>1.9011279438329893</v>
       </c>
-      <c r="CM74" s="17">
+      <c r="CM74" s="32">
         <v>2.2543958297112567</v>
       </c>
-      <c r="CN74" s="17"/>
-      <c r="CO74" s="17"/>
-      <c r="CP74" s="17"/>
-      <c r="CQ74" s="17"/>
-      <c r="CR74" s="10"/>
+      <c r="CN74" s="32">
+        <v>7.0952230210517939</v>
+      </c>
+      <c r="CO74" s="32"/>
+      <c r="CP74" s="32"/>
+      <c r="CQ74" s="32"/>
+      <c r="CR74" s="32"/>
       <c r="CS74" s="10"/>
       <c r="CT74" s="10"/>
       <c r="CU74" s="10"/>
@@ -35407,13 +35557,13 @@
       <c r="CI75" s="12"/>
       <c r="CJ75" s="12"/>
       <c r="CK75" s="12"/>
-      <c r="CL75" s="12"/>
-      <c r="CM75" s="12"/>
-      <c r="CN75" s="12"/>
-      <c r="CO75" s="12"/>
-      <c r="CP75" s="12"/>
-      <c r="CQ75" s="12"/>
-      <c r="CR75" s="10"/>
+      <c r="CL75" s="27"/>
+      <c r="CM75" s="27"/>
+      <c r="CN75" s="27"/>
+      <c r="CO75" s="27"/>
+      <c r="CP75" s="27"/>
+      <c r="CQ75" s="27"/>
+      <c r="CR75" s="27"/>
       <c r="CS75" s="10"/>
       <c r="CT75" s="10"/>
       <c r="CU75" s="10"/>
@@ -35738,17 +35888,19 @@
       <c r="CK76" s="17">
         <v>6.2869966363772676</v>
       </c>
-      <c r="CL76" s="17">
+      <c r="CL76" s="32">
         <v>7.7294972085367704</v>
       </c>
-      <c r="CM76" s="17">
-        <v>8.2250956358853671</v>
-      </c>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="10"/>
+      <c r="CM76" s="32">
+        <v>8.3491132932059742</v>
+      </c>
+      <c r="CN76" s="32">
+        <v>7.0973774235924481</v>
+      </c>
+      <c r="CO76" s="32"/>
+      <c r="CP76" s="32"/>
+      <c r="CQ76" s="32"/>
+      <c r="CR76" s="32"/>
       <c r="CS76" s="10"/>
       <c r="CT76" s="10"/>
       <c r="CU76" s="10"/>
@@ -35895,12 +36047,13 @@
       <c r="CI77" s="15"/>
       <c r="CJ77" s="15"/>
       <c r="CK77" s="15"/>
-      <c r="CL77" s="15"/>
-      <c r="CM77" s="15"/>
-      <c r="CN77" s="15"/>
-      <c r="CO77" s="15"/>
-      <c r="CP77" s="15"/>
-      <c r="CQ77" s="15"/>
+      <c r="CL77" s="29"/>
+      <c r="CM77" s="29"/>
+      <c r="CN77" s="29"/>
+      <c r="CO77" s="29"/>
+      <c r="CP77" s="29"/>
+      <c r="CQ77" s="29"/>
+      <c r="CR77" s="29"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -35994,12 +36147,13 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
+      <c r="CL78" s="24"/>
+      <c r="CM78" s="24"/>
+      <c r="CN78" s="24"/>
+      <c r="CO78" s="24"/>
+      <c r="CP78" s="24"/>
+      <c r="CQ78" s="24"/>
+      <c r="CR78" s="24"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36090,13 +36244,13 @@
       <c r="CI79" s="12"/>
       <c r="CJ79" s="12"/>
       <c r="CK79" s="12"/>
-      <c r="CL79" s="12"/>
-      <c r="CM79" s="12"/>
-      <c r="CN79" s="12"/>
-      <c r="CO79" s="12"/>
-      <c r="CP79" s="12"/>
-      <c r="CQ79" s="12"/>
-      <c r="CR79" s="10"/>
+      <c r="CL79" s="27"/>
+      <c r="CM79" s="27"/>
+      <c r="CN79" s="27"/>
+      <c r="CO79" s="27"/>
+      <c r="CP79" s="27"/>
+      <c r="CQ79" s="27"/>
+      <c r="CR79" s="27"/>
       <c r="CS79" s="10"/>
       <c r="CT79" s="10"/>
       <c r="CU79" s="10"/>
@@ -36242,13 +36396,13 @@
       <c r="CI80" s="10"/>
       <c r="CJ80" s="10"/>
       <c r="CK80" s="10"/>
-      <c r="CL80" s="10"/>
-      <c r="CM80" s="10"/>
-      <c r="CN80" s="10"/>
-      <c r="CO80" s="10"/>
-      <c r="CP80" s="10"/>
-      <c r="CQ80" s="10"/>
-      <c r="CR80" s="10"/>
+      <c r="CL80" s="33"/>
+      <c r="CM80" s="33"/>
+      <c r="CN80" s="33"/>
+      <c r="CO80" s="33"/>
+      <c r="CP80" s="33"/>
+      <c r="CQ80" s="33"/>
+      <c r="CR80" s="33"/>
       <c r="CS80" s="10"/>
       <c r="CT80" s="10"/>
       <c r="CU80" s="10"/>
@@ -36397,12 +36551,13 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
-      <c r="CN81" s="1"/>
-      <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
+      <c r="CL81" s="24"/>
+      <c r="CM81" s="24"/>
+      <c r="CN81" s="24"/>
+      <c r="CO81" s="24"/>
+      <c r="CP81" s="24"/>
+      <c r="CQ81" s="24"/>
+      <c r="CR81" s="24"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36496,12 +36651,13 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
-      <c r="CN82" s="1"/>
-      <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
+      <c r="CL82" s="24"/>
+      <c r="CM82" s="24"/>
+      <c r="CN82" s="24"/>
+      <c r="CO82" s="24"/>
+      <c r="CP82" s="24"/>
+      <c r="CQ82" s="24"/>
+      <c r="CR82" s="24"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36593,12 +36749,13 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
-      <c r="CN83" s="1"/>
-      <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
+      <c r="CL83" s="24"/>
+      <c r="CM83" s="24"/>
+      <c r="CN83" s="24"/>
+      <c r="CO83" s="24"/>
+      <c r="CP83" s="24"/>
+      <c r="CQ83" s="24"/>
+      <c r="CR83" s="24"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36692,12 +36849,13 @@
       <c r="CI84" s="1"/>
       <c r="CJ84" s="1"/>
       <c r="CK84" s="1"/>
-      <c r="CL84" s="1"/>
-      <c r="CM84" s="1"/>
-      <c r="CN84" s="1"/>
-      <c r="CO84" s="1"/>
-      <c r="CP84" s="1"/>
-      <c r="CQ84" s="1"/>
+      <c r="CL84" s="24"/>
+      <c r="CM84" s="24"/>
+      <c r="CN84" s="24"/>
+      <c r="CO84" s="24"/>
+      <c r="CP84" s="24"/>
+      <c r="CQ84" s="24"/>
+      <c r="CR84" s="24"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -36791,12 +36949,13 @@
       <c r="CI85" s="1"/>
       <c r="CJ85" s="1"/>
       <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
-      <c r="CM85" s="1"/>
-      <c r="CN85" s="1"/>
-      <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
+      <c r="CL85" s="24"/>
+      <c r="CM85" s="24"/>
+      <c r="CN85" s="24"/>
+      <c r="CO85" s="24"/>
+      <c r="CP85" s="24"/>
+      <c r="CQ85" s="24"/>
+      <c r="CR85" s="24"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -36890,12 +37049,13 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
+      <c r="CL86" s="24"/>
+      <c r="CM86" s="24"/>
+      <c r="CN86" s="24"/>
+      <c r="CO86" s="24"/>
+      <c r="CP86" s="24"/>
+      <c r="CQ86" s="24"/>
+      <c r="CR86" s="24"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -36987,157 +37147,159 @@
       <c r="CI87" s="1"/>
       <c r="CJ87" s="1"/>
       <c r="CK87" s="1"/>
-      <c r="CL87" s="1"/>
-      <c r="CM87" s="1"/>
-      <c r="CN87" s="1"/>
-      <c r="CO87" s="1"/>
-      <c r="CP87" s="1"/>
-      <c r="CQ87" s="1"/>
+      <c r="CL87" s="24"/>
+      <c r="CM87" s="24"/>
+      <c r="CN87" s="24"/>
+      <c r="CO87" s="24"/>
+      <c r="CP87" s="24"/>
+      <c r="CQ87" s="24"/>
+      <c r="CR87" s="24"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="22">
+      <c r="B88" s="35">
         <v>2000</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="22">
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="35">
         <v>2001</v>
       </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="22">
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="35">
         <v>2002</v>
       </c>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="22">
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="35">
         <v>2003</v>
       </c>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="22">
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="35">
         <v>2004</v>
       </c>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="22">
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="35">
         <v>2005</v>
       </c>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="22">
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="35">
         <v>2006</v>
       </c>
-      <c r="AA88" s="24"/>
-      <c r="AB88" s="24"/>
-      <c r="AC88" s="24"/>
-      <c r="AD88" s="22">
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="35">
         <v>2007</v>
       </c>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="22">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="35">
         <v>2008</v>
       </c>
-      <c r="AI88" s="24"/>
-      <c r="AJ88" s="24"/>
-      <c r="AK88" s="24"/>
-      <c r="AL88" s="22">
+      <c r="AI88" s="37"/>
+      <c r="AJ88" s="37"/>
+      <c r="AK88" s="37"/>
+      <c r="AL88" s="35">
         <v>2009</v>
       </c>
-      <c r="AM88" s="24"/>
-      <c r="AN88" s="24"/>
-      <c r="AO88" s="24"/>
-      <c r="AP88" s="22">
+      <c r="AM88" s="37"/>
+      <c r="AN88" s="37"/>
+      <c r="AO88" s="37"/>
+      <c r="AP88" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="24"/>
-      <c r="AR88" s="24"/>
-      <c r="AS88" s="24"/>
-      <c r="AT88" s="22">
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="37"/>
+      <c r="AS88" s="37"/>
+      <c r="AT88" s="35">
         <v>2011</v>
       </c>
-      <c r="AU88" s="24"/>
-      <c r="AV88" s="24"/>
-      <c r="AW88" s="24"/>
-      <c r="AX88" s="22">
+      <c r="AU88" s="37"/>
+      <c r="AV88" s="37"/>
+      <c r="AW88" s="37"/>
+      <c r="AX88" s="35">
         <v>2012</v>
       </c>
-      <c r="AY88" s="24"/>
-      <c r="AZ88" s="24"/>
-      <c r="BA88" s="24"/>
-      <c r="BB88" s="22">
+      <c r="AY88" s="37"/>
+      <c r="AZ88" s="37"/>
+      <c r="BA88" s="37"/>
+      <c r="BB88" s="35">
         <v>2013</v>
       </c>
-      <c r="BC88" s="24"/>
-      <c r="BD88" s="24"/>
-      <c r="BE88" s="24"/>
-      <c r="BF88" s="22">
+      <c r="BC88" s="37"/>
+      <c r="BD88" s="37"/>
+      <c r="BE88" s="37"/>
+      <c r="BF88" s="35">
         <v>2014</v>
       </c>
-      <c r="BG88" s="24"/>
-      <c r="BH88" s="24"/>
-      <c r="BI88" s="24"/>
-      <c r="BJ88" s="22">
+      <c r="BG88" s="37"/>
+      <c r="BH88" s="37"/>
+      <c r="BI88" s="37"/>
+      <c r="BJ88" s="35">
         <v>2015</v>
       </c>
-      <c r="BK88" s="24"/>
-      <c r="BL88" s="24"/>
-      <c r="BM88" s="24"/>
-      <c r="BN88" s="22">
+      <c r="BK88" s="37"/>
+      <c r="BL88" s="37"/>
+      <c r="BM88" s="37"/>
+      <c r="BN88" s="35">
         <v>2016</v>
       </c>
-      <c r="BO88" s="24"/>
-      <c r="BP88" s="24"/>
-      <c r="BQ88" s="24"/>
-      <c r="BR88" s="22">
+      <c r="BO88" s="37"/>
+      <c r="BP88" s="37"/>
+      <c r="BQ88" s="37"/>
+      <c r="BR88" s="35">
         <v>2017</v>
       </c>
-      <c r="BS88" s="24"/>
-      <c r="BT88" s="24"/>
-      <c r="BU88" s="24"/>
-      <c r="BV88" s="22">
+      <c r="BS88" s="37"/>
+      <c r="BT88" s="37"/>
+      <c r="BU88" s="37"/>
+      <c r="BV88" s="35">
         <v>2018</v>
       </c>
-      <c r="BW88" s="24"/>
-      <c r="BX88" s="24"/>
-      <c r="BY88" s="24"/>
-      <c r="BZ88" s="22">
+      <c r="BW88" s="37"/>
+      <c r="BX88" s="37"/>
+      <c r="BY88" s="37"/>
+      <c r="BZ88" s="35">
         <v>2019</v>
       </c>
-      <c r="CA88" s="24"/>
-      <c r="CB88" s="24"/>
-      <c r="CC88" s="24"/>
-      <c r="CD88" s="22">
+      <c r="CA88" s="37"/>
+      <c r="CB88" s="37"/>
+      <c r="CC88" s="37"/>
+      <c r="CD88" s="35">
         <v>2020</v>
       </c>
-      <c r="CE88" s="22"/>
-      <c r="CF88" s="22"/>
-      <c r="CG88" s="22"/>
-      <c r="CH88" s="22">
+      <c r="CE88" s="35"/>
+      <c r="CF88" s="35"/>
+      <c r="CG88" s="35"/>
+      <c r="CH88" s="35">
         <v>2021</v>
       </c>
-      <c r="CI88" s="22"/>
-      <c r="CJ88" s="22"/>
-      <c r="CK88" s="22"/>
-      <c r="CL88" s="22">
+      <c r="CI88" s="35"/>
+      <c r="CJ88" s="35"/>
+      <c r="CK88" s="35"/>
+      <c r="CL88" s="36">
         <v>2022</v>
       </c>
-      <c r="CM88" s="22"/>
-      <c r="CN88" s="22"/>
-      <c r="CO88" s="22"/>
-      <c r="CP88" s="22">
+      <c r="CM88" s="36"/>
+      <c r="CN88" s="36"/>
+      <c r="CO88" s="36"/>
+      <c r="CP88" s="36">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="23"/>
+      <c r="CQ88" s="36"/>
+      <c r="CR88" s="36"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37407,23 +37569,26 @@
       <c r="CK89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="7" t="s">
+      <c r="CL89" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="7" t="s">
+      <c r="CM89" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="7" t="s">
+      <c r="CN89" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="7" t="s">
+      <c r="CO89" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="7" t="s">
+      <c r="CP89" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="7" t="s">
+      <c r="CQ89" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CR89" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37516,12 +37681,13 @@
       <c r="CI90" s="1"/>
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
-      <c r="CL90" s="1"/>
-      <c r="CM90" s="1"/>
-      <c r="CN90" s="1"/>
-      <c r="CO90" s="1"/>
-      <c r="CP90" s="1"/>
-      <c r="CQ90" s="1"/>
+      <c r="CL90" s="24"/>
+      <c r="CM90" s="24"/>
+      <c r="CN90" s="24"/>
+      <c r="CO90" s="24"/>
+      <c r="CP90" s="24"/>
+      <c r="CQ90" s="24"/>
+      <c r="CR90" s="24"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37791,25 +37957,27 @@
       <c r="CK91" s="17">
         <v>123.02714492996768</v>
       </c>
-      <c r="CL91" s="17">
+      <c r="CL91" s="32">
         <v>106.11323721842506</v>
       </c>
-      <c r="CM91" s="17">
+      <c r="CM91" s="32">
         <v>104.11568668685609</v>
       </c>
-      <c r="CN91" s="17">
+      <c r="CN91" s="32">
         <v>107.75971278468757</v>
       </c>
-      <c r="CO91" s="17">
+      <c r="CO91" s="32">
         <v>127.74638672365242</v>
       </c>
-      <c r="CP91" s="17">
+      <c r="CP91" s="32">
         <v>110.19041341210456</v>
       </c>
-      <c r="CQ91" s="17">
+      <c r="CQ91" s="32">
         <v>108.4648191230681</v>
       </c>
-      <c r="CR91" s="10"/>
+      <c r="CR91" s="32">
+        <v>112.19212786213843</v>
+      </c>
       <c r="CS91" s="10"/>
       <c r="CT91" s="10"/>
       <c r="CU91" s="10"/>
@@ -38138,25 +38306,27 @@
       <c r="CK92" s="17">
         <v>121.88198833102291</v>
       </c>
-      <c r="CL92" s="17">
+      <c r="CL92" s="32">
         <v>98.885398435508037</v>
       </c>
-      <c r="CM92" s="17">
+      <c r="CM92" s="32">
         <v>108.16590083742723</v>
       </c>
-      <c r="CN92" s="17">
+      <c r="CN92" s="32">
         <v>117.48605856011383</v>
       </c>
-      <c r="CO92" s="17">
+      <c r="CO92" s="32">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="17">
+      <c r="CP92" s="32">
         <v>103.33665895224489</v>
       </c>
-      <c r="CQ92" s="17">
+      <c r="CQ92" s="32">
         <v>112.78167306011477</v>
       </c>
-      <c r="CR92" s="10"/>
+      <c r="CR92" s="32">
+        <v>122.78577909425907</v>
+      </c>
       <c r="CS92" s="10"/>
       <c r="CT92" s="10"/>
       <c r="CU92" s="10"/>
@@ -38485,25 +38655,27 @@
       <c r="CK93" s="17">
         <v>130.67259301784685</v>
       </c>
-      <c r="CL93" s="17">
+      <c r="CL93" s="32">
         <v>104.40018493156103</v>
       </c>
-      <c r="CM93" s="17">
+      <c r="CM93" s="32">
         <v>108.96373393037754</v>
       </c>
-      <c r="CN93" s="17">
+      <c r="CN93" s="32">
         <v>117.51309966282189</v>
       </c>
-      <c r="CO93" s="17">
+      <c r="CO93" s="32">
         <v>135.05782670478922</v>
       </c>
-      <c r="CP93" s="17">
+      <c r="CP93" s="32">
         <v>108.46520505575599</v>
       </c>
-      <c r="CQ93" s="17">
+      <c r="CQ93" s="32">
         <v>113.38232905025005</v>
       </c>
-      <c r="CR93" s="10"/>
+      <c r="CR93" s="32">
+        <v>122.33419099296216</v>
+      </c>
       <c r="CS93" s="10"/>
       <c r="CT93" s="10"/>
       <c r="CU93" s="10"/>
@@ -38653,13 +38825,13 @@
       <c r="CI94" s="12"/>
       <c r="CJ94" s="12"/>
       <c r="CK94" s="12"/>
-      <c r="CL94" s="12"/>
-      <c r="CM94" s="12"/>
-      <c r="CN94" s="12"/>
-      <c r="CO94" s="12"/>
-      <c r="CP94" s="12"/>
-      <c r="CQ94" s="12"/>
-      <c r="CR94" s="10"/>
+      <c r="CL94" s="27"/>
+      <c r="CM94" s="27"/>
+      <c r="CN94" s="27"/>
+      <c r="CO94" s="27"/>
+      <c r="CP94" s="27"/>
+      <c r="CQ94" s="27"/>
+      <c r="CR94" s="27"/>
       <c r="CS94" s="10"/>
       <c r="CT94" s="10"/>
       <c r="CU94" s="10"/>
@@ -38988,25 +39160,27 @@
       <c r="CK95" s="17">
         <v>122.95024752751603</v>
       </c>
-      <c r="CL95" s="17">
+      <c r="CL95" s="32">
         <v>101.92431826450978</v>
       </c>
-      <c r="CM95" s="17">
+      <c r="CM95" s="32">
         <v>107.27547762050038</v>
       </c>
-      <c r="CN95" s="17">
+      <c r="CN95" s="32">
         <v>114.48726152367601</v>
       </c>
-      <c r="CO95" s="17">
+      <c r="CO95" s="32">
         <v>127.03656196119222</v>
       </c>
-      <c r="CP95" s="17">
+      <c r="CP95" s="32">
         <v>106.15193860719006</v>
       </c>
-      <c r="CQ95" s="17">
-        <v>111.78823851203377</v>
-      </c>
-      <c r="CR95" s="10"/>
+      <c r="CQ95" s="32">
+        <v>111.78937560879083</v>
+      </c>
+      <c r="CR95" s="32">
+        <v>119.52546363653931</v>
+      </c>
       <c r="CS95" s="10"/>
       <c r="CT95" s="10"/>
       <c r="CU95" s="10"/>
@@ -39157,12 +39331,13 @@
       <c r="CI96" s="15"/>
       <c r="CJ96" s="15"/>
       <c r="CK96" s="15"/>
-      <c r="CL96" s="15"/>
-      <c r="CM96" s="15"/>
-      <c r="CN96" s="15"/>
-      <c r="CO96" s="15"/>
-      <c r="CP96" s="15"/>
-      <c r="CQ96" s="15"/>
+      <c r="CL96" s="29"/>
+      <c r="CM96" s="29"/>
+      <c r="CN96" s="29"/>
+      <c r="CO96" s="29"/>
+      <c r="CP96" s="29"/>
+      <c r="CQ96" s="29"/>
+      <c r="CR96" s="29"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39256,12 +39431,13 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
-      <c r="CM97" s="1"/>
-      <c r="CN97" s="1"/>
-      <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
+      <c r="CL97" s="24"/>
+      <c r="CM97" s="24"/>
+      <c r="CN97" s="24"/>
+      <c r="CO97" s="24"/>
+      <c r="CP97" s="24"/>
+      <c r="CQ97" s="24"/>
+      <c r="CR97" s="24"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39352,12 +39528,13 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
-      <c r="CM98" s="1"/>
-      <c r="CN98" s="1"/>
-      <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
+      <c r="CL98" s="24"/>
+      <c r="CM98" s="24"/>
+      <c r="CN98" s="24"/>
+      <c r="CO98" s="24"/>
+      <c r="CP98" s="24"/>
+      <c r="CQ98" s="24"/>
+      <c r="CR98" s="24"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39448,12 +39625,13 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
-      <c r="CN99" s="1"/>
-      <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
+      <c r="CL99" s="24"/>
+      <c r="CM99" s="24"/>
+      <c r="CN99" s="24"/>
+      <c r="CO99" s="24"/>
+      <c r="CP99" s="24"/>
+      <c r="CQ99" s="24"/>
+      <c r="CR99" s="24"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39547,12 +39725,13 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
+      <c r="CL100" s="24"/>
+      <c r="CM100" s="24"/>
+      <c r="CN100" s="24"/>
+      <c r="CO100" s="24"/>
+      <c r="CP100" s="24"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39646,12 +39825,13 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
-      <c r="CN101" s="1"/>
-      <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
+      <c r="CL101" s="24"/>
+      <c r="CM101" s="24"/>
+      <c r="CN101" s="24"/>
+      <c r="CO101" s="24"/>
+      <c r="CP101" s="24"/>
+      <c r="CQ101" s="24"/>
+      <c r="CR101" s="24"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -39745,12 +39925,13 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
-      <c r="CN102" s="1"/>
-      <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
+      <c r="CL102" s="24"/>
+      <c r="CM102" s="24"/>
+      <c r="CN102" s="24"/>
+      <c r="CO102" s="24"/>
+      <c r="CP102" s="24"/>
+      <c r="CQ102" s="24"/>
+      <c r="CR102" s="24"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -39842,12 +40023,13 @@
       <c r="CI103" s="1"/>
       <c r="CJ103" s="1"/>
       <c r="CK103" s="1"/>
-      <c r="CL103" s="1"/>
-      <c r="CM103" s="1"/>
-      <c r="CN103" s="1"/>
-      <c r="CO103" s="1"/>
-      <c r="CP103" s="1"/>
-      <c r="CQ103" s="1"/>
+      <c r="CL103" s="24"/>
+      <c r="CM103" s="24"/>
+      <c r="CN103" s="24"/>
+      <c r="CO103" s="24"/>
+      <c r="CP103" s="24"/>
+      <c r="CQ103" s="24"/>
+      <c r="CR103" s="24"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -39941,12 +40123,13 @@
       <c r="CI104" s="1"/>
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
-      <c r="CL104" s="1"/>
-      <c r="CM104" s="1"/>
-      <c r="CN104" s="1"/>
-      <c r="CO104" s="1"/>
-      <c r="CP104" s="1"/>
-      <c r="CQ104" s="1"/>
+      <c r="CL104" s="24"/>
+      <c r="CM104" s="24"/>
+      <c r="CN104" s="24"/>
+      <c r="CO104" s="24"/>
+      <c r="CP104" s="24"/>
+      <c r="CQ104" s="24"/>
+      <c r="CR104" s="24"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -40040,12 +40223,13 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
-      <c r="CN105" s="1"/>
-      <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
+      <c r="CL105" s="24"/>
+      <c r="CM105" s="24"/>
+      <c r="CN105" s="24"/>
+      <c r="CO105" s="24"/>
+      <c r="CP105" s="24"/>
+      <c r="CQ105" s="24"/>
+      <c r="CR105" s="24"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40139,12 +40323,13 @@
       <c r="CI106" s="1"/>
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
-      <c r="CL106" s="1"/>
-      <c r="CM106" s="1"/>
-      <c r="CN106" s="1"/>
-      <c r="CO106" s="1"/>
-      <c r="CP106" s="1"/>
-      <c r="CQ106" s="1"/>
+      <c r="CL106" s="24"/>
+      <c r="CM106" s="24"/>
+      <c r="CN106" s="24"/>
+      <c r="CO106" s="24"/>
+      <c r="CP106" s="24"/>
+      <c r="CQ106" s="24"/>
+      <c r="CR106" s="24"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40236,157 +40421,159 @@
       <c r="CI107" s="1"/>
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
-      <c r="CL107" s="1"/>
-      <c r="CM107" s="1"/>
-      <c r="CN107" s="1"/>
-      <c r="CO107" s="1"/>
-      <c r="CP107" s="1"/>
-      <c r="CQ107" s="1"/>
+      <c r="CL107" s="24"/>
+      <c r="CM107" s="24"/>
+      <c r="CN107" s="24"/>
+      <c r="CO107" s="24"/>
+      <c r="CP107" s="24"/>
+      <c r="CQ107" s="24"/>
+      <c r="CR107" s="24"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="22">
+      <c r="B108" s="35">
         <v>2000</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="22">
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="35">
         <v>2001</v>
       </c>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="22">
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="35">
         <v>2002</v>
       </c>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="22">
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="35">
         <v>2003</v>
       </c>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="22">
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="35">
         <v>2004</v>
       </c>
-      <c r="S108" s="24"/>
-      <c r="T108" s="24"/>
-      <c r="U108" s="24"/>
-      <c r="V108" s="22">
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="35">
         <v>2005</v>
       </c>
-      <c r="W108" s="24"/>
-      <c r="X108" s="24"/>
-      <c r="Y108" s="24"/>
-      <c r="Z108" s="22">
+      <c r="W108" s="37"/>
+      <c r="X108" s="37"/>
+      <c r="Y108" s="37"/>
+      <c r="Z108" s="35">
         <v>2006</v>
       </c>
-      <c r="AA108" s="24"/>
-      <c r="AB108" s="24"/>
-      <c r="AC108" s="24"/>
-      <c r="AD108" s="22">
+      <c r="AA108" s="37"/>
+      <c r="AB108" s="37"/>
+      <c r="AC108" s="37"/>
+      <c r="AD108" s="35">
         <v>2007</v>
       </c>
-      <c r="AE108" s="24"/>
-      <c r="AF108" s="24"/>
-      <c r="AG108" s="24"/>
-      <c r="AH108" s="22">
+      <c r="AE108" s="37"/>
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="37"/>
+      <c r="AH108" s="35">
         <v>2008</v>
       </c>
-      <c r="AI108" s="24"/>
-      <c r="AJ108" s="24"/>
-      <c r="AK108" s="24"/>
-      <c r="AL108" s="22">
+      <c r="AI108" s="37"/>
+      <c r="AJ108" s="37"/>
+      <c r="AK108" s="37"/>
+      <c r="AL108" s="35">
         <v>2009</v>
       </c>
-      <c r="AM108" s="24"/>
-      <c r="AN108" s="24"/>
-      <c r="AO108" s="24"/>
-      <c r="AP108" s="22">
+      <c r="AM108" s="37"/>
+      <c r="AN108" s="37"/>
+      <c r="AO108" s="37"/>
+      <c r="AP108" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="24"/>
-      <c r="AR108" s="24"/>
-      <c r="AS108" s="24"/>
-      <c r="AT108" s="22">
+      <c r="AQ108" s="37"/>
+      <c r="AR108" s="37"/>
+      <c r="AS108" s="37"/>
+      <c r="AT108" s="35">
         <v>2011</v>
       </c>
-      <c r="AU108" s="24"/>
-      <c r="AV108" s="24"/>
-      <c r="AW108" s="24"/>
-      <c r="AX108" s="22">
+      <c r="AU108" s="37"/>
+      <c r="AV108" s="37"/>
+      <c r="AW108" s="37"/>
+      <c r="AX108" s="35">
         <v>2012</v>
       </c>
-      <c r="AY108" s="24"/>
-      <c r="AZ108" s="24"/>
-      <c r="BA108" s="24"/>
-      <c r="BB108" s="22">
+      <c r="AY108" s="37"/>
+      <c r="AZ108" s="37"/>
+      <c r="BA108" s="37"/>
+      <c r="BB108" s="35">
         <v>2013</v>
       </c>
-      <c r="BC108" s="24"/>
-      <c r="BD108" s="24"/>
-      <c r="BE108" s="24"/>
-      <c r="BF108" s="22">
+      <c r="BC108" s="37"/>
+      <c r="BD108" s="37"/>
+      <c r="BE108" s="37"/>
+      <c r="BF108" s="35">
         <v>2014</v>
       </c>
-      <c r="BG108" s="24"/>
-      <c r="BH108" s="24"/>
-      <c r="BI108" s="24"/>
-      <c r="BJ108" s="22">
+      <c r="BG108" s="37"/>
+      <c r="BH108" s="37"/>
+      <c r="BI108" s="37"/>
+      <c r="BJ108" s="35">
         <v>2015</v>
       </c>
-      <c r="BK108" s="24"/>
-      <c r="BL108" s="24"/>
-      <c r="BM108" s="24"/>
-      <c r="BN108" s="22">
+      <c r="BK108" s="37"/>
+      <c r="BL108" s="37"/>
+      <c r="BM108" s="37"/>
+      <c r="BN108" s="35">
         <v>2016</v>
       </c>
-      <c r="BO108" s="24"/>
-      <c r="BP108" s="24"/>
-      <c r="BQ108" s="24"/>
-      <c r="BR108" s="22">
+      <c r="BO108" s="37"/>
+      <c r="BP108" s="37"/>
+      <c r="BQ108" s="37"/>
+      <c r="BR108" s="35">
         <v>2017</v>
       </c>
-      <c r="BS108" s="24"/>
-      <c r="BT108" s="24"/>
-      <c r="BU108" s="24"/>
-      <c r="BV108" s="22">
+      <c r="BS108" s="37"/>
+      <c r="BT108" s="37"/>
+      <c r="BU108" s="37"/>
+      <c r="BV108" s="35">
         <v>2018</v>
       </c>
-      <c r="BW108" s="24"/>
-      <c r="BX108" s="24"/>
-      <c r="BY108" s="24"/>
-      <c r="BZ108" s="22">
+      <c r="BW108" s="37"/>
+      <c r="BX108" s="37"/>
+      <c r="BY108" s="37"/>
+      <c r="BZ108" s="35">
         <v>2019</v>
       </c>
-      <c r="CA108" s="24"/>
-      <c r="CB108" s="24"/>
-      <c r="CC108" s="24"/>
-      <c r="CD108" s="22">
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="35">
         <v>2020</v>
       </c>
-      <c r="CE108" s="22"/>
-      <c r="CF108" s="22"/>
-      <c r="CG108" s="22"/>
-      <c r="CH108" s="22">
+      <c r="CE108" s="35"/>
+      <c r="CF108" s="35"/>
+      <c r="CG108" s="35"/>
+      <c r="CH108" s="35">
         <v>2021</v>
       </c>
-      <c r="CI108" s="22"/>
-      <c r="CJ108" s="22"/>
-      <c r="CK108" s="22"/>
-      <c r="CL108" s="22">
+      <c r="CI108" s="35"/>
+      <c r="CJ108" s="35"/>
+      <c r="CK108" s="35"/>
+      <c r="CL108" s="36">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
-      <c r="CP108" s="22">
+      <c r="CM108" s="36"/>
+      <c r="CN108" s="36"/>
+      <c r="CO108" s="36"/>
+      <c r="CP108" s="36">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="23"/>
+      <c r="CQ108" s="36"/>
+      <c r="CR108" s="36"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40656,23 +40843,26 @@
       <c r="CK109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="7" t="s">
+      <c r="CL109" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="7" t="s">
+      <c r="CM109" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="7" t="s">
+      <c r="CN109" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="7" t="s">
+      <c r="CO109" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CR109" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40765,12 +40955,13 @@
       <c r="CI110" s="1"/>
       <c r="CJ110" s="1"/>
       <c r="CK110" s="1"/>
-      <c r="CL110" s="1"/>
-      <c r="CM110" s="1"/>
-      <c r="CN110" s="1"/>
-      <c r="CO110" s="1"/>
-      <c r="CP110" s="1"/>
-      <c r="CQ110" s="1"/>
+      <c r="CL110" s="24"/>
+      <c r="CM110" s="24"/>
+      <c r="CN110" s="24"/>
+      <c r="CO110" s="24"/>
+      <c r="CP110" s="24"/>
+      <c r="CQ110" s="24"/>
+      <c r="CR110" s="24"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41040,25 +41231,27 @@
       <c r="CK111" s="17">
         <v>38.665837224088115</v>
       </c>
-      <c r="CL111" s="17">
+      <c r="CL111" s="32">
         <v>39.010312900568515</v>
       </c>
-      <c r="CM111" s="17">
+      <c r="CM111" s="32">
         <v>22.136957712900703</v>
       </c>
-      <c r="CN111" s="17">
+      <c r="CN111" s="32">
         <v>29.035881308905715</v>
       </c>
-      <c r="CO111" s="17">
+      <c r="CO111" s="32">
         <v>39.853275494904487</v>
       </c>
-      <c r="CP111" s="17">
+      <c r="CP111" s="32">
         <v>38.234332053722206</v>
       </c>
-      <c r="CQ111" s="17">
-        <v>22.862467730017979</v>
-      </c>
-      <c r="CR111" s="10"/>
+      <c r="CQ111" s="32">
+        <v>22.836066797337153</v>
+      </c>
+      <c r="CR111" s="32">
+        <v>28.644266040190747</v>
+      </c>
       <c r="CS111" s="10"/>
       <c r="CT111" s="10"/>
       <c r="CU111" s="10"/>
@@ -41387,25 +41580,27 @@
       <c r="CK112" s="17">
         <v>53.768651215265571</v>
       </c>
-      <c r="CL112" s="17">
+      <c r="CL112" s="32">
         <v>54.848832903600723</v>
       </c>
-      <c r="CM112" s="17">
+      <c r="CM112" s="32">
         <v>73.613165790207432</v>
       </c>
-      <c r="CN112" s="17">
+      <c r="CN112" s="32">
         <v>64.71428595241926</v>
       </c>
-      <c r="CO112" s="17">
+      <c r="CO112" s="32">
         <v>51.935517692421982</v>
       </c>
-      <c r="CP112" s="17">
+      <c r="CP112" s="32">
         <v>55.971218165440476</v>
       </c>
-      <c r="CQ112" s="17">
-        <v>73.127959878397689</v>
-      </c>
-      <c r="CR112" s="10"/>
+      <c r="CQ112" s="32">
+        <v>73.158990952148116</v>
+      </c>
+      <c r="CR112" s="32">
+        <v>65.123870045928356</v>
+      </c>
       <c r="CS112" s="10"/>
       <c r="CT112" s="10"/>
       <c r="CU112" s="10"/>
@@ -41734,25 +41929,27 @@
       <c r="CK113" s="17">
         <v>7.5655115606463079</v>
       </c>
-      <c r="CL113" s="17">
+      <c r="CL113" s="32">
         <v>6.1408541958307605</v>
       </c>
-      <c r="CM113" s="17">
+      <c r="CM113" s="32">
         <v>4.2498764968918721</v>
       </c>
-      <c r="CN113" s="17">
+      <c r="CN113" s="32">
         <v>6.2498327386750265</v>
       </c>
-      <c r="CO113" s="17">
+      <c r="CO113" s="32">
         <v>8.2112068126735345</v>
       </c>
-      <c r="CP113" s="17">
+      <c r="CP113" s="32">
         <v>5.7944497808373221</v>
       </c>
-      <c r="CQ113" s="17">
-        <v>4.009572391584336</v>
-      </c>
-      <c r="CR113" s="10"/>
+      <c r="CQ113" s="32">
+        <v>4.0049422505147385</v>
+      </c>
+      <c r="CR113" s="32">
+        <v>6.2318639138808996</v>
+      </c>
       <c r="CS113" s="10"/>
       <c r="CT113" s="10"/>
       <c r="CU113" s="10"/>
@@ -41902,13 +42099,13 @@
       <c r="CI114" s="12"/>
       <c r="CJ114" s="12"/>
       <c r="CK114" s="12"/>
-      <c r="CL114" s="12"/>
-      <c r="CM114" s="12"/>
-      <c r="CN114" s="12"/>
-      <c r="CO114" s="12"/>
-      <c r="CP114" s="12"/>
-      <c r="CQ114" s="12"/>
-      <c r="CR114" s="10"/>
+      <c r="CL114" s="27"/>
+      <c r="CM114" s="27"/>
+      <c r="CN114" s="27"/>
+      <c r="CO114" s="27"/>
+      <c r="CP114" s="27"/>
+      <c r="CQ114" s="27"/>
+      <c r="CR114" s="27"/>
       <c r="CS114" s="10"/>
       <c r="CT114" s="10"/>
       <c r="CU114" s="10"/>
@@ -42237,25 +42434,27 @@
       <c r="CK115" s="17">
         <v>100</v>
       </c>
-      <c r="CL115" s="17">
+      <c r="CL115" s="32">
         <v>100</v>
       </c>
-      <c r="CM115" s="17">
+      <c r="CM115" s="32">
         <v>100</v>
       </c>
-      <c r="CN115" s="17">
+      <c r="CN115" s="32">
         <v>100</v>
       </c>
-      <c r="CO115" s="17">
+      <c r="CO115" s="32">
         <v>100</v>
       </c>
-      <c r="CP115" s="17">
+      <c r="CP115" s="32">
         <v>100</v>
       </c>
-      <c r="CQ115" s="17">
+      <c r="CQ115" s="32">
         <v>100</v>
       </c>
-      <c r="CR115" s="10"/>
+      <c r="CR115" s="32">
+        <v>100</v>
+      </c>
       <c r="CS115" s="10"/>
       <c r="CT115" s="10"/>
       <c r="CU115" s="10"/>
@@ -42406,12 +42605,13 @@
       <c r="CI116" s="15"/>
       <c r="CJ116" s="15"/>
       <c r="CK116" s="15"/>
-      <c r="CL116" s="15"/>
-      <c r="CM116" s="15"/>
-      <c r="CN116" s="15"/>
-      <c r="CO116" s="15"/>
-      <c r="CP116" s="15"/>
-      <c r="CQ116" s="15"/>
+      <c r="CL116" s="29"/>
+      <c r="CM116" s="29"/>
+      <c r="CN116" s="29"/>
+      <c r="CO116" s="29"/>
+      <c r="CP116" s="29"/>
+      <c r="CQ116" s="29"/>
+      <c r="CR116" s="29"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42505,12 +42705,13 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
+      <c r="CL117" s="24"/>
+      <c r="CM117" s="24"/>
+      <c r="CN117" s="24"/>
+      <c r="CO117" s="24"/>
+      <c r="CP117" s="24"/>
+      <c r="CQ117" s="24"/>
+      <c r="CR117" s="24"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42601,13 +42802,13 @@
       <c r="CI118" s="12"/>
       <c r="CJ118" s="12"/>
       <c r="CK118" s="12"/>
-      <c r="CL118" s="12"/>
-      <c r="CM118" s="12"/>
-      <c r="CN118" s="12"/>
-      <c r="CO118" s="12"/>
-      <c r="CP118" s="12"/>
-      <c r="CQ118" s="12"/>
-      <c r="CR118" s="10"/>
+      <c r="CL118" s="27"/>
+      <c r="CM118" s="27"/>
+      <c r="CN118" s="27"/>
+      <c r="CO118" s="27"/>
+      <c r="CP118" s="27"/>
+      <c r="CQ118" s="27"/>
+      <c r="CR118" s="27"/>
       <c r="CS118" s="10"/>
       <c r="CT118" s="10"/>
       <c r="CU118" s="10"/>
@@ -42757,13 +42958,13 @@
       <c r="CI119" s="12"/>
       <c r="CJ119" s="12"/>
       <c r="CK119" s="12"/>
-      <c r="CL119" s="12"/>
-      <c r="CM119" s="12"/>
-      <c r="CN119" s="12"/>
-      <c r="CO119" s="12"/>
-      <c r="CP119" s="12"/>
-      <c r="CQ119" s="12"/>
-      <c r="CR119" s="10"/>
+      <c r="CL119" s="27"/>
+      <c r="CM119" s="27"/>
+      <c r="CN119" s="27"/>
+      <c r="CO119" s="27"/>
+      <c r="CP119" s="27"/>
+      <c r="CQ119" s="27"/>
+      <c r="CR119" s="27"/>
       <c r="CS119" s="10"/>
       <c r="CT119" s="10"/>
       <c r="CU119" s="10"/>
@@ -42916,12 +43117,13 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
-      <c r="CM120" s="1"/>
-      <c r="CN120" s="1"/>
-      <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
+      <c r="CL120" s="24"/>
+      <c r="CM120" s="24"/>
+      <c r="CN120" s="24"/>
+      <c r="CO120" s="24"/>
+      <c r="CP120" s="24"/>
+      <c r="CQ120" s="24"/>
+      <c r="CR120" s="24"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43015,12 +43217,13 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
-      <c r="CN121" s="1"/>
-      <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
+      <c r="CL121" s="24"/>
+      <c r="CM121" s="24"/>
+      <c r="CN121" s="24"/>
+      <c r="CO121" s="24"/>
+      <c r="CP121" s="24"/>
+      <c r="CQ121" s="24"/>
+      <c r="CR121" s="24"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -43114,12 +43317,13 @@
       <c r="CI122" s="1"/>
       <c r="CJ122" s="1"/>
       <c r="CK122" s="1"/>
-      <c r="CL122" s="1"/>
-      <c r="CM122" s="1"/>
-      <c r="CN122" s="1"/>
-      <c r="CO122" s="1"/>
-      <c r="CP122" s="1"/>
-      <c r="CQ122" s="1"/>
+      <c r="CL122" s="24"/>
+      <c r="CM122" s="24"/>
+      <c r="CN122" s="24"/>
+      <c r="CO122" s="24"/>
+      <c r="CP122" s="24"/>
+      <c r="CQ122" s="24"/>
+      <c r="CR122" s="24"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43211,12 +43415,13 @@
       <c r="CI123" s="1"/>
       <c r="CJ123" s="1"/>
       <c r="CK123" s="1"/>
-      <c r="CL123" s="1"/>
-      <c r="CM123" s="1"/>
-      <c r="CN123" s="1"/>
-      <c r="CO123" s="1"/>
-      <c r="CP123" s="1"/>
-      <c r="CQ123" s="1"/>
+      <c r="CL123" s="24"/>
+      <c r="CM123" s="24"/>
+      <c r="CN123" s="24"/>
+      <c r="CO123" s="24"/>
+      <c r="CP123" s="24"/>
+      <c r="CQ123" s="24"/>
+      <c r="CR123" s="24"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43310,12 +43515,13 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
-      <c r="CN124" s="1"/>
-      <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
+      <c r="CL124" s="24"/>
+      <c r="CM124" s="24"/>
+      <c r="CN124" s="24"/>
+      <c r="CO124" s="24"/>
+      <c r="CP124" s="24"/>
+      <c r="CQ124" s="24"/>
+      <c r="CR124" s="24"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -43409,12 +43615,13 @@
       <c r="CI125" s="1"/>
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
-      <c r="CL125" s="1"/>
-      <c r="CM125" s="1"/>
-      <c r="CN125" s="1"/>
-      <c r="CO125" s="1"/>
-      <c r="CP125" s="1"/>
-      <c r="CQ125" s="1"/>
+      <c r="CL125" s="24"/>
+      <c r="CM125" s="24"/>
+      <c r="CN125" s="24"/>
+      <c r="CO125" s="24"/>
+      <c r="CP125" s="24"/>
+      <c r="CQ125" s="24"/>
+      <c r="CR125" s="24"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43508,12 +43715,13 @@
       <c r="CI126" s="1"/>
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
-      <c r="CL126" s="1"/>
-      <c r="CM126" s="1"/>
-      <c r="CN126" s="1"/>
-      <c r="CO126" s="1"/>
-      <c r="CP126" s="1"/>
-      <c r="CQ126" s="1"/>
+      <c r="CL126" s="24"/>
+      <c r="CM126" s="24"/>
+      <c r="CN126" s="24"/>
+      <c r="CO126" s="24"/>
+      <c r="CP126" s="24"/>
+      <c r="CQ126" s="24"/>
+      <c r="CR126" s="24"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43605,157 +43813,159 @@
       <c r="CI127" s="1"/>
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
-      <c r="CL127" s="1"/>
-      <c r="CM127" s="1"/>
-      <c r="CN127" s="1"/>
-      <c r="CO127" s="1"/>
-      <c r="CP127" s="1"/>
-      <c r="CQ127" s="1"/>
+      <c r="CL127" s="24"/>
+      <c r="CM127" s="24"/>
+      <c r="CN127" s="24"/>
+      <c r="CO127" s="24"/>
+      <c r="CP127" s="24"/>
+      <c r="CQ127" s="24"/>
+      <c r="CR127" s="24"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="22">
+      <c r="B128" s="35">
         <v>2000</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="22">
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="35">
         <v>2001</v>
       </c>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="22">
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="35">
         <v>2002</v>
       </c>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="22">
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="35">
         <v>2003</v>
       </c>
-      <c r="O128" s="24"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="22">
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="35">
         <v>2004</v>
       </c>
-      <c r="S128" s="24"/>
-      <c r="T128" s="24"/>
-      <c r="U128" s="24"/>
-      <c r="V128" s="22">
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="35">
         <v>2005</v>
       </c>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
-      <c r="Z128" s="22">
+      <c r="W128" s="37"/>
+      <c r="X128" s="37"/>
+      <c r="Y128" s="37"/>
+      <c r="Z128" s="35">
         <v>2006</v>
       </c>
-      <c r="AA128" s="24"/>
-      <c r="AB128" s="24"/>
-      <c r="AC128" s="24"/>
-      <c r="AD128" s="22">
+      <c r="AA128" s="37"/>
+      <c r="AB128" s="37"/>
+      <c r="AC128" s="37"/>
+      <c r="AD128" s="35">
         <v>2007</v>
       </c>
-      <c r="AE128" s="24"/>
-      <c r="AF128" s="24"/>
-      <c r="AG128" s="24"/>
-      <c r="AH128" s="22">
+      <c r="AE128" s="37"/>
+      <c r="AF128" s="37"/>
+      <c r="AG128" s="37"/>
+      <c r="AH128" s="35">
         <v>2008</v>
       </c>
-      <c r="AI128" s="24"/>
-      <c r="AJ128" s="24"/>
-      <c r="AK128" s="24"/>
-      <c r="AL128" s="22">
+      <c r="AI128" s="37"/>
+      <c r="AJ128" s="37"/>
+      <c r="AK128" s="37"/>
+      <c r="AL128" s="35">
         <v>2009</v>
       </c>
-      <c r="AM128" s="24"/>
-      <c r="AN128" s="24"/>
-      <c r="AO128" s="24"/>
-      <c r="AP128" s="22">
+      <c r="AM128" s="37"/>
+      <c r="AN128" s="37"/>
+      <c r="AO128" s="37"/>
+      <c r="AP128" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="24"/>
-      <c r="AR128" s="24"/>
-      <c r="AS128" s="24"/>
-      <c r="AT128" s="22">
+      <c r="AQ128" s="37"/>
+      <c r="AR128" s="37"/>
+      <c r="AS128" s="37"/>
+      <c r="AT128" s="35">
         <v>2011</v>
       </c>
-      <c r="AU128" s="24"/>
-      <c r="AV128" s="24"/>
-      <c r="AW128" s="24"/>
-      <c r="AX128" s="22">
+      <c r="AU128" s="37"/>
+      <c r="AV128" s="37"/>
+      <c r="AW128" s="37"/>
+      <c r="AX128" s="35">
         <v>2012</v>
       </c>
-      <c r="AY128" s="24"/>
-      <c r="AZ128" s="24"/>
-      <c r="BA128" s="24"/>
-      <c r="BB128" s="22">
+      <c r="AY128" s="37"/>
+      <c r="AZ128" s="37"/>
+      <c r="BA128" s="37"/>
+      <c r="BB128" s="35">
         <v>2013</v>
       </c>
-      <c r="BC128" s="24"/>
-      <c r="BD128" s="24"/>
-      <c r="BE128" s="24"/>
-      <c r="BF128" s="22">
+      <c r="BC128" s="37"/>
+      <c r="BD128" s="37"/>
+      <c r="BE128" s="37"/>
+      <c r="BF128" s="35">
         <v>2014</v>
       </c>
-      <c r="BG128" s="24"/>
-      <c r="BH128" s="24"/>
-      <c r="BI128" s="24"/>
-      <c r="BJ128" s="22">
+      <c r="BG128" s="37"/>
+      <c r="BH128" s="37"/>
+      <c r="BI128" s="37"/>
+      <c r="BJ128" s="35">
         <v>2015</v>
       </c>
-      <c r="BK128" s="24"/>
-      <c r="BL128" s="24"/>
-      <c r="BM128" s="24"/>
-      <c r="BN128" s="22">
+      <c r="BK128" s="37"/>
+      <c r="BL128" s="37"/>
+      <c r="BM128" s="37"/>
+      <c r="BN128" s="35">
         <v>2016</v>
       </c>
-      <c r="BO128" s="24"/>
-      <c r="BP128" s="24"/>
-      <c r="BQ128" s="24"/>
-      <c r="BR128" s="22">
+      <c r="BO128" s="37"/>
+      <c r="BP128" s="37"/>
+      <c r="BQ128" s="37"/>
+      <c r="BR128" s="35">
         <v>2017</v>
       </c>
-      <c r="BS128" s="24"/>
-      <c r="BT128" s="24"/>
-      <c r="BU128" s="24"/>
-      <c r="BV128" s="22">
+      <c r="BS128" s="37"/>
+      <c r="BT128" s="37"/>
+      <c r="BU128" s="37"/>
+      <c r="BV128" s="35">
         <v>2018</v>
       </c>
-      <c r="BW128" s="24"/>
-      <c r="BX128" s="24"/>
-      <c r="BY128" s="24"/>
-      <c r="BZ128" s="22">
+      <c r="BW128" s="37"/>
+      <c r="BX128" s="37"/>
+      <c r="BY128" s="37"/>
+      <c r="BZ128" s="35">
         <v>2019</v>
       </c>
-      <c r="CA128" s="24"/>
-      <c r="CB128" s="24"/>
-      <c r="CC128" s="24"/>
-      <c r="CD128" s="22">
+      <c r="CA128" s="37"/>
+      <c r="CB128" s="37"/>
+      <c r="CC128" s="37"/>
+      <c r="CD128" s="35">
         <v>2020</v>
       </c>
-      <c r="CE128" s="22"/>
-      <c r="CF128" s="22"/>
-      <c r="CG128" s="22"/>
-      <c r="CH128" s="22">
+      <c r="CE128" s="35"/>
+      <c r="CF128" s="35"/>
+      <c r="CG128" s="35"/>
+      <c r="CH128" s="35">
         <v>2021</v>
       </c>
-      <c r="CI128" s="22"/>
-      <c r="CJ128" s="22"/>
-      <c r="CK128" s="22"/>
-      <c r="CL128" s="22">
+      <c r="CI128" s="35"/>
+      <c r="CJ128" s="35"/>
+      <c r="CK128" s="35"/>
+      <c r="CL128" s="36">
         <v>2022</v>
       </c>
-      <c r="CM128" s="22"/>
-      <c r="CN128" s="22"/>
-      <c r="CO128" s="22"/>
-      <c r="CP128" s="22">
+      <c r="CM128" s="36"/>
+      <c r="CN128" s="36"/>
+      <c r="CO128" s="36"/>
+      <c r="CP128" s="36">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="23"/>
+      <c r="CQ128" s="36"/>
+      <c r="CR128" s="36"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44025,23 +44235,26 @@
       <c r="CK129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="7" t="s">
+      <c r="CL129" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="7" t="s">
+      <c r="CM129" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="7" t="s">
+      <c r="CN129" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="7" t="s">
+      <c r="CO129" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="7" t="s">
+      <c r="CP129" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="7" t="s">
+      <c r="CQ129" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CR129" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44134,12 +44347,13 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
-      <c r="CN130" s="1"/>
-      <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
+      <c r="CL130" s="24"/>
+      <c r="CM130" s="24"/>
+      <c r="CN130" s="24"/>
+      <c r="CO130" s="24"/>
+      <c r="CP130" s="24"/>
+      <c r="CQ130" s="24"/>
+      <c r="CR130" s="24"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44409,25 +44623,27 @@
       <c r="CK131" s="17">
         <v>38.641669367085157</v>
       </c>
-      <c r="CL131" s="17">
+      <c r="CL131" s="32">
         <v>37.470344434890769</v>
       </c>
-      <c r="CM131" s="17">
+      <c r="CM131" s="32">
         <v>22.808788831779747</v>
       </c>
-      <c r="CN131" s="17">
+      <c r="CN131" s="32">
         <v>30.848620983476415</v>
       </c>
-      <c r="CO131" s="17">
+      <c r="CO131" s="32">
         <v>39.631830156707736</v>
       </c>
-      <c r="CP131" s="17">
+      <c r="CP131" s="32">
         <v>36.833045118676274</v>
       </c>
-      <c r="CQ131" s="17">
-        <v>23.562985825635071</v>
-      </c>
-      <c r="CR131" s="10"/>
+      <c r="CQ131" s="32">
+        <v>23.536015357555037</v>
+      </c>
+      <c r="CR131" s="32">
+        <v>30.51657227848677</v>
+      </c>
       <c r="CS131" s="10"/>
       <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
@@ -44756,25 +44972,27 @@
       <c r="CK132" s="17">
         <v>54.239917371407842</v>
       </c>
-      <c r="CL132" s="17">
+      <c r="CL132" s="32">
         <v>56.53443268421001</v>
       </c>
-      <c r="CM132" s="17">
+      <c r="CM132" s="32">
         <v>73.007181174135098</v>
       </c>
-      <c r="CN132" s="17">
+      <c r="CN132" s="32">
         <v>63.062472866613781</v>
       </c>
-      <c r="CO132" s="17">
+      <c r="CO132" s="32">
         <v>52.64463757207902</v>
       </c>
-      <c r="CP132" s="17">
+      <c r="CP132" s="32">
         <v>57.496084881292809</v>
       </c>
-      <c r="CQ132" s="17">
-        <v>72.483814071701261</v>
-      </c>
-      <c r="CR132" s="10"/>
+      <c r="CQ132" s="32">
+        <v>72.515309418672786</v>
+      </c>
+      <c r="CR132" s="32">
+        <v>63.394644057841589</v>
+      </c>
       <c r="CS132" s="10"/>
       <c r="CT132" s="10"/>
       <c r="CU132" s="10"/>
@@ -45103,25 +45321,27 @@
       <c r="CK133" s="17">
         <v>7.1184132615069977</v>
       </c>
-      <c r="CL133" s="17">
+      <c r="CL133" s="32">
         <v>5.9952228808992203</v>
       </c>
-      <c r="CM133" s="17">
+      <c r="CM133" s="32">
         <v>4.1840299940851606</v>
       </c>
-      <c r="CN133" s="17">
+      <c r="CN133" s="32">
         <v>6.0889061499098052</v>
       </c>
-      <c r="CO133" s="17">
+      <c r="CO133" s="32">
         <v>7.7235322712132417</v>
       </c>
-      <c r="CP133" s="17">
+      <c r="CP133" s="32">
         <v>5.6708700000309245</v>
       </c>
-      <c r="CQ133" s="17">
-        <v>3.9532001026636778</v>
-      </c>
-      <c r="CR133" s="10"/>
+      <c r="CQ133" s="32">
+        <v>3.9486752237721889</v>
+      </c>
+      <c r="CR133" s="32">
+        <v>6.0887836636716299</v>
+      </c>
       <c r="CS133" s="10"/>
       <c r="CT133" s="10"/>
       <c r="CU133" s="10"/>
@@ -45271,13 +45491,13 @@
       <c r="CI134" s="12"/>
       <c r="CJ134" s="12"/>
       <c r="CK134" s="12"/>
-      <c r="CL134" s="12"/>
-      <c r="CM134" s="12"/>
-      <c r="CN134" s="12"/>
-      <c r="CO134" s="12"/>
-      <c r="CP134" s="12"/>
-      <c r="CQ134" s="12"/>
-      <c r="CR134" s="10"/>
+      <c r="CL134" s="27"/>
+      <c r="CM134" s="27"/>
+      <c r="CN134" s="27"/>
+      <c r="CO134" s="27"/>
+      <c r="CP134" s="27"/>
+      <c r="CQ134" s="27"/>
+      <c r="CR134" s="27"/>
       <c r="CS134" s="10"/>
       <c r="CT134" s="10"/>
       <c r="CU134" s="10"/>
@@ -45606,25 +45826,27 @@
       <c r="CK135" s="17">
         <v>100</v>
       </c>
-      <c r="CL135" s="17">
+      <c r="CL135" s="32">
         <v>100</v>
       </c>
-      <c r="CM135" s="17">
+      <c r="CM135" s="32">
         <v>100</v>
       </c>
-      <c r="CN135" s="17">
+      <c r="CN135" s="32">
         <v>100</v>
       </c>
-      <c r="CO135" s="17">
+      <c r="CO135" s="32">
         <v>100</v>
       </c>
-      <c r="CP135" s="17">
+      <c r="CP135" s="32">
         <v>100</v>
       </c>
-      <c r="CQ135" s="17">
+      <c r="CQ135" s="32">
         <v>100</v>
       </c>
-      <c r="CR135" s="10"/>
+      <c r="CR135" s="32">
+        <v>100</v>
+      </c>
       <c r="CS135" s="10"/>
       <c r="CT135" s="10"/>
       <c r="CU135" s="10"/>
@@ -45775,12 +45997,13 @@
       <c r="CI136" s="15"/>
       <c r="CJ136" s="15"/>
       <c r="CK136" s="15"/>
-      <c r="CL136" s="15"/>
-      <c r="CM136" s="15"/>
-      <c r="CN136" s="15"/>
-      <c r="CO136" s="15"/>
-      <c r="CP136" s="15"/>
-      <c r="CQ136" s="15"/>
+      <c r="CL136" s="29"/>
+      <c r="CM136" s="29"/>
+      <c r="CN136" s="29"/>
+      <c r="CO136" s="29"/>
+      <c r="CP136" s="29"/>
+      <c r="CQ136" s="29"/>
+      <c r="CR136" s="29"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -45874,12 +46097,13 @@
       <c r="CI137" s="1"/>
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
-      <c r="CL137" s="1"/>
-      <c r="CM137" s="1"/>
-      <c r="CN137" s="1"/>
-      <c r="CO137" s="1"/>
-      <c r="CP137" s="1"/>
-      <c r="CQ137" s="1"/>
+      <c r="CL137" s="24"/>
+      <c r="CM137" s="24"/>
+      <c r="CN137" s="24"/>
+      <c r="CO137" s="24"/>
+      <c r="CP137" s="24"/>
+      <c r="CQ137" s="24"/>
+      <c r="CR137" s="24"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -45971,13 +46195,13 @@
       <c r="CI138" s="11"/>
       <c r="CJ138" s="11"/>
       <c r="CK138" s="11"/>
-      <c r="CL138" s="11"/>
-      <c r="CM138" s="11"/>
-      <c r="CN138" s="11"/>
-      <c r="CO138" s="11"/>
-      <c r="CP138" s="11"/>
-      <c r="CQ138" s="11"/>
-      <c r="CR138" s="19"/>
+      <c r="CL138" s="34"/>
+      <c r="CM138" s="34"/>
+      <c r="CN138" s="34"/>
+      <c r="CO138" s="34"/>
+      <c r="CP138" s="34"/>
+      <c r="CQ138" s="34"/>
+      <c r="CR138" s="34"/>
       <c r="CS138" s="19"/>
       <c r="CT138" s="19"/>
       <c r="CU138" s="19"/>
@@ -46128,13 +46352,13 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="11"/>
-      <c r="CM139" s="11"/>
-      <c r="CN139" s="11"/>
-      <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="19"/>
+      <c r="CL139" s="34"/>
+      <c r="CM139" s="34"/>
+      <c r="CN139" s="34"/>
+      <c r="CO139" s="34"/>
+      <c r="CP139" s="34"/>
+      <c r="CQ139" s="34"/>
+      <c r="CR139" s="34"/>
       <c r="CS139" s="19"/>
       <c r="CT139" s="19"/>
       <c r="CU139" s="19"/>
@@ -46196,19 +46420,15 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP29:CQ29"/>
-    <mergeCell ref="CP88:CQ88"/>
-    <mergeCell ref="CP108:CQ108"/>
-    <mergeCell ref="CP128:CQ128"/>
-    <mergeCell ref="CL49:CO49"/>
-    <mergeCell ref="CP49:CQ49"/>
-    <mergeCell ref="CL69:CO69"/>
-    <mergeCell ref="CP69:CQ69"/>
+  <mergeCells count="166">
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CL108:CO108"/>
     <mergeCell ref="CL88:CO88"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP29:CR29"/>
+    <mergeCell ref="CP88:CR88"/>
+    <mergeCell ref="CP108:CR108"/>
+    <mergeCell ref="CP128:CR128"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -46221,6 +46441,8 @@
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CL49:CN49"/>
+    <mergeCell ref="CL69:CN69"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BR88:BU88"/>
@@ -46371,9 +46593,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="94" man="1"/>
-    <brk id="80" max="94" man="1"/>
-    <brk id="99" max="94" man="1"/>
+    <brk id="40" max="95" man="1"/>
+    <brk id="80" max="95" man="1"/>
+    <brk id="99" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A6A1F-96F4-4FAD-89CF-612326D9359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B251F-67FE-42F0-9263-57F7F4DB0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CR$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CS$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,25 +759,13 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23333,9 +23321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23373,7 +23361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23479,7 +23467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23621,7 +23609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23636,98 +23624,48 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR5" sqref="CR5"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="9.33203125" style="34" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="97" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL1" s="23"/>
-      <c r="CM1" s="23"/>
-      <c r="CN1" s="23"/>
-      <c r="CO1" s="23"/>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="CL2" s="23"/>
-      <c r="CM2" s="23"/>
-      <c r="CN2" s="23"/>
-      <c r="CO2" s="23"/>
-      <c r="CP2" s="23"/>
-      <c r="CQ2" s="23"/>
-      <c r="CR2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL3" s="23"/>
-      <c r="CM3" s="23"/>
-      <c r="CN3" s="23"/>
-      <c r="CO3" s="23"/>
-      <c r="CP3" s="23"/>
-      <c r="CQ3" s="23"/>
-      <c r="CR3" s="23"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="CL4" s="23"/>
-      <c r="CM4" s="23"/>
-      <c r="CN4" s="23"/>
-      <c r="CO4" s="23"/>
-      <c r="CP4" s="23"/>
-      <c r="CQ4" s="23"/>
-      <c r="CR4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="CL5" s="23"/>
-      <c r="CM5" s="23"/>
-      <c r="CN5" s="23"/>
-      <c r="CO5" s="23"/>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL6" s="23"/>
-      <c r="CM6" s="23"/>
-      <c r="CN6" s="23"/>
-      <c r="CO6" s="23"/>
-      <c r="CP6" s="23"/>
-      <c r="CQ6" s="23"/>
-      <c r="CR6" s="23"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CL7" s="23"/>
-      <c r="CM7" s="23"/>
-      <c r="CN7" s="23"/>
-      <c r="CO7" s="23"/>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23819,159 +23757,161 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="24"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="35"/>
-      <c r="CJ9" s="35"/>
-      <c r="CK9" s="35"/>
-      <c r="CL9" s="36">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="24">
         <v>2022</v>
       </c>
-      <c r="CM9" s="36"/>
-      <c r="CN9" s="36"/>
-      <c r="CO9" s="36"/>
-      <c r="CP9" s="36">
+      <c r="CM9" s="24"/>
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="24"/>
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="36"/>
-      <c r="CR9" s="36"/>
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24241,26 +24181,29 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="25" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="25" t="s">
+      <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="25" t="s">
+      <c r="CN10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="25" t="s">
+      <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="25" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="25" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="25" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24353,13 +24296,14 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="24"/>
-      <c r="CM11" s="24"/>
-      <c r="CN11" s="24"/>
-      <c r="CO11" s="24"/>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="24"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24629,28 +24573,30 @@
       <c r="CK12" s="9">
         <v>43550.017248096432</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="9">
         <v>36526.139943664632</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="9">
         <v>20059.899584121988</v>
       </c>
-      <c r="CN12" s="26">
+      <c r="CN12" s="9">
         <v>30131.143716784616</v>
       </c>
-      <c r="CO12" s="26">
+      <c r="CO12" s="9">
         <v>49295.172883435189</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="9">
         <v>40166.371432009095</v>
       </c>
-      <c r="CQ12" s="26">
+      <c r="CQ12" s="9">
         <v>23364.557429517939</v>
       </c>
-      <c r="CR12" s="26">
+      <c r="CR12" s="9">
         <v>33235.361642180709</v>
       </c>
-      <c r="CS12" s="10"/>
+      <c r="CS12" s="9">
+        <v>53456.543862217448</v>
+      </c>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
@@ -24978,28 +24924,30 @@
       <c r="CK13" s="9">
         <v>60560.584121346947</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="9">
         <v>51356.064522989262</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="9">
         <v>66706.217402237162</v>
       </c>
-      <c r="CN13" s="26">
+      <c r="CN13" s="9">
         <v>67155.373374645045</v>
       </c>
-      <c r="CO13" s="26">
+      <c r="CO13" s="9">
         <v>64239.897264303501</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="9">
         <v>58799.529574003187</v>
       </c>
-      <c r="CQ13" s="26">
+      <c r="CQ13" s="9">
         <v>74852.095185952407</v>
       </c>
-      <c r="CR13" s="26">
-        <v>75561.90720606767</v>
-      </c>
-      <c r="CS13" s="10"/>
+      <c r="CR13" s="9">
+        <v>75606.109678362176</v>
+      </c>
+      <c r="CS13" s="9">
+        <v>73010.702096350607</v>
+      </c>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
@@ -25327,28 +25275,30 @@
       <c r="CK14" s="9">
         <v>8521.169658045339</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="9">
         <v>5749.8051938795297</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="9">
         <v>3851.1206859689173</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="9">
         <v>6485.5826641337062</v>
       </c>
-      <c r="CO14" s="26">
+      <c r="CO14" s="9">
         <v>10156.576953483676</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="9">
         <v>6087.2522060595948</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="9">
         <v>4097.6278465329142</v>
       </c>
-      <c r="CR14" s="26">
+      <c r="CR14" s="9">
         <v>7230.705460984057</v>
       </c>
-      <c r="CS14" s="10"/>
+      <c r="CS14" s="9">
+        <v>10702.677431811253</v>
+      </c>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
@@ -25497,14 +25447,14 @@
       <c r="CI15" s="12"/>
       <c r="CJ15" s="12"/>
       <c r="CK15" s="12"/>
-      <c r="CL15" s="27"/>
-      <c r="CM15" s="27"/>
-      <c r="CN15" s="27"/>
-      <c r="CO15" s="27"/>
-      <c r="CP15" s="27"/>
-      <c r="CQ15" s="27"/>
-      <c r="CR15" s="27"/>
-      <c r="CS15" s="10"/>
+      <c r="CL15" s="12"/>
+      <c r="CM15" s="12"/>
+      <c r="CN15" s="12"/>
+      <c r="CO15" s="12"/>
+      <c r="CP15" s="12"/>
+      <c r="CQ15" s="12"/>
+      <c r="CR15" s="12"/>
+      <c r="CS15" s="12"/>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
@@ -25832,28 +25782,30 @@
       <c r="CK16" s="21">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="28">
+      <c r="CL16" s="22">
         <v>93632.009660533426</v>
       </c>
-      <c r="CM16" s="28">
+      <c r="CM16" s="22">
         <v>90617.237672328061</v>
       </c>
-      <c r="CN16" s="28">
+      <c r="CN16" s="22">
         <v>103772.09975556337</v>
       </c>
-      <c r="CO16" s="28">
+      <c r="CO16" s="22">
         <v>123691.64710122236</v>
       </c>
-      <c r="CP16" s="28">
+      <c r="CP16" s="22">
         <v>105053.15321207188</v>
       </c>
-      <c r="CQ16" s="28">
+      <c r="CQ16" s="22">
         <v>102314.28046200325</v>
       </c>
-      <c r="CR16" s="28">
-        <v>116027.97430923244</v>
-      </c>
-      <c r="CS16" s="10"/>
+      <c r="CR16" s="22">
+        <v>116072.17678152694</v>
+      </c>
+      <c r="CS16" s="22">
+        <v>137169.92339037932</v>
+      </c>
       <c r="CT16" s="10"/>
       <c r="CU16" s="10"/>
       <c r="CV16" s="10"/>
@@ -26003,13 +25955,14 @@
       <c r="CI17" s="15"/>
       <c r="CJ17" s="15"/>
       <c r="CK17" s="15"/>
-      <c r="CL17" s="29"/>
-      <c r="CM17" s="29"/>
-      <c r="CN17" s="29"/>
-      <c r="CO17" s="29"/>
-      <c r="CP17" s="29"/>
-      <c r="CQ17" s="29"/>
-      <c r="CR17" s="29"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
+      <c r="CP17" s="15"/>
+      <c r="CQ17" s="15"/>
+      <c r="CR17" s="15"/>
+      <c r="CS17" s="15"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26103,13 +26056,14 @@
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26200,14 +26154,14 @@
       <c r="CI19" s="12"/>
       <c r="CJ19" s="12"/>
       <c r="CK19" s="12"/>
-      <c r="CL19" s="27"/>
-      <c r="CM19" s="27"/>
-      <c r="CN19" s="27"/>
-      <c r="CO19" s="27"/>
-      <c r="CP19" s="27"/>
-      <c r="CQ19" s="27"/>
-      <c r="CR19" s="27"/>
-      <c r="CS19" s="10"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="12"/>
+      <c r="CO19" s="12"/>
+      <c r="CP19" s="12"/>
+      <c r="CQ19" s="12"/>
+      <c r="CR19" s="12"/>
+      <c r="CS19" s="12"/>
       <c r="CT19" s="10"/>
       <c r="CU19" s="10"/>
       <c r="CV19" s="10"/>
@@ -26356,14 +26310,14 @@
       <c r="CI20" s="12"/>
       <c r="CJ20" s="12"/>
       <c r="CK20" s="12"/>
-      <c r="CL20" s="27"/>
-      <c r="CM20" s="27"/>
-      <c r="CN20" s="27"/>
-      <c r="CO20" s="27"/>
-      <c r="CP20" s="27"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
-      <c r="CS20" s="10"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
+      <c r="CS20" s="12"/>
       <c r="CT20" s="10"/>
       <c r="CU20" s="10"/>
       <c r="CV20" s="10"/>
@@ -26515,13 +26469,14 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="24"/>
-      <c r="CM21" s="24"/>
-      <c r="CN21" s="24"/>
-      <c r="CO21" s="24"/>
-      <c r="CP21" s="24"/>
-      <c r="CQ21" s="24"/>
-      <c r="CR21" s="24"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26615,17 +26570,18 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="24"/>
-      <c r="CM22" s="24"/>
-      <c r="CN22" s="24"/>
-      <c r="CO22" s="24"/>
-      <c r="CP22" s="24"/>
-      <c r="CQ22" s="24"/>
-      <c r="CR22" s="24"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26715,13 +26671,14 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="24"/>
-      <c r="CM23" s="24"/>
-      <c r="CN23" s="24"/>
-      <c r="CO23" s="24"/>
-      <c r="CP23" s="24"/>
-      <c r="CQ23" s="24"/>
-      <c r="CR23" s="24"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26813,13 +26770,14 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="24"/>
-      <c r="CM24" s="24"/>
-      <c r="CN24" s="24"/>
-      <c r="CO24" s="24"/>
-      <c r="CP24" s="24"/>
-      <c r="CQ24" s="24"/>
-      <c r="CR24" s="24"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26913,17 +26871,18 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="24"/>
-      <c r="CM25" s="24"/>
-      <c r="CN25" s="24"/>
-      <c r="CO25" s="24"/>
-      <c r="CP25" s="24"/>
-      <c r="CQ25" s="24"/>
-      <c r="CR25" s="24"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -27013,13 +26972,14 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="24"/>
-      <c r="CM26" s="24"/>
-      <c r="CN26" s="24"/>
-      <c r="CO26" s="24"/>
-      <c r="CP26" s="24"/>
-      <c r="CQ26" s="24"/>
-      <c r="CR26" s="24"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27113,13 +27073,14 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="24"/>
-      <c r="CM27" s="24"/>
-      <c r="CN27" s="24"/>
-      <c r="CO27" s="24"/>
-      <c r="CP27" s="24"/>
-      <c r="CQ27" s="24"/>
-      <c r="CR27" s="24"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27211,159 +27172,161 @@
       <c r="CI28" s="1"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
-      <c r="CL28" s="24"/>
-      <c r="CM28" s="24"/>
-      <c r="CN28" s="24"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="24"/>
-      <c r="CQ28" s="24"/>
-      <c r="CR28" s="24"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="35">
+      <c r="B29" s="25">
         <v>2000</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25">
         <v>2001</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="35">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="25">
         <v>2002</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="35">
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="25">
         <v>2003</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="35">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="25">
         <v>2004</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="35">
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="25">
         <v>2005</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="35">
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="25">
         <v>2006</v>
       </c>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="35">
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="25">
         <v>2007</v>
       </c>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="35">
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="25">
         <v>2008</v>
       </c>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="35">
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="25">
         <v>2009</v>
       </c>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="35">
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="35">
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="25">
         <v>2011</v>
       </c>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="35">
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="25">
         <v>2012</v>
       </c>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="35">
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="25">
         <v>2013</v>
       </c>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="35">
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="25">
         <v>2014</v>
       </c>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="35">
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="25">
         <v>2015</v>
       </c>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="35">
+      <c r="BK29" s="27"/>
+      <c r="BL29" s="27"/>
+      <c r="BM29" s="27"/>
+      <c r="BN29" s="25">
         <v>2016</v>
       </c>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="35">
+      <c r="BO29" s="27"/>
+      <c r="BP29" s="27"/>
+      <c r="BQ29" s="27"/>
+      <c r="BR29" s="25">
         <v>2017</v>
       </c>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="35">
+      <c r="BS29" s="27"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="25">
         <v>2018</v>
       </c>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="35">
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
+      <c r="BY29" s="27"/>
+      <c r="BZ29" s="25">
         <v>2019</v>
       </c>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="35">
+      <c r="CA29" s="27"/>
+      <c r="CB29" s="27"/>
+      <c r="CC29" s="27"/>
+      <c r="CD29" s="25">
         <v>2020</v>
       </c>
-      <c r="CE29" s="35"/>
-      <c r="CF29" s="35"/>
-      <c r="CG29" s="35"/>
-      <c r="CH29" s="35">
+      <c r="CE29" s="25"/>
+      <c r="CF29" s="25"/>
+      <c r="CG29" s="25"/>
+      <c r="CH29" s="25">
         <v>2021</v>
       </c>
-      <c r="CI29" s="35"/>
-      <c r="CJ29" s="35"/>
-      <c r="CK29" s="35"/>
-      <c r="CL29" s="36">
+      <c r="CI29" s="25"/>
+      <c r="CJ29" s="25"/>
+      <c r="CK29" s="25"/>
+      <c r="CL29" s="24">
         <v>2022</v>
       </c>
-      <c r="CM29" s="36"/>
-      <c r="CN29" s="36"/>
-      <c r="CO29" s="36"/>
-      <c r="CP29" s="36">
+      <c r="CM29" s="24"/>
+      <c r="CN29" s="24"/>
+      <c r="CO29" s="24"/>
+      <c r="CP29" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="36"/>
-      <c r="CR29" s="36"/>
+      <c r="CQ29" s="24"/>
+      <c r="CR29" s="24"/>
+      <c r="CS29" s="24"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27633,26 +27596,29 @@
       <c r="CK30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="25" t="s">
+      <c r="CL30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="25" t="s">
+      <c r="CM30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="25" t="s">
+      <c r="CN30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="25" t="s">
+      <c r="CO30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="25" t="s">
+      <c r="CP30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="25" t="s">
+      <c r="CQ30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="25" t="s">
+      <c r="CR30" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS30" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27745,13 +27711,14 @@
       <c r="CI31" s="1"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
-      <c r="CL31" s="24"/>
-      <c r="CM31" s="24"/>
-      <c r="CN31" s="24"/>
-      <c r="CO31" s="24"/>
-      <c r="CP31" s="24"/>
-      <c r="CQ31" s="24"/>
-      <c r="CR31" s="24"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -28021,28 +27988,30 @@
       <c r="CK32" s="9">
         <v>35398.705930213182</v>
       </c>
-      <c r="CL32" s="26">
+      <c r="CL32" s="9">
         <v>34421.850563731918</v>
       </c>
-      <c r="CM32" s="26">
+      <c r="CM32" s="9">
         <v>19266.932988162691</v>
       </c>
-      <c r="CN32" s="26">
+      <c r="CN32" s="9">
         <v>27961.417990217757</v>
       </c>
-      <c r="CO32" s="26">
+      <c r="CO32" s="9">
         <v>38588.310908607578</v>
       </c>
-      <c r="CP32" s="26">
+      <c r="CP32" s="9">
         <v>36451.783951285885</v>
       </c>
-      <c r="CQ32" s="26">
+      <c r="CQ32" s="9">
         <v>21541.138977982962</v>
       </c>
-      <c r="CR32" s="26">
+      <c r="CR32" s="9">
         <v>29623.612882198195</v>
       </c>
-      <c r="CS32" s="10"/>
+      <c r="CS32" s="9">
+        <v>40133.412143874542</v>
+      </c>
       <c r="CT32" s="10"/>
       <c r="CU32" s="10"/>
       <c r="CV32" s="10"/>
@@ -28370,28 +28339,30 @@
       <c r="CK33" s="9">
         <v>49687.886578342208</v>
       </c>
-      <c r="CL33" s="26">
+      <c r="CL33" s="9">
         <v>51934.93208856626</v>
       </c>
-      <c r="CM33" s="26">
+      <c r="CM33" s="9">
         <v>61670.283227702457</v>
       </c>
-      <c r="CN33" s="26">
+      <c r="CN33" s="9">
         <v>57160.291355151559</v>
       </c>
-      <c r="CO33" s="26">
+      <c r="CO33" s="9">
         <v>51258.486783722779</v>
       </c>
-      <c r="CP33" s="26">
+      <c r="CP33" s="9">
         <v>56900.939289295486</v>
       </c>
-      <c r="CQ33" s="26">
+      <c r="CQ33" s="9">
         <v>66369.023578906141</v>
       </c>
-      <c r="CR33" s="26">
-        <v>61539.624346937591</v>
-      </c>
-      <c r="CS33" s="10"/>
+      <c r="CR33" s="9">
+        <v>61575.624014505433</v>
+      </c>
+      <c r="CS33" s="9">
+        <v>55783.133648134579</v>
+      </c>
       <c r="CT33" s="10"/>
       <c r="CU33" s="10"/>
       <c r="CV33" s="10"/>
@@ -28719,28 +28690,30 @@
       <c r="CK34" s="9">
         <v>6521.0075512020676</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="9">
         <v>5507.4664835591848</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="9">
         <v>3534.3141677116109</v>
       </c>
-      <c r="CN34" s="26">
+      <c r="CN34" s="9">
         <v>5519.0295232979697</v>
       </c>
-      <c r="CO34" s="26">
+      <c r="CO34" s="9">
         <v>7520.1691018500005</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="9">
         <v>5612.1704678753649</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="9">
         <v>3613.9915989173951</v>
       </c>
-      <c r="CR34" s="26">
+      <c r="CR34" s="9">
         <v>5910.6169765736522</v>
       </c>
-      <c r="CS34" s="10"/>
+      <c r="CS34" s="9">
+        <v>7679.9023314752321</v>
+      </c>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
@@ -28889,14 +28862,14 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="27"/>
-      <c r="CM35" s="27"/>
-      <c r="CN35" s="27"/>
-      <c r="CO35" s="27"/>
-      <c r="CP35" s="27"/>
-      <c r="CQ35" s="27"/>
-      <c r="CR35" s="27"/>
-      <c r="CS35" s="10"/>
+      <c r="CL35" s="12"/>
+      <c r="CM35" s="12"/>
+      <c r="CN35" s="12"/>
+      <c r="CO35" s="12"/>
+      <c r="CP35" s="12"/>
+      <c r="CQ35" s="12"/>
+      <c r="CR35" s="12"/>
+      <c r="CS35" s="12"/>
       <c r="CT35" s="10"/>
       <c r="CU35" s="10"/>
       <c r="CV35" s="10"/>
@@ -29224,28 +29197,30 @@
       <c r="CK36" s="21">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="28">
+      <c r="CL36" s="22">
         <v>91864.249135857361</v>
       </c>
-      <c r="CM36" s="28">
+      <c r="CM36" s="22">
         <v>84471.530383576755</v>
       </c>
-      <c r="CN36" s="28">
+      <c r="CN36" s="22">
         <v>90640.738868667278</v>
       </c>
-      <c r="CO36" s="28">
+      <c r="CO36" s="22">
         <v>97366.966794180349</v>
       </c>
-      <c r="CP36" s="28">
+      <c r="CP36" s="22">
         <v>98964.89370845673</v>
       </c>
-      <c r="CQ36" s="28">
+      <c r="CQ36" s="22">
         <v>91524.154155806493</v>
       </c>
-      <c r="CR36" s="28">
-        <v>97073.854205709446</v>
-      </c>
-      <c r="CS36" s="10"/>
+      <c r="CR36" s="22">
+        <v>97109.853873277287</v>
+      </c>
+      <c r="CS36" s="22">
+        <v>103596.44812348436</v>
+      </c>
       <c r="CT36" s="10"/>
       <c r="CU36" s="10"/>
       <c r="CV36" s="10"/>
@@ -29395,13 +29370,14 @@
       <c r="CI37" s="15"/>
       <c r="CJ37" s="15"/>
       <c r="CK37" s="15"/>
-      <c r="CL37" s="29"/>
-      <c r="CM37" s="29"/>
-      <c r="CN37" s="29"/>
-      <c r="CO37" s="29"/>
-      <c r="CP37" s="29"/>
-      <c r="CQ37" s="29"/>
-      <c r="CR37" s="29"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
+      <c r="CN37" s="15"/>
+      <c r="CO37" s="15"/>
+      <c r="CP37" s="15"/>
+      <c r="CQ37" s="15"/>
+      <c r="CR37" s="15"/>
+      <c r="CS37" s="15"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29495,13 +29471,14 @@
       <c r="CI38" s="1"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
-      <c r="CL38" s="24"/>
-      <c r="CM38" s="24"/>
-      <c r="CN38" s="24"/>
-      <c r="CO38" s="24"/>
-      <c r="CP38" s="24"/>
-      <c r="CQ38" s="24"/>
-      <c r="CR38" s="24"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29592,14 +29569,14 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="27"/>
-      <c r="CM39" s="27"/>
-      <c r="CN39" s="27"/>
-      <c r="CO39" s="27"/>
-      <c r="CP39" s="27"/>
-      <c r="CQ39" s="27"/>
-      <c r="CR39" s="27"/>
-      <c r="CS39" s="10"/>
+      <c r="CL39" s="12"/>
+      <c r="CM39" s="12"/>
+      <c r="CN39" s="12"/>
+      <c r="CO39" s="12"/>
+      <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
+      <c r="CR39" s="12"/>
+      <c r="CS39" s="12"/>
       <c r="CT39" s="10"/>
       <c r="CU39" s="10"/>
       <c r="CV39" s="10"/>
@@ -29748,14 +29725,14 @@
       <c r="CI40" s="12"/>
       <c r="CJ40" s="12"/>
       <c r="CK40" s="12"/>
-      <c r="CL40" s="27"/>
-      <c r="CM40" s="27"/>
-      <c r="CN40" s="27"/>
-      <c r="CO40" s="27"/>
-      <c r="CP40" s="27"/>
-      <c r="CQ40" s="27"/>
-      <c r="CR40" s="27"/>
-      <c r="CS40" s="10"/>
+      <c r="CL40" s="12"/>
+      <c r="CM40" s="12"/>
+      <c r="CN40" s="12"/>
+      <c r="CO40" s="12"/>
+      <c r="CP40" s="12"/>
+      <c r="CQ40" s="12"/>
+      <c r="CR40" s="12"/>
+      <c r="CS40" s="12"/>
       <c r="CT40" s="10"/>
       <c r="CU40" s="10"/>
       <c r="CV40" s="10"/>
@@ -29907,13 +29884,14 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="24"/>
-      <c r="CM41" s="24"/>
-      <c r="CN41" s="24"/>
-      <c r="CO41" s="24"/>
-      <c r="CP41" s="24"/>
-      <c r="CQ41" s="24"/>
-      <c r="CR41" s="24"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -30007,17 +29985,18 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="24"/>
-      <c r="CM42" s="24"/>
-      <c r="CN42" s="24"/>
-      <c r="CO42" s="24"/>
-      <c r="CP42" s="24"/>
-      <c r="CQ42" s="24"/>
-      <c r="CR42" s="24"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30107,13 +30086,14 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="24"/>
-      <c r="CM43" s="24"/>
-      <c r="CN43" s="24"/>
-      <c r="CO43" s="24"/>
-      <c r="CP43" s="24"/>
-      <c r="CQ43" s="24"/>
-      <c r="CR43" s="24"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30205,13 +30185,14 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="24"/>
-      <c r="CM44" s="24"/>
-      <c r="CN44" s="24"/>
-      <c r="CO44" s="24"/>
-      <c r="CP44" s="24"/>
-      <c r="CQ44" s="24"/>
-      <c r="CR44" s="24"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30305,17 +30286,18 @@
       <c r="CI45" s="1"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
-      <c r="CL45" s="24"/>
-      <c r="CM45" s="24"/>
-      <c r="CN45" s="24"/>
-      <c r="CO45" s="24"/>
-      <c r="CP45" s="24"/>
-      <c r="CQ45" s="24"/>
-      <c r="CR45" s="24"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30405,13 +30387,14 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="24"/>
-      <c r="CM46" s="24"/>
-      <c r="CN46" s="24"/>
-      <c r="CO46" s="24"/>
-      <c r="CP46" s="24"/>
-      <c r="CQ46" s="24"/>
-      <c r="CR46" s="24"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30505,13 +30488,14 @@
       <c r="CI47" s="1"/>
       <c r="CJ47" s="1"/>
       <c r="CK47" s="1"/>
-      <c r="CL47" s="24"/>
-      <c r="CM47" s="24"/>
-      <c r="CN47" s="24"/>
-      <c r="CO47" s="24"/>
-      <c r="CP47" s="24"/>
-      <c r="CQ47" s="24"/>
-      <c r="CR47" s="24"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30603,157 +30587,159 @@
       <c r="CI48" s="1"/>
       <c r="CJ48" s="1"/>
       <c r="CK48" s="1"/>
-      <c r="CL48" s="24"/>
-      <c r="CM48" s="24"/>
-      <c r="CN48" s="24"/>
-      <c r="CO48" s="24"/>
-      <c r="CP48" s="24"/>
-      <c r="CQ48" s="24"/>
-      <c r="CR48" s="24"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35" t="s">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35" t="s">
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35" t="s">
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35" t="s">
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35" t="s">
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35" t="s">
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35" t="s">
+      <c r="AI49" s="25"/>
+      <c r="AJ49" s="25"/>
+      <c r="AK49" s="25"/>
+      <c r="AL49" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35" t="s">
+      <c r="AM49" s="25"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="25"/>
+      <c r="AP49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35" t="s">
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AS49" s="25"/>
+      <c r="AT49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35" t="s">
+      <c r="AU49" s="25"/>
+      <c r="AV49" s="25"/>
+      <c r="AW49" s="25"/>
+      <c r="AX49" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="35" t="s">
+      <c r="AY49" s="25"/>
+      <c r="AZ49" s="25"/>
+      <c r="BA49" s="25"/>
+      <c r="BB49" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="35"/>
-      <c r="BE49" s="35"/>
-      <c r="BF49" s="35" t="s">
+      <c r="BC49" s="25"/>
+      <c r="BD49" s="25"/>
+      <c r="BE49" s="25"/>
+      <c r="BF49" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="35"/>
-      <c r="BH49" s="35"/>
-      <c r="BI49" s="35"/>
-      <c r="BJ49" s="35" t="s">
+      <c r="BG49" s="25"/>
+      <c r="BH49" s="25"/>
+      <c r="BI49" s="25"/>
+      <c r="BJ49" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="35"/>
-      <c r="BL49" s="35"/>
-      <c r="BM49" s="35"/>
-      <c r="BN49" s="35" t="s">
+      <c r="BK49" s="25"/>
+      <c r="BL49" s="25"/>
+      <c r="BM49" s="25"/>
+      <c r="BN49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="35"/>
-      <c r="BP49" s="35"/>
-      <c r="BQ49" s="35"/>
-      <c r="BR49" s="35" t="s">
+      <c r="BO49" s="25"/>
+      <c r="BP49" s="25"/>
+      <c r="BQ49" s="25"/>
+      <c r="BR49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="35"/>
-      <c r="BT49" s="35"/>
-      <c r="BU49" s="35"/>
-      <c r="BV49" s="35" t="s">
+      <c r="BS49" s="25"/>
+      <c r="BT49" s="25"/>
+      <c r="BU49" s="25"/>
+      <c r="BV49" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="35"/>
-      <c r="BX49" s="35"/>
-      <c r="BY49" s="35"/>
-      <c r="BZ49" s="35" t="s">
+      <c r="BW49" s="25"/>
+      <c r="BX49" s="25"/>
+      <c r="BY49" s="25"/>
+      <c r="BZ49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="35"/>
-      <c r="CB49" s="35"/>
-      <c r="CC49" s="35"/>
-      <c r="CD49" s="35" t="s">
+      <c r="CA49" s="25"/>
+      <c r="CB49" s="25"/>
+      <c r="CC49" s="25"/>
+      <c r="CD49" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="35"/>
-      <c r="CF49" s="35"/>
-      <c r="CG49" s="35"/>
-      <c r="CH49" s="35" t="s">
+      <c r="CE49" s="25"/>
+      <c r="CF49" s="25"/>
+      <c r="CG49" s="25"/>
+      <c r="CH49" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="35"/>
-      <c r="CJ49" s="35"/>
-      <c r="CK49" s="35"/>
-      <c r="CL49" s="36" t="s">
+      <c r="CI49" s="25"/>
+      <c r="CJ49" s="25"/>
+      <c r="CK49" s="25"/>
+      <c r="CL49" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="36"/>
-      <c r="CN49" s="36"/>
-      <c r="CO49" s="30"/>
-      <c r="CP49" s="22"/>
-      <c r="CQ49" s="22"/>
-      <c r="CR49" s="22"/>
+      <c r="CM49" s="24"/>
+      <c r="CN49" s="24"/>
+      <c r="CO49" s="24"/>
+      <c r="CP49" s="23"/>
+      <c r="CQ49" s="23"/>
+      <c r="CR49" s="23"/>
+      <c r="CS49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31023,19 +31009,22 @@
       <c r="CK50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="31" t="s">
+      <c r="CL50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="31" t="s">
+      <c r="CM50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="31" t="s">
+      <c r="CN50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO50" s="31"/>
-      <c r="CP50" s="31"/>
-      <c r="CQ50" s="31"/>
-      <c r="CR50" s="31"/>
+      <c r="CO50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP50" s="6"/>
+      <c r="CQ50" s="6"/>
+      <c r="CR50" s="6"/>
+      <c r="CS50" s="6"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31127,13 +31116,14 @@
       <c r="CI51" s="1"/>
       <c r="CJ51" s="1"/>
       <c r="CK51" s="1"/>
-      <c r="CL51" s="24"/>
-      <c r="CM51" s="24"/>
-      <c r="CN51" s="24"/>
-      <c r="CO51" s="24"/>
-      <c r="CP51" s="24"/>
-      <c r="CQ51" s="24"/>
-      <c r="CR51" s="24"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31403,20 +31393,22 @@
       <c r="CK52" s="17">
         <v>13.19208578634921</v>
       </c>
-      <c r="CL52" s="32">
+      <c r="CL52" s="17">
         <v>9.9660996041708785</v>
       </c>
-      <c r="CM52" s="32">
+      <c r="CM52" s="17">
         <v>16.473950089020818</v>
       </c>
-      <c r="CN52" s="32">
+      <c r="CN52" s="17">
         <v>10.302356772693244</v>
       </c>
-      <c r="CO52" s="32"/>
-      <c r="CP52" s="32"/>
-      <c r="CQ52" s="32"/>
-      <c r="CR52" s="32"/>
-      <c r="CS52" s="10"/>
+      <c r="CO52" s="17">
+        <v>8.4417413214522128</v>
+      </c>
+      <c r="CP52" s="17"/>
+      <c r="CQ52" s="17"/>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="17"/>
       <c r="CT52" s="10"/>
       <c r="CU52" s="10"/>
       <c r="CV52" s="10"/>
@@ -31740,20 +31732,22 @@
       <c r="CK53" s="17">
         <v>6.0754254542595163</v>
       </c>
-      <c r="CL53" s="32">
+      <c r="CL53" s="17">
         <v>14.493838498239867</v>
       </c>
-      <c r="CM53" s="32">
+      <c r="CM53" s="17">
         <v>12.211572025731513</v>
       </c>
-      <c r="CN53" s="32">
-        <v>12.518036024495643</v>
-      </c>
-      <c r="CO53" s="32"/>
-      <c r="CP53" s="32"/>
-      <c r="CQ53" s="32"/>
-      <c r="CR53" s="32"/>
-      <c r="CS53" s="10"/>
+      <c r="CN53" s="17">
+        <v>12.583857224011453</v>
+      </c>
+      <c r="CO53" s="17">
+        <v>13.653204948260125</v>
+      </c>
+      <c r="CP53" s="17"/>
+      <c r="CQ53" s="17"/>
+      <c r="CR53" s="17"/>
+      <c r="CS53" s="17"/>
       <c r="CT53" s="10"/>
       <c r="CU53" s="10"/>
       <c r="CV53" s="10"/>
@@ -32077,20 +32071,22 @@
       <c r="CK54" s="17">
         <v>19.192286517781667</v>
       </c>
-      <c r="CL54" s="32">
+      <c r="CL54" s="17">
         <v>5.8688425225130345</v>
       </c>
-      <c r="CM54" s="32">
+      <c r="CM54" s="17">
         <v>6.400920164930568</v>
       </c>
-      <c r="CN54" s="32">
+      <c r="CN54" s="17">
         <v>11.488910641305949</v>
       </c>
-      <c r="CO54" s="32"/>
-      <c r="CP54" s="32"/>
-      <c r="CQ54" s="32"/>
-      <c r="CR54" s="32"/>
-      <c r="CS54" s="10"/>
+      <c r="CO54" s="17">
+        <v>5.3768162327590687</v>
+      </c>
+      <c r="CP54" s="17"/>
+      <c r="CQ54" s="17"/>
+      <c r="CR54" s="17"/>
+      <c r="CS54" s="17"/>
       <c r="CT54" s="10"/>
       <c r="CU54" s="10"/>
       <c r="CV54" s="10"/>
@@ -32235,14 +32231,14 @@
       <c r="CI55" s="12"/>
       <c r="CJ55" s="12"/>
       <c r="CK55" s="12"/>
-      <c r="CL55" s="27"/>
-      <c r="CM55" s="27"/>
-      <c r="CN55" s="27"/>
-      <c r="CO55" s="27"/>
-      <c r="CP55" s="27"/>
-      <c r="CQ55" s="27"/>
-      <c r="CR55" s="27"/>
-      <c r="CS55" s="10"/>
+      <c r="CL55" s="12"/>
+      <c r="CM55" s="12"/>
+      <c r="CN55" s="12"/>
+      <c r="CO55" s="12"/>
+      <c r="CP55" s="12"/>
+      <c r="CQ55" s="12"/>
+      <c r="CR55" s="12"/>
+      <c r="CS55" s="12"/>
       <c r="CT55" s="10"/>
       <c r="CU55" s="10"/>
       <c r="CV55" s="10"/>
@@ -32566,20 +32562,22 @@
       <c r="CK56" s="17">
         <v>9.8194993942112347</v>
       </c>
-      <c r="CL56" s="32">
+      <c r="CL56" s="17">
         <v>12.197904961077157</v>
       </c>
-      <c r="CM56" s="32">
+      <c r="CM56" s="17">
         <v>12.908187327417437</v>
       </c>
-      <c r="CN56" s="32">
-        <v>11.810375411635647</v>
-      </c>
-      <c r="CO56" s="32"/>
-      <c r="CP56" s="32"/>
-      <c r="CQ56" s="32"/>
-      <c r="CR56" s="32"/>
-      <c r="CS56" s="10"/>
+      <c r="CN56" s="17">
+        <v>11.852971130907619</v>
+      </c>
+      <c r="CO56" s="17">
+        <v>10.896674597701079</v>
+      </c>
+      <c r="CP56" s="17"/>
+      <c r="CQ56" s="17"/>
+      <c r="CR56" s="17"/>
+      <c r="CS56" s="17"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
@@ -32725,13 +32723,14 @@
       <c r="CI57" s="15"/>
       <c r="CJ57" s="15"/>
       <c r="CK57" s="15"/>
-      <c r="CL57" s="29"/>
-      <c r="CM57" s="29"/>
-      <c r="CN57" s="29"/>
-      <c r="CO57" s="29"/>
-      <c r="CP57" s="29"/>
-      <c r="CQ57" s="29"/>
-      <c r="CR57" s="29"/>
+      <c r="CL57" s="15"/>
+      <c r="CM57" s="15"/>
+      <c r="CN57" s="15"/>
+      <c r="CO57" s="15"/>
+      <c r="CP57" s="15"/>
+      <c r="CQ57" s="15"/>
+      <c r="CR57" s="15"/>
+      <c r="CS57" s="15"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32825,13 +32824,14 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="24"/>
-      <c r="CM58" s="24"/>
-      <c r="CN58" s="24"/>
-      <c r="CO58" s="24"/>
-      <c r="CP58" s="24"/>
-      <c r="CQ58" s="24"/>
-      <c r="CR58" s="24"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32922,14 +32922,14 @@
       <c r="CI59" s="12"/>
       <c r="CJ59" s="12"/>
       <c r="CK59" s="12"/>
-      <c r="CL59" s="27"/>
-      <c r="CM59" s="27"/>
-      <c r="CN59" s="27"/>
-      <c r="CO59" s="27"/>
-      <c r="CP59" s="27"/>
-      <c r="CQ59" s="27"/>
-      <c r="CR59" s="27"/>
-      <c r="CS59" s="10"/>
+      <c r="CL59" s="12"/>
+      <c r="CM59" s="12"/>
+      <c r="CN59" s="12"/>
+      <c r="CO59" s="12"/>
+      <c r="CP59" s="12"/>
+      <c r="CQ59" s="12"/>
+      <c r="CR59" s="12"/>
+      <c r="CS59" s="12"/>
       <c r="CT59" s="10"/>
       <c r="CU59" s="10"/>
       <c r="CV59" s="10"/>
@@ -33074,14 +33074,14 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="27"/>
-      <c r="CM60" s="27"/>
-      <c r="CN60" s="27"/>
-      <c r="CO60" s="27"/>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="27"/>
-      <c r="CS60" s="10"/>
+      <c r="CL60" s="12"/>
+      <c r="CM60" s="12"/>
+      <c r="CN60" s="12"/>
+      <c r="CO60" s="12"/>
+      <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
+      <c r="CR60" s="12"/>
+      <c r="CS60" s="12"/>
       <c r="CT60" s="10"/>
       <c r="CU60" s="10"/>
       <c r="CV60" s="10"/>
@@ -33229,13 +33229,14 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="24"/>
-      <c r="CM61" s="24"/>
-      <c r="CN61" s="24"/>
-      <c r="CO61" s="24"/>
-      <c r="CP61" s="24"/>
-      <c r="CQ61" s="24"/>
-      <c r="CR61" s="24"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33329,17 +33330,18 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="24"/>
-      <c r="CM62" s="24"/>
-      <c r="CN62" s="24"/>
-      <c r="CO62" s="24"/>
-      <c r="CP62" s="24"/>
-      <c r="CQ62" s="24"/>
-      <c r="CR62" s="24"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33429,13 +33431,14 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="24"/>
-      <c r="CM63" s="24"/>
-      <c r="CN63" s="24"/>
-      <c r="CO63" s="24"/>
-      <c r="CP63" s="24"/>
-      <c r="CQ63" s="24"/>
-      <c r="CR63" s="24"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33527,13 +33530,14 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="24"/>
-      <c r="CM64" s="24"/>
-      <c r="CN64" s="24"/>
-      <c r="CO64" s="24"/>
-      <c r="CP64" s="24"/>
-      <c r="CQ64" s="24"/>
-      <c r="CR64" s="24"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33627,17 +33631,18 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="24"/>
-      <c r="CM65" s="24"/>
-      <c r="CN65" s="24"/>
-      <c r="CO65" s="24"/>
-      <c r="CP65" s="24"/>
-      <c r="CQ65" s="24"/>
-      <c r="CR65" s="24"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33727,13 +33732,14 @@
       <c r="CI66" s="1"/>
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
-      <c r="CL66" s="24"/>
-      <c r="CM66" s="24"/>
-      <c r="CN66" s="24"/>
-      <c r="CO66" s="24"/>
-      <c r="CP66" s="24"/>
-      <c r="CQ66" s="24"/>
-      <c r="CR66" s="24"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33827,13 +33833,14 @@
       <c r="CI67" s="1"/>
       <c r="CJ67" s="1"/>
       <c r="CK67" s="1"/>
-      <c r="CL67" s="24"/>
-      <c r="CM67" s="24"/>
-      <c r="CN67" s="24"/>
-      <c r="CO67" s="24"/>
-      <c r="CP67" s="24"/>
-      <c r="CQ67" s="24"/>
-      <c r="CR67" s="24"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33925,157 +33932,159 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="24"/>
-      <c r="CM68" s="24"/>
-      <c r="CN68" s="24"/>
-      <c r="CO68" s="24"/>
-      <c r="CP68" s="24"/>
-      <c r="CQ68" s="24"/>
-      <c r="CR68" s="24"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="35" t="s">
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="35" t="s">
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="35" t="s">
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="35" t="s">
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="35" t="s">
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="35" t="s">
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="35" t="s">
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="36"/>
-      <c r="AJ69" s="36"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="35" t="s">
+      <c r="AI69" s="26"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="36"/>
-      <c r="AN69" s="36"/>
-      <c r="AO69" s="36"/>
-      <c r="AP69" s="35" t="s">
+      <c r="AM69" s="26"/>
+      <c r="AN69" s="26"/>
+      <c r="AO69" s="26"/>
+      <c r="AP69" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="36"/>
-      <c r="AR69" s="36"/>
-      <c r="AS69" s="36"/>
-      <c r="AT69" s="35" t="s">
+      <c r="AQ69" s="26"/>
+      <c r="AR69" s="26"/>
+      <c r="AS69" s="26"/>
+      <c r="AT69" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="36"/>
-      <c r="AV69" s="36"/>
-      <c r="AW69" s="36"/>
-      <c r="AX69" s="35" t="s">
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="26"/>
+      <c r="AW69" s="26"/>
+      <c r="AX69" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="36"/>
-      <c r="AZ69" s="36"/>
-      <c r="BA69" s="36"/>
-      <c r="BB69" s="35" t="s">
+      <c r="AY69" s="26"/>
+      <c r="AZ69" s="26"/>
+      <c r="BA69" s="26"/>
+      <c r="BB69" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="36"/>
-      <c r="BD69" s="36"/>
-      <c r="BE69" s="36"/>
-      <c r="BF69" s="35" t="s">
+      <c r="BC69" s="26"/>
+      <c r="BD69" s="26"/>
+      <c r="BE69" s="26"/>
+      <c r="BF69" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="36"/>
-      <c r="BH69" s="36"/>
-      <c r="BI69" s="36"/>
-      <c r="BJ69" s="35" t="s">
+      <c r="BG69" s="26"/>
+      <c r="BH69" s="26"/>
+      <c r="BI69" s="26"/>
+      <c r="BJ69" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="36"/>
-      <c r="BL69" s="36"/>
-      <c r="BM69" s="36"/>
-      <c r="BN69" s="35" t="s">
+      <c r="BK69" s="26"/>
+      <c r="BL69" s="26"/>
+      <c r="BM69" s="26"/>
+      <c r="BN69" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="36"/>
-      <c r="BP69" s="36"/>
-      <c r="BQ69" s="36"/>
-      <c r="BR69" s="35" t="s">
+      <c r="BO69" s="26"/>
+      <c r="BP69" s="26"/>
+      <c r="BQ69" s="26"/>
+      <c r="BR69" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="36"/>
-      <c r="BT69" s="36"/>
-      <c r="BU69" s="36"/>
-      <c r="BV69" s="35" t="s">
+      <c r="BS69" s="26"/>
+      <c r="BT69" s="26"/>
+      <c r="BU69" s="26"/>
+      <c r="BV69" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="36"/>
-      <c r="BX69" s="36"/>
-      <c r="BY69" s="36"/>
-      <c r="BZ69" s="35" t="s">
+      <c r="BW69" s="26"/>
+      <c r="BX69" s="26"/>
+      <c r="BY69" s="26"/>
+      <c r="BZ69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="36"/>
-      <c r="CB69" s="36"/>
-      <c r="CC69" s="36"/>
-      <c r="CD69" s="35" t="s">
+      <c r="CA69" s="26"/>
+      <c r="CB69" s="26"/>
+      <c r="CC69" s="26"/>
+      <c r="CD69" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="35"/>
-      <c r="CF69" s="35"/>
-      <c r="CG69" s="35"/>
-      <c r="CH69" s="35" t="s">
+      <c r="CE69" s="25"/>
+      <c r="CF69" s="25"/>
+      <c r="CG69" s="25"/>
+      <c r="CH69" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="35"/>
-      <c r="CJ69" s="35"/>
-      <c r="CK69" s="35"/>
-      <c r="CL69" s="36" t="s">
+      <c r="CI69" s="25"/>
+      <c r="CJ69" s="25"/>
+      <c r="CK69" s="25"/>
+      <c r="CL69" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="36"/>
-      <c r="CN69" s="36"/>
-      <c r="CO69" s="30"/>
-      <c r="CP69" s="22"/>
-      <c r="CQ69" s="22"/>
-      <c r="CR69" s="22"/>
+      <c r="CM69" s="24"/>
+      <c r="CN69" s="24"/>
+      <c r="CO69" s="24"/>
+      <c r="CP69" s="23"/>
+      <c r="CQ69" s="23"/>
+      <c r="CR69" s="23"/>
+      <c r="CS69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34345,19 +34354,22 @@
       <c r="CK70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="31" t="s">
+      <c r="CL70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="31" t="s">
+      <c r="CM70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="31" t="s">
+      <c r="CN70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO70" s="31"/>
-      <c r="CP70" s="31"/>
-      <c r="CQ70" s="31"/>
-      <c r="CR70" s="31"/>
+      <c r="CO70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP70" s="6"/>
+      <c r="CQ70" s="6"/>
+      <c r="CR70" s="6"/>
+      <c r="CS70" s="6"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34449,13 +34461,14 @@
       <c r="CI71" s="1"/>
       <c r="CJ71" s="1"/>
       <c r="CK71" s="1"/>
-      <c r="CL71" s="24"/>
-      <c r="CM71" s="24"/>
-      <c r="CN71" s="24"/>
-      <c r="CO71" s="24"/>
-      <c r="CP71" s="24"/>
-      <c r="CQ71" s="24"/>
-      <c r="CR71" s="24"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34725,20 +34738,22 @@
       <c r="CK72" s="17">
         <v>9.0105129398869792</v>
       </c>
-      <c r="CL72" s="32">
+      <c r="CL72" s="17">
         <v>5.8972232878518724</v>
       </c>
-      <c r="CM72" s="32">
+      <c r="CM72" s="17">
         <v>11.803674156221476</v>
       </c>
-      <c r="CN72" s="32">
+      <c r="CN72" s="17">
         <v>5.9446015669232253</v>
       </c>
-      <c r="CO72" s="32"/>
-      <c r="CP72" s="32"/>
-      <c r="CQ72" s="32"/>
-      <c r="CR72" s="32"/>
-      <c r="CS72" s="10"/>
+      <c r="CO72" s="17">
+        <v>4.0040654770465949</v>
+      </c>
+      <c r="CP72" s="17"/>
+      <c r="CQ72" s="17"/>
+      <c r="CR72" s="17"/>
+      <c r="CS72" s="17"/>
       <c r="CT72" s="10"/>
       <c r="CU72" s="10"/>
       <c r="CV72" s="10"/>
@@ -35062,20 +35077,22 @@
       <c r="CK73" s="17">
         <v>3.1609317955277163</v>
       </c>
-      <c r="CL73" s="32">
+      <c r="CL73" s="17">
         <v>9.5619788089075399</v>
       </c>
-      <c r="CM73" s="32">
+      <c r="CM73" s="17">
         <v>7.6191321091468467</v>
       </c>
-      <c r="CN73" s="32">
-        <v>7.6614952232767877</v>
-      </c>
-      <c r="CO73" s="32"/>
-      <c r="CP73" s="32"/>
-      <c r="CQ73" s="32"/>
-      <c r="CR73" s="32"/>
-      <c r="CS73" s="10"/>
+      <c r="CN73" s="17">
+        <v>7.7244754263414706</v>
+      </c>
+      <c r="CO73" s="17">
+        <v>8.8271175142232465</v>
+      </c>
+      <c r="CP73" s="17"/>
+      <c r="CQ73" s="17"/>
+      <c r="CR73" s="17"/>
+      <c r="CS73" s="17"/>
       <c r="CT73" s="10"/>
       <c r="CU73" s="10"/>
       <c r="CV73" s="10"/>
@@ -35399,20 +35416,22 @@
       <c r="CK74" s="17">
         <v>15.322195884648977</v>
       </c>
-      <c r="CL74" s="32">
+      <c r="CL74" s="17">
         <v>1.9011279438329893</v>
       </c>
-      <c r="CM74" s="32">
+      <c r="CM74" s="17">
         <v>2.2543958297112567</v>
       </c>
-      <c r="CN74" s="32">
+      <c r="CN74" s="17">
         <v>7.0952230210517939</v>
       </c>
-      <c r="CO74" s="32"/>
-      <c r="CP74" s="32"/>
-      <c r="CQ74" s="32"/>
-      <c r="CR74" s="32"/>
-      <c r="CS74" s="10"/>
+      <c r="CO74" s="17">
+        <v>2.1240643323557293</v>
+      </c>
+      <c r="CP74" s="17"/>
+      <c r="CQ74" s="17"/>
+      <c r="CR74" s="17"/>
+      <c r="CS74" s="17"/>
       <c r="CT74" s="10"/>
       <c r="CU74" s="10"/>
       <c r="CV74" s="10"/>
@@ -35557,14 +35576,14 @@
       <c r="CI75" s="12"/>
       <c r="CJ75" s="12"/>
       <c r="CK75" s="12"/>
-      <c r="CL75" s="27"/>
-      <c r="CM75" s="27"/>
-      <c r="CN75" s="27"/>
-      <c r="CO75" s="27"/>
-      <c r="CP75" s="27"/>
-      <c r="CQ75" s="27"/>
-      <c r="CR75" s="27"/>
-      <c r="CS75" s="10"/>
+      <c r="CL75" s="12"/>
+      <c r="CM75" s="12"/>
+      <c r="CN75" s="12"/>
+      <c r="CO75" s="12"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="12"/>
+      <c r="CR75" s="12"/>
+      <c r="CS75" s="12"/>
       <c r="CT75" s="10"/>
       <c r="CU75" s="10"/>
       <c r="CV75" s="10"/>
@@ -35888,20 +35907,22 @@
       <c r="CK76" s="17">
         <v>6.2869966363772676</v>
       </c>
-      <c r="CL76" s="32">
+      <c r="CL76" s="17">
         <v>7.7294972085367704</v>
       </c>
-      <c r="CM76" s="32">
+      <c r="CM76" s="17">
         <v>8.3491132932059742</v>
       </c>
-      <c r="CN76" s="32">
-        <v>7.0973774235924481</v>
-      </c>
-      <c r="CO76" s="32"/>
-      <c r="CP76" s="32"/>
-      <c r="CQ76" s="32"/>
-      <c r="CR76" s="32"/>
-      <c r="CS76" s="10"/>
+      <c r="CN76" s="17">
+        <v>7.1370942970614379</v>
+      </c>
+      <c r="CO76" s="17">
+        <v>6.3979412468216452</v>
+      </c>
+      <c r="CP76" s="17"/>
+      <c r="CQ76" s="17"/>
+      <c r="CR76" s="17"/>
+      <c r="CS76" s="17"/>
       <c r="CT76" s="10"/>
       <c r="CU76" s="10"/>
       <c r="CV76" s="10"/>
@@ -36047,13 +36068,14 @@
       <c r="CI77" s="15"/>
       <c r="CJ77" s="15"/>
       <c r="CK77" s="15"/>
-      <c r="CL77" s="29"/>
-      <c r="CM77" s="29"/>
-      <c r="CN77" s="29"/>
-      <c r="CO77" s="29"/>
-      <c r="CP77" s="29"/>
-      <c r="CQ77" s="29"/>
-      <c r="CR77" s="29"/>
+      <c r="CL77" s="15"/>
+      <c r="CM77" s="15"/>
+      <c r="CN77" s="15"/>
+      <c r="CO77" s="15"/>
+      <c r="CP77" s="15"/>
+      <c r="CQ77" s="15"/>
+      <c r="CR77" s="15"/>
+      <c r="CS77" s="15"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36147,13 +36169,14 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="24"/>
-      <c r="CM78" s="24"/>
-      <c r="CN78" s="24"/>
-      <c r="CO78" s="24"/>
-      <c r="CP78" s="24"/>
-      <c r="CQ78" s="24"/>
-      <c r="CR78" s="24"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36244,14 +36267,14 @@
       <c r="CI79" s="12"/>
       <c r="CJ79" s="12"/>
       <c r="CK79" s="12"/>
-      <c r="CL79" s="27"/>
-      <c r="CM79" s="27"/>
-      <c r="CN79" s="27"/>
-      <c r="CO79" s="27"/>
-      <c r="CP79" s="27"/>
-      <c r="CQ79" s="27"/>
-      <c r="CR79" s="27"/>
-      <c r="CS79" s="10"/>
+      <c r="CL79" s="12"/>
+      <c r="CM79" s="12"/>
+      <c r="CN79" s="12"/>
+      <c r="CO79" s="12"/>
+      <c r="CP79" s="12"/>
+      <c r="CQ79" s="12"/>
+      <c r="CR79" s="12"/>
+      <c r="CS79" s="12"/>
       <c r="CT79" s="10"/>
       <c r="CU79" s="10"/>
       <c r="CV79" s="10"/>
@@ -36396,13 +36419,13 @@
       <c r="CI80" s="10"/>
       <c r="CJ80" s="10"/>
       <c r="CK80" s="10"/>
-      <c r="CL80" s="33"/>
-      <c r="CM80" s="33"/>
-      <c r="CN80" s="33"/>
-      <c r="CO80" s="33"/>
-      <c r="CP80" s="33"/>
-      <c r="CQ80" s="33"/>
-      <c r="CR80" s="33"/>
+      <c r="CL80" s="10"/>
+      <c r="CM80" s="10"/>
+      <c r="CN80" s="10"/>
+      <c r="CO80" s="10"/>
+      <c r="CP80" s="10"/>
+      <c r="CQ80" s="10"/>
+      <c r="CR80" s="10"/>
       <c r="CS80" s="10"/>
       <c r="CT80" s="10"/>
       <c r="CU80" s="10"/>
@@ -36551,17 +36574,18 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="24"/>
-      <c r="CM81" s="24"/>
-      <c r="CN81" s="24"/>
-      <c r="CO81" s="24"/>
-      <c r="CP81" s="24"/>
-      <c r="CQ81" s="24"/>
-      <c r="CR81" s="24"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36651,13 +36675,14 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="24"/>
-      <c r="CM82" s="24"/>
-      <c r="CN82" s="24"/>
-      <c r="CO82" s="24"/>
-      <c r="CP82" s="24"/>
-      <c r="CQ82" s="24"/>
-      <c r="CR82" s="24"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36749,13 +36774,14 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="24"/>
-      <c r="CM83" s="24"/>
-      <c r="CN83" s="24"/>
-      <c r="CO83" s="24"/>
-      <c r="CP83" s="24"/>
-      <c r="CQ83" s="24"/>
-      <c r="CR83" s="24"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36849,17 +36875,18 @@
       <c r="CI84" s="1"/>
       <c r="CJ84" s="1"/>
       <c r="CK84" s="1"/>
-      <c r="CL84" s="24"/>
-      <c r="CM84" s="24"/>
-      <c r="CN84" s="24"/>
-      <c r="CO84" s="24"/>
-      <c r="CP84" s="24"/>
-      <c r="CQ84" s="24"/>
-      <c r="CR84" s="24"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36949,13 +36976,14 @@
       <c r="CI85" s="1"/>
       <c r="CJ85" s="1"/>
       <c r="CK85" s="1"/>
-      <c r="CL85" s="24"/>
-      <c r="CM85" s="24"/>
-      <c r="CN85" s="24"/>
-      <c r="CO85" s="24"/>
-      <c r="CP85" s="24"/>
-      <c r="CQ85" s="24"/>
-      <c r="CR85" s="24"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37049,13 +37077,14 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="24"/>
-      <c r="CM86" s="24"/>
-      <c r="CN86" s="24"/>
-      <c r="CO86" s="24"/>
-      <c r="CP86" s="24"/>
-      <c r="CQ86" s="24"/>
-      <c r="CR86" s="24"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37147,159 +37176,161 @@
       <c r="CI87" s="1"/>
       <c r="CJ87" s="1"/>
       <c r="CK87" s="1"/>
-      <c r="CL87" s="24"/>
-      <c r="CM87" s="24"/>
-      <c r="CN87" s="24"/>
-      <c r="CO87" s="24"/>
-      <c r="CP87" s="24"/>
-      <c r="CQ87" s="24"/>
-      <c r="CR87" s="24"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="35">
+      <c r="B88" s="25">
         <v>2000</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="35">
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="25">
         <v>2001</v>
       </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="35">
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="25">
         <v>2002</v>
       </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="35">
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="25">
         <v>2003</v>
       </c>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="35">
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="25">
         <v>2004</v>
       </c>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="35">
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="25">
         <v>2005</v>
       </c>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="35">
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="25">
         <v>2006</v>
       </c>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="35">
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="25">
         <v>2007</v>
       </c>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="35">
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="25">
         <v>2008</v>
       </c>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="35">
+      <c r="AI88" s="27"/>
+      <c r="AJ88" s="27"/>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="25">
         <v>2009</v>
       </c>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="35">
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="27"/>
+      <c r="AO88" s="27"/>
+      <c r="AP88" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="35">
+      <c r="AQ88" s="27"/>
+      <c r="AR88" s="27"/>
+      <c r="AS88" s="27"/>
+      <c r="AT88" s="25">
         <v>2011</v>
       </c>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="35">
+      <c r="AU88" s="27"/>
+      <c r="AV88" s="27"/>
+      <c r="AW88" s="27"/>
+      <c r="AX88" s="25">
         <v>2012</v>
       </c>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="35">
+      <c r="AY88" s="27"/>
+      <c r="AZ88" s="27"/>
+      <c r="BA88" s="27"/>
+      <c r="BB88" s="25">
         <v>2013</v>
       </c>
-      <c r="BC88" s="37"/>
-      <c r="BD88" s="37"/>
-      <c r="BE88" s="37"/>
-      <c r="BF88" s="35">
+      <c r="BC88" s="27"/>
+      <c r="BD88" s="27"/>
+      <c r="BE88" s="27"/>
+      <c r="BF88" s="25">
         <v>2014</v>
       </c>
-      <c r="BG88" s="37"/>
-      <c r="BH88" s="37"/>
-      <c r="BI88" s="37"/>
-      <c r="BJ88" s="35">
+      <c r="BG88" s="27"/>
+      <c r="BH88" s="27"/>
+      <c r="BI88" s="27"/>
+      <c r="BJ88" s="25">
         <v>2015</v>
       </c>
-      <c r="BK88" s="37"/>
-      <c r="BL88" s="37"/>
-      <c r="BM88" s="37"/>
-      <c r="BN88" s="35">
+      <c r="BK88" s="27"/>
+      <c r="BL88" s="27"/>
+      <c r="BM88" s="27"/>
+      <c r="BN88" s="25">
         <v>2016</v>
       </c>
-      <c r="BO88" s="37"/>
-      <c r="BP88" s="37"/>
-      <c r="BQ88" s="37"/>
-      <c r="BR88" s="35">
+      <c r="BO88" s="27"/>
+      <c r="BP88" s="27"/>
+      <c r="BQ88" s="27"/>
+      <c r="BR88" s="25">
         <v>2017</v>
       </c>
-      <c r="BS88" s="37"/>
-      <c r="BT88" s="37"/>
-      <c r="BU88" s="37"/>
-      <c r="BV88" s="35">
+      <c r="BS88" s="27"/>
+      <c r="BT88" s="27"/>
+      <c r="BU88" s="27"/>
+      <c r="BV88" s="25">
         <v>2018</v>
       </c>
-      <c r="BW88" s="37"/>
-      <c r="BX88" s="37"/>
-      <c r="BY88" s="37"/>
-      <c r="BZ88" s="35">
+      <c r="BW88" s="27"/>
+      <c r="BX88" s="27"/>
+      <c r="BY88" s="27"/>
+      <c r="BZ88" s="25">
         <v>2019</v>
       </c>
-      <c r="CA88" s="37"/>
-      <c r="CB88" s="37"/>
-      <c r="CC88" s="37"/>
-      <c r="CD88" s="35">
+      <c r="CA88" s="27"/>
+      <c r="CB88" s="27"/>
+      <c r="CC88" s="27"/>
+      <c r="CD88" s="25">
         <v>2020</v>
       </c>
-      <c r="CE88" s="35"/>
-      <c r="CF88" s="35"/>
-      <c r="CG88" s="35"/>
-      <c r="CH88" s="35">
+      <c r="CE88" s="25"/>
+      <c r="CF88" s="25"/>
+      <c r="CG88" s="25"/>
+      <c r="CH88" s="25">
         <v>2021</v>
       </c>
-      <c r="CI88" s="35"/>
-      <c r="CJ88" s="35"/>
-      <c r="CK88" s="35"/>
-      <c r="CL88" s="36">
+      <c r="CI88" s="25"/>
+      <c r="CJ88" s="25"/>
+      <c r="CK88" s="25"/>
+      <c r="CL88" s="24">
         <v>2022</v>
       </c>
-      <c r="CM88" s="36"/>
-      <c r="CN88" s="36"/>
-      <c r="CO88" s="36"/>
-      <c r="CP88" s="36">
+      <c r="CM88" s="24"/>
+      <c r="CN88" s="24"/>
+      <c r="CO88" s="24"/>
+      <c r="CP88" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="36"/>
-      <c r="CR88" s="36"/>
+      <c r="CQ88" s="24"/>
+      <c r="CR88" s="24"/>
+      <c r="CS88" s="24"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37569,26 +37600,29 @@
       <c r="CK89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="25" t="s">
+      <c r="CL89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="25" t="s">
+      <c r="CM89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="25" t="s">
+      <c r="CN89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="25" t="s">
+      <c r="CO89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="25" t="s">
+      <c r="CP89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="25" t="s">
+      <c r="CQ89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="25" t="s">
+      <c r="CR89" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS89" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37681,13 +37715,14 @@
       <c r="CI90" s="1"/>
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
-      <c r="CL90" s="24"/>
-      <c r="CM90" s="24"/>
-      <c r="CN90" s="24"/>
-      <c r="CO90" s="24"/>
-      <c r="CP90" s="24"/>
-      <c r="CQ90" s="24"/>
-      <c r="CR90" s="24"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37957,28 +37992,30 @@
       <c r="CK91" s="17">
         <v>123.02714492996768</v>
       </c>
-      <c r="CL91" s="32">
+      <c r="CL91" s="17">
         <v>106.11323721842506</v>
       </c>
-      <c r="CM91" s="32">
+      <c r="CM91" s="17">
         <v>104.11568668685609</v>
       </c>
-      <c r="CN91" s="32">
+      <c r="CN91" s="17">
         <v>107.75971278468757</v>
       </c>
-      <c r="CO91" s="32">
+      <c r="CO91" s="17">
         <v>127.74638672365242</v>
       </c>
-      <c r="CP91" s="32">
+      <c r="CP91" s="17">
         <v>110.19041341210456</v>
       </c>
-      <c r="CQ91" s="32">
+      <c r="CQ91" s="17">
         <v>108.4648191230681</v>
       </c>
-      <c r="CR91" s="32">
+      <c r="CR91" s="17">
         <v>112.19212786213843</v>
       </c>
-      <c r="CS91" s="10"/>
+      <c r="CS91" s="17">
+        <v>133.19710686592191</v>
+      </c>
       <c r="CT91" s="10"/>
       <c r="CU91" s="10"/>
       <c r="CV91" s="10"/>
@@ -38306,28 +38343,30 @@
       <c r="CK92" s="17">
         <v>121.88198833102291</v>
       </c>
-      <c r="CL92" s="32">
+      <c r="CL92" s="17">
         <v>98.885398435508037</v>
       </c>
-      <c r="CM92" s="32">
+      <c r="CM92" s="17">
         <v>108.16590083742723</v>
       </c>
-      <c r="CN92" s="32">
+      <c r="CN92" s="17">
         <v>117.48605856011383</v>
       </c>
-      <c r="CO92" s="32">
+      <c r="CO92" s="17">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="32">
+      <c r="CP92" s="17">
         <v>103.33665895224489</v>
       </c>
-      <c r="CQ92" s="32">
+      <c r="CQ92" s="17">
         <v>112.78167306011477</v>
       </c>
-      <c r="CR92" s="32">
+      <c r="CR92" s="17">
         <v>122.78577909425907</v>
       </c>
-      <c r="CS92" s="10"/>
+      <c r="CS92" s="17">
+        <v>130.88311344587243</v>
+      </c>
       <c r="CT92" s="10"/>
       <c r="CU92" s="10"/>
       <c r="CV92" s="10"/>
@@ -38655,28 +38694,30 @@
       <c r="CK93" s="17">
         <v>130.67259301784685</v>
       </c>
-      <c r="CL93" s="32">
+      <c r="CL93" s="17">
         <v>104.40018493156103</v>
       </c>
-      <c r="CM93" s="32">
+      <c r="CM93" s="17">
         <v>108.96373393037754</v>
       </c>
-      <c r="CN93" s="32">
+      <c r="CN93" s="17">
         <v>117.51309966282189</v>
       </c>
-      <c r="CO93" s="32">
+      <c r="CO93" s="17">
         <v>135.05782670478922</v>
       </c>
-      <c r="CP93" s="32">
+      <c r="CP93" s="17">
         <v>108.46520505575599</v>
       </c>
-      <c r="CQ93" s="32">
+      <c r="CQ93" s="17">
         <v>113.38232905025005</v>
       </c>
-      <c r="CR93" s="32">
+      <c r="CR93" s="17">
         <v>122.33419099296216</v>
       </c>
-      <c r="CS93" s="10"/>
+      <c r="CS93" s="17">
+        <v>139.35955133110886</v>
+      </c>
       <c r="CT93" s="10"/>
       <c r="CU93" s="10"/>
       <c r="CV93" s="10"/>
@@ -38825,14 +38866,14 @@
       <c r="CI94" s="12"/>
       <c r="CJ94" s="12"/>
       <c r="CK94" s="12"/>
-      <c r="CL94" s="27"/>
-      <c r="CM94" s="27"/>
-      <c r="CN94" s="27"/>
-      <c r="CO94" s="27"/>
-      <c r="CP94" s="27"/>
-      <c r="CQ94" s="27"/>
-      <c r="CR94" s="27"/>
-      <c r="CS94" s="10"/>
+      <c r="CL94" s="12"/>
+      <c r="CM94" s="12"/>
+      <c r="CN94" s="12"/>
+      <c r="CO94" s="12"/>
+      <c r="CP94" s="12"/>
+      <c r="CQ94" s="12"/>
+      <c r="CR94" s="12"/>
+      <c r="CS94" s="12"/>
       <c r="CT94" s="10"/>
       <c r="CU94" s="10"/>
       <c r="CV94" s="10"/>
@@ -39160,28 +39201,30 @@
       <c r="CK95" s="17">
         <v>122.95024752751603</v>
       </c>
-      <c r="CL95" s="32">
+      <c r="CL95" s="17">
         <v>101.92431826450978</v>
       </c>
-      <c r="CM95" s="32">
+      <c r="CM95" s="17">
         <v>107.27547762050038</v>
       </c>
-      <c r="CN95" s="32">
+      <c r="CN95" s="17">
         <v>114.48726152367601</v>
       </c>
-      <c r="CO95" s="32">
+      <c r="CO95" s="17">
         <v>127.03656196119222</v>
       </c>
-      <c r="CP95" s="32">
+      <c r="CP95" s="17">
         <v>106.15193860719006</v>
       </c>
-      <c r="CQ95" s="32">
+      <c r="CQ95" s="17">
         <v>111.78937560879083</v>
       </c>
-      <c r="CR95" s="32">
-        <v>119.52546363653931</v>
-      </c>
-      <c r="CS95" s="10"/>
+      <c r="CR95" s="17">
+        <v>119.52667227055494</v>
+      </c>
+      <c r="CS95" s="17">
+        <v>132.40794049896019</v>
+      </c>
       <c r="CT95" s="10"/>
       <c r="CU95" s="10"/>
       <c r="CV95" s="10"/>
@@ -39331,13 +39374,14 @@
       <c r="CI96" s="15"/>
       <c r="CJ96" s="15"/>
       <c r="CK96" s="15"/>
-      <c r="CL96" s="29"/>
-      <c r="CM96" s="29"/>
-      <c r="CN96" s="29"/>
-      <c r="CO96" s="29"/>
-      <c r="CP96" s="29"/>
-      <c r="CQ96" s="29"/>
-      <c r="CR96" s="29"/>
+      <c r="CL96" s="15"/>
+      <c r="CM96" s="15"/>
+      <c r="CN96" s="15"/>
+      <c r="CO96" s="15"/>
+      <c r="CP96" s="15"/>
+      <c r="CQ96" s="15"/>
+      <c r="CR96" s="15"/>
+      <c r="CS96" s="15"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39431,13 +39475,14 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="24"/>
-      <c r="CM97" s="24"/>
-      <c r="CN97" s="24"/>
-      <c r="CO97" s="24"/>
-      <c r="CP97" s="24"/>
-      <c r="CQ97" s="24"/>
-      <c r="CR97" s="24"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39528,13 +39573,14 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="24"/>
-      <c r="CM98" s="24"/>
-      <c r="CN98" s="24"/>
-      <c r="CO98" s="24"/>
-      <c r="CP98" s="24"/>
-      <c r="CQ98" s="24"/>
-      <c r="CR98" s="24"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39625,13 +39671,14 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="24"/>
-      <c r="CM99" s="24"/>
-      <c r="CN99" s="24"/>
-      <c r="CO99" s="24"/>
-      <c r="CP99" s="24"/>
-      <c r="CQ99" s="24"/>
-      <c r="CR99" s="24"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39725,13 +39772,14 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="24"/>
-      <c r="CM100" s="24"/>
-      <c r="CN100" s="24"/>
-      <c r="CO100" s="24"/>
-      <c r="CP100" s="24"/>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39825,17 +39873,18 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="24"/>
-      <c r="CM101" s="24"/>
-      <c r="CN101" s="24"/>
-      <c r="CO101" s="24"/>
-      <c r="CP101" s="24"/>
-      <c r="CQ101" s="24"/>
-      <c r="CR101" s="24"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39925,13 +39974,14 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="24"/>
-      <c r="CM102" s="24"/>
-      <c r="CN102" s="24"/>
-      <c r="CO102" s="24"/>
-      <c r="CP102" s="24"/>
-      <c r="CQ102" s="24"/>
-      <c r="CR102" s="24"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40023,13 +40073,14 @@
       <c r="CI103" s="1"/>
       <c r="CJ103" s="1"/>
       <c r="CK103" s="1"/>
-      <c r="CL103" s="24"/>
-      <c r="CM103" s="24"/>
-      <c r="CN103" s="24"/>
-      <c r="CO103" s="24"/>
-      <c r="CP103" s="24"/>
-      <c r="CQ103" s="24"/>
-      <c r="CR103" s="24"/>
+      <c r="CL103" s="1"/>
+      <c r="CM103" s="1"/>
+      <c r="CN103" s="1"/>
+      <c r="CO103" s="1"/>
+      <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="1"/>
+      <c r="CS103" s="1"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40123,17 +40174,18 @@
       <c r="CI104" s="1"/>
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
-      <c r="CL104" s="24"/>
-      <c r="CM104" s="24"/>
-      <c r="CN104" s="24"/>
-      <c r="CO104" s="24"/>
-      <c r="CP104" s="24"/>
-      <c r="CQ104" s="24"/>
-      <c r="CR104" s="24"/>
+      <c r="CL104" s="1"/>
+      <c r="CM104" s="1"/>
+      <c r="CN104" s="1"/>
+      <c r="CO104" s="1"/>
+      <c r="CP104" s="1"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="1"/>
+      <c r="CS104" s="1"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -40223,13 +40275,14 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="24"/>
-      <c r="CM105" s="24"/>
-      <c r="CN105" s="24"/>
-      <c r="CO105" s="24"/>
-      <c r="CP105" s="24"/>
-      <c r="CQ105" s="24"/>
-      <c r="CR105" s="24"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40323,13 +40376,14 @@
       <c r="CI106" s="1"/>
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
-      <c r="CL106" s="24"/>
-      <c r="CM106" s="24"/>
-      <c r="CN106" s="24"/>
-      <c r="CO106" s="24"/>
-      <c r="CP106" s="24"/>
-      <c r="CQ106" s="24"/>
-      <c r="CR106" s="24"/>
+      <c r="CL106" s="1"/>
+      <c r="CM106" s="1"/>
+      <c r="CN106" s="1"/>
+      <c r="CO106" s="1"/>
+      <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="1"/>
+      <c r="CS106" s="1"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40421,159 +40475,161 @@
       <c r="CI107" s="1"/>
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
-      <c r="CL107" s="24"/>
-      <c r="CM107" s="24"/>
-      <c r="CN107" s="24"/>
-      <c r="CO107" s="24"/>
-      <c r="CP107" s="24"/>
-      <c r="CQ107" s="24"/>
-      <c r="CR107" s="24"/>
+      <c r="CL107" s="1"/>
+      <c r="CM107" s="1"/>
+      <c r="CN107" s="1"/>
+      <c r="CO107" s="1"/>
+      <c r="CP107" s="1"/>
+      <c r="CQ107" s="1"/>
+      <c r="CR107" s="1"/>
+      <c r="CS107" s="1"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="35">
+      <c r="B108" s="25">
         <v>2000</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="35">
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="25">
         <v>2001</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="35">
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="25">
         <v>2002</v>
       </c>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="35">
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="25">
         <v>2003</v>
       </c>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="35">
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="25">
         <v>2004</v>
       </c>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="35">
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="25">
         <v>2005</v>
       </c>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="35">
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="25">
         <v>2006</v>
       </c>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="35">
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="25">
         <v>2007</v>
       </c>
-      <c r="AE108" s="37"/>
-      <c r="AF108" s="37"/>
-      <c r="AG108" s="37"/>
-      <c r="AH108" s="35">
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="25">
         <v>2008</v>
       </c>
-      <c r="AI108" s="37"/>
-      <c r="AJ108" s="37"/>
-      <c r="AK108" s="37"/>
-      <c r="AL108" s="35">
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="25">
         <v>2009</v>
       </c>
-      <c r="AM108" s="37"/>
-      <c r="AN108" s="37"/>
-      <c r="AO108" s="37"/>
-      <c r="AP108" s="35">
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="37"/>
-      <c r="AR108" s="37"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="35">
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="27"/>
+      <c r="AS108" s="27"/>
+      <c r="AT108" s="25">
         <v>2011</v>
       </c>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="35">
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="27"/>
+      <c r="AW108" s="27"/>
+      <c r="AX108" s="25">
         <v>2012</v>
       </c>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="35">
+      <c r="AY108" s="27"/>
+      <c r="AZ108" s="27"/>
+      <c r="BA108" s="27"/>
+      <c r="BB108" s="25">
         <v>2013</v>
       </c>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="35">
+      <c r="BC108" s="27"/>
+      <c r="BD108" s="27"/>
+      <c r="BE108" s="27"/>
+      <c r="BF108" s="25">
         <v>2014</v>
       </c>
-      <c r="BG108" s="37"/>
-      <c r="BH108" s="37"/>
-      <c r="BI108" s="37"/>
-      <c r="BJ108" s="35">
+      <c r="BG108" s="27"/>
+      <c r="BH108" s="27"/>
+      <c r="BI108" s="27"/>
+      <c r="BJ108" s="25">
         <v>2015</v>
       </c>
-      <c r="BK108" s="37"/>
-      <c r="BL108" s="37"/>
-      <c r="BM108" s="37"/>
-      <c r="BN108" s="35">
+      <c r="BK108" s="27"/>
+      <c r="BL108" s="27"/>
+      <c r="BM108" s="27"/>
+      <c r="BN108" s="25">
         <v>2016</v>
       </c>
-      <c r="BO108" s="37"/>
-      <c r="BP108" s="37"/>
-      <c r="BQ108" s="37"/>
-      <c r="BR108" s="35">
+      <c r="BO108" s="27"/>
+      <c r="BP108" s="27"/>
+      <c r="BQ108" s="27"/>
+      <c r="BR108" s="25">
         <v>2017</v>
       </c>
-      <c r="BS108" s="37"/>
-      <c r="BT108" s="37"/>
-      <c r="BU108" s="37"/>
-      <c r="BV108" s="35">
+      <c r="BS108" s="27"/>
+      <c r="BT108" s="27"/>
+      <c r="BU108" s="27"/>
+      <c r="BV108" s="25">
         <v>2018</v>
       </c>
-      <c r="BW108" s="37"/>
-      <c r="BX108" s="37"/>
-      <c r="BY108" s="37"/>
-      <c r="BZ108" s="35">
+      <c r="BW108" s="27"/>
+      <c r="BX108" s="27"/>
+      <c r="BY108" s="27"/>
+      <c r="BZ108" s="25">
         <v>2019</v>
       </c>
-      <c r="CA108" s="37"/>
-      <c r="CB108" s="37"/>
-      <c r="CC108" s="37"/>
-      <c r="CD108" s="35">
+      <c r="CA108" s="27"/>
+      <c r="CB108" s="27"/>
+      <c r="CC108" s="27"/>
+      <c r="CD108" s="25">
         <v>2020</v>
       </c>
-      <c r="CE108" s="35"/>
-      <c r="CF108" s="35"/>
-      <c r="CG108" s="35"/>
-      <c r="CH108" s="35">
+      <c r="CE108" s="25"/>
+      <c r="CF108" s="25"/>
+      <c r="CG108" s="25"/>
+      <c r="CH108" s="25">
         <v>2021</v>
       </c>
-      <c r="CI108" s="35"/>
-      <c r="CJ108" s="35"/>
-      <c r="CK108" s="35"/>
-      <c r="CL108" s="36">
+      <c r="CI108" s="25"/>
+      <c r="CJ108" s="25"/>
+      <c r="CK108" s="25"/>
+      <c r="CL108" s="24">
         <v>2022</v>
       </c>
-      <c r="CM108" s="36"/>
-      <c r="CN108" s="36"/>
-      <c r="CO108" s="36"/>
-      <c r="CP108" s="36">
+      <c r="CM108" s="24"/>
+      <c r="CN108" s="24"/>
+      <c r="CO108" s="24"/>
+      <c r="CP108" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="36"/>
-      <c r="CR108" s="36"/>
+      <c r="CQ108" s="24"/>
+      <c r="CR108" s="24"/>
+      <c r="CS108" s="24"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40843,26 +40899,29 @@
       <c r="CK109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="25" t="s">
+      <c r="CL109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="25" t="s">
+      <c r="CM109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="25" t="s">
+      <c r="CN109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="25" t="s">
+      <c r="CO109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="25" t="s">
+      <c r="CP109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="25" t="s">
+      <c r="CQ109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="25" t="s">
+      <c r="CR109" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS109" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40955,13 +41014,14 @@
       <c r="CI110" s="1"/>
       <c r="CJ110" s="1"/>
       <c r="CK110" s="1"/>
-      <c r="CL110" s="24"/>
-      <c r="CM110" s="24"/>
-      <c r="CN110" s="24"/>
-      <c r="CO110" s="24"/>
-      <c r="CP110" s="24"/>
-      <c r="CQ110" s="24"/>
-      <c r="CR110" s="24"/>
+      <c r="CL110" s="1"/>
+      <c r="CM110" s="1"/>
+      <c r="CN110" s="1"/>
+      <c r="CO110" s="1"/>
+      <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
+      <c r="CR110" s="1"/>
+      <c r="CS110" s="1"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41231,28 +41291,30 @@
       <c r="CK111" s="17">
         <v>38.665837224088115</v>
       </c>
-      <c r="CL111" s="32">
+      <c r="CL111" s="17">
         <v>39.010312900568515</v>
       </c>
-      <c r="CM111" s="32">
+      <c r="CM111" s="17">
         <v>22.136957712900703</v>
       </c>
-      <c r="CN111" s="32">
+      <c r="CN111" s="17">
         <v>29.035881308905715</v>
       </c>
-      <c r="CO111" s="32">
+      <c r="CO111" s="17">
         <v>39.853275494904487</v>
       </c>
-      <c r="CP111" s="32">
+      <c r="CP111" s="17">
         <v>38.234332053722206</v>
       </c>
-      <c r="CQ111" s="32">
+      <c r="CQ111" s="17">
         <v>22.836066797337153</v>
       </c>
-      <c r="CR111" s="32">
-        <v>28.644266040190747</v>
-      </c>
-      <c r="CS111" s="10"/>
+      <c r="CR111" s="17">
+        <v>28.633357763882451</v>
+      </c>
+      <c r="CS111" s="17">
+        <v>38.971038651149911</v>
+      </c>
       <c r="CT111" s="10"/>
       <c r="CU111" s="10"/>
       <c r="CV111" s="10"/>
@@ -41580,28 +41642,30 @@
       <c r="CK112" s="17">
         <v>53.768651215265571</v>
       </c>
-      <c r="CL112" s="32">
+      <c r="CL112" s="17">
         <v>54.848832903600723</v>
       </c>
-      <c r="CM112" s="32">
+      <c r="CM112" s="17">
         <v>73.613165790207432</v>
       </c>
-      <c r="CN112" s="32">
+      <c r="CN112" s="17">
         <v>64.71428595241926</v>
       </c>
-      <c r="CO112" s="32">
+      <c r="CO112" s="17">
         <v>51.935517692421982</v>
       </c>
-      <c r="CP112" s="32">
+      <c r="CP112" s="17">
         <v>55.971218165440476</v>
       </c>
-      <c r="CQ112" s="32">
+      <c r="CQ112" s="17">
         <v>73.158990952148116</v>
       </c>
-      <c r="CR112" s="32">
-        <v>65.123870045928356</v>
-      </c>
-      <c r="CS112" s="10"/>
+      <c r="CR112" s="17">
+        <v>65.137151533454301</v>
+      </c>
+      <c r="CS112" s="17">
+        <v>53.226465606870313</v>
+      </c>
       <c r="CT112" s="10"/>
       <c r="CU112" s="10"/>
       <c r="CV112" s="10"/>
@@ -41929,28 +41993,30 @@
       <c r="CK113" s="17">
         <v>7.5655115606463079</v>
       </c>
-      <c r="CL113" s="32">
+      <c r="CL113" s="17">
         <v>6.1408541958307605</v>
       </c>
-      <c r="CM113" s="32">
+      <c r="CM113" s="17">
         <v>4.2498764968918721</v>
       </c>
-      <c r="CN113" s="32">
+      <c r="CN113" s="17">
         <v>6.2498327386750265</v>
       </c>
-      <c r="CO113" s="32">
+      <c r="CO113" s="17">
         <v>8.2112068126735345</v>
       </c>
-      <c r="CP113" s="32">
+      <c r="CP113" s="17">
         <v>5.7944497808373221</v>
       </c>
-      <c r="CQ113" s="32">
+      <c r="CQ113" s="17">
         <v>4.0049422505147385</v>
       </c>
-      <c r="CR113" s="32">
-        <v>6.2318639138808996</v>
-      </c>
-      <c r="CS113" s="10"/>
+      <c r="CR113" s="17">
+        <v>6.2294907026632362</v>
+      </c>
+      <c r="CS113" s="17">
+        <v>7.802495741979766</v>
+      </c>
       <c r="CT113" s="10"/>
       <c r="CU113" s="10"/>
       <c r="CV113" s="10"/>
@@ -42099,14 +42165,14 @@
       <c r="CI114" s="12"/>
       <c r="CJ114" s="12"/>
       <c r="CK114" s="12"/>
-      <c r="CL114" s="27"/>
-      <c r="CM114" s="27"/>
-      <c r="CN114" s="27"/>
-      <c r="CO114" s="27"/>
-      <c r="CP114" s="27"/>
-      <c r="CQ114" s="27"/>
-      <c r="CR114" s="27"/>
-      <c r="CS114" s="10"/>
+      <c r="CL114" s="12"/>
+      <c r="CM114" s="12"/>
+      <c r="CN114" s="12"/>
+      <c r="CO114" s="12"/>
+      <c r="CP114" s="12"/>
+      <c r="CQ114" s="12"/>
+      <c r="CR114" s="12"/>
+      <c r="CS114" s="12"/>
       <c r="CT114" s="10"/>
       <c r="CU114" s="10"/>
       <c r="CV114" s="10"/>
@@ -42434,28 +42500,30 @@
       <c r="CK115" s="17">
         <v>100</v>
       </c>
-      <c r="CL115" s="32">
+      <c r="CL115" s="17">
         <v>100</v>
       </c>
-      <c r="CM115" s="32">
+      <c r="CM115" s="17">
         <v>100</v>
       </c>
-      <c r="CN115" s="32">
+      <c r="CN115" s="17">
         <v>100</v>
       </c>
-      <c r="CO115" s="32">
+      <c r="CO115" s="17">
         <v>100</v>
       </c>
-      <c r="CP115" s="32">
+      <c r="CP115" s="17">
         <v>100</v>
       </c>
-      <c r="CQ115" s="32">
+      <c r="CQ115" s="17">
         <v>100</v>
       </c>
-      <c r="CR115" s="32">
+      <c r="CR115" s="17">
         <v>100</v>
       </c>
-      <c r="CS115" s="10"/>
+      <c r="CS115" s="17">
+        <v>100</v>
+      </c>
       <c r="CT115" s="10"/>
       <c r="CU115" s="10"/>
       <c r="CV115" s="10"/>
@@ -42605,13 +42673,14 @@
       <c r="CI116" s="15"/>
       <c r="CJ116" s="15"/>
       <c r="CK116" s="15"/>
-      <c r="CL116" s="29"/>
-      <c r="CM116" s="29"/>
-      <c r="CN116" s="29"/>
-      <c r="CO116" s="29"/>
-      <c r="CP116" s="29"/>
-      <c r="CQ116" s="29"/>
-      <c r="CR116" s="29"/>
+      <c r="CL116" s="15"/>
+      <c r="CM116" s="15"/>
+      <c r="CN116" s="15"/>
+      <c r="CO116" s="15"/>
+      <c r="CP116" s="15"/>
+      <c r="CQ116" s="15"/>
+      <c r="CR116" s="15"/>
+      <c r="CS116" s="15"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42705,13 +42774,14 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="24"/>
-      <c r="CM117" s="24"/>
-      <c r="CN117" s="24"/>
-      <c r="CO117" s="24"/>
-      <c r="CP117" s="24"/>
-      <c r="CQ117" s="24"/>
-      <c r="CR117" s="24"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="1"/>
+      <c r="CS117" s="1"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42802,14 +42872,14 @@
       <c r="CI118" s="12"/>
       <c r="CJ118" s="12"/>
       <c r="CK118" s="12"/>
-      <c r="CL118" s="27"/>
-      <c r="CM118" s="27"/>
-      <c r="CN118" s="27"/>
-      <c r="CO118" s="27"/>
-      <c r="CP118" s="27"/>
-      <c r="CQ118" s="27"/>
-      <c r="CR118" s="27"/>
-      <c r="CS118" s="10"/>
+      <c r="CL118" s="12"/>
+      <c r="CM118" s="12"/>
+      <c r="CN118" s="12"/>
+      <c r="CO118" s="12"/>
+      <c r="CP118" s="12"/>
+      <c r="CQ118" s="12"/>
+      <c r="CR118" s="12"/>
+      <c r="CS118" s="12"/>
       <c r="CT118" s="10"/>
       <c r="CU118" s="10"/>
       <c r="CV118" s="10"/>
@@ -42958,14 +43028,14 @@
       <c r="CI119" s="12"/>
       <c r="CJ119" s="12"/>
       <c r="CK119" s="12"/>
-      <c r="CL119" s="27"/>
-      <c r="CM119" s="27"/>
-      <c r="CN119" s="27"/>
-      <c r="CO119" s="27"/>
-      <c r="CP119" s="27"/>
-      <c r="CQ119" s="27"/>
-      <c r="CR119" s="27"/>
-      <c r="CS119" s="10"/>
+      <c r="CL119" s="12"/>
+      <c r="CM119" s="12"/>
+      <c r="CN119" s="12"/>
+      <c r="CO119" s="12"/>
+      <c r="CP119" s="12"/>
+      <c r="CQ119" s="12"/>
+      <c r="CR119" s="12"/>
+      <c r="CS119" s="12"/>
       <c r="CT119" s="10"/>
       <c r="CU119" s="10"/>
       <c r="CV119" s="10"/>
@@ -43117,13 +43187,14 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="24"/>
-      <c r="CM120" s="24"/>
-      <c r="CN120" s="24"/>
-      <c r="CO120" s="24"/>
-      <c r="CP120" s="24"/>
-      <c r="CQ120" s="24"/>
-      <c r="CR120" s="24"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43217,17 +43288,18 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="24"/>
-      <c r="CM121" s="24"/>
-      <c r="CN121" s="24"/>
-      <c r="CO121" s="24"/>
-      <c r="CP121" s="24"/>
-      <c r="CQ121" s="24"/>
-      <c r="CR121" s="24"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="1"/>
+      <c r="CS121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -43317,13 +43389,14 @@
       <c r="CI122" s="1"/>
       <c r="CJ122" s="1"/>
       <c r="CK122" s="1"/>
-      <c r="CL122" s="24"/>
-      <c r="CM122" s="24"/>
-      <c r="CN122" s="24"/>
-      <c r="CO122" s="24"/>
-      <c r="CP122" s="24"/>
-      <c r="CQ122" s="24"/>
-      <c r="CR122" s="24"/>
+      <c r="CL122" s="1"/>
+      <c r="CM122" s="1"/>
+      <c r="CN122" s="1"/>
+      <c r="CO122" s="1"/>
+      <c r="CP122" s="1"/>
+      <c r="CQ122" s="1"/>
+      <c r="CR122" s="1"/>
+      <c r="CS122" s="1"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43415,13 +43488,14 @@
       <c r="CI123" s="1"/>
       <c r="CJ123" s="1"/>
       <c r="CK123" s="1"/>
-      <c r="CL123" s="24"/>
-      <c r="CM123" s="24"/>
-      <c r="CN123" s="24"/>
-      <c r="CO123" s="24"/>
-      <c r="CP123" s="24"/>
-      <c r="CQ123" s="24"/>
-      <c r="CR123" s="24"/>
+      <c r="CL123" s="1"/>
+      <c r="CM123" s="1"/>
+      <c r="CN123" s="1"/>
+      <c r="CO123" s="1"/>
+      <c r="CP123" s="1"/>
+      <c r="CQ123" s="1"/>
+      <c r="CR123" s="1"/>
+      <c r="CS123" s="1"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43515,17 +43589,18 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="24"/>
-      <c r="CM124" s="24"/>
-      <c r="CN124" s="24"/>
-      <c r="CO124" s="24"/>
-      <c r="CP124" s="24"/>
-      <c r="CQ124" s="24"/>
-      <c r="CR124" s="24"/>
+      <c r="CL124" s="1"/>
+      <c r="CM124" s="1"/>
+      <c r="CN124" s="1"/>
+      <c r="CO124" s="1"/>
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="1"/>
+      <c r="CS124" s="1"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -43615,13 +43690,14 @@
       <c r="CI125" s="1"/>
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
-      <c r="CL125" s="24"/>
-      <c r="CM125" s="24"/>
-      <c r="CN125" s="24"/>
-      <c r="CO125" s="24"/>
-      <c r="CP125" s="24"/>
-      <c r="CQ125" s="24"/>
-      <c r="CR125" s="24"/>
+      <c r="CL125" s="1"/>
+      <c r="CM125" s="1"/>
+      <c r="CN125" s="1"/>
+      <c r="CO125" s="1"/>
+      <c r="CP125" s="1"/>
+      <c r="CQ125" s="1"/>
+      <c r="CR125" s="1"/>
+      <c r="CS125" s="1"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43715,13 +43791,14 @@
       <c r="CI126" s="1"/>
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
-      <c r="CL126" s="24"/>
-      <c r="CM126" s="24"/>
-      <c r="CN126" s="24"/>
-      <c r="CO126" s="24"/>
-      <c r="CP126" s="24"/>
-      <c r="CQ126" s="24"/>
-      <c r="CR126" s="24"/>
+      <c r="CL126" s="1"/>
+      <c r="CM126" s="1"/>
+      <c r="CN126" s="1"/>
+      <c r="CO126" s="1"/>
+      <c r="CP126" s="1"/>
+      <c r="CQ126" s="1"/>
+      <c r="CR126" s="1"/>
+      <c r="CS126" s="1"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43813,159 +43890,161 @@
       <c r="CI127" s="1"/>
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
-      <c r="CL127" s="24"/>
-      <c r="CM127" s="24"/>
-      <c r="CN127" s="24"/>
-      <c r="CO127" s="24"/>
-      <c r="CP127" s="24"/>
-      <c r="CQ127" s="24"/>
-      <c r="CR127" s="24"/>
+      <c r="CL127" s="1"/>
+      <c r="CM127" s="1"/>
+      <c r="CN127" s="1"/>
+      <c r="CO127" s="1"/>
+      <c r="CP127" s="1"/>
+      <c r="CQ127" s="1"/>
+      <c r="CR127" s="1"/>
+      <c r="CS127" s="1"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="35">
+      <c r="B128" s="25">
         <v>2000</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="35">
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="25">
         <v>2001</v>
       </c>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="35">
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="25">
         <v>2002</v>
       </c>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="35">
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="25">
         <v>2003</v>
       </c>
-      <c r="O128" s="37"/>
-      <c r="P128" s="37"/>
-      <c r="Q128" s="37"/>
-      <c r="R128" s="35">
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="25">
         <v>2004</v>
       </c>
-      <c r="S128" s="37"/>
-      <c r="T128" s="37"/>
-      <c r="U128" s="37"/>
-      <c r="V128" s="35">
+      <c r="S128" s="27"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="25">
         <v>2005</v>
       </c>
-      <c r="W128" s="37"/>
-      <c r="X128" s="37"/>
-      <c r="Y128" s="37"/>
-      <c r="Z128" s="35">
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="25">
         <v>2006</v>
       </c>
-      <c r="AA128" s="37"/>
-      <c r="AB128" s="37"/>
-      <c r="AC128" s="37"/>
-      <c r="AD128" s="35">
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="27"/>
+      <c r="AC128" s="27"/>
+      <c r="AD128" s="25">
         <v>2007</v>
       </c>
-      <c r="AE128" s="37"/>
-      <c r="AF128" s="37"/>
-      <c r="AG128" s="37"/>
-      <c r="AH128" s="35">
+      <c r="AE128" s="27"/>
+      <c r="AF128" s="27"/>
+      <c r="AG128" s="27"/>
+      <c r="AH128" s="25">
         <v>2008</v>
       </c>
-      <c r="AI128" s="37"/>
-      <c r="AJ128" s="37"/>
-      <c r="AK128" s="37"/>
-      <c r="AL128" s="35">
+      <c r="AI128" s="27"/>
+      <c r="AJ128" s="27"/>
+      <c r="AK128" s="27"/>
+      <c r="AL128" s="25">
         <v>2009</v>
       </c>
-      <c r="AM128" s="37"/>
-      <c r="AN128" s="37"/>
-      <c r="AO128" s="37"/>
-      <c r="AP128" s="35">
+      <c r="AM128" s="27"/>
+      <c r="AN128" s="27"/>
+      <c r="AO128" s="27"/>
+      <c r="AP128" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="37"/>
-      <c r="AR128" s="37"/>
-      <c r="AS128" s="37"/>
-      <c r="AT128" s="35">
+      <c r="AQ128" s="27"/>
+      <c r="AR128" s="27"/>
+      <c r="AS128" s="27"/>
+      <c r="AT128" s="25">
         <v>2011</v>
       </c>
-      <c r="AU128" s="37"/>
-      <c r="AV128" s="37"/>
-      <c r="AW128" s="37"/>
-      <c r="AX128" s="35">
+      <c r="AU128" s="27"/>
+      <c r="AV128" s="27"/>
+      <c r="AW128" s="27"/>
+      <c r="AX128" s="25">
         <v>2012</v>
       </c>
-      <c r="AY128" s="37"/>
-      <c r="AZ128" s="37"/>
-      <c r="BA128" s="37"/>
-      <c r="BB128" s="35">
+      <c r="AY128" s="27"/>
+      <c r="AZ128" s="27"/>
+      <c r="BA128" s="27"/>
+      <c r="BB128" s="25">
         <v>2013</v>
       </c>
-      <c r="BC128" s="37"/>
-      <c r="BD128" s="37"/>
-      <c r="BE128" s="37"/>
-      <c r="BF128" s="35">
+      <c r="BC128" s="27"/>
+      <c r="BD128" s="27"/>
+      <c r="BE128" s="27"/>
+      <c r="BF128" s="25">
         <v>2014</v>
       </c>
-      <c r="BG128" s="37"/>
-      <c r="BH128" s="37"/>
-      <c r="BI128" s="37"/>
-      <c r="BJ128" s="35">
+      <c r="BG128" s="27"/>
+      <c r="BH128" s="27"/>
+      <c r="BI128" s="27"/>
+      <c r="BJ128" s="25">
         <v>2015</v>
       </c>
-      <c r="BK128" s="37"/>
-      <c r="BL128" s="37"/>
-      <c r="BM128" s="37"/>
-      <c r="BN128" s="35">
+      <c r="BK128" s="27"/>
+      <c r="BL128" s="27"/>
+      <c r="BM128" s="27"/>
+      <c r="BN128" s="25">
         <v>2016</v>
       </c>
-      <c r="BO128" s="37"/>
-      <c r="BP128" s="37"/>
-      <c r="BQ128" s="37"/>
-      <c r="BR128" s="35">
+      <c r="BO128" s="27"/>
+      <c r="BP128" s="27"/>
+      <c r="BQ128" s="27"/>
+      <c r="BR128" s="25">
         <v>2017</v>
       </c>
-      <c r="BS128" s="37"/>
-      <c r="BT128" s="37"/>
-      <c r="BU128" s="37"/>
-      <c r="BV128" s="35">
+      <c r="BS128" s="27"/>
+      <c r="BT128" s="27"/>
+      <c r="BU128" s="27"/>
+      <c r="BV128" s="25">
         <v>2018</v>
       </c>
-      <c r="BW128" s="37"/>
-      <c r="BX128" s="37"/>
-      <c r="BY128" s="37"/>
-      <c r="BZ128" s="35">
+      <c r="BW128" s="27"/>
+      <c r="BX128" s="27"/>
+      <c r="BY128" s="27"/>
+      <c r="BZ128" s="25">
         <v>2019</v>
       </c>
-      <c r="CA128" s="37"/>
-      <c r="CB128" s="37"/>
-      <c r="CC128" s="37"/>
-      <c r="CD128" s="35">
+      <c r="CA128" s="27"/>
+      <c r="CB128" s="27"/>
+      <c r="CC128" s="27"/>
+      <c r="CD128" s="25">
         <v>2020</v>
       </c>
-      <c r="CE128" s="35"/>
-      <c r="CF128" s="35"/>
-      <c r="CG128" s="35"/>
-      <c r="CH128" s="35">
+      <c r="CE128" s="25"/>
+      <c r="CF128" s="25"/>
+      <c r="CG128" s="25"/>
+      <c r="CH128" s="25">
         <v>2021</v>
       </c>
-      <c r="CI128" s="35"/>
-      <c r="CJ128" s="35"/>
-      <c r="CK128" s="35"/>
-      <c r="CL128" s="36">
+      <c r="CI128" s="25"/>
+      <c r="CJ128" s="25"/>
+      <c r="CK128" s="25"/>
+      <c r="CL128" s="24">
         <v>2022</v>
       </c>
-      <c r="CM128" s="36"/>
-      <c r="CN128" s="36"/>
-      <c r="CO128" s="36"/>
-      <c r="CP128" s="36">
+      <c r="CM128" s="24"/>
+      <c r="CN128" s="24"/>
+      <c r="CO128" s="24"/>
+      <c r="CP128" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="36"/>
-      <c r="CR128" s="36"/>
+      <c r="CQ128" s="24"/>
+      <c r="CR128" s="24"/>
+      <c r="CS128" s="24"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44235,26 +44314,29 @@
       <c r="CK129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="25" t="s">
+      <c r="CL129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="25" t="s">
+      <c r="CM129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="25" t="s">
+      <c r="CN129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="25" t="s">
+      <c r="CO129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="25" t="s">
+      <c r="CP129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="25" t="s">
+      <c r="CQ129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="25" t="s">
+      <c r="CR129" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS129" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44347,13 +44429,14 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="24"/>
-      <c r="CM130" s="24"/>
-      <c r="CN130" s="24"/>
-      <c r="CO130" s="24"/>
-      <c r="CP130" s="24"/>
-      <c r="CQ130" s="24"/>
-      <c r="CR130" s="24"/>
+      <c r="CL130" s="1"/>
+      <c r="CM130" s="1"/>
+      <c r="CN130" s="1"/>
+      <c r="CO130" s="1"/>
+      <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="1"/>
+      <c r="CS130" s="1"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44623,28 +44706,30 @@
       <c r="CK131" s="17">
         <v>38.641669367085157</v>
       </c>
-      <c r="CL131" s="32">
+      <c r="CL131" s="17">
         <v>37.470344434890769</v>
       </c>
-      <c r="CM131" s="32">
+      <c r="CM131" s="17">
         <v>22.808788831779747</v>
       </c>
-      <c r="CN131" s="32">
+      <c r="CN131" s="17">
         <v>30.848620983476415</v>
       </c>
-      <c r="CO131" s="32">
+      <c r="CO131" s="17">
         <v>39.631830156707736</v>
       </c>
-      <c r="CP131" s="32">
+      <c r="CP131" s="17">
         <v>36.833045118676274</v>
       </c>
-      <c r="CQ131" s="32">
+      <c r="CQ131" s="17">
         <v>23.536015357555037</v>
       </c>
-      <c r="CR131" s="32">
-        <v>30.51657227848677</v>
-      </c>
-      <c r="CS131" s="10"/>
+      <c r="CR131" s="17">
+        <v>30.505259456836676</v>
+      </c>
+      <c r="CS131" s="17">
+        <v>38.740142997988237</v>
+      </c>
       <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
       <c r="CV131" s="10"/>
@@ -44972,28 +45057,30 @@
       <c r="CK132" s="17">
         <v>54.239917371407842</v>
       </c>
-      <c r="CL132" s="32">
+      <c r="CL132" s="17">
         <v>56.53443268421001</v>
       </c>
-      <c r="CM132" s="32">
+      <c r="CM132" s="17">
         <v>73.007181174135098</v>
       </c>
-      <c r="CN132" s="32">
+      <c r="CN132" s="17">
         <v>63.062472866613781</v>
       </c>
-      <c r="CO132" s="32">
+      <c r="CO132" s="17">
         <v>52.64463757207902</v>
       </c>
-      <c r="CP132" s="32">
+      <c r="CP132" s="17">
         <v>57.496084881292809</v>
       </c>
-      <c r="CQ132" s="32">
+      <c r="CQ132" s="17">
         <v>72.515309418672786</v>
       </c>
-      <c r="CR132" s="32">
-        <v>63.394644057841589</v>
-      </c>
-      <c r="CS132" s="10"/>
+      <c r="CR132" s="17">
+        <v>63.408214057100778</v>
+      </c>
+      <c r="CS132" s="17">
+        <v>53.846569702508027</v>
+      </c>
       <c r="CT132" s="10"/>
       <c r="CU132" s="10"/>
       <c r="CV132" s="10"/>
@@ -45321,28 +45408,30 @@
       <c r="CK133" s="17">
         <v>7.1184132615069977</v>
       </c>
-      <c r="CL133" s="32">
+      <c r="CL133" s="17">
         <v>5.9952228808992203</v>
       </c>
-      <c r="CM133" s="32">
+      <c r="CM133" s="17">
         <v>4.1840299940851606</v>
       </c>
-      <c r="CN133" s="32">
+      <c r="CN133" s="17">
         <v>6.0889061499098052</v>
       </c>
-      <c r="CO133" s="32">
+      <c r="CO133" s="17">
         <v>7.7235322712132417</v>
       </c>
-      <c r="CP133" s="32">
+      <c r="CP133" s="17">
         <v>5.6708700000309245</v>
       </c>
-      <c r="CQ133" s="32">
+      <c r="CQ133" s="17">
         <v>3.9486752237721889</v>
       </c>
-      <c r="CR133" s="32">
-        <v>6.0887836636716299</v>
-      </c>
-      <c r="CS133" s="10"/>
+      <c r="CR133" s="17">
+        <v>6.0865264860625405</v>
+      </c>
+      <c r="CS133" s="17">
+        <v>7.4132872995037262</v>
+      </c>
       <c r="CT133" s="10"/>
       <c r="CU133" s="10"/>
       <c r="CV133" s="10"/>
@@ -45491,14 +45580,14 @@
       <c r="CI134" s="12"/>
       <c r="CJ134" s="12"/>
       <c r="CK134" s="12"/>
-      <c r="CL134" s="27"/>
-      <c r="CM134" s="27"/>
-      <c r="CN134" s="27"/>
-      <c r="CO134" s="27"/>
-      <c r="CP134" s="27"/>
-      <c r="CQ134" s="27"/>
-      <c r="CR134" s="27"/>
-      <c r="CS134" s="10"/>
+      <c r="CL134" s="12"/>
+      <c r="CM134" s="12"/>
+      <c r="CN134" s="12"/>
+      <c r="CO134" s="12"/>
+      <c r="CP134" s="12"/>
+      <c r="CQ134" s="12"/>
+      <c r="CR134" s="12"/>
+      <c r="CS134" s="12"/>
       <c r="CT134" s="10"/>
       <c r="CU134" s="10"/>
       <c r="CV134" s="10"/>
@@ -45826,28 +45915,30 @@
       <c r="CK135" s="17">
         <v>100</v>
       </c>
-      <c r="CL135" s="32">
+      <c r="CL135" s="17">
         <v>100</v>
       </c>
-      <c r="CM135" s="32">
+      <c r="CM135" s="17">
         <v>100</v>
       </c>
-      <c r="CN135" s="32">
+      <c r="CN135" s="17">
         <v>100</v>
       </c>
-      <c r="CO135" s="32">
+      <c r="CO135" s="17">
         <v>100</v>
       </c>
-      <c r="CP135" s="32">
+      <c r="CP135" s="17">
         <v>100</v>
       </c>
-      <c r="CQ135" s="32">
+      <c r="CQ135" s="17">
         <v>100</v>
       </c>
-      <c r="CR135" s="32">
+      <c r="CR135" s="17">
         <v>100</v>
       </c>
-      <c r="CS135" s="10"/>
+      <c r="CS135" s="17">
+        <v>100</v>
+      </c>
       <c r="CT135" s="10"/>
       <c r="CU135" s="10"/>
       <c r="CV135" s="10"/>
@@ -45997,13 +46088,14 @@
       <c r="CI136" s="15"/>
       <c r="CJ136" s="15"/>
       <c r="CK136" s="15"/>
-      <c r="CL136" s="29"/>
-      <c r="CM136" s="29"/>
-      <c r="CN136" s="29"/>
-      <c r="CO136" s="29"/>
-      <c r="CP136" s="29"/>
-      <c r="CQ136" s="29"/>
-      <c r="CR136" s="29"/>
+      <c r="CL136" s="15"/>
+      <c r="CM136" s="15"/>
+      <c r="CN136" s="15"/>
+      <c r="CO136" s="15"/>
+      <c r="CP136" s="15"/>
+      <c r="CQ136" s="15"/>
+      <c r="CR136" s="15"/>
+      <c r="CS136" s="15"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46097,13 +46189,14 @@
       <c r="CI137" s="1"/>
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
-      <c r="CL137" s="24"/>
-      <c r="CM137" s="24"/>
-      <c r="CN137" s="24"/>
-      <c r="CO137" s="24"/>
-      <c r="CP137" s="24"/>
-      <c r="CQ137" s="24"/>
-      <c r="CR137" s="24"/>
+      <c r="CL137" s="1"/>
+      <c r="CM137" s="1"/>
+      <c r="CN137" s="1"/>
+      <c r="CO137" s="1"/>
+      <c r="CP137" s="1"/>
+      <c r="CQ137" s="1"/>
+      <c r="CR137" s="1"/>
+      <c r="CS137" s="1"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -46195,14 +46288,14 @@
       <c r="CI138" s="11"/>
       <c r="CJ138" s="11"/>
       <c r="CK138" s="11"/>
-      <c r="CL138" s="34"/>
-      <c r="CM138" s="34"/>
-      <c r="CN138" s="34"/>
-      <c r="CO138" s="34"/>
-      <c r="CP138" s="34"/>
-      <c r="CQ138" s="34"/>
-      <c r="CR138" s="34"/>
-      <c r="CS138" s="19"/>
+      <c r="CL138" s="11"/>
+      <c r="CM138" s="11"/>
+      <c r="CN138" s="11"/>
+      <c r="CO138" s="11"/>
+      <c r="CP138" s="11"/>
+      <c r="CQ138" s="11"/>
+      <c r="CR138" s="11"/>
+      <c r="CS138" s="11"/>
       <c r="CT138" s="19"/>
       <c r="CU138" s="19"/>
       <c r="CV138" s="19"/>
@@ -46352,14 +46445,14 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="34"/>
-      <c r="CM139" s="34"/>
-      <c r="CN139" s="34"/>
-      <c r="CO139" s="34"/>
-      <c r="CP139" s="34"/>
-      <c r="CQ139" s="34"/>
-      <c r="CR139" s="34"/>
-      <c r="CS139" s="19"/>
+      <c r="CL139" s="11"/>
+      <c r="CM139" s="11"/>
+      <c r="CN139" s="11"/>
+      <c r="CO139" s="11"/>
+      <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
+      <c r="CR139" s="11"/>
+      <c r="CS139" s="11"/>
       <c r="CT139" s="19"/>
       <c r="CU139" s="19"/>
       <c r="CV139" s="19"/>
@@ -46420,29 +46513,21 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL88:CO88"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP29:CR29"/>
-    <mergeCell ref="CP88:CR88"/>
-    <mergeCell ref="CP108:CR108"/>
-    <mergeCell ref="CP128:CR128"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
+  <mergeCells count="154">
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH88:CK88"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL29:CO29"/>
     <mergeCell ref="CH49:CK49"/>
     <mergeCell ref="CH69:CK69"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CL49:CN49"/>
-    <mergeCell ref="CL69:CN69"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BR88:BU88"/>
@@ -46548,7 +46633,6 @@
     <mergeCell ref="N88:Q88"/>
     <mergeCell ref="V88:Y88"/>
     <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="BF88:BI88"/>
     <mergeCell ref="AH128:AK128"/>
     <mergeCell ref="BF128:BI128"/>
     <mergeCell ref="BJ128:BM128"/>
@@ -46563,8 +46647,10 @@
     <mergeCell ref="BF108:BI108"/>
     <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
     <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AD88:AG88"/>
     <mergeCell ref="AH88:AK88"/>
@@ -46574,28 +46660,23 @@
     <mergeCell ref="AX88:BA88"/>
     <mergeCell ref="BB88:BE88"/>
     <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="BV69:BY69"/>
     <mergeCell ref="AT69:AW69"/>
     <mergeCell ref="BB69:BE69"/>
     <mergeCell ref="BF69:BI69"/>
     <mergeCell ref="BJ69:BM69"/>
     <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="CH88:CK88"/>
     <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
     <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF88:BI88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="95" man="1"/>
-    <brk id="80" max="95" man="1"/>
-    <brk id="99" max="95" man="1"/>
+    <brk id="40" max="96" man="1"/>
+    <brk id="80" max="96" man="1"/>
+    <brk id="99" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B251F-67FE-42F0-9263-57F7F4DB0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FAAEA-F5D4-41B1-8124-FDF42455E78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1485" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CS$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CT$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,20 +762,37 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23624,48 +23644,84 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="97" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="35" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="24"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="24"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
+      <c r="CT4" s="24"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CP5" s="24"/>
+      <c r="CQ5" s="24"/>
+      <c r="CR5" s="24"/>
+      <c r="CS5" s="24"/>
+      <c r="CT5" s="24"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CP6" s="24"/>
+      <c r="CQ6" s="24"/>
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="24"/>
+      <c r="CT6" s="24"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+      <c r="CR7" s="24"/>
+      <c r="CS7" s="24"/>
+      <c r="CT7" s="24"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23761,157 +23817,161 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
+      <c r="CP8" s="25"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="25">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="24">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="24"/>
-      <c r="CP9" s="24">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="24"/>
-      <c r="CR9" s="24"/>
-      <c r="CS9" s="24"/>
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24193,17 +24253,20 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24300,10 +24363,11 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
+      <c r="CP11" s="25"/>
+      <c r="CQ11" s="25"/>
+      <c r="CR11" s="25"/>
+      <c r="CS11" s="25"/>
+      <c r="CT11" s="25"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24574,30 +24638,32 @@
         <v>43550.017248096432</v>
       </c>
       <c r="CL12" s="9">
-        <v>36526.139943664632</v>
+        <v>36539.883867386903</v>
       </c>
       <c r="CM12" s="9">
-        <v>20059.899584121988</v>
+        <v>19950.230694973907</v>
       </c>
       <c r="CN12" s="9">
-        <v>30131.143716784616</v>
+        <v>30018.876044656445</v>
       </c>
       <c r="CO12" s="9">
-        <v>49295.172883435189</v>
-      </c>
-      <c r="CP12" s="9">
-        <v>40166.371432009095</v>
-      </c>
-      <c r="CQ12" s="9">
-        <v>23364.557429517939</v>
-      </c>
-      <c r="CR12" s="9">
-        <v>33235.361642180709</v>
-      </c>
-      <c r="CS12" s="9">
-        <v>53456.543862217448</v>
-      </c>
-      <c r="CT12" s="10"/>
+        <v>49056.059797367976</v>
+      </c>
+      <c r="CP12" s="28">
+        <v>40262.181528339635</v>
+      </c>
+      <c r="CQ12" s="28">
+        <v>23236.821742308421</v>
+      </c>
+      <c r="CR12" s="28">
+        <v>33111.527753929491</v>
+      </c>
+      <c r="CS12" s="28">
+        <v>53197.245467958688</v>
+      </c>
+      <c r="CT12" s="28">
+        <v>43694.883738080607</v>
+      </c>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
@@ -24928,27 +24994,29 @@
         <v>51356.064522989262</v>
       </c>
       <c r="CM13" s="9">
-        <v>66706.217402237162</v>
+        <v>66648.055131561472</v>
       </c>
       <c r="CN13" s="9">
-        <v>67155.373374645045</v>
+        <v>67186.506694655138</v>
       </c>
       <c r="CO13" s="9">
-        <v>64239.897264303501</v>
-      </c>
-      <c r="CP13" s="9">
-        <v>58799.529574003187</v>
-      </c>
-      <c r="CQ13" s="9">
-        <v>74852.095185952407</v>
-      </c>
-      <c r="CR13" s="9">
-        <v>75606.109678362176</v>
-      </c>
-      <c r="CS13" s="9">
-        <v>73010.702096350607</v>
-      </c>
-      <c r="CT13" s="10"/>
+        <v>64814.715425068018</v>
+      </c>
+      <c r="CP13" s="28">
+        <v>58719.753747963237</v>
+      </c>
+      <c r="CQ13" s="28">
+        <v>74939.855295263042</v>
+      </c>
+      <c r="CR13" s="28">
+        <v>75659.319913841071</v>
+      </c>
+      <c r="CS13" s="28">
+        <v>73640.706679135736</v>
+      </c>
+      <c r="CT13" s="28">
+        <v>67337.890603761349</v>
+      </c>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
@@ -25276,30 +25344,32 @@
         <v>8521.169658045339</v>
       </c>
       <c r="CL14" s="9">
-        <v>5749.8051938795297</v>
+        <v>5698.9577884640266</v>
       </c>
       <c r="CM14" s="9">
-        <v>3851.1206859689173</v>
+        <v>3966.2516753458185</v>
       </c>
       <c r="CN14" s="9">
-        <v>6485.5826641337062</v>
+        <v>6449.3618015119919</v>
       </c>
       <c r="CO14" s="9">
-        <v>10156.576953483676</v>
-      </c>
-      <c r="CP14" s="9">
-        <v>6087.2522060595948</v>
-      </c>
-      <c r="CQ14" s="9">
-        <v>4097.6278465329142</v>
-      </c>
-      <c r="CR14" s="9">
-        <v>7230.705460984057</v>
-      </c>
-      <c r="CS14" s="9">
-        <v>10702.677431811253</v>
-      </c>
-      <c r="CT14" s="10"/>
+        <v>9891.7991232520089</v>
+      </c>
+      <c r="CP14" s="28">
+        <v>6033.5397901575643</v>
+      </c>
+      <c r="CQ14" s="28">
+        <v>4226.6510547546868</v>
+      </c>
+      <c r="CR14" s="28">
+        <v>7189.7961110793576</v>
+      </c>
+      <c r="CS14" s="28">
+        <v>10427.111203207209</v>
+      </c>
+      <c r="CT14" s="28">
+        <v>6602.8065060838253</v>
+      </c>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
@@ -25451,11 +25521,11 @@
       <c r="CM15" s="12"/>
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
-      <c r="CP15" s="12"/>
-      <c r="CQ15" s="12"/>
-      <c r="CR15" s="12"/>
-      <c r="CS15" s="12"/>
-      <c r="CT15" s="10"/>
+      <c r="CP15" s="29"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="29"/>
+      <c r="CT15" s="29"/>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
@@ -25782,31 +25852,33 @@
       <c r="CK16" s="21">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="22">
-        <v>93632.009660533426</v>
-      </c>
-      <c r="CM16" s="22">
-        <v>90617.237672328061</v>
-      </c>
-      <c r="CN16" s="22">
-        <v>103772.09975556337</v>
-      </c>
-      <c r="CO16" s="22">
-        <v>123691.64710122236</v>
-      </c>
-      <c r="CP16" s="22">
-        <v>105053.15321207188</v>
-      </c>
-      <c r="CQ16" s="22">
-        <v>102314.28046200325</v>
-      </c>
-      <c r="CR16" s="22">
-        <v>116072.17678152694</v>
-      </c>
-      <c r="CS16" s="22">
-        <v>137169.92339037932</v>
-      </c>
-      <c r="CT16" s="10"/>
+      <c r="CL16" s="21">
+        <v>93594.906178840203</v>
+      </c>
+      <c r="CM16" s="21">
+        <v>90564.53750188119</v>
+      </c>
+      <c r="CN16" s="21">
+        <v>103654.74454082357</v>
+      </c>
+      <c r="CO16" s="21">
+        <v>123762.57434568802</v>
+      </c>
+      <c r="CP16" s="30">
+        <v>105015.47506646044</v>
+      </c>
+      <c r="CQ16" s="30">
+        <v>102403.32809232616</v>
+      </c>
+      <c r="CR16" s="30">
+        <v>115960.64377884992</v>
+      </c>
+      <c r="CS16" s="30">
+        <v>137265.06335030161</v>
+      </c>
+      <c r="CT16" s="30">
+        <v>117635.58084792578</v>
+      </c>
       <c r="CU16" s="10"/>
       <c r="CV16" s="10"/>
       <c r="CW16" s="10"/>
@@ -25959,10 +26031,11 @@
       <c r="CM17" s="15"/>
       <c r="CN17" s="15"/>
       <c r="CO17" s="15"/>
-      <c r="CP17" s="15"/>
-      <c r="CQ17" s="15"/>
-      <c r="CR17" s="15"/>
-      <c r="CS17" s="15"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="31"/>
+      <c r="CS17" s="31"/>
+      <c r="CT17" s="31"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26060,10 +26133,11 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26158,11 +26232,11 @@
       <c r="CM19" s="12"/>
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="12"/>
-      <c r="CT19" s="10"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="29"/>
+      <c r="CT19" s="29"/>
       <c r="CU19" s="10"/>
       <c r="CV19" s="10"/>
       <c r="CW19" s="10"/>
@@ -26314,11 +26388,11 @@
       <c r="CM20" s="12"/>
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
-      <c r="CP20" s="12"/>
-      <c r="CQ20" s="12"/>
-      <c r="CR20" s="12"/>
-      <c r="CS20" s="12"/>
-      <c r="CT20" s="10"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
       <c r="CU20" s="10"/>
       <c r="CV20" s="10"/>
       <c r="CW20" s="10"/>
@@ -26473,10 +26547,11 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
+      <c r="CP21" s="25"/>
+      <c r="CQ21" s="25"/>
+      <c r="CR21" s="25"/>
+      <c r="CS21" s="25"/>
+      <c r="CT21" s="25"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26574,14 +26649,15 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
+      <c r="CP22" s="25"/>
+      <c r="CQ22" s="25"/>
+      <c r="CR22" s="25"/>
+      <c r="CS22" s="25"/>
+      <c r="CT22" s="25"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26675,10 +26751,11 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
+      <c r="CP23" s="25"/>
+      <c r="CQ23" s="25"/>
+      <c r="CR23" s="25"/>
+      <c r="CS23" s="25"/>
+      <c r="CT23" s="25"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26774,10 +26851,11 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
+      <c r="CP24" s="25"/>
+      <c r="CQ24" s="25"/>
+      <c r="CR24" s="25"/>
+      <c r="CS24" s="25"/>
+      <c r="CT24" s="25"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26875,14 +26953,15 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
+      <c r="CP25" s="25"/>
+      <c r="CQ25" s="25"/>
+      <c r="CR25" s="25"/>
+      <c r="CS25" s="25"/>
+      <c r="CT25" s="25"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26976,10 +27055,11 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
+      <c r="CP26" s="25"/>
+      <c r="CQ26" s="25"/>
+      <c r="CR26" s="25"/>
+      <c r="CS26" s="25"/>
+      <c r="CT26" s="25"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27077,10 +27157,11 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
+      <c r="CP27" s="25"/>
+      <c r="CQ27" s="25"/>
+      <c r="CR27" s="25"/>
+      <c r="CS27" s="25"/>
+      <c r="CT27" s="25"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27176,157 +27257,161 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
-      <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
-      <c r="CR28" s="1"/>
-      <c r="CS28" s="1"/>
+      <c r="CP28" s="25"/>
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="25">
+      <c r="B29" s="36">
         <v>2000</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36">
         <v>2001</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="25">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36">
         <v>2002</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="25">
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="36">
         <v>2003</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="25">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="36">
         <v>2004</v>
       </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="25">
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="36">
         <v>2005</v>
       </c>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="25">
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="36">
         <v>2006</v>
       </c>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="25">
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="36">
         <v>2007</v>
       </c>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="25">
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="36">
         <v>2008</v>
       </c>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="25">
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="36">
         <v>2009</v>
       </c>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="25">
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="27"/>
-      <c r="AS29" s="27"/>
-      <c r="AT29" s="25">
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="36">
         <v>2011</v>
       </c>
-      <c r="AU29" s="27"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="27"/>
-      <c r="AX29" s="25">
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="36">
         <v>2012</v>
       </c>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="27"/>
-      <c r="BA29" s="27"/>
-      <c r="BB29" s="25">
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="36">
         <v>2013</v>
       </c>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="27"/>
-      <c r="BE29" s="27"/>
-      <c r="BF29" s="25">
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="36">
         <v>2014</v>
       </c>
-      <c r="BG29" s="27"/>
-      <c r="BH29" s="27"/>
-      <c r="BI29" s="27"/>
-      <c r="BJ29" s="25">
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="36">
         <v>2015</v>
       </c>
-      <c r="BK29" s="27"/>
-      <c r="BL29" s="27"/>
-      <c r="BM29" s="27"/>
-      <c r="BN29" s="25">
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="36">
         <v>2016</v>
       </c>
-      <c r="BO29" s="27"/>
-      <c r="BP29" s="27"/>
-      <c r="BQ29" s="27"/>
-      <c r="BR29" s="25">
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="36">
         <v>2017</v>
       </c>
-      <c r="BS29" s="27"/>
-      <c r="BT29" s="27"/>
-      <c r="BU29" s="27"/>
-      <c r="BV29" s="25">
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="36">
         <v>2018</v>
       </c>
-      <c r="BW29" s="27"/>
-      <c r="BX29" s="27"/>
-      <c r="BY29" s="27"/>
-      <c r="BZ29" s="25">
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="36">
         <v>2019</v>
       </c>
-      <c r="CA29" s="27"/>
-      <c r="CB29" s="27"/>
-      <c r="CC29" s="27"/>
-      <c r="CD29" s="25">
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="36">
         <v>2020</v>
       </c>
-      <c r="CE29" s="25"/>
-      <c r="CF29" s="25"/>
-      <c r="CG29" s="25"/>
-      <c r="CH29" s="25">
+      <c r="CE29" s="36"/>
+      <c r="CF29" s="36"/>
+      <c r="CG29" s="36"/>
+      <c r="CH29" s="22">
         <v>2021</v>
       </c>
-      <c r="CI29" s="25"/>
-      <c r="CJ29" s="25"/>
-      <c r="CK29" s="25"/>
-      <c r="CL29" s="24">
+      <c r="CI29" s="22"/>
+      <c r="CJ29" s="22"/>
+      <c r="CK29" s="22"/>
+      <c r="CL29" s="22">
         <v>2022</v>
       </c>
-      <c r="CM29" s="24"/>
-      <c r="CN29" s="24"/>
-      <c r="CO29" s="24"/>
-      <c r="CP29" s="24">
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
+      <c r="CP29" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="24"/>
-      <c r="CR29" s="24"/>
-      <c r="CS29" s="24"/>
+      <c r="CQ29" s="26"/>
+      <c r="CR29" s="26"/>
+      <c r="CS29" s="26"/>
+      <c r="CT29" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27608,17 +27693,20 @@
       <c r="CO30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="7" t="s">
+      <c r="CP30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="7" t="s">
+      <c r="CQ30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="7" t="s">
+      <c r="CR30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="7" t="s">
+      <c r="CS30" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CT30" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27715,10 +27803,11 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
+      <c r="CP31" s="25"/>
+      <c r="CQ31" s="25"/>
+      <c r="CR31" s="25"/>
+      <c r="CS31" s="25"/>
+      <c r="CT31" s="25"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -27989,30 +28078,32 @@
         <v>35398.705930213182</v>
       </c>
       <c r="CL32" s="9">
-        <v>34421.850563731918</v>
+        <v>34435.567886300276</v>
       </c>
       <c r="CM32" s="9">
-        <v>19266.932988162691</v>
+        <v>19163.763133074142</v>
       </c>
       <c r="CN32" s="9">
-        <v>27961.417990217757</v>
+        <v>27857.234646343699</v>
       </c>
       <c r="CO32" s="9">
-        <v>38588.310908607578</v>
-      </c>
-      <c r="CP32" s="9">
-        <v>36451.783951285885</v>
-      </c>
-      <c r="CQ32" s="9">
-        <v>21541.138977982962</v>
-      </c>
-      <c r="CR32" s="9">
-        <v>29623.612882198195</v>
-      </c>
-      <c r="CS32" s="9">
-        <v>40133.412143874542</v>
-      </c>
-      <c r="CT32" s="10"/>
+        <v>38401.132944361525</v>
+      </c>
+      <c r="CP32" s="28">
+        <v>36466.310214995217</v>
+      </c>
+      <c r="CQ32" s="28">
+        <v>21425.791289372319</v>
+      </c>
+      <c r="CR32" s="28">
+        <v>29513.236253631727</v>
+      </c>
+      <c r="CS32" s="28">
+        <v>39938.739451381465</v>
+      </c>
+      <c r="CT32" s="28">
+        <v>38417.23811065546</v>
+      </c>
       <c r="CU32" s="10"/>
       <c r="CV32" s="10"/>
       <c r="CW32" s="10"/>
@@ -28343,27 +28434,29 @@
         <v>51934.93208856626</v>
       </c>
       <c r="CM33" s="9">
-        <v>61670.283227702457</v>
+        <v>61616.511872566138</v>
       </c>
       <c r="CN33" s="9">
-        <v>57160.291355151559</v>
+        <v>57186.790941903935</v>
       </c>
       <c r="CO33" s="9">
-        <v>51258.486783722779</v>
-      </c>
-      <c r="CP33" s="9">
-        <v>56900.939289295486</v>
-      </c>
-      <c r="CQ33" s="9">
-        <v>66369.023578906141</v>
-      </c>
-      <c r="CR33" s="9">
-        <v>61575.624014505433</v>
-      </c>
-      <c r="CS33" s="9">
-        <v>55783.133648134579</v>
-      </c>
-      <c r="CT33" s="10"/>
+        <v>51717.147372412182</v>
+      </c>
+      <c r="CP33" s="28">
+        <v>56823.739361555607</v>
+      </c>
+      <c r="CQ33" s="28">
+        <v>66446.837736942136</v>
+      </c>
+      <c r="CR33" s="28">
+        <v>61618.959843679957</v>
+      </c>
+      <c r="CS33" s="28">
+        <v>56269.508022895752</v>
+      </c>
+      <c r="CT33" s="28">
+        <v>62869.840288546235</v>
+      </c>
       <c r="CU33" s="10"/>
       <c r="CV33" s="10"/>
       <c r="CW33" s="10"/>
@@ -28691,30 +28784,32 @@
         <v>6521.0075512020676</v>
       </c>
       <c r="CL34" s="9">
-        <v>5507.4664835591848</v>
+        <v>5458.3011887911216</v>
       </c>
       <c r="CM34" s="9">
-        <v>3534.3141677116109</v>
+        <v>3639.0822620491872</v>
       </c>
       <c r="CN34" s="9">
-        <v>5519.0295232979697</v>
+        <v>5488.2066935660987</v>
       </c>
       <c r="CO34" s="9">
-        <v>7520.1691018500005</v>
-      </c>
-      <c r="CP34" s="9">
-        <v>5612.1704678753649</v>
-      </c>
-      <c r="CQ34" s="9">
-        <v>3613.9915989173951</v>
-      </c>
-      <c r="CR34" s="9">
-        <v>5910.6169765736522</v>
-      </c>
-      <c r="CS34" s="9">
-        <v>7679.9023314752321</v>
-      </c>
-      <c r="CT34" s="10"/>
+        <v>7324.1213520143538</v>
+      </c>
+      <c r="CP34" s="28">
+        <v>5562.1833673924257</v>
+      </c>
+      <c r="CQ34" s="28">
+        <v>3726.7650179692655</v>
+      </c>
+      <c r="CR34" s="28">
+        <v>5877.176325540082</v>
+      </c>
+      <c r="CS34" s="28">
+        <v>7482.1647340361324</v>
+      </c>
+      <c r="CT34" s="28">
+        <v>5923.946664969184</v>
+      </c>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
@@ -28866,11 +28961,11 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
-      <c r="CT35" s="10"/>
+      <c r="CP35" s="29"/>
+      <c r="CQ35" s="29"/>
+      <c r="CR35" s="29"/>
+      <c r="CS35" s="29"/>
+      <c r="CT35" s="29"/>
       <c r="CU35" s="10"/>
       <c r="CV35" s="10"/>
       <c r="CW35" s="10"/>
@@ -29197,31 +29292,33 @@
       <c r="CK36" s="21">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="22">
-        <v>91864.249135857361</v>
-      </c>
-      <c r="CM36" s="22">
-        <v>84471.530383576755</v>
-      </c>
-      <c r="CN36" s="22">
-        <v>90640.738868667278</v>
-      </c>
-      <c r="CO36" s="22">
-        <v>97366.966794180349</v>
-      </c>
-      <c r="CP36" s="22">
-        <v>98964.89370845673</v>
-      </c>
-      <c r="CQ36" s="22">
-        <v>91524.154155806493</v>
-      </c>
-      <c r="CR36" s="22">
-        <v>97109.853873277287</v>
-      </c>
-      <c r="CS36" s="22">
-        <v>103596.44812348436</v>
-      </c>
-      <c r="CT36" s="10"/>
+      <c r="CL36" s="21">
+        <v>91828.80116365767</v>
+      </c>
+      <c r="CM36" s="21">
+        <v>84419.357267689469</v>
+      </c>
+      <c r="CN36" s="21">
+        <v>90532.232281813733</v>
+      </c>
+      <c r="CO36" s="21">
+        <v>97442.401668788065</v>
+      </c>
+      <c r="CP36" s="30">
+        <v>98852.232943943251</v>
+      </c>
+      <c r="CQ36" s="30">
+        <v>91599.394044283719</v>
+      </c>
+      <c r="CR36" s="30">
+        <v>97009.372422851768</v>
+      </c>
+      <c r="CS36" s="30">
+        <v>103690.41220831336</v>
+      </c>
+      <c r="CT36" s="30">
+        <v>107211.02506417088</v>
+      </c>
       <c r="CU36" s="10"/>
       <c r="CV36" s="10"/>
       <c r="CW36" s="10"/>
@@ -29374,10 +29471,11 @@
       <c r="CM37" s="15"/>
       <c r="CN37" s="15"/>
       <c r="CO37" s="15"/>
-      <c r="CP37" s="15"/>
-      <c r="CQ37" s="15"/>
-      <c r="CR37" s="15"/>
-      <c r="CS37" s="15"/>
+      <c r="CP37" s="31"/>
+      <c r="CQ37" s="31"/>
+      <c r="CR37" s="31"/>
+      <c r="CS37" s="31"/>
+      <c r="CT37" s="31"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29475,10 +29573,11 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29573,11 +29672,11 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
-      <c r="CR39" s="12"/>
-      <c r="CS39" s="12"/>
-      <c r="CT39" s="10"/>
+      <c r="CP39" s="29"/>
+      <c r="CQ39" s="29"/>
+      <c r="CR39" s="29"/>
+      <c r="CS39" s="29"/>
+      <c r="CT39" s="29"/>
       <c r="CU39" s="10"/>
       <c r="CV39" s="10"/>
       <c r="CW39" s="10"/>
@@ -29729,11 +29828,11 @@
       <c r="CM40" s="12"/>
       <c r="CN40" s="12"/>
       <c r="CO40" s="12"/>
-      <c r="CP40" s="12"/>
-      <c r="CQ40" s="12"/>
-      <c r="CR40" s="12"/>
-      <c r="CS40" s="12"/>
-      <c r="CT40" s="10"/>
+      <c r="CP40" s="29"/>
+      <c r="CQ40" s="29"/>
+      <c r="CR40" s="29"/>
+      <c r="CS40" s="29"/>
+      <c r="CT40" s="29"/>
       <c r="CU40" s="10"/>
       <c r="CV40" s="10"/>
       <c r="CW40" s="10"/>
@@ -29888,10 +29987,11 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
+      <c r="CP41" s="25"/>
+      <c r="CQ41" s="25"/>
+      <c r="CR41" s="25"/>
+      <c r="CS41" s="25"/>
+      <c r="CT41" s="25"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -29989,14 +30089,15 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
-      <c r="CR42" s="1"/>
-      <c r="CS42" s="1"/>
+      <c r="CP42" s="25"/>
+      <c r="CQ42" s="25"/>
+      <c r="CR42" s="25"/>
+      <c r="CS42" s="25"/>
+      <c r="CT42" s="25"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30090,10 +30191,11 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
+      <c r="CP43" s="25"/>
+      <c r="CQ43" s="25"/>
+      <c r="CR43" s="25"/>
+      <c r="CS43" s="25"/>
+      <c r="CT43" s="25"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30189,10 +30291,11 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
+      <c r="CP44" s="25"/>
+      <c r="CQ44" s="25"/>
+      <c r="CR44" s="25"/>
+      <c r="CS44" s="25"/>
+      <c r="CT44" s="25"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30290,14 +30393,15 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
-      <c r="CP45" s="1"/>
-      <c r="CQ45" s="1"/>
-      <c r="CR45" s="1"/>
-      <c r="CS45" s="1"/>
+      <c r="CP45" s="25"/>
+      <c r="CQ45" s="25"/>
+      <c r="CR45" s="25"/>
+      <c r="CS45" s="25"/>
+      <c r="CT45" s="25"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30391,10 +30495,11 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
+      <c r="CP46" s="25"/>
+      <c r="CQ46" s="25"/>
+      <c r="CR46" s="25"/>
+      <c r="CS46" s="25"/>
+      <c r="CT46" s="25"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30492,10 +30597,11 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
-      <c r="CR47" s="1"/>
-      <c r="CS47" s="1"/>
+      <c r="CP47" s="25"/>
+      <c r="CQ47" s="25"/>
+      <c r="CR47" s="25"/>
+      <c r="CS47" s="25"/>
+      <c r="CT47" s="25"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30591,155 +30697,159 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
-      <c r="CR48" s="1"/>
-      <c r="CS48" s="1"/>
+      <c r="CP48" s="25"/>
+      <c r="CQ48" s="25"/>
+      <c r="CR48" s="25"/>
+      <c r="CS48" s="25"/>
+      <c r="CT48" s="25"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25" t="s">
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25" t="s">
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25" t="s">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25" t="s">
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25" t="s">
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25" t="s">
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25" t="s">
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25" t="s">
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25" t="s">
+      <c r="AM49" s="36"/>
+      <c r="AN49" s="36"/>
+      <c r="AO49" s="36"/>
+      <c r="AP49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25" t="s">
+      <c r="AQ49" s="36"/>
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="36"/>
+      <c r="AT49" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="25"/>
-      <c r="AW49" s="25"/>
-      <c r="AX49" s="25" t="s">
+      <c r="AU49" s="36"/>
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="25"/>
-      <c r="AZ49" s="25"/>
-      <c r="BA49" s="25"/>
-      <c r="BB49" s="25" t="s">
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="36"/>
+      <c r="BA49" s="36"/>
+      <c r="BB49" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="25"/>
-      <c r="BD49" s="25"/>
-      <c r="BE49" s="25"/>
-      <c r="BF49" s="25" t="s">
+      <c r="BC49" s="36"/>
+      <c r="BD49" s="36"/>
+      <c r="BE49" s="36"/>
+      <c r="BF49" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="25"/>
-      <c r="BH49" s="25"/>
-      <c r="BI49" s="25"/>
-      <c r="BJ49" s="25" t="s">
+      <c r="BG49" s="36"/>
+      <c r="BH49" s="36"/>
+      <c r="BI49" s="36"/>
+      <c r="BJ49" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="25"/>
-      <c r="BL49" s="25"/>
-      <c r="BM49" s="25"/>
-      <c r="BN49" s="25" t="s">
+      <c r="BK49" s="36"/>
+      <c r="BL49" s="36"/>
+      <c r="BM49" s="36"/>
+      <c r="BN49" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="25"/>
-      <c r="BP49" s="25"/>
-      <c r="BQ49" s="25"/>
-      <c r="BR49" s="25" t="s">
+      <c r="BO49" s="36"/>
+      <c r="BP49" s="36"/>
+      <c r="BQ49" s="36"/>
+      <c r="BR49" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="25"/>
-      <c r="BT49" s="25"/>
-      <c r="BU49" s="25"/>
-      <c r="BV49" s="25" t="s">
+      <c r="BS49" s="36"/>
+      <c r="BT49" s="36"/>
+      <c r="BU49" s="36"/>
+      <c r="BV49" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="25"/>
-      <c r="BX49" s="25"/>
-      <c r="BY49" s="25"/>
-      <c r="BZ49" s="25" t="s">
+      <c r="BW49" s="36"/>
+      <c r="BX49" s="36"/>
+      <c r="BY49" s="36"/>
+      <c r="BZ49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="25"/>
-      <c r="CB49" s="25"/>
-      <c r="CC49" s="25"/>
-      <c r="CD49" s="25" t="s">
+      <c r="CA49" s="36"/>
+      <c r="CB49" s="36"/>
+      <c r="CC49" s="36"/>
+      <c r="CD49" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="25"/>
-      <c r="CF49" s="25"/>
-      <c r="CG49" s="25"/>
-      <c r="CH49" s="25" t="s">
+      <c r="CE49" s="36"/>
+      <c r="CF49" s="36"/>
+      <c r="CG49" s="36"/>
+      <c r="CH49" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CI49" s="25"/>
-      <c r="CJ49" s="25"/>
-      <c r="CK49" s="25"/>
-      <c r="CL49" s="24" t="s">
+      <c r="CI49" s="22"/>
+      <c r="CJ49" s="22"/>
+      <c r="CK49" s="22"/>
+      <c r="CL49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="24"/>
-      <c r="CN49" s="24"/>
-      <c r="CO49" s="24"/>
-      <c r="CP49" s="23"/>
+      <c r="CM49" s="22"/>
+      <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
+      <c r="CP49" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="CQ49" s="23"/>
       <c r="CR49" s="23"/>
       <c r="CS49" s="23"/>
+      <c r="CT49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31021,10 +31131,13 @@
       <c r="CO50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="6"/>
-      <c r="CQ50" s="6"/>
-      <c r="CR50" s="6"/>
-      <c r="CS50" s="6"/>
+      <c r="CP50" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ50" s="32"/>
+      <c r="CR50" s="32"/>
+      <c r="CS50" s="32"/>
+      <c r="CT50" s="32"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31120,10 +31233,11 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
-      <c r="CR51" s="1"/>
-      <c r="CS51" s="1"/>
+      <c r="CP51" s="25"/>
+      <c r="CQ51" s="25"/>
+      <c r="CR51" s="25"/>
+      <c r="CS51" s="25"/>
+      <c r="CT51" s="25"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31382,34 +31496,36 @@
         <v>26.610864046950184</v>
       </c>
       <c r="CH52" s="17">
-        <v>16.116702145252674</v>
+        <v>16.160394117621706</v>
       </c>
       <c r="CI52" s="17">
-        <v>11.218769628586884</v>
+        <v>10.610728752488072</v>
       </c>
       <c r="CJ52" s="17">
-        <v>22.409838602078125</v>
+        <v>21.953743481540599</v>
       </c>
       <c r="CK52" s="17">
-        <v>13.19208578634921</v>
+        <v>12.643031845210601</v>
       </c>
       <c r="CL52" s="17">
-        <v>9.9660996041708785</v>
+        <v>10.186944420682778</v>
       </c>
       <c r="CM52" s="17">
         <v>16.473950089020818</v>
       </c>
       <c r="CN52" s="17">
-        <v>10.302356772693244</v>
+        <v>10.302356772693216</v>
       </c>
       <c r="CO52" s="17">
-        <v>8.4417413214522128</v>
-      </c>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="10"/>
+        <v>8.4417413214521844</v>
+      </c>
+      <c r="CP52" s="33">
+        <v>8.5258723681546513</v>
+      </c>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
       <c r="CU52" s="10"/>
       <c r="CV52" s="10"/>
       <c r="CW52" s="10"/>
@@ -31724,31 +31840,33 @@
         <v>-1.2872053360931233</v>
       </c>
       <c r="CI53" s="17">
-        <v>1.5384450078431087</v>
+        <v>1.4499119332284351</v>
       </c>
       <c r="CJ53" s="17">
-        <v>1.5447427612616451</v>
+        <v>1.5918190384508506</v>
       </c>
       <c r="CK53" s="17">
-        <v>6.0754254542595163</v>
+        <v>7.0245876347509295</v>
       </c>
       <c r="CL53" s="17">
-        <v>14.493838498239867</v>
+        <v>14.338499831266589</v>
       </c>
       <c r="CM53" s="17">
-        <v>12.211572025731513</v>
+        <v>12.441173485608516</v>
       </c>
       <c r="CN53" s="17">
-        <v>12.583857224011453</v>
+        <v>12.610885185164662</v>
       </c>
       <c r="CO53" s="17">
-        <v>13.653204948260125</v>
-      </c>
-      <c r="CP53" s="17"/>
-      <c r="CQ53" s="17"/>
-      <c r="CR53" s="17"/>
-      <c r="CS53" s="17"/>
-      <c r="CT53" s="10"/>
+        <v>13.617264530415781</v>
+      </c>
+      <c r="CP53" s="33">
+        <v>14.676725132037944</v>
+      </c>
+      <c r="CQ53" s="33"/>
+      <c r="CR53" s="33"/>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
       <c r="CU53" s="10"/>
       <c r="CV53" s="10"/>
       <c r="CW53" s="10"/>
@@ -32060,34 +32178,36 @@
         <v>7.1586273268755605</v>
       </c>
       <c r="CH54" s="17">
-        <v>4.0133743255622392</v>
+        <v>3.0935500820215651</v>
       </c>
       <c r="CI54" s="17">
-        <v>11.032238239500742</v>
+        <v>14.35159706609366</v>
       </c>
       <c r="CJ54" s="17">
-        <v>5.3104108519052176</v>
+        <v>4.7222703375305457</v>
       </c>
       <c r="CK54" s="17">
-        <v>19.192286517781667</v>
+        <v>16.084992086885364</v>
       </c>
       <c r="CL54" s="17">
-        <v>5.8688425225130345</v>
+        <v>5.8709331444919144</v>
       </c>
       <c r="CM54" s="17">
-        <v>6.400920164930568</v>
+        <v>6.5653771047235381</v>
       </c>
       <c r="CN54" s="17">
-        <v>11.488910641305949</v>
+        <v>11.480737666070738</v>
       </c>
       <c r="CO54" s="17">
-        <v>5.3768162327590687</v>
-      </c>
-      <c r="CP54" s="17"/>
-      <c r="CQ54" s="17"/>
-      <c r="CR54" s="17"/>
-      <c r="CS54" s="17"/>
-      <c r="CT54" s="10"/>
+        <v>5.4116756040554463</v>
+      </c>
+      <c r="CP54" s="33">
+        <v>9.4350370715197585</v>
+      </c>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
       <c r="CU54" s="10"/>
       <c r="CV54" s="10"/>
       <c r="CW54" s="10"/>
@@ -32235,11 +32355,11 @@
       <c r="CM55" s="12"/>
       <c r="CN55" s="12"/>
       <c r="CO55" s="12"/>
-      <c r="CP55" s="12"/>
-      <c r="CQ55" s="12"/>
-      <c r="CR55" s="12"/>
-      <c r="CS55" s="12"/>
-      <c r="CT55" s="10"/>
+      <c r="CP55" s="29"/>
+      <c r="CQ55" s="29"/>
+      <c r="CR55" s="29"/>
+      <c r="CS55" s="29"/>
+      <c r="CT55" s="29"/>
       <c r="CU55" s="10"/>
       <c r="CV55" s="10"/>
       <c r="CW55" s="10"/>
@@ -32551,34 +32671,36 @@
         <v>17.379008244405398</v>
       </c>
       <c r="CH56" s="17">
-        <v>5.1925730011910076</v>
+        <v>5.1508884242950899</v>
       </c>
       <c r="CI56" s="17">
-        <v>3.9183354668055159</v>
+        <v>3.8578997910739332</v>
       </c>
       <c r="CJ56" s="17">
-        <v>7.0839001301045386</v>
+        <v>6.9627996211570888</v>
       </c>
       <c r="CK56" s="17">
-        <v>9.8194993942112347</v>
+        <v>9.8824720739610257</v>
       </c>
       <c r="CL56" s="17">
-        <v>12.197904961077157</v>
+        <v>12.202126540730674</v>
       </c>
       <c r="CM56" s="17">
-        <v>12.908187327417437</v>
+        <v>13.072214485939455</v>
       </c>
       <c r="CN56" s="17">
-        <v>11.852971130907619</v>
+        <v>11.872007685263043</v>
       </c>
       <c r="CO56" s="17">
-        <v>10.896674597701079</v>
-      </c>
-      <c r="CP56" s="17"/>
-      <c r="CQ56" s="17"/>
-      <c r="CR56" s="17"/>
-      <c r="CS56" s="17"/>
-      <c r="CT56" s="10"/>
+        <v>10.909993651957379</v>
+      </c>
+      <c r="CP56" s="33">
+        <v>12.017377223193577</v>
+      </c>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
@@ -32727,10 +32849,11 @@
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
-      <c r="CP57" s="15"/>
-      <c r="CQ57" s="15"/>
-      <c r="CR57" s="15"/>
-      <c r="CS57" s="15"/>
+      <c r="CP57" s="31"/>
+      <c r="CQ57" s="31"/>
+      <c r="CR57" s="31"/>
+      <c r="CS57" s="31"/>
+      <c r="CT57" s="31"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32828,10 +32951,11 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
+      <c r="CP58" s="25"/>
+      <c r="CQ58" s="25"/>
+      <c r="CR58" s="25"/>
+      <c r="CS58" s="25"/>
+      <c r="CT58" s="25"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -32926,11 +33050,11 @@
       <c r="CM59" s="12"/>
       <c r="CN59" s="12"/>
       <c r="CO59" s="12"/>
-      <c r="CP59" s="12"/>
-      <c r="CQ59" s="12"/>
-      <c r="CR59" s="12"/>
-      <c r="CS59" s="12"/>
-      <c r="CT59" s="10"/>
+      <c r="CP59" s="29"/>
+      <c r="CQ59" s="29"/>
+      <c r="CR59" s="29"/>
+      <c r="CS59" s="29"/>
+      <c r="CT59" s="29"/>
       <c r="CU59" s="10"/>
       <c r="CV59" s="10"/>
       <c r="CW59" s="10"/>
@@ -33078,11 +33202,11 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
-      <c r="CR60" s="12"/>
-      <c r="CS60" s="12"/>
-      <c r="CT60" s="10"/>
+      <c r="CP60" s="29"/>
+      <c r="CQ60" s="29"/>
+      <c r="CR60" s="29"/>
+      <c r="CS60" s="29"/>
+      <c r="CT60" s="29"/>
       <c r="CU60" s="10"/>
       <c r="CV60" s="10"/>
       <c r="CW60" s="10"/>
@@ -33233,10 +33357,11 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
+      <c r="CP61" s="25"/>
+      <c r="CQ61" s="25"/>
+      <c r="CR61" s="25"/>
+      <c r="CS61" s="25"/>
+      <c r="CT61" s="25"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33334,14 +33459,15 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
-      <c r="CR62" s="1"/>
-      <c r="CS62" s="1"/>
+      <c r="CP62" s="25"/>
+      <c r="CQ62" s="25"/>
+      <c r="CR62" s="25"/>
+      <c r="CS62" s="25"/>
+      <c r="CT62" s="25"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33435,10 +33561,11 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
-      <c r="CR63" s="1"/>
-      <c r="CS63" s="1"/>
+      <c r="CP63" s="25"/>
+      <c r="CQ63" s="25"/>
+      <c r="CR63" s="25"/>
+      <c r="CS63" s="25"/>
+      <c r="CT63" s="25"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33534,10 +33661,11 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
+      <c r="CP64" s="25"/>
+      <c r="CQ64" s="25"/>
+      <c r="CR64" s="25"/>
+      <c r="CS64" s="25"/>
+      <c r="CT64" s="25"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33635,14 +33763,15 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
+      <c r="CP65" s="25"/>
+      <c r="CQ65" s="25"/>
+      <c r="CR65" s="25"/>
+      <c r="CS65" s="25"/>
+      <c r="CT65" s="25"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33736,10 +33865,11 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
-      <c r="CR66" s="1"/>
-      <c r="CS66" s="1"/>
+      <c r="CP66" s="25"/>
+      <c r="CQ66" s="25"/>
+      <c r="CR66" s="25"/>
+      <c r="CS66" s="25"/>
+      <c r="CT66" s="25"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33837,10 +33967,11 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
+      <c r="CP67" s="25"/>
+      <c r="CQ67" s="25"/>
+      <c r="CR67" s="25"/>
+      <c r="CS67" s="25"/>
+      <c r="CT67" s="25"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -33936,155 +34067,159 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
+      <c r="CP68" s="25"/>
+      <c r="CQ68" s="25"/>
+      <c r="CR68" s="25"/>
+      <c r="CS68" s="25"/>
+      <c r="CT68" s="25"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="25" t="s">
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="25" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="25" t="s">
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="25" t="s">
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="25" t="s">
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="25" t="s">
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="25" t="s">
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="26"/>
-      <c r="AH69" s="25" t="s">
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="26"/>
-      <c r="AJ69" s="26"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="25" t="s">
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="26"/>
-      <c r="AN69" s="26"/>
-      <c r="AO69" s="26"/>
-      <c r="AP69" s="25" t="s">
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="26"/>
-      <c r="AR69" s="26"/>
-      <c r="AS69" s="26"/>
-      <c r="AT69" s="25" t="s">
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="38"/>
+      <c r="AT69" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="26"/>
-      <c r="AV69" s="26"/>
-      <c r="AW69" s="26"/>
-      <c r="AX69" s="25" t="s">
+      <c r="AU69" s="38"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="26"/>
-      <c r="AZ69" s="26"/>
-      <c r="BA69" s="26"/>
-      <c r="BB69" s="25" t="s">
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="26"/>
-      <c r="BD69" s="26"/>
-      <c r="BE69" s="26"/>
-      <c r="BF69" s="25" t="s">
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="26"/>
-      <c r="BH69" s="26"/>
-      <c r="BI69" s="26"/>
-      <c r="BJ69" s="25" t="s">
+      <c r="BG69" s="38"/>
+      <c r="BH69" s="38"/>
+      <c r="BI69" s="38"/>
+      <c r="BJ69" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="26"/>
-      <c r="BL69" s="26"/>
-      <c r="BM69" s="26"/>
-      <c r="BN69" s="25" t="s">
+      <c r="BK69" s="38"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="26"/>
-      <c r="BP69" s="26"/>
-      <c r="BQ69" s="26"/>
-      <c r="BR69" s="25" t="s">
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="26"/>
-      <c r="BT69" s="26"/>
-      <c r="BU69" s="26"/>
-      <c r="BV69" s="25" t="s">
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="26"/>
-      <c r="BX69" s="26"/>
-      <c r="BY69" s="26"/>
-      <c r="BZ69" s="25" t="s">
+      <c r="BW69" s="38"/>
+      <c r="BX69" s="38"/>
+      <c r="BY69" s="38"/>
+      <c r="BZ69" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="26"/>
-      <c r="CB69" s="26"/>
-      <c r="CC69" s="26"/>
-      <c r="CD69" s="25" t="s">
+      <c r="CA69" s="38"/>
+      <c r="CB69" s="38"/>
+      <c r="CC69" s="38"/>
+      <c r="CD69" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="25"/>
-      <c r="CF69" s="25"/>
-      <c r="CG69" s="25"/>
-      <c r="CH69" s="25" t="s">
+      <c r="CE69" s="36"/>
+      <c r="CF69" s="36"/>
+      <c r="CG69" s="36"/>
+      <c r="CH69" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CI69" s="25"/>
-      <c r="CJ69" s="25"/>
-      <c r="CK69" s="25"/>
-      <c r="CL69" s="24" t="s">
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="22"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="24"/>
-      <c r="CN69" s="24"/>
-      <c r="CO69" s="24"/>
-      <c r="CP69" s="23"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="CQ69" s="23"/>
       <c r="CR69" s="23"/>
       <c r="CS69" s="23"/>
+      <c r="CT69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34366,10 +34501,13 @@
       <c r="CO70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="6"/>
-      <c r="CQ70" s="6"/>
-      <c r="CR70" s="6"/>
-      <c r="CS70" s="6"/>
+      <c r="CP70" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ70" s="32"/>
+      <c r="CR70" s="32"/>
+      <c r="CS70" s="32"/>
+      <c r="CT70" s="32"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34465,10 +34603,11 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34727,34 +34866,36 @@
         <v>23.522627247186563</v>
       </c>
       <c r="CH72" s="17">
-        <v>11.588422938164598</v>
+        <v>11.632891622075221</v>
       </c>
       <c r="CI72" s="17">
-        <v>5.5943715988380376</v>
+        <v>5.0289387910989092</v>
       </c>
       <c r="CJ72" s="17">
-        <v>17.837970705863711</v>
+        <v>17.398910218024184</v>
       </c>
       <c r="CK72" s="17">
-        <v>9.0105129398869792</v>
+        <v>8.4817422989062976</v>
       </c>
       <c r="CL72" s="17">
         <v>5.8972232878518724</v>
       </c>
       <c r="CM72" s="17">
-        <v>11.803674156221476</v>
+        <v>11.803674156221504</v>
       </c>
       <c r="CN72" s="17">
         <v>5.9446015669232253</v>
       </c>
       <c r="CO72" s="17">
-        <v>4.0040654770465949</v>
-      </c>
-      <c r="CP72" s="17"/>
-      <c r="CQ72" s="17"/>
-      <c r="CR72" s="17"/>
-      <c r="CS72" s="17"/>
-      <c r="CT72" s="10"/>
+        <v>4.0040654770465665</v>
+      </c>
+      <c r="CP72" s="33">
+        <v>5.3499459752251113</v>
+      </c>
+      <c r="CQ72" s="33"/>
+      <c r="CR72" s="33"/>
+      <c r="CS72" s="33"/>
+      <c r="CT72" s="33"/>
       <c r="CU72" s="10"/>
       <c r="CV72" s="10"/>
       <c r="CW72" s="10"/>
@@ -35069,31 +35210,33 @@
         <v>-3.7781365688530713</v>
       </c>
       <c r="CI73" s="17">
-        <v>-0.16023989681789885</v>
+        <v>-0.24729185955028754</v>
       </c>
       <c r="CJ73" s="17">
-        <v>-3.3928969498816741E-2</v>
+        <v>1.2415433385839947E-2</v>
       </c>
       <c r="CK73" s="17">
-        <v>3.1609317955277163</v>
+        <v>4.0840151067211679</v>
       </c>
       <c r="CL73" s="17">
-        <v>9.5619788089075399</v>
+        <v>9.4133314060222801</v>
       </c>
       <c r="CM73" s="17">
-        <v>7.6191321091468467</v>
+        <v>7.8393367582474838</v>
       </c>
       <c r="CN73" s="17">
-        <v>7.7244754263414706</v>
+        <v>7.7503367976682966</v>
       </c>
       <c r="CO73" s="17">
-        <v>8.8271175142232465</v>
-      </c>
-      <c r="CP73" s="17"/>
-      <c r="CQ73" s="17"/>
-      <c r="CR73" s="17"/>
-      <c r="CS73" s="17"/>
-      <c r="CT73" s="10"/>
+        <v>8.8024202450732218</v>
+      </c>
+      <c r="CP73" s="33">
+        <v>10.640096894223674</v>
+      </c>
+      <c r="CQ73" s="33"/>
+      <c r="CR73" s="33"/>
+      <c r="CS73" s="33"/>
+      <c r="CT73" s="33"/>
       <c r="CU73" s="10"/>
       <c r="CV73" s="10"/>
       <c r="CW73" s="10"/>
@@ -35405,34 +35548,36 @@
         <v>2.2116459544824636</v>
       </c>
       <c r="CH74" s="17">
-        <v>0.26789595285534062</v>
+        <v>-0.62719812987973</v>
       </c>
       <c r="CI74" s="17">
-        <v>9.9194644739164488</v>
+        <v>13.177820204922526</v>
       </c>
       <c r="CJ74" s="17">
-        <v>1.9852614333294696</v>
+        <v>1.4156913060000136</v>
       </c>
       <c r="CK74" s="17">
-        <v>15.322195884648977</v>
+        <v>12.315793142491344</v>
       </c>
       <c r="CL74" s="17">
-        <v>1.9011279438329893</v>
+        <v>1.9031961595419347</v>
       </c>
       <c r="CM74" s="17">
-        <v>2.2543958297112567</v>
+        <v>2.4094744115705566</v>
       </c>
       <c r="CN74" s="17">
-        <v>7.0952230210517939</v>
+        <v>7.0873721361474509</v>
       </c>
       <c r="CO74" s="17">
-        <v>2.1240643323557293</v>
-      </c>
-      <c r="CP74" s="17"/>
-      <c r="CQ74" s="17"/>
-      <c r="CR74" s="17"/>
-      <c r="CS74" s="17"/>
-      <c r="CT74" s="10"/>
+        <v>2.1578476710836014</v>
+      </c>
+      <c r="CP74" s="33">
+        <v>6.5039800682866513</v>
+      </c>
+      <c r="CQ74" s="33"/>
+      <c r="CR74" s="33"/>
+      <c r="CS74" s="33"/>
+      <c r="CT74" s="33"/>
       <c r="CU74" s="10"/>
       <c r="CV74" s="10"/>
       <c r="CW74" s="10"/>
@@ -35580,11 +35725,11 @@
       <c r="CM75" s="12"/>
       <c r="CN75" s="12"/>
       <c r="CO75" s="12"/>
-      <c r="CP75" s="12"/>
-      <c r="CQ75" s="12"/>
-      <c r="CR75" s="12"/>
-      <c r="CS75" s="12"/>
-      <c r="CT75" s="10"/>
+      <c r="CP75" s="29"/>
+      <c r="CQ75" s="29"/>
+      <c r="CR75" s="29"/>
+      <c r="CS75" s="29"/>
+      <c r="CT75" s="29"/>
       <c r="CU75" s="10"/>
       <c r="CV75" s="10"/>
       <c r="CW75" s="10"/>
@@ -35896,34 +36041,36 @@
         <v>13.948756169581998</v>
       </c>
       <c r="CH76" s="17">
-        <v>1.716450755851028</v>
+        <v>1.6772010808952018</v>
       </c>
       <c r="CI76" s="17">
-        <v>1.4907064691597469</v>
+        <v>1.4280216052055152</v>
       </c>
       <c r="CJ76" s="17">
-        <v>5.0055062259572765</v>
+        <v>4.87980348761225</v>
       </c>
       <c r="CK76" s="17">
-        <v>6.2869966363772676</v>
+        <v>6.3693422873478198</v>
       </c>
       <c r="CL76" s="17">
-        <v>7.7294972085367704</v>
+        <v>7.6483975520581993</v>
       </c>
       <c r="CM76" s="17">
-        <v>8.3491132932059742</v>
+        <v>8.5052018979802568</v>
       </c>
       <c r="CN76" s="17">
-        <v>7.1370942970614379</v>
+        <v>7.1545127937148862</v>
       </c>
       <c r="CO76" s="17">
-        <v>6.3979412468216452</v>
-      </c>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="10"/>
+        <v>6.4120038428061292</v>
+      </c>
+      <c r="CP76" s="33">
+        <v>8.4558455295265844</v>
+      </c>
+      <c r="CQ76" s="33"/>
+      <c r="CR76" s="33"/>
+      <c r="CS76" s="33"/>
+      <c r="CT76" s="33"/>
       <c r="CU76" s="10"/>
       <c r="CV76" s="10"/>
       <c r="CW76" s="10"/>
@@ -36072,10 +36219,11 @@
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
-      <c r="CP77" s="15"/>
-      <c r="CQ77" s="15"/>
-      <c r="CR77" s="15"/>
-      <c r="CS77" s="15"/>
+      <c r="CP77" s="31"/>
+      <c r="CQ77" s="31"/>
+      <c r="CR77" s="31"/>
+      <c r="CS77" s="31"/>
+      <c r="CT77" s="31"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36173,10 +36321,11 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
+      <c r="CP78" s="25"/>
+      <c r="CQ78" s="25"/>
+      <c r="CR78" s="25"/>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="25"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36271,11 +36420,11 @@
       <c r="CM79" s="12"/>
       <c r="CN79" s="12"/>
       <c r="CO79" s="12"/>
-      <c r="CP79" s="12"/>
-      <c r="CQ79" s="12"/>
-      <c r="CR79" s="12"/>
-      <c r="CS79" s="12"/>
-      <c r="CT79" s="10"/>
+      <c r="CP79" s="29"/>
+      <c r="CQ79" s="29"/>
+      <c r="CR79" s="29"/>
+      <c r="CS79" s="29"/>
+      <c r="CT79" s="29"/>
       <c r="CU79" s="10"/>
       <c r="CV79" s="10"/>
       <c r="CW79" s="10"/>
@@ -36423,11 +36572,11 @@
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
-      <c r="CP80" s="10"/>
-      <c r="CQ80" s="10"/>
-      <c r="CR80" s="10"/>
-      <c r="CS80" s="10"/>
-      <c r="CT80" s="10"/>
+      <c r="CP80" s="34"/>
+      <c r="CQ80" s="34"/>
+      <c r="CR80" s="34"/>
+      <c r="CS80" s="34"/>
+      <c r="CT80" s="34"/>
       <c r="CU80" s="10"/>
       <c r="CV80" s="10"/>
       <c r="CW80" s="10"/>
@@ -36578,14 +36727,15 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
-      <c r="CR81" s="1"/>
-      <c r="CS81" s="1"/>
+      <c r="CP81" s="25"/>
+      <c r="CQ81" s="25"/>
+      <c r="CR81" s="25"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="25"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36679,10 +36829,11 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
-      <c r="CR82" s="1"/>
-      <c r="CS82" s="1"/>
+      <c r="CP82" s="25"/>
+      <c r="CQ82" s="25"/>
+      <c r="CR82" s="25"/>
+      <c r="CS82" s="25"/>
+      <c r="CT82" s="25"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36778,10 +36929,11 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
-      <c r="CR83" s="1"/>
-      <c r="CS83" s="1"/>
+      <c r="CP83" s="25"/>
+      <c r="CQ83" s="25"/>
+      <c r="CR83" s="25"/>
+      <c r="CS83" s="25"/>
+      <c r="CT83" s="25"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -36879,14 +37031,15 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
-      <c r="CP84" s="1"/>
-      <c r="CQ84" s="1"/>
-      <c r="CR84" s="1"/>
-      <c r="CS84" s="1"/>
+      <c r="CP84" s="25"/>
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -36980,10 +37133,11 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
-      <c r="CR85" s="1"/>
-      <c r="CS85" s="1"/>
+      <c r="CP85" s="25"/>
+      <c r="CQ85" s="25"/>
+      <c r="CR85" s="25"/>
+      <c r="CS85" s="25"/>
+      <c r="CT85" s="25"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37081,10 +37235,11 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
+      <c r="CP86" s="25"/>
+      <c r="CQ86" s="25"/>
+      <c r="CR86" s="25"/>
+      <c r="CS86" s="25"/>
+      <c r="CT86" s="25"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37180,157 +37335,161 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
-      <c r="CP87" s="1"/>
-      <c r="CQ87" s="1"/>
-      <c r="CR87" s="1"/>
-      <c r="CS87" s="1"/>
+      <c r="CP87" s="25"/>
+      <c r="CQ87" s="25"/>
+      <c r="CR87" s="25"/>
+      <c r="CS87" s="25"/>
+      <c r="CT87" s="25"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="25">
+      <c r="B88" s="36">
         <v>2000</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="25">
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="36">
         <v>2001</v>
       </c>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="25">
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36">
         <v>2002</v>
       </c>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="25">
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="36">
         <v>2003</v>
       </c>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="25">
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="36">
         <v>2004</v>
       </c>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="25">
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="36">
         <v>2005</v>
       </c>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="25">
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="36">
         <v>2006</v>
       </c>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="25">
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="36">
         <v>2007</v>
       </c>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="25">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="36">
         <v>2008</v>
       </c>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="25">
+      <c r="AI88" s="37"/>
+      <c r="AJ88" s="37"/>
+      <c r="AK88" s="37"/>
+      <c r="AL88" s="36">
         <v>2009</v>
       </c>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="27"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="25">
+      <c r="AM88" s="37"/>
+      <c r="AN88" s="37"/>
+      <c r="AO88" s="37"/>
+      <c r="AP88" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="27"/>
-      <c r="AR88" s="27"/>
-      <c r="AS88" s="27"/>
-      <c r="AT88" s="25">
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="37"/>
+      <c r="AS88" s="37"/>
+      <c r="AT88" s="36">
         <v>2011</v>
       </c>
-      <c r="AU88" s="27"/>
-      <c r="AV88" s="27"/>
-      <c r="AW88" s="27"/>
-      <c r="AX88" s="25">
+      <c r="AU88" s="37"/>
+      <c r="AV88" s="37"/>
+      <c r="AW88" s="37"/>
+      <c r="AX88" s="36">
         <v>2012</v>
       </c>
-      <c r="AY88" s="27"/>
-      <c r="AZ88" s="27"/>
-      <c r="BA88" s="27"/>
-      <c r="BB88" s="25">
+      <c r="AY88" s="37"/>
+      <c r="AZ88" s="37"/>
+      <c r="BA88" s="37"/>
+      <c r="BB88" s="36">
         <v>2013</v>
       </c>
-      <c r="BC88" s="27"/>
-      <c r="BD88" s="27"/>
-      <c r="BE88" s="27"/>
-      <c r="BF88" s="25">
+      <c r="BC88" s="37"/>
+      <c r="BD88" s="37"/>
+      <c r="BE88" s="37"/>
+      <c r="BF88" s="36">
         <v>2014</v>
       </c>
-      <c r="BG88" s="27"/>
-      <c r="BH88" s="27"/>
-      <c r="BI88" s="27"/>
-      <c r="BJ88" s="25">
+      <c r="BG88" s="37"/>
+      <c r="BH88" s="37"/>
+      <c r="BI88" s="37"/>
+      <c r="BJ88" s="36">
         <v>2015</v>
       </c>
-      <c r="BK88" s="27"/>
-      <c r="BL88" s="27"/>
-      <c r="BM88" s="27"/>
-      <c r="BN88" s="25">
+      <c r="BK88" s="37"/>
+      <c r="BL88" s="37"/>
+      <c r="BM88" s="37"/>
+      <c r="BN88" s="36">
         <v>2016</v>
       </c>
-      <c r="BO88" s="27"/>
-      <c r="BP88" s="27"/>
-      <c r="BQ88" s="27"/>
-      <c r="BR88" s="25">
+      <c r="BO88" s="37"/>
+      <c r="BP88" s="37"/>
+      <c r="BQ88" s="37"/>
+      <c r="BR88" s="36">
         <v>2017</v>
       </c>
-      <c r="BS88" s="27"/>
-      <c r="BT88" s="27"/>
-      <c r="BU88" s="27"/>
-      <c r="BV88" s="25">
+      <c r="BS88" s="37"/>
+      <c r="BT88" s="37"/>
+      <c r="BU88" s="37"/>
+      <c r="BV88" s="36">
         <v>2018</v>
       </c>
-      <c r="BW88" s="27"/>
-      <c r="BX88" s="27"/>
-      <c r="BY88" s="27"/>
-      <c r="BZ88" s="25">
+      <c r="BW88" s="37"/>
+      <c r="BX88" s="37"/>
+      <c r="BY88" s="37"/>
+      <c r="BZ88" s="36">
         <v>2019</v>
       </c>
-      <c r="CA88" s="27"/>
-      <c r="CB88" s="27"/>
-      <c r="CC88" s="27"/>
-      <c r="CD88" s="25">
+      <c r="CA88" s="37"/>
+      <c r="CB88" s="37"/>
+      <c r="CC88" s="37"/>
+      <c r="CD88" s="36">
         <v>2020</v>
       </c>
-      <c r="CE88" s="25"/>
-      <c r="CF88" s="25"/>
-      <c r="CG88" s="25"/>
-      <c r="CH88" s="25">
+      <c r="CE88" s="36"/>
+      <c r="CF88" s="36"/>
+      <c r="CG88" s="36"/>
+      <c r="CH88" s="22">
         <v>2021</v>
       </c>
-      <c r="CI88" s="25"/>
-      <c r="CJ88" s="25"/>
-      <c r="CK88" s="25"/>
-      <c r="CL88" s="24">
+      <c r="CI88" s="22"/>
+      <c r="CJ88" s="22"/>
+      <c r="CK88" s="22"/>
+      <c r="CL88" s="22">
         <v>2022</v>
       </c>
-      <c r="CM88" s="24"/>
-      <c r="CN88" s="24"/>
-      <c r="CO88" s="24"/>
-      <c r="CP88" s="24">
+      <c r="CM88" s="22"/>
+      <c r="CN88" s="22"/>
+      <c r="CO88" s="22"/>
+      <c r="CP88" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="24"/>
-      <c r="CR88" s="24"/>
-      <c r="CS88" s="24"/>
+      <c r="CQ88" s="26"/>
+      <c r="CR88" s="26"/>
+      <c r="CS88" s="26"/>
+      <c r="CT88" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37612,17 +37771,20 @@
       <c r="CO89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="7" t="s">
+      <c r="CP89" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="7" t="s">
+      <c r="CQ89" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="7" t="s">
+      <c r="CR89" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="7" t="s">
+      <c r="CS89" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CT89" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37719,10 +37881,11 @@
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
-      <c r="CP90" s="1"/>
-      <c r="CQ90" s="1"/>
-      <c r="CR90" s="1"/>
-      <c r="CS90" s="1"/>
+      <c r="CP90" s="25"/>
+      <c r="CQ90" s="25"/>
+      <c r="CR90" s="25"/>
+      <c r="CS90" s="25"/>
+      <c r="CT90" s="25"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -37993,30 +38156,32 @@
         <v>123.02714492996768</v>
       </c>
       <c r="CL91" s="17">
-        <v>106.11323721842506</v>
+        <v>106.11087927469261</v>
       </c>
       <c r="CM91" s="17">
-        <v>104.11568668685609</v>
+        <v>104.10393071777445</v>
       </c>
       <c r="CN91" s="17">
         <v>107.75971278468757</v>
       </c>
       <c r="CO91" s="17">
-        <v>127.74638672365242</v>
-      </c>
-      <c r="CP91" s="17">
-        <v>110.19041341210456</v>
-      </c>
-      <c r="CQ91" s="17">
-        <v>108.4648191230681</v>
-      </c>
-      <c r="CR91" s="17">
-        <v>112.19212786213843</v>
-      </c>
-      <c r="CS91" s="17">
+        <v>127.74638672365244</v>
+      </c>
+      <c r="CP91" s="33">
+        <v>110.40925525770228</v>
+      </c>
+      <c r="CQ91" s="33">
+        <v>108.45257208229417</v>
+      </c>
+      <c r="CR91" s="33">
+        <v>112.19212786213839</v>
+      </c>
+      <c r="CS91" s="33">
         <v>133.19710686592191</v>
       </c>
-      <c r="CT91" s="10"/>
+      <c r="CT91" s="33">
+        <v>113.73770184161502</v>
+      </c>
       <c r="CU91" s="10"/>
       <c r="CV91" s="10"/>
       <c r="CW91" s="10"/>
@@ -38350,24 +38515,26 @@
         <v>108.16590083742723</v>
       </c>
       <c r="CN92" s="17">
-        <v>117.48605856011383</v>
+        <v>117.48605856011385</v>
       </c>
       <c r="CO92" s="17">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="17">
-        <v>103.33665895224489</v>
-      </c>
-      <c r="CQ92" s="17">
+      <c r="CP92" s="33">
+        <v>103.33665895224486</v>
+      </c>
+      <c r="CQ92" s="33">
         <v>112.78167306011477</v>
       </c>
-      <c r="CR92" s="17">
-        <v>122.78577909425907</v>
-      </c>
-      <c r="CS92" s="17">
-        <v>130.88311344587243</v>
-      </c>
-      <c r="CT92" s="10"/>
+      <c r="CR92" s="33">
+        <v>122.78577909425906</v>
+      </c>
+      <c r="CS92" s="33">
+        <v>130.87142444744984</v>
+      </c>
+      <c r="CT92" s="33">
+        <v>107.10682625358778</v>
+      </c>
       <c r="CU92" s="10"/>
       <c r="CV92" s="10"/>
       <c r="CW92" s="10"/>
@@ -38695,30 +38862,32 @@
         <v>130.67259301784685</v>
       </c>
       <c r="CL93" s="17">
-        <v>104.40018493156103</v>
+        <v>104.40900183681885</v>
       </c>
       <c r="CM93" s="17">
-        <v>108.96373393037754</v>
+        <v>108.99043741628421</v>
       </c>
       <c r="CN93" s="17">
-        <v>117.51309966282189</v>
+        <v>117.5130996628219</v>
       </c>
       <c r="CO93" s="17">
-        <v>135.05782670478922</v>
-      </c>
-      <c r="CP93" s="17">
-        <v>108.46520505575599</v>
-      </c>
-      <c r="CQ93" s="17">
-        <v>113.38232905025005</v>
-      </c>
-      <c r="CR93" s="17">
-        <v>122.33419099296216</v>
-      </c>
-      <c r="CS93" s="17">
+        <v>135.05782670478919</v>
+      </c>
+      <c r="CP93" s="33">
+        <v>108.47430571110625</v>
+      </c>
+      <c r="CQ93" s="33">
+        <v>113.4134036993245</v>
+      </c>
+      <c r="CR93" s="33">
+        <v>122.33419099296212</v>
+      </c>
+      <c r="CS93" s="33">
         <v>139.35955133110886</v>
       </c>
-      <c r="CT93" s="10"/>
+      <c r="CT93" s="33">
+        <v>111.45958732425846</v>
+      </c>
       <c r="CU93" s="10"/>
       <c r="CV93" s="10"/>
       <c r="CW93" s="10"/>
@@ -38870,11 +39039,11 @@
       <c r="CM94" s="12"/>
       <c r="CN94" s="12"/>
       <c r="CO94" s="12"/>
-      <c r="CP94" s="12"/>
-      <c r="CQ94" s="12"/>
-      <c r="CR94" s="12"/>
-      <c r="CS94" s="12"/>
-      <c r="CT94" s="10"/>
+      <c r="CP94" s="29"/>
+      <c r="CQ94" s="29"/>
+      <c r="CR94" s="29"/>
+      <c r="CS94" s="29"/>
+      <c r="CT94" s="29"/>
       <c r="CU94" s="10"/>
       <c r="CV94" s="10"/>
       <c r="CW94" s="10"/>
@@ -39202,30 +39371,32 @@
         <v>122.95024752751603</v>
       </c>
       <c r="CL95" s="17">
-        <v>101.92431826450978</v>
+        <v>101.92325827278847</v>
       </c>
       <c r="CM95" s="17">
-        <v>107.27547762050038</v>
+        <v>107.2793497049565</v>
       </c>
       <c r="CN95" s="17">
-        <v>114.48726152367601</v>
+        <v>114.49485109144481</v>
       </c>
       <c r="CO95" s="17">
-        <v>127.03656196119222</v>
-      </c>
-      <c r="CP95" s="17">
-        <v>106.15193860719006</v>
-      </c>
-      <c r="CQ95" s="17">
-        <v>111.78937560879083</v>
-      </c>
-      <c r="CR95" s="17">
-        <v>119.52667227055494</v>
-      </c>
-      <c r="CS95" s="17">
-        <v>132.40794049896019</v>
-      </c>
-      <c r="CT95" s="10"/>
+        <v>127.01100570813477</v>
+      </c>
+      <c r="CP95" s="33">
+        <v>106.23480313895612</v>
+      </c>
+      <c r="CQ95" s="33">
+        <v>111.79476585054621</v>
+      </c>
+      <c r="CR95" s="33">
+        <v>119.53550557299961</v>
+      </c>
+      <c r="CS95" s="33">
+        <v>132.37970650028566</v>
+      </c>
+      <c r="CT95" s="33">
+        <v>109.72339904176395</v>
+      </c>
       <c r="CU95" s="10"/>
       <c r="CV95" s="10"/>
       <c r="CW95" s="10"/>
@@ -39378,10 +39549,11 @@
       <c r="CM96" s="15"/>
       <c r="CN96" s="15"/>
       <c r="CO96" s="15"/>
-      <c r="CP96" s="15"/>
-      <c r="CQ96" s="15"/>
-      <c r="CR96" s="15"/>
-      <c r="CS96" s="15"/>
+      <c r="CP96" s="31"/>
+      <c r="CQ96" s="31"/>
+      <c r="CR96" s="31"/>
+      <c r="CS96" s="31"/>
+      <c r="CT96" s="31"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39479,10 +39651,11 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
-      <c r="CR97" s="1"/>
-      <c r="CS97" s="1"/>
+      <c r="CP97" s="25"/>
+      <c r="CQ97" s="25"/>
+      <c r="CR97" s="25"/>
+      <c r="CS97" s="25"/>
+      <c r="CT97" s="25"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39577,10 +39750,11 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
+      <c r="CP98" s="25"/>
+      <c r="CQ98" s="25"/>
+      <c r="CR98" s="25"/>
+      <c r="CS98" s="25"/>
+      <c r="CT98" s="25"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39675,10 +39849,11 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
-      <c r="CR99" s="1"/>
-      <c r="CS99" s="1"/>
+      <c r="CP99" s="25"/>
+      <c r="CQ99" s="25"/>
+      <c r="CR99" s="25"/>
+      <c r="CS99" s="25"/>
+      <c r="CT99" s="25"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39776,10 +39951,11 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
+      <c r="CP100" s="25"/>
+      <c r="CQ100" s="25"/>
+      <c r="CR100" s="25"/>
+      <c r="CS100" s="25"/>
+      <c r="CT100" s="25"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39877,14 +40053,15 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
-      <c r="CR101" s="1"/>
-      <c r="CS101" s="1"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="25"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -39978,10 +40155,11 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
-      <c r="CR102" s="1"/>
-      <c r="CS102" s="1"/>
+      <c r="CP102" s="25"/>
+      <c r="CQ102" s="25"/>
+      <c r="CR102" s="25"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="25"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40077,10 +40255,11 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
-      <c r="CP103" s="1"/>
-      <c r="CQ103" s="1"/>
-      <c r="CR103" s="1"/>
-      <c r="CS103" s="1"/>
+      <c r="CP103" s="25"/>
+      <c r="CQ103" s="25"/>
+      <c r="CR103" s="25"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40178,14 +40357,15 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
-      <c r="CP104" s="1"/>
-      <c r="CQ104" s="1"/>
-      <c r="CR104" s="1"/>
-      <c r="CS104" s="1"/>
+      <c r="CP104" s="25"/>
+      <c r="CQ104" s="25"/>
+      <c r="CR104" s="25"/>
+      <c r="CS104" s="25"/>
+      <c r="CT104" s="25"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -40279,10 +40459,11 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
-      <c r="CR105" s="1"/>
-      <c r="CS105" s="1"/>
+      <c r="CP105" s="25"/>
+      <c r="CQ105" s="25"/>
+      <c r="CR105" s="25"/>
+      <c r="CS105" s="25"/>
+      <c r="CT105" s="25"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40380,10 +40561,11 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
-      <c r="CP106" s="1"/>
-      <c r="CQ106" s="1"/>
-      <c r="CR106" s="1"/>
-      <c r="CS106" s="1"/>
+      <c r="CP106" s="25"/>
+      <c r="CQ106" s="25"/>
+      <c r="CR106" s="25"/>
+      <c r="CS106" s="25"/>
+      <c r="CT106" s="25"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40479,157 +40661,161 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
-      <c r="CP107" s="1"/>
-      <c r="CQ107" s="1"/>
-      <c r="CR107" s="1"/>
-      <c r="CS107" s="1"/>
+      <c r="CP107" s="25"/>
+      <c r="CQ107" s="25"/>
+      <c r="CR107" s="25"/>
+      <c r="CS107" s="25"/>
+      <c r="CT107" s="25"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="25">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="25">
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="25">
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="25">
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="25">
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="25">
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="25">
+      <c r="W108" s="37"/>
+      <c r="X108" s="37"/>
+      <c r="Y108" s="37"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="25">
+      <c r="AA108" s="37"/>
+      <c r="AB108" s="37"/>
+      <c r="AC108" s="37"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="25">
+      <c r="AE108" s="37"/>
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="37"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="25">
+      <c r="AI108" s="37"/>
+      <c r="AJ108" s="37"/>
+      <c r="AK108" s="37"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="25">
+      <c r="AM108" s="37"/>
+      <c r="AN108" s="37"/>
+      <c r="AO108" s="37"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="25">
+      <c r="AQ108" s="37"/>
+      <c r="AR108" s="37"/>
+      <c r="AS108" s="37"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-      <c r="AW108" s="27"/>
-      <c r="AX108" s="25">
+      <c r="AU108" s="37"/>
+      <c r="AV108" s="37"/>
+      <c r="AW108" s="37"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="27"/>
-      <c r="AZ108" s="27"/>
-      <c r="BA108" s="27"/>
-      <c r="BB108" s="25">
+      <c r="AY108" s="37"/>
+      <c r="AZ108" s="37"/>
+      <c r="BA108" s="37"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="27"/>
-      <c r="BD108" s="27"/>
-      <c r="BE108" s="27"/>
-      <c r="BF108" s="25">
+      <c r="BC108" s="37"/>
+      <c r="BD108" s="37"/>
+      <c r="BE108" s="37"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="27"/>
-      <c r="BH108" s="27"/>
-      <c r="BI108" s="27"/>
-      <c r="BJ108" s="25">
+      <c r="BG108" s="37"/>
+      <c r="BH108" s="37"/>
+      <c r="BI108" s="37"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="27"/>
-      <c r="BL108" s="27"/>
-      <c r="BM108" s="27"/>
-      <c r="BN108" s="25">
+      <c r="BK108" s="37"/>
+      <c r="BL108" s="37"/>
+      <c r="BM108" s="37"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="27"/>
-      <c r="BP108" s="27"/>
-      <c r="BQ108" s="27"/>
-      <c r="BR108" s="25">
+      <c r="BO108" s="37"/>
+      <c r="BP108" s="37"/>
+      <c r="BQ108" s="37"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="27"/>
-      <c r="BT108" s="27"/>
-      <c r="BU108" s="27"/>
-      <c r="BV108" s="25">
+      <c r="BS108" s="37"/>
+      <c r="BT108" s="37"/>
+      <c r="BU108" s="37"/>
+      <c r="BV108" s="36">
         <v>2018</v>
       </c>
-      <c r="BW108" s="27"/>
-      <c r="BX108" s="27"/>
-      <c r="BY108" s="27"/>
-      <c r="BZ108" s="25">
+      <c r="BW108" s="37"/>
+      <c r="BX108" s="37"/>
+      <c r="BY108" s="37"/>
+      <c r="BZ108" s="36">
         <v>2019</v>
       </c>
-      <c r="CA108" s="27"/>
-      <c r="CB108" s="27"/>
-      <c r="CC108" s="27"/>
-      <c r="CD108" s="25">
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="25"/>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
-      <c r="CH108" s="25">
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
+      <c r="CH108" s="22">
         <v>2021</v>
       </c>
-      <c r="CI108" s="25"/>
-      <c r="CJ108" s="25"/>
-      <c r="CK108" s="25"/>
-      <c r="CL108" s="24">
+      <c r="CI108" s="22"/>
+      <c r="CJ108" s="22"/>
+      <c r="CK108" s="22"/>
+      <c r="CL108" s="22">
         <v>2022</v>
       </c>
-      <c r="CM108" s="24"/>
-      <c r="CN108" s="24"/>
-      <c r="CO108" s="24"/>
-      <c r="CP108" s="24">
+      <c r="CM108" s="22"/>
+      <c r="CN108" s="22"/>
+      <c r="CO108" s="22"/>
+      <c r="CP108" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="24"/>
-      <c r="CR108" s="24"/>
-      <c r="CS108" s="24"/>
+      <c r="CQ108" s="26"/>
+      <c r="CR108" s="26"/>
+      <c r="CS108" s="26"/>
+      <c r="CT108" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -40911,17 +41097,20 @@
       <c r="CO109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="7" t="s">
+      <c r="CR109" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="7" t="s">
+      <c r="CS109" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CT109" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41018,10 +41207,11 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
-      <c r="CP110" s="1"/>
-      <c r="CQ110" s="1"/>
-      <c r="CR110" s="1"/>
-      <c r="CS110" s="1"/>
+      <c r="CP110" s="25"/>
+      <c r="CQ110" s="25"/>
+      <c r="CR110" s="25"/>
+      <c r="CS110" s="25"/>
+      <c r="CT110" s="25"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41292,30 +41482,32 @@
         <v>38.665837224088115</v>
       </c>
       <c r="CL111" s="17">
-        <v>39.010312900568515</v>
+        <v>39.040462092634463</v>
       </c>
       <c r="CM111" s="17">
-        <v>22.136957712900703</v>
+        <v>22.028744633692305</v>
       </c>
       <c r="CN111" s="17">
-        <v>29.035881308905715</v>
+        <v>28.960445735152778</v>
       </c>
       <c r="CO111" s="17">
-        <v>39.853275494904487</v>
-      </c>
-      <c r="CP111" s="17">
-        <v>38.234332053722206</v>
-      </c>
-      <c r="CQ111" s="17">
-        <v>22.836066797337153</v>
-      </c>
-      <c r="CR111" s="17">
-        <v>28.633357763882451</v>
-      </c>
-      <c r="CS111" s="17">
-        <v>38.971038651149911</v>
-      </c>
-      <c r="CT111" s="10"/>
+        <v>39.637232868433081</v>
+      </c>
+      <c r="CP111" s="33">
+        <v>38.339284284396349</v>
+      </c>
+      <c r="CQ111" s="33">
+        <v>22.691471239448642</v>
+      </c>
+      <c r="CR111" s="33">
+        <v>28.554108251655556</v>
+      </c>
+      <c r="CS111" s="33">
+        <v>38.755123969308094</v>
+      </c>
+      <c r="CT111" s="33">
+        <v>37.144275076575234</v>
+      </c>
       <c r="CU111" s="10"/>
       <c r="CV111" s="10"/>
       <c r="CW111" s="10"/>
@@ -41643,30 +41835,32 @@
         <v>53.768651215265571</v>
       </c>
       <c r="CL112" s="17">
-        <v>54.848832903600723</v>
+        <v>54.870576423100005</v>
       </c>
       <c r="CM112" s="17">
-        <v>73.613165790207432</v>
+        <v>73.591779928404179</v>
       </c>
       <c r="CN112" s="17">
-        <v>64.71428595241926</v>
+        <v>64.817589385109414</v>
       </c>
       <c r="CO112" s="17">
-        <v>51.935517692421982</v>
-      </c>
-      <c r="CP112" s="17">
-        <v>55.971218165440476</v>
-      </c>
-      <c r="CQ112" s="17">
-        <v>73.158990952148116</v>
-      </c>
-      <c r="CR112" s="17">
-        <v>65.137151533454301</v>
-      </c>
-      <c r="CS112" s="17">
-        <v>53.226465606870313</v>
-      </c>
-      <c r="CT112" s="10"/>
+        <v>52.370206233776692</v>
+      </c>
+      <c r="CP112" s="33">
+        <v>55.915334107474791</v>
+      </c>
+      <c r="CQ112" s="33">
+        <v>73.181073985894045</v>
+      </c>
+      <c r="CR112" s="33">
+        <v>65.245688061314979</v>
+      </c>
+      <c r="CS112" s="33">
+        <v>53.64854310466751</v>
+      </c>
+      <c r="CT112" s="33">
+        <v>57.242791779821168</v>
+      </c>
       <c r="CU112" s="10"/>
       <c r="CV112" s="10"/>
       <c r="CW112" s="10"/>
@@ -41994,30 +42188,32 @@
         <v>7.5655115606463079</v>
       </c>
       <c r="CL113" s="17">
-        <v>6.1408541958307605</v>
+        <v>6.0889614842655169</v>
       </c>
       <c r="CM113" s="17">
-        <v>4.2498764968918721</v>
+        <v>4.3794754379035306</v>
       </c>
       <c r="CN113" s="17">
-        <v>6.2498327386750265</v>
+        <v>6.2219648797378149</v>
       </c>
       <c r="CO113" s="17">
-        <v>8.2112068126735345</v>
-      </c>
-      <c r="CP113" s="17">
-        <v>5.7944497808373221</v>
-      </c>
-      <c r="CQ113" s="17">
-        <v>4.0049422505147385</v>
-      </c>
-      <c r="CR113" s="17">
-        <v>6.2294907026632362</v>
-      </c>
-      <c r="CS113" s="17">
-        <v>7.802495741979766</v>
-      </c>
-      <c r="CT113" s="10"/>
+        <v>7.9925608977902183</v>
+      </c>
+      <c r="CP113" s="33">
+        <v>5.7453816081288576</v>
+      </c>
+      <c r="CQ113" s="33">
+        <v>4.1274547746572914</v>
+      </c>
+      <c r="CR113" s="33">
+        <v>6.2002036870294663</v>
+      </c>
+      <c r="CS113" s="33">
+        <v>7.5963329260243979</v>
+      </c>
+      <c r="CT113" s="33">
+        <v>5.6129331436035921</v>
+      </c>
       <c r="CU113" s="10"/>
       <c r="CV113" s="10"/>
       <c r="CW113" s="10"/>
@@ -42169,11 +42365,11 @@
       <c r="CM114" s="12"/>
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
-      <c r="CP114" s="12"/>
-      <c r="CQ114" s="12"/>
-      <c r="CR114" s="12"/>
-      <c r="CS114" s="12"/>
-      <c r="CT114" s="10"/>
+      <c r="CP114" s="29"/>
+      <c r="CQ114" s="29"/>
+      <c r="CR114" s="29"/>
+      <c r="CS114" s="29"/>
+      <c r="CT114" s="29"/>
       <c r="CU114" s="10"/>
       <c r="CV114" s="10"/>
       <c r="CW114" s="10"/>
@@ -42512,19 +42708,21 @@
       <c r="CO115" s="17">
         <v>100</v>
       </c>
-      <c r="CP115" s="17">
+      <c r="CP115" s="33">
         <v>100</v>
       </c>
-      <c r="CQ115" s="17">
+      <c r="CQ115" s="33">
         <v>100</v>
       </c>
-      <c r="CR115" s="17">
+      <c r="CR115" s="33">
         <v>100</v>
       </c>
-      <c r="CS115" s="17">
+      <c r="CS115" s="33">
         <v>100</v>
       </c>
-      <c r="CT115" s="10"/>
+      <c r="CT115" s="33">
+        <v>100</v>
+      </c>
       <c r="CU115" s="10"/>
       <c r="CV115" s="10"/>
       <c r="CW115" s="10"/>
@@ -42677,10 +42875,11 @@
       <c r="CM116" s="15"/>
       <c r="CN116" s="15"/>
       <c r="CO116" s="15"/>
-      <c r="CP116" s="15"/>
-      <c r="CQ116" s="15"/>
-      <c r="CR116" s="15"/>
-      <c r="CS116" s="15"/>
+      <c r="CP116" s="31"/>
+      <c r="CQ116" s="31"/>
+      <c r="CR116" s="31"/>
+      <c r="CS116" s="31"/>
+      <c r="CT116" s="31"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42778,10 +42977,11 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
+      <c r="CP117" s="25"/>
+      <c r="CQ117" s="25"/>
+      <c r="CR117" s="25"/>
+      <c r="CS117" s="25"/>
+      <c r="CT117" s="25"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -42876,11 +43076,11 @@
       <c r="CM118" s="12"/>
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
-      <c r="CP118" s="12"/>
-      <c r="CQ118" s="12"/>
-      <c r="CR118" s="12"/>
-      <c r="CS118" s="12"/>
-      <c r="CT118" s="10"/>
+      <c r="CP118" s="29"/>
+      <c r="CQ118" s="29"/>
+      <c r="CR118" s="29"/>
+      <c r="CS118" s="29"/>
+      <c r="CT118" s="29"/>
       <c r="CU118" s="10"/>
       <c r="CV118" s="10"/>
       <c r="CW118" s="10"/>
@@ -43032,11 +43232,11 @@
       <c r="CM119" s="12"/>
       <c r="CN119" s="12"/>
       <c r="CO119" s="12"/>
-      <c r="CP119" s="12"/>
-      <c r="CQ119" s="12"/>
-      <c r="CR119" s="12"/>
-      <c r="CS119" s="12"/>
-      <c r="CT119" s="10"/>
+      <c r="CP119" s="29"/>
+      <c r="CQ119" s="29"/>
+      <c r="CR119" s="29"/>
+      <c r="CS119" s="29"/>
+      <c r="CT119" s="29"/>
       <c r="CU119" s="10"/>
       <c r="CV119" s="10"/>
       <c r="CW119" s="10"/>
@@ -43191,10 +43391,11 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
-      <c r="CR120" s="1"/>
-      <c r="CS120" s="1"/>
+      <c r="CP120" s="25"/>
+      <c r="CQ120" s="25"/>
+      <c r="CR120" s="25"/>
+      <c r="CS120" s="25"/>
+      <c r="CT120" s="25"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43292,14 +43493,15 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
-      <c r="CR121" s="1"/>
-      <c r="CS121" s="1"/>
+      <c r="CP121" s="25"/>
+      <c r="CQ121" s="25"/>
+      <c r="CR121" s="25"/>
+      <c r="CS121" s="25"/>
+      <c r="CT121" s="25"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -43393,10 +43595,11 @@
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
-      <c r="CP122" s="1"/>
-      <c r="CQ122" s="1"/>
-      <c r="CR122" s="1"/>
-      <c r="CS122" s="1"/>
+      <c r="CP122" s="25"/>
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43492,10 +43695,11 @@
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
-      <c r="CP123" s="1"/>
-      <c r="CQ123" s="1"/>
-      <c r="CR123" s="1"/>
-      <c r="CS123" s="1"/>
+      <c r="CP123" s="25"/>
+      <c r="CQ123" s="25"/>
+      <c r="CR123" s="25"/>
+      <c r="CS123" s="25"/>
+      <c r="CT123" s="25"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43593,14 +43797,15 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
-      <c r="CR124" s="1"/>
-      <c r="CS124" s="1"/>
+      <c r="CP124" s="25"/>
+      <c r="CQ124" s="25"/>
+      <c r="CR124" s="25"/>
+      <c r="CS124" s="25"/>
+      <c r="CT124" s="25"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -43694,10 +43899,11 @@
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
-      <c r="CP125" s="1"/>
-      <c r="CQ125" s="1"/>
-      <c r="CR125" s="1"/>
-      <c r="CS125" s="1"/>
+      <c r="CP125" s="25"/>
+      <c r="CQ125" s="25"/>
+      <c r="CR125" s="25"/>
+      <c r="CS125" s="25"/>
+      <c r="CT125" s="25"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -43795,10 +44001,11 @@
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
-      <c r="CP126" s="1"/>
-      <c r="CQ126" s="1"/>
-      <c r="CR126" s="1"/>
-      <c r="CS126" s="1"/>
+      <c r="CP126" s="25"/>
+      <c r="CQ126" s="25"/>
+      <c r="CR126" s="25"/>
+      <c r="CS126" s="25"/>
+      <c r="CT126" s="25"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -43894,157 +44101,161 @@
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
-      <c r="CP127" s="1"/>
-      <c r="CQ127" s="1"/>
-      <c r="CR127" s="1"/>
-      <c r="CS127" s="1"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="25">
+      <c r="B128" s="36">
         <v>2000</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="25">
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="36">
         <v>2001</v>
       </c>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="25">
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="36">
         <v>2002</v>
       </c>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="25">
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="36">
         <v>2003</v>
       </c>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
-      <c r="R128" s="25">
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="36">
         <v>2004</v>
       </c>
-      <c r="S128" s="27"/>
-      <c r="T128" s="27"/>
-      <c r="U128" s="27"/>
-      <c r="V128" s="25">
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="36">
         <v>2005</v>
       </c>
-      <c r="W128" s="27"/>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="25">
+      <c r="W128" s="37"/>
+      <c r="X128" s="37"/>
+      <c r="Y128" s="37"/>
+      <c r="Z128" s="36">
         <v>2006</v>
       </c>
-      <c r="AA128" s="27"/>
-      <c r="AB128" s="27"/>
-      <c r="AC128" s="27"/>
-      <c r="AD128" s="25">
+      <c r="AA128" s="37"/>
+      <c r="AB128" s="37"/>
+      <c r="AC128" s="37"/>
+      <c r="AD128" s="36">
         <v>2007</v>
       </c>
-      <c r="AE128" s="27"/>
-      <c r="AF128" s="27"/>
-      <c r="AG128" s="27"/>
-      <c r="AH128" s="25">
+      <c r="AE128" s="37"/>
+      <c r="AF128" s="37"/>
+      <c r="AG128" s="37"/>
+      <c r="AH128" s="36">
         <v>2008</v>
       </c>
-      <c r="AI128" s="27"/>
-      <c r="AJ128" s="27"/>
-      <c r="AK128" s="27"/>
-      <c r="AL128" s="25">
+      <c r="AI128" s="37"/>
+      <c r="AJ128" s="37"/>
+      <c r="AK128" s="37"/>
+      <c r="AL128" s="36">
         <v>2009</v>
       </c>
-      <c r="AM128" s="27"/>
-      <c r="AN128" s="27"/>
-      <c r="AO128" s="27"/>
-      <c r="AP128" s="25">
+      <c r="AM128" s="37"/>
+      <c r="AN128" s="37"/>
+      <c r="AO128" s="37"/>
+      <c r="AP128" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="27"/>
-      <c r="AR128" s="27"/>
-      <c r="AS128" s="27"/>
-      <c r="AT128" s="25">
+      <c r="AQ128" s="37"/>
+      <c r="AR128" s="37"/>
+      <c r="AS128" s="37"/>
+      <c r="AT128" s="36">
         <v>2011</v>
       </c>
-      <c r="AU128" s="27"/>
-      <c r="AV128" s="27"/>
-      <c r="AW128" s="27"/>
-      <c r="AX128" s="25">
+      <c r="AU128" s="37"/>
+      <c r="AV128" s="37"/>
+      <c r="AW128" s="37"/>
+      <c r="AX128" s="36">
         <v>2012</v>
       </c>
-      <c r="AY128" s="27"/>
-      <c r="AZ128" s="27"/>
-      <c r="BA128" s="27"/>
-      <c r="BB128" s="25">
+      <c r="AY128" s="37"/>
+      <c r="AZ128" s="37"/>
+      <c r="BA128" s="37"/>
+      <c r="BB128" s="36">
         <v>2013</v>
       </c>
-      <c r="BC128" s="27"/>
-      <c r="BD128" s="27"/>
-      <c r="BE128" s="27"/>
-      <c r="BF128" s="25">
+      <c r="BC128" s="37"/>
+      <c r="BD128" s="37"/>
+      <c r="BE128" s="37"/>
+      <c r="BF128" s="36">
         <v>2014</v>
       </c>
-      <c r="BG128" s="27"/>
-      <c r="BH128" s="27"/>
-      <c r="BI128" s="27"/>
-      <c r="BJ128" s="25">
+      <c r="BG128" s="37"/>
+      <c r="BH128" s="37"/>
+      <c r="BI128" s="37"/>
+      <c r="BJ128" s="36">
         <v>2015</v>
       </c>
-      <c r="BK128" s="27"/>
-      <c r="BL128" s="27"/>
-      <c r="BM128" s="27"/>
-      <c r="BN128" s="25">
+      <c r="BK128" s="37"/>
+      <c r="BL128" s="37"/>
+      <c r="BM128" s="37"/>
+      <c r="BN128" s="36">
         <v>2016</v>
       </c>
-      <c r="BO128" s="27"/>
-      <c r="BP128" s="27"/>
-      <c r="BQ128" s="27"/>
-      <c r="BR128" s="25">
+      <c r="BO128" s="37"/>
+      <c r="BP128" s="37"/>
+      <c r="BQ128" s="37"/>
+      <c r="BR128" s="36">
         <v>2017</v>
       </c>
-      <c r="BS128" s="27"/>
-      <c r="BT128" s="27"/>
-      <c r="BU128" s="27"/>
-      <c r="BV128" s="25">
+      <c r="BS128" s="37"/>
+      <c r="BT128" s="37"/>
+      <c r="BU128" s="37"/>
+      <c r="BV128" s="36">
         <v>2018</v>
       </c>
-      <c r="BW128" s="27"/>
-      <c r="BX128" s="27"/>
-      <c r="BY128" s="27"/>
-      <c r="BZ128" s="25">
+      <c r="BW128" s="37"/>
+      <c r="BX128" s="37"/>
+      <c r="BY128" s="37"/>
+      <c r="BZ128" s="36">
         <v>2019</v>
       </c>
-      <c r="CA128" s="27"/>
-      <c r="CB128" s="27"/>
-      <c r="CC128" s="27"/>
-      <c r="CD128" s="25">
+      <c r="CA128" s="37"/>
+      <c r="CB128" s="37"/>
+      <c r="CC128" s="37"/>
+      <c r="CD128" s="36">
         <v>2020</v>
       </c>
-      <c r="CE128" s="25"/>
-      <c r="CF128" s="25"/>
-      <c r="CG128" s="25"/>
-      <c r="CH128" s="25">
+      <c r="CE128" s="36"/>
+      <c r="CF128" s="36"/>
+      <c r="CG128" s="36"/>
+      <c r="CH128" s="22">
         <v>2021</v>
       </c>
-      <c r="CI128" s="25"/>
-      <c r="CJ128" s="25"/>
-      <c r="CK128" s="25"/>
-      <c r="CL128" s="24">
+      <c r="CI128" s="22"/>
+      <c r="CJ128" s="22"/>
+      <c r="CK128" s="22"/>
+      <c r="CL128" s="22">
         <v>2022</v>
       </c>
-      <c r="CM128" s="24"/>
-      <c r="CN128" s="24"/>
-      <c r="CO128" s="24"/>
-      <c r="CP128" s="24">
+      <c r="CM128" s="22"/>
+      <c r="CN128" s="22"/>
+      <c r="CO128" s="22"/>
+      <c r="CP128" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="24"/>
-      <c r="CR128" s="24"/>
-      <c r="CS128" s="24"/>
+      <c r="CQ128" s="26"/>
+      <c r="CR128" s="26"/>
+      <c r="CS128" s="26"/>
+      <c r="CT128" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44326,17 +44537,20 @@
       <c r="CO129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="7" t="s">
+      <c r="CP129" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="7" t="s">
+      <c r="CQ129" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="7" t="s">
+      <c r="CR129" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="7" t="s">
+      <c r="CS129" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CT129" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44433,10 +44647,11 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
-      <c r="CR130" s="1"/>
-      <c r="CS130" s="1"/>
+      <c r="CP130" s="25"/>
+      <c r="CQ130" s="25"/>
+      <c r="CR130" s="25"/>
+      <c r="CS130" s="25"/>
+      <c r="CT130" s="25"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44707,30 +44922,32 @@
         <v>38.641669367085157</v>
       </c>
       <c r="CL131" s="17">
-        <v>37.470344434890769</v>
+        <v>37.499746756934208</v>
       </c>
       <c r="CM131" s="17">
-        <v>22.808788831779747</v>
+        <v>22.700674055485674</v>
       </c>
       <c r="CN131" s="17">
-        <v>30.848620983476415</v>
+        <v>30.770515587893783</v>
       </c>
       <c r="CO131" s="17">
-        <v>39.631830156707736</v>
-      </c>
-      <c r="CP131" s="17">
-        <v>36.833045118676274</v>
-      </c>
-      <c r="CQ131" s="17">
-        <v>23.536015357555037</v>
-      </c>
-      <c r="CR131" s="17">
-        <v>30.505259456836676</v>
-      </c>
-      <c r="CS131" s="17">
-        <v>38.740142997988237</v>
-      </c>
-      <c r="CT131" s="10"/>
+        <v>39.409058363410452</v>
+      </c>
+      <c r="CP131" s="33">
+        <v>36.889718248119287</v>
+      </c>
+      <c r="CQ131" s="33">
+        <v>23.390756579693118</v>
+      </c>
+      <c r="CR131" s="33">
+        <v>30.423077189889657</v>
+      </c>
+      <c r="CS131" s="33">
+        <v>38.517292583565776</v>
+      </c>
+      <c r="CT131" s="33">
+        <v>35.833290547927248</v>
+      </c>
       <c r="CU131" s="10"/>
       <c r="CV131" s="10"/>
       <c r="CW131" s="10"/>
@@ -45058,30 +45275,32 @@
         <v>54.239917371407842</v>
       </c>
       <c r="CL132" s="17">
-        <v>56.53443268421001</v>
+        <v>56.556256240357108</v>
       </c>
       <c r="CM132" s="17">
-        <v>73.007181174135098</v>
+        <v>72.988605773416779</v>
       </c>
       <c r="CN132" s="17">
-        <v>63.062472866613781</v>
+        <v>63.16732670844759</v>
       </c>
       <c r="CO132" s="17">
-        <v>52.64463757207902</v>
-      </c>
-      <c r="CP132" s="17">
-        <v>57.496084881292809</v>
-      </c>
-      <c r="CQ132" s="17">
-        <v>72.515309418672786</v>
-      </c>
-      <c r="CR132" s="17">
-        <v>63.408214057100778</v>
-      </c>
-      <c r="CS132" s="17">
-        <v>53.846569702508027</v>
-      </c>
-      <c r="CT132" s="10"/>
+        <v>53.074581995835381</v>
+      </c>
+      <c r="CP132" s="33">
+        <v>57.483516223431188</v>
+      </c>
+      <c r="CQ132" s="33">
+        <v>72.54069574392426</v>
+      </c>
+      <c r="CR132" s="33">
+        <v>63.518563520945783</v>
+      </c>
+      <c r="CS132" s="33">
+        <v>54.266838007983495</v>
+      </c>
+      <c r="CT132" s="33">
+        <v>58.641208076236239</v>
+      </c>
       <c r="CU132" s="10"/>
       <c r="CV132" s="10"/>
       <c r="CW132" s="10"/>
@@ -45409,30 +45628,32 @@
         <v>7.1184132615069977</v>
       </c>
       <c r="CL133" s="17">
-        <v>5.9952228808992203</v>
+        <v>5.9439970027086755</v>
       </c>
       <c r="CM133" s="17">
-        <v>4.1840299940851606</v>
+        <v>4.3107201710975405</v>
       </c>
       <c r="CN133" s="17">
-        <v>6.0889061499098052</v>
+        <v>6.0621577036586327</v>
       </c>
       <c r="CO133" s="17">
-        <v>7.7235322712132417</v>
-      </c>
-      <c r="CP133" s="17">
-        <v>5.6708700000309245</v>
-      </c>
-      <c r="CQ133" s="17">
-        <v>3.9486752237721889</v>
-      </c>
-      <c r="CR133" s="17">
-        <v>6.0865264860625405</v>
-      </c>
-      <c r="CS133" s="17">
-        <v>7.4132872995037262</v>
-      </c>
-      <c r="CT133" s="10"/>
+        <v>7.5163596407541693</v>
+      </c>
+      <c r="CP133" s="33">
+        <v>5.6267655284495266</v>
+      </c>
+      <c r="CQ133" s="33">
+        <v>4.0685476763826198</v>
+      </c>
+      <c r="CR133" s="33">
+        <v>6.0583592891645592</v>
+      </c>
+      <c r="CS133" s="33">
+        <v>7.2158694084507191</v>
+      </c>
+      <c r="CT133" s="33">
+        <v>5.5255013758365061</v>
+      </c>
       <c r="CU133" s="10"/>
       <c r="CV133" s="10"/>
       <c r="CW133" s="10"/>
@@ -45584,11 +45805,11 @@
       <c r="CM134" s="12"/>
       <c r="CN134" s="12"/>
       <c r="CO134" s="12"/>
-      <c r="CP134" s="12"/>
-      <c r="CQ134" s="12"/>
-      <c r="CR134" s="12"/>
-      <c r="CS134" s="12"/>
-      <c r="CT134" s="10"/>
+      <c r="CP134" s="29"/>
+      <c r="CQ134" s="29"/>
+      <c r="CR134" s="29"/>
+      <c r="CS134" s="29"/>
+      <c r="CT134" s="29"/>
       <c r="CU134" s="10"/>
       <c r="CV134" s="10"/>
       <c r="CW134" s="10"/>
@@ -45927,19 +46148,21 @@
       <c r="CO135" s="17">
         <v>100</v>
       </c>
-      <c r="CP135" s="17">
+      <c r="CP135" s="33">
         <v>100</v>
       </c>
-      <c r="CQ135" s="17">
+      <c r="CQ135" s="33">
         <v>100</v>
       </c>
-      <c r="CR135" s="17">
+      <c r="CR135" s="33">
         <v>100</v>
       </c>
-      <c r="CS135" s="17">
+      <c r="CS135" s="33">
         <v>100</v>
       </c>
-      <c r="CT135" s="10"/>
+      <c r="CT135" s="33">
+        <v>100</v>
+      </c>
       <c r="CU135" s="10"/>
       <c r="CV135" s="10"/>
       <c r="CW135" s="10"/>
@@ -46092,10 +46315,11 @@
       <c r="CM136" s="15"/>
       <c r="CN136" s="15"/>
       <c r="CO136" s="15"/>
-      <c r="CP136" s="15"/>
-      <c r="CQ136" s="15"/>
-      <c r="CR136" s="15"/>
-      <c r="CS136" s="15"/>
+      <c r="CP136" s="31"/>
+      <c r="CQ136" s="31"/>
+      <c r="CR136" s="31"/>
+      <c r="CS136" s="31"/>
+      <c r="CT136" s="31"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46193,10 +46417,11 @@
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
-      <c r="CP137" s="1"/>
-      <c r="CQ137" s="1"/>
-      <c r="CR137" s="1"/>
-      <c r="CS137" s="1"/>
+      <c r="CP137" s="25"/>
+      <c r="CQ137" s="25"/>
+      <c r="CR137" s="25"/>
+      <c r="CS137" s="25"/>
+      <c r="CT137" s="25"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -46292,11 +46517,11 @@
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
-      <c r="CP138" s="11"/>
-      <c r="CQ138" s="11"/>
-      <c r="CR138" s="11"/>
-      <c r="CS138" s="11"/>
-      <c r="CT138" s="19"/>
+      <c r="CP138" s="35"/>
+      <c r="CQ138" s="35"/>
+      <c r="CR138" s="35"/>
+      <c r="CS138" s="35"/>
+      <c r="CT138" s="35"/>
       <c r="CU138" s="19"/>
       <c r="CV138" s="19"/>
       <c r="CW138" s="19"/>
@@ -46449,11 +46674,11 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
-      <c r="CS139" s="11"/>
-      <c r="CT139" s="19"/>
+      <c r="CP139" s="35"/>
+      <c r="CQ139" s="35"/>
+      <c r="CR139" s="35"/>
+      <c r="CS139" s="35"/>
+      <c r="CT139" s="35"/>
       <c r="CU139" s="19"/>
       <c r="CV139" s="19"/>
       <c r="CW139" s="19"/>
@@ -46513,21 +46738,14 @@
       <c r="EY139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CH88:CK88"/>
+  <mergeCells count="147">
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="CH49:CK49"/>
-    <mergeCell ref="CH69:CK69"/>
     <mergeCell ref="CD49:CG49"/>
     <mergeCell ref="CD69:CG69"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH29:CK29"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BR88:BU88"/>
@@ -46545,12 +46763,6 @@
     <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
     <mergeCell ref="BJ29:BM29"/>
     <mergeCell ref="BN29:BQ29"/>
     <mergeCell ref="AL49:AO49"/>
@@ -46561,6 +46773,7 @@
     <mergeCell ref="BJ49:BM49"/>
     <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="J49:M49"/>
@@ -46583,7 +46796,6 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -46593,6 +46805,12 @@
     <mergeCell ref="Z49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
     <mergeCell ref="F69:I69"/>
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="AH9:AK9"/>
@@ -46609,6 +46827,7 @@
     <mergeCell ref="R69:U69"/>
     <mergeCell ref="BB49:BE49"/>
     <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
@@ -46651,7 +46870,6 @@
     <mergeCell ref="AP108:AS108"/>
     <mergeCell ref="AT108:AW108"/>
     <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="AP69:AS69"/>
     <mergeCell ref="AD88:AG88"/>
     <mergeCell ref="AH88:AK88"/>
     <mergeCell ref="AL88:AO88"/>
@@ -46674,9 +46892,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="96" man="1"/>
-    <brk id="80" max="96" man="1"/>
-    <brk id="99" max="96" man="1"/>
+    <brk id="40" max="97" man="1"/>
+    <brk id="80" max="97" man="1"/>
+    <brk id="99" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FAAEA-F5D4-41B1-8124-FDF42455E78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A6DD4-3ACA-4B76-829C-3E2917EA4AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1485" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -765,27 +765,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23644,84 +23626,49 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="35" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="99" width="9.5546875" style="11" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24"/>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="24"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
-      <c r="CS3" s="24"/>
-      <c r="CT3" s="24"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="CP4" s="24"/>
-      <c r="CQ4" s="24"/>
-      <c r="CR4" s="24"/>
-      <c r="CS4" s="24"/>
-      <c r="CT4" s="24"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="CP5" s="24"/>
-      <c r="CQ5" s="24"/>
-      <c r="CR5" s="24"/>
-      <c r="CS5" s="24"/>
-      <c r="CT5" s="24"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP6" s="24"/>
-      <c r="CQ6" s="24"/>
-      <c r="CR6" s="24"/>
-      <c r="CS6" s="24"/>
-      <c r="CT6" s="24"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="24"/>
-      <c r="CR7" s="24"/>
-      <c r="CS7" s="24"/>
-      <c r="CT7" s="24"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23817,140 +23764,141 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="25"/>
-      <c r="CQ8" s="25"/>
-      <c r="CR8" s="25"/>
-      <c r="CS8" s="25"/>
-      <c r="CT8" s="25"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="36">
+      <c r="B9" s="24">
         <v>2000</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>2001</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>2002</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <v>2003</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
         <v>2004</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24">
         <v>2005</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24">
         <v>2006</v>
       </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
         <v>2007</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36">
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24">
         <v>2008</v>
       </c>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36">
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24">
         <v>2009</v>
       </c>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36">
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36">
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24">
         <v>2011</v>
       </c>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36">
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24">
         <v>2012</v>
       </c>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36">
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24">
         <v>2013</v>
       </c>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36">
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24">
         <v>2014</v>
       </c>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36">
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24">
         <v>2015</v>
       </c>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36">
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24">
         <v>2016</v>
       </c>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36">
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24">
         <v>2017</v>
       </c>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -23963,15 +23911,16 @@
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
       <c r="CO9" s="22"/>
-      <c r="CP9" s="26">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="26">
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
         <v>2024</v>
       </c>
+      <c r="CU9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24253,20 +24202,23 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="27" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="27" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="27" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="27" t="s">
+      <c r="CS10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="27" t="s">
+      <c r="CT10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24363,11 +24315,12 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="25"/>
-      <c r="CQ11" s="25"/>
-      <c r="CR11" s="25"/>
-      <c r="CS11" s="25"/>
-      <c r="CT11" s="25"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24649,22 +24602,24 @@
       <c r="CO12" s="9">
         <v>49056.059797367976</v>
       </c>
-      <c r="CP12" s="28">
+      <c r="CP12" s="9">
         <v>40262.181528339635</v>
       </c>
-      <c r="CQ12" s="28">
+      <c r="CQ12" s="9">
         <v>23236.821742308421</v>
       </c>
-      <c r="CR12" s="28">
+      <c r="CR12" s="9">
         <v>33111.527753929491</v>
       </c>
-      <c r="CS12" s="28">
+      <c r="CS12" s="9">
         <v>53197.245467958688</v>
       </c>
-      <c r="CT12" s="28">
+      <c r="CT12" s="9">
         <v>43694.883738080607</v>
       </c>
-      <c r="CU12" s="10"/>
+      <c r="CU12" s="9">
+        <v>26358.514544035086</v>
+      </c>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
@@ -25002,22 +24957,24 @@
       <c r="CO13" s="9">
         <v>64814.715425068018</v>
       </c>
-      <c r="CP13" s="28">
+      <c r="CP13" s="9">
         <v>58719.753747963237</v>
       </c>
-      <c r="CQ13" s="28">
+      <c r="CQ13" s="9">
         <v>74939.855295263042</v>
       </c>
-      <c r="CR13" s="28">
+      <c r="CR13" s="9">
         <v>75659.319913841071</v>
       </c>
-      <c r="CS13" s="28">
+      <c r="CS13" s="9">
         <v>73640.706679135736</v>
       </c>
-      <c r="CT13" s="28">
-        <v>67337.890603761349</v>
-      </c>
-      <c r="CU13" s="10"/>
+      <c r="CT13" s="9">
+        <v>67458.903433437838</v>
+      </c>
+      <c r="CU13" s="9">
+        <v>84884.998963915408</v>
+      </c>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
@@ -25355,22 +25312,24 @@
       <c r="CO14" s="9">
         <v>9891.7991232520089</v>
       </c>
-      <c r="CP14" s="28">
+      <c r="CP14" s="9">
         <v>6033.5397901575643</v>
       </c>
-      <c r="CQ14" s="28">
+      <c r="CQ14" s="9">
         <v>4226.6510547546868</v>
       </c>
-      <c r="CR14" s="28">
+      <c r="CR14" s="9">
         <v>7189.7961110793576</v>
       </c>
-      <c r="CS14" s="28">
+      <c r="CS14" s="9">
         <v>10427.111203207209</v>
       </c>
-      <c r="CT14" s="28">
+      <c r="CT14" s="9">
         <v>6602.8065060838253</v>
       </c>
-      <c r="CU14" s="10"/>
+      <c r="CU14" s="9">
+        <v>4664.2056812005976</v>
+      </c>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
@@ -25521,12 +25480,12 @@
       <c r="CM15" s="12"/>
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
-      <c r="CP15" s="29"/>
-      <c r="CQ15" s="29"/>
-      <c r="CR15" s="29"/>
-      <c r="CS15" s="29"/>
-      <c r="CT15" s="29"/>
-      <c r="CU15" s="10"/>
+      <c r="CP15" s="12"/>
+      <c r="CQ15" s="12"/>
+      <c r="CR15" s="12"/>
+      <c r="CS15" s="12"/>
+      <c r="CT15" s="12"/>
+      <c r="CU15" s="12"/>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
@@ -25864,22 +25823,24 @@
       <c r="CO16" s="21">
         <v>123762.57434568802</v>
       </c>
-      <c r="CP16" s="30">
+      <c r="CP16" s="21">
         <v>105015.47506646044</v>
       </c>
-      <c r="CQ16" s="30">
+      <c r="CQ16" s="21">
         <v>102403.32809232616</v>
       </c>
-      <c r="CR16" s="30">
+      <c r="CR16" s="21">
         <v>115960.64377884992</v>
       </c>
-      <c r="CS16" s="30">
+      <c r="CS16" s="21">
         <v>137265.06335030161</v>
       </c>
-      <c r="CT16" s="30">
-        <v>117635.58084792578</v>
-      </c>
-      <c r="CU16" s="10"/>
+      <c r="CT16" s="21">
+        <v>117756.59367760227</v>
+      </c>
+      <c r="CU16" s="21">
+        <v>115907.7191891511</v>
+      </c>
       <c r="CV16" s="10"/>
       <c r="CW16" s="10"/>
       <c r="CX16" s="10"/>
@@ -26031,11 +25992,12 @@
       <c r="CM17" s="15"/>
       <c r="CN17" s="15"/>
       <c r="CO17" s="15"/>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="31"/>
-      <c r="CR17" s="31"/>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="31"/>
+      <c r="CP17" s="15"/>
+      <c r="CQ17" s="15"/>
+      <c r="CR17" s="15"/>
+      <c r="CS17" s="15"/>
+      <c r="CT17" s="15"/>
+      <c r="CU17" s="15"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26133,11 +26095,12 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
-      <c r="CS18" s="25"/>
-      <c r="CT18" s="25"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26232,12 +26195,12 @@
       <c r="CM19" s="12"/>
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
-      <c r="CP19" s="29"/>
-      <c r="CQ19" s="29"/>
-      <c r="CR19" s="29"/>
-      <c r="CS19" s="29"/>
-      <c r="CT19" s="29"/>
-      <c r="CU19" s="10"/>
+      <c r="CP19" s="12"/>
+      <c r="CQ19" s="12"/>
+      <c r="CR19" s="12"/>
+      <c r="CS19" s="12"/>
+      <c r="CT19" s="12"/>
+      <c r="CU19" s="12"/>
       <c r="CV19" s="10"/>
       <c r="CW19" s="10"/>
       <c r="CX19" s="10"/>
@@ -26388,12 +26351,12 @@
       <c r="CM20" s="12"/>
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
-      <c r="CP20" s="29"/>
-      <c r="CQ20" s="29"/>
-      <c r="CR20" s="29"/>
-      <c r="CS20" s="29"/>
-      <c r="CT20" s="29"/>
-      <c r="CU20" s="10"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
+      <c r="CS20" s="12"/>
+      <c r="CT20" s="12"/>
+      <c r="CU20" s="12"/>
       <c r="CV20" s="10"/>
       <c r="CW20" s="10"/>
       <c r="CX20" s="10"/>
@@ -26547,11 +26510,12 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="25"/>
-      <c r="CQ21" s="25"/>
-      <c r="CR21" s="25"/>
-      <c r="CS21" s="25"/>
-      <c r="CT21" s="25"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26649,15 +26613,16 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="25"/>
-      <c r="CQ22" s="25"/>
-      <c r="CR22" s="25"/>
-      <c r="CS22" s="25"/>
-      <c r="CT22" s="25"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26751,11 +26716,12 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="25"/>
-      <c r="CQ23" s="25"/>
-      <c r="CR23" s="25"/>
-      <c r="CS23" s="25"/>
-      <c r="CT23" s="25"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26851,11 +26817,12 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="25"/>
-      <c r="CQ24" s="25"/>
-      <c r="CR24" s="25"/>
-      <c r="CS24" s="25"/>
-      <c r="CT24" s="25"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26953,15 +26920,16 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="25"/>
-      <c r="CQ25" s="25"/>
-      <c r="CR25" s="25"/>
-      <c r="CS25" s="25"/>
-      <c r="CT25" s="25"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -27055,11 +27023,12 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="25"/>
-      <c r="CQ26" s="25"/>
-      <c r="CR26" s="25"/>
-      <c r="CS26" s="25"/>
-      <c r="CT26" s="25"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27157,11 +27126,12 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="25"/>
-      <c r="CQ27" s="25"/>
-      <c r="CR27" s="25"/>
-      <c r="CS27" s="25"/>
-      <c r="CT27" s="25"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27257,140 +27227,141 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
-      <c r="CP28" s="25"/>
-      <c r="CQ28" s="25"/>
-      <c r="CR28" s="25"/>
-      <c r="CS28" s="25"/>
-      <c r="CT28" s="25"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="36">
+      <c r="B29" s="24">
         <v>2000</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24">
         <v>2001</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="24">
         <v>2002</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="24">
         <v>2003</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="36">
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="24">
         <v>2004</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="36">
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="24">
         <v>2005</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="36">
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="24">
         <v>2006</v>
       </c>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="36">
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="24">
         <v>2007</v>
       </c>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="36">
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="24">
         <v>2008</v>
       </c>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="36">
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="24">
         <v>2009</v>
       </c>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="36">
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="36">
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="24">
         <v>2011</v>
       </c>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="36">
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="24">
         <v>2012</v>
       </c>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="36">
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="24">
         <v>2013</v>
       </c>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="36">
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="24">
         <v>2014</v>
       </c>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="36">
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="24">
         <v>2015</v>
       </c>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="36">
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="24">
         <v>2016</v>
       </c>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="36">
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="24">
         <v>2017</v>
       </c>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="36">
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
+      <c r="BU29" s="25"/>
+      <c r="BV29" s="24">
         <v>2018</v>
       </c>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="36">
+      <c r="BW29" s="25"/>
+      <c r="BX29" s="25"/>
+      <c r="BY29" s="25"/>
+      <c r="BZ29" s="24">
         <v>2019</v>
       </c>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="36">
+      <c r="CA29" s="25"/>
+      <c r="CB29" s="25"/>
+      <c r="CC29" s="25"/>
+      <c r="CD29" s="24">
         <v>2020</v>
       </c>
-      <c r="CE29" s="36"/>
-      <c r="CF29" s="36"/>
-      <c r="CG29" s="36"/>
+      <c r="CE29" s="24"/>
+      <c r="CF29" s="24"/>
+      <c r="CG29" s="24"/>
       <c r="CH29" s="22">
         <v>2021</v>
       </c>
@@ -27403,15 +27374,16 @@
       <c r="CM29" s="22"/>
       <c r="CN29" s="22"/>
       <c r="CO29" s="22"/>
-      <c r="CP29" s="26">
+      <c r="CP29" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="26"/>
-      <c r="CR29" s="26"/>
-      <c r="CS29" s="26"/>
-      <c r="CT29" s="26">
+      <c r="CQ29" s="22"/>
+      <c r="CR29" s="22"/>
+      <c r="CS29" s="22"/>
+      <c r="CT29" s="22">
         <v>2024</v>
       </c>
+      <c r="CU29" s="22"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27693,20 +27665,23 @@
       <c r="CO30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="27" t="s">
+      <c r="CP30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="27" t="s">
+      <c r="CQ30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="27" t="s">
+      <c r="CR30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="27" t="s">
+      <c r="CS30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT30" s="27" t="s">
+      <c r="CT30" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU30" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27803,11 +27778,12 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
-      <c r="CP31" s="25"/>
-      <c r="CQ31" s="25"/>
-      <c r="CR31" s="25"/>
-      <c r="CS31" s="25"/>
-      <c r="CT31" s="25"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -28089,22 +28065,24 @@
       <c r="CO32" s="9">
         <v>38401.132944361525</v>
       </c>
-      <c r="CP32" s="28">
+      <c r="CP32" s="9">
         <v>36466.310214995217</v>
       </c>
-      <c r="CQ32" s="28">
+      <c r="CQ32" s="9">
         <v>21425.791289372319</v>
       </c>
-      <c r="CR32" s="28">
+      <c r="CR32" s="9">
         <v>29513.236253631727</v>
       </c>
-      <c r="CS32" s="28">
+      <c r="CS32" s="9">
         <v>39938.739451381465</v>
       </c>
-      <c r="CT32" s="28">
+      <c r="CT32" s="9">
         <v>38417.23811065546</v>
       </c>
-      <c r="CU32" s="10"/>
+      <c r="CU32" s="9">
+        <v>23364.653897293265</v>
+      </c>
       <c r="CV32" s="10"/>
       <c r="CW32" s="10"/>
       <c r="CX32" s="10"/>
@@ -28442,22 +28420,24 @@
       <c r="CO33" s="9">
         <v>51717.147372412182</v>
       </c>
-      <c r="CP33" s="28">
+      <c r="CP33" s="9">
         <v>56823.739361555607</v>
       </c>
-      <c r="CQ33" s="28">
+      <c r="CQ33" s="9">
         <v>66446.837736942136</v>
       </c>
-      <c r="CR33" s="28">
+      <c r="CR33" s="9">
         <v>61618.959843679957</v>
       </c>
-      <c r="CS33" s="28">
+      <c r="CS33" s="9">
         <v>56269.508022895752</v>
       </c>
-      <c r="CT33" s="28">
-        <v>62869.840288546235</v>
-      </c>
-      <c r="CU33" s="10"/>
+      <c r="CT33" s="9">
+        <v>62982.823591207052</v>
+      </c>
+      <c r="CU33" s="9">
+        <v>72815.23541956101</v>
+      </c>
       <c r="CV33" s="10"/>
       <c r="CW33" s="10"/>
       <c r="CX33" s="10"/>
@@ -28795,22 +28775,24 @@
       <c r="CO34" s="9">
         <v>7324.1213520143538</v>
       </c>
-      <c r="CP34" s="28">
+      <c r="CP34" s="9">
         <v>5562.1833673924257</v>
       </c>
-      <c r="CQ34" s="28">
+      <c r="CQ34" s="9">
         <v>3726.7650179692655</v>
       </c>
-      <c r="CR34" s="28">
+      <c r="CR34" s="9">
         <v>5877.176325540082</v>
       </c>
-      <c r="CS34" s="28">
+      <c r="CS34" s="9">
         <v>7482.1647340361324</v>
       </c>
-      <c r="CT34" s="28">
+      <c r="CT34" s="9">
         <v>5923.946664969184</v>
       </c>
-      <c r="CU34" s="10"/>
+      <c r="CU34" s="9">
+        <v>3924.1479625002403</v>
+      </c>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
@@ -28961,12 +28943,12 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="29"/>
-      <c r="CQ35" s="29"/>
-      <c r="CR35" s="29"/>
-      <c r="CS35" s="29"/>
-      <c r="CT35" s="29"/>
-      <c r="CU35" s="10"/>
+      <c r="CP35" s="12"/>
+      <c r="CQ35" s="12"/>
+      <c r="CR35" s="12"/>
+      <c r="CS35" s="12"/>
+      <c r="CT35" s="12"/>
+      <c r="CU35" s="12"/>
       <c r="CV35" s="10"/>
       <c r="CW35" s="10"/>
       <c r="CX35" s="10"/>
@@ -29304,22 +29286,24 @@
       <c r="CO36" s="21">
         <v>97442.401668788065</v>
       </c>
-      <c r="CP36" s="30">
+      <c r="CP36" s="21">
         <v>98852.232943943251</v>
       </c>
-      <c r="CQ36" s="30">
+      <c r="CQ36" s="21">
         <v>91599.394044283719</v>
       </c>
-      <c r="CR36" s="30">
+      <c r="CR36" s="21">
         <v>97009.372422851768</v>
       </c>
-      <c r="CS36" s="30">
+      <c r="CS36" s="21">
         <v>103690.41220831336</v>
       </c>
-      <c r="CT36" s="30">
-        <v>107211.02506417088</v>
-      </c>
-      <c r="CU36" s="10"/>
+      <c r="CT36" s="21">
+        <v>107324.00836683171</v>
+      </c>
+      <c r="CU36" s="21">
+        <v>100104.03727935451</v>
+      </c>
       <c r="CV36" s="10"/>
       <c r="CW36" s="10"/>
       <c r="CX36" s="10"/>
@@ -29471,11 +29455,12 @@
       <c r="CM37" s="15"/>
       <c r="CN37" s="15"/>
       <c r="CO37" s="15"/>
-      <c r="CP37" s="31"/>
-      <c r="CQ37" s="31"/>
-      <c r="CR37" s="31"/>
-      <c r="CS37" s="31"/>
-      <c r="CT37" s="31"/>
+      <c r="CP37" s="15"/>
+      <c r="CQ37" s="15"/>
+      <c r="CR37" s="15"/>
+      <c r="CS37" s="15"/>
+      <c r="CT37" s="15"/>
+      <c r="CU37" s="15"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29573,11 +29558,12 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
-      <c r="CP38" s="25"/>
-      <c r="CQ38" s="25"/>
-      <c r="CR38" s="25"/>
-      <c r="CS38" s="25"/>
-      <c r="CT38" s="25"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29672,12 +29658,12 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="29"/>
-      <c r="CQ39" s="29"/>
-      <c r="CR39" s="29"/>
-      <c r="CS39" s="29"/>
-      <c r="CT39" s="29"/>
-      <c r="CU39" s="10"/>
+      <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
+      <c r="CR39" s="12"/>
+      <c r="CS39" s="12"/>
+      <c r="CT39" s="12"/>
+      <c r="CU39" s="12"/>
       <c r="CV39" s="10"/>
       <c r="CW39" s="10"/>
       <c r="CX39" s="10"/>
@@ -29828,12 +29814,12 @@
       <c r="CM40" s="12"/>
       <c r="CN40" s="12"/>
       <c r="CO40" s="12"/>
-      <c r="CP40" s="29"/>
-      <c r="CQ40" s="29"/>
-      <c r="CR40" s="29"/>
-      <c r="CS40" s="29"/>
-      <c r="CT40" s="29"/>
-      <c r="CU40" s="10"/>
+      <c r="CP40" s="12"/>
+      <c r="CQ40" s="12"/>
+      <c r="CR40" s="12"/>
+      <c r="CS40" s="12"/>
+      <c r="CT40" s="12"/>
+      <c r="CU40" s="12"/>
       <c r="CV40" s="10"/>
       <c r="CW40" s="10"/>
       <c r="CX40" s="10"/>
@@ -29987,11 +29973,12 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="25"/>
-      <c r="CQ41" s="25"/>
-      <c r="CR41" s="25"/>
-      <c r="CS41" s="25"/>
-      <c r="CT41" s="25"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -30089,15 +30076,16 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="25"/>
-      <c r="CQ42" s="25"/>
-      <c r="CR42" s="25"/>
-      <c r="CS42" s="25"/>
-      <c r="CT42" s="25"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30191,11 +30179,12 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="25"/>
-      <c r="CQ43" s="25"/>
-      <c r="CR43" s="25"/>
-      <c r="CS43" s="25"/>
-      <c r="CT43" s="25"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30291,11 +30280,12 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="25"/>
-      <c r="CQ44" s="25"/>
-      <c r="CR44" s="25"/>
-      <c r="CS44" s="25"/>
-      <c r="CT44" s="25"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30393,15 +30383,16 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
-      <c r="CP45" s="25"/>
-      <c r="CQ45" s="25"/>
-      <c r="CR45" s="25"/>
-      <c r="CS45" s="25"/>
-      <c r="CT45" s="25"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30495,11 +30486,12 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="25"/>
-      <c r="CQ46" s="25"/>
-      <c r="CR46" s="25"/>
-      <c r="CS46" s="25"/>
-      <c r="CT46" s="25"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30597,11 +30589,12 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
-      <c r="CP47" s="25"/>
-      <c r="CQ47" s="25"/>
-      <c r="CR47" s="25"/>
-      <c r="CS47" s="25"/>
-      <c r="CT47" s="25"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30697,140 +30690,141 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
-      <c r="CP48" s="25"/>
-      <c r="CQ48" s="25"/>
-      <c r="CR48" s="25"/>
-      <c r="CS48" s="25"/>
-      <c r="CT48" s="25"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36" t="s">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36" t="s">
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36" t="s">
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36" t="s">
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36" t="s">
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36" t="s">
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36" t="s">
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36" t="s">
+      <c r="AI49" s="24"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="36"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="36"/>
-      <c r="AP49" s="36" t="s">
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="36"/>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="36"/>
-      <c r="AT49" s="36" t="s">
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="24"/>
+      <c r="AS49" s="24"/>
+      <c r="AT49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="36"/>
-      <c r="AV49" s="36"/>
-      <c r="AW49" s="36"/>
-      <c r="AX49" s="36" t="s">
+      <c r="AU49" s="24"/>
+      <c r="AV49" s="24"/>
+      <c r="AW49" s="24"/>
+      <c r="AX49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="36"/>
-      <c r="AZ49" s="36"/>
-      <c r="BA49" s="36"/>
-      <c r="BB49" s="36" t="s">
+      <c r="AY49" s="24"/>
+      <c r="AZ49" s="24"/>
+      <c r="BA49" s="24"/>
+      <c r="BB49" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="36"/>
-      <c r="BD49" s="36"/>
-      <c r="BE49" s="36"/>
-      <c r="BF49" s="36" t="s">
+      <c r="BC49" s="24"/>
+      <c r="BD49" s="24"/>
+      <c r="BE49" s="24"/>
+      <c r="BF49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="36"/>
-      <c r="BH49" s="36"/>
-      <c r="BI49" s="36"/>
-      <c r="BJ49" s="36" t="s">
+      <c r="BG49" s="24"/>
+      <c r="BH49" s="24"/>
+      <c r="BI49" s="24"/>
+      <c r="BJ49" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="36"/>
-      <c r="BL49" s="36"/>
-      <c r="BM49" s="36"/>
-      <c r="BN49" s="36" t="s">
+      <c r="BK49" s="24"/>
+      <c r="BL49" s="24"/>
+      <c r="BM49" s="24"/>
+      <c r="BN49" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="36"/>
-      <c r="BP49" s="36"/>
-      <c r="BQ49" s="36"/>
-      <c r="BR49" s="36" t="s">
+      <c r="BO49" s="24"/>
+      <c r="BP49" s="24"/>
+      <c r="BQ49" s="24"/>
+      <c r="BR49" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="36"/>
-      <c r="BT49" s="36"/>
-      <c r="BU49" s="36"/>
-      <c r="BV49" s="36" t="s">
+      <c r="BS49" s="24"/>
+      <c r="BT49" s="24"/>
+      <c r="BU49" s="24"/>
+      <c r="BV49" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="36"/>
-      <c r="BX49" s="36"/>
-      <c r="BY49" s="36"/>
-      <c r="BZ49" s="36" t="s">
+      <c r="BW49" s="24"/>
+      <c r="BX49" s="24"/>
+      <c r="BY49" s="24"/>
+      <c r="BZ49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="36"/>
-      <c r="CB49" s="36"/>
-      <c r="CC49" s="36"/>
-      <c r="CD49" s="36" t="s">
+      <c r="CA49" s="24"/>
+      <c r="CB49" s="24"/>
+      <c r="CC49" s="24"/>
+      <c r="CD49" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="36"/>
-      <c r="CF49" s="36"/>
-      <c r="CG49" s="36"/>
+      <c r="CE49" s="24"/>
+      <c r="CF49" s="24"/>
+      <c r="CG49" s="24"/>
       <c r="CH49" s="22" t="s">
         <v>48</v>
       </c>
@@ -30843,13 +30837,14 @@
       <c r="CM49" s="22"/>
       <c r="CN49" s="22"/>
       <c r="CO49" s="22"/>
-      <c r="CP49" s="26" t="s">
+      <c r="CP49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CQ49" s="23"/>
+      <c r="CQ49" s="22"/>
       <c r="CR49" s="23"/>
       <c r="CS49" s="23"/>
-      <c r="CT49" s="23"/>
+      <c r="CT49" s="22"/>
+      <c r="CU49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31131,13 +31126,16 @@
       <c r="CO50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="32" t="s">
+      <c r="CP50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ50" s="32"/>
-      <c r="CR50" s="32"/>
-      <c r="CS50" s="32"/>
-      <c r="CT50" s="32"/>
+      <c r="CQ50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR50" s="6"/>
+      <c r="CS50" s="6"/>
+      <c r="CT50" s="6"/>
+      <c r="CU50" s="6"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31233,11 +31231,12 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
-      <c r="CP51" s="25"/>
-      <c r="CQ51" s="25"/>
-      <c r="CR51" s="25"/>
-      <c r="CS51" s="25"/>
-      <c r="CT51" s="25"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31519,14 +31518,16 @@
       <c r="CO52" s="17">
         <v>8.4417413214521844</v>
       </c>
-      <c r="CP52" s="33">
+      <c r="CP52" s="17">
         <v>8.5258723681546513</v>
       </c>
-      <c r="CQ52" s="33"/>
-      <c r="CR52" s="33"/>
-      <c r="CS52" s="33"/>
-      <c r="CT52" s="33"/>
-      <c r="CU52" s="10"/>
+      <c r="CQ52" s="17">
+        <v>13.434250330555514</v>
+      </c>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="17"/>
+      <c r="CT52" s="17"/>
+      <c r="CU52" s="17"/>
       <c r="CV52" s="10"/>
       <c r="CW52" s="10"/>
       <c r="CX52" s="10"/>
@@ -31860,14 +31861,16 @@
       <c r="CO53" s="17">
         <v>13.617264530415781</v>
       </c>
-      <c r="CP53" s="33">
-        <v>14.676725132037944</v>
-      </c>
-      <c r="CQ53" s="33"/>
-      <c r="CR53" s="33"/>
-      <c r="CS53" s="33"/>
-      <c r="CT53" s="33"/>
-      <c r="CU53" s="10"/>
+      <c r="CP53" s="17">
+        <v>14.882810515494938</v>
+      </c>
+      <c r="CQ53" s="17">
+        <v>13.270833829967387</v>
+      </c>
+      <c r="CR53" s="17"/>
+      <c r="CS53" s="17"/>
+      <c r="CT53" s="17"/>
+      <c r="CU53" s="17"/>
       <c r="CV53" s="10"/>
       <c r="CW53" s="10"/>
       <c r="CX53" s="10"/>
@@ -32201,14 +32204,16 @@
       <c r="CO54" s="17">
         <v>5.4116756040554463</v>
       </c>
-      <c r="CP54" s="33">
+      <c r="CP54" s="17">
         <v>9.4350370715197585</v>
       </c>
-      <c r="CQ54" s="33"/>
-      <c r="CR54" s="33"/>
-      <c r="CS54" s="33"/>
-      <c r="CT54" s="33"/>
-      <c r="CU54" s="10"/>
+      <c r="CQ54" s="17">
+        <v>10.352277033934286</v>
+      </c>
+      <c r="CR54" s="17"/>
+      <c r="CS54" s="17"/>
+      <c r="CT54" s="17"/>
+      <c r="CU54" s="17"/>
       <c r="CV54" s="10"/>
       <c r="CW54" s="10"/>
       <c r="CX54" s="10"/>
@@ -32355,12 +32360,12 @@
       <c r="CM55" s="12"/>
       <c r="CN55" s="12"/>
       <c r="CO55" s="12"/>
-      <c r="CP55" s="29"/>
-      <c r="CQ55" s="29"/>
-      <c r="CR55" s="29"/>
-      <c r="CS55" s="29"/>
-      <c r="CT55" s="29"/>
-      <c r="CU55" s="10"/>
+      <c r="CP55" s="12"/>
+      <c r="CQ55" s="12"/>
+      <c r="CR55" s="12"/>
+      <c r="CS55" s="12"/>
+      <c r="CT55" s="12"/>
+      <c r="CU55" s="12"/>
       <c r="CV55" s="10"/>
       <c r="CW55" s="10"/>
       <c r="CX55" s="10"/>
@@ -32694,14 +32699,16 @@
       <c r="CO56" s="17">
         <v>10.909993651957379</v>
       </c>
-      <c r="CP56" s="33">
-        <v>12.017377223193577</v>
-      </c>
-      <c r="CQ56" s="33"/>
-      <c r="CR56" s="33"/>
-      <c r="CS56" s="33"/>
-      <c r="CT56" s="33"/>
-      <c r="CU56" s="10"/>
+      <c r="CP56" s="17">
+        <v>12.132610553900221</v>
+      </c>
+      <c r="CQ56" s="17">
+        <v>13.187453326369905</v>
+      </c>
+      <c r="CR56" s="17"/>
+      <c r="CS56" s="17"/>
+      <c r="CT56" s="17"/>
+      <c r="CU56" s="17"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
       <c r="CX56" s="10"/>
@@ -32849,11 +32856,12 @@
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
-      <c r="CP57" s="31"/>
-      <c r="CQ57" s="31"/>
-      <c r="CR57" s="31"/>
-      <c r="CS57" s="31"/>
-      <c r="CT57" s="31"/>
+      <c r="CP57" s="15"/>
+      <c r="CQ57" s="15"/>
+      <c r="CR57" s="15"/>
+      <c r="CS57" s="15"/>
+      <c r="CT57" s="15"/>
+      <c r="CU57" s="15"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32951,11 +32959,12 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="25"/>
-      <c r="CQ58" s="25"/>
-      <c r="CR58" s="25"/>
-      <c r="CS58" s="25"/>
-      <c r="CT58" s="25"/>
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -33050,12 +33059,12 @@
       <c r="CM59" s="12"/>
       <c r="CN59" s="12"/>
       <c r="CO59" s="12"/>
-      <c r="CP59" s="29"/>
-      <c r="CQ59" s="29"/>
-      <c r="CR59" s="29"/>
-      <c r="CS59" s="29"/>
-      <c r="CT59" s="29"/>
-      <c r="CU59" s="10"/>
+      <c r="CP59" s="12"/>
+      <c r="CQ59" s="12"/>
+      <c r="CR59" s="12"/>
+      <c r="CS59" s="12"/>
+      <c r="CT59" s="12"/>
+      <c r="CU59" s="12"/>
       <c r="CV59" s="10"/>
       <c r="CW59" s="10"/>
       <c r="CX59" s="10"/>
@@ -33202,12 +33211,12 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="29"/>
-      <c r="CQ60" s="29"/>
-      <c r="CR60" s="29"/>
-      <c r="CS60" s="29"/>
-      <c r="CT60" s="29"/>
-      <c r="CU60" s="10"/>
+      <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
+      <c r="CR60" s="12"/>
+      <c r="CS60" s="12"/>
+      <c r="CT60" s="12"/>
+      <c r="CU60" s="12"/>
       <c r="CV60" s="10"/>
       <c r="CW60" s="10"/>
       <c r="CX60" s="10"/>
@@ -33357,11 +33366,12 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="25"/>
-      <c r="CQ61" s="25"/>
-      <c r="CR61" s="25"/>
-      <c r="CS61" s="25"/>
-      <c r="CT61" s="25"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33459,15 +33469,16 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="25"/>
-      <c r="CQ62" s="25"/>
-      <c r="CR62" s="25"/>
-      <c r="CS62" s="25"/>
-      <c r="CT62" s="25"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33561,11 +33572,12 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="25"/>
-      <c r="CQ63" s="25"/>
-      <c r="CR63" s="25"/>
-      <c r="CS63" s="25"/>
-      <c r="CT63" s="25"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33661,11 +33673,12 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="25"/>
-      <c r="CQ64" s="25"/>
-      <c r="CR64" s="25"/>
-      <c r="CS64" s="25"/>
-      <c r="CT64" s="25"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="1"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33763,15 +33776,16 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="25"/>
-      <c r="CQ65" s="25"/>
-      <c r="CR65" s="25"/>
-      <c r="CS65" s="25"/>
-      <c r="CT65" s="25"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="1"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -33865,11 +33879,12 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
-      <c r="CP66" s="25"/>
-      <c r="CQ66" s="25"/>
-      <c r="CR66" s="25"/>
-      <c r="CS66" s="25"/>
-      <c r="CT66" s="25"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66" s="1"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33967,11 +33982,12 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
-      <c r="CP67" s="25"/>
-      <c r="CQ67" s="25"/>
-      <c r="CR67" s="25"/>
-      <c r="CS67" s="25"/>
-      <c r="CT67" s="25"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -34067,140 +34083,141 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="25"/>
-      <c r="CQ68" s="25"/>
-      <c r="CR68" s="25"/>
-      <c r="CS68" s="25"/>
-      <c r="CT68" s="25"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="36" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="36" t="s">
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="36" t="s">
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="36" t="s">
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="36" t="s">
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="36" t="s">
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="36" t="s">
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="36" t="s">
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="36" t="s">
+      <c r="AI69" s="26"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="36" t="s">
+      <c r="AM69" s="26"/>
+      <c r="AN69" s="26"/>
+      <c r="AO69" s="26"/>
+      <c r="AP69" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="36" t="s">
+      <c r="AQ69" s="26"/>
+      <c r="AR69" s="26"/>
+      <c r="AS69" s="26"/>
+      <c r="AT69" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="38"/>
-      <c r="AX69" s="36" t="s">
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="26"/>
+      <c r="AW69" s="26"/>
+      <c r="AX69" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="36" t="s">
+      <c r="AY69" s="26"/>
+      <c r="AZ69" s="26"/>
+      <c r="BA69" s="26"/>
+      <c r="BB69" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="38"/>
-      <c r="BE69" s="38"/>
-      <c r="BF69" s="36" t="s">
+      <c r="BC69" s="26"/>
+      <c r="BD69" s="26"/>
+      <c r="BE69" s="26"/>
+      <c r="BF69" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="38"/>
-      <c r="BH69" s="38"/>
-      <c r="BI69" s="38"/>
-      <c r="BJ69" s="36" t="s">
+      <c r="BG69" s="26"/>
+      <c r="BH69" s="26"/>
+      <c r="BI69" s="26"/>
+      <c r="BJ69" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="38"/>
-      <c r="BL69" s="38"/>
-      <c r="BM69" s="38"/>
-      <c r="BN69" s="36" t="s">
+      <c r="BK69" s="26"/>
+      <c r="BL69" s="26"/>
+      <c r="BM69" s="26"/>
+      <c r="BN69" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="38"/>
-      <c r="BP69" s="38"/>
-      <c r="BQ69" s="38"/>
-      <c r="BR69" s="36" t="s">
+      <c r="BO69" s="26"/>
+      <c r="BP69" s="26"/>
+      <c r="BQ69" s="26"/>
+      <c r="BR69" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="38"/>
-      <c r="BT69" s="38"/>
-      <c r="BU69" s="38"/>
-      <c r="BV69" s="36" t="s">
+      <c r="BS69" s="26"/>
+      <c r="BT69" s="26"/>
+      <c r="BU69" s="26"/>
+      <c r="BV69" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="38"/>
-      <c r="BX69" s="38"/>
-      <c r="BY69" s="38"/>
-      <c r="BZ69" s="36" t="s">
+      <c r="BW69" s="26"/>
+      <c r="BX69" s="26"/>
+      <c r="BY69" s="26"/>
+      <c r="BZ69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="38"/>
-      <c r="CB69" s="38"/>
-      <c r="CC69" s="38"/>
-      <c r="CD69" s="36" t="s">
+      <c r="CA69" s="26"/>
+      <c r="CB69" s="26"/>
+      <c r="CC69" s="26"/>
+      <c r="CD69" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="36"/>
-      <c r="CF69" s="36"/>
-      <c r="CG69" s="36"/>
+      <c r="CE69" s="24"/>
+      <c r="CF69" s="24"/>
+      <c r="CG69" s="24"/>
       <c r="CH69" s="22" t="s">
         <v>48</v>
       </c>
@@ -34213,13 +34230,14 @@
       <c r="CM69" s="22"/>
       <c r="CN69" s="22"/>
       <c r="CO69" s="22"/>
-      <c r="CP69" s="26" t="s">
+      <c r="CP69" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CQ69" s="23"/>
+      <c r="CQ69" s="22"/>
       <c r="CR69" s="23"/>
       <c r="CS69" s="23"/>
-      <c r="CT69" s="23"/>
+      <c r="CT69" s="22"/>
+      <c r="CU69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34501,13 +34519,16 @@
       <c r="CO70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="32" t="s">
+      <c r="CP70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ70" s="32"/>
-      <c r="CR70" s="32"/>
-      <c r="CS70" s="32"/>
-      <c r="CT70" s="32"/>
+      <c r="CQ70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR70" s="6"/>
+      <c r="CS70" s="6"/>
+      <c r="CT70" s="6"/>
+      <c r="CU70" s="6"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34603,11 +34624,12 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
-      <c r="CP71" s="25"/>
-      <c r="CQ71" s="25"/>
-      <c r="CR71" s="25"/>
-      <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34889,14 +34911,16 @@
       <c r="CO72" s="17">
         <v>4.0040654770465665</v>
       </c>
-      <c r="CP72" s="33">
+      <c r="CP72" s="17">
         <v>5.3499459752251113</v>
       </c>
-      <c r="CQ72" s="33"/>
-      <c r="CR72" s="33"/>
-      <c r="CS72" s="33"/>
-      <c r="CT72" s="33"/>
-      <c r="CU72" s="10"/>
+      <c r="CQ72" s="17">
+        <v>9.0491995452353109</v>
+      </c>
+      <c r="CR72" s="17"/>
+      <c r="CS72" s="17"/>
+      <c r="CT72" s="17"/>
+      <c r="CU72" s="17"/>
       <c r="CV72" s="10"/>
       <c r="CW72" s="10"/>
       <c r="CX72" s="10"/>
@@ -35230,14 +35254,16 @@
       <c r="CO73" s="17">
         <v>8.8024202450732218</v>
       </c>
-      <c r="CP73" s="33">
-        <v>10.640096894223674</v>
-      </c>
-      <c r="CQ73" s="33"/>
-      <c r="CR73" s="33"/>
-      <c r="CS73" s="33"/>
-      <c r="CT73" s="33"/>
-      <c r="CU73" s="10"/>
+      <c r="CP73" s="17">
+        <v>10.838928058681049</v>
+      </c>
+      <c r="CQ73" s="17">
+        <v>9.5841997896587259</v>
+      </c>
+      <c r="CR73" s="17"/>
+      <c r="CS73" s="17"/>
+      <c r="CT73" s="17"/>
+      <c r="CU73" s="17"/>
       <c r="CV73" s="10"/>
       <c r="CW73" s="10"/>
       <c r="CX73" s="10"/>
@@ -35571,14 +35597,16 @@
       <c r="CO74" s="17">
         <v>2.1578476710836014</v>
       </c>
-      <c r="CP74" s="33">
+      <c r="CP74" s="17">
         <v>6.5039800682866513</v>
       </c>
-      <c r="CQ74" s="33"/>
-      <c r="CR74" s="33"/>
-      <c r="CS74" s="33"/>
-      <c r="CT74" s="33"/>
-      <c r="CU74" s="10"/>
+      <c r="CQ74" s="17">
+        <v>5.2963614174560831</v>
+      </c>
+      <c r="CR74" s="17"/>
+      <c r="CS74" s="17"/>
+      <c r="CT74" s="17"/>
+      <c r="CU74" s="17"/>
       <c r="CV74" s="10"/>
       <c r="CW74" s="10"/>
       <c r="CX74" s="10"/>
@@ -35725,12 +35753,12 @@
       <c r="CM75" s="12"/>
       <c r="CN75" s="12"/>
       <c r="CO75" s="12"/>
-      <c r="CP75" s="29"/>
-      <c r="CQ75" s="29"/>
-      <c r="CR75" s="29"/>
-      <c r="CS75" s="29"/>
-      <c r="CT75" s="29"/>
-      <c r="CU75" s="10"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="12"/>
+      <c r="CR75" s="12"/>
+      <c r="CS75" s="12"/>
+      <c r="CT75" s="12"/>
+      <c r="CU75" s="12"/>
       <c r="CV75" s="10"/>
       <c r="CW75" s="10"/>
       <c r="CX75" s="10"/>
@@ -36064,14 +36092,16 @@
       <c r="CO76" s="17">
         <v>6.4120038428061292</v>
       </c>
-      <c r="CP76" s="33">
-        <v>8.4558455295265844</v>
-      </c>
-      <c r="CQ76" s="33"/>
-      <c r="CR76" s="33"/>
-      <c r="CS76" s="33"/>
-      <c r="CT76" s="33"/>
-      <c r="CU76" s="10"/>
+      <c r="CP76" s="17">
+        <v>8.5701406742046942</v>
+      </c>
+      <c r="CQ76" s="17">
+        <v>9.2846064363255891</v>
+      </c>
+      <c r="CR76" s="17"/>
+      <c r="CS76" s="17"/>
+      <c r="CT76" s="17"/>
+      <c r="CU76" s="17"/>
       <c r="CV76" s="10"/>
       <c r="CW76" s="10"/>
       <c r="CX76" s="10"/>
@@ -36219,11 +36249,12 @@
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
-      <c r="CP77" s="31"/>
-      <c r="CQ77" s="31"/>
-      <c r="CR77" s="31"/>
-      <c r="CS77" s="31"/>
-      <c r="CT77" s="31"/>
+      <c r="CP77" s="15"/>
+      <c r="CQ77" s="15"/>
+      <c r="CR77" s="15"/>
+      <c r="CS77" s="15"/>
+      <c r="CT77" s="15"/>
+      <c r="CU77" s="15"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36321,11 +36352,12 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="25"/>
-      <c r="CQ78" s="25"/>
-      <c r="CR78" s="25"/>
-      <c r="CS78" s="25"/>
-      <c r="CT78" s="25"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36420,12 +36452,12 @@
       <c r="CM79" s="12"/>
       <c r="CN79" s="12"/>
       <c r="CO79" s="12"/>
-      <c r="CP79" s="29"/>
-      <c r="CQ79" s="29"/>
-      <c r="CR79" s="29"/>
-      <c r="CS79" s="29"/>
-      <c r="CT79" s="29"/>
-      <c r="CU79" s="10"/>
+      <c r="CP79" s="12"/>
+      <c r="CQ79" s="12"/>
+      <c r="CR79" s="12"/>
+      <c r="CS79" s="12"/>
+      <c r="CT79" s="12"/>
+      <c r="CU79" s="12"/>
       <c r="CV79" s="10"/>
       <c r="CW79" s="10"/>
       <c r="CX79" s="10"/>
@@ -36572,11 +36604,11 @@
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
-      <c r="CP80" s="34"/>
-      <c r="CQ80" s="34"/>
-      <c r="CR80" s="34"/>
-      <c r="CS80" s="34"/>
-      <c r="CT80" s="34"/>
+      <c r="CP80" s="10"/>
+      <c r="CQ80" s="10"/>
+      <c r="CR80" s="10"/>
+      <c r="CS80" s="10"/>
+      <c r="CT80" s="10"/>
       <c r="CU80" s="10"/>
       <c r="CV80" s="10"/>
       <c r="CW80" s="10"/>
@@ -36727,15 +36759,16 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="25"/>
-      <c r="CQ81" s="25"/>
-      <c r="CR81" s="25"/>
-      <c r="CS81" s="25"/>
-      <c r="CT81" s="25"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -36829,11 +36862,12 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="25"/>
-      <c r="CQ82" s="25"/>
-      <c r="CR82" s="25"/>
-      <c r="CS82" s="25"/>
-      <c r="CT82" s="25"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36929,11 +36963,12 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="25"/>
-      <c r="CQ83" s="25"/>
-      <c r="CR83" s="25"/>
-      <c r="CS83" s="25"/>
-      <c r="CT83" s="25"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -37031,15 +37066,16 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
-      <c r="CP84" s="25"/>
-      <c r="CQ84" s="25"/>
-      <c r="CR84" s="25"/>
-      <c r="CS84" s="25"/>
-      <c r="CT84" s="25"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="1"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -37133,11 +37169,12 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
-      <c r="CP85" s="25"/>
-      <c r="CQ85" s="25"/>
-      <c r="CR85" s="25"/>
-      <c r="CS85" s="25"/>
-      <c r="CT85" s="25"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="1"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37235,11 +37272,12 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="25"/>
-      <c r="CQ86" s="25"/>
-      <c r="CR86" s="25"/>
-      <c r="CS86" s="25"/>
-      <c r="CT86" s="25"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+      <c r="CU86" s="1"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37335,140 +37373,141 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
-      <c r="CP87" s="25"/>
-      <c r="CQ87" s="25"/>
-      <c r="CR87" s="25"/>
-      <c r="CS87" s="25"/>
-      <c r="CT87" s="25"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+      <c r="CU87" s="1"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="36">
+      <c r="B88" s="24">
         <v>2000</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="36">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="24">
         <v>2001</v>
       </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="36">
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="24">
         <v>2002</v>
       </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="36">
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="24">
         <v>2003</v>
       </c>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="36">
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="24">
         <v>2004</v>
       </c>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="36">
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="24">
         <v>2005</v>
       </c>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="36">
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="24">
         <v>2006</v>
       </c>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="36">
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="25"/>
+      <c r="AD88" s="24">
         <v>2007</v>
       </c>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="36">
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="25"/>
+      <c r="AH88" s="24">
         <v>2008</v>
       </c>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="36">
+      <c r="AI88" s="25"/>
+      <c r="AJ88" s="25"/>
+      <c r="AK88" s="25"/>
+      <c r="AL88" s="24">
         <v>2009</v>
       </c>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="36">
+      <c r="AM88" s="25"/>
+      <c r="AN88" s="25"/>
+      <c r="AO88" s="25"/>
+      <c r="AP88" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="36">
+      <c r="AQ88" s="25"/>
+      <c r="AR88" s="25"/>
+      <c r="AS88" s="25"/>
+      <c r="AT88" s="24">
         <v>2011</v>
       </c>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="36">
+      <c r="AU88" s="25"/>
+      <c r="AV88" s="25"/>
+      <c r="AW88" s="25"/>
+      <c r="AX88" s="24">
         <v>2012</v>
       </c>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="36">
+      <c r="AY88" s="25"/>
+      <c r="AZ88" s="25"/>
+      <c r="BA88" s="25"/>
+      <c r="BB88" s="24">
         <v>2013</v>
       </c>
-      <c r="BC88" s="37"/>
-      <c r="BD88" s="37"/>
-      <c r="BE88" s="37"/>
-      <c r="BF88" s="36">
+      <c r="BC88" s="25"/>
+      <c r="BD88" s="25"/>
+      <c r="BE88" s="25"/>
+      <c r="BF88" s="24">
         <v>2014</v>
       </c>
-      <c r="BG88" s="37"/>
-      <c r="BH88" s="37"/>
-      <c r="BI88" s="37"/>
-      <c r="BJ88" s="36">
+      <c r="BG88" s="25"/>
+      <c r="BH88" s="25"/>
+      <c r="BI88" s="25"/>
+      <c r="BJ88" s="24">
         <v>2015</v>
       </c>
-      <c r="BK88" s="37"/>
-      <c r="BL88" s="37"/>
-      <c r="BM88" s="37"/>
-      <c r="BN88" s="36">
+      <c r="BK88" s="25"/>
+      <c r="BL88" s="25"/>
+      <c r="BM88" s="25"/>
+      <c r="BN88" s="24">
         <v>2016</v>
       </c>
-      <c r="BO88" s="37"/>
-      <c r="BP88" s="37"/>
-      <c r="BQ88" s="37"/>
-      <c r="BR88" s="36">
+      <c r="BO88" s="25"/>
+      <c r="BP88" s="25"/>
+      <c r="BQ88" s="25"/>
+      <c r="BR88" s="24">
         <v>2017</v>
       </c>
-      <c r="BS88" s="37"/>
-      <c r="BT88" s="37"/>
-      <c r="BU88" s="37"/>
-      <c r="BV88" s="36">
+      <c r="BS88" s="25"/>
+      <c r="BT88" s="25"/>
+      <c r="BU88" s="25"/>
+      <c r="BV88" s="24">
         <v>2018</v>
       </c>
-      <c r="BW88" s="37"/>
-      <c r="BX88" s="37"/>
-      <c r="BY88" s="37"/>
-      <c r="BZ88" s="36">
+      <c r="BW88" s="25"/>
+      <c r="BX88" s="25"/>
+      <c r="BY88" s="25"/>
+      <c r="BZ88" s="24">
         <v>2019</v>
       </c>
-      <c r="CA88" s="37"/>
-      <c r="CB88" s="37"/>
-      <c r="CC88" s="37"/>
-      <c r="CD88" s="36">
+      <c r="CA88" s="25"/>
+      <c r="CB88" s="25"/>
+      <c r="CC88" s="25"/>
+      <c r="CD88" s="24">
         <v>2020</v>
       </c>
-      <c r="CE88" s="36"/>
-      <c r="CF88" s="36"/>
-      <c r="CG88" s="36"/>
+      <c r="CE88" s="24"/>
+      <c r="CF88" s="24"/>
+      <c r="CG88" s="24"/>
       <c r="CH88" s="22">
         <v>2021</v>
       </c>
@@ -37481,15 +37520,16 @@
       <c r="CM88" s="22"/>
       <c r="CN88" s="22"/>
       <c r="CO88" s="22"/>
-      <c r="CP88" s="26">
+      <c r="CP88" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="26"/>
-      <c r="CR88" s="26"/>
-      <c r="CS88" s="26"/>
-      <c r="CT88" s="26">
+      <c r="CQ88" s="22"/>
+      <c r="CR88" s="22"/>
+      <c r="CS88" s="22"/>
+      <c r="CT88" s="22">
         <v>2024</v>
       </c>
+      <c r="CU88" s="22"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37771,20 +37811,23 @@
       <c r="CO89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="27" t="s">
+      <c r="CP89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="27" t="s">
+      <c r="CQ89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="27" t="s">
+      <c r="CR89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="27" t="s">
+      <c r="CS89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT89" s="27" t="s">
+      <c r="CT89" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU89" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37881,11 +37924,12 @@
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
-      <c r="CP90" s="25"/>
-      <c r="CQ90" s="25"/>
-      <c r="CR90" s="25"/>
-      <c r="CS90" s="25"/>
-      <c r="CT90" s="25"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -38167,22 +38211,24 @@
       <c r="CO91" s="17">
         <v>127.74638672365244</v>
       </c>
-      <c r="CP91" s="33">
+      <c r="CP91" s="17">
         <v>110.40925525770228</v>
       </c>
-      <c r="CQ91" s="33">
+      <c r="CQ91" s="17">
         <v>108.45257208229417</v>
       </c>
-      <c r="CR91" s="33">
+      <c r="CR91" s="17">
         <v>112.19212786213839</v>
       </c>
-      <c r="CS91" s="33">
+      <c r="CS91" s="17">
         <v>133.19710686592191</v>
       </c>
-      <c r="CT91" s="33">
+      <c r="CT91" s="17">
         <v>113.73770184161502</v>
       </c>
-      <c r="CU91" s="10"/>
+      <c r="CU91" s="17">
+        <v>112.81363147899508</v>
+      </c>
       <c r="CV91" s="10"/>
       <c r="CW91" s="10"/>
       <c r="CX91" s="10"/>
@@ -38520,22 +38566,24 @@
       <c r="CO92" s="17">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="33">
+      <c r="CP92" s="17">
         <v>103.33665895224486</v>
       </c>
-      <c r="CQ92" s="33">
+      <c r="CQ92" s="17">
         <v>112.78167306011477</v>
       </c>
-      <c r="CR92" s="33">
+      <c r="CR92" s="17">
         <v>122.78577909425906</v>
       </c>
-      <c r="CS92" s="33">
+      <c r="CS92" s="17">
         <v>130.87142444744984</v>
       </c>
-      <c r="CT92" s="33">
+      <c r="CT92" s="17">
         <v>107.10682625358778</v>
       </c>
-      <c r="CU92" s="10"/>
+      <c r="CU92" s="17">
+        <v>116.57587656595283</v>
+      </c>
       <c r="CV92" s="10"/>
       <c r="CW92" s="10"/>
       <c r="CX92" s="10"/>
@@ -38873,22 +38921,24 @@
       <c r="CO93" s="17">
         <v>135.05782670478919</v>
       </c>
-      <c r="CP93" s="33">
+      <c r="CP93" s="17">
         <v>108.47430571110625</v>
       </c>
-      <c r="CQ93" s="33">
+      <c r="CQ93" s="17">
         <v>113.4134036993245</v>
       </c>
-      <c r="CR93" s="33">
+      <c r="CR93" s="17">
         <v>122.33419099296212</v>
       </c>
-      <c r="CS93" s="33">
+      <c r="CS93" s="17">
         <v>139.35955133110886</v>
       </c>
-      <c r="CT93" s="33">
+      <c r="CT93" s="17">
         <v>111.45958732425846</v>
       </c>
-      <c r="CU93" s="10"/>
+      <c r="CU93" s="17">
+        <v>118.8590676440456</v>
+      </c>
       <c r="CV93" s="10"/>
       <c r="CW93" s="10"/>
       <c r="CX93" s="10"/>
@@ -39039,12 +39089,12 @@
       <c r="CM94" s="12"/>
       <c r="CN94" s="12"/>
       <c r="CO94" s="12"/>
-      <c r="CP94" s="29"/>
-      <c r="CQ94" s="29"/>
-      <c r="CR94" s="29"/>
-      <c r="CS94" s="29"/>
-      <c r="CT94" s="29"/>
-      <c r="CU94" s="10"/>
+      <c r="CP94" s="12"/>
+      <c r="CQ94" s="12"/>
+      <c r="CR94" s="12"/>
+      <c r="CS94" s="12"/>
+      <c r="CT94" s="12"/>
+      <c r="CU94" s="12"/>
       <c r="CV94" s="10"/>
       <c r="CW94" s="10"/>
       <c r="CX94" s="10"/>
@@ -39382,22 +39432,24 @@
       <c r="CO95" s="17">
         <v>127.01100570813477</v>
       </c>
-      <c r="CP95" s="33">
+      <c r="CP95" s="17">
         <v>106.23480313895612</v>
       </c>
-      <c r="CQ95" s="33">
+      <c r="CQ95" s="17">
         <v>111.79476585054621</v>
       </c>
-      <c r="CR95" s="33">
+      <c r="CR95" s="17">
         <v>119.53550557299961</v>
       </c>
-      <c r="CS95" s="33">
+      <c r="CS95" s="17">
         <v>132.37970650028566</v>
       </c>
-      <c r="CT95" s="33">
-        <v>109.72339904176395</v>
-      </c>
-      <c r="CU95" s="10"/>
+      <c r="CT95" s="17">
+        <v>109.72064449467089</v>
+      </c>
+      <c r="CU95" s="17">
+        <v>115.78725727684107</v>
+      </c>
       <c r="CV95" s="10"/>
       <c r="CW95" s="10"/>
       <c r="CX95" s="10"/>
@@ -39549,11 +39601,12 @@
       <c r="CM96" s="15"/>
       <c r="CN96" s="15"/>
       <c r="CO96" s="15"/>
-      <c r="CP96" s="31"/>
-      <c r="CQ96" s="31"/>
-      <c r="CR96" s="31"/>
-      <c r="CS96" s="31"/>
-      <c r="CT96" s="31"/>
+      <c r="CP96" s="15"/>
+      <c r="CQ96" s="15"/>
+      <c r="CR96" s="15"/>
+      <c r="CS96" s="15"/>
+      <c r="CT96" s="15"/>
+      <c r="CU96" s="15"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39651,11 +39704,12 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="25"/>
-      <c r="CQ97" s="25"/>
-      <c r="CR97" s="25"/>
-      <c r="CS97" s="25"/>
-      <c r="CT97" s="25"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39750,11 +39804,12 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="25"/>
-      <c r="CQ98" s="25"/>
-      <c r="CR98" s="25"/>
-      <c r="CS98" s="25"/>
-      <c r="CT98" s="25"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39849,11 +39904,12 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="25"/>
-      <c r="CQ99" s="25"/>
-      <c r="CR99" s="25"/>
-      <c r="CS99" s="25"/>
-      <c r="CT99" s="25"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -39951,11 +40007,12 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="25"/>
-      <c r="CQ100" s="25"/>
-      <c r="CR100" s="25"/>
-      <c r="CS100" s="25"/>
-      <c r="CT100" s="25"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CT100" s="1"/>
+      <c r="CU100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -40053,15 +40110,16 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="25"/>
-      <c r="CQ101" s="25"/>
-      <c r="CR101" s="25"/>
-      <c r="CS101" s="25"/>
-      <c r="CT101" s="25"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
+      <c r="CT101" s="1"/>
+      <c r="CU101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -40155,11 +40213,12 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="25"/>
-      <c r="CQ102" s="25"/>
-      <c r="CR102" s="25"/>
-      <c r="CS102" s="25"/>
-      <c r="CT102" s="25"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
+      <c r="CT102" s="1"/>
+      <c r="CU102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40255,11 +40314,12 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
-      <c r="CP103" s="25"/>
-      <c r="CQ103" s="25"/>
-      <c r="CR103" s="25"/>
-      <c r="CS103" s="25"/>
-      <c r="CT103" s="25"/>
+      <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="1"/>
+      <c r="CS103" s="1"/>
+      <c r="CT103" s="1"/>
+      <c r="CU103" s="1"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40357,15 +40417,16 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
-      <c r="CP104" s="25"/>
-      <c r="CQ104" s="25"/>
-      <c r="CR104" s="25"/>
-      <c r="CS104" s="25"/>
-      <c r="CT104" s="25"/>
+      <c r="CP104" s="1"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="1"/>
+      <c r="CS104" s="1"/>
+      <c r="CT104" s="1"/>
+      <c r="CU104" s="1"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -40459,11 +40520,12 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="25"/>
-      <c r="CQ105" s="25"/>
-      <c r="CR105" s="25"/>
-      <c r="CS105" s="25"/>
-      <c r="CT105" s="25"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
+      <c r="CT105" s="1"/>
+      <c r="CU105" s="1"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40561,11 +40623,12 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
-      <c r="CP106" s="25"/>
-      <c r="CQ106" s="25"/>
-      <c r="CR106" s="25"/>
-      <c r="CS106" s="25"/>
-      <c r="CT106" s="25"/>
+      <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="1"/>
+      <c r="CS106" s="1"/>
+      <c r="CT106" s="1"/>
+      <c r="CU106" s="1"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40661,140 +40724,141 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
-      <c r="CP107" s="25"/>
-      <c r="CQ107" s="25"/>
-      <c r="CR107" s="25"/>
-      <c r="CS107" s="25"/>
-      <c r="CT107" s="25"/>
+      <c r="CP107" s="1"/>
+      <c r="CQ107" s="1"/>
+      <c r="CR107" s="1"/>
+      <c r="CS107" s="1"/>
+      <c r="CT107" s="1"/>
+      <c r="CU107" s="1"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="36">
+      <c r="B108" s="24">
         <v>2000</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="36">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="24">
         <v>2001</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="36">
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="24">
         <v>2002</v>
       </c>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="36">
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="24">
         <v>2003</v>
       </c>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="36">
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="24">
         <v>2004</v>
       </c>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="36">
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="24">
         <v>2005</v>
       </c>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="25"/>
+      <c r="Z108" s="24">
         <v>2006</v>
       </c>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="25"/>
+      <c r="AB108" s="25"/>
+      <c r="AC108" s="25"/>
+      <c r="AD108" s="24">
         <v>2007</v>
       </c>
-      <c r="AE108" s="37"/>
-      <c r="AF108" s="37"/>
-      <c r="AG108" s="37"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="24">
         <v>2008</v>
       </c>
-      <c r="AI108" s="37"/>
-      <c r="AJ108" s="37"/>
-      <c r="AK108" s="37"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="25"/>
+      <c r="AJ108" s="25"/>
+      <c r="AK108" s="25"/>
+      <c r="AL108" s="24">
         <v>2009</v>
       </c>
-      <c r="AM108" s="37"/>
-      <c r="AN108" s="37"/>
-      <c r="AO108" s="37"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="25"/>
+      <c r="AN108" s="25"/>
+      <c r="AO108" s="25"/>
+      <c r="AP108" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="37"/>
-      <c r="AR108" s="37"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="25"/>
+      <c r="AR108" s="25"/>
+      <c r="AS108" s="25"/>
+      <c r="AT108" s="24">
         <v>2011</v>
       </c>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="25"/>
+      <c r="AV108" s="25"/>
+      <c r="AW108" s="25"/>
+      <c r="AX108" s="24">
         <v>2012</v>
       </c>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="25"/>
+      <c r="AZ108" s="25"/>
+      <c r="BA108" s="25"/>
+      <c r="BB108" s="24">
         <v>2013</v>
       </c>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="25"/>
+      <c r="BD108" s="25"/>
+      <c r="BE108" s="25"/>
+      <c r="BF108" s="24">
         <v>2014</v>
       </c>
-      <c r="BG108" s="37"/>
-      <c r="BH108" s="37"/>
-      <c r="BI108" s="37"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="25"/>
+      <c r="BH108" s="25"/>
+      <c r="BI108" s="25"/>
+      <c r="BJ108" s="24">
         <v>2015</v>
       </c>
-      <c r="BK108" s="37"/>
-      <c r="BL108" s="37"/>
-      <c r="BM108" s="37"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="25"/>
+      <c r="BL108" s="25"/>
+      <c r="BM108" s="25"/>
+      <c r="BN108" s="24">
         <v>2016</v>
       </c>
-      <c r="BO108" s="37"/>
-      <c r="BP108" s="37"/>
-      <c r="BQ108" s="37"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="25"/>
+      <c r="BP108" s="25"/>
+      <c r="BQ108" s="25"/>
+      <c r="BR108" s="24">
         <v>2017</v>
       </c>
-      <c r="BS108" s="37"/>
-      <c r="BT108" s="37"/>
-      <c r="BU108" s="37"/>
-      <c r="BV108" s="36">
+      <c r="BS108" s="25"/>
+      <c r="BT108" s="25"/>
+      <c r="BU108" s="25"/>
+      <c r="BV108" s="24">
         <v>2018</v>
       </c>
-      <c r="BW108" s="37"/>
-      <c r="BX108" s="37"/>
-      <c r="BY108" s="37"/>
-      <c r="BZ108" s="36">
+      <c r="BW108" s="25"/>
+      <c r="BX108" s="25"/>
+      <c r="BY108" s="25"/>
+      <c r="BZ108" s="24">
         <v>2019</v>
       </c>
-      <c r="CA108" s="37"/>
-      <c r="CB108" s="37"/>
-      <c r="CC108" s="37"/>
-      <c r="CD108" s="36">
+      <c r="CA108" s="25"/>
+      <c r="CB108" s="25"/>
+      <c r="CC108" s="25"/>
+      <c r="CD108" s="24">
         <v>2020</v>
       </c>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
+      <c r="CE108" s="24"/>
+      <c r="CF108" s="24"/>
+      <c r="CG108" s="24"/>
       <c r="CH108" s="22">
         <v>2021</v>
       </c>
@@ -40807,15 +40871,16 @@
       <c r="CM108" s="22"/>
       <c r="CN108" s="22"/>
       <c r="CO108" s="22"/>
-      <c r="CP108" s="26">
+      <c r="CP108" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="26"/>
-      <c r="CR108" s="26"/>
-      <c r="CS108" s="26"/>
-      <c r="CT108" s="26">
+      <c r="CQ108" s="22"/>
+      <c r="CR108" s="22"/>
+      <c r="CS108" s="22"/>
+      <c r="CT108" s="22">
         <v>2024</v>
       </c>
+      <c r="CU108" s="22"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -41097,20 +41162,23 @@
       <c r="CO109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="27" t="s">
+      <c r="CP109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="27" t="s">
+      <c r="CQ109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="27" t="s">
+      <c r="CR109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="27" t="s">
+      <c r="CS109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT109" s="27" t="s">
+      <c r="CT109" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU109" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41207,11 +41275,12 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
-      <c r="CP110" s="25"/>
-      <c r="CQ110" s="25"/>
-      <c r="CR110" s="25"/>
-      <c r="CS110" s="25"/>
-      <c r="CT110" s="25"/>
+      <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
+      <c r="CR110" s="1"/>
+      <c r="CS110" s="1"/>
+      <c r="CT110" s="1"/>
+      <c r="CU110" s="1"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41493,22 +41562,24 @@
       <c r="CO111" s="17">
         <v>39.637232868433081</v>
       </c>
-      <c r="CP111" s="33">
+      <c r="CP111" s="17">
         <v>38.339284284396349</v>
       </c>
-      <c r="CQ111" s="33">
+      <c r="CQ111" s="17">
         <v>22.691471239448642</v>
       </c>
-      <c r="CR111" s="33">
+      <c r="CR111" s="17">
         <v>28.554108251655556</v>
       </c>
-      <c r="CS111" s="33">
+      <c r="CS111" s="17">
         <v>38.755123969308094</v>
       </c>
-      <c r="CT111" s="33">
-        <v>37.144275076575234</v>
-      </c>
-      <c r="CU111" s="10"/>
+      <c r="CT111" s="17">
+        <v>37.10610367832976</v>
+      </c>
+      <c r="CU111" s="17">
+        <v>22.740948340999044</v>
+      </c>
       <c r="CV111" s="10"/>
       <c r="CW111" s="10"/>
       <c r="CX111" s="10"/>
@@ -41846,22 +41917,24 @@
       <c r="CO112" s="17">
         <v>52.370206233776692</v>
       </c>
-      <c r="CP112" s="33">
+      <c r="CP112" s="17">
         <v>55.915334107474791</v>
       </c>
-      <c r="CQ112" s="33">
+      <c r="CQ112" s="17">
         <v>73.181073985894045</v>
       </c>
-      <c r="CR112" s="33">
+      <c r="CR112" s="17">
         <v>65.245688061314979</v>
       </c>
-      <c r="CS112" s="33">
+      <c r="CS112" s="17">
         <v>53.64854310466751</v>
       </c>
-      <c r="CT112" s="33">
-        <v>57.242791779821168</v>
-      </c>
-      <c r="CU112" s="10"/>
+      <c r="CT112" s="17">
+        <v>57.28673132149946</v>
+      </c>
+      <c r="CU112" s="17">
+        <v>73.234983448678364</v>
+      </c>
       <c r="CV112" s="10"/>
       <c r="CW112" s="10"/>
       <c r="CX112" s="10"/>
@@ -42199,22 +42272,24 @@
       <c r="CO113" s="17">
         <v>7.9925608977902183</v>
       </c>
-      <c r="CP113" s="33">
+      <c r="CP113" s="17">
         <v>5.7453816081288576</v>
       </c>
-      <c r="CQ113" s="33">
+      <c r="CQ113" s="17">
         <v>4.1274547746572914</v>
       </c>
-      <c r="CR113" s="33">
+      <c r="CR113" s="17">
         <v>6.2002036870294663</v>
       </c>
-      <c r="CS113" s="33">
+      <c r="CS113" s="17">
         <v>7.5963329260243979</v>
       </c>
-      <c r="CT113" s="33">
-        <v>5.6129331436035921</v>
-      </c>
-      <c r="CU113" s="10"/>
+      <c r="CT113" s="17">
+        <v>5.6071650001707738</v>
+      </c>
+      <c r="CU113" s="17">
+        <v>4.0240682103225831</v>
+      </c>
       <c r="CV113" s="10"/>
       <c r="CW113" s="10"/>
       <c r="CX113" s="10"/>
@@ -42365,12 +42440,12 @@
       <c r="CM114" s="12"/>
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
-      <c r="CP114" s="29"/>
-      <c r="CQ114" s="29"/>
-      <c r="CR114" s="29"/>
-      <c r="CS114" s="29"/>
-      <c r="CT114" s="29"/>
-      <c r="CU114" s="10"/>
+      <c r="CP114" s="12"/>
+      <c r="CQ114" s="12"/>
+      <c r="CR114" s="12"/>
+      <c r="CS114" s="12"/>
+      <c r="CT114" s="12"/>
+      <c r="CU114" s="12"/>
       <c r="CV114" s="10"/>
       <c r="CW114" s="10"/>
       <c r="CX114" s="10"/>
@@ -42708,22 +42783,24 @@
       <c r="CO115" s="17">
         <v>100</v>
       </c>
-      <c r="CP115" s="33">
+      <c r="CP115" s="17">
         <v>100</v>
       </c>
-      <c r="CQ115" s="33">
+      <c r="CQ115" s="17">
         <v>100</v>
       </c>
-      <c r="CR115" s="33">
+      <c r="CR115" s="17">
         <v>100</v>
       </c>
-      <c r="CS115" s="33">
+      <c r="CS115" s="17">
         <v>100</v>
       </c>
-      <c r="CT115" s="33">
+      <c r="CT115" s="17">
         <v>100</v>
       </c>
-      <c r="CU115" s="10"/>
+      <c r="CU115" s="17">
+        <v>100</v>
+      </c>
       <c r="CV115" s="10"/>
       <c r="CW115" s="10"/>
       <c r="CX115" s="10"/>
@@ -42875,11 +42952,12 @@
       <c r="CM116" s="15"/>
       <c r="CN116" s="15"/>
       <c r="CO116" s="15"/>
-      <c r="CP116" s="31"/>
-      <c r="CQ116" s="31"/>
-      <c r="CR116" s="31"/>
-      <c r="CS116" s="31"/>
-      <c r="CT116" s="31"/>
+      <c r="CP116" s="15"/>
+      <c r="CQ116" s="15"/>
+      <c r="CR116" s="15"/>
+      <c r="CS116" s="15"/>
+      <c r="CT116" s="15"/>
+      <c r="CU116" s="15"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -42977,11 +43055,12 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="25"/>
-      <c r="CQ117" s="25"/>
-      <c r="CR117" s="25"/>
-      <c r="CS117" s="25"/>
-      <c r="CT117" s="25"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="1"/>
+      <c r="CS117" s="1"/>
+      <c r="CT117" s="1"/>
+      <c r="CU117" s="1"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -43076,12 +43155,12 @@
       <c r="CM118" s="12"/>
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
-      <c r="CP118" s="29"/>
-      <c r="CQ118" s="29"/>
-      <c r="CR118" s="29"/>
-      <c r="CS118" s="29"/>
-      <c r="CT118" s="29"/>
-      <c r="CU118" s="10"/>
+      <c r="CP118" s="12"/>
+      <c r="CQ118" s="12"/>
+      <c r="CR118" s="12"/>
+      <c r="CS118" s="12"/>
+      <c r="CT118" s="12"/>
+      <c r="CU118" s="12"/>
       <c r="CV118" s="10"/>
       <c r="CW118" s="10"/>
       <c r="CX118" s="10"/>
@@ -43232,12 +43311,12 @@
       <c r="CM119" s="12"/>
       <c r="CN119" s="12"/>
       <c r="CO119" s="12"/>
-      <c r="CP119" s="29"/>
-      <c r="CQ119" s="29"/>
-      <c r="CR119" s="29"/>
-      <c r="CS119" s="29"/>
-      <c r="CT119" s="29"/>
-      <c r="CU119" s="10"/>
+      <c r="CP119" s="12"/>
+      <c r="CQ119" s="12"/>
+      <c r="CR119" s="12"/>
+      <c r="CS119" s="12"/>
+      <c r="CT119" s="12"/>
+      <c r="CU119" s="12"/>
       <c r="CV119" s="10"/>
       <c r="CW119" s="10"/>
       <c r="CX119" s="10"/>
@@ -43391,11 +43470,12 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="25"/>
-      <c r="CQ120" s="25"/>
-      <c r="CR120" s="25"/>
-      <c r="CS120" s="25"/>
-      <c r="CT120" s="25"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
+      <c r="CT120" s="1"/>
+      <c r="CU120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43493,15 +43573,16 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="25"/>
-      <c r="CQ121" s="25"/>
-      <c r="CR121" s="25"/>
-      <c r="CS121" s="25"/>
-      <c r="CT121" s="25"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="1"/>
+      <c r="CS121" s="1"/>
+      <c r="CT121" s="1"/>
+      <c r="CU121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -43595,11 +43676,12 @@
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
-      <c r="CP122" s="25"/>
-      <c r="CQ122" s="25"/>
-      <c r="CR122" s="25"/>
-      <c r="CS122" s="25"/>
-      <c r="CT122" s="25"/>
+      <c r="CP122" s="1"/>
+      <c r="CQ122" s="1"/>
+      <c r="CR122" s="1"/>
+      <c r="CS122" s="1"/>
+      <c r="CT122" s="1"/>
+      <c r="CU122" s="1"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43695,11 +43777,12 @@
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
-      <c r="CP123" s="25"/>
-      <c r="CQ123" s="25"/>
-      <c r="CR123" s="25"/>
-      <c r="CS123" s="25"/>
-      <c r="CT123" s="25"/>
+      <c r="CP123" s="1"/>
+      <c r="CQ123" s="1"/>
+      <c r="CR123" s="1"/>
+      <c r="CS123" s="1"/>
+      <c r="CT123" s="1"/>
+      <c r="CU123" s="1"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43797,15 +43880,16 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="25"/>
-      <c r="CQ124" s="25"/>
-      <c r="CR124" s="25"/>
-      <c r="CS124" s="25"/>
-      <c r="CT124" s="25"/>
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="1"/>
+      <c r="CS124" s="1"/>
+      <c r="CT124" s="1"/>
+      <c r="CU124" s="1"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -43899,11 +43983,12 @@
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
-      <c r="CP125" s="25"/>
-      <c r="CQ125" s="25"/>
-      <c r="CR125" s="25"/>
-      <c r="CS125" s="25"/>
-      <c r="CT125" s="25"/>
+      <c r="CP125" s="1"/>
+      <c r="CQ125" s="1"/>
+      <c r="CR125" s="1"/>
+      <c r="CS125" s="1"/>
+      <c r="CT125" s="1"/>
+      <c r="CU125" s="1"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -44001,11 +44086,12 @@
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
-      <c r="CP126" s="25"/>
-      <c r="CQ126" s="25"/>
-      <c r="CR126" s="25"/>
-      <c r="CS126" s="25"/>
-      <c r="CT126" s="25"/>
+      <c r="CP126" s="1"/>
+      <c r="CQ126" s="1"/>
+      <c r="CR126" s="1"/>
+      <c r="CS126" s="1"/>
+      <c r="CT126" s="1"/>
+      <c r="CU126" s="1"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -44101,140 +44187,141 @@
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
-      <c r="CP127" s="25"/>
-      <c r="CQ127" s="25"/>
-      <c r="CR127" s="25"/>
-      <c r="CS127" s="25"/>
-      <c r="CT127" s="25"/>
+      <c r="CP127" s="1"/>
+      <c r="CQ127" s="1"/>
+      <c r="CR127" s="1"/>
+      <c r="CS127" s="1"/>
+      <c r="CT127" s="1"/>
+      <c r="CU127" s="1"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="36">
+      <c r="B128" s="24">
         <v>2000</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="36">
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="24">
         <v>2001</v>
       </c>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="36">
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="24">
         <v>2002</v>
       </c>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="36">
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="24">
         <v>2003</v>
       </c>
-      <c r="O128" s="37"/>
-      <c r="P128" s="37"/>
-      <c r="Q128" s="37"/>
-      <c r="R128" s="36">
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="24">
         <v>2004</v>
       </c>
-      <c r="S128" s="37"/>
-      <c r="T128" s="37"/>
-      <c r="U128" s="37"/>
-      <c r="V128" s="36">
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="24">
         <v>2005</v>
       </c>
-      <c r="W128" s="37"/>
-      <c r="X128" s="37"/>
-      <c r="Y128" s="37"/>
-      <c r="Z128" s="36">
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="24">
         <v>2006</v>
       </c>
-      <c r="AA128" s="37"/>
-      <c r="AB128" s="37"/>
-      <c r="AC128" s="37"/>
-      <c r="AD128" s="36">
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="25"/>
+      <c r="AC128" s="25"/>
+      <c r="AD128" s="24">
         <v>2007</v>
       </c>
-      <c r="AE128" s="37"/>
-      <c r="AF128" s="37"/>
-      <c r="AG128" s="37"/>
-      <c r="AH128" s="36">
+      <c r="AE128" s="25"/>
+      <c r="AF128" s="25"/>
+      <c r="AG128" s="25"/>
+      <c r="AH128" s="24">
         <v>2008</v>
       </c>
-      <c r="AI128" s="37"/>
-      <c r="AJ128" s="37"/>
-      <c r="AK128" s="37"/>
-      <c r="AL128" s="36">
+      <c r="AI128" s="25"/>
+      <c r="AJ128" s="25"/>
+      <c r="AK128" s="25"/>
+      <c r="AL128" s="24">
         <v>2009</v>
       </c>
-      <c r="AM128" s="37"/>
-      <c r="AN128" s="37"/>
-      <c r="AO128" s="37"/>
-      <c r="AP128" s="36">
+      <c r="AM128" s="25"/>
+      <c r="AN128" s="25"/>
+      <c r="AO128" s="25"/>
+      <c r="AP128" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="37"/>
-      <c r="AR128" s="37"/>
-      <c r="AS128" s="37"/>
-      <c r="AT128" s="36">
+      <c r="AQ128" s="25"/>
+      <c r="AR128" s="25"/>
+      <c r="AS128" s="25"/>
+      <c r="AT128" s="24">
         <v>2011</v>
       </c>
-      <c r="AU128" s="37"/>
-      <c r="AV128" s="37"/>
-      <c r="AW128" s="37"/>
-      <c r="AX128" s="36">
+      <c r="AU128" s="25"/>
+      <c r="AV128" s="25"/>
+      <c r="AW128" s="25"/>
+      <c r="AX128" s="24">
         <v>2012</v>
       </c>
-      <c r="AY128" s="37"/>
-      <c r="AZ128" s="37"/>
-      <c r="BA128" s="37"/>
-      <c r="BB128" s="36">
+      <c r="AY128" s="25"/>
+      <c r="AZ128" s="25"/>
+      <c r="BA128" s="25"/>
+      <c r="BB128" s="24">
         <v>2013</v>
       </c>
-      <c r="BC128" s="37"/>
-      <c r="BD128" s="37"/>
-      <c r="BE128" s="37"/>
-      <c r="BF128" s="36">
+      <c r="BC128" s="25"/>
+      <c r="BD128" s="25"/>
+      <c r="BE128" s="25"/>
+      <c r="BF128" s="24">
         <v>2014</v>
       </c>
-      <c r="BG128" s="37"/>
-      <c r="BH128" s="37"/>
-      <c r="BI128" s="37"/>
-      <c r="BJ128" s="36">
+      <c r="BG128" s="25"/>
+      <c r="BH128" s="25"/>
+      <c r="BI128" s="25"/>
+      <c r="BJ128" s="24">
         <v>2015</v>
       </c>
-      <c r="BK128" s="37"/>
-      <c r="BL128" s="37"/>
-      <c r="BM128" s="37"/>
-      <c r="BN128" s="36">
+      <c r="BK128" s="25"/>
+      <c r="BL128" s="25"/>
+      <c r="BM128" s="25"/>
+      <c r="BN128" s="24">
         <v>2016</v>
       </c>
-      <c r="BO128" s="37"/>
-      <c r="BP128" s="37"/>
-      <c r="BQ128" s="37"/>
-      <c r="BR128" s="36">
+      <c r="BO128" s="25"/>
+      <c r="BP128" s="25"/>
+      <c r="BQ128" s="25"/>
+      <c r="BR128" s="24">
         <v>2017</v>
       </c>
-      <c r="BS128" s="37"/>
-      <c r="BT128" s="37"/>
-      <c r="BU128" s="37"/>
-      <c r="BV128" s="36">
+      <c r="BS128" s="25"/>
+      <c r="BT128" s="25"/>
+      <c r="BU128" s="25"/>
+      <c r="BV128" s="24">
         <v>2018</v>
       </c>
-      <c r="BW128" s="37"/>
-      <c r="BX128" s="37"/>
-      <c r="BY128" s="37"/>
-      <c r="BZ128" s="36">
+      <c r="BW128" s="25"/>
+      <c r="BX128" s="25"/>
+      <c r="BY128" s="25"/>
+      <c r="BZ128" s="24">
         <v>2019</v>
       </c>
-      <c r="CA128" s="37"/>
-      <c r="CB128" s="37"/>
-      <c r="CC128" s="37"/>
-      <c r="CD128" s="36">
+      <c r="CA128" s="25"/>
+      <c r="CB128" s="25"/>
+      <c r="CC128" s="25"/>
+      <c r="CD128" s="24">
         <v>2020</v>
       </c>
-      <c r="CE128" s="36"/>
-      <c r="CF128" s="36"/>
-      <c r="CG128" s="36"/>
+      <c r="CE128" s="24"/>
+      <c r="CF128" s="24"/>
+      <c r="CG128" s="24"/>
       <c r="CH128" s="22">
         <v>2021</v>
       </c>
@@ -44247,15 +44334,16 @@
       <c r="CM128" s="22"/>
       <c r="CN128" s="22"/>
       <c r="CO128" s="22"/>
-      <c r="CP128" s="26">
+      <c r="CP128" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="26"/>
-      <c r="CR128" s="26"/>
-      <c r="CS128" s="26"/>
-      <c r="CT128" s="26">
+      <c r="CQ128" s="22"/>
+      <c r="CR128" s="22"/>
+      <c r="CS128" s="22"/>
+      <c r="CT128" s="22">
         <v>2024</v>
       </c>
+      <c r="CU128" s="22"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44537,20 +44625,23 @@
       <c r="CO129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="27" t="s">
+      <c r="CP129" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="27" t="s">
+      <c r="CQ129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="27" t="s">
+      <c r="CR129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="27" t="s">
+      <c r="CS129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT129" s="27" t="s">
+      <c r="CT129" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU129" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44647,11 +44738,12 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="25"/>
-      <c r="CQ130" s="25"/>
-      <c r="CR130" s="25"/>
-      <c r="CS130" s="25"/>
-      <c r="CT130" s="25"/>
+      <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="1"/>
+      <c r="CS130" s="1"/>
+      <c r="CT130" s="1"/>
+      <c r="CU130" s="1"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -44933,22 +45025,24 @@
       <c r="CO131" s="17">
         <v>39.409058363410452</v>
       </c>
-      <c r="CP131" s="33">
+      <c r="CP131" s="17">
         <v>36.889718248119287</v>
       </c>
-      <c r="CQ131" s="33">
+      <c r="CQ131" s="17">
         <v>23.390756579693118</v>
       </c>
-      <c r="CR131" s="33">
+      <c r="CR131" s="17">
         <v>30.423077189889657</v>
       </c>
-      <c r="CS131" s="33">
+      <c r="CS131" s="17">
         <v>38.517292583565776</v>
       </c>
-      <c r="CT131" s="33">
-        <v>35.833290547927248</v>
-      </c>
-      <c r="CU131" s="10"/>
+      <c r="CT131" s="17">
+        <v>35.795567734803534</v>
+      </c>
+      <c r="CU131" s="17">
+        <v>23.340371210095039</v>
+      </c>
       <c r="CV131" s="10"/>
       <c r="CW131" s="10"/>
       <c r="CX131" s="10"/>
@@ -45286,22 +45380,24 @@
       <c r="CO132" s="17">
         <v>53.074581995835381</v>
       </c>
-      <c r="CP132" s="33">
+      <c r="CP132" s="17">
         <v>57.483516223431188</v>
       </c>
-      <c r="CQ132" s="33">
+      <c r="CQ132" s="17">
         <v>72.54069574392426</v>
       </c>
-      <c r="CR132" s="33">
+      <c r="CR132" s="17">
         <v>63.518563520945783</v>
       </c>
-      <c r="CS132" s="33">
+      <c r="CS132" s="17">
         <v>54.266838007983495</v>
       </c>
-      <c r="CT132" s="33">
-        <v>58.641208076236239</v>
-      </c>
-      <c r="CU132" s="10"/>
+      <c r="CT132" s="17">
+        <v>58.684747755537416</v>
+      </c>
+      <c r="CU132" s="17">
+        <v>72.739559161195231</v>
+      </c>
       <c r="CV132" s="10"/>
       <c r="CW132" s="10"/>
       <c r="CX132" s="10"/>
@@ -45639,22 +45735,24 @@
       <c r="CO133" s="17">
         <v>7.5163596407541693</v>
       </c>
-      <c r="CP133" s="33">
+      <c r="CP133" s="17">
         <v>5.6267655284495266</v>
       </c>
-      <c r="CQ133" s="33">
+      <c r="CQ133" s="17">
         <v>4.0685476763826198</v>
       </c>
-      <c r="CR133" s="33">
+      <c r="CR133" s="17">
         <v>6.0583592891645592</v>
       </c>
-      <c r="CS133" s="33">
+      <c r="CS133" s="17">
         <v>7.2158694084507191</v>
       </c>
-      <c r="CT133" s="33">
-        <v>5.5255013758365061</v>
-      </c>
-      <c r="CU133" s="10"/>
+      <c r="CT133" s="17">
+        <v>5.5196845096590419</v>
+      </c>
+      <c r="CU133" s="17">
+        <v>3.9200696287097285</v>
+      </c>
       <c r="CV133" s="10"/>
       <c r="CW133" s="10"/>
       <c r="CX133" s="10"/>
@@ -45805,12 +45903,12 @@
       <c r="CM134" s="12"/>
       <c r="CN134" s="12"/>
       <c r="CO134" s="12"/>
-      <c r="CP134" s="29"/>
-      <c r="CQ134" s="29"/>
-      <c r="CR134" s="29"/>
-      <c r="CS134" s="29"/>
-      <c r="CT134" s="29"/>
-      <c r="CU134" s="10"/>
+      <c r="CP134" s="12"/>
+      <c r="CQ134" s="12"/>
+      <c r="CR134" s="12"/>
+      <c r="CS134" s="12"/>
+      <c r="CT134" s="12"/>
+      <c r="CU134" s="12"/>
       <c r="CV134" s="10"/>
       <c r="CW134" s="10"/>
       <c r="CX134" s="10"/>
@@ -46148,22 +46246,24 @@
       <c r="CO135" s="17">
         <v>100</v>
       </c>
-      <c r="CP135" s="33">
+      <c r="CP135" s="17">
         <v>100</v>
       </c>
-      <c r="CQ135" s="33">
+      <c r="CQ135" s="17">
         <v>100</v>
       </c>
-      <c r="CR135" s="33">
+      <c r="CR135" s="17">
         <v>100</v>
       </c>
-      <c r="CS135" s="33">
+      <c r="CS135" s="17">
         <v>100</v>
       </c>
-      <c r="CT135" s="33">
+      <c r="CT135" s="17">
         <v>100</v>
       </c>
-      <c r="CU135" s="10"/>
+      <c r="CU135" s="17">
+        <v>100</v>
+      </c>
       <c r="CV135" s="10"/>
       <c r="CW135" s="10"/>
       <c r="CX135" s="10"/>
@@ -46315,11 +46415,12 @@
       <c r="CM136" s="15"/>
       <c r="CN136" s="15"/>
       <c r="CO136" s="15"/>
-      <c r="CP136" s="31"/>
-      <c r="CQ136" s="31"/>
-      <c r="CR136" s="31"/>
-      <c r="CS136" s="31"/>
-      <c r="CT136" s="31"/>
+      <c r="CP136" s="15"/>
+      <c r="CQ136" s="15"/>
+      <c r="CR136" s="15"/>
+      <c r="CS136" s="15"/>
+      <c r="CT136" s="15"/>
+      <c r="CU136" s="15"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46417,11 +46518,12 @@
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
-      <c r="CP137" s="25"/>
-      <c r="CQ137" s="25"/>
-      <c r="CR137" s="25"/>
-      <c r="CS137" s="25"/>
-      <c r="CT137" s="25"/>
+      <c r="CP137" s="1"/>
+      <c r="CQ137" s="1"/>
+      <c r="CR137" s="1"/>
+      <c r="CS137" s="1"/>
+      <c r="CT137" s="1"/>
+      <c r="CU137" s="1"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -46517,12 +46619,12 @@
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
-      <c r="CP138" s="35"/>
-      <c r="CQ138" s="35"/>
-      <c r="CR138" s="35"/>
-      <c r="CS138" s="35"/>
-      <c r="CT138" s="35"/>
-      <c r="CU138" s="19"/>
+      <c r="CP138" s="11"/>
+      <c r="CQ138" s="11"/>
+      <c r="CR138" s="11"/>
+      <c r="CS138" s="11"/>
+      <c r="CT138" s="11"/>
+      <c r="CU138" s="11"/>
       <c r="CV138" s="19"/>
       <c r="CW138" s="19"/>
       <c r="CX138" s="19"/>
@@ -46674,12 +46776,12 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="35"/>
-      <c r="CQ139" s="35"/>
-      <c r="CR139" s="35"/>
-      <c r="CS139" s="35"/>
-      <c r="CT139" s="35"/>
-      <c r="CU139" s="19"/>
+      <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
+      <c r="CR139" s="11"/>
+      <c r="CS139" s="11"/>
+      <c r="CT139" s="11"/>
+      <c r="CU139" s="11"/>
       <c r="CV139" s="19"/>
       <c r="CW139" s="19"/>
       <c r="CX139" s="19"/>
@@ -46739,6 +46841,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
@@ -46763,129 +46988,6 @@
     <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF88:BI88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A6DD4-3ACA-4B76-829C-3E2917EA4AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63248BC-548C-4690-9265-E05D20085459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CT$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CV$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -765,9 +765,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23624,51 +23642,100 @@
   </sheetPr>
   <dimension ref="A1:EY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="96" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="9.5546875" style="11" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="100" width="10.109375" style="35" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="24"/>
+      <c r="CU2" s="24"/>
+      <c r="CV2" s="24"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
+      <c r="CT4" s="24"/>
+      <c r="CU4" s="24"/>
+      <c r="CV4" s="24"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CP5" s="24"/>
+      <c r="CQ5" s="24"/>
+      <c r="CR5" s="24"/>
+      <c r="CS5" s="24"/>
+      <c r="CT5" s="24"/>
+      <c r="CU5" s="24"/>
+      <c r="CV5" s="24"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="CP6" s="24"/>
+      <c r="CQ6" s="24"/>
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="24"/>
+      <c r="CT6" s="24"/>
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="24"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+      <c r="CR7" s="24"/>
+      <c r="CS7" s="24"/>
+      <c r="CT7" s="24"/>
+      <c r="CU7" s="24"/>
+      <c r="CV7" s="24"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23764,141 +23831,142 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
+      <c r="CP8" s="25"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
+      <c r="CU8" s="25"/>
+      <c r="CV8" s="25"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="24">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>2001</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>2002</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>2003</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
         <v>2004</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>2005</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36">
         <v>2006</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36">
         <v>2007</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36">
         <v>2008</v>
       </c>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
         <v>2009</v>
       </c>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24">
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36">
         <v>2011</v>
       </c>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24">
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36">
         <v>2012</v>
       </c>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24">
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36">
         <v>2013</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24">
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36">
         <v>2014</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24">
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36">
         <v>2015</v>
       </c>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24">
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36">
         <v>2016</v>
       </c>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24">
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36">
         <v>2017</v>
       </c>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24">
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -23911,16 +23979,17 @@
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
       <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22">
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
         <v>2024</v>
       </c>
-      <c r="CU9" s="22"/>
+      <c r="CU9" s="26"/>
+      <c r="CV9" s="26"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24202,23 +24271,26 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="7" t="s">
+      <c r="CU10" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24315,12 +24387,13 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
+      <c r="CP11" s="25"/>
+      <c r="CQ11" s="25"/>
+      <c r="CR11" s="25"/>
+      <c r="CS11" s="25"/>
+      <c r="CT11" s="25"/>
+      <c r="CU11" s="25"/>
+      <c r="CV11" s="25"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24602,25 +24675,27 @@
       <c r="CO12" s="9">
         <v>49056.059797367976</v>
       </c>
-      <c r="CP12" s="9">
+      <c r="CP12" s="28">
         <v>40262.181528339635</v>
       </c>
-      <c r="CQ12" s="9">
+      <c r="CQ12" s="28">
         <v>23236.821742308421</v>
       </c>
-      <c r="CR12" s="9">
+      <c r="CR12" s="28">
         <v>33111.527753929491</v>
       </c>
-      <c r="CS12" s="9">
+      <c r="CS12" s="28">
         <v>53197.245467958688</v>
       </c>
-      <c r="CT12" s="9">
+      <c r="CT12" s="28">
         <v>43694.883738080607</v>
       </c>
-      <c r="CU12" s="9">
-        <v>26358.514544035086</v>
-      </c>
-      <c r="CV12" s="10"/>
+      <c r="CU12" s="28">
+        <v>26705.56074213743</v>
+      </c>
+      <c r="CV12" s="28">
+        <v>39806.321890114057</v>
+      </c>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
@@ -24957,25 +25032,27 @@
       <c r="CO13" s="9">
         <v>64814.715425068018</v>
       </c>
-      <c r="CP13" s="9">
+      <c r="CP13" s="28">
         <v>58719.753747963237</v>
       </c>
-      <c r="CQ13" s="9">
+      <c r="CQ13" s="28">
         <v>74939.855295263042</v>
       </c>
-      <c r="CR13" s="9">
+      <c r="CR13" s="28">
         <v>75659.319913841071</v>
       </c>
-      <c r="CS13" s="9">
+      <c r="CS13" s="28">
         <v>73640.706679135736</v>
       </c>
-      <c r="CT13" s="9">
+      <c r="CT13" s="28">
         <v>67458.903433437838</v>
       </c>
-      <c r="CU13" s="9">
-        <v>84884.998963915408</v>
-      </c>
-      <c r="CV13" s="10"/>
+      <c r="CU13" s="28">
+        <v>84777.211117740953</v>
+      </c>
+      <c r="CV13" s="28">
+        <v>86203.874255138842</v>
+      </c>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
@@ -25312,25 +25389,27 @@
       <c r="CO14" s="9">
         <v>9891.7991232520089</v>
       </c>
-      <c r="CP14" s="9">
+      <c r="CP14" s="28">
         <v>6033.5397901575643</v>
       </c>
-      <c r="CQ14" s="9">
+      <c r="CQ14" s="28">
         <v>4226.6510547546868</v>
       </c>
-      <c r="CR14" s="9">
+      <c r="CR14" s="28">
         <v>7189.7961110793576</v>
       </c>
-      <c r="CS14" s="9">
+      <c r="CS14" s="28">
         <v>10427.111203207209</v>
       </c>
-      <c r="CT14" s="9">
+      <c r="CT14" s="28">
         <v>6602.8065060838253</v>
       </c>
-      <c r="CU14" s="9">
-        <v>4664.2056812005976</v>
-      </c>
-      <c r="CV14" s="10"/>
+      <c r="CU14" s="28">
+        <v>4675.568565839756</v>
+      </c>
+      <c r="CV14" s="28">
+        <v>8247.1674380467539</v>
+      </c>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
@@ -25480,13 +25559,13 @@
       <c r="CM15" s="12"/>
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
-      <c r="CP15" s="12"/>
-      <c r="CQ15" s="12"/>
-      <c r="CR15" s="12"/>
-      <c r="CS15" s="12"/>
-      <c r="CT15" s="12"/>
-      <c r="CU15" s="12"/>
-      <c r="CV15" s="10"/>
+      <c r="CP15" s="29"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="29"/>
+      <c r="CT15" s="29"/>
+      <c r="CU15" s="29"/>
+      <c r="CV15" s="29"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
@@ -25823,25 +25902,27 @@
       <c r="CO16" s="21">
         <v>123762.57434568802</v>
       </c>
-      <c r="CP16" s="21">
+      <c r="CP16" s="30">
         <v>105015.47506646044</v>
       </c>
-      <c r="CQ16" s="21">
+      <c r="CQ16" s="30">
         <v>102403.32809232616</v>
       </c>
-      <c r="CR16" s="21">
+      <c r="CR16" s="30">
         <v>115960.64377884992</v>
       </c>
-      <c r="CS16" s="21">
+      <c r="CS16" s="30">
         <v>137265.06335030161</v>
       </c>
-      <c r="CT16" s="21">
+      <c r="CT16" s="30">
         <v>117756.59367760227</v>
       </c>
-      <c r="CU16" s="21">
-        <v>115907.7191891511</v>
-      </c>
-      <c r="CV16" s="10"/>
+      <c r="CU16" s="30">
+        <v>116158.34042571814</v>
+      </c>
+      <c r="CV16" s="30">
+        <v>134257.36358329965</v>
+      </c>
       <c r="CW16" s="10"/>
       <c r="CX16" s="10"/>
       <c r="CY16" s="10"/>
@@ -25992,12 +26073,13 @@
       <c r="CM17" s="15"/>
       <c r="CN17" s="15"/>
       <c r="CO17" s="15"/>
-      <c r="CP17" s="15"/>
-      <c r="CQ17" s="15"/>
-      <c r="CR17" s="15"/>
-      <c r="CS17" s="15"/>
-      <c r="CT17" s="15"/>
-      <c r="CU17" s="15"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="31"/>
+      <c r="CS17" s="31"/>
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="31"/>
+      <c r="CV17" s="31"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26095,12 +26177,13 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
-      <c r="CU18" s="1"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
+      <c r="CU18" s="25"/>
+      <c r="CV18" s="25"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26195,13 +26278,13 @@
       <c r="CM19" s="12"/>
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="12"/>
-      <c r="CT19" s="12"/>
-      <c r="CU19" s="12"/>
-      <c r="CV19" s="10"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="29"/>
+      <c r="CT19" s="29"/>
+      <c r="CU19" s="29"/>
+      <c r="CV19" s="29"/>
       <c r="CW19" s="10"/>
       <c r="CX19" s="10"/>
       <c r="CY19" s="10"/>
@@ -26351,13 +26434,13 @@
       <c r="CM20" s="12"/>
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
-      <c r="CP20" s="12"/>
-      <c r="CQ20" s="12"/>
-      <c r="CR20" s="12"/>
-      <c r="CS20" s="12"/>
-      <c r="CT20" s="12"/>
-      <c r="CU20" s="12"/>
-      <c r="CV20" s="10"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
+      <c r="CU20" s="29"/>
+      <c r="CV20" s="29"/>
       <c r="CW20" s="10"/>
       <c r="CX20" s="10"/>
       <c r="CY20" s="10"/>
@@ -26510,12 +26593,13 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
-      <c r="CU21" s="1"/>
+      <c r="CP21" s="25"/>
+      <c r="CQ21" s="25"/>
+      <c r="CR21" s="25"/>
+      <c r="CS21" s="25"/>
+      <c r="CT21" s="25"/>
+      <c r="CU21" s="25"/>
+      <c r="CV21" s="25"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26613,12 +26697,13 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
+      <c r="CP22" s="25"/>
+      <c r="CQ22" s="25"/>
+      <c r="CR22" s="25"/>
+      <c r="CS22" s="25"/>
+      <c r="CT22" s="25"/>
+      <c r="CU22" s="25"/>
+      <c r="CV22" s="25"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26716,12 +26801,13 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
-      <c r="CU23" s="1"/>
+      <c r="CP23" s="25"/>
+      <c r="CQ23" s="25"/>
+      <c r="CR23" s="25"/>
+      <c r="CS23" s="25"/>
+      <c r="CT23" s="25"/>
+      <c r="CU23" s="25"/>
+      <c r="CV23" s="25"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26817,12 +26903,13 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
+      <c r="CP24" s="25"/>
+      <c r="CQ24" s="25"/>
+      <c r="CR24" s="25"/>
+      <c r="CS24" s="25"/>
+      <c r="CT24" s="25"/>
+      <c r="CU24" s="25"/>
+      <c r="CV24" s="25"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26920,12 +27007,13 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
+      <c r="CP25" s="25"/>
+      <c r="CQ25" s="25"/>
+      <c r="CR25" s="25"/>
+      <c r="CS25" s="25"/>
+      <c r="CT25" s="25"/>
+      <c r="CU25" s="25"/>
+      <c r="CV25" s="25"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -27023,12 +27111,13 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
-      <c r="CT26" s="1"/>
-      <c r="CU26" s="1"/>
+      <c r="CP26" s="25"/>
+      <c r="CQ26" s="25"/>
+      <c r="CR26" s="25"/>
+      <c r="CS26" s="25"/>
+      <c r="CT26" s="25"/>
+      <c r="CU26" s="25"/>
+      <c r="CV26" s="25"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27126,12 +27215,13 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
-      <c r="CT27" s="1"/>
-      <c r="CU27" s="1"/>
+      <c r="CP27" s="25"/>
+      <c r="CQ27" s="25"/>
+      <c r="CR27" s="25"/>
+      <c r="CS27" s="25"/>
+      <c r="CT27" s="25"/>
+      <c r="CU27" s="25"/>
+      <c r="CV27" s="25"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27227,141 +27317,142 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
-      <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
-      <c r="CR28" s="1"/>
-      <c r="CS28" s="1"/>
-      <c r="CT28" s="1"/>
-      <c r="CU28" s="1"/>
+      <c r="CP28" s="25"/>
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25"/>
+      <c r="CU28" s="25"/>
+      <c r="CV28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="24">
+      <c r="B29" s="36">
         <v>2000</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36">
         <v>2001</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="24">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36">
         <v>2002</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="24">
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="36">
         <v>2003</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="24">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="36">
         <v>2004</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="24">
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="36">
         <v>2005</v>
       </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="24">
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="36">
         <v>2006</v>
       </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="24">
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="36">
         <v>2007</v>
       </c>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="24">
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="36">
         <v>2008</v>
       </c>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="24">
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="36">
         <v>2009</v>
       </c>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="24">
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="24">
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="36">
         <v>2011</v>
       </c>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="24">
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="36">
         <v>2012</v>
       </c>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="24">
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="36">
         <v>2013</v>
       </c>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="24">
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="36">
         <v>2014</v>
       </c>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="24">
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="36">
         <v>2015</v>
       </c>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="24">
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="36">
         <v>2016</v>
       </c>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="24">
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="36">
         <v>2017</v>
       </c>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="24">
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="36">
         <v>2018</v>
       </c>
-      <c r="BW29" s="25"/>
-      <c r="BX29" s="25"/>
-      <c r="BY29" s="25"/>
-      <c r="BZ29" s="24">
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="36">
         <v>2019</v>
       </c>
-      <c r="CA29" s="25"/>
-      <c r="CB29" s="25"/>
-      <c r="CC29" s="25"/>
-      <c r="CD29" s="24">
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="36">
         <v>2020</v>
       </c>
-      <c r="CE29" s="24"/>
-      <c r="CF29" s="24"/>
-      <c r="CG29" s="24"/>
+      <c r="CE29" s="36"/>
+      <c r="CF29" s="36"/>
+      <c r="CG29" s="36"/>
       <c r="CH29" s="22">
         <v>2021</v>
       </c>
@@ -27374,16 +27465,17 @@
       <c r="CM29" s="22"/>
       <c r="CN29" s="22"/>
       <c r="CO29" s="22"/>
-      <c r="CP29" s="22">
+      <c r="CP29" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ29" s="22"/>
-      <c r="CR29" s="22"/>
-      <c r="CS29" s="22"/>
-      <c r="CT29" s="22">
+      <c r="CQ29" s="26"/>
+      <c r="CR29" s="26"/>
+      <c r="CS29" s="26"/>
+      <c r="CT29" s="26">
         <v>2024</v>
       </c>
-      <c r="CU29" s="22"/>
+      <c r="CU29" s="26"/>
+      <c r="CV29" s="26"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27665,23 +27757,26 @@
       <c r="CO30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP30" s="7" t="s">
+      <c r="CP30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ30" s="7" t="s">
+      <c r="CQ30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR30" s="7" t="s">
+      <c r="CR30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS30" s="7" t="s">
+      <c r="CS30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT30" s="7" t="s">
+      <c r="CT30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU30" s="7" t="s">
+      <c r="CU30" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CV30" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27778,12 +27873,13 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
-      <c r="CT31" s="1"/>
-      <c r="CU31" s="1"/>
+      <c r="CP31" s="25"/>
+      <c r="CQ31" s="25"/>
+      <c r="CR31" s="25"/>
+      <c r="CS31" s="25"/>
+      <c r="CT31" s="25"/>
+      <c r="CU31" s="25"/>
+      <c r="CV31" s="25"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -28065,25 +28161,27 @@
       <c r="CO32" s="9">
         <v>38401.132944361525</v>
       </c>
-      <c r="CP32" s="9">
+      <c r="CP32" s="28">
         <v>36466.310214995217</v>
       </c>
-      <c r="CQ32" s="9">
+      <c r="CQ32" s="28">
         <v>21425.791289372319</v>
       </c>
-      <c r="CR32" s="9">
+      <c r="CR32" s="28">
         <v>29513.236253631727</v>
       </c>
-      <c r="CS32" s="9">
+      <c r="CS32" s="28">
         <v>39938.739451381465</v>
       </c>
-      <c r="CT32" s="9">
+      <c r="CT32" s="28">
         <v>38417.23811065546</v>
       </c>
-      <c r="CU32" s="9">
-        <v>23364.653897293265</v>
-      </c>
-      <c r="CV32" s="10"/>
+      <c r="CU32" s="28">
+        <v>23517.190603405867</v>
+      </c>
+      <c r="CV32" s="28">
+        <v>33880.87852056569</v>
+      </c>
       <c r="CW32" s="10"/>
       <c r="CX32" s="10"/>
       <c r="CY32" s="10"/>
@@ -28420,25 +28518,27 @@
       <c r="CO33" s="9">
         <v>51717.147372412182</v>
       </c>
-      <c r="CP33" s="9">
+      <c r="CP33" s="28">
         <v>56823.739361555607</v>
       </c>
-      <c r="CQ33" s="9">
+      <c r="CQ33" s="28">
         <v>66446.837736942136</v>
       </c>
-      <c r="CR33" s="9">
+      <c r="CR33" s="28">
         <v>61618.959843679957</v>
       </c>
-      <c r="CS33" s="9">
+      <c r="CS33" s="28">
         <v>56269.508022895752</v>
       </c>
-      <c r="CT33" s="9">
+      <c r="CT33" s="28">
         <v>62982.823591207052</v>
       </c>
-      <c r="CU33" s="9">
-        <v>72815.23541956101</v>
-      </c>
-      <c r="CV33" s="10"/>
+      <c r="CU33" s="28">
+        <v>72763.005889717402</v>
+      </c>
+      <c r="CV33" s="28">
+        <v>68254.69547458351</v>
+      </c>
       <c r="CW33" s="10"/>
       <c r="CX33" s="10"/>
       <c r="CY33" s="10"/>
@@ -28775,25 +28875,27 @@
       <c r="CO34" s="9">
         <v>7324.1213520143538</v>
       </c>
-      <c r="CP34" s="9">
+      <c r="CP34" s="28">
         <v>5562.1833673924257</v>
       </c>
-      <c r="CQ34" s="9">
+      <c r="CQ34" s="28">
         <v>3726.7650179692655</v>
       </c>
-      <c r="CR34" s="9">
+      <c r="CR34" s="28">
         <v>5877.176325540082</v>
       </c>
-      <c r="CS34" s="9">
+      <c r="CS34" s="28">
         <v>7482.1647340361324</v>
       </c>
-      <c r="CT34" s="9">
+      <c r="CT34" s="28">
         <v>5923.946664969184</v>
       </c>
-      <c r="CU34" s="9">
-        <v>3924.1479625002403</v>
-      </c>
-      <c r="CV34" s="10"/>
+      <c r="CU34" s="28">
+        <v>3916.1170753838333</v>
+      </c>
+      <c r="CV34" s="28">
+        <v>6415.1967678277933</v>
+      </c>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
@@ -28943,13 +29045,13 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
-      <c r="CT35" s="12"/>
-      <c r="CU35" s="12"/>
-      <c r="CV35" s="10"/>
+      <c r="CP35" s="29"/>
+      <c r="CQ35" s="29"/>
+      <c r="CR35" s="29"/>
+      <c r="CS35" s="29"/>
+      <c r="CT35" s="29"/>
+      <c r="CU35" s="29"/>
+      <c r="CV35" s="29"/>
       <c r="CW35" s="10"/>
       <c r="CX35" s="10"/>
       <c r="CY35" s="10"/>
@@ -29286,25 +29388,27 @@
       <c r="CO36" s="21">
         <v>97442.401668788065</v>
       </c>
-      <c r="CP36" s="21">
+      <c r="CP36" s="30">
         <v>98852.232943943251</v>
       </c>
-      <c r="CQ36" s="21">
+      <c r="CQ36" s="30">
         <v>91599.394044283719</v>
       </c>
-      <c r="CR36" s="21">
+      <c r="CR36" s="30">
         <v>97009.372422851768</v>
       </c>
-      <c r="CS36" s="21">
+      <c r="CS36" s="30">
         <v>103690.41220831336</v>
       </c>
-      <c r="CT36" s="21">
+      <c r="CT36" s="30">
         <v>107324.00836683171</v>
       </c>
-      <c r="CU36" s="21">
-        <v>100104.03727935451</v>
-      </c>
-      <c r="CV36" s="10"/>
+      <c r="CU36" s="30">
+        <v>100196.3135685071</v>
+      </c>
+      <c r="CV36" s="30">
+        <v>108550.77076297699</v>
+      </c>
       <c r="CW36" s="10"/>
       <c r="CX36" s="10"/>
       <c r="CY36" s="10"/>
@@ -29455,12 +29559,13 @@
       <c r="CM37" s="15"/>
       <c r="CN37" s="15"/>
       <c r="CO37" s="15"/>
-      <c r="CP37" s="15"/>
-      <c r="CQ37" s="15"/>
-      <c r="CR37" s="15"/>
-      <c r="CS37" s="15"/>
-      <c r="CT37" s="15"/>
-      <c r="CU37" s="15"/>
+      <c r="CP37" s="31"/>
+      <c r="CQ37" s="31"/>
+      <c r="CR37" s="31"/>
+      <c r="CS37" s="31"/>
+      <c r="CT37" s="31"/>
+      <c r="CU37" s="31"/>
+      <c r="CV37" s="31"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29558,12 +29663,13 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
-      <c r="CT38" s="1"/>
-      <c r="CU38" s="1"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
+      <c r="CU38" s="25"/>
+      <c r="CV38" s="25"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29658,13 +29764,13 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
-      <c r="CR39" s="12"/>
-      <c r="CS39" s="12"/>
-      <c r="CT39" s="12"/>
-      <c r="CU39" s="12"/>
-      <c r="CV39" s="10"/>
+      <c r="CP39" s="29"/>
+      <c r="CQ39" s="29"/>
+      <c r="CR39" s="29"/>
+      <c r="CS39" s="29"/>
+      <c r="CT39" s="29"/>
+      <c r="CU39" s="29"/>
+      <c r="CV39" s="29"/>
       <c r="CW39" s="10"/>
       <c r="CX39" s="10"/>
       <c r="CY39" s="10"/>
@@ -29814,13 +29920,13 @@
       <c r="CM40" s="12"/>
       <c r="CN40" s="12"/>
       <c r="CO40" s="12"/>
-      <c r="CP40" s="12"/>
-      <c r="CQ40" s="12"/>
-      <c r="CR40" s="12"/>
-      <c r="CS40" s="12"/>
-      <c r="CT40" s="12"/>
-      <c r="CU40" s="12"/>
-      <c r="CV40" s="10"/>
+      <c r="CP40" s="29"/>
+      <c r="CQ40" s="29"/>
+      <c r="CR40" s="29"/>
+      <c r="CS40" s="29"/>
+      <c r="CT40" s="29"/>
+      <c r="CU40" s="29"/>
+      <c r="CV40" s="29"/>
       <c r="CW40" s="10"/>
       <c r="CX40" s="10"/>
       <c r="CY40" s="10"/>
@@ -29973,12 +30079,13 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
-      <c r="CT41" s="1"/>
-      <c r="CU41" s="1"/>
+      <c r="CP41" s="25"/>
+      <c r="CQ41" s="25"/>
+      <c r="CR41" s="25"/>
+      <c r="CS41" s="25"/>
+      <c r="CT41" s="25"/>
+      <c r="CU41" s="25"/>
+      <c r="CV41" s="25"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -30076,12 +30183,13 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
-      <c r="CR42" s="1"/>
-      <c r="CS42" s="1"/>
-      <c r="CT42" s="1"/>
-      <c r="CU42" s="1"/>
+      <c r="CP42" s="25"/>
+      <c r="CQ42" s="25"/>
+      <c r="CR42" s="25"/>
+      <c r="CS42" s="25"/>
+      <c r="CT42" s="25"/>
+      <c r="CU42" s="25"/>
+      <c r="CV42" s="25"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -30179,12 +30287,13 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
-      <c r="CT43" s="1"/>
-      <c r="CU43" s="1"/>
+      <c r="CP43" s="25"/>
+      <c r="CQ43" s="25"/>
+      <c r="CR43" s="25"/>
+      <c r="CS43" s="25"/>
+      <c r="CT43" s="25"/>
+      <c r="CU43" s="25"/>
+      <c r="CV43" s="25"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30280,12 +30389,13 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
-      <c r="CT44" s="1"/>
-      <c r="CU44" s="1"/>
+      <c r="CP44" s="25"/>
+      <c r="CQ44" s="25"/>
+      <c r="CR44" s="25"/>
+      <c r="CS44" s="25"/>
+      <c r="CT44" s="25"/>
+      <c r="CU44" s="25"/>
+      <c r="CV44" s="25"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30383,12 +30493,13 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
-      <c r="CP45" s="1"/>
-      <c r="CQ45" s="1"/>
-      <c r="CR45" s="1"/>
-      <c r="CS45" s="1"/>
-      <c r="CT45" s="1"/>
-      <c r="CU45" s="1"/>
+      <c r="CP45" s="25"/>
+      <c r="CQ45" s="25"/>
+      <c r="CR45" s="25"/>
+      <c r="CS45" s="25"/>
+      <c r="CT45" s="25"/>
+      <c r="CU45" s="25"/>
+      <c r="CV45" s="25"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -30486,12 +30597,13 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
-      <c r="CT46" s="1"/>
-      <c r="CU46" s="1"/>
+      <c r="CP46" s="25"/>
+      <c r="CQ46" s="25"/>
+      <c r="CR46" s="25"/>
+      <c r="CS46" s="25"/>
+      <c r="CT46" s="25"/>
+      <c r="CU46" s="25"/>
+      <c r="CV46" s="25"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30589,12 +30701,13 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
-      <c r="CR47" s="1"/>
-      <c r="CS47" s="1"/>
-      <c r="CT47" s="1"/>
-      <c r="CU47" s="1"/>
+      <c r="CP47" s="25"/>
+      <c r="CQ47" s="25"/>
+      <c r="CR47" s="25"/>
+      <c r="CS47" s="25"/>
+      <c r="CT47" s="25"/>
+      <c r="CU47" s="25"/>
+      <c r="CV47" s="25"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30690,141 +30803,142 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
-      <c r="CR48" s="1"/>
-      <c r="CS48" s="1"/>
-      <c r="CT48" s="1"/>
-      <c r="CU48" s="1"/>
+      <c r="CP48" s="25"/>
+      <c r="CQ48" s="25"/>
+      <c r="CR48" s="25"/>
+      <c r="CS48" s="25"/>
+      <c r="CT48" s="25"/>
+      <c r="CU48" s="25"/>
+      <c r="CV48" s="25"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24" t="s">
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24" t="s">
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24" t="s">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24" t="s">
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24" t="s">
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24" t="s">
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24" t="s">
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="24"/>
-      <c r="AL49" s="24" t="s">
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="36"/>
+      <c r="AL49" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24" t="s">
+      <c r="AM49" s="36"/>
+      <c r="AN49" s="36"/>
+      <c r="AO49" s="36"/>
+      <c r="AP49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="24" t="s">
+      <c r="AQ49" s="36"/>
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="36"/>
+      <c r="AT49" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="24"/>
-      <c r="AV49" s="24"/>
-      <c r="AW49" s="24"/>
-      <c r="AX49" s="24" t="s">
+      <c r="AU49" s="36"/>
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="24"/>
-      <c r="AZ49" s="24"/>
-      <c r="BA49" s="24"/>
-      <c r="BB49" s="24" t="s">
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="36"/>
+      <c r="BA49" s="36"/>
+      <c r="BB49" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="24"/>
-      <c r="BD49" s="24"/>
-      <c r="BE49" s="24"/>
-      <c r="BF49" s="24" t="s">
+      <c r="BC49" s="36"/>
+      <c r="BD49" s="36"/>
+      <c r="BE49" s="36"/>
+      <c r="BF49" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="24"/>
-      <c r="BH49" s="24"/>
-      <c r="BI49" s="24"/>
-      <c r="BJ49" s="24" t="s">
+      <c r="BG49" s="36"/>
+      <c r="BH49" s="36"/>
+      <c r="BI49" s="36"/>
+      <c r="BJ49" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="24"/>
-      <c r="BL49" s="24"/>
-      <c r="BM49" s="24"/>
-      <c r="BN49" s="24" t="s">
+      <c r="BK49" s="36"/>
+      <c r="BL49" s="36"/>
+      <c r="BM49" s="36"/>
+      <c r="BN49" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="24"/>
-      <c r="BP49" s="24"/>
-      <c r="BQ49" s="24"/>
-      <c r="BR49" s="24" t="s">
+      <c r="BO49" s="36"/>
+      <c r="BP49" s="36"/>
+      <c r="BQ49" s="36"/>
+      <c r="BR49" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="24"/>
-      <c r="BT49" s="24"/>
-      <c r="BU49" s="24"/>
-      <c r="BV49" s="24" t="s">
+      <c r="BS49" s="36"/>
+      <c r="BT49" s="36"/>
+      <c r="BU49" s="36"/>
+      <c r="BV49" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="24"/>
-      <c r="BX49" s="24"/>
-      <c r="BY49" s="24"/>
-      <c r="BZ49" s="24" t="s">
+      <c r="BW49" s="36"/>
+      <c r="BX49" s="36"/>
+      <c r="BY49" s="36"/>
+      <c r="BZ49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="24"/>
-      <c r="CB49" s="24"/>
-      <c r="CC49" s="24"/>
-      <c r="CD49" s="24" t="s">
+      <c r="CA49" s="36"/>
+      <c r="CB49" s="36"/>
+      <c r="CC49" s="36"/>
+      <c r="CD49" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="24"/>
-      <c r="CF49" s="24"/>
-      <c r="CG49" s="24"/>
+      <c r="CE49" s="36"/>
+      <c r="CF49" s="36"/>
+      <c r="CG49" s="36"/>
       <c r="CH49" s="22" t="s">
         <v>48</v>
       </c>
@@ -30837,14 +30951,15 @@
       <c r="CM49" s="22"/>
       <c r="CN49" s="22"/>
       <c r="CO49" s="22"/>
-      <c r="CP49" s="22" t="s">
+      <c r="CP49" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="CQ49" s="22"/>
-      <c r="CR49" s="23"/>
+      <c r="CQ49" s="26"/>
+      <c r="CR49" s="26"/>
       <c r="CS49" s="23"/>
-      <c r="CT49" s="22"/>
-      <c r="CU49" s="23"/>
+      <c r="CT49" s="26"/>
+      <c r="CU49" s="26"/>
+      <c r="CV49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31126,16 +31241,19 @@
       <c r="CO50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP50" s="6" t="s">
+      <c r="CP50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CQ50" s="6" t="s">
+      <c r="CQ50" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CR50" s="6"/>
-      <c r="CS50" s="6"/>
-      <c r="CT50" s="6"/>
-      <c r="CU50" s="6"/>
+      <c r="CR50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS50" s="32"/>
+      <c r="CT50" s="32"/>
+      <c r="CU50" s="32"/>
+      <c r="CV50" s="32"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31231,12 +31349,13 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
-      <c r="CR51" s="1"/>
-      <c r="CS51" s="1"/>
-      <c r="CT51" s="1"/>
-      <c r="CU51" s="1"/>
+      <c r="CP51" s="25"/>
+      <c r="CQ51" s="25"/>
+      <c r="CR51" s="25"/>
+      <c r="CS51" s="25"/>
+      <c r="CT51" s="25"/>
+      <c r="CU51" s="25"/>
+      <c r="CV51" s="25"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31518,17 +31637,19 @@
       <c r="CO52" s="17">
         <v>8.4417413214521844</v>
       </c>
-      <c r="CP52" s="17">
+      <c r="CP52" s="33">
         <v>8.5258723681546513</v>
       </c>
-      <c r="CQ52" s="17">
-        <v>13.434250330555514</v>
-      </c>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="17"/>
-      <c r="CU52" s="17"/>
-      <c r="CV52" s="10"/>
+      <c r="CQ52" s="33">
+        <v>14.927768686684487</v>
+      </c>
+      <c r="CR52" s="33">
+        <v>20.218922503175847</v>
+      </c>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
       <c r="CW52" s="10"/>
       <c r="CX52" s="10"/>
       <c r="CY52" s="10"/>
@@ -31861,17 +31982,19 @@
       <c r="CO53" s="17">
         <v>13.617264530415781</v>
       </c>
-      <c r="CP53" s="17">
+      <c r="CP53" s="33">
         <v>14.882810515494938</v>
       </c>
-      <c r="CQ53" s="17">
-        <v>13.270833829967387</v>
-      </c>
-      <c r="CR53" s="17"/>
-      <c r="CS53" s="17"/>
-      <c r="CT53" s="17"/>
-      <c r="CU53" s="17"/>
-      <c r="CV53" s="10"/>
+      <c r="CQ53" s="33">
+        <v>13.12700135824754</v>
+      </c>
+      <c r="CR53" s="33">
+        <v>13.936887555037032</v>
+      </c>
+      <c r="CS53" s="33"/>
+      <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
       <c r="CW53" s="10"/>
       <c r="CX53" s="10"/>
       <c r="CY53" s="10"/>
@@ -32204,17 +32327,19 @@
       <c r="CO54" s="17">
         <v>5.4116756040554463</v>
       </c>
-      <c r="CP54" s="17">
+      <c r="CP54" s="33">
         <v>9.4350370715197585</v>
       </c>
-      <c r="CQ54" s="17">
-        <v>10.352277033934286</v>
-      </c>
-      <c r="CR54" s="17"/>
-      <c r="CS54" s="17"/>
-      <c r="CT54" s="17"/>
-      <c r="CU54" s="17"/>
-      <c r="CV54" s="10"/>
+      <c r="CQ54" s="33">
+        <v>10.621115991585555</v>
+      </c>
+      <c r="CR54" s="33">
+        <v>14.706555104365265</v>
+      </c>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
       <c r="CW54" s="10"/>
       <c r="CX54" s="10"/>
       <c r="CY54" s="10"/>
@@ -32360,13 +32485,13 @@
       <c r="CM55" s="12"/>
       <c r="CN55" s="12"/>
       <c r="CO55" s="12"/>
-      <c r="CP55" s="12"/>
-      <c r="CQ55" s="12"/>
-      <c r="CR55" s="12"/>
-      <c r="CS55" s="12"/>
-      <c r="CT55" s="12"/>
-      <c r="CU55" s="12"/>
-      <c r="CV55" s="10"/>
+      <c r="CP55" s="29"/>
+      <c r="CQ55" s="29"/>
+      <c r="CR55" s="29"/>
+      <c r="CS55" s="29"/>
+      <c r="CT55" s="29"/>
+      <c r="CU55" s="29"/>
+      <c r="CV55" s="29"/>
       <c r="CW55" s="10"/>
       <c r="CX55" s="10"/>
       <c r="CY55" s="10"/>
@@ -32699,17 +32824,19 @@
       <c r="CO56" s="17">
         <v>10.909993651957379</v>
       </c>
-      <c r="CP56" s="17">
+      <c r="CP56" s="33">
         <v>12.132610553900221</v>
       </c>
-      <c r="CQ56" s="17">
-        <v>13.187453326369905</v>
-      </c>
-      <c r="CR56" s="17"/>
-      <c r="CS56" s="17"/>
-      <c r="CT56" s="17"/>
-      <c r="CU56" s="17"/>
-      <c r="CV56" s="10"/>
+      <c r="CQ56" s="33">
+        <v>13.432192673455432</v>
+      </c>
+      <c r="CR56" s="33">
+        <v>15.778387570306734</v>
+      </c>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
       <c r="CW56" s="10"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
@@ -32856,12 +32983,13 @@
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
-      <c r="CP57" s="15"/>
-      <c r="CQ57" s="15"/>
-      <c r="CR57" s="15"/>
-      <c r="CS57" s="15"/>
-      <c r="CT57" s="15"/>
-      <c r="CU57" s="15"/>
+      <c r="CP57" s="31"/>
+      <c r="CQ57" s="31"/>
+      <c r="CR57" s="31"/>
+      <c r="CS57" s="31"/>
+      <c r="CT57" s="31"/>
+      <c r="CU57" s="31"/>
+      <c r="CV57" s="31"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -32959,12 +33087,13 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
-      <c r="CT58" s="1"/>
-      <c r="CU58" s="1"/>
+      <c r="CP58" s="25"/>
+      <c r="CQ58" s="25"/>
+      <c r="CR58" s="25"/>
+      <c r="CS58" s="25"/>
+      <c r="CT58" s="25"/>
+      <c r="CU58" s="25"/>
+      <c r="CV58" s="25"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -33059,13 +33188,13 @@
       <c r="CM59" s="12"/>
       <c r="CN59" s="12"/>
       <c r="CO59" s="12"/>
-      <c r="CP59" s="12"/>
-      <c r="CQ59" s="12"/>
-      <c r="CR59" s="12"/>
-      <c r="CS59" s="12"/>
-      <c r="CT59" s="12"/>
-      <c r="CU59" s="12"/>
-      <c r="CV59" s="10"/>
+      <c r="CP59" s="29"/>
+      <c r="CQ59" s="29"/>
+      <c r="CR59" s="29"/>
+      <c r="CS59" s="29"/>
+      <c r="CT59" s="29"/>
+      <c r="CU59" s="29"/>
+      <c r="CV59" s="29"/>
       <c r="CW59" s="10"/>
       <c r="CX59" s="10"/>
       <c r="CY59" s="10"/>
@@ -33211,13 +33340,13 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
-      <c r="CR60" s="12"/>
-      <c r="CS60" s="12"/>
-      <c r="CT60" s="12"/>
-      <c r="CU60" s="12"/>
-      <c r="CV60" s="10"/>
+      <c r="CP60" s="29"/>
+      <c r="CQ60" s="29"/>
+      <c r="CR60" s="29"/>
+      <c r="CS60" s="29"/>
+      <c r="CT60" s="29"/>
+      <c r="CU60" s="29"/>
+      <c r="CV60" s="29"/>
       <c r="CW60" s="10"/>
       <c r="CX60" s="10"/>
       <c r="CY60" s="10"/>
@@ -33366,12 +33495,13 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
-      <c r="CT61" s="1"/>
-      <c r="CU61" s="1"/>
+      <c r="CP61" s="25"/>
+      <c r="CQ61" s="25"/>
+      <c r="CR61" s="25"/>
+      <c r="CS61" s="25"/>
+      <c r="CT61" s="25"/>
+      <c r="CU61" s="25"/>
+      <c r="CV61" s="25"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33469,12 +33599,13 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
-      <c r="CR62" s="1"/>
-      <c r="CS62" s="1"/>
-      <c r="CT62" s="1"/>
-      <c r="CU62" s="1"/>
+      <c r="CP62" s="25"/>
+      <c r="CQ62" s="25"/>
+      <c r="CR62" s="25"/>
+      <c r="CS62" s="25"/>
+      <c r="CT62" s="25"/>
+      <c r="CU62" s="25"/>
+      <c r="CV62" s="25"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -33572,12 +33703,13 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
-      <c r="CR63" s="1"/>
-      <c r="CS63" s="1"/>
-      <c r="CT63" s="1"/>
-      <c r="CU63" s="1"/>
+      <c r="CP63" s="25"/>
+      <c r="CQ63" s="25"/>
+      <c r="CR63" s="25"/>
+      <c r="CS63" s="25"/>
+      <c r="CT63" s="25"/>
+      <c r="CU63" s="25"/>
+      <c r="CV63" s="25"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33673,12 +33805,13 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
-      <c r="CT64" s="1"/>
-      <c r="CU64" s="1"/>
+      <c r="CP64" s="25"/>
+      <c r="CQ64" s="25"/>
+      <c r="CR64" s="25"/>
+      <c r="CS64" s="25"/>
+      <c r="CT64" s="25"/>
+      <c r="CU64" s="25"/>
+      <c r="CV64" s="25"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33776,12 +33909,13 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
-      <c r="CT65" s="1"/>
-      <c r="CU65" s="1"/>
+      <c r="CP65" s="25"/>
+      <c r="CQ65" s="25"/>
+      <c r="CR65" s="25"/>
+      <c r="CS65" s="25"/>
+      <c r="CT65" s="25"/>
+      <c r="CU65" s="25"/>
+      <c r="CV65" s="25"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -33879,12 +34013,13 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
-      <c r="CR66" s="1"/>
-      <c r="CS66" s="1"/>
-      <c r="CT66" s="1"/>
-      <c r="CU66" s="1"/>
+      <c r="CP66" s="25"/>
+      <c r="CQ66" s="25"/>
+      <c r="CR66" s="25"/>
+      <c r="CS66" s="25"/>
+      <c r="CT66" s="25"/>
+      <c r="CU66" s="25"/>
+      <c r="CV66" s="25"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -33982,12 +34117,13 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
-      <c r="CT67" s="1"/>
-      <c r="CU67" s="1"/>
+      <c r="CP67" s="25"/>
+      <c r="CQ67" s="25"/>
+      <c r="CR67" s="25"/>
+      <c r="CS67" s="25"/>
+      <c r="CT67" s="25"/>
+      <c r="CU67" s="25"/>
+      <c r="CV67" s="25"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -34083,141 +34219,142 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
-      <c r="CT68" s="1"/>
-      <c r="CU68" s="1"/>
+      <c r="CP68" s="25"/>
+      <c r="CQ68" s="25"/>
+      <c r="CR68" s="25"/>
+      <c r="CS68" s="25"/>
+      <c r="CT68" s="25"/>
+      <c r="CU68" s="25"/>
+      <c r="CV68" s="25"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="24" t="s">
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="24" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="24" t="s">
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="24" t="s">
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="24" t="s">
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="24" t="s">
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="24" t="s">
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="26"/>
-      <c r="AH69" s="24" t="s">
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="26"/>
-      <c r="AJ69" s="26"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="24" t="s">
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="26"/>
-      <c r="AN69" s="26"/>
-      <c r="AO69" s="26"/>
-      <c r="AP69" s="24" t="s">
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="26"/>
-      <c r="AR69" s="26"/>
-      <c r="AS69" s="26"/>
-      <c r="AT69" s="24" t="s">
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="38"/>
+      <c r="AT69" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="26"/>
-      <c r="AV69" s="26"/>
-      <c r="AW69" s="26"/>
-      <c r="AX69" s="24" t="s">
+      <c r="AU69" s="38"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="26"/>
-      <c r="AZ69" s="26"/>
-      <c r="BA69" s="26"/>
-      <c r="BB69" s="24" t="s">
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="26"/>
-      <c r="BD69" s="26"/>
-      <c r="BE69" s="26"/>
-      <c r="BF69" s="24" t="s">
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="26"/>
-      <c r="BH69" s="26"/>
-      <c r="BI69" s="26"/>
-      <c r="BJ69" s="24" t="s">
+      <c r="BG69" s="38"/>
+      <c r="BH69" s="38"/>
+      <c r="BI69" s="38"/>
+      <c r="BJ69" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="26"/>
-      <c r="BL69" s="26"/>
-      <c r="BM69" s="26"/>
-      <c r="BN69" s="24" t="s">
+      <c r="BK69" s="38"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="26"/>
-      <c r="BP69" s="26"/>
-      <c r="BQ69" s="26"/>
-      <c r="BR69" s="24" t="s">
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="26"/>
-      <c r="BT69" s="26"/>
-      <c r="BU69" s="26"/>
-      <c r="BV69" s="24" t="s">
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="26"/>
-      <c r="BX69" s="26"/>
-      <c r="BY69" s="26"/>
-      <c r="BZ69" s="24" t="s">
+      <c r="BW69" s="38"/>
+      <c r="BX69" s="38"/>
+      <c r="BY69" s="38"/>
+      <c r="BZ69" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="26"/>
-      <c r="CB69" s="26"/>
-      <c r="CC69" s="26"/>
-      <c r="CD69" s="24" t="s">
+      <c r="CA69" s="38"/>
+      <c r="CB69" s="38"/>
+      <c r="CC69" s="38"/>
+      <c r="CD69" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="24"/>
-      <c r="CF69" s="24"/>
-      <c r="CG69" s="24"/>
+      <c r="CE69" s="36"/>
+      <c r="CF69" s="36"/>
+      <c r="CG69" s="36"/>
       <c r="CH69" s="22" t="s">
         <v>48</v>
       </c>
@@ -34230,14 +34367,15 @@
       <c r="CM69" s="22"/>
       <c r="CN69" s="22"/>
       <c r="CO69" s="22"/>
-      <c r="CP69" s="22" t="s">
+      <c r="CP69" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="CQ69" s="22"/>
-      <c r="CR69" s="23"/>
+      <c r="CQ69" s="26"/>
+      <c r="CR69" s="26"/>
       <c r="CS69" s="23"/>
-      <c r="CT69" s="22"/>
-      <c r="CU69" s="23"/>
+      <c r="CT69" s="26"/>
+      <c r="CU69" s="26"/>
+      <c r="CV69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34519,16 +34657,19 @@
       <c r="CO70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP70" s="6" t="s">
+      <c r="CP70" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CQ70" s="6" t="s">
+      <c r="CQ70" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CR70" s="6"/>
-      <c r="CS70" s="6"/>
-      <c r="CT70" s="6"/>
-      <c r="CU70" s="6"/>
+      <c r="CR70" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS70" s="32"/>
+      <c r="CT70" s="32"/>
+      <c r="CU70" s="32"/>
+      <c r="CV70" s="32"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34624,12 +34765,13 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
-      <c r="CT71" s="1"/>
-      <c r="CU71" s="1"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
+      <c r="CU71" s="25"/>
+      <c r="CV71" s="25"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -34911,17 +35053,19 @@
       <c r="CO72" s="17">
         <v>4.0040654770465665</v>
       </c>
-      <c r="CP72" s="17">
+      <c r="CP72" s="33">
         <v>5.3499459752251113</v>
       </c>
-      <c r="CQ72" s="17">
-        <v>9.0491995452353109</v>
-      </c>
-      <c r="CR72" s="17"/>
-      <c r="CS72" s="17"/>
-      <c r="CT72" s="17"/>
-      <c r="CU72" s="17"/>
-      <c r="CV72" s="10"/>
+      <c r="CQ72" s="33">
+        <v>9.7611298728132851</v>
+      </c>
+      <c r="CR72" s="33">
+        <v>14.798926926885244</v>
+      </c>
+      <c r="CS72" s="33"/>
+      <c r="CT72" s="33"/>
+      <c r="CU72" s="33"/>
+      <c r="CV72" s="33"/>
       <c r="CW72" s="10"/>
       <c r="CX72" s="10"/>
       <c r="CY72" s="10"/>
@@ -35254,17 +35398,19 @@
       <c r="CO73" s="17">
         <v>8.8024202450732218</v>
       </c>
-      <c r="CP73" s="17">
+      <c r="CP73" s="33">
         <v>10.838928058681049</v>
       </c>
-      <c r="CQ73" s="17">
-        <v>9.5841997896587259</v>
-      </c>
-      <c r="CR73" s="17"/>
-      <c r="CS73" s="17"/>
-      <c r="CT73" s="17"/>
-      <c r="CU73" s="17"/>
-      <c r="CV73" s="10"/>
+      <c r="CQ73" s="33">
+        <v>9.5055963050950396</v>
+      </c>
+      <c r="CR73" s="33">
+        <v>10.768983520230833</v>
+      </c>
+      <c r="CS73" s="33"/>
+      <c r="CT73" s="33"/>
+      <c r="CU73" s="33"/>
+      <c r="CV73" s="33"/>
       <c r="CW73" s="10"/>
       <c r="CX73" s="10"/>
       <c r="CY73" s="10"/>
@@ -35597,17 +35743,19 @@
       <c r="CO74" s="17">
         <v>2.1578476710836014</v>
       </c>
-      <c r="CP74" s="17">
+      <c r="CP74" s="33">
         <v>6.5039800682866513</v>
       </c>
-      <c r="CQ74" s="17">
-        <v>5.2963614174560831</v>
-      </c>
-      <c r="CR74" s="17"/>
-      <c r="CS74" s="17"/>
-      <c r="CT74" s="17"/>
-      <c r="CU74" s="17"/>
-      <c r="CV74" s="10"/>
+      <c r="CQ74" s="33">
+        <v>5.0808692391812542</v>
+      </c>
+      <c r="CR74" s="33">
+        <v>9.1544036198075105</v>
+      </c>
+      <c r="CS74" s="33"/>
+      <c r="CT74" s="33"/>
+      <c r="CU74" s="33"/>
+      <c r="CV74" s="33"/>
       <c r="CW74" s="10"/>
       <c r="CX74" s="10"/>
       <c r="CY74" s="10"/>
@@ -35753,13 +35901,13 @@
       <c r="CM75" s="12"/>
       <c r="CN75" s="12"/>
       <c r="CO75" s="12"/>
-      <c r="CP75" s="12"/>
-      <c r="CQ75" s="12"/>
-      <c r="CR75" s="12"/>
-      <c r="CS75" s="12"/>
-      <c r="CT75" s="12"/>
-      <c r="CU75" s="12"/>
-      <c r="CV75" s="10"/>
+      <c r="CP75" s="29"/>
+      <c r="CQ75" s="29"/>
+      <c r="CR75" s="29"/>
+      <c r="CS75" s="29"/>
+      <c r="CT75" s="29"/>
+      <c r="CU75" s="29"/>
+      <c r="CV75" s="29"/>
       <c r="CW75" s="10"/>
       <c r="CX75" s="10"/>
       <c r="CY75" s="10"/>
@@ -36092,17 +36240,19 @@
       <c r="CO76" s="17">
         <v>6.4120038428061292</v>
       </c>
-      <c r="CP76" s="17">
+      <c r="CP76" s="33">
         <v>8.5701406742046942</v>
       </c>
-      <c r="CQ76" s="17">
-        <v>9.2846064363255891</v>
-      </c>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="17"/>
-      <c r="CU76" s="17"/>
-      <c r="CV76" s="10"/>
+      <c r="CQ76" s="33">
+        <v>9.3853454096729081</v>
+      </c>
+      <c r="CR76" s="33">
+        <v>11.897199262167874</v>
+      </c>
+      <c r="CS76" s="33"/>
+      <c r="CT76" s="33"/>
+      <c r="CU76" s="33"/>
+      <c r="CV76" s="33"/>
       <c r="CW76" s="10"/>
       <c r="CX76" s="10"/>
       <c r="CY76" s="10"/>
@@ -36249,12 +36399,13 @@
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
-      <c r="CP77" s="15"/>
-      <c r="CQ77" s="15"/>
-      <c r="CR77" s="15"/>
-      <c r="CS77" s="15"/>
-      <c r="CT77" s="15"/>
-      <c r="CU77" s="15"/>
+      <c r="CP77" s="31"/>
+      <c r="CQ77" s="31"/>
+      <c r="CR77" s="31"/>
+      <c r="CS77" s="31"/>
+      <c r="CT77" s="31"/>
+      <c r="CU77" s="31"/>
+      <c r="CV77" s="31"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36352,12 +36503,13 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
-      <c r="CT78" s="1"/>
-      <c r="CU78" s="1"/>
+      <c r="CP78" s="25"/>
+      <c r="CQ78" s="25"/>
+      <c r="CR78" s="25"/>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="25"/>
+      <c r="CU78" s="25"/>
+      <c r="CV78" s="25"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36452,13 +36604,13 @@
       <c r="CM79" s="12"/>
       <c r="CN79" s="12"/>
       <c r="CO79" s="12"/>
-      <c r="CP79" s="12"/>
-      <c r="CQ79" s="12"/>
-      <c r="CR79" s="12"/>
-      <c r="CS79" s="12"/>
-      <c r="CT79" s="12"/>
-      <c r="CU79" s="12"/>
-      <c r="CV79" s="10"/>
+      <c r="CP79" s="29"/>
+      <c r="CQ79" s="29"/>
+      <c r="CR79" s="29"/>
+      <c r="CS79" s="29"/>
+      <c r="CT79" s="29"/>
+      <c r="CU79" s="29"/>
+      <c r="CV79" s="29"/>
       <c r="CW79" s="10"/>
       <c r="CX79" s="10"/>
       <c r="CY79" s="10"/>
@@ -36604,13 +36756,13 @@
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
-      <c r="CP80" s="10"/>
-      <c r="CQ80" s="10"/>
-      <c r="CR80" s="10"/>
-      <c r="CS80" s="10"/>
-      <c r="CT80" s="10"/>
-      <c r="CU80" s="10"/>
-      <c r="CV80" s="10"/>
+      <c r="CP80" s="34"/>
+      <c r="CQ80" s="34"/>
+      <c r="CR80" s="34"/>
+      <c r="CS80" s="34"/>
+      <c r="CT80" s="34"/>
+      <c r="CU80" s="34"/>
+      <c r="CV80" s="34"/>
       <c r="CW80" s="10"/>
       <c r="CX80" s="10"/>
       <c r="CY80" s="10"/>
@@ -36759,12 +36911,13 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
-      <c r="CR81" s="1"/>
-      <c r="CS81" s="1"/>
-      <c r="CT81" s="1"/>
-      <c r="CU81" s="1"/>
+      <c r="CP81" s="25"/>
+      <c r="CQ81" s="25"/>
+      <c r="CR81" s="25"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="25"/>
+      <c r="CU81" s="25"/>
+      <c r="CV81" s="25"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36862,12 +37015,13 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
-      <c r="CR82" s="1"/>
-      <c r="CS82" s="1"/>
-      <c r="CT82" s="1"/>
-      <c r="CU82" s="1"/>
+      <c r="CP82" s="25"/>
+      <c r="CQ82" s="25"/>
+      <c r="CR82" s="25"/>
+      <c r="CS82" s="25"/>
+      <c r="CT82" s="25"/>
+      <c r="CU82" s="25"/>
+      <c r="CV82" s="25"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36963,12 +37117,13 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
-      <c r="CR83" s="1"/>
-      <c r="CS83" s="1"/>
-      <c r="CT83" s="1"/>
-      <c r="CU83" s="1"/>
+      <c r="CP83" s="25"/>
+      <c r="CQ83" s="25"/>
+      <c r="CR83" s="25"/>
+      <c r="CS83" s="25"/>
+      <c r="CT83" s="25"/>
+      <c r="CU83" s="25"/>
+      <c r="CV83" s="25"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -37066,12 +37221,13 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
-      <c r="CP84" s="1"/>
-      <c r="CQ84" s="1"/>
-      <c r="CR84" s="1"/>
-      <c r="CS84" s="1"/>
-      <c r="CT84" s="1"/>
-      <c r="CU84" s="1"/>
+      <c r="CP84" s="25"/>
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="25"/>
+      <c r="CU84" s="25"/>
+      <c r="CV84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -37169,12 +37325,13 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
-      <c r="CR85" s="1"/>
-      <c r="CS85" s="1"/>
-      <c r="CT85" s="1"/>
-      <c r="CU85" s="1"/>
+      <c r="CP85" s="25"/>
+      <c r="CQ85" s="25"/>
+      <c r="CR85" s="25"/>
+      <c r="CS85" s="25"/>
+      <c r="CT85" s="25"/>
+      <c r="CU85" s="25"/>
+      <c r="CV85" s="25"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37272,12 +37429,13 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
-      <c r="CT86" s="1"/>
-      <c r="CU86" s="1"/>
+      <c r="CP86" s="25"/>
+      <c r="CQ86" s="25"/>
+      <c r="CR86" s="25"/>
+      <c r="CS86" s="25"/>
+      <c r="CT86" s="25"/>
+      <c r="CU86" s="25"/>
+      <c r="CV86" s="25"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37373,141 +37531,142 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
-      <c r="CP87" s="1"/>
-      <c r="CQ87" s="1"/>
-      <c r="CR87" s="1"/>
-      <c r="CS87" s="1"/>
-      <c r="CT87" s="1"/>
-      <c r="CU87" s="1"/>
+      <c r="CP87" s="25"/>
+      <c r="CQ87" s="25"/>
+      <c r="CR87" s="25"/>
+      <c r="CS87" s="25"/>
+      <c r="CT87" s="25"/>
+      <c r="CU87" s="25"/>
+      <c r="CV87" s="25"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="24">
+      <c r="B88" s="36">
         <v>2000</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="24">
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="36">
         <v>2001</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="24">
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36">
         <v>2002</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="24">
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="36">
         <v>2003</v>
       </c>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="24">
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="36">
         <v>2004</v>
       </c>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="24">
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="36">
         <v>2005</v>
       </c>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="24">
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="36">
         <v>2006</v>
       </c>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
-      <c r="AD88" s="24">
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="36">
         <v>2007</v>
       </c>
-      <c r="AE88" s="25"/>
-      <c r="AF88" s="25"/>
-      <c r="AG88" s="25"/>
-      <c r="AH88" s="24">
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="36">
         <v>2008</v>
       </c>
-      <c r="AI88" s="25"/>
-      <c r="AJ88" s="25"/>
-      <c r="AK88" s="25"/>
-      <c r="AL88" s="24">
+      <c r="AI88" s="37"/>
+      <c r="AJ88" s="37"/>
+      <c r="AK88" s="37"/>
+      <c r="AL88" s="36">
         <v>2009</v>
       </c>
-      <c r="AM88" s="25"/>
-      <c r="AN88" s="25"/>
-      <c r="AO88" s="25"/>
-      <c r="AP88" s="24">
+      <c r="AM88" s="37"/>
+      <c r="AN88" s="37"/>
+      <c r="AO88" s="37"/>
+      <c r="AP88" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="25"/>
-      <c r="AR88" s="25"/>
-      <c r="AS88" s="25"/>
-      <c r="AT88" s="24">
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="37"/>
+      <c r="AS88" s="37"/>
+      <c r="AT88" s="36">
         <v>2011</v>
       </c>
-      <c r="AU88" s="25"/>
-      <c r="AV88" s="25"/>
-      <c r="AW88" s="25"/>
-      <c r="AX88" s="24">
+      <c r="AU88" s="37"/>
+      <c r="AV88" s="37"/>
+      <c r="AW88" s="37"/>
+      <c r="AX88" s="36">
         <v>2012</v>
       </c>
-      <c r="AY88" s="25"/>
-      <c r="AZ88" s="25"/>
-      <c r="BA88" s="25"/>
-      <c r="BB88" s="24">
+      <c r="AY88" s="37"/>
+      <c r="AZ88" s="37"/>
+      <c r="BA88" s="37"/>
+      <c r="BB88" s="36">
         <v>2013</v>
       </c>
-      <c r="BC88" s="25"/>
-      <c r="BD88" s="25"/>
-      <c r="BE88" s="25"/>
-      <c r="BF88" s="24">
+      <c r="BC88" s="37"/>
+      <c r="BD88" s="37"/>
+      <c r="BE88" s="37"/>
+      <c r="BF88" s="36">
         <v>2014</v>
       </c>
-      <c r="BG88" s="25"/>
-      <c r="BH88" s="25"/>
-      <c r="BI88" s="25"/>
-      <c r="BJ88" s="24">
+      <c r="BG88" s="37"/>
+      <c r="BH88" s="37"/>
+      <c r="BI88" s="37"/>
+      <c r="BJ88" s="36">
         <v>2015</v>
       </c>
-      <c r="BK88" s="25"/>
-      <c r="BL88" s="25"/>
-      <c r="BM88" s="25"/>
-      <c r="BN88" s="24">
+      <c r="BK88" s="37"/>
+      <c r="BL88" s="37"/>
+      <c r="BM88" s="37"/>
+      <c r="BN88" s="36">
         <v>2016</v>
       </c>
-      <c r="BO88" s="25"/>
-      <c r="BP88" s="25"/>
-      <c r="BQ88" s="25"/>
-      <c r="BR88" s="24">
+      <c r="BO88" s="37"/>
+      <c r="BP88" s="37"/>
+      <c r="BQ88" s="37"/>
+      <c r="BR88" s="36">
         <v>2017</v>
       </c>
-      <c r="BS88" s="25"/>
-      <c r="BT88" s="25"/>
-      <c r="BU88" s="25"/>
-      <c r="BV88" s="24">
+      <c r="BS88" s="37"/>
+      <c r="BT88" s="37"/>
+      <c r="BU88" s="37"/>
+      <c r="BV88" s="36">
         <v>2018</v>
       </c>
-      <c r="BW88" s="25"/>
-      <c r="BX88" s="25"/>
-      <c r="BY88" s="25"/>
-      <c r="BZ88" s="24">
+      <c r="BW88" s="37"/>
+      <c r="BX88" s="37"/>
+      <c r="BY88" s="37"/>
+      <c r="BZ88" s="36">
         <v>2019</v>
       </c>
-      <c r="CA88" s="25"/>
-      <c r="CB88" s="25"/>
-      <c r="CC88" s="25"/>
-      <c r="CD88" s="24">
+      <c r="CA88" s="37"/>
+      <c r="CB88" s="37"/>
+      <c r="CC88" s="37"/>
+      <c r="CD88" s="36">
         <v>2020</v>
       </c>
-      <c r="CE88" s="24"/>
-      <c r="CF88" s="24"/>
-      <c r="CG88" s="24"/>
+      <c r="CE88" s="36"/>
+      <c r="CF88" s="36"/>
+      <c r="CG88" s="36"/>
       <c r="CH88" s="22">
         <v>2021</v>
       </c>
@@ -37520,16 +37679,17 @@
       <c r="CM88" s="22"/>
       <c r="CN88" s="22"/>
       <c r="CO88" s="22"/>
-      <c r="CP88" s="22">
+      <c r="CP88" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ88" s="22"/>
-      <c r="CR88" s="22"/>
-      <c r="CS88" s="22"/>
-      <c r="CT88" s="22">
+      <c r="CQ88" s="26"/>
+      <c r="CR88" s="26"/>
+      <c r="CS88" s="26"/>
+      <c r="CT88" s="26">
         <v>2024</v>
       </c>
-      <c r="CU88" s="22"/>
+      <c r="CU88" s="26"/>
+      <c r="CV88" s="26"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37811,23 +37971,26 @@
       <c r="CO89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP89" s="7" t="s">
+      <c r="CP89" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ89" s="7" t="s">
+      <c r="CQ89" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR89" s="7" t="s">
+      <c r="CR89" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS89" s="7" t="s">
+      <c r="CS89" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT89" s="7" t="s">
+      <c r="CT89" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU89" s="7" t="s">
+      <c r="CU89" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CV89" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37924,12 +38087,13 @@
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
-      <c r="CP90" s="1"/>
-      <c r="CQ90" s="1"/>
-      <c r="CR90" s="1"/>
-      <c r="CS90" s="1"/>
-      <c r="CT90" s="1"/>
-      <c r="CU90" s="1"/>
+      <c r="CP90" s="25"/>
+      <c r="CQ90" s="25"/>
+      <c r="CR90" s="25"/>
+      <c r="CS90" s="25"/>
+      <c r="CT90" s="25"/>
+      <c r="CU90" s="25"/>
+      <c r="CV90" s="25"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -38211,25 +38375,27 @@
       <c r="CO91" s="17">
         <v>127.74638672365244</v>
       </c>
-      <c r="CP91" s="17">
+      <c r="CP91" s="33">
         <v>110.40925525770228</v>
       </c>
-      <c r="CQ91" s="17">
+      <c r="CQ91" s="33">
         <v>108.45257208229417</v>
       </c>
-      <c r="CR91" s="17">
+      <c r="CR91" s="33">
         <v>112.19212786213839</v>
       </c>
-      <c r="CS91" s="17">
+      <c r="CS91" s="33">
         <v>133.19710686592191</v>
       </c>
-      <c r="CT91" s="17">
+      <c r="CT91" s="33">
         <v>113.73770184161502</v>
       </c>
-      <c r="CU91" s="17">
-        <v>112.81363147899508</v>
-      </c>
-      <c r="CV91" s="10"/>
+      <c r="CU91" s="33">
+        <v>113.55761490605008</v>
+      </c>
+      <c r="CV91" s="33">
+        <v>117.48904877407954</v>
+      </c>
       <c r="CW91" s="10"/>
       <c r="CX91" s="10"/>
       <c r="CY91" s="10"/>
@@ -38566,25 +38732,27 @@
       <c r="CO92" s="17">
         <v>125.32538764820305</v>
       </c>
-      <c r="CP92" s="17">
+      <c r="CP92" s="33">
         <v>103.33665895224486</v>
       </c>
-      <c r="CQ92" s="17">
+      <c r="CQ92" s="33">
         <v>112.78167306011477</v>
       </c>
-      <c r="CR92" s="17">
+      <c r="CR92" s="33">
         <v>122.78577909425906</v>
       </c>
-      <c r="CS92" s="17">
+      <c r="CS92" s="33">
         <v>130.87142444744984</v>
       </c>
-      <c r="CT92" s="17">
+      <c r="CT92" s="33">
         <v>107.10682625358778</v>
       </c>
-      <c r="CU92" s="17">
-        <v>116.57587656595283</v>
-      </c>
-      <c r="CV92" s="10"/>
+      <c r="CU92" s="33">
+        <v>116.51141961649134</v>
+      </c>
+      <c r="CV92" s="33">
+        <v>126.29735383881273</v>
+      </c>
       <c r="CW92" s="10"/>
       <c r="CX92" s="10"/>
       <c r="CY92" s="10"/>
@@ -38921,25 +39089,27 @@
       <c r="CO93" s="17">
         <v>135.05782670478919</v>
       </c>
-      <c r="CP93" s="17">
+      <c r="CP93" s="33">
         <v>108.47430571110625</v>
       </c>
-      <c r="CQ93" s="17">
+      <c r="CQ93" s="33">
         <v>113.4134036993245</v>
       </c>
-      <c r="CR93" s="17">
+      <c r="CR93" s="33">
         <v>122.33419099296212</v>
       </c>
-      <c r="CS93" s="17">
+      <c r="CS93" s="33">
         <v>139.35955133110886</v>
       </c>
-      <c r="CT93" s="17">
+      <c r="CT93" s="33">
         <v>111.45958732425846</v>
       </c>
-      <c r="CU93" s="17">
-        <v>118.8590676440456</v>
-      </c>
-      <c r="CV93" s="10"/>
+      <c r="CU93" s="33">
+        <v>119.39297206484783</v>
+      </c>
+      <c r="CV93" s="33">
+        <v>128.55673390107521</v>
+      </c>
       <c r="CW93" s="10"/>
       <c r="CX93" s="10"/>
       <c r="CY93" s="10"/>
@@ -39089,13 +39259,13 @@
       <c r="CM94" s="12"/>
       <c r="CN94" s="12"/>
       <c r="CO94" s="12"/>
-      <c r="CP94" s="12"/>
-      <c r="CQ94" s="12"/>
-      <c r="CR94" s="12"/>
-      <c r="CS94" s="12"/>
-      <c r="CT94" s="12"/>
-      <c r="CU94" s="12"/>
-      <c r="CV94" s="10"/>
+      <c r="CP94" s="29"/>
+      <c r="CQ94" s="29"/>
+      <c r="CR94" s="29"/>
+      <c r="CS94" s="29"/>
+      <c r="CT94" s="29"/>
+      <c r="CU94" s="29"/>
+      <c r="CV94" s="29"/>
       <c r="CW94" s="10"/>
       <c r="CX94" s="10"/>
       <c r="CY94" s="10"/>
@@ -39432,25 +39602,27 @@
       <c r="CO95" s="17">
         <v>127.01100570813477</v>
       </c>
-      <c r="CP95" s="17">
+      <c r="CP95" s="33">
         <v>106.23480313895612</v>
       </c>
-      <c r="CQ95" s="17">
+      <c r="CQ95" s="33">
         <v>111.79476585054621</v>
       </c>
-      <c r="CR95" s="17">
+      <c r="CR95" s="33">
         <v>119.53550557299961</v>
       </c>
-      <c r="CS95" s="17">
+      <c r="CS95" s="33">
         <v>132.37970650028566</v>
       </c>
-      <c r="CT95" s="17">
+      <c r="CT95" s="33">
         <v>109.72064449467089</v>
       </c>
-      <c r="CU95" s="17">
-        <v>115.78725727684107</v>
-      </c>
-      <c r="CV95" s="10"/>
+      <c r="CU95" s="33">
+        <v>115.9307526282365</v>
+      </c>
+      <c r="CV95" s="33">
+        <v>123.68163085313653</v>
+      </c>
       <c r="CW95" s="10"/>
       <c r="CX95" s="10"/>
       <c r="CY95" s="10"/>
@@ -39601,12 +39773,13 @@
       <c r="CM96" s="15"/>
       <c r="CN96" s="15"/>
       <c r="CO96" s="15"/>
-      <c r="CP96" s="15"/>
-      <c r="CQ96" s="15"/>
-      <c r="CR96" s="15"/>
-      <c r="CS96" s="15"/>
-      <c r="CT96" s="15"/>
-      <c r="CU96" s="15"/>
+      <c r="CP96" s="31"/>
+      <c r="CQ96" s="31"/>
+      <c r="CR96" s="31"/>
+      <c r="CS96" s="31"/>
+      <c r="CT96" s="31"/>
+      <c r="CU96" s="31"/>
+      <c r="CV96" s="31"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39704,12 +39877,13 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
-      <c r="CR97" s="1"/>
-      <c r="CS97" s="1"/>
-      <c r="CT97" s="1"/>
-      <c r="CU97" s="1"/>
+      <c r="CP97" s="25"/>
+      <c r="CQ97" s="25"/>
+      <c r="CR97" s="25"/>
+      <c r="CS97" s="25"/>
+      <c r="CT97" s="25"/>
+      <c r="CU97" s="25"/>
+      <c r="CV97" s="25"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39804,12 +39978,13 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
-      <c r="CT98" s="1"/>
-      <c r="CU98" s="1"/>
+      <c r="CP98" s="25"/>
+      <c r="CQ98" s="25"/>
+      <c r="CR98" s="25"/>
+      <c r="CS98" s="25"/>
+      <c r="CT98" s="25"/>
+      <c r="CU98" s="25"/>
+      <c r="CV98" s="25"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -39904,12 +40079,13 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
-      <c r="CR99" s="1"/>
-      <c r="CS99" s="1"/>
-      <c r="CT99" s="1"/>
-      <c r="CU99" s="1"/>
+      <c r="CP99" s="25"/>
+      <c r="CQ99" s="25"/>
+      <c r="CR99" s="25"/>
+      <c r="CS99" s="25"/>
+      <c r="CT99" s="25"/>
+      <c r="CU99" s="25"/>
+      <c r="CV99" s="25"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -40007,12 +40183,13 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
-      <c r="CT100" s="1"/>
-      <c r="CU100" s="1"/>
+      <c r="CP100" s="25"/>
+      <c r="CQ100" s="25"/>
+      <c r="CR100" s="25"/>
+      <c r="CS100" s="25"/>
+      <c r="CT100" s="25"/>
+      <c r="CU100" s="25"/>
+      <c r="CV100" s="25"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -40110,12 +40287,13 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
-      <c r="CR101" s="1"/>
-      <c r="CS101" s="1"/>
-      <c r="CT101" s="1"/>
-      <c r="CU101" s="1"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="25"/>
+      <c r="CU101" s="25"/>
+      <c r="CV101" s="25"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -40213,12 +40391,13 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
-      <c r="CR102" s="1"/>
-      <c r="CS102" s="1"/>
-      <c r="CT102" s="1"/>
-      <c r="CU102" s="1"/>
+      <c r="CP102" s="25"/>
+      <c r="CQ102" s="25"/>
+      <c r="CR102" s="25"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="25"/>
+      <c r="CU102" s="25"/>
+      <c r="CV102" s="25"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40314,12 +40493,13 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
-      <c r="CP103" s="1"/>
-      <c r="CQ103" s="1"/>
-      <c r="CR103" s="1"/>
-      <c r="CS103" s="1"/>
-      <c r="CT103" s="1"/>
-      <c r="CU103" s="1"/>
+      <c r="CP103" s="25"/>
+      <c r="CQ103" s="25"/>
+      <c r="CR103" s="25"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="25"/>
+      <c r="CU103" s="25"/>
+      <c r="CV103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40417,12 +40597,13 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
-      <c r="CP104" s="1"/>
-      <c r="CQ104" s="1"/>
-      <c r="CR104" s="1"/>
-      <c r="CS104" s="1"/>
-      <c r="CT104" s="1"/>
-      <c r="CU104" s="1"/>
+      <c r="CP104" s="25"/>
+      <c r="CQ104" s="25"/>
+      <c r="CR104" s="25"/>
+      <c r="CS104" s="25"/>
+      <c r="CT104" s="25"/>
+      <c r="CU104" s="25"/>
+      <c r="CV104" s="25"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -40520,12 +40701,13 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
-      <c r="CR105" s="1"/>
-      <c r="CS105" s="1"/>
-      <c r="CT105" s="1"/>
-      <c r="CU105" s="1"/>
+      <c r="CP105" s="25"/>
+      <c r="CQ105" s="25"/>
+      <c r="CR105" s="25"/>
+      <c r="CS105" s="25"/>
+      <c r="CT105" s="25"/>
+      <c r="CU105" s="25"/>
+      <c r="CV105" s="25"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40623,12 +40805,13 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
-      <c r="CP106" s="1"/>
-      <c r="CQ106" s="1"/>
-      <c r="CR106" s="1"/>
-      <c r="CS106" s="1"/>
-      <c r="CT106" s="1"/>
-      <c r="CU106" s="1"/>
+      <c r="CP106" s="25"/>
+      <c r="CQ106" s="25"/>
+      <c r="CR106" s="25"/>
+      <c r="CS106" s="25"/>
+      <c r="CT106" s="25"/>
+      <c r="CU106" s="25"/>
+      <c r="CV106" s="25"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40724,141 +40907,142 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
-      <c r="CP107" s="1"/>
-      <c r="CQ107" s="1"/>
-      <c r="CR107" s="1"/>
-      <c r="CS107" s="1"/>
-      <c r="CT107" s="1"/>
-      <c r="CU107" s="1"/>
+      <c r="CP107" s="25"/>
+      <c r="CQ107" s="25"/>
+      <c r="CR107" s="25"/>
+      <c r="CS107" s="25"/>
+      <c r="CT107" s="25"/>
+      <c r="CU107" s="25"/>
+      <c r="CV107" s="25"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="24">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="24">
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="24">
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="24">
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="24">
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="25"/>
-      <c r="T108" s="25"/>
-      <c r="U108" s="25"/>
-      <c r="V108" s="24">
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="25"/>
-      <c r="X108" s="25"/>
-      <c r="Y108" s="25"/>
-      <c r="Z108" s="24">
+      <c r="W108" s="37"/>
+      <c r="X108" s="37"/>
+      <c r="Y108" s="37"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="25"/>
-      <c r="AB108" s="25"/>
-      <c r="AC108" s="25"/>
-      <c r="AD108" s="24">
+      <c r="AA108" s="37"/>
+      <c r="AB108" s="37"/>
+      <c r="AC108" s="37"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="25"/>
-      <c r="AF108" s="25"/>
-      <c r="AG108" s="25"/>
-      <c r="AH108" s="24">
+      <c r="AE108" s="37"/>
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="37"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="25"/>
-      <c r="AJ108" s="25"/>
-      <c r="AK108" s="25"/>
-      <c r="AL108" s="24">
+      <c r="AI108" s="37"/>
+      <c r="AJ108" s="37"/>
+      <c r="AK108" s="37"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="25"/>
-      <c r="AN108" s="25"/>
-      <c r="AO108" s="25"/>
-      <c r="AP108" s="24">
+      <c r="AM108" s="37"/>
+      <c r="AN108" s="37"/>
+      <c r="AO108" s="37"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="25"/>
-      <c r="AR108" s="25"/>
-      <c r="AS108" s="25"/>
-      <c r="AT108" s="24">
+      <c r="AQ108" s="37"/>
+      <c r="AR108" s="37"/>
+      <c r="AS108" s="37"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="25"/>
-      <c r="AV108" s="25"/>
-      <c r="AW108" s="25"/>
-      <c r="AX108" s="24">
+      <c r="AU108" s="37"/>
+      <c r="AV108" s="37"/>
+      <c r="AW108" s="37"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="25"/>
-      <c r="AZ108" s="25"/>
-      <c r="BA108" s="25"/>
-      <c r="BB108" s="24">
+      <c r="AY108" s="37"/>
+      <c r="AZ108" s="37"/>
+      <c r="BA108" s="37"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="25"/>
-      <c r="BD108" s="25"/>
-      <c r="BE108" s="25"/>
-      <c r="BF108" s="24">
+      <c r="BC108" s="37"/>
+      <c r="BD108" s="37"/>
+      <c r="BE108" s="37"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="25"/>
-      <c r="BH108" s="25"/>
-      <c r="BI108" s="25"/>
-      <c r="BJ108" s="24">
+      <c r="BG108" s="37"/>
+      <c r="BH108" s="37"/>
+      <c r="BI108" s="37"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="25"/>
-      <c r="BL108" s="25"/>
-      <c r="BM108" s="25"/>
-      <c r="BN108" s="24">
+      <c r="BK108" s="37"/>
+      <c r="BL108" s="37"/>
+      <c r="BM108" s="37"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="25"/>
-      <c r="BP108" s="25"/>
-      <c r="BQ108" s="25"/>
-      <c r="BR108" s="24">
+      <c r="BO108" s="37"/>
+      <c r="BP108" s="37"/>
+      <c r="BQ108" s="37"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="25"/>
-      <c r="BT108" s="25"/>
-      <c r="BU108" s="25"/>
-      <c r="BV108" s="24">
+      <c r="BS108" s="37"/>
+      <c r="BT108" s="37"/>
+      <c r="BU108" s="37"/>
+      <c r="BV108" s="36">
         <v>2018</v>
       </c>
-      <c r="BW108" s="25"/>
-      <c r="BX108" s="25"/>
-      <c r="BY108" s="25"/>
-      <c r="BZ108" s="24">
+      <c r="BW108" s="37"/>
+      <c r="BX108" s="37"/>
+      <c r="BY108" s="37"/>
+      <c r="BZ108" s="36">
         <v>2019</v>
       </c>
-      <c r="CA108" s="25"/>
-      <c r="CB108" s="25"/>
-      <c r="CC108" s="25"/>
-      <c r="CD108" s="24">
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="24"/>
-      <c r="CF108" s="24"/>
-      <c r="CG108" s="24"/>
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
       <c r="CH108" s="22">
         <v>2021</v>
       </c>
@@ -40871,16 +41055,17 @@
       <c r="CM108" s="22"/>
       <c r="CN108" s="22"/>
       <c r="CO108" s="22"/>
-      <c r="CP108" s="22">
+      <c r="CP108" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="22"/>
-      <c r="CR108" s="22"/>
-      <c r="CS108" s="22"/>
-      <c r="CT108" s="22">
+      <c r="CQ108" s="26"/>
+      <c r="CR108" s="26"/>
+      <c r="CS108" s="26"/>
+      <c r="CT108" s="26">
         <v>2024</v>
       </c>
-      <c r="CU108" s="22"/>
+      <c r="CU108" s="26"/>
+      <c r="CV108" s="26"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -41162,23 +41347,26 @@
       <c r="CO109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="7" t="s">
+      <c r="CR109" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS109" s="7" t="s">
+      <c r="CS109" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT109" s="7" t="s">
+      <c r="CT109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU109" s="7" t="s">
+      <c r="CU109" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CV109" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41275,12 +41463,13 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
-      <c r="CP110" s="1"/>
-      <c r="CQ110" s="1"/>
-      <c r="CR110" s="1"/>
-      <c r="CS110" s="1"/>
-      <c r="CT110" s="1"/>
-      <c r="CU110" s="1"/>
+      <c r="CP110" s="25"/>
+      <c r="CQ110" s="25"/>
+      <c r="CR110" s="25"/>
+      <c r="CS110" s="25"/>
+      <c r="CT110" s="25"/>
+      <c r="CU110" s="25"/>
+      <c r="CV110" s="25"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41562,25 +41751,27 @@
       <c r="CO111" s="17">
         <v>39.637232868433081</v>
       </c>
-      <c r="CP111" s="17">
+      <c r="CP111" s="33">
         <v>38.339284284396349</v>
       </c>
-      <c r="CQ111" s="17">
+      <c r="CQ111" s="33">
         <v>22.691471239448642</v>
       </c>
-      <c r="CR111" s="17">
+      <c r="CR111" s="33">
         <v>28.554108251655556</v>
       </c>
-      <c r="CS111" s="17">
+      <c r="CS111" s="33">
         <v>38.755123969308094</v>
       </c>
-      <c r="CT111" s="17">
+      <c r="CT111" s="33">
         <v>37.10610367832976</v>
       </c>
-      <c r="CU111" s="17">
-        <v>22.740948340999044</v>
-      </c>
-      <c r="CV111" s="10"/>
+      <c r="CU111" s="33">
+        <v>22.990652797088913</v>
+      </c>
+      <c r="CV111" s="33">
+        <v>29.649265282508193</v>
+      </c>
       <c r="CW111" s="10"/>
       <c r="CX111" s="10"/>
       <c r="CY111" s="10"/>
@@ -41917,25 +42108,27 @@
       <c r="CO112" s="17">
         <v>52.370206233776692</v>
       </c>
-      <c r="CP112" s="17">
+      <c r="CP112" s="33">
         <v>55.915334107474791</v>
       </c>
-      <c r="CQ112" s="17">
+      <c r="CQ112" s="33">
         <v>73.181073985894045</v>
       </c>
-      <c r="CR112" s="17">
+      <c r="CR112" s="33">
         <v>65.245688061314979</v>
       </c>
-      <c r="CS112" s="17">
+      <c r="CS112" s="33">
         <v>53.64854310466751</v>
       </c>
-      <c r="CT112" s="17">
+      <c r="CT112" s="33">
         <v>57.28673132149946</v>
       </c>
-      <c r="CU112" s="17">
-        <v>73.234983448678364</v>
-      </c>
-      <c r="CV112" s="10"/>
+      <c r="CU112" s="33">
+        <v>72.9841790155008</v>
+      </c>
+      <c r="CV112" s="33">
+        <v>64.207930168131043</v>
+      </c>
       <c r="CW112" s="10"/>
       <c r="CX112" s="10"/>
       <c r="CY112" s="10"/>
@@ -42272,25 +42465,27 @@
       <c r="CO113" s="17">
         <v>7.9925608977902183</v>
       </c>
-      <c r="CP113" s="17">
+      <c r="CP113" s="33">
         <v>5.7453816081288576</v>
       </c>
-      <c r="CQ113" s="17">
+      <c r="CQ113" s="33">
         <v>4.1274547746572914</v>
       </c>
-      <c r="CR113" s="17">
+      <c r="CR113" s="33">
         <v>6.2002036870294663</v>
       </c>
-      <c r="CS113" s="17">
+      <c r="CS113" s="33">
         <v>7.5963329260243979</v>
       </c>
-      <c r="CT113" s="17">
+      <c r="CT113" s="33">
         <v>5.6071650001707738</v>
       </c>
-      <c r="CU113" s="17">
-        <v>4.0240682103225831</v>
-      </c>
-      <c r="CV113" s="10"/>
+      <c r="CU113" s="33">
+        <v>4.0251681874102925</v>
+      </c>
+      <c r="CV113" s="33">
+        <v>6.1428045493607648</v>
+      </c>
       <c r="CW113" s="10"/>
       <c r="CX113" s="10"/>
       <c r="CY113" s="10"/>
@@ -42440,13 +42635,13 @@
       <c r="CM114" s="12"/>
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
-      <c r="CP114" s="12"/>
-      <c r="CQ114" s="12"/>
-      <c r="CR114" s="12"/>
-      <c r="CS114" s="12"/>
-      <c r="CT114" s="12"/>
-      <c r="CU114" s="12"/>
-      <c r="CV114" s="10"/>
+      <c r="CP114" s="29"/>
+      <c r="CQ114" s="29"/>
+      <c r="CR114" s="29"/>
+      <c r="CS114" s="29"/>
+      <c r="CT114" s="29"/>
+      <c r="CU114" s="29"/>
+      <c r="CV114" s="29"/>
       <c r="CW114" s="10"/>
       <c r="CX114" s="10"/>
       <c r="CY114" s="10"/>
@@ -42783,25 +42978,27 @@
       <c r="CO115" s="17">
         <v>100</v>
       </c>
-      <c r="CP115" s="17">
+      <c r="CP115" s="33">
         <v>100</v>
       </c>
-      <c r="CQ115" s="17">
+      <c r="CQ115" s="33">
         <v>100</v>
       </c>
-      <c r="CR115" s="17">
+      <c r="CR115" s="33">
         <v>100</v>
       </c>
-      <c r="CS115" s="17">
+      <c r="CS115" s="33">
         <v>100</v>
       </c>
-      <c r="CT115" s="17">
+      <c r="CT115" s="33">
         <v>100</v>
       </c>
-      <c r="CU115" s="17">
+      <c r="CU115" s="33">
         <v>100</v>
       </c>
-      <c r="CV115" s="10"/>
+      <c r="CV115" s="33">
+        <v>100</v>
+      </c>
       <c r="CW115" s="10"/>
       <c r="CX115" s="10"/>
       <c r="CY115" s="10"/>
@@ -42952,12 +43149,13 @@
       <c r="CM116" s="15"/>
       <c r="CN116" s="15"/>
       <c r="CO116" s="15"/>
-      <c r="CP116" s="15"/>
-      <c r="CQ116" s="15"/>
-      <c r="CR116" s="15"/>
-      <c r="CS116" s="15"/>
-      <c r="CT116" s="15"/>
-      <c r="CU116" s="15"/>
+      <c r="CP116" s="31"/>
+      <c r="CQ116" s="31"/>
+      <c r="CR116" s="31"/>
+      <c r="CS116" s="31"/>
+      <c r="CT116" s="31"/>
+      <c r="CU116" s="31"/>
+      <c r="CV116" s="31"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -43055,12 +43253,13 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
-      <c r="CT117" s="1"/>
-      <c r="CU117" s="1"/>
+      <c r="CP117" s="25"/>
+      <c r="CQ117" s="25"/>
+      <c r="CR117" s="25"/>
+      <c r="CS117" s="25"/>
+      <c r="CT117" s="25"/>
+      <c r="CU117" s="25"/>
+      <c r="CV117" s="25"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -43155,13 +43354,13 @@
       <c r="CM118" s="12"/>
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
-      <c r="CP118" s="12"/>
-      <c r="CQ118" s="12"/>
-      <c r="CR118" s="12"/>
-      <c r="CS118" s="12"/>
-      <c r="CT118" s="12"/>
-      <c r="CU118" s="12"/>
-      <c r="CV118" s="10"/>
+      <c r="CP118" s="29"/>
+      <c r="CQ118" s="29"/>
+      <c r="CR118" s="29"/>
+      <c r="CS118" s="29"/>
+      <c r="CT118" s="29"/>
+      <c r="CU118" s="29"/>
+      <c r="CV118" s="29"/>
       <c r="CW118" s="10"/>
       <c r="CX118" s="10"/>
       <c r="CY118" s="10"/>
@@ -43311,13 +43510,13 @@
       <c r="CM119" s="12"/>
       <c r="CN119" s="12"/>
       <c r="CO119" s="12"/>
-      <c r="CP119" s="12"/>
-      <c r="CQ119" s="12"/>
-      <c r="CR119" s="12"/>
-      <c r="CS119" s="12"/>
-      <c r="CT119" s="12"/>
-      <c r="CU119" s="12"/>
-      <c r="CV119" s="10"/>
+      <c r="CP119" s="29"/>
+      <c r="CQ119" s="29"/>
+      <c r="CR119" s="29"/>
+      <c r="CS119" s="29"/>
+      <c r="CT119" s="29"/>
+      <c r="CU119" s="29"/>
+      <c r="CV119" s="29"/>
       <c r="CW119" s="10"/>
       <c r="CX119" s="10"/>
       <c r="CY119" s="10"/>
@@ -43470,12 +43669,13 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
-      <c r="CR120" s="1"/>
-      <c r="CS120" s="1"/>
-      <c r="CT120" s="1"/>
-      <c r="CU120" s="1"/>
+      <c r="CP120" s="25"/>
+      <c r="CQ120" s="25"/>
+      <c r="CR120" s="25"/>
+      <c r="CS120" s="25"/>
+      <c r="CT120" s="25"/>
+      <c r="CU120" s="25"/>
+      <c r="CV120" s="25"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43573,12 +43773,13 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
-      <c r="CR121" s="1"/>
-      <c r="CS121" s="1"/>
-      <c r="CT121" s="1"/>
-      <c r="CU121" s="1"/>
+      <c r="CP121" s="25"/>
+      <c r="CQ121" s="25"/>
+      <c r="CR121" s="25"/>
+      <c r="CS121" s="25"/>
+      <c r="CT121" s="25"/>
+      <c r="CU121" s="25"/>
+      <c r="CV121" s="25"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -43676,12 +43877,13 @@
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
-      <c r="CP122" s="1"/>
-      <c r="CQ122" s="1"/>
-      <c r="CR122" s="1"/>
-      <c r="CS122" s="1"/>
-      <c r="CT122" s="1"/>
-      <c r="CU122" s="1"/>
+      <c r="CP122" s="25"/>
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25"/>
+      <c r="CU122" s="25"/>
+      <c r="CV122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43777,12 +43979,13 @@
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
-      <c r="CP123" s="1"/>
-      <c r="CQ123" s="1"/>
-      <c r="CR123" s="1"/>
-      <c r="CS123" s="1"/>
-      <c r="CT123" s="1"/>
-      <c r="CU123" s="1"/>
+      <c r="CP123" s="25"/>
+      <c r="CQ123" s="25"/>
+      <c r="CR123" s="25"/>
+      <c r="CS123" s="25"/>
+      <c r="CT123" s="25"/>
+      <c r="CU123" s="25"/>
+      <c r="CV123" s="25"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -43880,12 +44083,13 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
-      <c r="CR124" s="1"/>
-      <c r="CS124" s="1"/>
-      <c r="CT124" s="1"/>
-      <c r="CU124" s="1"/>
+      <c r="CP124" s="25"/>
+      <c r="CQ124" s="25"/>
+      <c r="CR124" s="25"/>
+      <c r="CS124" s="25"/>
+      <c r="CT124" s="25"/>
+      <c r="CU124" s="25"/>
+      <c r="CV124" s="25"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -43983,12 +44187,13 @@
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
-      <c r="CP125" s="1"/>
-      <c r="CQ125" s="1"/>
-      <c r="CR125" s="1"/>
-      <c r="CS125" s="1"/>
-      <c r="CT125" s="1"/>
-      <c r="CU125" s="1"/>
+      <c r="CP125" s="25"/>
+      <c r="CQ125" s="25"/>
+      <c r="CR125" s="25"/>
+      <c r="CS125" s="25"/>
+      <c r="CT125" s="25"/>
+      <c r="CU125" s="25"/>
+      <c r="CV125" s="25"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -44086,12 +44291,13 @@
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
-      <c r="CP126" s="1"/>
-      <c r="CQ126" s="1"/>
-      <c r="CR126" s="1"/>
-      <c r="CS126" s="1"/>
-      <c r="CT126" s="1"/>
-      <c r="CU126" s="1"/>
+      <c r="CP126" s="25"/>
+      <c r="CQ126" s="25"/>
+      <c r="CR126" s="25"/>
+      <c r="CS126" s="25"/>
+      <c r="CT126" s="25"/>
+      <c r="CU126" s="25"/>
+      <c r="CV126" s="25"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -44187,141 +44393,142 @@
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
-      <c r="CP127" s="1"/>
-      <c r="CQ127" s="1"/>
-      <c r="CR127" s="1"/>
-      <c r="CS127" s="1"/>
-      <c r="CT127" s="1"/>
-      <c r="CU127" s="1"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
+      <c r="CU127" s="25"/>
+      <c r="CV127" s="25"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="24">
+      <c r="B128" s="36">
         <v>2000</v>
       </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="24">
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="36">
         <v>2001</v>
       </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="24">
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="36">
         <v>2002</v>
       </c>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="24">
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="36">
         <v>2003</v>
       </c>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="24">
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="36">
         <v>2004</v>
       </c>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="24">
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="36">
         <v>2005</v>
       </c>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="24">
+      <c r="W128" s="37"/>
+      <c r="X128" s="37"/>
+      <c r="Y128" s="37"/>
+      <c r="Z128" s="36">
         <v>2006</v>
       </c>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="25"/>
-      <c r="AD128" s="24">
+      <c r="AA128" s="37"/>
+      <c r="AB128" s="37"/>
+      <c r="AC128" s="37"/>
+      <c r="AD128" s="36">
         <v>2007</v>
       </c>
-      <c r="AE128" s="25"/>
-      <c r="AF128" s="25"/>
-      <c r="AG128" s="25"/>
-      <c r="AH128" s="24">
+      <c r="AE128" s="37"/>
+      <c r="AF128" s="37"/>
+      <c r="AG128" s="37"/>
+      <c r="AH128" s="36">
         <v>2008</v>
       </c>
-      <c r="AI128" s="25"/>
-      <c r="AJ128" s="25"/>
-      <c r="AK128" s="25"/>
-      <c r="AL128" s="24">
+      <c r="AI128" s="37"/>
+      <c r="AJ128" s="37"/>
+      <c r="AK128" s="37"/>
+      <c r="AL128" s="36">
         <v>2009</v>
       </c>
-      <c r="AM128" s="25"/>
-      <c r="AN128" s="25"/>
-      <c r="AO128" s="25"/>
-      <c r="AP128" s="24">
+      <c r="AM128" s="37"/>
+      <c r="AN128" s="37"/>
+      <c r="AO128" s="37"/>
+      <c r="AP128" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="25"/>
-      <c r="AR128" s="25"/>
-      <c r="AS128" s="25"/>
-      <c r="AT128" s="24">
+      <c r="AQ128" s="37"/>
+      <c r="AR128" s="37"/>
+      <c r="AS128" s="37"/>
+      <c r="AT128" s="36">
         <v>2011</v>
       </c>
-      <c r="AU128" s="25"/>
-      <c r="AV128" s="25"/>
-      <c r="AW128" s="25"/>
-      <c r="AX128" s="24">
+      <c r="AU128" s="37"/>
+      <c r="AV128" s="37"/>
+      <c r="AW128" s="37"/>
+      <c r="AX128" s="36">
         <v>2012</v>
       </c>
-      <c r="AY128" s="25"/>
-      <c r="AZ128" s="25"/>
-      <c r="BA128" s="25"/>
-      <c r="BB128" s="24">
+      <c r="AY128" s="37"/>
+      <c r="AZ128" s="37"/>
+      <c r="BA128" s="37"/>
+      <c r="BB128" s="36">
         <v>2013</v>
       </c>
-      <c r="BC128" s="25"/>
-      <c r="BD128" s="25"/>
-      <c r="BE128" s="25"/>
-      <c r="BF128" s="24">
+      <c r="BC128" s="37"/>
+      <c r="BD128" s="37"/>
+      <c r="BE128" s="37"/>
+      <c r="BF128" s="36">
         <v>2014</v>
       </c>
-      <c r="BG128" s="25"/>
-      <c r="BH128" s="25"/>
-      <c r="BI128" s="25"/>
-      <c r="BJ128" s="24">
+      <c r="BG128" s="37"/>
+      <c r="BH128" s="37"/>
+      <c r="BI128" s="37"/>
+      <c r="BJ128" s="36">
         <v>2015</v>
       </c>
-      <c r="BK128" s="25"/>
-      <c r="BL128" s="25"/>
-      <c r="BM128" s="25"/>
-      <c r="BN128" s="24">
+      <c r="BK128" s="37"/>
+      <c r="BL128" s="37"/>
+      <c r="BM128" s="37"/>
+      <c r="BN128" s="36">
         <v>2016</v>
       </c>
-      <c r="BO128" s="25"/>
-      <c r="BP128" s="25"/>
-      <c r="BQ128" s="25"/>
-      <c r="BR128" s="24">
+      <c r="BO128" s="37"/>
+      <c r="BP128" s="37"/>
+      <c r="BQ128" s="37"/>
+      <c r="BR128" s="36">
         <v>2017</v>
       </c>
-      <c r="BS128" s="25"/>
-      <c r="BT128" s="25"/>
-      <c r="BU128" s="25"/>
-      <c r="BV128" s="24">
+      <c r="BS128" s="37"/>
+      <c r="BT128" s="37"/>
+      <c r="BU128" s="37"/>
+      <c r="BV128" s="36">
         <v>2018</v>
       </c>
-      <c r="BW128" s="25"/>
-      <c r="BX128" s="25"/>
-      <c r="BY128" s="25"/>
-      <c r="BZ128" s="24">
+      <c r="BW128" s="37"/>
+      <c r="BX128" s="37"/>
+      <c r="BY128" s="37"/>
+      <c r="BZ128" s="36">
         <v>2019</v>
       </c>
-      <c r="CA128" s="25"/>
-      <c r="CB128" s="25"/>
-      <c r="CC128" s="25"/>
-      <c r="CD128" s="24">
+      <c r="CA128" s="37"/>
+      <c r="CB128" s="37"/>
+      <c r="CC128" s="37"/>
+      <c r="CD128" s="36">
         <v>2020</v>
       </c>
-      <c r="CE128" s="24"/>
-      <c r="CF128" s="24"/>
-      <c r="CG128" s="24"/>
+      <c r="CE128" s="36"/>
+      <c r="CF128" s="36"/>
+      <c r="CG128" s="36"/>
       <c r="CH128" s="22">
         <v>2021</v>
       </c>
@@ -44334,16 +44541,17 @@
       <c r="CM128" s="22"/>
       <c r="CN128" s="22"/>
       <c r="CO128" s="22"/>
-      <c r="CP128" s="22">
+      <c r="CP128" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="22"/>
-      <c r="CR128" s="22"/>
-      <c r="CS128" s="22"/>
-      <c r="CT128" s="22">
+      <c r="CQ128" s="26"/>
+      <c r="CR128" s="26"/>
+      <c r="CS128" s="26"/>
+      <c r="CT128" s="26">
         <v>2024</v>
       </c>
-      <c r="CU128" s="22"/>
+      <c r="CU128" s="26"/>
+      <c r="CV128" s="26"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44625,23 +44833,26 @@
       <c r="CO129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP129" s="7" t="s">
+      <c r="CP129" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ129" s="7" t="s">
+      <c r="CQ129" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR129" s="7" t="s">
+      <c r="CR129" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS129" s="7" t="s">
+      <c r="CS129" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT129" s="7" t="s">
+      <c r="CT129" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU129" s="7" t="s">
+      <c r="CU129" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CV129" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44738,12 +44949,13 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
-      <c r="CR130" s="1"/>
-      <c r="CS130" s="1"/>
-      <c r="CT130" s="1"/>
-      <c r="CU130" s="1"/>
+      <c r="CP130" s="25"/>
+      <c r="CQ130" s="25"/>
+      <c r="CR130" s="25"/>
+      <c r="CS130" s="25"/>
+      <c r="CT130" s="25"/>
+      <c r="CU130" s="25"/>
+      <c r="CV130" s="25"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -45025,25 +45237,27 @@
       <c r="CO131" s="17">
         <v>39.409058363410452</v>
       </c>
-      <c r="CP131" s="17">
+      <c r="CP131" s="33">
         <v>36.889718248119287</v>
       </c>
-      <c r="CQ131" s="17">
+      <c r="CQ131" s="33">
         <v>23.390756579693118</v>
       </c>
-      <c r="CR131" s="17">
+      <c r="CR131" s="33">
         <v>30.423077189889657</v>
       </c>
-      <c r="CS131" s="17">
+      <c r="CS131" s="33">
         <v>38.517292583565776</v>
       </c>
-      <c r="CT131" s="17">
+      <c r="CT131" s="33">
         <v>35.795567734803534</v>
       </c>
-      <c r="CU131" s="17">
-        <v>23.340371210095039</v>
-      </c>
-      <c r="CV131" s="10"/>
+      <c r="CU131" s="33">
+        <v>23.471113622684818</v>
+      </c>
+      <c r="CV131" s="33">
+        <v>31.212011008696877</v>
+      </c>
       <c r="CW131" s="10"/>
       <c r="CX131" s="10"/>
       <c r="CY131" s="10"/>
@@ -45380,25 +45594,27 @@
       <c r="CO132" s="17">
         <v>53.074581995835381</v>
       </c>
-      <c r="CP132" s="17">
+      <c r="CP132" s="33">
         <v>57.483516223431188</v>
       </c>
-      <c r="CQ132" s="17">
+      <c r="CQ132" s="33">
         <v>72.54069574392426</v>
       </c>
-      <c r="CR132" s="17">
+      <c r="CR132" s="33">
         <v>63.518563520945783</v>
       </c>
-      <c r="CS132" s="17">
+      <c r="CS132" s="33">
         <v>54.266838007983495</v>
       </c>
-      <c r="CT132" s="17">
+      <c r="CT132" s="33">
         <v>58.684747755537416</v>
       </c>
-      <c r="CU132" s="17">
-        <v>72.739559161195231</v>
-      </c>
-      <c r="CV132" s="10"/>
+      <c r="CU132" s="33">
+        <v>72.620442108348868</v>
+      </c>
+      <c r="CV132" s="33">
+        <v>62.878130661659839</v>
+      </c>
       <c r="CW132" s="10"/>
       <c r="CX132" s="10"/>
       <c r="CY132" s="10"/>
@@ -45735,25 +45951,27 @@
       <c r="CO133" s="17">
         <v>7.5163596407541693</v>
       </c>
-      <c r="CP133" s="17">
+      <c r="CP133" s="33">
         <v>5.6267655284495266</v>
       </c>
-      <c r="CQ133" s="17">
+      <c r="CQ133" s="33">
         <v>4.0685476763826198</v>
       </c>
-      <c r="CR133" s="17">
+      <c r="CR133" s="33">
         <v>6.0583592891645592</v>
       </c>
-      <c r="CS133" s="17">
+      <c r="CS133" s="33">
         <v>7.2158694084507191</v>
       </c>
-      <c r="CT133" s="17">
+      <c r="CT133" s="33">
         <v>5.5196845096590419</v>
       </c>
-      <c r="CU133" s="17">
-        <v>3.9200696287097285</v>
-      </c>
-      <c r="CV133" s="10"/>
+      <c r="CU133" s="33">
+        <v>3.9084442689663144</v>
+      </c>
+      <c r="CV133" s="33">
+        <v>5.9098583296432947</v>
+      </c>
       <c r="CW133" s="10"/>
       <c r="CX133" s="10"/>
       <c r="CY133" s="10"/>
@@ -45903,13 +46121,13 @@
       <c r="CM134" s="12"/>
       <c r="CN134" s="12"/>
       <c r="CO134" s="12"/>
-      <c r="CP134" s="12"/>
-      <c r="CQ134" s="12"/>
-      <c r="CR134" s="12"/>
-      <c r="CS134" s="12"/>
-      <c r="CT134" s="12"/>
-      <c r="CU134" s="12"/>
-      <c r="CV134" s="10"/>
+      <c r="CP134" s="29"/>
+      <c r="CQ134" s="29"/>
+      <c r="CR134" s="29"/>
+      <c r="CS134" s="29"/>
+      <c r="CT134" s="29"/>
+      <c r="CU134" s="29"/>
+      <c r="CV134" s="29"/>
       <c r="CW134" s="10"/>
       <c r="CX134" s="10"/>
       <c r="CY134" s="10"/>
@@ -46246,25 +46464,27 @@
       <c r="CO135" s="17">
         <v>100</v>
       </c>
-      <c r="CP135" s="17">
+      <c r="CP135" s="33">
         <v>100</v>
       </c>
-      <c r="CQ135" s="17">
+      <c r="CQ135" s="33">
         <v>100</v>
       </c>
-      <c r="CR135" s="17">
+      <c r="CR135" s="33">
         <v>100</v>
       </c>
-      <c r="CS135" s="17">
+      <c r="CS135" s="33">
         <v>100</v>
       </c>
-      <c r="CT135" s="17">
+      <c r="CT135" s="33">
         <v>100</v>
       </c>
-      <c r="CU135" s="17">
+      <c r="CU135" s="33">
         <v>100</v>
       </c>
-      <c r="CV135" s="10"/>
+      <c r="CV135" s="33">
+        <v>100</v>
+      </c>
       <c r="CW135" s="10"/>
       <c r="CX135" s="10"/>
       <c r="CY135" s="10"/>
@@ -46415,12 +46635,13 @@
       <c r="CM136" s="15"/>
       <c r="CN136" s="15"/>
       <c r="CO136" s="15"/>
-      <c r="CP136" s="15"/>
-      <c r="CQ136" s="15"/>
-      <c r="CR136" s="15"/>
-      <c r="CS136" s="15"/>
-      <c r="CT136" s="15"/>
-      <c r="CU136" s="15"/>
+      <c r="CP136" s="31"/>
+      <c r="CQ136" s="31"/>
+      <c r="CR136" s="31"/>
+      <c r="CS136" s="31"/>
+      <c r="CT136" s="31"/>
+      <c r="CU136" s="31"/>
+      <c r="CV136" s="31"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46518,12 +46739,13 @@
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
-      <c r="CP137" s="1"/>
-      <c r="CQ137" s="1"/>
-      <c r="CR137" s="1"/>
-      <c r="CS137" s="1"/>
-      <c r="CT137" s="1"/>
-      <c r="CU137" s="1"/>
+      <c r="CP137" s="25"/>
+      <c r="CQ137" s="25"/>
+      <c r="CR137" s="25"/>
+      <c r="CS137" s="25"/>
+      <c r="CT137" s="25"/>
+      <c r="CU137" s="25"/>
+      <c r="CV137" s="25"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -46619,13 +46841,13 @@
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
-      <c r="CP138" s="11"/>
-      <c r="CQ138" s="11"/>
-      <c r="CR138" s="11"/>
-      <c r="CS138" s="11"/>
-      <c r="CT138" s="11"/>
-      <c r="CU138" s="11"/>
-      <c r="CV138" s="19"/>
+      <c r="CP138" s="35"/>
+      <c r="CQ138" s="35"/>
+      <c r="CR138" s="35"/>
+      <c r="CS138" s="35"/>
+      <c r="CT138" s="35"/>
+      <c r="CU138" s="35"/>
+      <c r="CV138" s="35"/>
       <c r="CW138" s="19"/>
       <c r="CX138" s="19"/>
       <c r="CY138" s="19"/>
@@ -46776,13 +46998,13 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
-      <c r="CS139" s="11"/>
-      <c r="CT139" s="11"/>
-      <c r="CU139" s="11"/>
-      <c r="CV139" s="19"/>
+      <c r="CP139" s="35"/>
+      <c r="CQ139" s="35"/>
+      <c r="CR139" s="35"/>
+      <c r="CS139" s="35"/>
+      <c r="CT139" s="35"/>
+      <c r="CU139" s="35"/>
+      <c r="CV139" s="35"/>
       <c r="CW139" s="19"/>
       <c r="CX139" s="19"/>
       <c r="CY139" s="19"/>
@@ -46994,9 +47216,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="97" man="1"/>
-    <brk id="80" max="97" man="1"/>
-    <brk id="99" max="97" man="1"/>
+    <brk id="40" max="99" man="1"/>
+    <brk id="80" max="99" man="1"/>
+    <brk id="99" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63248BC-548C-4690-9265-E05D20085459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AE5578-1407-4373-9131-DF4247B53E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CV$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CW$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -786,6 +786,15 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23644,15 +23653,15 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="96" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="35" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="101" width="10.109375" style="35" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23666,6 +23675,7 @@
       <c r="CT1" s="24"/>
       <c r="CU1" s="24"/>
       <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23678,10 +23688,11 @@
       <c r="CT2" s="24"/>
       <c r="CU2" s="24"/>
       <c r="CV2" s="24"/>
+      <c r="CW2" s="24"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CP3" s="24"/>
       <c r="CQ3" s="24"/>
@@ -23690,6 +23701,7 @@
       <c r="CT3" s="24"/>
       <c r="CU3" s="24"/>
       <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -23700,6 +23712,7 @@
       <c r="CT4" s="24"/>
       <c r="CU4" s="24"/>
       <c r="CV4" s="24"/>
+      <c r="CW4" s="24"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -23712,10 +23725,11 @@
       <c r="CT5" s="24"/>
       <c r="CU5" s="24"/>
       <c r="CV5" s="24"/>
+      <c r="CW5" s="24"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CP6" s="24"/>
       <c r="CQ6" s="24"/>
@@ -23724,6 +23738,7 @@
       <c r="CT6" s="24"/>
       <c r="CU6" s="24"/>
       <c r="CV6" s="24"/>
+      <c r="CW6" s="24"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23736,6 +23751,7 @@
       <c r="CT7" s="24"/>
       <c r="CU7" s="24"/>
       <c r="CV7" s="24"/>
+      <c r="CW7" s="24"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23838,135 +23854,136 @@
       <c r="CT8" s="25"/>
       <c r="CU8" s="25"/>
       <c r="CV8" s="25"/>
+      <c r="CW8" s="25"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="36">
+      <c r="B9" s="39">
         <v>2000</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
         <v>2001</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
         <v>2002</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>2003</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>2004</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
         <v>2005</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36">
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39">
         <v>2006</v>
       </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39">
         <v>2007</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39">
         <v>2008</v>
       </c>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39">
         <v>2009</v>
       </c>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36">
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36">
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39">
         <v>2011</v>
       </c>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39">
         <v>2012</v>
       </c>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36">
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39">
         <v>2013</v>
       </c>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36">
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39">
         <v>2014</v>
       </c>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36">
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39">
         <v>2015</v>
       </c>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36">
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39">
         <v>2016</v>
       </c>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36">
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -23990,6 +24007,7 @@
       </c>
       <c r="CU9" s="26"/>
       <c r="CV9" s="26"/>
+      <c r="CW9" s="26"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24291,6 +24309,9 @@
       </c>
       <c r="CV10" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24394,6 +24415,7 @@
       <c r="CT11" s="25"/>
       <c r="CU11" s="25"/>
       <c r="CV11" s="25"/>
+      <c r="CW11" s="25"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24696,7 +24718,9 @@
       <c r="CV12" s="28">
         <v>39806.321890114057</v>
       </c>
-      <c r="CW12" s="10"/>
+      <c r="CW12" s="28">
+        <v>62730.006165095525</v>
+      </c>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
@@ -25051,9 +25075,11 @@
         <v>84777.211117740953</v>
       </c>
       <c r="CV13" s="28">
-        <v>86203.874255138842</v>
-      </c>
-      <c r="CW13" s="10"/>
+        <v>87183.316296218109</v>
+      </c>
+      <c r="CW13" s="28">
+        <v>84284.455110680021</v>
+      </c>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
@@ -25410,7 +25436,9 @@
       <c r="CV14" s="28">
         <v>8247.1674380467539</v>
       </c>
-      <c r="CW14" s="10"/>
+      <c r="CW14" s="28">
+        <v>11731.621236645995</v>
+      </c>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
@@ -25566,7 +25594,7 @@
       <c r="CT15" s="29"/>
       <c r="CU15" s="29"/>
       <c r="CV15" s="29"/>
-      <c r="CW15" s="10"/>
+      <c r="CW15" s="29"/>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
@@ -25921,9 +25949,11 @@
         <v>116158.34042571814</v>
       </c>
       <c r="CV16" s="30">
-        <v>134257.36358329965</v>
-      </c>
-      <c r="CW16" s="10"/>
+        <v>135236.8056243789</v>
+      </c>
+      <c r="CW16" s="30">
+        <v>158746.08251242153</v>
+      </c>
       <c r="CX16" s="10"/>
       <c r="CY16" s="10"/>
       <c r="CZ16" s="10"/>
@@ -26080,6 +26110,7 @@
       <c r="CT17" s="31"/>
       <c r="CU17" s="31"/>
       <c r="CV17" s="31"/>
+      <c r="CW17" s="31"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26184,6 +26215,7 @@
       <c r="CT18" s="25"/>
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
+      <c r="CW18" s="25"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26285,7 +26317,7 @@
       <c r="CT19" s="29"/>
       <c r="CU19" s="29"/>
       <c r="CV19" s="29"/>
-      <c r="CW19" s="10"/>
+      <c r="CW19" s="29"/>
       <c r="CX19" s="10"/>
       <c r="CY19" s="10"/>
       <c r="CZ19" s="10"/>
@@ -26441,7 +26473,7 @@
       <c r="CT20" s="29"/>
       <c r="CU20" s="29"/>
       <c r="CV20" s="29"/>
-      <c r="CW20" s="10"/>
+      <c r="CW20" s="29"/>
       <c r="CX20" s="10"/>
       <c r="CY20" s="10"/>
       <c r="CZ20" s="10"/>
@@ -26600,6 +26632,7 @@
       <c r="CT21" s="25"/>
       <c r="CU21" s="25"/>
       <c r="CV21" s="25"/>
+      <c r="CW21" s="25"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26704,10 +26737,11 @@
       <c r="CT22" s="25"/>
       <c r="CU22" s="25"/>
       <c r="CV22" s="25"/>
+      <c r="CW22" s="25"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26808,6 +26842,7 @@
       <c r="CT23" s="25"/>
       <c r="CU23" s="25"/>
       <c r="CV23" s="25"/>
+      <c r="CW23" s="25"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26910,6 +26945,7 @@
       <c r="CT24" s="25"/>
       <c r="CU24" s="25"/>
       <c r="CV24" s="25"/>
+      <c r="CW24" s="25"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -27014,10 +27050,11 @@
       <c r="CT25" s="25"/>
       <c r="CU25" s="25"/>
       <c r="CV25" s="25"/>
+      <c r="CW25" s="25"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -27118,6 +27155,7 @@
       <c r="CT26" s="25"/>
       <c r="CU26" s="25"/>
       <c r="CV26" s="25"/>
+      <c r="CW26" s="25"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27222,6 +27260,7 @@
       <c r="CT27" s="25"/>
       <c r="CU27" s="25"/>
       <c r="CV27" s="25"/>
+      <c r="CW27" s="25"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27324,135 +27363,136 @@
       <c r="CT28" s="25"/>
       <c r="CU28" s="25"/>
       <c r="CV28" s="25"/>
+      <c r="CW28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="36">
+      <c r="B29" s="39">
         <v>2000</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39">
         <v>2001</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36">
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39">
         <v>2002</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36">
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="39">
         <v>2003</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="36">
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="39">
         <v>2004</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="36">
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="39">
         <v>2005</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="36">
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="39">
         <v>2006</v>
       </c>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="36">
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="39">
         <v>2007</v>
       </c>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="36">
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="39">
         <v>2008</v>
       </c>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="36">
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="39">
         <v>2009</v>
       </c>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="36">
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="36">
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="39">
         <v>2011</v>
       </c>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="36">
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="40"/>
+      <c r="AX29" s="39">
         <v>2012</v>
       </c>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="36">
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="39">
         <v>2013</v>
       </c>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="36">
+      <c r="BC29" s="40"/>
+      <c r="BD29" s="40"/>
+      <c r="BE29" s="40"/>
+      <c r="BF29" s="39">
         <v>2014</v>
       </c>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="36">
+      <c r="BG29" s="40"/>
+      <c r="BH29" s="40"/>
+      <c r="BI29" s="40"/>
+      <c r="BJ29" s="39">
         <v>2015</v>
       </c>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="36">
+      <c r="BK29" s="40"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="40"/>
+      <c r="BN29" s="39">
         <v>2016</v>
       </c>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="36">
+      <c r="BO29" s="40"/>
+      <c r="BP29" s="40"/>
+      <c r="BQ29" s="40"/>
+      <c r="BR29" s="39">
         <v>2017</v>
       </c>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="36">
+      <c r="BS29" s="40"/>
+      <c r="BT29" s="40"/>
+      <c r="BU29" s="40"/>
+      <c r="BV29" s="39">
         <v>2018</v>
       </c>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="36">
+      <c r="BW29" s="40"/>
+      <c r="BX29" s="40"/>
+      <c r="BY29" s="40"/>
+      <c r="BZ29" s="39">
         <v>2019</v>
       </c>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="36">
+      <c r="CA29" s="40"/>
+      <c r="CB29" s="40"/>
+      <c r="CC29" s="40"/>
+      <c r="CD29" s="39">
         <v>2020</v>
       </c>
-      <c r="CE29" s="36"/>
-      <c r="CF29" s="36"/>
-      <c r="CG29" s="36"/>
+      <c r="CE29" s="39"/>
+      <c r="CF29" s="39"/>
+      <c r="CG29" s="39"/>
       <c r="CH29" s="22">
         <v>2021</v>
       </c>
@@ -27476,6 +27516,7 @@
       </c>
       <c r="CU29" s="26"/>
       <c r="CV29" s="26"/>
+      <c r="CW29" s="26"/>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27777,6 +27818,9 @@
       </c>
       <c r="CV30" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="CW30" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27880,6 +27924,7 @@
       <c r="CT31" s="25"/>
       <c r="CU31" s="25"/>
       <c r="CV31" s="25"/>
+      <c r="CW31" s="25"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -28182,7 +28227,9 @@
       <c r="CV32" s="28">
         <v>33880.87852056569</v>
       </c>
-      <c r="CW32" s="10"/>
+      <c r="CW32" s="28">
+        <v>45437.240238877945</v>
+      </c>
       <c r="CX32" s="10"/>
       <c r="CY32" s="10"/>
       <c r="CZ32" s="10"/>
@@ -28537,9 +28584,11 @@
         <v>72763.005889717402</v>
       </c>
       <c r="CV33" s="28">
-        <v>68254.69547458351</v>
-      </c>
-      <c r="CW33" s="10"/>
+        <v>69030.20027441431</v>
+      </c>
+      <c r="CW33" s="28">
+        <v>62627.936092436161</v>
+      </c>
       <c r="CX33" s="10"/>
       <c r="CY33" s="10"/>
       <c r="CZ33" s="10"/>
@@ -28896,7 +28945,9 @@
       <c r="CV34" s="28">
         <v>6415.1967678277933</v>
       </c>
-      <c r="CW34" s="10"/>
+      <c r="CW34" s="28">
+        <v>8132.3324245214026</v>
+      </c>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
@@ -29052,7 +29103,7 @@
       <c r="CT35" s="29"/>
       <c r="CU35" s="29"/>
       <c r="CV35" s="29"/>
-      <c r="CW35" s="10"/>
+      <c r="CW35" s="29"/>
       <c r="CX35" s="10"/>
       <c r="CY35" s="10"/>
       <c r="CZ35" s="10"/>
@@ -29407,9 +29458,11 @@
         <v>100196.3135685071</v>
       </c>
       <c r="CV36" s="30">
-        <v>108550.77076297699</v>
-      </c>
-      <c r="CW36" s="10"/>
+        <v>109326.27556280779</v>
+      </c>
+      <c r="CW36" s="30">
+        <v>116197.50875583552</v>
+      </c>
       <c r="CX36" s="10"/>
       <c r="CY36" s="10"/>
       <c r="CZ36" s="10"/>
@@ -29566,6 +29619,7 @@
       <c r="CT37" s="31"/>
       <c r="CU37" s="31"/>
       <c r="CV37" s="31"/>
+      <c r="CW37" s="31"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29670,6 +29724,7 @@
       <c r="CT38" s="25"/>
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
+      <c r="CW38" s="25"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29771,7 +29826,7 @@
       <c r="CT39" s="29"/>
       <c r="CU39" s="29"/>
       <c r="CV39" s="29"/>
-      <c r="CW39" s="10"/>
+      <c r="CW39" s="29"/>
       <c r="CX39" s="10"/>
       <c r="CY39" s="10"/>
       <c r="CZ39" s="10"/>
@@ -29927,7 +29982,7 @@
       <c r="CT40" s="29"/>
       <c r="CU40" s="29"/>
       <c r="CV40" s="29"/>
-      <c r="CW40" s="10"/>
+      <c r="CW40" s="29"/>
       <c r="CX40" s="10"/>
       <c r="CY40" s="10"/>
       <c r="CZ40" s="10"/>
@@ -30086,6 +30141,7 @@
       <c r="CT41" s="25"/>
       <c r="CU41" s="25"/>
       <c r="CV41" s="25"/>
+      <c r="CW41" s="25"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -30190,10 +30246,11 @@
       <c r="CT42" s="25"/>
       <c r="CU42" s="25"/>
       <c r="CV42" s="25"/>
+      <c r="CW42" s="25"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30294,6 +30351,7 @@
       <c r="CT43" s="25"/>
       <c r="CU43" s="25"/>
       <c r="CV43" s="25"/>
+      <c r="CW43" s="25"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30396,6 +30454,7 @@
       <c r="CT44" s="25"/>
       <c r="CU44" s="25"/>
       <c r="CV44" s="25"/>
+      <c r="CW44" s="25"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30500,10 +30559,11 @@
       <c r="CT45" s="25"/>
       <c r="CU45" s="25"/>
       <c r="CV45" s="25"/>
+      <c r="CW45" s="25"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30604,6 +30664,7 @@
       <c r="CT46" s="25"/>
       <c r="CU46" s="25"/>
       <c r="CV46" s="25"/>
+      <c r="CW46" s="25"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30705,9 +30766,10 @@
       <c r="CQ47" s="25"/>
       <c r="CR47" s="25"/>
       <c r="CS47" s="25"/>
-      <c r="CT47" s="25"/>
-      <c r="CU47" s="25"/>
-      <c r="CV47" s="25"/>
+      <c r="CT47" s="36"/>
+      <c r="CU47" s="36"/>
+      <c r="CV47" s="36"/>
+      <c r="CW47" s="25"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30807,138 +30869,139 @@
       <c r="CQ48" s="25"/>
       <c r="CR48" s="25"/>
       <c r="CS48" s="25"/>
-      <c r="CT48" s="25"/>
-      <c r="CU48" s="25"/>
-      <c r="CV48" s="25"/>
+      <c r="CT48" s="36"/>
+      <c r="CU48" s="36"/>
+      <c r="CV48" s="36"/>
+      <c r="CW48" s="25"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36" t="s">
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36" t="s">
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36" t="s">
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36" t="s">
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36" t="s">
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36" t="s">
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36" t="s">
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36" t="s">
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="36"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="36"/>
-      <c r="AP49" s="36" t="s">
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AQ49" s="36"/>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="36"/>
-      <c r="AT49" s="36" t="s">
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39"/>
+      <c r="AT49" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AU49" s="36"/>
-      <c r="AV49" s="36"/>
-      <c r="AW49" s="36"/>
-      <c r="AX49" s="36" t="s">
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
+      <c r="AW49" s="39"/>
+      <c r="AX49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AY49" s="36"/>
-      <c r="AZ49" s="36"/>
-      <c r="BA49" s="36"/>
-      <c r="BB49" s="36" t="s">
+      <c r="AY49" s="39"/>
+      <c r="AZ49" s="39"/>
+      <c r="BA49" s="39"/>
+      <c r="BB49" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BC49" s="36"/>
-      <c r="BD49" s="36"/>
-      <c r="BE49" s="36"/>
-      <c r="BF49" s="36" t="s">
+      <c r="BC49" s="39"/>
+      <c r="BD49" s="39"/>
+      <c r="BE49" s="39"/>
+      <c r="BF49" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BG49" s="36"/>
-      <c r="BH49" s="36"/>
-      <c r="BI49" s="36"/>
-      <c r="BJ49" s="36" t="s">
+      <c r="BG49" s="39"/>
+      <c r="BH49" s="39"/>
+      <c r="BI49" s="39"/>
+      <c r="BJ49" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BK49" s="36"/>
-      <c r="BL49" s="36"/>
-      <c r="BM49" s="36"/>
-      <c r="BN49" s="36" t="s">
+      <c r="BK49" s="39"/>
+      <c r="BL49" s="39"/>
+      <c r="BM49" s="39"/>
+      <c r="BN49" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="BO49" s="36"/>
-      <c r="BP49" s="36"/>
-      <c r="BQ49" s="36"/>
-      <c r="BR49" s="36" t="s">
+      <c r="BO49" s="39"/>
+      <c r="BP49" s="39"/>
+      <c r="BQ49" s="39"/>
+      <c r="BR49" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BS49" s="36"/>
-      <c r="BT49" s="36"/>
-      <c r="BU49" s="36"/>
-      <c r="BV49" s="36" t="s">
+      <c r="BS49" s="39"/>
+      <c r="BT49" s="39"/>
+      <c r="BU49" s="39"/>
+      <c r="BV49" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="BW49" s="36"/>
-      <c r="BX49" s="36"/>
-      <c r="BY49" s="36"/>
-      <c r="BZ49" s="36" t="s">
+      <c r="BW49" s="39"/>
+      <c r="BX49" s="39"/>
+      <c r="BY49" s="39"/>
+      <c r="BZ49" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="CA49" s="36"/>
-      <c r="CB49" s="36"/>
-      <c r="CC49" s="36"/>
-      <c r="CD49" s="36" t="s">
+      <c r="CA49" s="39"/>
+      <c r="CB49" s="39"/>
+      <c r="CC49" s="39"/>
+      <c r="CD49" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="CE49" s="36"/>
-      <c r="CF49" s="36"/>
-      <c r="CG49" s="36"/>
+      <c r="CE49" s="39"/>
+      <c r="CF49" s="39"/>
+      <c r="CG49" s="39"/>
       <c r="CH49" s="22" t="s">
         <v>48</v>
       </c>
@@ -30956,10 +31019,11 @@
       </c>
       <c r="CQ49" s="26"/>
       <c r="CR49" s="26"/>
-      <c r="CS49" s="23"/>
-      <c r="CT49" s="26"/>
-      <c r="CU49" s="26"/>
+      <c r="CS49" s="26"/>
+      <c r="CT49" s="23"/>
+      <c r="CU49" s="23"/>
       <c r="CV49" s="23"/>
+      <c r="CW49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31250,10 +31314,13 @@
       <c r="CR50" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CS50" s="32"/>
+      <c r="CS50" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="CT50" s="32"/>
       <c r="CU50" s="32"/>
       <c r="CV50" s="32"/>
+      <c r="CW50" s="32"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31353,9 +31420,10 @@
       <c r="CQ51" s="25"/>
       <c r="CR51" s="25"/>
       <c r="CS51" s="25"/>
-      <c r="CT51" s="25"/>
-      <c r="CU51" s="25"/>
-      <c r="CV51" s="25"/>
+      <c r="CT51" s="36"/>
+      <c r="CU51" s="36"/>
+      <c r="CV51" s="36"/>
+      <c r="CW51" s="25"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31646,11 +31714,13 @@
       <c r="CR52" s="33">
         <v>20.218922503175847</v>
       </c>
-      <c r="CS52" s="33"/>
-      <c r="CT52" s="33"/>
-      <c r="CU52" s="33"/>
-      <c r="CV52" s="33"/>
-      <c r="CW52" s="10"/>
+      <c r="CS52" s="33">
+        <v>17.919650939217391</v>
+      </c>
+      <c r="CT52" s="37"/>
+      <c r="CU52" s="37"/>
+      <c r="CV52" s="37"/>
+      <c r="CW52" s="33"/>
       <c r="CX52" s="10"/>
       <c r="CY52" s="10"/>
       <c r="CZ52" s="10"/>
@@ -31989,13 +32059,15 @@
         <v>13.12700135824754</v>
       </c>
       <c r="CR53" s="33">
-        <v>13.936887555037032</v>
-      </c>
-      <c r="CS53" s="33"/>
-      <c r="CT53" s="33"/>
-      <c r="CU53" s="33"/>
-      <c r="CV53" s="33"/>
-      <c r="CW53" s="10"/>
+        <v>15.231430041269562</v>
+      </c>
+      <c r="CS53" s="33">
+        <v>14.453620709970622</v>
+      </c>
+      <c r="CT53" s="37"/>
+      <c r="CU53" s="37"/>
+      <c r="CV53" s="37"/>
+      <c r="CW53" s="33"/>
       <c r="CX53" s="10"/>
       <c r="CY53" s="10"/>
       <c r="CZ53" s="10"/>
@@ -32336,11 +32408,13 @@
       <c r="CR54" s="33">
         <v>14.706555104365265</v>
       </c>
-      <c r="CS54" s="33"/>
-      <c r="CT54" s="33"/>
-      <c r="CU54" s="33"/>
-      <c r="CV54" s="33"/>
-      <c r="CW54" s="10"/>
+      <c r="CS54" s="33">
+        <v>12.510752096300081</v>
+      </c>
+      <c r="CT54" s="37"/>
+      <c r="CU54" s="37"/>
+      <c r="CV54" s="37"/>
+      <c r="CW54" s="33"/>
       <c r="CX54" s="10"/>
       <c r="CY54" s="10"/>
       <c r="CZ54" s="10"/>
@@ -32489,10 +32563,10 @@
       <c r="CQ55" s="29"/>
       <c r="CR55" s="29"/>
       <c r="CS55" s="29"/>
-      <c r="CT55" s="29"/>
-      <c r="CU55" s="29"/>
-      <c r="CV55" s="29"/>
-      <c r="CW55" s="10"/>
+      <c r="CT55" s="38"/>
+      <c r="CU55" s="38"/>
+      <c r="CV55" s="38"/>
+      <c r="CW55" s="29"/>
       <c r="CX55" s="10"/>
       <c r="CY55" s="10"/>
       <c r="CZ55" s="10"/>
@@ -32831,13 +32905,15 @@
         <v>13.432192673455432</v>
       </c>
       <c r="CR56" s="33">
-        <v>15.778387570306734</v>
-      </c>
-      <c r="CS56" s="33"/>
-      <c r="CT56" s="33"/>
-      <c r="CU56" s="33"/>
-      <c r="CV56" s="33"/>
-      <c r="CW56" s="10"/>
+        <v>16.623020722695188</v>
+      </c>
+      <c r="CS56" s="33">
+        <v>15.649298253919255</v>
+      </c>
+      <c r="CT56" s="37"/>
+      <c r="CU56" s="37"/>
+      <c r="CV56" s="37"/>
+      <c r="CW56" s="33"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
@@ -32987,9 +33063,10 @@
       <c r="CQ57" s="31"/>
       <c r="CR57" s="31"/>
       <c r="CS57" s="31"/>
-      <c r="CT57" s="31"/>
-      <c r="CU57" s="31"/>
-      <c r="CV57" s="31"/>
+      <c r="CT57" s="27"/>
+      <c r="CU57" s="27"/>
+      <c r="CV57" s="27"/>
+      <c r="CW57" s="31"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -33091,9 +33168,10 @@
       <c r="CQ58" s="25"/>
       <c r="CR58" s="25"/>
       <c r="CS58" s="25"/>
-      <c r="CT58" s="25"/>
-      <c r="CU58" s="25"/>
-      <c r="CV58" s="25"/>
+      <c r="CT58" s="36"/>
+      <c r="CU58" s="36"/>
+      <c r="CV58" s="36"/>
+      <c r="CW58" s="25"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -33192,10 +33270,10 @@
       <c r="CQ59" s="29"/>
       <c r="CR59" s="29"/>
       <c r="CS59" s="29"/>
-      <c r="CT59" s="29"/>
-      <c r="CU59" s="29"/>
-      <c r="CV59" s="29"/>
-      <c r="CW59" s="10"/>
+      <c r="CT59" s="38"/>
+      <c r="CU59" s="38"/>
+      <c r="CV59" s="38"/>
+      <c r="CW59" s="29"/>
       <c r="CX59" s="10"/>
       <c r="CY59" s="10"/>
       <c r="CZ59" s="10"/>
@@ -33344,10 +33422,10 @@
       <c r="CQ60" s="29"/>
       <c r="CR60" s="29"/>
       <c r="CS60" s="29"/>
-      <c r="CT60" s="29"/>
-      <c r="CU60" s="29"/>
-      <c r="CV60" s="29"/>
-      <c r="CW60" s="10"/>
+      <c r="CT60" s="38"/>
+      <c r="CU60" s="38"/>
+      <c r="CV60" s="38"/>
+      <c r="CW60" s="29"/>
       <c r="CX60" s="10"/>
       <c r="CY60" s="10"/>
       <c r="CZ60" s="10"/>
@@ -33499,9 +33577,10 @@
       <c r="CQ61" s="25"/>
       <c r="CR61" s="25"/>
       <c r="CS61" s="25"/>
-      <c r="CT61" s="25"/>
-      <c r="CU61" s="25"/>
-      <c r="CV61" s="25"/>
+      <c r="CT61" s="36"/>
+      <c r="CU61" s="36"/>
+      <c r="CV61" s="36"/>
+      <c r="CW61" s="25"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33603,13 +33682,14 @@
       <c r="CQ62" s="25"/>
       <c r="CR62" s="25"/>
       <c r="CS62" s="25"/>
-      <c r="CT62" s="25"/>
-      <c r="CU62" s="25"/>
-      <c r="CV62" s="25"/>
+      <c r="CT62" s="36"/>
+      <c r="CU62" s="36"/>
+      <c r="CV62" s="36"/>
+      <c r="CW62" s="25"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33707,9 +33787,10 @@
       <c r="CQ63" s="25"/>
       <c r="CR63" s="25"/>
       <c r="CS63" s="25"/>
-      <c r="CT63" s="25"/>
-      <c r="CU63" s="25"/>
-      <c r="CV63" s="25"/>
+      <c r="CT63" s="36"/>
+      <c r="CU63" s="36"/>
+      <c r="CV63" s="36"/>
+      <c r="CW63" s="25"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33809,9 +33890,10 @@
       <c r="CQ64" s="25"/>
       <c r="CR64" s="25"/>
       <c r="CS64" s="25"/>
-      <c r="CT64" s="25"/>
-      <c r="CU64" s="25"/>
-      <c r="CV64" s="25"/>
+      <c r="CT64" s="36"/>
+      <c r="CU64" s="36"/>
+      <c r="CV64" s="36"/>
+      <c r="CW64" s="25"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33913,13 +33995,14 @@
       <c r="CQ65" s="25"/>
       <c r="CR65" s="25"/>
       <c r="CS65" s="25"/>
-      <c r="CT65" s="25"/>
-      <c r="CU65" s="25"/>
-      <c r="CV65" s="25"/>
+      <c r="CT65" s="36"/>
+      <c r="CU65" s="36"/>
+      <c r="CV65" s="36"/>
+      <c r="CW65" s="25"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -34017,9 +34100,10 @@
       <c r="CQ66" s="25"/>
       <c r="CR66" s="25"/>
       <c r="CS66" s="25"/>
-      <c r="CT66" s="25"/>
-      <c r="CU66" s="25"/>
-      <c r="CV66" s="25"/>
+      <c r="CT66" s="36"/>
+      <c r="CU66" s="36"/>
+      <c r="CV66" s="36"/>
+      <c r="CW66" s="25"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -34121,9 +34205,10 @@
       <c r="CQ67" s="25"/>
       <c r="CR67" s="25"/>
       <c r="CS67" s="25"/>
-      <c r="CT67" s="25"/>
-      <c r="CU67" s="25"/>
-      <c r="CV67" s="25"/>
+      <c r="CT67" s="36"/>
+      <c r="CU67" s="36"/>
+      <c r="CV67" s="36"/>
+      <c r="CW67" s="25"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -34223,138 +34308,139 @@
       <c r="CQ68" s="25"/>
       <c r="CR68" s="25"/>
       <c r="CS68" s="25"/>
-      <c r="CT68" s="25"/>
-      <c r="CU68" s="25"/>
-      <c r="CV68" s="25"/>
+      <c r="CT68" s="36"/>
+      <c r="CU68" s="36"/>
+      <c r="CV68" s="36"/>
+      <c r="CW68" s="25"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="36" t="s">
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="36" t="s">
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="36" t="s">
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="36" t="s">
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="36" t="s">
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="36" t="s">
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="36" t="s">
+      <c r="AA69" s="41"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="36" t="s">
+      <c r="AE69" s="41"/>
+      <c r="AF69" s="41"/>
+      <c r="AG69" s="41"/>
+      <c r="AH69" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="36" t="s">
+      <c r="AI69" s="41"/>
+      <c r="AJ69" s="41"/>
+      <c r="AK69" s="41"/>
+      <c r="AL69" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="36" t="s">
+      <c r="AM69" s="41"/>
+      <c r="AN69" s="41"/>
+      <c r="AO69" s="41"/>
+      <c r="AP69" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="36" t="s">
+      <c r="AQ69" s="41"/>
+      <c r="AR69" s="41"/>
+      <c r="AS69" s="41"/>
+      <c r="AT69" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="38"/>
-      <c r="AX69" s="36" t="s">
+      <c r="AU69" s="41"/>
+      <c r="AV69" s="41"/>
+      <c r="AW69" s="41"/>
+      <c r="AX69" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="36" t="s">
+      <c r="AY69" s="41"/>
+      <c r="AZ69" s="41"/>
+      <c r="BA69" s="41"/>
+      <c r="BB69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="38"/>
-      <c r="BE69" s="38"/>
-      <c r="BF69" s="36" t="s">
+      <c r="BC69" s="41"/>
+      <c r="BD69" s="41"/>
+      <c r="BE69" s="41"/>
+      <c r="BF69" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BG69" s="38"/>
-      <c r="BH69" s="38"/>
-      <c r="BI69" s="38"/>
-      <c r="BJ69" s="36" t="s">
+      <c r="BG69" s="41"/>
+      <c r="BH69" s="41"/>
+      <c r="BI69" s="41"/>
+      <c r="BJ69" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BK69" s="38"/>
-      <c r="BL69" s="38"/>
-      <c r="BM69" s="38"/>
-      <c r="BN69" s="36" t="s">
+      <c r="BK69" s="41"/>
+      <c r="BL69" s="41"/>
+      <c r="BM69" s="41"/>
+      <c r="BN69" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="BO69" s="38"/>
-      <c r="BP69" s="38"/>
-      <c r="BQ69" s="38"/>
-      <c r="BR69" s="36" t="s">
+      <c r="BO69" s="41"/>
+      <c r="BP69" s="41"/>
+      <c r="BQ69" s="41"/>
+      <c r="BR69" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BS69" s="38"/>
-      <c r="BT69" s="38"/>
-      <c r="BU69" s="38"/>
-      <c r="BV69" s="36" t="s">
+      <c r="BS69" s="41"/>
+      <c r="BT69" s="41"/>
+      <c r="BU69" s="41"/>
+      <c r="BV69" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="BW69" s="38"/>
-      <c r="BX69" s="38"/>
-      <c r="BY69" s="38"/>
-      <c r="BZ69" s="36" t="s">
+      <c r="BW69" s="41"/>
+      <c r="BX69" s="41"/>
+      <c r="BY69" s="41"/>
+      <c r="BZ69" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="CA69" s="38"/>
-      <c r="CB69" s="38"/>
-      <c r="CC69" s="38"/>
-      <c r="CD69" s="36" t="s">
+      <c r="CA69" s="41"/>
+      <c r="CB69" s="41"/>
+      <c r="CC69" s="41"/>
+      <c r="CD69" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="CE69" s="36"/>
-      <c r="CF69" s="36"/>
-      <c r="CG69" s="36"/>
+      <c r="CE69" s="39"/>
+      <c r="CF69" s="39"/>
+      <c r="CG69" s="39"/>
       <c r="CH69" s="22" t="s">
         <v>48</v>
       </c>
@@ -34372,10 +34458,11 @@
       </c>
       <c r="CQ69" s="26"/>
       <c r="CR69" s="26"/>
-      <c r="CS69" s="23"/>
-      <c r="CT69" s="26"/>
-      <c r="CU69" s="26"/>
+      <c r="CS69" s="26"/>
+      <c r="CT69" s="23"/>
+      <c r="CU69" s="23"/>
       <c r="CV69" s="23"/>
+      <c r="CW69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34666,10 +34753,13 @@
       <c r="CR70" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CS70" s="32"/>
+      <c r="CS70" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="CT70" s="32"/>
       <c r="CU70" s="32"/>
       <c r="CV70" s="32"/>
+      <c r="CW70" s="32"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34769,9 +34859,10 @@
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
-      <c r="CU71" s="25"/>
-      <c r="CV71" s="25"/>
+      <c r="CT71" s="36"/>
+      <c r="CU71" s="36"/>
+      <c r="CV71" s="36"/>
+      <c r="CW71" s="25"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -35062,11 +35153,13 @@
       <c r="CR72" s="33">
         <v>14.798926926885244</v>
       </c>
-      <c r="CS72" s="33"/>
-      <c r="CT72" s="33"/>
-      <c r="CU72" s="33"/>
-      <c r="CV72" s="33"/>
-      <c r="CW72" s="10"/>
+      <c r="CS72" s="33">
+        <v>13.767336833927772</v>
+      </c>
+      <c r="CT72" s="37"/>
+      <c r="CU72" s="37"/>
+      <c r="CV72" s="37"/>
+      <c r="CW72" s="33"/>
       <c r="CX72" s="10"/>
       <c r="CY72" s="10"/>
       <c r="CZ72" s="10"/>
@@ -35405,13 +35498,15 @@
         <v>9.5055963050950396</v>
       </c>
       <c r="CR73" s="33">
-        <v>10.768983520230833</v>
-      </c>
-      <c r="CS73" s="33"/>
-      <c r="CT73" s="33"/>
-      <c r="CU73" s="33"/>
-      <c r="CV73" s="33"/>
-      <c r="CW73" s="10"/>
+        <v>12.027532515212513</v>
+      </c>
+      <c r="CS73" s="33">
+        <v>11.299953194815913</v>
+      </c>
+      <c r="CT73" s="37"/>
+      <c r="CU73" s="37"/>
+      <c r="CV73" s="37"/>
+      <c r="CW73" s="33"/>
       <c r="CX73" s="10"/>
       <c r="CY73" s="10"/>
       <c r="CZ73" s="10"/>
@@ -35752,11 +35847,13 @@
       <c r="CR74" s="33">
         <v>9.1544036198075105</v>
       </c>
-      <c r="CS74" s="33"/>
-      <c r="CT74" s="33"/>
-      <c r="CU74" s="33"/>
-      <c r="CV74" s="33"/>
-      <c r="CW74" s="10"/>
+      <c r="CS74" s="33">
+        <v>8.6895666374154672</v>
+      </c>
+      <c r="CT74" s="37"/>
+      <c r="CU74" s="37"/>
+      <c r="CV74" s="37"/>
+      <c r="CW74" s="33"/>
       <c r="CX74" s="10"/>
       <c r="CY74" s="10"/>
       <c r="CZ74" s="10"/>
@@ -35905,10 +36002,10 @@
       <c r="CQ75" s="29"/>
       <c r="CR75" s="29"/>
       <c r="CS75" s="29"/>
-      <c r="CT75" s="29"/>
-      <c r="CU75" s="29"/>
-      <c r="CV75" s="29"/>
-      <c r="CW75" s="10"/>
+      <c r="CT75" s="38"/>
+      <c r="CU75" s="38"/>
+      <c r="CV75" s="38"/>
+      <c r="CW75" s="29"/>
       <c r="CX75" s="10"/>
       <c r="CY75" s="10"/>
       <c r="CZ75" s="10"/>
@@ -36247,13 +36344,15 @@
         <v>9.3853454096729081</v>
       </c>
       <c r="CR76" s="33">
-        <v>11.897199262167874</v>
-      </c>
-      <c r="CS76" s="33"/>
-      <c r="CT76" s="33"/>
-      <c r="CU76" s="33"/>
-      <c r="CV76" s="33"/>
-      <c r="CW76" s="10"/>
+        <v>12.696611504987558</v>
+      </c>
+      <c r="CS76" s="33">
+        <v>12.061960485213888</v>
+      </c>
+      <c r="CT76" s="37"/>
+      <c r="CU76" s="37"/>
+      <c r="CV76" s="37"/>
+      <c r="CW76" s="33"/>
       <c r="CX76" s="10"/>
       <c r="CY76" s="10"/>
       <c r="CZ76" s="10"/>
@@ -36403,9 +36502,10 @@
       <c r="CQ77" s="31"/>
       <c r="CR77" s="31"/>
       <c r="CS77" s="31"/>
-      <c r="CT77" s="31"/>
-      <c r="CU77" s="31"/>
-      <c r="CV77" s="31"/>
+      <c r="CT77" s="27"/>
+      <c r="CU77" s="27"/>
+      <c r="CV77" s="27"/>
+      <c r="CW77" s="31"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36507,9 +36607,10 @@
       <c r="CQ78" s="25"/>
       <c r="CR78" s="25"/>
       <c r="CS78" s="25"/>
-      <c r="CT78" s="25"/>
-      <c r="CU78" s="25"/>
-      <c r="CV78" s="25"/>
+      <c r="CT78" s="36"/>
+      <c r="CU78" s="36"/>
+      <c r="CV78" s="36"/>
+      <c r="CW78" s="25"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36608,10 +36709,10 @@
       <c r="CQ79" s="29"/>
       <c r="CR79" s="29"/>
       <c r="CS79" s="29"/>
-      <c r="CT79" s="29"/>
-      <c r="CU79" s="29"/>
-      <c r="CV79" s="29"/>
-      <c r="CW79" s="10"/>
+      <c r="CT79" s="38"/>
+      <c r="CU79" s="38"/>
+      <c r="CV79" s="38"/>
+      <c r="CW79" s="29"/>
       <c r="CX79" s="10"/>
       <c r="CY79" s="10"/>
       <c r="CZ79" s="10"/>
@@ -36763,7 +36864,7 @@
       <c r="CT80" s="34"/>
       <c r="CU80" s="34"/>
       <c r="CV80" s="34"/>
-      <c r="CW80" s="10"/>
+      <c r="CW80" s="34"/>
       <c r="CX80" s="10"/>
       <c r="CY80" s="10"/>
       <c r="CZ80" s="10"/>
@@ -36918,10 +37019,11 @@
       <c r="CT81" s="25"/>
       <c r="CU81" s="25"/>
       <c r="CV81" s="25"/>
+      <c r="CW81" s="25"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -37022,6 +37124,7 @@
       <c r="CT82" s="25"/>
       <c r="CU82" s="25"/>
       <c r="CV82" s="25"/>
+      <c r="CW82" s="25"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -37124,6 +37227,7 @@
       <c r="CT83" s="25"/>
       <c r="CU83" s="25"/>
       <c r="CV83" s="25"/>
+      <c r="CW83" s="25"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -37228,10 +37332,11 @@
       <c r="CT84" s="25"/>
       <c r="CU84" s="25"/>
       <c r="CV84" s="25"/>
+      <c r="CW84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -37332,6 +37437,7 @@
       <c r="CT85" s="25"/>
       <c r="CU85" s="25"/>
       <c r="CV85" s="25"/>
+      <c r="CW85" s="25"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37436,6 +37542,7 @@
       <c r="CT86" s="25"/>
       <c r="CU86" s="25"/>
       <c r="CV86" s="25"/>
+      <c r="CW86" s="25"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37538,135 +37645,136 @@
       <c r="CT87" s="25"/>
       <c r="CU87" s="25"/>
       <c r="CV87" s="25"/>
+      <c r="CW87" s="25"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="36">
+      <c r="B88" s="39">
         <v>2000</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="36">
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="39">
         <v>2001</v>
       </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="36">
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="39">
         <v>2002</v>
       </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="36">
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="39">
         <v>2003</v>
       </c>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="36">
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="39">
         <v>2004</v>
       </c>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="36">
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="39">
         <v>2005</v>
       </c>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="36">
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="39">
         <v>2006</v>
       </c>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="36">
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="40"/>
+      <c r="AD88" s="39">
         <v>2007</v>
       </c>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="36">
+      <c r="AE88" s="40"/>
+      <c r="AF88" s="40"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="39">
         <v>2008</v>
       </c>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="36">
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
+      <c r="AK88" s="40"/>
+      <c r="AL88" s="39">
         <v>2009</v>
       </c>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="36">
+      <c r="AM88" s="40"/>
+      <c r="AN88" s="40"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="36">
+      <c r="AQ88" s="40"/>
+      <c r="AR88" s="40"/>
+      <c r="AS88" s="40"/>
+      <c r="AT88" s="39">
         <v>2011</v>
       </c>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="36">
+      <c r="AU88" s="40"/>
+      <c r="AV88" s="40"/>
+      <c r="AW88" s="40"/>
+      <c r="AX88" s="39">
         <v>2012</v>
       </c>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="36">
+      <c r="AY88" s="40"/>
+      <c r="AZ88" s="40"/>
+      <c r="BA88" s="40"/>
+      <c r="BB88" s="39">
         <v>2013</v>
       </c>
-      <c r="BC88" s="37"/>
-      <c r="BD88" s="37"/>
-      <c r="BE88" s="37"/>
-      <c r="BF88" s="36">
+      <c r="BC88" s="40"/>
+      <c r="BD88" s="40"/>
+      <c r="BE88" s="40"/>
+      <c r="BF88" s="39">
         <v>2014</v>
       </c>
-      <c r="BG88" s="37"/>
-      <c r="BH88" s="37"/>
-      <c r="BI88" s="37"/>
-      <c r="BJ88" s="36">
+      <c r="BG88" s="40"/>
+      <c r="BH88" s="40"/>
+      <c r="BI88" s="40"/>
+      <c r="BJ88" s="39">
         <v>2015</v>
       </c>
-      <c r="BK88" s="37"/>
-      <c r="BL88" s="37"/>
-      <c r="BM88" s="37"/>
-      <c r="BN88" s="36">
+      <c r="BK88" s="40"/>
+      <c r="BL88" s="40"/>
+      <c r="BM88" s="40"/>
+      <c r="BN88" s="39">
         <v>2016</v>
       </c>
-      <c r="BO88" s="37"/>
-      <c r="BP88" s="37"/>
-      <c r="BQ88" s="37"/>
-      <c r="BR88" s="36">
+      <c r="BO88" s="40"/>
+      <c r="BP88" s="40"/>
+      <c r="BQ88" s="40"/>
+      <c r="BR88" s="39">
         <v>2017</v>
       </c>
-      <c r="BS88" s="37"/>
-      <c r="BT88" s="37"/>
-      <c r="BU88" s="37"/>
-      <c r="BV88" s="36">
+      <c r="BS88" s="40"/>
+      <c r="BT88" s="40"/>
+      <c r="BU88" s="40"/>
+      <c r="BV88" s="39">
         <v>2018</v>
       </c>
-      <c r="BW88" s="37"/>
-      <c r="BX88" s="37"/>
-      <c r="BY88" s="37"/>
-      <c r="BZ88" s="36">
+      <c r="BW88" s="40"/>
+      <c r="BX88" s="40"/>
+      <c r="BY88" s="40"/>
+      <c r="BZ88" s="39">
         <v>2019</v>
       </c>
-      <c r="CA88" s="37"/>
-      <c r="CB88" s="37"/>
-      <c r="CC88" s="37"/>
-      <c r="CD88" s="36">
+      <c r="CA88" s="40"/>
+      <c r="CB88" s="40"/>
+      <c r="CC88" s="40"/>
+      <c r="CD88" s="39">
         <v>2020</v>
       </c>
-      <c r="CE88" s="36"/>
-      <c r="CF88" s="36"/>
-      <c r="CG88" s="36"/>
+      <c r="CE88" s="39"/>
+      <c r="CF88" s="39"/>
+      <c r="CG88" s="39"/>
       <c r="CH88" s="22">
         <v>2021</v>
       </c>
@@ -37690,6 +37798,7 @@
       </c>
       <c r="CU88" s="26"/>
       <c r="CV88" s="26"/>
+      <c r="CW88" s="26"/>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -37991,6 +38100,9 @@
       </c>
       <c r="CV89" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="CW89" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38094,6 +38206,7 @@
       <c r="CT90" s="25"/>
       <c r="CU90" s="25"/>
       <c r="CV90" s="25"/>
+      <c r="CW90" s="25"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -38396,7 +38509,9 @@
       <c r="CV91" s="33">
         <v>117.48904877407954</v>
       </c>
-      <c r="CW91" s="10"/>
+      <c r="CW91" s="33">
+        <v>138.05857449815181</v>
+      </c>
       <c r="CX91" s="10"/>
       <c r="CY91" s="10"/>
       <c r="CZ91" s="10"/>
@@ -38751,9 +38866,11 @@
         <v>116.51141961649134</v>
       </c>
       <c r="CV92" s="33">
-        <v>126.29735383881273</v>
-      </c>
-      <c r="CW92" s="10"/>
+        <v>126.29735383881271</v>
+      </c>
+      <c r="CW92" s="33">
+        <v>134.57964667122314</v>
+      </c>
       <c r="CX92" s="10"/>
       <c r="CY92" s="10"/>
       <c r="CZ92" s="10"/>
@@ -39110,7 +39227,9 @@
       <c r="CV93" s="33">
         <v>128.55673390107521</v>
       </c>
-      <c r="CW93" s="10"/>
+      <c r="CW93" s="33">
+        <v>144.25899759424081</v>
+      </c>
       <c r="CX93" s="10"/>
       <c r="CY93" s="10"/>
       <c r="CZ93" s="10"/>
@@ -39266,7 +39385,7 @@
       <c r="CT94" s="29"/>
       <c r="CU94" s="29"/>
       <c r="CV94" s="29"/>
-      <c r="CW94" s="10"/>
+      <c r="CW94" s="29"/>
       <c r="CX94" s="10"/>
       <c r="CY94" s="10"/>
       <c r="CZ94" s="10"/>
@@ -39621,9 +39740,11 @@
         <v>115.9307526282365</v>
       </c>
       <c r="CV95" s="33">
-        <v>123.68163085313653</v>
-      </c>
-      <c r="CW95" s="10"/>
+        <v>123.70018545695866</v>
+      </c>
+      <c r="CW95" s="33">
+        <v>136.61745782002336</v>
+      </c>
       <c r="CX95" s="10"/>
       <c r="CY95" s="10"/>
       <c r="CZ95" s="10"/>
@@ -39780,6 +39901,7 @@
       <c r="CT96" s="31"/>
       <c r="CU96" s="31"/>
       <c r="CV96" s="31"/>
+      <c r="CW96" s="31"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39884,6 +40006,7 @@
       <c r="CT97" s="25"/>
       <c r="CU97" s="25"/>
       <c r="CV97" s="25"/>
+      <c r="CW97" s="25"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -39985,6 +40108,7 @@
       <c r="CT98" s="25"/>
       <c r="CU98" s="25"/>
       <c r="CV98" s="25"/>
+      <c r="CW98" s="25"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -40086,6 +40210,7 @@
       <c r="CT99" s="25"/>
       <c r="CU99" s="25"/>
       <c r="CV99" s="25"/>
+      <c r="CW99" s="25"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -40190,6 +40315,7 @@
       <c r="CT100" s="25"/>
       <c r="CU100" s="25"/>
       <c r="CV100" s="25"/>
+      <c r="CW100" s="25"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -40294,10 +40420,11 @@
       <c r="CT101" s="25"/>
       <c r="CU101" s="25"/>
       <c r="CV101" s="25"/>
+      <c r="CW101" s="25"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -40398,6 +40525,7 @@
       <c r="CT102" s="25"/>
       <c r="CU102" s="25"/>
       <c r="CV102" s="25"/>
+      <c r="CW102" s="25"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40500,6 +40628,7 @@
       <c r="CT103" s="25"/>
       <c r="CU103" s="25"/>
       <c r="CV103" s="25"/>
+      <c r="CW103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40604,10 +40733,11 @@
       <c r="CT104" s="25"/>
       <c r="CU104" s="25"/>
       <c r="CV104" s="25"/>
+      <c r="CW104" s="25"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -40708,6 +40838,7 @@
       <c r="CT105" s="25"/>
       <c r="CU105" s="25"/>
       <c r="CV105" s="25"/>
+      <c r="CW105" s="25"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40812,6 +40943,7 @@
       <c r="CT106" s="25"/>
       <c r="CU106" s="25"/>
       <c r="CV106" s="25"/>
+      <c r="CW106" s="25"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -40914,135 +41046,136 @@
       <c r="CT107" s="25"/>
       <c r="CU107" s="25"/>
       <c r="CV107" s="25"/>
+      <c r="CW107" s="25"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="36">
+      <c r="B108" s="39">
         <v>2000</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="36">
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="39">
         <v>2001</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="36">
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="39">
         <v>2002</v>
       </c>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="36">
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="39">
         <v>2003</v>
       </c>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="36">
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+      <c r="R108" s="39">
         <v>2004</v>
       </c>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="36">
+      <c r="S108" s="40"/>
+      <c r="T108" s="40"/>
+      <c r="U108" s="40"/>
+      <c r="V108" s="39">
         <v>2005</v>
       </c>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="40"/>
+      <c r="X108" s="40"/>
+      <c r="Y108" s="40"/>
+      <c r="Z108" s="39">
         <v>2006</v>
       </c>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+      <c r="AC108" s="40"/>
+      <c r="AD108" s="39">
         <v>2007</v>
       </c>
-      <c r="AE108" s="37"/>
-      <c r="AF108" s="37"/>
-      <c r="AG108" s="37"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="40"/>
+      <c r="AF108" s="40"/>
+      <c r="AG108" s="40"/>
+      <c r="AH108" s="39">
         <v>2008</v>
       </c>
-      <c r="AI108" s="37"/>
-      <c r="AJ108" s="37"/>
-      <c r="AK108" s="37"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="40"/>
+      <c r="AJ108" s="40"/>
+      <c r="AK108" s="40"/>
+      <c r="AL108" s="39">
         <v>2009</v>
       </c>
-      <c r="AM108" s="37"/>
-      <c r="AN108" s="37"/>
-      <c r="AO108" s="37"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="40"/>
+      <c r="AN108" s="40"/>
+      <c r="AO108" s="40"/>
+      <c r="AP108" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="37"/>
-      <c r="AR108" s="37"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="40"/>
+      <c r="AR108" s="40"/>
+      <c r="AS108" s="40"/>
+      <c r="AT108" s="39">
         <v>2011</v>
       </c>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="40"/>
+      <c r="AV108" s="40"/>
+      <c r="AW108" s="40"/>
+      <c r="AX108" s="39">
         <v>2012</v>
       </c>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="40"/>
+      <c r="AZ108" s="40"/>
+      <c r="BA108" s="40"/>
+      <c r="BB108" s="39">
         <v>2013</v>
       </c>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="40"/>
+      <c r="BD108" s="40"/>
+      <c r="BE108" s="40"/>
+      <c r="BF108" s="39">
         <v>2014</v>
       </c>
-      <c r="BG108" s="37"/>
-      <c r="BH108" s="37"/>
-      <c r="BI108" s="37"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="40"/>
+      <c r="BH108" s="40"/>
+      <c r="BI108" s="40"/>
+      <c r="BJ108" s="39">
         <v>2015</v>
       </c>
-      <c r="BK108" s="37"/>
-      <c r="BL108" s="37"/>
-      <c r="BM108" s="37"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="40"/>
+      <c r="BL108" s="40"/>
+      <c r="BM108" s="40"/>
+      <c r="BN108" s="39">
         <v>2016</v>
       </c>
-      <c r="BO108" s="37"/>
-      <c r="BP108" s="37"/>
-      <c r="BQ108" s="37"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="40"/>
+      <c r="BP108" s="40"/>
+      <c r="BQ108" s="40"/>
+      <c r="BR108" s="39">
         <v>2017</v>
       </c>
-      <c r="BS108" s="37"/>
-      <c r="BT108" s="37"/>
-      <c r="BU108" s="37"/>
-      <c r="BV108" s="36">
+      <c r="BS108" s="40"/>
+      <c r="BT108" s="40"/>
+      <c r="BU108" s="40"/>
+      <c r="BV108" s="39">
         <v>2018</v>
       </c>
-      <c r="BW108" s="37"/>
-      <c r="BX108" s="37"/>
-      <c r="BY108" s="37"/>
-      <c r="BZ108" s="36">
+      <c r="BW108" s="40"/>
+      <c r="BX108" s="40"/>
+      <c r="BY108" s="40"/>
+      <c r="BZ108" s="39">
         <v>2019</v>
       </c>
-      <c r="CA108" s="37"/>
-      <c r="CB108" s="37"/>
-      <c r="CC108" s="37"/>
-      <c r="CD108" s="36">
+      <c r="CA108" s="40"/>
+      <c r="CB108" s="40"/>
+      <c r="CC108" s="40"/>
+      <c r="CD108" s="39">
         <v>2020</v>
       </c>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
+      <c r="CE108" s="39"/>
+      <c r="CF108" s="39"/>
+      <c r="CG108" s="39"/>
       <c r="CH108" s="22">
         <v>2021</v>
       </c>
@@ -41066,6 +41199,7 @@
       </c>
       <c r="CU108" s="26"/>
       <c r="CV108" s="26"/>
+      <c r="CW108" s="26"/>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -41367,6 +41501,9 @@
       </c>
       <c r="CV109" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="CW109" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41470,6 +41607,7 @@
       <c r="CT110" s="25"/>
       <c r="CU110" s="25"/>
       <c r="CV110" s="25"/>
+      <c r="CW110" s="25"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41770,9 +41908,11 @@
         <v>22.990652797088913</v>
       </c>
       <c r="CV111" s="33">
-        <v>29.649265282508193</v>
-      </c>
-      <c r="CW111" s="10"/>
+        <v>29.434532785901769</v>
+      </c>
+      <c r="CW111" s="33">
+        <v>39.51593965173096</v>
+      </c>
       <c r="CX111" s="10"/>
       <c r="CY111" s="10"/>
       <c r="CZ111" s="10"/>
@@ -42127,9 +42267,11 @@
         <v>72.9841790155008</v>
       </c>
       <c r="CV112" s="33">
-        <v>64.207930168131043</v>
-      </c>
-      <c r="CW112" s="10"/>
+        <v>64.467151448674656</v>
+      </c>
+      <c r="CW112" s="33">
+        <v>53.093880350770192</v>
+      </c>
       <c r="CX112" s="10"/>
       <c r="CY112" s="10"/>
       <c r="CZ112" s="10"/>
@@ -42484,9 +42626,11 @@
         <v>4.0251681874102925</v>
       </c>
       <c r="CV113" s="33">
-        <v>6.1428045493607648</v>
-      </c>
-      <c r="CW113" s="10"/>
+        <v>6.0983157654235889</v>
+      </c>
+      <c r="CW113" s="33">
+        <v>7.3901799974988496</v>
+      </c>
       <c r="CX113" s="10"/>
       <c r="CY113" s="10"/>
       <c r="CZ113" s="10"/>
@@ -42642,7 +42786,7 @@
       <c r="CT114" s="29"/>
       <c r="CU114" s="29"/>
       <c r="CV114" s="29"/>
-      <c r="CW114" s="10"/>
+      <c r="CW114" s="29"/>
       <c r="CX114" s="10"/>
       <c r="CY114" s="10"/>
       <c r="CZ114" s="10"/>
@@ -42999,7 +43143,9 @@
       <c r="CV115" s="33">
         <v>100</v>
       </c>
-      <c r="CW115" s="10"/>
+      <c r="CW115" s="33">
+        <v>100</v>
+      </c>
       <c r="CX115" s="10"/>
       <c r="CY115" s="10"/>
       <c r="CZ115" s="10"/>
@@ -43156,6 +43302,7 @@
       <c r="CT116" s="31"/>
       <c r="CU116" s="31"/>
       <c r="CV116" s="31"/>
+      <c r="CW116" s="31"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -43260,6 +43407,7 @@
       <c r="CT117" s="25"/>
       <c r="CU117" s="25"/>
       <c r="CV117" s="25"/>
+      <c r="CW117" s="25"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -43361,7 +43509,7 @@
       <c r="CT118" s="29"/>
       <c r="CU118" s="29"/>
       <c r="CV118" s="29"/>
-      <c r="CW118" s="10"/>
+      <c r="CW118" s="29"/>
       <c r="CX118" s="10"/>
       <c r="CY118" s="10"/>
       <c r="CZ118" s="10"/>
@@ -43517,7 +43665,7 @@
       <c r="CT119" s="29"/>
       <c r="CU119" s="29"/>
       <c r="CV119" s="29"/>
-      <c r="CW119" s="10"/>
+      <c r="CW119" s="29"/>
       <c r="CX119" s="10"/>
       <c r="CY119" s="10"/>
       <c r="CZ119" s="10"/>
@@ -43676,6 +43824,7 @@
       <c r="CT120" s="25"/>
       <c r="CU120" s="25"/>
       <c r="CV120" s="25"/>
+      <c r="CW120" s="25"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43780,10 +43929,11 @@
       <c r="CT121" s="25"/>
       <c r="CU121" s="25"/>
       <c r="CV121" s="25"/>
+      <c r="CW121" s="25"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -43884,6 +44034,7 @@
       <c r="CT122" s="25"/>
       <c r="CU122" s="25"/>
       <c r="CV122" s="25"/>
+      <c r="CW122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -43986,6 +44137,7 @@
       <c r="CT123" s="25"/>
       <c r="CU123" s="25"/>
       <c r="CV123" s="25"/>
+      <c r="CW123" s="25"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -44090,10 +44242,11 @@
       <c r="CT124" s="25"/>
       <c r="CU124" s="25"/>
       <c r="CV124" s="25"/>
+      <c r="CW124" s="25"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -44194,6 +44347,7 @@
       <c r="CT125" s="25"/>
       <c r="CU125" s="25"/>
       <c r="CV125" s="25"/>
+      <c r="CW125" s="25"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -44298,6 +44452,7 @@
       <c r="CT126" s="25"/>
       <c r="CU126" s="25"/>
       <c r="CV126" s="25"/>
+      <c r="CW126" s="25"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -44400,135 +44555,136 @@
       <c r="CT127" s="25"/>
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
+      <c r="CW127" s="25"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="36">
+      <c r="B128" s="39">
         <v>2000</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="36">
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="39">
         <v>2001</v>
       </c>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="36">
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="39">
         <v>2002</v>
       </c>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="36">
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="39">
         <v>2003</v>
       </c>
-      <c r="O128" s="37"/>
-      <c r="P128" s="37"/>
-      <c r="Q128" s="37"/>
-      <c r="R128" s="36">
+      <c r="O128" s="40"/>
+      <c r="P128" s="40"/>
+      <c r="Q128" s="40"/>
+      <c r="R128" s="39">
         <v>2004</v>
       </c>
-      <c r="S128" s="37"/>
-      <c r="T128" s="37"/>
-      <c r="U128" s="37"/>
-      <c r="V128" s="36">
+      <c r="S128" s="40"/>
+      <c r="T128" s="40"/>
+      <c r="U128" s="40"/>
+      <c r="V128" s="39">
         <v>2005</v>
       </c>
-      <c r="W128" s="37"/>
-      <c r="X128" s="37"/>
-      <c r="Y128" s="37"/>
-      <c r="Z128" s="36">
+      <c r="W128" s="40"/>
+      <c r="X128" s="40"/>
+      <c r="Y128" s="40"/>
+      <c r="Z128" s="39">
         <v>2006</v>
       </c>
-      <c r="AA128" s="37"/>
-      <c r="AB128" s="37"/>
-      <c r="AC128" s="37"/>
-      <c r="AD128" s="36">
+      <c r="AA128" s="40"/>
+      <c r="AB128" s="40"/>
+      <c r="AC128" s="40"/>
+      <c r="AD128" s="39">
         <v>2007</v>
       </c>
-      <c r="AE128" s="37"/>
-      <c r="AF128" s="37"/>
-      <c r="AG128" s="37"/>
-      <c r="AH128" s="36">
+      <c r="AE128" s="40"/>
+      <c r="AF128" s="40"/>
+      <c r="AG128" s="40"/>
+      <c r="AH128" s="39">
         <v>2008</v>
       </c>
-      <c r="AI128" s="37"/>
-      <c r="AJ128" s="37"/>
-      <c r="AK128" s="37"/>
-      <c r="AL128" s="36">
+      <c r="AI128" s="40"/>
+      <c r="AJ128" s="40"/>
+      <c r="AK128" s="40"/>
+      <c r="AL128" s="39">
         <v>2009</v>
       </c>
-      <c r="AM128" s="37"/>
-      <c r="AN128" s="37"/>
-      <c r="AO128" s="37"/>
-      <c r="AP128" s="36">
+      <c r="AM128" s="40"/>
+      <c r="AN128" s="40"/>
+      <c r="AO128" s="40"/>
+      <c r="AP128" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="37"/>
-      <c r="AR128" s="37"/>
-      <c r="AS128" s="37"/>
-      <c r="AT128" s="36">
+      <c r="AQ128" s="40"/>
+      <c r="AR128" s="40"/>
+      <c r="AS128" s="40"/>
+      <c r="AT128" s="39">
         <v>2011</v>
       </c>
-      <c r="AU128" s="37"/>
-      <c r="AV128" s="37"/>
-      <c r="AW128" s="37"/>
-      <c r="AX128" s="36">
+      <c r="AU128" s="40"/>
+      <c r="AV128" s="40"/>
+      <c r="AW128" s="40"/>
+      <c r="AX128" s="39">
         <v>2012</v>
       </c>
-      <c r="AY128" s="37"/>
-      <c r="AZ128" s="37"/>
-      <c r="BA128" s="37"/>
-      <c r="BB128" s="36">
+      <c r="AY128" s="40"/>
+      <c r="AZ128" s="40"/>
+      <c r="BA128" s="40"/>
+      <c r="BB128" s="39">
         <v>2013</v>
       </c>
-      <c r="BC128" s="37"/>
-      <c r="BD128" s="37"/>
-      <c r="BE128" s="37"/>
-      <c r="BF128" s="36">
+      <c r="BC128" s="40"/>
+      <c r="BD128" s="40"/>
+      <c r="BE128" s="40"/>
+      <c r="BF128" s="39">
         <v>2014</v>
       </c>
-      <c r="BG128" s="37"/>
-      <c r="BH128" s="37"/>
-      <c r="BI128" s="37"/>
-      <c r="BJ128" s="36">
+      <c r="BG128" s="40"/>
+      <c r="BH128" s="40"/>
+      <c r="BI128" s="40"/>
+      <c r="BJ128" s="39">
         <v>2015</v>
       </c>
-      <c r="BK128" s="37"/>
-      <c r="BL128" s="37"/>
-      <c r="BM128" s="37"/>
-      <c r="BN128" s="36">
+      <c r="BK128" s="40"/>
+      <c r="BL128" s="40"/>
+      <c r="BM128" s="40"/>
+      <c r="BN128" s="39">
         <v>2016</v>
       </c>
-      <c r="BO128" s="37"/>
-      <c r="BP128" s="37"/>
-      <c r="BQ128" s="37"/>
-      <c r="BR128" s="36">
+      <c r="BO128" s="40"/>
+      <c r="BP128" s="40"/>
+      <c r="BQ128" s="40"/>
+      <c r="BR128" s="39">
         <v>2017</v>
       </c>
-      <c r="BS128" s="37"/>
-      <c r="BT128" s="37"/>
-      <c r="BU128" s="37"/>
-      <c r="BV128" s="36">
+      <c r="BS128" s="40"/>
+      <c r="BT128" s="40"/>
+      <c r="BU128" s="40"/>
+      <c r="BV128" s="39">
         <v>2018</v>
       </c>
-      <c r="BW128" s="37"/>
-      <c r="BX128" s="37"/>
-      <c r="BY128" s="37"/>
-      <c r="BZ128" s="36">
+      <c r="BW128" s="40"/>
+      <c r="BX128" s="40"/>
+      <c r="BY128" s="40"/>
+      <c r="BZ128" s="39">
         <v>2019</v>
       </c>
-      <c r="CA128" s="37"/>
-      <c r="CB128" s="37"/>
-      <c r="CC128" s="37"/>
-      <c r="CD128" s="36">
+      <c r="CA128" s="40"/>
+      <c r="CB128" s="40"/>
+      <c r="CC128" s="40"/>
+      <c r="CD128" s="39">
         <v>2020</v>
       </c>
-      <c r="CE128" s="36"/>
-      <c r="CF128" s="36"/>
-      <c r="CG128" s="36"/>
+      <c r="CE128" s="39"/>
+      <c r="CF128" s="39"/>
+      <c r="CG128" s="39"/>
       <c r="CH128" s="22">
         <v>2021</v>
       </c>
@@ -44552,6 +44708,7 @@
       </c>
       <c r="CU128" s="26"/>
       <c r="CV128" s="26"/>
+      <c r="CW128" s="26"/>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44853,6 +45010,9 @@
       </c>
       <c r="CV129" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="CW129" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44956,6 +45116,7 @@
       <c r="CT130" s="25"/>
       <c r="CU130" s="25"/>
       <c r="CV130" s="25"/>
+      <c r="CW130" s="25"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -45256,9 +45417,11 @@
         <v>23.471113622684818</v>
       </c>
       <c r="CV131" s="33">
-        <v>31.212011008696877</v>
-      </c>
-      <c r="CW131" s="10"/>
+        <v>30.990608932892052</v>
+      </c>
+      <c r="CW131" s="33">
+        <v>39.103454734433846</v>
+      </c>
       <c r="CX131" s="10"/>
       <c r="CY131" s="10"/>
       <c r="CZ131" s="10"/>
@@ -45613,9 +45776,11 @@
         <v>72.620442108348868</v>
       </c>
       <c r="CV132" s="33">
-        <v>62.878130661659839</v>
-      </c>
-      <c r="CW132" s="10"/>
+        <v>63.141454256123964</v>
+      </c>
+      <c r="CW132" s="33">
+        <v>53.8978303089402</v>
+      </c>
       <c r="CX132" s="10"/>
       <c r="CY132" s="10"/>
       <c r="CZ132" s="10"/>
@@ -45970,9 +46135,11 @@
         <v>3.9084442689663144</v>
       </c>
       <c r="CV133" s="33">
-        <v>5.9098583296432947</v>
-      </c>
-      <c r="CW133" s="10"/>
+        <v>5.8679368109839913</v>
+      </c>
+      <c r="CW133" s="33">
+        <v>6.9987149566259452</v>
+      </c>
       <c r="CX133" s="10"/>
       <c r="CY133" s="10"/>
       <c r="CZ133" s="10"/>
@@ -46128,7 +46295,7 @@
       <c r="CT134" s="29"/>
       <c r="CU134" s="29"/>
       <c r="CV134" s="29"/>
-      <c r="CW134" s="10"/>
+      <c r="CW134" s="29"/>
       <c r="CX134" s="10"/>
       <c r="CY134" s="10"/>
       <c r="CZ134" s="10"/>
@@ -46485,7 +46652,9 @@
       <c r="CV135" s="33">
         <v>100</v>
       </c>
-      <c r="CW135" s="10"/>
+      <c r="CW135" s="33">
+        <v>100</v>
+      </c>
       <c r="CX135" s="10"/>
       <c r="CY135" s="10"/>
       <c r="CZ135" s="10"/>
@@ -46642,6 +46811,7 @@
       <c r="CT136" s="31"/>
       <c r="CU136" s="31"/>
       <c r="CV136" s="31"/>
+      <c r="CW136" s="31"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46746,6 +46916,7 @@
       <c r="CT137" s="25"/>
       <c r="CU137" s="25"/>
       <c r="CV137" s="25"/>
+      <c r="CW137" s="25"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -46848,7 +47019,7 @@
       <c r="CT138" s="35"/>
       <c r="CU138" s="35"/>
       <c r="CV138" s="35"/>
-      <c r="CW138" s="19"/>
+      <c r="CW138" s="35"/>
       <c r="CX138" s="19"/>
       <c r="CY138" s="19"/>
       <c r="CZ138" s="19"/>
@@ -47005,7 +47176,7 @@
       <c r="CT139" s="35"/>
       <c r="CU139" s="35"/>
       <c r="CV139" s="35"/>
-      <c r="CW139" s="19"/>
+      <c r="CW139" s="35"/>
       <c r="CX139" s="19"/>
       <c r="CY139" s="19"/>
       <c r="CZ139" s="19"/>
@@ -47063,40 +47234,95 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF88:BI88"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="CD49:CG49"/>
+    <mergeCell ref="CD69:CG69"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BV69:BY69"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BR88:BU88"/>
+    <mergeCell ref="BV88:BY88"/>
+    <mergeCell ref="BZ88:CC88"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD88:CG88"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="BZ49:CC49"/>
+    <mergeCell ref="BZ69:CC69"/>
+    <mergeCell ref="BZ29:CC29"/>
+    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="F128:I128"/>
@@ -47121,104 +47347,49 @@
     <mergeCell ref="N88:Q88"/>
     <mergeCell ref="V88:Y88"/>
     <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR29:BU29"/>
-    <mergeCell ref="BV29:BY29"/>
-    <mergeCell ref="CD49:CG49"/>
-    <mergeCell ref="CD69:CG69"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BV69:BY69"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BR88:BU88"/>
-    <mergeCell ref="BV88:BY88"/>
-    <mergeCell ref="BZ88:CC88"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD88:CG88"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="BZ49:CC49"/>
-    <mergeCell ref="BZ69:CC69"/>
-    <mergeCell ref="BZ29:CC29"/>
-    <mergeCell ref="BV49:BY49"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF88:BI88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="99" man="1"/>
-    <brk id="80" max="99" man="1"/>
-    <brk id="99" max="99" man="1"/>
+    <brk id="40" max="100" man="1"/>
+    <brk id="80" max="100" man="1"/>
+    <brk id="99" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AE5578-1407-4373-9131-DF4247B53E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5E92F-77BC-483D-8A68-DB2E5D50B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CW$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$CX$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23653,21 +23656,25 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="96" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="35" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="89" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="35" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24"/>
       <c r="CP1" s="24"/>
       <c r="CQ1" s="24"/>
       <c r="CR1" s="24"/>
@@ -23676,11 +23683,16 @@
       <c r="CU1" s="24"/>
       <c r="CV1" s="24"/>
       <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
       <c r="CP2" s="24"/>
       <c r="CQ2" s="24"/>
       <c r="CR2" s="24"/>
@@ -23689,11 +23701,16 @@
       <c r="CU2" s="24"/>
       <c r="CV2" s="24"/>
       <c r="CW2" s="24"/>
+      <c r="CX2" s="24"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
       <c r="CP3" s="24"/>
       <c r="CQ3" s="24"/>
       <c r="CR3" s="24"/>
@@ -23702,9 +23719,14 @@
       <c r="CU3" s="24"/>
       <c r="CV3" s="24"/>
       <c r="CW3" s="24"/>
+      <c r="CX3" s="24"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CL4" s="24"/>
+      <c r="CM4" s="24"/>
+      <c r="CN4" s="24"/>
+      <c r="CO4" s="24"/>
       <c r="CP4" s="24"/>
       <c r="CQ4" s="24"/>
       <c r="CR4" s="24"/>
@@ -23713,11 +23735,16 @@
       <c r="CU4" s="24"/>
       <c r="CV4" s="24"/>
       <c r="CW4" s="24"/>
+      <c r="CX4" s="24"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CL5" s="24"/>
+      <c r="CM5" s="24"/>
+      <c r="CN5" s="24"/>
+      <c r="CO5" s="24"/>
       <c r="CP5" s="24"/>
       <c r="CQ5" s="24"/>
       <c r="CR5" s="24"/>
@@ -23726,11 +23753,16 @@
       <c r="CU5" s="24"/>
       <c r="CV5" s="24"/>
       <c r="CW5" s="24"/>
+      <c r="CX5" s="24"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="24"/>
       <c r="CP6" s="24"/>
       <c r="CQ6" s="24"/>
       <c r="CR6" s="24"/>
@@ -23739,11 +23771,16 @@
       <c r="CU6" s="24"/>
       <c r="CV6" s="24"/>
       <c r="CW6" s="24"/>
+      <c r="CX6" s="24"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="24"/>
+      <c r="CM7" s="24"/>
+      <c r="CN7" s="24"/>
+      <c r="CO7" s="24"/>
       <c r="CP7" s="24"/>
       <c r="CQ7" s="24"/>
       <c r="CR7" s="24"/>
@@ -23752,6 +23789,7 @@
       <c r="CU7" s="24"/>
       <c r="CV7" s="24"/>
       <c r="CW7" s="24"/>
+      <c r="CX7" s="24"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23843,10 +23881,10 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
+      <c r="CL8" s="25"/>
+      <c r="CM8" s="25"/>
+      <c r="CN8" s="25"/>
+      <c r="CO8" s="25"/>
       <c r="CP8" s="25"/>
       <c r="CQ8" s="25"/>
       <c r="CR8" s="25"/>
@@ -23855,6 +23893,7 @@
       <c r="CU8" s="25"/>
       <c r="CV8" s="25"/>
       <c r="CW8" s="25"/>
+      <c r="CX8" s="25"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23990,12 +24029,12 @@
       <c r="CI9" s="22"/>
       <c r="CJ9" s="22"/>
       <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
       <c r="CP9" s="26">
         <v>2023</v>
       </c>
@@ -24008,6 +24047,9 @@
       <c r="CU9" s="26"/>
       <c r="CV9" s="26"/>
       <c r="CW9" s="26"/>
+      <c r="CX9" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24277,16 +24319,16 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="27" t="s">
@@ -24312,6 +24354,9 @@
       </c>
       <c r="CW10" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24404,10 +24449,10 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
+      <c r="CL11" s="25"/>
+      <c r="CM11" s="25"/>
+      <c r="CN11" s="25"/>
+      <c r="CO11" s="25"/>
       <c r="CP11" s="25"/>
       <c r="CQ11" s="25"/>
       <c r="CR11" s="25"/>
@@ -24416,6 +24461,7 @@
       <c r="CU11" s="25"/>
       <c r="CV11" s="25"/>
       <c r="CW11" s="25"/>
+      <c r="CX11" s="25"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -24685,43 +24731,45 @@
       <c r="CK12" s="9">
         <v>43550.017248096432</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="28">
         <v>36539.883867386903</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="28">
         <v>19950.230694973907</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="28">
         <v>30018.876044656445</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="28">
         <v>49056.059797367976</v>
       </c>
       <c r="CP12" s="28">
-        <v>40262.181528339635</v>
+        <v>39987.491435687552</v>
       </c>
       <c r="CQ12" s="28">
-        <v>23236.821742308421</v>
+        <v>23078.287741540436</v>
       </c>
       <c r="CR12" s="28">
-        <v>33111.527753929491</v>
+        <v>32885.623238045853</v>
       </c>
       <c r="CS12" s="28">
-        <v>53197.245467958688</v>
+        <v>52834.305464915291</v>
       </c>
       <c r="CT12" s="28">
-        <v>43694.883738080607</v>
+        <v>44247.194652957303</v>
       </c>
       <c r="CU12" s="28">
-        <v>26705.56074213743</v>
+        <v>26523.361152445057</v>
       </c>
       <c r="CV12" s="28">
-        <v>39806.321890114057</v>
+        <v>39534.741915232727</v>
       </c>
       <c r="CW12" s="28">
-        <v>62730.006165095525</v>
-      </c>
-      <c r="CX12" s="10"/>
+        <v>61794.666412761602</v>
+      </c>
+      <c r="CX12" s="28">
+        <v>49671.783356549095</v>
+      </c>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
@@ -25044,43 +25092,45 @@
       <c r="CK13" s="9">
         <v>60560.584121346947</v>
       </c>
-      <c r="CL13" s="9">
+      <c r="CL13" s="28">
         <v>51356.064522989262</v>
       </c>
-      <c r="CM13" s="9">
+      <c r="CM13" s="28">
         <v>66648.055131561472</v>
       </c>
-      <c r="CN13" s="9">
+      <c r="CN13" s="28">
         <v>67186.506694655138</v>
       </c>
-      <c r="CO13" s="9">
+      <c r="CO13" s="28">
         <v>64814.715425068018</v>
       </c>
       <c r="CP13" s="28">
-        <v>58719.753747963237</v>
+        <v>58724.53334209953</v>
       </c>
       <c r="CQ13" s="28">
-        <v>74939.855295263042</v>
+        <v>74946.594560479542</v>
       </c>
       <c r="CR13" s="28">
-        <v>75659.319913841071</v>
+        <v>75711.765623961139</v>
       </c>
       <c r="CS13" s="28">
-        <v>73640.706679135736</v>
+        <v>73591.188071996497</v>
       </c>
       <c r="CT13" s="28">
-        <v>67458.903433437838</v>
+        <v>67484.374979131535</v>
       </c>
       <c r="CU13" s="28">
-        <v>84777.211117740953</v>
+        <v>84964.024209853931</v>
       </c>
       <c r="CV13" s="28">
-        <v>87183.316296218109</v>
+        <v>87294.449930561255</v>
       </c>
       <c r="CW13" s="28">
-        <v>84284.455110680021</v>
-      </c>
-      <c r="CX13" s="10"/>
+        <v>84769.739273087427</v>
+      </c>
+      <c r="CX13" s="28">
+        <v>79051.250875426049</v>
+      </c>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
@@ -25403,43 +25453,45 @@
       <c r="CK14" s="9">
         <v>8521.169658045339</v>
       </c>
-      <c r="CL14" s="9">
+      <c r="CL14" s="28">
         <v>5698.9577884640266</v>
       </c>
-      <c r="CM14" s="9">
+      <c r="CM14" s="28">
         <v>3966.2516753458185</v>
       </c>
-      <c r="CN14" s="9">
+      <c r="CN14" s="28">
         <v>6449.3618015119919</v>
       </c>
-      <c r="CO14" s="9">
+      <c r="CO14" s="28">
         <v>9891.7991232520089</v>
       </c>
       <c r="CP14" s="28">
-        <v>6033.5397901575643</v>
+        <v>6082.6172226147992</v>
       </c>
       <c r="CQ14" s="28">
-        <v>4226.6510547546868</v>
+        <v>4289.2867307999295</v>
       </c>
       <c r="CR14" s="28">
-        <v>7189.7961110793576</v>
+        <v>7244.1014833197123</v>
       </c>
       <c r="CS14" s="28">
-        <v>10427.111203207209</v>
+        <v>10520.079326524889</v>
       </c>
       <c r="CT14" s="28">
-        <v>6602.8065060838253</v>
+        <v>6734.3151934497955</v>
       </c>
       <c r="CU14" s="28">
-        <v>4675.568565839756</v>
+        <v>4744.5200748292464</v>
       </c>
       <c r="CV14" s="28">
-        <v>8247.1674380467539</v>
+        <v>8309.4592597802657</v>
       </c>
       <c r="CW14" s="28">
-        <v>11731.621236645995</v>
-      </c>
-      <c r="CX14" s="10"/>
+        <v>11884.169787044739</v>
+      </c>
+      <c r="CX14" s="28">
+        <v>7288.1131962423133</v>
+      </c>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
@@ -25583,10 +25635,10 @@
       <c r="CI15" s="12"/>
       <c r="CJ15" s="12"/>
       <c r="CK15" s="12"/>
-      <c r="CL15" s="12"/>
-      <c r="CM15" s="12"/>
-      <c r="CN15" s="12"/>
-      <c r="CO15" s="12"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="29"/>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="29"/>
       <c r="CP15" s="29"/>
       <c r="CQ15" s="29"/>
       <c r="CR15" s="29"/>
@@ -25595,7 +25647,7 @@
       <c r="CU15" s="29"/>
       <c r="CV15" s="29"/>
       <c r="CW15" s="29"/>
-      <c r="CX15" s="10"/>
+      <c r="CX15" s="29"/>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
@@ -25918,43 +25970,45 @@
       <c r="CK16" s="21">
         <v>112631.77102748872</v>
       </c>
-      <c r="CL16" s="21">
+      <c r="CL16" s="30">
         <v>93594.906178840203</v>
       </c>
-      <c r="CM16" s="21">
+      <c r="CM16" s="30">
         <v>90564.53750188119</v>
       </c>
-      <c r="CN16" s="21">
+      <c r="CN16" s="30">
         <v>103654.74454082357</v>
       </c>
-      <c r="CO16" s="21">
+      <c r="CO16" s="30">
         <v>123762.57434568802</v>
       </c>
       <c r="CP16" s="30">
-        <v>105015.47506646044</v>
+        <v>104794.64200040189</v>
       </c>
       <c r="CQ16" s="30">
-        <v>102403.32809232616</v>
+        <v>102314.1690328199</v>
       </c>
       <c r="CR16" s="30">
-        <v>115960.64377884992</v>
+        <v>115841.4903453267</v>
       </c>
       <c r="CS16" s="30">
-        <v>137265.06335030161</v>
+        <v>136945.57286343668</v>
       </c>
       <c r="CT16" s="30">
-        <v>117756.59367760227</v>
+        <v>118465.88482553864</v>
       </c>
       <c r="CU16" s="30">
-        <v>116158.34042571814</v>
+        <v>116231.90543712823</v>
       </c>
       <c r="CV16" s="30">
-        <v>135236.8056243789</v>
+        <v>135138.65110557424</v>
       </c>
       <c r="CW16" s="30">
-        <v>158746.08251242153</v>
-      </c>
-      <c r="CX16" s="10"/>
+        <v>158448.57547289378</v>
+      </c>
+      <c r="CX16" s="30">
+        <v>136011.14742821746</v>
+      </c>
       <c r="CY16" s="10"/>
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
@@ -26099,10 +26153,10 @@
       <c r="CI17" s="15"/>
       <c r="CJ17" s="15"/>
       <c r="CK17" s="15"/>
-      <c r="CL17" s="15"/>
-      <c r="CM17" s="15"/>
-      <c r="CN17" s="15"/>
-      <c r="CO17" s="15"/>
+      <c r="CL17" s="31"/>
+      <c r="CM17" s="31"/>
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="31"/>
       <c r="CP17" s="31"/>
       <c r="CQ17" s="31"/>
       <c r="CR17" s="31"/>
@@ -26111,6 +26165,7 @@
       <c r="CU17" s="31"/>
       <c r="CV17" s="31"/>
       <c r="CW17" s="31"/>
+      <c r="CX17" s="31"/>
     </row>
     <row r="18" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -26204,10 +26259,10 @@
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
       <c r="CP18" s="25"/>
       <c r="CQ18" s="25"/>
       <c r="CR18" s="25"/>
@@ -26216,6 +26271,7 @@
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
+      <c r="CX18" s="25"/>
     </row>
     <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -26306,10 +26362,10 @@
       <c r="CI19" s="12"/>
       <c r="CJ19" s="12"/>
       <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="29"/>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="29"/>
       <c r="CP19" s="29"/>
       <c r="CQ19" s="29"/>
       <c r="CR19" s="29"/>
@@ -26318,7 +26374,7 @@
       <c r="CU19" s="29"/>
       <c r="CV19" s="29"/>
       <c r="CW19" s="29"/>
-      <c r="CX19" s="10"/>
+      <c r="CX19" s="29"/>
       <c r="CY19" s="10"/>
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
@@ -26462,10 +26518,10 @@
       <c r="CI20" s="12"/>
       <c r="CJ20" s="12"/>
       <c r="CK20" s="12"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="12"/>
-      <c r="CO20" s="12"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="29"/>
       <c r="CP20" s="29"/>
       <c r="CQ20" s="29"/>
       <c r="CR20" s="29"/>
@@ -26474,7 +26530,7 @@
       <c r="CU20" s="29"/>
       <c r="CV20" s="29"/>
       <c r="CW20" s="29"/>
-      <c r="CX20" s="10"/>
+      <c r="CX20" s="29"/>
       <c r="CY20" s="10"/>
       <c r="CZ20" s="10"/>
       <c r="DA20" s="10"/>
@@ -26621,10 +26677,10 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
+      <c r="CL21" s="25"/>
+      <c r="CM21" s="25"/>
+      <c r="CN21" s="25"/>
+      <c r="CO21" s="25"/>
       <c r="CP21" s="25"/>
       <c r="CQ21" s="25"/>
       <c r="CR21" s="25"/>
@@ -26633,6 +26689,7 @@
       <c r="CU21" s="25"/>
       <c r="CV21" s="25"/>
       <c r="CW21" s="25"/>
+      <c r="CX21" s="25"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26726,10 +26783,10 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
+      <c r="CL22" s="25"/>
+      <c r="CM22" s="25"/>
+      <c r="CN22" s="25"/>
+      <c r="CO22" s="25"/>
       <c r="CP22" s="25"/>
       <c r="CQ22" s="25"/>
       <c r="CR22" s="25"/>
@@ -26738,10 +26795,11 @@
       <c r="CU22" s="25"/>
       <c r="CV22" s="25"/>
       <c r="CW22" s="25"/>
+      <c r="CX22" s="25"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26831,10 +26889,10 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
+      <c r="CL23" s="25"/>
+      <c r="CM23" s="25"/>
+      <c r="CN23" s="25"/>
+      <c r="CO23" s="25"/>
       <c r="CP23" s="25"/>
       <c r="CQ23" s="25"/>
       <c r="CR23" s="25"/>
@@ -26843,6 +26901,7 @@
       <c r="CU23" s="25"/>
       <c r="CV23" s="25"/>
       <c r="CW23" s="25"/>
+      <c r="CX23" s="25"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -26934,10 +26993,10 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
+      <c r="CL24" s="25"/>
+      <c r="CM24" s="25"/>
+      <c r="CN24" s="25"/>
+      <c r="CO24" s="25"/>
       <c r="CP24" s="25"/>
       <c r="CQ24" s="25"/>
       <c r="CR24" s="25"/>
@@ -26946,6 +27005,7 @@
       <c r="CU24" s="25"/>
       <c r="CV24" s="25"/>
       <c r="CW24" s="25"/>
+      <c r="CX24" s="25"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -27039,10 +27099,10 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
+      <c r="CL25" s="25"/>
+      <c r="CM25" s="25"/>
+      <c r="CN25" s="25"/>
+      <c r="CO25" s="25"/>
       <c r="CP25" s="25"/>
       <c r="CQ25" s="25"/>
       <c r="CR25" s="25"/>
@@ -27051,10 +27111,11 @@
       <c r="CU25" s="25"/>
       <c r="CV25" s="25"/>
       <c r="CW25" s="25"/>
+      <c r="CX25" s="25"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -27144,10 +27205,10 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
+      <c r="CL26" s="25"/>
+      <c r="CM26" s="25"/>
+      <c r="CN26" s="25"/>
+      <c r="CO26" s="25"/>
       <c r="CP26" s="25"/>
       <c r="CQ26" s="25"/>
       <c r="CR26" s="25"/>
@@ -27156,6 +27217,7 @@
       <c r="CU26" s="25"/>
       <c r="CV26" s="25"/>
       <c r="CW26" s="25"/>
+      <c r="CX26" s="25"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27249,10 +27311,10 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
+      <c r="CL27" s="25"/>
+      <c r="CM27" s="25"/>
+      <c r="CN27" s="25"/>
+      <c r="CO27" s="25"/>
       <c r="CP27" s="25"/>
       <c r="CQ27" s="25"/>
       <c r="CR27" s="25"/>
@@ -27261,6 +27323,7 @@
       <c r="CU27" s="25"/>
       <c r="CV27" s="25"/>
       <c r="CW27" s="25"/>
+      <c r="CX27" s="25"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -27352,10 +27415,10 @@
       <c r="CI28" s="1"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
-      <c r="CL28" s="1"/>
-      <c r="CM28" s="1"/>
-      <c r="CN28" s="1"/>
-      <c r="CO28" s="1"/>
+      <c r="CL28" s="25"/>
+      <c r="CM28" s="25"/>
+      <c r="CN28" s="25"/>
+      <c r="CO28" s="25"/>
       <c r="CP28" s="25"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="25"/>
@@ -27364,6 +27427,7 @@
       <c r="CU28" s="25"/>
       <c r="CV28" s="25"/>
       <c r="CW28" s="25"/>
+      <c r="CX28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -27499,12 +27563,12 @@
       <c r="CI29" s="22"/>
       <c r="CJ29" s="22"/>
       <c r="CK29" s="22"/>
-      <c r="CL29" s="22">
+      <c r="CL29" s="26">
         <v>2022</v>
       </c>
-      <c r="CM29" s="22"/>
-      <c r="CN29" s="22"/>
-      <c r="CO29" s="22"/>
+      <c r="CM29" s="26"/>
+      <c r="CN29" s="26"/>
+      <c r="CO29" s="26"/>
       <c r="CP29" s="26">
         <v>2023</v>
       </c>
@@ -27517,6 +27581,9 @@
       <c r="CU29" s="26"/>
       <c r="CV29" s="26"/>
       <c r="CW29" s="26"/>
+      <c r="CX29" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -27786,16 +27853,16 @@
       <c r="CK30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL30" s="7" t="s">
+      <c r="CL30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM30" s="7" t="s">
+      <c r="CM30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN30" s="7" t="s">
+      <c r="CN30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO30" s="7" t="s">
+      <c r="CO30" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP30" s="27" t="s">
@@ -27821,6 +27888,9 @@
       </c>
       <c r="CW30" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CX30" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27913,10 +27983,10 @@
       <c r="CI31" s="1"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
+      <c r="CL31" s="25"/>
+      <c r="CM31" s="25"/>
+      <c r="CN31" s="25"/>
+      <c r="CO31" s="25"/>
       <c r="CP31" s="25"/>
       <c r="CQ31" s="25"/>
       <c r="CR31" s="25"/>
@@ -27925,6 +27995,7 @@
       <c r="CU31" s="25"/>
       <c r="CV31" s="25"/>
       <c r="CW31" s="25"/>
+      <c r="CX31" s="25"/>
     </row>
     <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -28194,43 +28265,45 @@
       <c r="CK32" s="9">
         <v>35398.705930213182</v>
       </c>
-      <c r="CL32" s="9">
+      <c r="CL32" s="28">
         <v>34435.567886300276</v>
       </c>
-      <c r="CM32" s="9">
+      <c r="CM32" s="28">
         <v>19163.763133074142</v>
       </c>
-      <c r="CN32" s="9">
+      <c r="CN32" s="28">
         <v>27857.234646343699</v>
       </c>
-      <c r="CO32" s="9">
+      <c r="CO32" s="28">
         <v>38401.132944361525</v>
       </c>
       <c r="CP32" s="28">
-        <v>36466.310214995217</v>
+        <v>36217.51758251986</v>
       </c>
       <c r="CQ32" s="28">
-        <v>21425.791289372319</v>
+        <v>21279.61310500645</v>
       </c>
       <c r="CR32" s="28">
-        <v>29513.236253631727</v>
+        <v>29311.88120298037</v>
       </c>
       <c r="CS32" s="28">
-        <v>39938.739451381465</v>
+        <v>39666.256053218225</v>
       </c>
       <c r="CT32" s="28">
-        <v>38417.23811065546</v>
+        <v>38681.93726921198</v>
       </c>
       <c r="CU32" s="28">
-        <v>23517.190603405867</v>
+        <v>23356.743776618325</v>
       </c>
       <c r="CV32" s="28">
-        <v>33880.87852056569</v>
+        <v>33649.725083104844</v>
       </c>
       <c r="CW32" s="28">
-        <v>45437.240238877945</v>
-      </c>
-      <c r="CX32" s="10"/>
+        <v>44756.07651122057</v>
+      </c>
+      <c r="CX32" s="28">
+        <v>41415.369320301841</v>
+      </c>
       <c r="CY32" s="10"/>
       <c r="CZ32" s="10"/>
       <c r="DA32" s="10"/>
@@ -28553,43 +28626,45 @@
       <c r="CK33" s="9">
         <v>49687.886578342208</v>
       </c>
-      <c r="CL33" s="9">
+      <c r="CL33" s="28">
         <v>51934.93208856626</v>
       </c>
-      <c r="CM33" s="9">
+      <c r="CM33" s="28">
         <v>61616.511872566138</v>
       </c>
-      <c r="CN33" s="9">
+      <c r="CN33" s="28">
         <v>57186.790941903935</v>
       </c>
-      <c r="CO33" s="9">
+      <c r="CO33" s="28">
         <v>51717.147372412182</v>
       </c>
       <c r="CP33" s="28">
-        <v>56823.739361555607</v>
+        <v>56828.364626379102</v>
       </c>
       <c r="CQ33" s="28">
-        <v>66446.837736942136</v>
+        <v>66452.813233699417</v>
       </c>
       <c r="CR33" s="28">
-        <v>61618.959843679957</v>
+        <v>61661.673023094496</v>
       </c>
       <c r="CS33" s="28">
-        <v>56269.508022895752</v>
+        <v>56231.67042209916</v>
       </c>
       <c r="CT33" s="28">
-        <v>62982.823591207052</v>
+        <v>63006.605031274557</v>
       </c>
       <c r="CU33" s="28">
-        <v>72763.005889717402</v>
+        <v>72923.344758411884</v>
       </c>
       <c r="CV33" s="28">
-        <v>69030.20027441431</v>
+        <v>69118.193910832822</v>
       </c>
       <c r="CW33" s="28">
-        <v>62627.936092436161</v>
-      </c>
-      <c r="CX33" s="10"/>
+        <v>62988.528629577348</v>
+      </c>
+      <c r="CX33" s="28">
+        <v>71955.059398498866</v>
+      </c>
       <c r="CY33" s="10"/>
       <c r="CZ33" s="10"/>
       <c r="DA33" s="10"/>
@@ -28912,43 +28987,45 @@
       <c r="CK34" s="9">
         <v>6521.0075512020676</v>
       </c>
-      <c r="CL34" s="9">
+      <c r="CL34" s="28">
         <v>5458.3011887911216</v>
       </c>
-      <c r="CM34" s="9">
+      <c r="CM34" s="28">
         <v>3639.0822620491872</v>
       </c>
-      <c r="CN34" s="9">
+      <c r="CN34" s="28">
         <v>5488.2066935660987</v>
       </c>
-      <c r="CO34" s="9">
+      <c r="CO34" s="28">
         <v>7324.1213520143538</v>
       </c>
       <c r="CP34" s="28">
-        <v>5562.1833673924257</v>
+        <v>5607.4255992063017</v>
       </c>
       <c r="CQ34" s="28">
-        <v>3726.7650179692655</v>
+        <v>3781.9888269259218</v>
       </c>
       <c r="CR34" s="28">
-        <v>5877.176325540082</v>
+        <v>5921.5673267798556</v>
       </c>
       <c r="CS34" s="28">
-        <v>7482.1647340361324</v>
+        <v>7548.8757146827284</v>
       </c>
       <c r="CT34" s="28">
-        <v>5923.946664969184</v>
+        <v>6024.0223060052376</v>
       </c>
       <c r="CU34" s="28">
-        <v>3916.1170753838333</v>
+        <v>3973.8688071625184</v>
       </c>
       <c r="CV34" s="28">
-        <v>6415.1967678277933</v>
+        <v>6463.6515004919311</v>
       </c>
       <c r="CW34" s="28">
-        <v>8132.3324245214026</v>
-      </c>
-      <c r="CX34" s="10"/>
+        <v>8238.078723152852</v>
+      </c>
+      <c r="CX34" s="28">
+        <v>6305.9850705573899</v>
+      </c>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
       <c r="DA34" s="10"/>
@@ -29092,10 +29169,10 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="12"/>
-      <c r="CM35" s="12"/>
-      <c r="CN35" s="12"/>
-      <c r="CO35" s="12"/>
+      <c r="CL35" s="29"/>
+      <c r="CM35" s="29"/>
+      <c r="CN35" s="29"/>
+      <c r="CO35" s="29"/>
       <c r="CP35" s="29"/>
       <c r="CQ35" s="29"/>
       <c r="CR35" s="29"/>
@@ -29104,7 +29181,7 @@
       <c r="CU35" s="29"/>
       <c r="CV35" s="29"/>
       <c r="CW35" s="29"/>
-      <c r="CX35" s="10"/>
+      <c r="CX35" s="29"/>
       <c r="CY35" s="10"/>
       <c r="CZ35" s="10"/>
       <c r="DA35" s="10"/>
@@ -29427,43 +29504,45 @@
       <c r="CK36" s="21">
         <v>91607.60005975746</v>
       </c>
-      <c r="CL36" s="21">
+      <c r="CL36" s="30">
         <v>91828.80116365767</v>
       </c>
-      <c r="CM36" s="21">
+      <c r="CM36" s="30">
         <v>84419.357267689469</v>
       </c>
-      <c r="CN36" s="21">
+      <c r="CN36" s="30">
         <v>90532.232281813733</v>
       </c>
-      <c r="CO36" s="21">
+      <c r="CO36" s="30">
         <v>97442.401668788065</v>
       </c>
       <c r="CP36" s="30">
-        <v>98852.232943943251</v>
+        <v>98653.307808105252</v>
       </c>
       <c r="CQ36" s="30">
-        <v>91599.394044283719</v>
+        <v>91514.415165631799</v>
       </c>
       <c r="CR36" s="30">
-        <v>97009.372422851768</v>
+        <v>96895.121552854718</v>
       </c>
       <c r="CS36" s="30">
-        <v>103690.41220831336</v>
+        <v>103446.80219000012</v>
       </c>
       <c r="CT36" s="30">
-        <v>107324.00836683171</v>
+        <v>107712.56460649177</v>
       </c>
       <c r="CU36" s="30">
-        <v>100196.3135685071</v>
+        <v>100253.95734219273</v>
       </c>
       <c r="CV36" s="30">
-        <v>109326.27556280779</v>
+        <v>109231.5704944296</v>
       </c>
       <c r="CW36" s="30">
-        <v>116197.50875583552</v>
-      </c>
-      <c r="CX36" s="10"/>
+        <v>115982.68386395076</v>
+      </c>
+      <c r="CX36" s="30">
+        <v>119676.41378935811</v>
+      </c>
       <c r="CY36" s="10"/>
       <c r="CZ36" s="10"/>
       <c r="DA36" s="10"/>
@@ -29608,10 +29687,10 @@
       <c r="CI37" s="15"/>
       <c r="CJ37" s="15"/>
       <c r="CK37" s="15"/>
-      <c r="CL37" s="15"/>
-      <c r="CM37" s="15"/>
-      <c r="CN37" s="15"/>
-      <c r="CO37" s="15"/>
+      <c r="CL37" s="31"/>
+      <c r="CM37" s="31"/>
+      <c r="CN37" s="31"/>
+      <c r="CO37" s="31"/>
       <c r="CP37" s="31"/>
       <c r="CQ37" s="31"/>
       <c r="CR37" s="31"/>
@@ -29620,6 +29699,7 @@
       <c r="CU37" s="31"/>
       <c r="CV37" s="31"/>
       <c r="CW37" s="31"/>
+      <c r="CX37" s="31"/>
     </row>
     <row r="38" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -29713,10 +29793,10 @@
       <c r="CI38" s="1"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
+      <c r="CL38" s="25"/>
+      <c r="CM38" s="25"/>
+      <c r="CN38" s="25"/>
+      <c r="CO38" s="25"/>
       <c r="CP38" s="25"/>
       <c r="CQ38" s="25"/>
       <c r="CR38" s="25"/>
@@ -29725,6 +29805,7 @@
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
       <c r="CW38" s="25"/>
+      <c r="CX38" s="25"/>
     </row>
     <row r="39" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
@@ -29815,10 +29896,10 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="12"/>
-      <c r="CM39" s="12"/>
-      <c r="CN39" s="12"/>
-      <c r="CO39" s="12"/>
+      <c r="CL39" s="29"/>
+      <c r="CM39" s="29"/>
+      <c r="CN39" s="29"/>
+      <c r="CO39" s="29"/>
       <c r="CP39" s="29"/>
       <c r="CQ39" s="29"/>
       <c r="CR39" s="29"/>
@@ -29827,7 +29908,7 @@
       <c r="CU39" s="29"/>
       <c r="CV39" s="29"/>
       <c r="CW39" s="29"/>
-      <c r="CX39" s="10"/>
+      <c r="CX39" s="29"/>
       <c r="CY39" s="10"/>
       <c r="CZ39" s="10"/>
       <c r="DA39" s="10"/>
@@ -29971,10 +30052,10 @@
       <c r="CI40" s="12"/>
       <c r="CJ40" s="12"/>
       <c r="CK40" s="12"/>
-      <c r="CL40" s="12"/>
-      <c r="CM40" s="12"/>
-      <c r="CN40" s="12"/>
-      <c r="CO40" s="12"/>
+      <c r="CL40" s="29"/>
+      <c r="CM40" s="29"/>
+      <c r="CN40" s="29"/>
+      <c r="CO40" s="29"/>
       <c r="CP40" s="29"/>
       <c r="CQ40" s="29"/>
       <c r="CR40" s="29"/>
@@ -29983,7 +30064,7 @@
       <c r="CU40" s="29"/>
       <c r="CV40" s="29"/>
       <c r="CW40" s="29"/>
-      <c r="CX40" s="10"/>
+      <c r="CX40" s="29"/>
       <c r="CY40" s="10"/>
       <c r="CZ40" s="10"/>
       <c r="DA40" s="10"/>
@@ -30130,10 +30211,10 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
+      <c r="CL41" s="25"/>
+      <c r="CM41" s="25"/>
+      <c r="CN41" s="25"/>
+      <c r="CO41" s="25"/>
       <c r="CP41" s="25"/>
       <c r="CQ41" s="25"/>
       <c r="CR41" s="25"/>
@@ -30142,6 +30223,7 @@
       <c r="CU41" s="25"/>
       <c r="CV41" s="25"/>
       <c r="CW41" s="25"/>
+      <c r="CX41" s="25"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -30235,10 +30317,10 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
-      <c r="CN42" s="1"/>
-      <c r="CO42" s="1"/>
+      <c r="CL42" s="25"/>
+      <c r="CM42" s="25"/>
+      <c r="CN42" s="25"/>
+      <c r="CO42" s="25"/>
       <c r="CP42" s="25"/>
       <c r="CQ42" s="25"/>
       <c r="CR42" s="25"/>
@@ -30247,10 +30329,11 @@
       <c r="CU42" s="25"/>
       <c r="CV42" s="25"/>
       <c r="CW42" s="25"/>
+      <c r="CX42" s="25"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30340,10 +30423,10 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
+      <c r="CL43" s="25"/>
+      <c r="CM43" s="25"/>
+      <c r="CN43" s="25"/>
+      <c r="CO43" s="25"/>
       <c r="CP43" s="25"/>
       <c r="CQ43" s="25"/>
       <c r="CR43" s="25"/>
@@ -30352,6 +30435,7 @@
       <c r="CU43" s="25"/>
       <c r="CV43" s="25"/>
       <c r="CW43" s="25"/>
+      <c r="CX43" s="25"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -30443,10 +30527,10 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
+      <c r="CL44" s="25"/>
+      <c r="CM44" s="25"/>
+      <c r="CN44" s="25"/>
+      <c r="CO44" s="25"/>
       <c r="CP44" s="25"/>
       <c r="CQ44" s="25"/>
       <c r="CR44" s="25"/>
@@ -30455,6 +30539,7 @@
       <c r="CU44" s="25"/>
       <c r="CV44" s="25"/>
       <c r="CW44" s="25"/>
+      <c r="CX44" s="25"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30548,10 +30633,10 @@
       <c r="CI45" s="1"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
-      <c r="CN45" s="1"/>
-      <c r="CO45" s="1"/>
+      <c r="CL45" s="25"/>
+      <c r="CM45" s="25"/>
+      <c r="CN45" s="25"/>
+      <c r="CO45" s="25"/>
       <c r="CP45" s="25"/>
       <c r="CQ45" s="25"/>
       <c r="CR45" s="25"/>
@@ -30560,10 +30645,11 @@
       <c r="CU45" s="25"/>
       <c r="CV45" s="25"/>
       <c r="CW45" s="25"/>
+      <c r="CX45" s="25"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30653,10 +30739,10 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
+      <c r="CL46" s="25"/>
+      <c r="CM46" s="25"/>
+      <c r="CN46" s="25"/>
+      <c r="CO46" s="25"/>
       <c r="CP46" s="25"/>
       <c r="CQ46" s="25"/>
       <c r="CR46" s="25"/>
@@ -30665,6 +30751,7 @@
       <c r="CU46" s="25"/>
       <c r="CV46" s="25"/>
       <c r="CW46" s="25"/>
+      <c r="CX46" s="25"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -30758,18 +30845,19 @@
       <c r="CI47" s="1"/>
       <c r="CJ47" s="1"/>
       <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
-      <c r="CN47" s="1"/>
-      <c r="CO47" s="1"/>
+      <c r="CL47" s="25"/>
+      <c r="CM47" s="25"/>
+      <c r="CN47" s="25"/>
+      <c r="CO47" s="25"/>
       <c r="CP47" s="25"/>
       <c r="CQ47" s="25"/>
       <c r="CR47" s="25"/>
       <c r="CS47" s="25"/>
-      <c r="CT47" s="36"/>
+      <c r="CT47" s="25"/>
       <c r="CU47" s="36"/>
       <c r="CV47" s="36"/>
       <c r="CW47" s="25"/>
+      <c r="CX47" s="36"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -30861,18 +30949,19 @@
       <c r="CI48" s="1"/>
       <c r="CJ48" s="1"/>
       <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
-      <c r="CN48" s="1"/>
-      <c r="CO48" s="1"/>
+      <c r="CL48" s="25"/>
+      <c r="CM48" s="25"/>
+      <c r="CN48" s="25"/>
+      <c r="CO48" s="25"/>
       <c r="CP48" s="25"/>
       <c r="CQ48" s="25"/>
       <c r="CR48" s="25"/>
       <c r="CS48" s="25"/>
-      <c r="CT48" s="36"/>
+      <c r="CT48" s="25"/>
       <c r="CU48" s="36"/>
       <c r="CV48" s="36"/>
       <c r="CW48" s="25"/>
+      <c r="CX48" s="36"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -31008,22 +31097,25 @@
       <c r="CI49" s="22"/>
       <c r="CJ49" s="22"/>
       <c r="CK49" s="22"/>
-      <c r="CL49" s="22" t="s">
+      <c r="CL49" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="CM49" s="22"/>
-      <c r="CN49" s="22"/>
-      <c r="CO49" s="22"/>
+      <c r="CM49" s="26"/>
+      <c r="CN49" s="26"/>
+      <c r="CO49" s="26"/>
       <c r="CP49" s="26" t="s">
         <v>50</v>
       </c>
       <c r="CQ49" s="26"/>
       <c r="CR49" s="26"/>
       <c r="CS49" s="26"/>
-      <c r="CT49" s="23"/>
+      <c r="CT49" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="CU49" s="23"/>
       <c r="CV49" s="23"/>
       <c r="CW49" s="23"/>
+      <c r="CX49" s="23"/>
     </row>
     <row r="50" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -31293,16 +31385,16 @@
       <c r="CK50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL50" s="6" t="s">
+      <c r="CL50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CM50" s="6" t="s">
+      <c r="CM50" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CN50" s="6" t="s">
+      <c r="CN50" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CO50" s="6" t="s">
+      <c r="CO50" s="32" t="s">
         <v>9</v>
       </c>
       <c r="CP50" s="32" t="s">
@@ -31317,10 +31409,13 @@
       <c r="CS50" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CT50" s="32"/>
+      <c r="CT50" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="CU50" s="32"/>
       <c r="CV50" s="32"/>
       <c r="CW50" s="32"/>
+      <c r="CX50" s="32"/>
     </row>
     <row r="51" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -31412,18 +31507,19 @@
       <c r="CI51" s="1"/>
       <c r="CJ51" s="1"/>
       <c r="CK51" s="1"/>
-      <c r="CL51" s="1"/>
-      <c r="CM51" s="1"/>
-      <c r="CN51" s="1"/>
-      <c r="CO51" s="1"/>
+      <c r="CL51" s="25"/>
+      <c r="CM51" s="25"/>
+      <c r="CN51" s="25"/>
+      <c r="CO51" s="25"/>
       <c r="CP51" s="25"/>
       <c r="CQ51" s="25"/>
       <c r="CR51" s="25"/>
       <c r="CS51" s="25"/>
-      <c r="CT51" s="36"/>
+      <c r="CT51" s="25"/>
       <c r="CU51" s="36"/>
       <c r="CV51" s="36"/>
       <c r="CW51" s="25"/>
+      <c r="CX51" s="36"/>
     </row>
     <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -31693,35 +31789,37 @@
       <c r="CK52" s="17">
         <v>12.643031845210601</v>
       </c>
-      <c r="CL52" s="17">
-        <v>10.186944420682778</v>
-      </c>
-      <c r="CM52" s="17">
-        <v>16.473950089020818</v>
-      </c>
-      <c r="CN52" s="17">
-        <v>10.302356772693216</v>
-      </c>
-      <c r="CO52" s="17">
-        <v>8.4417413214521844</v>
+      <c r="CL52" s="33">
+        <v>9.4351902726701269</v>
+      </c>
+      <c r="CM52" s="33">
+        <v>15.679302632598564</v>
+      </c>
+      <c r="CN52" s="33">
+        <v>9.5498152200129027</v>
+      </c>
+      <c r="CO52" s="33">
+        <v>7.7018938804988011</v>
       </c>
       <c r="CP52" s="33">
-        <v>8.5258723681546513</v>
+        <v>10.652589258120116</v>
       </c>
       <c r="CQ52" s="33">
-        <v>14.927768686684487</v>
+        <v>14.927768686684502</v>
       </c>
       <c r="CR52" s="33">
-        <v>20.218922503175847</v>
+        <v>20.218922503175833</v>
       </c>
       <c r="CS52" s="33">
-        <v>17.919650939217391</v>
-      </c>
-      <c r="CT52" s="37"/>
+        <v>16.95936166662861</v>
+      </c>
+      <c r="CT52" s="33">
+        <v>12.25973476090023</v>
+      </c>
       <c r="CU52" s="37"/>
       <c r="CV52" s="37"/>
       <c r="CW52" s="33"/>
-      <c r="CX52" s="10"/>
+      <c r="CX52" s="37"/>
       <c r="CY52" s="10"/>
       <c r="CZ52" s="10"/>
       <c r="DA52" s="10"/>
@@ -32040,35 +32138,37 @@
       <c r="CK53" s="17">
         <v>7.0245876347509295</v>
       </c>
-      <c r="CL53" s="17">
-        <v>14.338499831266589</v>
-      </c>
-      <c r="CM53" s="17">
-        <v>12.441173485608516</v>
-      </c>
-      <c r="CN53" s="17">
-        <v>12.610885185164662</v>
-      </c>
-      <c r="CO53" s="17">
-        <v>13.617264530415781</v>
+      <c r="CL53" s="33">
+        <v>14.347806607750897</v>
+      </c>
+      <c r="CM53" s="33">
+        <v>12.451285206352949</v>
+      </c>
+      <c r="CN53" s="33">
+        <v>12.688945070549721</v>
+      </c>
+      <c r="CO53" s="33">
+        <v>13.540864276531337</v>
       </c>
       <c r="CP53" s="33">
-        <v>14.882810515494938</v>
+        <v>14.916834819276616</v>
       </c>
       <c r="CQ53" s="33">
-        <v>13.12700135824754</v>
+        <v>13.366090491664224</v>
       </c>
       <c r="CR53" s="33">
-        <v>15.231430041269562</v>
+        <v>15.298394128236325</v>
       </c>
       <c r="CS53" s="33">
-        <v>14.453620709970622</v>
-      </c>
-      <c r="CT53" s="37"/>
+        <v>15.190067580040449</v>
+      </c>
+      <c r="CT53" s="33">
+        <v>17.140080055377837</v>
+      </c>
       <c r="CU53" s="37"/>
       <c r="CV53" s="37"/>
       <c r="CW53" s="33"/>
-      <c r="CX53" s="10"/>
+      <c r="CX53" s="37"/>
       <c r="CY53" s="10"/>
       <c r="CZ53" s="10"/>
       <c r="DA53" s="10"/>
@@ -32387,35 +32487,37 @@
       <c r="CK54" s="17">
         <v>16.084992086885364</v>
       </c>
-      <c r="CL54" s="17">
-        <v>5.8709331444919144</v>
-      </c>
-      <c r="CM54" s="17">
-        <v>6.5653771047235381</v>
-      </c>
-      <c r="CN54" s="17">
-        <v>11.480737666070738</v>
-      </c>
-      <c r="CO54" s="17">
-        <v>5.4116756040554463</v>
+      <c r="CL54" s="33">
+        <v>6.7320981904337884</v>
+      </c>
+      <c r="CM54" s="33">
+        <v>8.1445929783551918</v>
+      </c>
+      <c r="CN54" s="33">
+        <v>12.322764736526352</v>
+      </c>
+      <c r="CO54" s="33">
+        <v>6.3515261020214382</v>
       </c>
       <c r="CP54" s="33">
-        <v>9.4350370715197585</v>
+        <v>10.7141045866247</v>
       </c>
       <c r="CQ54" s="33">
-        <v>10.621115991585555</v>
+        <v>10.613264456312493</v>
       </c>
       <c r="CR54" s="33">
-        <v>14.706555104365265</v>
+        <v>14.70655510436525</v>
       </c>
       <c r="CS54" s="33">
-        <v>12.510752096300081</v>
-      </c>
-      <c r="CT54" s="37"/>
+        <v>12.966541583773889</v>
+      </c>
+      <c r="CT54" s="33">
+        <v>8.2235236528752864</v>
+      </c>
       <c r="CU54" s="37"/>
       <c r="CV54" s="37"/>
       <c r="CW54" s="33"/>
-      <c r="CX54" s="10"/>
+      <c r="CX54" s="37"/>
       <c r="CY54" s="10"/>
       <c r="CZ54" s="10"/>
       <c r="DA54" s="10"/>
@@ -32555,19 +32657,19 @@
       <c r="CI55" s="12"/>
       <c r="CJ55" s="12"/>
       <c r="CK55" s="12"/>
-      <c r="CL55" s="12"/>
-      <c r="CM55" s="12"/>
-      <c r="CN55" s="12"/>
-      <c r="CO55" s="12"/>
+      <c r="CL55" s="29"/>
+      <c r="CM55" s="29"/>
+      <c r="CN55" s="29"/>
+      <c r="CO55" s="29"/>
       <c r="CP55" s="29"/>
       <c r="CQ55" s="29"/>
       <c r="CR55" s="29"/>
       <c r="CS55" s="29"/>
-      <c r="CT55" s="38"/>
+      <c r="CT55" s="29"/>
       <c r="CU55" s="38"/>
       <c r="CV55" s="38"/>
       <c r="CW55" s="29"/>
-      <c r="CX55" s="10"/>
+      <c r="CX55" s="38"/>
       <c r="CY55" s="10"/>
       <c r="CZ55" s="10"/>
       <c r="DA55" s="10"/>
@@ -32886,35 +32988,37 @@
       <c r="CK56" s="17">
         <v>9.8824720739610257</v>
       </c>
-      <c r="CL56" s="17">
-        <v>12.202126540730674</v>
-      </c>
-      <c r="CM56" s="17">
-        <v>13.072214485939455</v>
-      </c>
-      <c r="CN56" s="17">
-        <v>11.872007685263043</v>
-      </c>
-      <c r="CO56" s="17">
-        <v>10.909993651957379</v>
+      <c r="CL56" s="33">
+        <v>11.966180937412702</v>
+      </c>
+      <c r="CM56" s="33">
+        <v>12.973766393600414</v>
+      </c>
+      <c r="CN56" s="33">
+        <v>11.757055461849603</v>
+      </c>
+      <c r="CO56" s="33">
+        <v>10.651845751791257</v>
       </c>
       <c r="CP56" s="33">
-        <v>12.132610553900221</v>
+        <v>13.045746007781901</v>
       </c>
       <c r="CQ56" s="33">
-        <v>13.432192673455432</v>
+        <v>13.602941348078446</v>
       </c>
       <c r="CR56" s="33">
-        <v>16.623020722695188</v>
+        <v>16.658246283539825</v>
       </c>
       <c r="CS56" s="33">
-        <v>15.649298253919255</v>
-      </c>
-      <c r="CT56" s="37"/>
+        <v>15.701860352141566</v>
+      </c>
+      <c r="CT56" s="33">
+        <v>14.810392568727465</v>
+      </c>
       <c r="CU56" s="37"/>
       <c r="CV56" s="37"/>
       <c r="CW56" s="33"/>
-      <c r="CX56" s="10"/>
+      <c r="CX56" s="37"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="10"/>
@@ -33055,18 +33159,19 @@
       <c r="CI57" s="15"/>
       <c r="CJ57" s="15"/>
       <c r="CK57" s="15"/>
-      <c r="CL57" s="15"/>
-      <c r="CM57" s="15"/>
-      <c r="CN57" s="15"/>
-      <c r="CO57" s="15"/>
+      <c r="CL57" s="31"/>
+      <c r="CM57" s="31"/>
+      <c r="CN57" s="31"/>
+      <c r="CO57" s="31"/>
       <c r="CP57" s="31"/>
       <c r="CQ57" s="31"/>
       <c r="CR57" s="31"/>
       <c r="CS57" s="31"/>
-      <c r="CT57" s="27"/>
+      <c r="CT57" s="31"/>
       <c r="CU57" s="27"/>
       <c r="CV57" s="27"/>
       <c r="CW57" s="31"/>
+      <c r="CX57" s="27"/>
     </row>
     <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -33160,18 +33265,19 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
+      <c r="CL58" s="25"/>
+      <c r="CM58" s="25"/>
+      <c r="CN58" s="25"/>
+      <c r="CO58" s="25"/>
       <c r="CP58" s="25"/>
       <c r="CQ58" s="25"/>
       <c r="CR58" s="25"/>
       <c r="CS58" s="25"/>
-      <c r="CT58" s="36"/>
+      <c r="CT58" s="25"/>
       <c r="CU58" s="36"/>
       <c r="CV58" s="36"/>
       <c r="CW58" s="25"/>
+      <c r="CX58" s="36"/>
     </row>
     <row r="59" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
@@ -33262,19 +33368,19 @@
       <c r="CI59" s="12"/>
       <c r="CJ59" s="12"/>
       <c r="CK59" s="12"/>
-      <c r="CL59" s="12"/>
-      <c r="CM59" s="12"/>
-      <c r="CN59" s="12"/>
-      <c r="CO59" s="12"/>
+      <c r="CL59" s="29"/>
+      <c r="CM59" s="29"/>
+      <c r="CN59" s="29"/>
+      <c r="CO59" s="29"/>
       <c r="CP59" s="29"/>
       <c r="CQ59" s="29"/>
       <c r="CR59" s="29"/>
       <c r="CS59" s="29"/>
-      <c r="CT59" s="38"/>
+      <c r="CT59" s="29"/>
       <c r="CU59" s="38"/>
       <c r="CV59" s="38"/>
       <c r="CW59" s="29"/>
-      <c r="CX59" s="10"/>
+      <c r="CX59" s="38"/>
       <c r="CY59" s="10"/>
       <c r="CZ59" s="10"/>
       <c r="DA59" s="10"/>
@@ -33414,19 +33520,19 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="12"/>
-      <c r="CM60" s="12"/>
-      <c r="CN60" s="12"/>
-      <c r="CO60" s="12"/>
+      <c r="CL60" s="29"/>
+      <c r="CM60" s="29"/>
+      <c r="CN60" s="29"/>
+      <c r="CO60" s="29"/>
       <c r="CP60" s="29"/>
       <c r="CQ60" s="29"/>
       <c r="CR60" s="29"/>
       <c r="CS60" s="29"/>
-      <c r="CT60" s="38"/>
+      <c r="CT60" s="29"/>
       <c r="CU60" s="38"/>
       <c r="CV60" s="38"/>
       <c r="CW60" s="29"/>
-      <c r="CX60" s="10"/>
+      <c r="CX60" s="38"/>
       <c r="CY60" s="10"/>
       <c r="CZ60" s="10"/>
       <c r="DA60" s="10"/>
@@ -33569,18 +33675,19 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
+      <c r="CL61" s="25"/>
+      <c r="CM61" s="25"/>
+      <c r="CN61" s="25"/>
+      <c r="CO61" s="25"/>
       <c r="CP61" s="25"/>
       <c r="CQ61" s="25"/>
       <c r="CR61" s="25"/>
       <c r="CS61" s="25"/>
-      <c r="CT61" s="36"/>
+      <c r="CT61" s="25"/>
       <c r="CU61" s="36"/>
       <c r="CV61" s="36"/>
       <c r="CW61" s="25"/>
+      <c r="CX61" s="36"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33674,22 +33781,23 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
-      <c r="CN62" s="1"/>
-      <c r="CO62" s="1"/>
+      <c r="CL62" s="25"/>
+      <c r="CM62" s="25"/>
+      <c r="CN62" s="25"/>
+      <c r="CO62" s="25"/>
       <c r="CP62" s="25"/>
       <c r="CQ62" s="25"/>
       <c r="CR62" s="25"/>
       <c r="CS62" s="25"/>
-      <c r="CT62" s="36"/>
+      <c r="CT62" s="25"/>
       <c r="CU62" s="36"/>
       <c r="CV62" s="36"/>
       <c r="CW62" s="25"/>
+      <c r="CX62" s="36"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33779,18 +33887,19 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1"/>
+      <c r="CL63" s="25"/>
+      <c r="CM63" s="25"/>
+      <c r="CN63" s="25"/>
+      <c r="CO63" s="25"/>
       <c r="CP63" s="25"/>
       <c r="CQ63" s="25"/>
       <c r="CR63" s="25"/>
       <c r="CS63" s="25"/>
-      <c r="CT63" s="36"/>
+      <c r="CT63" s="25"/>
       <c r="CU63" s="36"/>
       <c r="CV63" s="36"/>
       <c r="CW63" s="25"/>
+      <c r="CX63" s="36"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -33882,18 +33991,19 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
+      <c r="CL64" s="25"/>
+      <c r="CM64" s="25"/>
+      <c r="CN64" s="25"/>
+      <c r="CO64" s="25"/>
       <c r="CP64" s="25"/>
       <c r="CQ64" s="25"/>
       <c r="CR64" s="25"/>
       <c r="CS64" s="25"/>
-      <c r="CT64" s="36"/>
+      <c r="CT64" s="25"/>
       <c r="CU64" s="36"/>
       <c r="CV64" s="36"/>
       <c r="CW64" s="25"/>
+      <c r="CX64" s="36"/>
     </row>
     <row r="65" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -33987,22 +34097,23 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
+      <c r="CL65" s="25"/>
+      <c r="CM65" s="25"/>
+      <c r="CN65" s="25"/>
+      <c r="CO65" s="25"/>
       <c r="CP65" s="25"/>
       <c r="CQ65" s="25"/>
       <c r="CR65" s="25"/>
       <c r="CS65" s="25"/>
-      <c r="CT65" s="36"/>
+      <c r="CT65" s="25"/>
       <c r="CU65" s="36"/>
       <c r="CV65" s="36"/>
       <c r="CW65" s="25"/>
+      <c r="CX65" s="36"/>
     </row>
     <row r="66" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -34092,18 +34203,19 @@
       <c r="CI66" s="1"/>
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="1"/>
+      <c r="CL66" s="25"/>
+      <c r="CM66" s="25"/>
+      <c r="CN66" s="25"/>
+      <c r="CO66" s="25"/>
       <c r="CP66" s="25"/>
       <c r="CQ66" s="25"/>
       <c r="CR66" s="25"/>
       <c r="CS66" s="25"/>
-      <c r="CT66" s="36"/>
+      <c r="CT66" s="25"/>
       <c r="CU66" s="36"/>
       <c r="CV66" s="36"/>
       <c r="CW66" s="25"/>
+      <c r="CX66" s="36"/>
     </row>
     <row r="67" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -34197,18 +34309,19 @@
       <c r="CI67" s="1"/>
       <c r="CJ67" s="1"/>
       <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="1"/>
+      <c r="CL67" s="25"/>
+      <c r="CM67" s="25"/>
+      <c r="CN67" s="25"/>
+      <c r="CO67" s="25"/>
       <c r="CP67" s="25"/>
       <c r="CQ67" s="25"/>
       <c r="CR67" s="25"/>
       <c r="CS67" s="25"/>
-      <c r="CT67" s="36"/>
+      <c r="CT67" s="25"/>
       <c r="CU67" s="36"/>
       <c r="CV67" s="36"/>
       <c r="CW67" s="25"/>
+      <c r="CX67" s="36"/>
     </row>
     <row r="68" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -34300,18 +34413,19 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
+      <c r="CL68" s="25"/>
+      <c r="CM68" s="25"/>
+      <c r="CN68" s="25"/>
+      <c r="CO68" s="25"/>
       <c r="CP68" s="25"/>
       <c r="CQ68" s="25"/>
       <c r="CR68" s="25"/>
       <c r="CS68" s="25"/>
-      <c r="CT68" s="36"/>
+      <c r="CT68" s="25"/>
       <c r="CU68" s="36"/>
       <c r="CV68" s="36"/>
       <c r="CW68" s="25"/>
+      <c r="CX68" s="36"/>
     </row>
     <row r="69" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
@@ -34447,22 +34561,25 @@
       <c r="CI69" s="22"/>
       <c r="CJ69" s="22"/>
       <c r="CK69" s="22"/>
-      <c r="CL69" s="22" t="s">
+      <c r="CL69" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="CM69" s="22"/>
-      <c r="CN69" s="22"/>
-      <c r="CO69" s="22"/>
+      <c r="CM69" s="26"/>
+      <c r="CN69" s="26"/>
+      <c r="CO69" s="26"/>
       <c r="CP69" s="26" t="s">
         <v>50</v>
       </c>
       <c r="CQ69" s="26"/>
       <c r="CR69" s="26"/>
       <c r="CS69" s="26"/>
-      <c r="CT69" s="23"/>
+      <c r="CT69" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="CU69" s="23"/>
       <c r="CV69" s="23"/>
       <c r="CW69" s="23"/>
+      <c r="CX69" s="23"/>
     </row>
     <row r="70" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -34732,16 +34849,16 @@
       <c r="CK70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL70" s="6" t="s">
+      <c r="CL70" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CM70" s="6" t="s">
+      <c r="CM70" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CN70" s="6" t="s">
+      <c r="CN70" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CO70" s="6" t="s">
+      <c r="CO70" s="32" t="s">
         <v>9</v>
       </c>
       <c r="CP70" s="32" t="s">
@@ -34756,10 +34873,13 @@
       <c r="CS70" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CT70" s="32"/>
+      <c r="CT70" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="CU70" s="32"/>
       <c r="CV70" s="32"/>
       <c r="CW70" s="32"/>
+      <c r="CX70" s="32"/>
     </row>
     <row r="71" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
@@ -34851,18 +34971,19 @@
       <c r="CI71" s="1"/>
       <c r="CJ71" s="1"/>
       <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
+      <c r="CL71" s="25"/>
+      <c r="CM71" s="25"/>
+      <c r="CN71" s="25"/>
+      <c r="CO71" s="25"/>
       <c r="CP71" s="25"/>
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="36"/>
+      <c r="CT71" s="25"/>
       <c r="CU71" s="36"/>
       <c r="CV71" s="36"/>
       <c r="CW71" s="25"/>
+      <c r="CX71" s="36"/>
     </row>
     <row r="72" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -35132,35 +35253,37 @@
       <c r="CK72" s="17">
         <v>8.4817422989062976</v>
       </c>
-      <c r="CL72" s="17">
-        <v>5.8972232878518724</v>
-      </c>
-      <c r="CM72" s="17">
-        <v>11.803674156221504</v>
-      </c>
-      <c r="CN72" s="17">
-        <v>5.9446015669232253</v>
-      </c>
-      <c r="CO72" s="17">
-        <v>4.0040654770465665</v>
+      <c r="CL72" s="33">
+        <v>5.1747359070808585</v>
+      </c>
+      <c r="CM72" s="33">
+        <v>11.040889815010431</v>
+      </c>
+      <c r="CN72" s="33">
+        <v>5.2217909462438143</v>
+      </c>
+      <c r="CO72" s="33">
+        <v>3.2944942293491692</v>
       </c>
       <c r="CP72" s="33">
-        <v>5.3499459752251113</v>
+        <v>6.8044964182789585</v>
       </c>
       <c r="CQ72" s="33">
         <v>9.7611298728132851</v>
       </c>
       <c r="CR72" s="33">
-        <v>14.798926926885244</v>
+        <v>14.79892692688523</v>
       </c>
       <c r="CS72" s="33">
-        <v>13.767336833927772</v>
-      </c>
-      <c r="CT72" s="37"/>
+        <v>12.831612973943379</v>
+      </c>
+      <c r="CT72" s="33">
+        <v>7.0664300809604867</v>
+      </c>
       <c r="CU72" s="37"/>
       <c r="CV72" s="37"/>
       <c r="CW72" s="33"/>
-      <c r="CX72" s="10"/>
+      <c r="CX72" s="37"/>
       <c r="CY72" s="10"/>
       <c r="CZ72" s="10"/>
       <c r="DA72" s="10"/>
@@ -35479,35 +35602,37 @@
       <c r="CK73" s="17">
         <v>4.0840151067211679</v>
       </c>
-      <c r="CL73" s="17">
-        <v>9.4133314060222801</v>
-      </c>
-      <c r="CM73" s="17">
-        <v>7.8393367582474838</v>
-      </c>
-      <c r="CN73" s="17">
-        <v>7.7503367976682966</v>
-      </c>
-      <c r="CO73" s="17">
-        <v>8.8024202450732218</v>
+      <c r="CL73" s="33">
+        <v>9.4222372900534879</v>
+      </c>
+      <c r="CM73" s="33">
+        <v>7.8490346404801414</v>
+      </c>
+      <c r="CN73" s="33">
+        <v>7.8250274363822996</v>
+      </c>
+      <c r="CO73" s="33">
+        <v>8.7292576622182168</v>
       </c>
       <c r="CP73" s="33">
-        <v>10.838928058681049</v>
+        <v>10.871754704740511</v>
       </c>
       <c r="CQ73" s="33">
-        <v>9.5055963050950396</v>
+        <v>9.7370317520750689</v>
       </c>
       <c r="CR73" s="33">
-        <v>12.027532515212513</v>
+        <v>12.092634731051803</v>
       </c>
       <c r="CS73" s="33">
-        <v>11.299953194815913</v>
-      </c>
-      <c r="CT73" s="37"/>
+        <v>12.016107927718124</v>
+      </c>
+      <c r="CT73" s="33">
+        <v>14.20240681557523</v>
+      </c>
       <c r="CU73" s="37"/>
       <c r="CV73" s="37"/>
       <c r="CW73" s="33"/>
-      <c r="CX73" s="10"/>
+      <c r="CX73" s="37"/>
       <c r="CY73" s="10"/>
       <c r="CZ73" s="10"/>
       <c r="DA73" s="10"/>
@@ -35826,35 +35951,37 @@
       <c r="CK74" s="17">
         <v>12.315793142491344</v>
       </c>
-      <c r="CL74" s="17">
-        <v>1.9031961595419347</v>
-      </c>
-      <c r="CM74" s="17">
-        <v>2.4094744115705566</v>
-      </c>
-      <c r="CN74" s="17">
-        <v>7.0873721361474509</v>
-      </c>
-      <c r="CO74" s="17">
-        <v>2.1578476710836014</v>
+      <c r="CL74" s="33">
+        <v>2.7320663564959489</v>
+      </c>
+      <c r="CM74" s="33">
+        <v>3.9269946262842268</v>
+      </c>
+      <c r="CN74" s="33">
+        <v>7.8962156021162855</v>
+      </c>
+      <c r="CO74" s="33">
+        <v>3.0686870392522962</v>
       </c>
       <c r="CP74" s="33">
-        <v>6.5039800682866513</v>
+        <v>7.4293755561893278</v>
       </c>
       <c r="CQ74" s="33">
-        <v>5.0808692391812542</v>
+        <v>5.073520547456539</v>
       </c>
       <c r="CR74" s="33">
-        <v>9.1544036198075105</v>
+        <v>9.1544036198075247</v>
       </c>
       <c r="CS74" s="33">
-        <v>8.6895666374154672</v>
-      </c>
-      <c r="CT74" s="37"/>
+        <v>9.129876216263682</v>
+      </c>
+      <c r="CT74" s="33">
+        <v>4.6806394503398252</v>
+      </c>
       <c r="CU74" s="37"/>
       <c r="CV74" s="37"/>
       <c r="CW74" s="33"/>
-      <c r="CX74" s="10"/>
+      <c r="CX74" s="37"/>
       <c r="CY74" s="10"/>
       <c r="CZ74" s="10"/>
       <c r="DA74" s="10"/>
@@ -35994,19 +36121,19 @@
       <c r="CI75" s="12"/>
       <c r="CJ75" s="12"/>
       <c r="CK75" s="12"/>
-      <c r="CL75" s="12"/>
-      <c r="CM75" s="12"/>
-      <c r="CN75" s="12"/>
-      <c r="CO75" s="12"/>
+      <c r="CL75" s="29"/>
+      <c r="CM75" s="29"/>
+      <c r="CN75" s="29"/>
+      <c r="CO75" s="29"/>
       <c r="CP75" s="29"/>
       <c r="CQ75" s="29"/>
       <c r="CR75" s="29"/>
       <c r="CS75" s="29"/>
-      <c r="CT75" s="38"/>
+      <c r="CT75" s="29"/>
       <c r="CU75" s="38"/>
       <c r="CV75" s="38"/>
       <c r="CW75" s="29"/>
-      <c r="CX75" s="10"/>
+      <c r="CX75" s="38"/>
       <c r="CY75" s="10"/>
       <c r="CZ75" s="10"/>
       <c r="DA75" s="10"/>
@@ -36325,35 +36452,37 @@
       <c r="CK76" s="17">
         <v>6.3693422873478198</v>
       </c>
-      <c r="CL76" s="17">
-        <v>7.6483975520581993</v>
-      </c>
-      <c r="CM76" s="17">
-        <v>8.5052018979802568</v>
-      </c>
-      <c r="CN76" s="17">
-        <v>7.1545127937148862</v>
-      </c>
-      <c r="CO76" s="17">
-        <v>6.4120038428061292</v>
+      <c r="CL76" s="33">
+        <v>7.4317714681746878</v>
+      </c>
+      <c r="CM76" s="33">
+        <v>8.4045391099629683</v>
+      </c>
+      <c r="CN76" s="33">
+        <v>7.0283136852676193</v>
+      </c>
+      <c r="CO76" s="33">
+        <v>6.1619997233045751</v>
       </c>
       <c r="CP76" s="33">
-        <v>8.5701406742046942</v>
+        <v>9.1829224986637712</v>
       </c>
       <c r="CQ76" s="33">
-        <v>9.3853454096729081</v>
+        <v>9.5499076956818669</v>
       </c>
       <c r="CR76" s="33">
-        <v>12.696611504987558</v>
+        <v>12.731754441161996</v>
       </c>
       <c r="CS76" s="33">
-        <v>12.061960485213888</v>
-      </c>
-      <c r="CT76" s="37"/>
+        <v>12.118191581143378</v>
+      </c>
+      <c r="CT76" s="33">
+        <v>11.107199263683</v>
+      </c>
       <c r="CU76" s="37"/>
       <c r="CV76" s="37"/>
       <c r="CW76" s="33"/>
-      <c r="CX76" s="10"/>
+      <c r="CX76" s="37"/>
       <c r="CY76" s="10"/>
       <c r="CZ76" s="10"/>
       <c r="DA76" s="10"/>
@@ -36494,18 +36623,19 @@
       <c r="CI77" s="15"/>
       <c r="CJ77" s="15"/>
       <c r="CK77" s="15"/>
-      <c r="CL77" s="15"/>
-      <c r="CM77" s="15"/>
-      <c r="CN77" s="15"/>
-      <c r="CO77" s="15"/>
+      <c r="CL77" s="31"/>
+      <c r="CM77" s="31"/>
+      <c r="CN77" s="31"/>
+      <c r="CO77" s="31"/>
       <c r="CP77" s="31"/>
       <c r="CQ77" s="31"/>
       <c r="CR77" s="31"/>
       <c r="CS77" s="31"/>
-      <c r="CT77" s="27"/>
+      <c r="CT77" s="31"/>
       <c r="CU77" s="27"/>
       <c r="CV77" s="27"/>
       <c r="CW77" s="31"/>
+      <c r="CX77" s="27"/>
     </row>
     <row r="78" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -36599,18 +36729,19 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
+      <c r="CL78" s="25"/>
+      <c r="CM78" s="25"/>
+      <c r="CN78" s="25"/>
+      <c r="CO78" s="25"/>
       <c r="CP78" s="25"/>
       <c r="CQ78" s="25"/>
       <c r="CR78" s="25"/>
       <c r="CS78" s="25"/>
-      <c r="CT78" s="36"/>
+      <c r="CT78" s="25"/>
       <c r="CU78" s="36"/>
       <c r="CV78" s="36"/>
       <c r="CW78" s="25"/>
+      <c r="CX78" s="36"/>
     </row>
     <row r="79" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
@@ -36701,19 +36832,19 @@
       <c r="CI79" s="12"/>
       <c r="CJ79" s="12"/>
       <c r="CK79" s="12"/>
-      <c r="CL79" s="12"/>
-      <c r="CM79" s="12"/>
-      <c r="CN79" s="12"/>
-      <c r="CO79" s="12"/>
+      <c r="CL79" s="29"/>
+      <c r="CM79" s="29"/>
+      <c r="CN79" s="29"/>
+      <c r="CO79" s="29"/>
       <c r="CP79" s="29"/>
       <c r="CQ79" s="29"/>
       <c r="CR79" s="29"/>
       <c r="CS79" s="29"/>
-      <c r="CT79" s="38"/>
+      <c r="CT79" s="29"/>
       <c r="CU79" s="38"/>
       <c r="CV79" s="38"/>
       <c r="CW79" s="29"/>
-      <c r="CX79" s="10"/>
+      <c r="CX79" s="38"/>
       <c r="CY79" s="10"/>
       <c r="CZ79" s="10"/>
       <c r="DA79" s="10"/>
@@ -36853,10 +36984,10 @@
       <c r="CI80" s="10"/>
       <c r="CJ80" s="10"/>
       <c r="CK80" s="10"/>
-      <c r="CL80" s="10"/>
-      <c r="CM80" s="10"/>
-      <c r="CN80" s="10"/>
-      <c r="CO80" s="10"/>
+      <c r="CL80" s="34"/>
+      <c r="CM80" s="34"/>
+      <c r="CN80" s="34"/>
+      <c r="CO80" s="34"/>
       <c r="CP80" s="34"/>
       <c r="CQ80" s="34"/>
       <c r="CR80" s="34"/>
@@ -36865,7 +36996,7 @@
       <c r="CU80" s="34"/>
       <c r="CV80" s="34"/>
       <c r="CW80" s="34"/>
-      <c r="CX80" s="10"/>
+      <c r="CX80" s="34"/>
       <c r="CY80" s="10"/>
       <c r="CZ80" s="10"/>
       <c r="DA80" s="10"/>
@@ -37008,10 +37139,10 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
-      <c r="CN81" s="1"/>
-      <c r="CO81" s="1"/>
+      <c r="CL81" s="25"/>
+      <c r="CM81" s="25"/>
+      <c r="CN81" s="25"/>
+      <c r="CO81" s="25"/>
       <c r="CP81" s="25"/>
       <c r="CQ81" s="25"/>
       <c r="CR81" s="25"/>
@@ -37020,10 +37151,11 @@
       <c r="CU81" s="25"/>
       <c r="CV81" s="25"/>
       <c r="CW81" s="25"/>
+      <c r="CX81" s="25"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -37113,10 +37245,10 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
-      <c r="CN82" s="1"/>
-      <c r="CO82" s="1"/>
+      <c r="CL82" s="25"/>
+      <c r="CM82" s="25"/>
+      <c r="CN82" s="25"/>
+      <c r="CO82" s="25"/>
       <c r="CP82" s="25"/>
       <c r="CQ82" s="25"/>
       <c r="CR82" s="25"/>
@@ -37125,6 +37257,7 @@
       <c r="CU82" s="25"/>
       <c r="CV82" s="25"/>
       <c r="CW82" s="25"/>
+      <c r="CX82" s="25"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -37216,10 +37349,10 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
-      <c r="CN83" s="1"/>
-      <c r="CO83" s="1"/>
+      <c r="CL83" s="25"/>
+      <c r="CM83" s="25"/>
+      <c r="CN83" s="25"/>
+      <c r="CO83" s="25"/>
       <c r="CP83" s="25"/>
       <c r="CQ83" s="25"/>
       <c r="CR83" s="25"/>
@@ -37228,6 +37361,7 @@
       <c r="CU83" s="25"/>
       <c r="CV83" s="25"/>
       <c r="CW83" s="25"/>
+      <c r="CX83" s="25"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -37321,10 +37455,10 @@
       <c r="CI84" s="1"/>
       <c r="CJ84" s="1"/>
       <c r="CK84" s="1"/>
-      <c r="CL84" s="1"/>
-      <c r="CM84" s="1"/>
-      <c r="CN84" s="1"/>
-      <c r="CO84" s="1"/>
+      <c r="CL84" s="25"/>
+      <c r="CM84" s="25"/>
+      <c r="CN84" s="25"/>
+      <c r="CO84" s="25"/>
       <c r="CP84" s="25"/>
       <c r="CQ84" s="25"/>
       <c r="CR84" s="25"/>
@@ -37333,10 +37467,11 @@
       <c r="CU84" s="25"/>
       <c r="CV84" s="25"/>
       <c r="CW84" s="25"/>
+      <c r="CX84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -37426,10 +37561,10 @@
       <c r="CI85" s="1"/>
       <c r="CJ85" s="1"/>
       <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
-      <c r="CM85" s="1"/>
-      <c r="CN85" s="1"/>
-      <c r="CO85" s="1"/>
+      <c r="CL85" s="25"/>
+      <c r="CM85" s="25"/>
+      <c r="CN85" s="25"/>
+      <c r="CO85" s="25"/>
       <c r="CP85" s="25"/>
       <c r="CQ85" s="25"/>
       <c r="CR85" s="25"/>
@@ -37438,6 +37573,7 @@
       <c r="CU85" s="25"/>
       <c r="CV85" s="25"/>
       <c r="CW85" s="25"/>
+      <c r="CX85" s="25"/>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -37531,10 +37667,10 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
+      <c r="CL86" s="25"/>
+      <c r="CM86" s="25"/>
+      <c r="CN86" s="25"/>
+      <c r="CO86" s="25"/>
       <c r="CP86" s="25"/>
       <c r="CQ86" s="25"/>
       <c r="CR86" s="25"/>
@@ -37543,6 +37679,7 @@
       <c r="CU86" s="25"/>
       <c r="CV86" s="25"/>
       <c r="CW86" s="25"/>
+      <c r="CX86" s="25"/>
     </row>
     <row r="87" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -37634,10 +37771,10 @@
       <c r="CI87" s="1"/>
       <c r="CJ87" s="1"/>
       <c r="CK87" s="1"/>
-      <c r="CL87" s="1"/>
-      <c r="CM87" s="1"/>
-      <c r="CN87" s="1"/>
-      <c r="CO87" s="1"/>
+      <c r="CL87" s="25"/>
+      <c r="CM87" s="25"/>
+      <c r="CN87" s="25"/>
+      <c r="CO87" s="25"/>
       <c r="CP87" s="25"/>
       <c r="CQ87" s="25"/>
       <c r="CR87" s="25"/>
@@ -37646,6 +37783,7 @@
       <c r="CU87" s="25"/>
       <c r="CV87" s="25"/>
       <c r="CW87" s="25"/>
+      <c r="CX87" s="25"/>
     </row>
     <row r="88" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
@@ -37781,12 +37919,12 @@
       <c r="CI88" s="22"/>
       <c r="CJ88" s="22"/>
       <c r="CK88" s="22"/>
-      <c r="CL88" s="22">
+      <c r="CL88" s="26">
         <v>2022</v>
       </c>
-      <c r="CM88" s="22"/>
-      <c r="CN88" s="22"/>
-      <c r="CO88" s="22"/>
+      <c r="CM88" s="26"/>
+      <c r="CN88" s="26"/>
+      <c r="CO88" s="26"/>
       <c r="CP88" s="26">
         <v>2023</v>
       </c>
@@ -37799,6 +37937,9 @@
       <c r="CU88" s="26"/>
       <c r="CV88" s="26"/>
       <c r="CW88" s="26"/>
+      <c r="CX88" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="89" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -38068,16 +38209,16 @@
       <c r="CK89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL89" s="7" t="s">
+      <c r="CL89" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM89" s="7" t="s">
+      <c r="CM89" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN89" s="7" t="s">
+      <c r="CN89" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO89" s="7" t="s">
+      <c r="CO89" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP89" s="27" t="s">
@@ -38103,6 +38244,9 @@
       </c>
       <c r="CW89" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CX89" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38195,10 +38339,10 @@
       <c r="CI90" s="1"/>
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
-      <c r="CL90" s="1"/>
-      <c r="CM90" s="1"/>
-      <c r="CN90" s="1"/>
-      <c r="CO90" s="1"/>
+      <c r="CL90" s="25"/>
+      <c r="CM90" s="25"/>
+      <c r="CN90" s="25"/>
+      <c r="CO90" s="25"/>
       <c r="CP90" s="25"/>
       <c r="CQ90" s="25"/>
       <c r="CR90" s="25"/>
@@ -38207,6 +38351,7 @@
       <c r="CU90" s="25"/>
       <c r="CV90" s="25"/>
       <c r="CW90" s="25"/>
+      <c r="CX90" s="25"/>
     </row>
     <row r="91" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -38476,43 +38621,45 @@
       <c r="CK91" s="17">
         <v>123.02714492996768</v>
       </c>
-      <c r="CL91" s="17">
+      <c r="CL91" s="33">
         <v>106.11087927469261</v>
       </c>
-      <c r="CM91" s="17">
+      <c r="CM91" s="33">
         <v>104.10393071777445</v>
       </c>
-      <c r="CN91" s="17">
+      <c r="CN91" s="33">
         <v>107.75971278468757</v>
       </c>
-      <c r="CO91" s="17">
+      <c r="CO91" s="33">
         <v>127.74638672365244</v>
       </c>
       <c r="CP91" s="33">
-        <v>110.40925525770228</v>
+        <v>110.40925525770227</v>
       </c>
       <c r="CQ91" s="33">
         <v>108.45257208229417</v>
       </c>
       <c r="CR91" s="33">
-        <v>112.19212786213839</v>
+        <v>112.19212786213842</v>
       </c>
       <c r="CS91" s="33">
         <v>133.19710686592191</v>
       </c>
       <c r="CT91" s="33">
-        <v>113.73770184161502</v>
+        <v>114.38722508909829</v>
       </c>
       <c r="CU91" s="33">
-        <v>113.55761490605008</v>
+        <v>113.55761490605009</v>
       </c>
       <c r="CV91" s="33">
         <v>117.48904877407954</v>
       </c>
       <c r="CW91" s="33">
-        <v>138.05857449815181</v>
-      </c>
-      <c r="CX91" s="10"/>
+        <v>138.06989179954004</v>
+      </c>
+      <c r="CX91" s="33">
+        <v>119.93562817801543</v>
+      </c>
       <c r="CY91" s="10"/>
       <c r="CZ91" s="10"/>
       <c r="DA91" s="10"/>
@@ -38835,23 +38982,23 @@
       <c r="CK92" s="17">
         <v>121.88198833102291</v>
       </c>
-      <c r="CL92" s="17">
+      <c r="CL92" s="33">
         <v>98.885398435508037</v>
       </c>
-      <c r="CM92" s="17">
+      <c r="CM92" s="33">
         <v>108.16590083742723</v>
       </c>
-      <c r="CN92" s="17">
+      <c r="CN92" s="33">
         <v>117.48605856011385</v>
       </c>
-      <c r="CO92" s="17">
+      <c r="CO92" s="33">
         <v>125.32538764820305</v>
       </c>
       <c r="CP92" s="33">
         <v>103.33665895224486</v>
       </c>
       <c r="CQ92" s="33">
-        <v>112.78167306011477</v>
+        <v>112.78167306011476</v>
       </c>
       <c r="CR92" s="33">
         <v>122.78577909425906</v>
@@ -38863,15 +39010,17 @@
         <v>107.10682625358778</v>
       </c>
       <c r="CU92" s="33">
-        <v>116.51141961649134</v>
+        <v>116.51141961649137</v>
       </c>
       <c r="CV92" s="33">
-        <v>126.29735383881271</v>
+        <v>126.29735383881275</v>
       </c>
       <c r="CW92" s="33">
         <v>134.57964667122314</v>
       </c>
-      <c r="CX92" s="10"/>
+      <c r="CX92" s="33">
+        <v>109.8619770954914</v>
+      </c>
       <c r="CY92" s="10"/>
       <c r="CZ92" s="10"/>
       <c r="DA92" s="10"/>
@@ -39194,43 +39343,45 @@
       <c r="CK93" s="17">
         <v>130.67259301784685</v>
       </c>
-      <c r="CL93" s="17">
+      <c r="CL93" s="33">
         <v>104.40900183681885</v>
       </c>
-      <c r="CM93" s="17">
+      <c r="CM93" s="33">
         <v>108.99043741628421</v>
       </c>
-      <c r="CN93" s="17">
+      <c r="CN93" s="33">
         <v>117.5130996628219</v>
       </c>
-      <c r="CO93" s="17">
+      <c r="CO93" s="33">
         <v>135.05782670478919</v>
       </c>
       <c r="CP93" s="33">
-        <v>108.47430571110625</v>
+        <v>108.47432774633261</v>
       </c>
       <c r="CQ93" s="33">
-        <v>113.4134036993245</v>
+        <v>113.41352201419245</v>
       </c>
       <c r="CR93" s="33">
-        <v>122.33419099296212</v>
+        <v>122.33419099296216</v>
       </c>
       <c r="CS93" s="33">
         <v>139.35955133110886</v>
       </c>
       <c r="CT93" s="33">
-        <v>111.45958732425846</v>
+        <v>111.79100692798696</v>
       </c>
       <c r="CU93" s="33">
-        <v>119.39297206484783</v>
+        <v>119.3929720648478</v>
       </c>
       <c r="CV93" s="33">
-        <v>128.55673390107521</v>
+        <v>128.55673390107518</v>
       </c>
       <c r="CW93" s="33">
-        <v>144.25899759424081</v>
-      </c>
-      <c r="CX93" s="10"/>
+        <v>144.25899759424084</v>
+      </c>
+      <c r="CX93" s="33">
+        <v>115.57453934152929</v>
+      </c>
       <c r="CY93" s="10"/>
       <c r="CZ93" s="10"/>
       <c r="DA93" s="10"/>
@@ -39374,10 +39525,10 @@
       <c r="CI94" s="12"/>
       <c r="CJ94" s="12"/>
       <c r="CK94" s="12"/>
-      <c r="CL94" s="12"/>
-      <c r="CM94" s="12"/>
-      <c r="CN94" s="12"/>
-      <c r="CO94" s="12"/>
+      <c r="CL94" s="29"/>
+      <c r="CM94" s="29"/>
+      <c r="CN94" s="29"/>
+      <c r="CO94" s="29"/>
       <c r="CP94" s="29"/>
       <c r="CQ94" s="29"/>
       <c r="CR94" s="29"/>
@@ -39386,7 +39537,7 @@
       <c r="CU94" s="29"/>
       <c r="CV94" s="29"/>
       <c r="CW94" s="29"/>
-      <c r="CX94" s="10"/>
+      <c r="CX94" s="29"/>
       <c r="CY94" s="10"/>
       <c r="CZ94" s="10"/>
       <c r="DA94" s="10"/>
@@ -39709,43 +39860,45 @@
       <c r="CK95" s="17">
         <v>122.95024752751603</v>
       </c>
-      <c r="CL95" s="17">
+      <c r="CL95" s="33">
         <v>101.92325827278847</v>
       </c>
-      <c r="CM95" s="17">
+      <c r="CM95" s="33">
         <v>107.2793497049565</v>
       </c>
-      <c r="CN95" s="17">
+      <c r="CN95" s="33">
         <v>114.49485109144481</v>
       </c>
-      <c r="CO95" s="17">
+      <c r="CO95" s="33">
         <v>127.01100570813477</v>
       </c>
       <c r="CP95" s="33">
-        <v>106.23480313895612</v>
+        <v>106.2251680442813</v>
       </c>
       <c r="CQ95" s="33">
-        <v>111.79476585054621</v>
+        <v>111.80115050469553</v>
       </c>
       <c r="CR95" s="33">
-        <v>119.53550557299961</v>
+        <v>119.55348059720122</v>
       </c>
       <c r="CS95" s="33">
-        <v>132.37970650028566</v>
+        <v>132.38260629063194</v>
       </c>
       <c r="CT95" s="33">
-        <v>109.72064449467089</v>
+        <v>109.98334805074244</v>
       </c>
       <c r="CU95" s="33">
-        <v>115.9307526282365</v>
+        <v>115.93747371028817</v>
       </c>
       <c r="CV95" s="33">
-        <v>123.70018545695866</v>
+        <v>123.71757587470174</v>
       </c>
       <c r="CW95" s="33">
-        <v>136.61745782002336</v>
-      </c>
-      <c r="CX95" s="10"/>
+        <v>136.61399287738166</v>
+      </c>
+      <c r="CX95" s="33">
+        <v>113.64908349243321</v>
+      </c>
       <c r="CY95" s="10"/>
       <c r="CZ95" s="10"/>
       <c r="DA95" s="10"/>
@@ -39890,10 +40043,10 @@
       <c r="CI96" s="15"/>
       <c r="CJ96" s="15"/>
       <c r="CK96" s="15"/>
-      <c r="CL96" s="15"/>
-      <c r="CM96" s="15"/>
-      <c r="CN96" s="15"/>
-      <c r="CO96" s="15"/>
+      <c r="CL96" s="31"/>
+      <c r="CM96" s="31"/>
+      <c r="CN96" s="31"/>
+      <c r="CO96" s="31"/>
       <c r="CP96" s="31"/>
       <c r="CQ96" s="31"/>
       <c r="CR96" s="31"/>
@@ -39902,6 +40055,7 @@
       <c r="CU96" s="31"/>
       <c r="CV96" s="31"/>
       <c r="CW96" s="31"/>
+      <c r="CX96" s="31"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -39995,10 +40149,10 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
-      <c r="CM97" s="1"/>
-      <c r="CN97" s="1"/>
-      <c r="CO97" s="1"/>
+      <c r="CL97" s="25"/>
+      <c r="CM97" s="25"/>
+      <c r="CN97" s="25"/>
+      <c r="CO97" s="25"/>
       <c r="CP97" s="25"/>
       <c r="CQ97" s="25"/>
       <c r="CR97" s="25"/>
@@ -40007,6 +40161,7 @@
       <c r="CU97" s="25"/>
       <c r="CV97" s="25"/>
       <c r="CW97" s="25"/>
+      <c r="CX97" s="25"/>
     </row>
     <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -40097,10 +40252,10 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
-      <c r="CM98" s="1"/>
-      <c r="CN98" s="1"/>
-      <c r="CO98" s="1"/>
+      <c r="CL98" s="25"/>
+      <c r="CM98" s="25"/>
+      <c r="CN98" s="25"/>
+      <c r="CO98" s="25"/>
       <c r="CP98" s="25"/>
       <c r="CQ98" s="25"/>
       <c r="CR98" s="25"/>
@@ -40109,6 +40264,7 @@
       <c r="CU98" s="25"/>
       <c r="CV98" s="25"/>
       <c r="CW98" s="25"/>
+      <c r="CX98" s="25"/>
     </row>
     <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -40199,10 +40355,10 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
-      <c r="CN99" s="1"/>
-      <c r="CO99" s="1"/>
+      <c r="CL99" s="25"/>
+      <c r="CM99" s="25"/>
+      <c r="CN99" s="25"/>
+      <c r="CO99" s="25"/>
       <c r="CP99" s="25"/>
       <c r="CQ99" s="25"/>
       <c r="CR99" s="25"/>
@@ -40211,6 +40367,7 @@
       <c r="CU99" s="25"/>
       <c r="CV99" s="25"/>
       <c r="CW99" s="25"/>
+      <c r="CX99" s="25"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -40304,10 +40461,10 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
+      <c r="CL100" s="25"/>
+      <c r="CM100" s="25"/>
+      <c r="CN100" s="25"/>
+      <c r="CO100" s="25"/>
       <c r="CP100" s="25"/>
       <c r="CQ100" s="25"/>
       <c r="CR100" s="25"/>
@@ -40316,6 +40473,7 @@
       <c r="CU100" s="25"/>
       <c r="CV100" s="25"/>
       <c r="CW100" s="25"/>
+      <c r="CX100" s="25"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -40409,10 +40567,10 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
-      <c r="CN101" s="1"/>
-      <c r="CO101" s="1"/>
+      <c r="CL101" s="25"/>
+      <c r="CM101" s="25"/>
+      <c r="CN101" s="25"/>
+      <c r="CO101" s="25"/>
       <c r="CP101" s="25"/>
       <c r="CQ101" s="25"/>
       <c r="CR101" s="25"/>
@@ -40421,10 +40579,11 @@
       <c r="CU101" s="25"/>
       <c r="CV101" s="25"/>
       <c r="CW101" s="25"/>
+      <c r="CX101" s="25"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -40514,10 +40673,10 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
-      <c r="CN102" s="1"/>
-      <c r="CO102" s="1"/>
+      <c r="CL102" s="25"/>
+      <c r="CM102" s="25"/>
+      <c r="CN102" s="25"/>
+      <c r="CO102" s="25"/>
       <c r="CP102" s="25"/>
       <c r="CQ102" s="25"/>
       <c r="CR102" s="25"/>
@@ -40526,6 +40685,7 @@
       <c r="CU102" s="25"/>
       <c r="CV102" s="25"/>
       <c r="CW102" s="25"/>
+      <c r="CX102" s="25"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -40617,10 +40777,10 @@
       <c r="CI103" s="1"/>
       <c r="CJ103" s="1"/>
       <c r="CK103" s="1"/>
-      <c r="CL103" s="1"/>
-      <c r="CM103" s="1"/>
-      <c r="CN103" s="1"/>
-      <c r="CO103" s="1"/>
+      <c r="CL103" s="25"/>
+      <c r="CM103" s="25"/>
+      <c r="CN103" s="25"/>
+      <c r="CO103" s="25"/>
       <c r="CP103" s="25"/>
       <c r="CQ103" s="25"/>
       <c r="CR103" s="25"/>
@@ -40629,6 +40789,7 @@
       <c r="CU103" s="25"/>
       <c r="CV103" s="25"/>
       <c r="CW103" s="25"/>
+      <c r="CX103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -40722,10 +40883,10 @@
       <c r="CI104" s="1"/>
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
-      <c r="CL104" s="1"/>
-      <c r="CM104" s="1"/>
-      <c r="CN104" s="1"/>
-      <c r="CO104" s="1"/>
+      <c r="CL104" s="25"/>
+      <c r="CM104" s="25"/>
+      <c r="CN104" s="25"/>
+      <c r="CO104" s="25"/>
       <c r="CP104" s="25"/>
       <c r="CQ104" s="25"/>
       <c r="CR104" s="25"/>
@@ -40734,10 +40895,11 @@
       <c r="CU104" s="25"/>
       <c r="CV104" s="25"/>
       <c r="CW104" s="25"/>
+      <c r="CX104" s="25"/>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -40827,10 +40989,10 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
-      <c r="CN105" s="1"/>
-      <c r="CO105" s="1"/>
+      <c r="CL105" s="25"/>
+      <c r="CM105" s="25"/>
+      <c r="CN105" s="25"/>
+      <c r="CO105" s="25"/>
       <c r="CP105" s="25"/>
       <c r="CQ105" s="25"/>
       <c r="CR105" s="25"/>
@@ -40839,6 +41001,7 @@
       <c r="CU105" s="25"/>
       <c r="CV105" s="25"/>
       <c r="CW105" s="25"/>
+      <c r="CX105" s="25"/>
     </row>
     <row r="106" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -40932,10 +41095,10 @@
       <c r="CI106" s="1"/>
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
-      <c r="CL106" s="1"/>
-      <c r="CM106" s="1"/>
-      <c r="CN106" s="1"/>
-      <c r="CO106" s="1"/>
+      <c r="CL106" s="25"/>
+      <c r="CM106" s="25"/>
+      <c r="CN106" s="25"/>
+      <c r="CO106" s="25"/>
       <c r="CP106" s="25"/>
       <c r="CQ106" s="25"/>
       <c r="CR106" s="25"/>
@@ -40944,6 +41107,7 @@
       <c r="CU106" s="25"/>
       <c r="CV106" s="25"/>
       <c r="CW106" s="25"/>
+      <c r="CX106" s="25"/>
     </row>
     <row r="107" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -41035,10 +41199,10 @@
       <c r="CI107" s="1"/>
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
-      <c r="CL107" s="1"/>
-      <c r="CM107" s="1"/>
-      <c r="CN107" s="1"/>
-      <c r="CO107" s="1"/>
+      <c r="CL107" s="25"/>
+      <c r="CM107" s="25"/>
+      <c r="CN107" s="25"/>
+      <c r="CO107" s="25"/>
       <c r="CP107" s="25"/>
       <c r="CQ107" s="25"/>
       <c r="CR107" s="25"/>
@@ -41047,6 +41211,7 @@
       <c r="CU107" s="25"/>
       <c r="CV107" s="25"/>
       <c r="CW107" s="25"/>
+      <c r="CX107" s="25"/>
     </row>
     <row r="108" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
@@ -41182,12 +41347,12 @@
       <c r="CI108" s="22"/>
       <c r="CJ108" s="22"/>
       <c r="CK108" s="22"/>
-      <c r="CL108" s="22">
+      <c r="CL108" s="26">
         <v>2022</v>
       </c>
-      <c r="CM108" s="22"/>
-      <c r="CN108" s="22"/>
-      <c r="CO108" s="22"/>
+      <c r="CM108" s="26"/>
+      <c r="CN108" s="26"/>
+      <c r="CO108" s="26"/>
       <c r="CP108" s="26">
         <v>2023</v>
       </c>
@@ -41200,6 +41365,9 @@
       <c r="CU108" s="26"/>
       <c r="CV108" s="26"/>
       <c r="CW108" s="26"/>
+      <c r="CX108" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="109" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -41469,16 +41637,16 @@
       <c r="CK109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL109" s="7" t="s">
+      <c r="CL109" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="7" t="s">
+      <c r="CM109" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="7" t="s">
+      <c r="CN109" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO109" s="7" t="s">
+      <c r="CO109" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP109" s="27" t="s">
@@ -41504,6 +41672,9 @@
       </c>
       <c r="CW109" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CX109" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41596,10 +41767,10 @@
       <c r="CI110" s="1"/>
       <c r="CJ110" s="1"/>
       <c r="CK110" s="1"/>
-      <c r="CL110" s="1"/>
-      <c r="CM110" s="1"/>
-      <c r="CN110" s="1"/>
-      <c r="CO110" s="1"/>
+      <c r="CL110" s="25"/>
+      <c r="CM110" s="25"/>
+      <c r="CN110" s="25"/>
+      <c r="CO110" s="25"/>
       <c r="CP110" s="25"/>
       <c r="CQ110" s="25"/>
       <c r="CR110" s="25"/>
@@ -41608,6 +41779,7 @@
       <c r="CU110" s="25"/>
       <c r="CV110" s="25"/>
       <c r="CW110" s="25"/>
+      <c r="CX110" s="25"/>
     </row>
     <row r="111" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -41877,43 +42049,45 @@
       <c r="CK111" s="17">
         <v>38.665837224088115</v>
       </c>
-      <c r="CL111" s="17">
+      <c r="CL111" s="33">
         <v>39.040462092634463</v>
       </c>
-      <c r="CM111" s="17">
+      <c r="CM111" s="33">
         <v>22.028744633692305</v>
       </c>
-      <c r="CN111" s="17">
+      <c r="CN111" s="33">
         <v>28.960445735152778</v>
       </c>
-      <c r="CO111" s="17">
+      <c r="CO111" s="33">
         <v>39.637232868433081</v>
       </c>
       <c r="CP111" s="33">
-        <v>38.339284284396349</v>
+        <v>38.157954139997159</v>
       </c>
       <c r="CQ111" s="33">
-        <v>22.691471239448642</v>
+        <v>22.556296903645361</v>
       </c>
       <c r="CR111" s="33">
-        <v>28.554108251655556</v>
+        <v>28.38846698191891</v>
       </c>
       <c r="CS111" s="33">
-        <v>38.755123969308094</v>
+        <v>38.580513674291701</v>
       </c>
       <c r="CT111" s="33">
-        <v>37.10610367832976</v>
+        <v>37.350157573312266</v>
       </c>
       <c r="CU111" s="33">
-        <v>22.990652797088913</v>
+        <v>22.819346420154822</v>
       </c>
       <c r="CV111" s="33">
-        <v>29.434532785901769</v>
+        <v>29.25494785673644</v>
       </c>
       <c r="CW111" s="33">
-        <v>39.51593965173096</v>
-      </c>
-      <c r="CX111" s="10"/>
+        <v>38.999824535079512</v>
+      </c>
+      <c r="CX111" s="33">
+        <v>36.520376671893274</v>
+      </c>
       <c r="CY111" s="10"/>
       <c r="CZ111" s="10"/>
       <c r="DA111" s="10"/>
@@ -42236,43 +42410,45 @@
       <c r="CK112" s="17">
         <v>53.768651215265571</v>
       </c>
-      <c r="CL112" s="17">
+      <c r="CL112" s="33">
         <v>54.870576423100005</v>
       </c>
-      <c r="CM112" s="17">
+      <c r="CM112" s="33">
         <v>73.591779928404179</v>
       </c>
-      <c r="CN112" s="17">
+      <c r="CN112" s="33">
         <v>64.817589385109414</v>
       </c>
-      <c r="CO112" s="17">
+      <c r="CO112" s="33">
         <v>52.370206233776692</v>
       </c>
       <c r="CP112" s="33">
-        <v>55.915334107474791</v>
+        <v>56.037725041204226</v>
       </c>
       <c r="CQ112" s="33">
-        <v>73.181073985894045</v>
+        <v>73.251432591353492</v>
       </c>
       <c r="CR112" s="33">
-        <v>65.245688061314979</v>
+        <v>65.358072827155681</v>
       </c>
       <c r="CS112" s="33">
-        <v>53.64854310466751</v>
+        <v>53.737544437002192</v>
       </c>
       <c r="CT112" s="33">
-        <v>57.28673132149946</v>
+        <v>56.965239468319396</v>
       </c>
       <c r="CU112" s="33">
-        <v>72.9841790155008</v>
+        <v>73.098710625381941</v>
       </c>
       <c r="CV112" s="33">
-        <v>64.467151448674656</v>
+        <v>64.596212272656402</v>
       </c>
       <c r="CW112" s="33">
-        <v>53.093880350770192</v>
-      </c>
-      <c r="CX112" s="10"/>
+        <v>53.499843100570644</v>
+      </c>
+      <c r="CX112" s="33">
+        <v>58.121155780372256</v>
+      </c>
       <c r="CY112" s="10"/>
       <c r="CZ112" s="10"/>
       <c r="DA112" s="10"/>
@@ -42595,43 +42771,45 @@
       <c r="CK113" s="17">
         <v>7.5655115606463079</v>
       </c>
-      <c r="CL113" s="17">
+      <c r="CL113" s="33">
         <v>6.0889614842655169</v>
       </c>
-      <c r="CM113" s="17">
+      <c r="CM113" s="33">
         <v>4.3794754379035306</v>
       </c>
-      <c r="CN113" s="17">
+      <c r="CN113" s="33">
         <v>6.2219648797378149</v>
       </c>
-      <c r="CO113" s="17">
+      <c r="CO113" s="33">
         <v>7.9925608977902183</v>
       </c>
       <c r="CP113" s="33">
-        <v>5.7453816081288576</v>
+        <v>5.8043208187986108</v>
       </c>
       <c r="CQ113" s="33">
-        <v>4.1274547746572914</v>
+        <v>4.1922705050011499</v>
       </c>
       <c r="CR113" s="33">
-        <v>6.2002036870294663</v>
+        <v>6.2534601909254137</v>
       </c>
       <c r="CS113" s="33">
-        <v>7.5963329260243979</v>
+        <v>7.6819418887061088</v>
       </c>
       <c r="CT113" s="33">
-        <v>5.6071650001707738</v>
+        <v>5.6846029583683366</v>
       </c>
       <c r="CU113" s="33">
-        <v>4.0251681874102925</v>
+        <v>4.0819429544632531</v>
       </c>
       <c r="CV113" s="33">
-        <v>6.0983157654235889</v>
+        <v>6.1488398706071692</v>
       </c>
       <c r="CW113" s="33">
-        <v>7.3901799974988496</v>
-      </c>
-      <c r="CX113" s="10"/>
+        <v>7.500332364349843</v>
+      </c>
+      <c r="CX113" s="33">
+        <v>5.3584675477344659</v>
+      </c>
       <c r="CY113" s="10"/>
       <c r="CZ113" s="10"/>
       <c r="DA113" s="10"/>
@@ -42775,10 +42953,10 @@
       <c r="CI114" s="12"/>
       <c r="CJ114" s="12"/>
       <c r="CK114" s="12"/>
-      <c r="CL114" s="12"/>
-      <c r="CM114" s="12"/>
-      <c r="CN114" s="12"/>
-      <c r="CO114" s="12"/>
+      <c r="CL114" s="29"/>
+      <c r="CM114" s="29"/>
+      <c r="CN114" s="29"/>
+      <c r="CO114" s="29"/>
       <c r="CP114" s="29"/>
       <c r="CQ114" s="29"/>
       <c r="CR114" s="29"/>
@@ -42787,7 +42965,7 @@
       <c r="CU114" s="29"/>
       <c r="CV114" s="29"/>
       <c r="CW114" s="29"/>
-      <c r="CX114" s="10"/>
+      <c r="CX114" s="29"/>
       <c r="CY114" s="10"/>
       <c r="CZ114" s="10"/>
       <c r="DA114" s="10"/>
@@ -43110,16 +43288,16 @@
       <c r="CK115" s="17">
         <v>100</v>
       </c>
-      <c r="CL115" s="17">
+      <c r="CL115" s="33">
         <v>100</v>
       </c>
-      <c r="CM115" s="17">
+      <c r="CM115" s="33">
         <v>100</v>
       </c>
-      <c r="CN115" s="17">
+      <c r="CN115" s="33">
         <v>100</v>
       </c>
-      <c r="CO115" s="17">
+      <c r="CO115" s="33">
         <v>100</v>
       </c>
       <c r="CP115" s="33">
@@ -43146,7 +43324,9 @@
       <c r="CW115" s="33">
         <v>100</v>
       </c>
-      <c r="CX115" s="10"/>
+      <c r="CX115" s="33">
+        <v>100</v>
+      </c>
       <c r="CY115" s="10"/>
       <c r="CZ115" s="10"/>
       <c r="DA115" s="10"/>
@@ -43291,10 +43471,10 @@
       <c r="CI116" s="15"/>
       <c r="CJ116" s="15"/>
       <c r="CK116" s="15"/>
-      <c r="CL116" s="15"/>
-      <c r="CM116" s="15"/>
-      <c r="CN116" s="15"/>
-      <c r="CO116" s="15"/>
+      <c r="CL116" s="31"/>
+      <c r="CM116" s="31"/>
+      <c r="CN116" s="31"/>
+      <c r="CO116" s="31"/>
       <c r="CP116" s="31"/>
       <c r="CQ116" s="31"/>
       <c r="CR116" s="31"/>
@@ -43303,6 +43483,7 @@
       <c r="CU116" s="31"/>
       <c r="CV116" s="31"/>
       <c r="CW116" s="31"/>
+      <c r="CX116" s="31"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -43396,10 +43577,10 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
+      <c r="CL117" s="25"/>
+      <c r="CM117" s="25"/>
+      <c r="CN117" s="25"/>
+      <c r="CO117" s="25"/>
       <c r="CP117" s="25"/>
       <c r="CQ117" s="25"/>
       <c r="CR117" s="25"/>
@@ -43408,6 +43589,7 @@
       <c r="CU117" s="25"/>
       <c r="CV117" s="25"/>
       <c r="CW117" s="25"/>
+      <c r="CX117" s="25"/>
     </row>
     <row r="118" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
@@ -43498,10 +43680,10 @@
       <c r="CI118" s="12"/>
       <c r="CJ118" s="12"/>
       <c r="CK118" s="12"/>
-      <c r="CL118" s="12"/>
-      <c r="CM118" s="12"/>
-      <c r="CN118" s="12"/>
-      <c r="CO118" s="12"/>
+      <c r="CL118" s="29"/>
+      <c r="CM118" s="29"/>
+      <c r="CN118" s="29"/>
+      <c r="CO118" s="29"/>
       <c r="CP118" s="29"/>
       <c r="CQ118" s="29"/>
       <c r="CR118" s="29"/>
@@ -43510,7 +43692,7 @@
       <c r="CU118" s="29"/>
       <c r="CV118" s="29"/>
       <c r="CW118" s="29"/>
-      <c r="CX118" s="10"/>
+      <c r="CX118" s="29"/>
       <c r="CY118" s="10"/>
       <c r="CZ118" s="10"/>
       <c r="DA118" s="10"/>
@@ -43654,10 +43836,10 @@
       <c r="CI119" s="12"/>
       <c r="CJ119" s="12"/>
       <c r="CK119" s="12"/>
-      <c r="CL119" s="12"/>
-      <c r="CM119" s="12"/>
-      <c r="CN119" s="12"/>
-      <c r="CO119" s="12"/>
+      <c r="CL119" s="29"/>
+      <c r="CM119" s="29"/>
+      <c r="CN119" s="29"/>
+      <c r="CO119" s="29"/>
       <c r="CP119" s="29"/>
       <c r="CQ119" s="29"/>
       <c r="CR119" s="29"/>
@@ -43666,7 +43848,7 @@
       <c r="CU119" s="29"/>
       <c r="CV119" s="29"/>
       <c r="CW119" s="29"/>
-      <c r="CX119" s="10"/>
+      <c r="CX119" s="29"/>
       <c r="CY119" s="10"/>
       <c r="CZ119" s="10"/>
       <c r="DA119" s="10"/>
@@ -43813,10 +43995,10 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
-      <c r="CM120" s="1"/>
-      <c r="CN120" s="1"/>
-      <c r="CO120" s="1"/>
+      <c r="CL120" s="25"/>
+      <c r="CM120" s="25"/>
+      <c r="CN120" s="25"/>
+      <c r="CO120" s="25"/>
       <c r="CP120" s="25"/>
       <c r="CQ120" s="25"/>
       <c r="CR120" s="25"/>
@@ -43825,6 +44007,7 @@
       <c r="CU120" s="25"/>
       <c r="CV120" s="25"/>
       <c r="CW120" s="25"/>
+      <c r="CX120" s="25"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -43918,10 +44101,10 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
-      <c r="CN121" s="1"/>
-      <c r="CO121" s="1"/>
+      <c r="CL121" s="25"/>
+      <c r="CM121" s="25"/>
+      <c r="CN121" s="25"/>
+      <c r="CO121" s="25"/>
       <c r="CP121" s="25"/>
       <c r="CQ121" s="25"/>
       <c r="CR121" s="25"/>
@@ -43930,10 +44113,11 @@
       <c r="CU121" s="25"/>
       <c r="CV121" s="25"/>
       <c r="CW121" s="25"/>
+      <c r="CX121" s="25"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -44023,10 +44207,10 @@
       <c r="CI122" s="1"/>
       <c r="CJ122" s="1"/>
       <c r="CK122" s="1"/>
-      <c r="CL122" s="1"/>
-      <c r="CM122" s="1"/>
-      <c r="CN122" s="1"/>
-      <c r="CO122" s="1"/>
+      <c r="CL122" s="25"/>
+      <c r="CM122" s="25"/>
+      <c r="CN122" s="25"/>
+      <c r="CO122" s="25"/>
       <c r="CP122" s="25"/>
       <c r="CQ122" s="25"/>
       <c r="CR122" s="25"/>
@@ -44035,6 +44219,7 @@
       <c r="CU122" s="25"/>
       <c r="CV122" s="25"/>
       <c r="CW122" s="25"/>
+      <c r="CX122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -44126,10 +44311,10 @@
       <c r="CI123" s="1"/>
       <c r="CJ123" s="1"/>
       <c r="CK123" s="1"/>
-      <c r="CL123" s="1"/>
-      <c r="CM123" s="1"/>
-      <c r="CN123" s="1"/>
-      <c r="CO123" s="1"/>
+      <c r="CL123" s="25"/>
+      <c r="CM123" s="25"/>
+      <c r="CN123" s="25"/>
+      <c r="CO123" s="25"/>
       <c r="CP123" s="25"/>
       <c r="CQ123" s="25"/>
       <c r="CR123" s="25"/>
@@ -44138,6 +44323,7 @@
       <c r="CU123" s="25"/>
       <c r="CV123" s="25"/>
       <c r="CW123" s="25"/>
+      <c r="CX123" s="25"/>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -44231,10 +44417,10 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
-      <c r="CN124" s="1"/>
-      <c r="CO124" s="1"/>
+      <c r="CL124" s="25"/>
+      <c r="CM124" s="25"/>
+      <c r="CN124" s="25"/>
+      <c r="CO124" s="25"/>
       <c r="CP124" s="25"/>
       <c r="CQ124" s="25"/>
       <c r="CR124" s="25"/>
@@ -44243,10 +44429,11 @@
       <c r="CU124" s="25"/>
       <c r="CV124" s="25"/>
       <c r="CW124" s="25"/>
+      <c r="CX124" s="25"/>
     </row>
     <row r="125" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -44336,10 +44523,10 @@
       <c r="CI125" s="1"/>
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
-      <c r="CL125" s="1"/>
-      <c r="CM125" s="1"/>
-      <c r="CN125" s="1"/>
-      <c r="CO125" s="1"/>
+      <c r="CL125" s="25"/>
+      <c r="CM125" s="25"/>
+      <c r="CN125" s="25"/>
+      <c r="CO125" s="25"/>
       <c r="CP125" s="25"/>
       <c r="CQ125" s="25"/>
       <c r="CR125" s="25"/>
@@ -44348,6 +44535,7 @@
       <c r="CU125" s="25"/>
       <c r="CV125" s="25"/>
       <c r="CW125" s="25"/>
+      <c r="CX125" s="25"/>
     </row>
     <row r="126" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -44441,10 +44629,10 @@
       <c r="CI126" s="1"/>
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
-      <c r="CL126" s="1"/>
-      <c r="CM126" s="1"/>
-      <c r="CN126" s="1"/>
-      <c r="CO126" s="1"/>
+      <c r="CL126" s="25"/>
+      <c r="CM126" s="25"/>
+      <c r="CN126" s="25"/>
+      <c r="CO126" s="25"/>
       <c r="CP126" s="25"/>
       <c r="CQ126" s="25"/>
       <c r="CR126" s="25"/>
@@ -44453,6 +44641,7 @@
       <c r="CU126" s="25"/>
       <c r="CV126" s="25"/>
       <c r="CW126" s="25"/>
+      <c r="CX126" s="25"/>
     </row>
     <row r="127" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -44544,10 +44733,10 @@
       <c r="CI127" s="1"/>
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
-      <c r="CL127" s="1"/>
-      <c r="CM127" s="1"/>
-      <c r="CN127" s="1"/>
-      <c r="CO127" s="1"/>
+      <c r="CL127" s="25"/>
+      <c r="CM127" s="25"/>
+      <c r="CN127" s="25"/>
+      <c r="CO127" s="25"/>
       <c r="CP127" s="25"/>
       <c r="CQ127" s="25"/>
       <c r="CR127" s="25"/>
@@ -44556,6 +44745,7 @@
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
       <c r="CW127" s="25"/>
+      <c r="CX127" s="25"/>
     </row>
     <row r="128" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
@@ -44691,12 +44881,12 @@
       <c r="CI128" s="22"/>
       <c r="CJ128" s="22"/>
       <c r="CK128" s="22"/>
-      <c r="CL128" s="22">
+      <c r="CL128" s="26">
         <v>2022</v>
       </c>
-      <c r="CM128" s="22"/>
-      <c r="CN128" s="22"/>
-      <c r="CO128" s="22"/>
+      <c r="CM128" s="26"/>
+      <c r="CN128" s="26"/>
+      <c r="CO128" s="26"/>
       <c r="CP128" s="26">
         <v>2023</v>
       </c>
@@ -44709,6 +44899,9 @@
       <c r="CU128" s="26"/>
       <c r="CV128" s="26"/>
       <c r="CW128" s="26"/>
+      <c r="CX128" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="129" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -44978,16 +45171,16 @@
       <c r="CK129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL129" s="7" t="s">
+      <c r="CL129" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM129" s="7" t="s">
+      <c r="CM129" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN129" s="7" t="s">
+      <c r="CN129" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO129" s="7" t="s">
+      <c r="CO129" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP129" s="27" t="s">
@@ -45013,6 +45206,9 @@
       </c>
       <c r="CW129" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CX129" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -45105,10 +45301,10 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
-      <c r="CN130" s="1"/>
-      <c r="CO130" s="1"/>
+      <c r="CL130" s="25"/>
+      <c r="CM130" s="25"/>
+      <c r="CN130" s="25"/>
+      <c r="CO130" s="25"/>
       <c r="CP130" s="25"/>
       <c r="CQ130" s="25"/>
       <c r="CR130" s="25"/>
@@ -45117,6 +45313,7 @@
       <c r="CU130" s="25"/>
       <c r="CV130" s="25"/>
       <c r="CW130" s="25"/>
+      <c r="CX130" s="25"/>
     </row>
     <row r="131" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -45386,43 +45583,45 @@
       <c r="CK131" s="17">
         <v>38.641669367085157</v>
       </c>
-      <c r="CL131" s="17">
+      <c r="CL131" s="33">
         <v>37.499746756934208</v>
       </c>
-      <c r="CM131" s="17">
+      <c r="CM131" s="33">
         <v>22.700674055485674</v>
       </c>
-      <c r="CN131" s="17">
+      <c r="CN131" s="33">
         <v>30.770515587893783</v>
       </c>
-      <c r="CO131" s="17">
+      <c r="CO131" s="33">
         <v>39.409058363410452</v>
       </c>
       <c r="CP131" s="33">
-        <v>36.889718248119287</v>
+        <v>36.711914062697318</v>
       </c>
       <c r="CQ131" s="33">
-        <v>23.390756579693118</v>
+        <v>23.252744462708428</v>
       </c>
       <c r="CR131" s="33">
-        <v>30.423077189889657</v>
+        <v>30.251142403481289</v>
       </c>
       <c r="CS131" s="33">
-        <v>38.517292583565776</v>
+        <v>38.344593755893442</v>
       </c>
       <c r="CT131" s="33">
-        <v>35.795567734803534</v>
+        <v>35.912186670635307</v>
       </c>
       <c r="CU131" s="33">
-        <v>23.471113622684818</v>
+        <v>23.297577867071826</v>
       </c>
       <c r="CV131" s="33">
-        <v>30.990608932892052</v>
+        <v>30.805860366917319</v>
       </c>
       <c r="CW131" s="33">
-        <v>39.103454734433846</v>
-      </c>
-      <c r="CX131" s="10"/>
+        <v>38.588584968183739</v>
+      </c>
+      <c r="CX131" s="33">
+        <v>34.606124973962572</v>
+      </c>
       <c r="CY131" s="10"/>
       <c r="CZ131" s="10"/>
       <c r="DA131" s="10"/>
@@ -45745,43 +45944,45 @@
       <c r="CK132" s="17">
         <v>54.239917371407842</v>
       </c>
-      <c r="CL132" s="17">
+      <c r="CL132" s="33">
         <v>56.556256240357108</v>
       </c>
-      <c r="CM132" s="17">
+      <c r="CM132" s="33">
         <v>72.988605773416779</v>
       </c>
-      <c r="CN132" s="17">
+      <c r="CN132" s="33">
         <v>63.16732670844759</v>
       </c>
-      <c r="CO132" s="17">
+      <c r="CO132" s="33">
         <v>53.074581995835381</v>
       </c>
       <c r="CP132" s="33">
-        <v>57.483516223431188</v>
+        <v>57.604114741817249</v>
       </c>
       <c r="CQ132" s="33">
-        <v>72.54069574392426</v>
+        <v>72.614585487353636</v>
       </c>
       <c r="CR132" s="33">
-        <v>63.518563520945783</v>
+        <v>63.637541328083323</v>
       </c>
       <c r="CS132" s="33">
-        <v>54.266838007983495</v>
+        <v>54.358055765531347</v>
       </c>
       <c r="CT132" s="33">
-        <v>58.684747755537416</v>
+        <v>58.495130314144603</v>
       </c>
       <c r="CU132" s="33">
-        <v>72.620442108348868</v>
+        <v>72.738619693091636</v>
       </c>
       <c r="CV132" s="33">
-        <v>63.141454256123964</v>
+        <v>63.276755610098633</v>
       </c>
       <c r="CW132" s="33">
-        <v>53.8978303089402</v>
-      </c>
-      <c r="CX132" s="10"/>
+        <v>54.308562736368252</v>
+      </c>
+      <c r="CX132" s="33">
+        <v>60.124678806925672</v>
+      </c>
       <c r="CY132" s="10"/>
       <c r="CZ132" s="10"/>
       <c r="DA132" s="10"/>
@@ -46104,43 +46305,45 @@
       <c r="CK133" s="17">
         <v>7.1184132615069977</v>
       </c>
-      <c r="CL133" s="17">
+      <c r="CL133" s="33">
         <v>5.9439970027086755</v>
       </c>
-      <c r="CM133" s="17">
+      <c r="CM133" s="33">
         <v>4.3107201710975405</v>
       </c>
-      <c r="CN133" s="17">
+      <c r="CN133" s="33">
         <v>6.0621577036586327</v>
       </c>
-      <c r="CO133" s="17">
+      <c r="CO133" s="33">
         <v>7.5163596407541693</v>
       </c>
       <c r="CP133" s="33">
-        <v>5.6267655284495266</v>
+        <v>5.6839711954854506</v>
       </c>
       <c r="CQ133" s="33">
-        <v>4.0685476763826198</v>
+        <v>4.1326700499379321</v>
       </c>
       <c r="CR133" s="33">
-        <v>6.0583592891645592</v>
+        <v>6.111316268435389</v>
       </c>
       <c r="CS133" s="33">
-        <v>7.2158694084507191</v>
+        <v>7.2973504785752139</v>
       </c>
       <c r="CT133" s="33">
-        <v>5.5196845096590419</v>
+        <v>5.5926830152200955</v>
       </c>
       <c r="CU133" s="33">
-        <v>3.9084442689663144</v>
+        <v>3.963802439836539</v>
       </c>
       <c r="CV133" s="33">
-        <v>5.8679368109839913</v>
+        <v>5.9173840229840442</v>
       </c>
       <c r="CW133" s="33">
-        <v>6.9987149566259452</v>
-      </c>
-      <c r="CX133" s="10"/>
+        <v>7.1028522954480238</v>
+      </c>
+      <c r="CX133" s="33">
+        <v>5.2691962191117501</v>
+      </c>
       <c r="CY133" s="10"/>
       <c r="CZ133" s="10"/>
       <c r="DA133" s="10"/>
@@ -46284,10 +46487,10 @@
       <c r="CI134" s="12"/>
       <c r="CJ134" s="12"/>
       <c r="CK134" s="12"/>
-      <c r="CL134" s="12"/>
-      <c r="CM134" s="12"/>
-      <c r="CN134" s="12"/>
-      <c r="CO134" s="12"/>
+      <c r="CL134" s="29"/>
+      <c r="CM134" s="29"/>
+      <c r="CN134" s="29"/>
+      <c r="CO134" s="29"/>
       <c r="CP134" s="29"/>
       <c r="CQ134" s="29"/>
       <c r="CR134" s="29"/>
@@ -46296,7 +46499,7 @@
       <c r="CU134" s="29"/>
       <c r="CV134" s="29"/>
       <c r="CW134" s="29"/>
-      <c r="CX134" s="10"/>
+      <c r="CX134" s="29"/>
       <c r="CY134" s="10"/>
       <c r="CZ134" s="10"/>
       <c r="DA134" s="10"/>
@@ -46619,16 +46822,16 @@
       <c r="CK135" s="17">
         <v>100</v>
       </c>
-      <c r="CL135" s="17">
+      <c r="CL135" s="33">
         <v>100</v>
       </c>
-      <c r="CM135" s="17">
+      <c r="CM135" s="33">
         <v>100</v>
       </c>
-      <c r="CN135" s="17">
+      <c r="CN135" s="33">
         <v>100</v>
       </c>
-      <c r="CO135" s="17">
+      <c r="CO135" s="33">
         <v>100</v>
       </c>
       <c r="CP135" s="33">
@@ -46655,7 +46858,9 @@
       <c r="CW135" s="33">
         <v>100</v>
       </c>
-      <c r="CX135" s="10"/>
+      <c r="CX135" s="33">
+        <v>100</v>
+      </c>
       <c r="CY135" s="10"/>
       <c r="CZ135" s="10"/>
       <c r="DA135" s="10"/>
@@ -46800,10 +47005,10 @@
       <c r="CI136" s="15"/>
       <c r="CJ136" s="15"/>
       <c r="CK136" s="15"/>
-      <c r="CL136" s="15"/>
-      <c r="CM136" s="15"/>
-      <c r="CN136" s="15"/>
-      <c r="CO136" s="15"/>
+      <c r="CL136" s="31"/>
+      <c r="CM136" s="31"/>
+      <c r="CN136" s="31"/>
+      <c r="CO136" s="31"/>
       <c r="CP136" s="31"/>
       <c r="CQ136" s="31"/>
       <c r="CR136" s="31"/>
@@ -46812,6 +47017,7 @@
       <c r="CU136" s="31"/>
       <c r="CV136" s="31"/>
       <c r="CW136" s="31"/>
+      <c r="CX136" s="31"/>
     </row>
     <row r="137" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
@@ -46905,10 +47111,10 @@
       <c r="CI137" s="1"/>
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
-      <c r="CL137" s="1"/>
-      <c r="CM137" s="1"/>
-      <c r="CN137" s="1"/>
-      <c r="CO137" s="1"/>
+      <c r="CL137" s="25"/>
+      <c r="CM137" s="25"/>
+      <c r="CN137" s="25"/>
+      <c r="CO137" s="25"/>
       <c r="CP137" s="25"/>
       <c r="CQ137" s="25"/>
       <c r="CR137" s="25"/>
@@ -46917,6 +47123,7 @@
       <c r="CU137" s="25"/>
       <c r="CV137" s="25"/>
       <c r="CW137" s="25"/>
+      <c r="CX137" s="25"/>
     </row>
     <row r="138" spans="1:155" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -47008,10 +47215,10 @@
       <c r="CI138" s="11"/>
       <c r="CJ138" s="11"/>
       <c r="CK138" s="11"/>
-      <c r="CL138" s="11"/>
-      <c r="CM138" s="11"/>
-      <c r="CN138" s="11"/>
-      <c r="CO138" s="11"/>
+      <c r="CL138" s="35"/>
+      <c r="CM138" s="35"/>
+      <c r="CN138" s="35"/>
+      <c r="CO138" s="35"/>
       <c r="CP138" s="35"/>
       <c r="CQ138" s="35"/>
       <c r="CR138" s="35"/>
@@ -47020,7 +47227,7 @@
       <c r="CU138" s="35"/>
       <c r="CV138" s="35"/>
       <c r="CW138" s="35"/>
-      <c r="CX138" s="19"/>
+      <c r="CX138" s="35"/>
       <c r="CY138" s="19"/>
       <c r="CZ138" s="19"/>
       <c r="DA138" s="19"/>
@@ -47165,10 +47372,10 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="11"/>
-      <c r="CM139" s="11"/>
-      <c r="CN139" s="11"/>
-      <c r="CO139" s="11"/>
+      <c r="CL139" s="35"/>
+      <c r="CM139" s="35"/>
+      <c r="CN139" s="35"/>
+      <c r="CO139" s="35"/>
       <c r="CP139" s="35"/>
       <c r="CQ139" s="35"/>
       <c r="CR139" s="35"/>
@@ -47177,7 +47384,7 @@
       <c r="CU139" s="35"/>
       <c r="CV139" s="35"/>
       <c r="CW139" s="35"/>
-      <c r="CX139" s="19"/>
+      <c r="CX139" s="35"/>
       <c r="CY139" s="19"/>
       <c r="CZ139" s="19"/>
       <c r="DA139" s="19"/>
@@ -47234,6 +47441,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AH88:AK88"/>
+    <mergeCell ref="AL88:AO88"/>
+    <mergeCell ref="AP88:AS88"/>
+    <mergeCell ref="AT88:AW88"/>
+    <mergeCell ref="AX88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="BR69:BU69"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="BB69:BE69"/>
+    <mergeCell ref="BF69:BI69"/>
+    <mergeCell ref="BJ69:BM69"/>
+    <mergeCell ref="BN69:BQ69"/>
+    <mergeCell ref="BN88:BQ88"/>
+    <mergeCell ref="BJ88:BM88"/>
+    <mergeCell ref="BF88:BI88"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="V88:Y88"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V69:Y69"/>
+    <mergeCell ref="Z69:AC69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AX69:BA69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:U69"/>
+    <mergeCell ref="BB49:BE49"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="BB29:BE29"/>
+    <mergeCell ref="BR49:BU49"/>
+    <mergeCell ref="AP69:AS69"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BQ29"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BA49"/>
+    <mergeCell ref="BF49:BI49"/>
+    <mergeCell ref="BJ49:BM49"/>
+    <mergeCell ref="BN49:BQ49"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR29:BU29"/>
     <mergeCell ref="BV29:BY29"/>
@@ -47258,138 +47588,15 @@
     <mergeCell ref="BZ69:CC69"/>
     <mergeCell ref="BZ29:CC29"/>
     <mergeCell ref="BV49:BY49"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BQ29"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BA49"/>
-    <mergeCell ref="BF49:BI49"/>
-    <mergeCell ref="BJ49:BM49"/>
-    <mergeCell ref="BN49:BQ49"/>
-    <mergeCell ref="BR49:BU49"/>
-    <mergeCell ref="AP69:AS69"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF29:BI29"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BA29"/>
-    <mergeCell ref="BB29:BE29"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V69:Y69"/>
-    <mergeCell ref="Z69:AC69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AX69:BA69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:U69"/>
-    <mergeCell ref="BB49:BE49"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="V88:Y88"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AH88:AK88"/>
-    <mergeCell ref="AL88:AO88"/>
-    <mergeCell ref="AP88:AS88"/>
-    <mergeCell ref="AT88:AW88"/>
-    <mergeCell ref="AX88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="BR69:BU69"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="BB69:BE69"/>
-    <mergeCell ref="BF69:BI69"/>
-    <mergeCell ref="BJ69:BM69"/>
-    <mergeCell ref="BN69:BQ69"/>
-    <mergeCell ref="BN88:BQ88"/>
-    <mergeCell ref="BJ88:BM88"/>
-    <mergeCell ref="BF88:BI88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="100" man="1"/>
-    <brk id="80" max="100" man="1"/>
-    <brk id="99" max="100" man="1"/>
+    <brk id="40" max="101" man="1"/>
+    <brk id="80" max="101" man="1"/>
+    <brk id=